--- a/data/task2_no_val_cleaned.xlsx
+++ b/data/task2_no_val_cleaned.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D401"/>
+  <dimension ref="A1:E401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,2802 +376,2802 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1.结合临床,右乳癌术后,纵隔、双肺门淋巴结转移,左肺转移,左肾上腺转移,均较前(2015-11-5)示好转;骨转移,变化不著2.双肺炎症,变化不著3.心包积液4.肝囊肿右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结,大者直径约0.7CM。左肺野示数个结节灶,大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶,直径约0.9CM。胆、胰、脾及扫描野内双肾未见异常。腹膜后未见肿大淋巴结。部分部分胸腰椎及肋骨示溶骨性骨质破坏。</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.结合临床，右乳癌术后，纵隔、双肺门淋巴结转移，左肺转移，左肾上腺转移，均较前(2015-11-5)示好转；骨转移，变化不著2.双肺炎症，变化不著3.心包积液4.肝囊肿右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结，大者直径约0.7CM。左肺野示数个结节灶，大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶，直径约0.9CM。胆、胰、脾及扫描野内双肾未见异常。腹膜后未见肿大淋巴结。部分部分胸腰椎及肋骨示溶骨性骨质破坏。</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1.右肺下叶占位,恶性;右侧肺门和纵隔多发肿大淋巴结,考虑转移;右侧胸腔少量积液征象;2.右肺少许炎症可能。3.双侧肺(52、49、40、37、19)小结节,请随诊。右肺下叶(18)见肿块影,边界尚清,大小约为,6.2CM×5.0CM,其内密度欠均匀,CT值约为21-37HU,增强扫描病灶周围呈明显强化,中央可见不强化坏死区,右肺下叶部分支气管截断,右侧肺门和纵隔内见异常增大的淋巴结影,增强扫描呈明显环形强化。右肺叶见斑片模糊影。两肺纹理增强。右侧胸腔少量积液征象。主动脉、冠状动脉壁钙化。</t>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.右肺下叶占位，恶性；右侧肺门和纵隔多发肿大淋巴结，考虑转移；右侧胸腔少量积液征象；2.右肺少许炎症可能。3.双侧肺(52、49、40、37、19)小结节，请随诊。右肺下叶(18)见肿块影，边界尚清，大小约为，6.2CM×5.0CM，其内密度欠均匀，CT值约为21-37HU，增强扫描病灶周围呈明显强化，中央可见不强化坏死区，右肺下叶部分支气管截断，右侧肺门和纵隔内见异常增大的淋巴结影，增强扫描呈明显环形强化。右肺叶见斑片模糊影。两肺纹理增强。右侧胸腔少量积液征象。主动脉、冠状动脉壁钙化。</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>右肺下叶外侧基底段示一软组织密度结节灶,截面约2.7CM×3.2CM,密度不均,边缘毛糙,其远侧可见粗大条索影与后胸膜相连,增强扫描示轻度强化。余两肺野清晰,肺门及纵隔内未见确切肿大淋巴结影。胸腔内无积液征象。脑实质内示数个低密度结节灶,大者直径约1.2CM,位于左额叶,增强扫描示边缘轻度强化,病灶周围脑组织无水肿征象。中线结构居中。脑室池无扩张移位。骨质未见明显异常。	1.右肺占位,考虑右肺癌较前2016-8-9增大。2.脑转移,较前2016-8-9变化不著。</t>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>右肺下叶外侧基底段示一软组织密度结节灶，截面约2.7CM×3.2CM，密度不均，边缘毛糙，其远侧可见粗大条索影与后胸膜相连，增强扫描示轻度强化。余两肺野清晰，肺门及纵隔内未见确切肿大淋巴结影。胸腔内无积液征象。脑实质内示数个低密度结节灶，大者直径约1.2CM，位于左额叶，增强扫描示边缘轻度强化，病灶周围脑组织无水肿征象。中线结构居中。脑室池无扩张移位。骨质未见明显异常。	1.右肺占位，考虑右肺癌较前2016-8-9增大。2.脑转移，较前2016-8-9变化不著。</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>右肺中叶近肺门处示不规则软组织密度影,远侧肺组织示实变征象,周围多发多发条索状及斑片状密度增高影,与周围组织关系密切,增强扫描示中度强化。右肺中叶外侧段见一磨玻璃密度结节;另右肺中叶示一类圆形结节灶(图3-38),直径约0.5CM,边界清。余双肺野内散在囊泡状过度透光灶。右肺门及纵隔示多发肿大淋巴结,部分融合成团,大者位于右肺门,与肺门区病变分界不清。右侧胸腔示少量液体密度影。肝脏示低密度影,边界清晰,增强扫描未见强化,余肝实质未见异常密度影。胆囊、胰腺、脾、双肾、未见异常,右侧肾上腺外支见一结节灶,直径约0.8CM,边缘光滑,密度均匀。腹腔腹膜后未见肿大淋巴结影。	1.右肺癌,较前(2016-12-21)片不易比较;右肺炎症及肺不张较前加重;右肺门及纵隔淋巴结转移,部分不易比较,考虑变化不著。2.双肺气肿。3.右肺磨玻璃结节(考虑良性),变化不著;右肺中叶新发结节灶,建议密切观察除外转移。4.肝囊肿。5.右肾上腺小结节,考虑腺瘤可能性大,变化不著。6.右侧胸腔少量积液。</t>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>右肺中叶近肺门处示不规则软组织密度影，远侧肺组织示实变征象，周围多发多发条索状及斑片状密度增高影，与周围组织关系密切，增强扫描示中度强化。右肺中叶外侧段见一磨玻璃密度结节；另右肺中叶示一类圆形结节灶(图3-38)，直径约0.5CM，边界清。余双肺野内散在囊泡状过度透光灶。右肺门及纵隔示多发肿大淋巴结，部分融合成团，大者位于右肺门，与肺门区病变分界不清。右侧胸腔示少量液体密度影。肝脏示低密度影，边界清晰，增强扫描未见强化，余肝实质未见异常密度影。胆囊、胰腺、脾、双肾、未见异常，右侧肾上腺外支见一结节灶，直径约0.8CM，边缘光滑，密度均匀。腹腔腹膜后未见肿大淋巴结影。	1.右肺癌，较前(2016-12-21)片不易比较；右肺炎症及肺不张较前加重；右肺门及纵隔淋巴结转移，部分不易比较，考虑变化不著。2.双肺气肿。3.右肺磨玻璃结节(考虑良性)，变化不著；右肺中叶新发结节灶，建议密切观察除外转移。4.肝囊肿。5.右肾上腺小结节，考虑腺瘤可能性大，变化不著。6.右侧胸腔少量积液。</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>右侧乳腺术后,术区胸壁部分胸肌尚存,右侧胸壁近胸骨旁软组织增厚,相邻胸骨骨质破坏。扫描野内右侧颈后三角区、右侧内乳区及纵隔内见多发增大淋巴结,部分边界欠清。左侧乳腺未见异常。左侧腋窝见直径不足1.0CM淋巴结。双肺野见数个结节灶,大者直径不足1.0CM。甲状腺内示低密度灶,边界欠清。部分肋骨及椎骨骨质密度不均,左侧部分肋骨骨质欠连续。	1.结合临床,右侧乳腺癌术后,右侧胸壁复发并累及胸骨治疗后,较前(2016-11-8)略好转;右侧颈部、右侧内乳区、纵隔淋巴结转移治疗后,部分缩小,部分变化不著2.左侧腋窝淋巴结稍大,略缩小3.双肺结节灶,不除外转移,变化不著4.部分肋骨及椎骨骨质密度不均,基本变化不著5.甲状腺低密度灶,变化不著。</t>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>右侧乳腺术后，术区胸壁部分胸肌尚存，右侧胸壁近胸骨旁软组织增厚，相邻胸骨骨质破坏。扫描野内右侧颈后三角区、右侧内乳区及纵隔内见多发增大淋巴结，部分边界欠清。左侧乳腺未见异常。左侧腋窝见直径不足1.0CM淋巴结。双肺野见数个结节灶，大者直径不足1.0CM。甲状腺内示低密度灶，边界欠清。部分肋骨及椎骨骨质密度不均，左侧部分肋骨骨质欠连续。	1.结合临床，右侧乳腺癌术后，右侧胸壁复发并累及胸骨治疗后，较前(2016-11-8)略好转；右侧颈部、右侧内乳区、纵隔淋巴结转移治疗后，部分缩小，部分变化不著2.左侧腋窝淋巴结稍大，略缩小3.双肺结节灶，不除外转移，变化不著4.部分肋骨及椎骨骨质密度不均，基本变化不著5.甲状腺低密度灶，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后2.右肺占位,考虑肺癌,较前(2016-8-29)基本变化不著3.右肺门及纵隔淋巴结肿大,考虑转移,变化不著;右锁上淋巴结稍大,变化不著4.右侧胸膜增厚并结节灶,变化不著;左肺类结节灶,建议观察5.胆囊炎6.甲状腺左侧叶低密度灶,变化不著7.左侧上颌窦炎。右乳术后缺如,术区结构紊乱,周围间隙模糊,未见明确异常强化。左乳及左侧腋窝未见明确异常。右肺尖见不规则软组织密度影,其边缘可见小空洞影,边缘分叶、模糊,并可见胸膜牵拉征,截面积约3.5CM×2.2CM;增强扫描呈较显著不均匀强化。右肺上叶及中叶见少许条索状密度增高影。左肺上叶示小类结节灶。右肺门、纵隔内2R、3A、4R、7区见多发增大淋巴结,大者短径约1.4CM,增强扫描呈不均匀强化。右锁上见稍大淋巴结,短径约0.5CM。右侧胸膜局部增厚呈结节状,直径约0.6CM,呈较显著不均匀强化。胆囊充盈好,壁略厚。肝脏、胰腺、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。甲状腺左侧叶见小低密度灶,边界尚清,直径约0.5CM。左侧上颌窦粘膜增厚。双侧颈后三角区见大者短径约0.5CM小淋巴结。	</t>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后2.右肺占位，考虑肺癌，较前(2016-8-29)基本变化不著3.右肺门及纵隔淋巴结肿大，考虑转移，变化不著；右锁上淋巴结稍大，变化不著4.右侧胸膜增厚并结节灶，变化不著；左肺类结节灶，建议观察5.胆囊炎6.甲状腺左侧叶低密度灶，变化不著7.左侧上颌窦炎。右乳术后缺如，术区结构紊乱，周围间隙模糊，未见明确异常强化。左乳及左侧腋窝未见明确异常。右肺尖见不规则软组织密度影，其边缘可见小空洞影，边缘分叶、模糊，并可见胸膜牵拉征，截面积约3.5CM×2.2CM；增强扫描呈较显著不均匀强化。右肺上叶及中叶见少许条索状密度增高影。左肺上叶示小类结节灶。右肺门、纵隔内2R、3A、4R、7区见多发增大淋巴结，大者短径约1.4CM，增强扫描呈不均匀强化。右锁上见稍大淋巴结，短径约0.5CM。右侧胸膜局部增厚呈结节状，直径约0.6CM，呈较显著不均匀强化。胆囊充盈好，壁略厚。肝脏、胰腺、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。甲状腺左侧叶见小低密度灶，边界尚清，直径约0.5CM。左侧上颌窦粘膜增厚。双侧颈后三角区见大者短径约0.5CM小淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1.左肺门肿块,考虑中央型肺癌伴远端阻塞性肺不张可能性大,左锁骨区、纵隔、左肺门淋巴转移、左肺动脉受侵可能,请结合临床详查;2.右肺下叶少许炎症;3.双侧胸腔少量积液征象。4.右侧肾上腺结节,转移?。左肺门团块状密度增高影,大小约4.5CM×4.9CM,CT值:53HU;增强后病灶明显强化,三期CT值分别75HU、68HU、61HU。左侧支气管腔变窄、截断,其远端肺组织不张。右肺下叶少许淡片状密度增高影。左锁骨区、纵隔、左肺门淋巴结增大,呈融合趋势。左肺动脉与病灶界限不清,模糊。两胸腔少量积液征象。心脏不大,所示骨质未见明显异常。</t>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.左肺门肿块，考虑中央型肺癌伴远端阻塞性肺不张可能性大，左锁骨区、纵隔、左肺门淋巴转移、左肺动脉受侵可能，请结合临床详查；2.右肺下叶少许炎症；3.双侧胸腔少量积液征象。4.右侧肾上腺结节，转移?。左肺门团块状密度增高影，大小约4.5CM×4.9CM，CT值：53HU；增强后病灶明显强化，三期CT值分别75HU、68HU、61HU。左侧支气管腔变窄、截断，其远端肺组织不张。右肺下叶少许淡片状密度增高影。左锁骨区、纵隔、左肺门淋巴结增大，呈融合趋势。左肺动脉与病灶界限不清，模糊。两胸腔少量积液征象。心脏不大，所示骨质未见明显异常。</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,直肠癌术后,双肺转移瘤,较前2016-03-15部分缩小,部分略饱满,部分变化不著2.双侧胸膜略增厚,变化不著4.甲状腺低密度灶,变化不著。双肺近胸膜下示多个结节灶及肿块,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约3.0CM(纵隔窗),内示小空泡影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶,边缘较清晰。	</t>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，直肠癌术后，双肺转移瘤，较前2016-03-15部分缩小，部分略饱满，部分变化不著2.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.0CM(纵隔窗)，内示小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,左乳癌术后;卵巢转移术后,术区片状低密度影,较前2015-10-9变化不著2.网膜、肠系膜及盆腹膜转移治疗后,较前好转3.脂肪肝;肝囊肿;肝内低密度灶,变化不著4.右肾囊肿5.宫颈体积增大,变化不著6.胸腰骶椎、肋骨、髋骨骨质密度增高,考虑转移,较前变化不著7.腹腔少量积液,较前变化不著。左乳术后缺如,术区结构紊乱,周围脂肪间隙模糊,部分胸肌尚存,术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱。右乳未见明确异常。左侧锁骨上间隙较模糊。左肺门示短径约0.6CM淋巴结。右侧腋窝、双侧内乳区、右肺门及纵隔未见明确肿大淋巴结。左肺示少许斑片影。右肺未见明确异常密度灶。肝脏密度减低,内见囊性密度灶,边界较清,直径约2.0CM。另肝内示斑片状低密度灶,强化不著,边界欠清。胆囊、胰腺、脾、双侧肾上腺及左肾未见明确异常。右肾见短径不足0.5CM的小低密度灶。腹腔内肝胃韧带区、腹膜后腹主动脉周围见小淋巴结,大者短径约0.6CM。网膜及肠系膜、盆腹膜示增厚,局部呈斑片状及结节状改变,部分与邻近肠管分界不清,增强呈不均匀强化。腹腔内可见液性密度影。卵巢术后,术区结构紊乱,周围间隙模糊,可见片状低密度影,与周围结构分界不清。宫颈体积增大,密度欠均匀。膀胱充盈可,壁略增厚。盆腔内未见明确肿大淋巴结。多发胸腰骶椎椎体及附件、双侧部分肋骨、双侧髋骨示骨质密度增高,局部可见结节状高密度影。双侧肱骨、股骨及左侧肩胛骨密度欠均。	</t>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，左乳癌术后；卵巢转移术后，术区片状低密度影，较前2015-10-9变化不著2.网膜、肠系膜及盆腹膜转移治疗后，较前好转3.脂肪肝；肝囊肿；肝内低密度灶，变化不著4.右肾囊肿5.宫颈体积增大，变化不著6.胸腰骶椎、肋骨、髋骨骨质密度增高，考虑转移，较前变化不著7.腹腔少量积液，较前变化不著。左乳术后缺如，术区结构紊乱，周围脂肪间隙模糊，部分胸肌尚存，术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱。右乳未见明确异常。左侧锁骨上间隙较模糊。左肺门示短径约0.6CM淋巴结。右侧腋窝、双侧内乳区、右肺门及纵隔未见明确肿大淋巴结。左肺示少许斑片影。右肺未见明确异常密度灶。肝脏密度减低，内见囊性密度灶，边界较清，直径约2.0CM。另肝内示斑片状低密度灶，强化不著，边界欠清。胆囊、胰腺、脾、双侧肾上腺及左肾未见明确异常。右肾见短径不足0.5CM的小低密度灶。腹腔内肝胃韧带区、腹膜后腹主动脉周围见小淋巴结，大者短径约0.6CM。网膜及肠系膜、盆腹膜示增厚，局部呈斑片状及结节状改变，部分与邻近肠管分界不清，增强呈不均匀强化。腹腔内可见液性密度影。卵巢术后，术区结构紊乱，周围间隙模糊，可见片状低密度影，与周围结构分界不清。宫颈体积增大，密度欠均匀。膀胱充盈可，壁略增厚。盆腔内未见明确肿大淋巴结。多发胸腰骶椎椎体及附件、双侧部分肋骨、双侧髋骨示骨质密度增高，局部可见结节状高密度影。双侧肱骨、股骨及左侧肩胛骨密度欠均。	</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>左肺癌并左肺多发、左胸膜、叶间裂及心包转移,较2011-02-21片进展,请结合临床。左下肺见不规则形软组织密度影,部分病灶相互融合,最大截面约7.30CM×5.50CM,CT值约49HU,左肺下叶支气管变窄,远端截断,左肺内可见多发大小不等类圆形高密度影;纵隔内可见稍增大的淋巴结影;左侧胸膜及叶间裂明显增厚,可见条形及结节样软组织密度影,左侧心隔角区可见多发结节影。</t>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>左肺癌并左肺多发、左胸膜、叶间裂及心包转移，较2011-02-21片进展，请结合临床。左下肺见不规则形软组织密度影，部分病灶相互融合，最大截面约7.30CM×5.50CM，CT值约49HU，左肺下叶支气管变窄，远端截断，左肺内可见多发大小不等类圆形高密度影；纵隔内可见稍增大的淋巴结影；左侧胸膜及叶间裂明显增厚，可见条形及结节样软组织密度影，左侧心隔角区可见多发结节影。</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>双乳呈脂肪型。左乳外上象限可见结节样密度增高影,大小约1.5CM×1.7CM影,其密度中等,边缘分叶,模糊,未见恶性钙化征象。同侧乳头无凹陷。皮肤无增厚。右乳未见异常。左侧腋窝见肿大淋巴结影,直径约2.0CM。右腋下示稍大淋巴结影,内可见脂肪密度影。	1.\T结合临床,左乳CA并作出腋窝淋巴结转移(BI-RADS5)2.\T右乳未见异常。</t>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>双乳呈脂肪型。左乳外上象限可见结节样密度增高影，大小约1.5CM×1.7CM影，其密度中等，边缘分叶，模糊，未见恶性钙化征象。同侧乳头无凹陷。皮肤无增厚。右乳未见异常。左侧腋窝见肿大淋巴结影，直径约2.0CM。右腋下示稍大淋巴结影，内可见脂肪密度影。	1.\T结合临床，左乳CA并作出腋窝淋巴结转移(BI-RADS5)2.\T右乳未见异常。</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>右乳术后,腋窝、双侧内乳区、双肺门及纵隔未见明确肿大淋巴结。右肺下叶、左肺下叶见两个类磨玻璃密度影,边界尚清,大者直径约0.4CM。左侧叶间胸膜见一类结节灶,直径约0.3CM。扫描野内胆囊内见一小结节灶,直径约0.3CM。扫描野内骨质未见明显破坏。	1.结合临床,右乳癌并右侧腋窝淋巴结转移术后状态。2.双肺类磨玻璃密度灶,较前变化不著3.左侧叶间胸膜类结节灶,变化不著4.胆囊内结节灶,考虑息肉可能性大,较前变化不著。</t>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>右乳术后，腋窝、双侧内乳区、双肺门及纵隔未见明确肿大淋巴结。右肺下叶、左肺下叶见两个类磨玻璃密度影，边界尚清，大者直径约0.4CM。左侧叶间胸膜见一类结节灶，直径约0.3CM。扫描野内胆囊内见一小结节灶，直径约0.3CM。扫描野内骨质未见明显破坏。	1.结合临床，右乳癌并右侧腋窝淋巴结转移术后状态。2.双肺类磨玻璃密度灶，较前变化不著3.左侧叶间胸膜类结节灶，变化不著4.胆囊内结节灶，考虑息肉可能性大，较前变化不著。</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,卵巢癌并腹膜网膜转移,腹盆腔积液;盆腔小淋巴结3.右乳结节及类结节,乳癌可能,请结合临床4.双肺少许炎症及纤维灶。右乳内上象限见一长径约1.1CM结节灶,边缘不清,密度不均,增强后呈中等不均匀强化;另其内侧局部结构紊乱,呈一类结节状改变,长径约1.0CM,强化较显著,边缘毛糙。双肺见少许斑片索条影。双侧肺门及纵隔、内乳区及腋窝未见肿大淋巴结。双侧附件区见囊实性结节,大者截面3.3CM×2.1CM,增强后实性成分可见中等强化,边缘不清。宫腔见液性密度影,宫颈见小囊性结节,未见强化。盆腔见短径不足0.5CM小淋巴结。腹膜、网膜及肠系膜增厚,增强后可见强化;腹盆腔见液性密度影。膀胱充盈良好,壁未见增厚。	</t>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，卵巢癌并腹膜网膜转移，腹盆腔积液；盆腔小淋巴结3.右乳结节及类结节，乳癌可能，请结合临床4.双肺少许炎症及纤维灶。右乳内上象限见一长径约1.1CM结节灶，边缘不清，密度不均，增强后呈中等不均匀强化；另其内侧局部结构紊乱，呈一类结节状改变，长径约1.0CM，强化较显著，边缘毛糙。双肺见少许斑片索条影。双侧肺门及纵隔、内乳区及腋窝未见肿大淋巴结。双侧附件区见囊实性结节，大者截面3.3CM×2.1CM，增强后实性成分可见中等强化，边缘不清。宫腔见液性密度影，宫颈见小囊性结节，未见强化。盆腔见短径不足0.5CM小淋巴结。腹膜、网膜及肠系膜增厚，增强后可见强化；腹盆腔见液性密度影。膀胱充盈良好，壁未见增厚。	</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>右肺上叶尖段可见软组织密度影,最大截面约0.9CM×1.0CM(纵隔窗),边缘浅分叶可见细毛刺,内缘有长毛刺与纵隔相连,增强扫描呈中等不均匀性强化;余双肺野较清晰,未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。肝脏形态、大小可,左叶局限性灌注不均。肝内外胆管未见扩张。胆囊充盈可,壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示:双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏,以成骨性为主,部分肋骨形态欠规则,略呈膨胀性改变。	1.结合临床,右肺上叶癌侵及脏层胸膜治疗后,较前(2016-12-12)基本变化不著;多发骨转移,变化不著2.右乳腺体局部密度增高,变化不著;肝左叶低密度影,变化不著。</t>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>右肺上叶尖段可见软组织密度影，最大截面约0.9CM×1.0CM(纵隔窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。肝脏形态、大小可，左叶局限性灌注不均。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示：双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏，以成骨性为主，部分肋骨形态欠规则，略呈膨胀性改变。	1.结合临床，右肺上叶癌侵及脏层胸膜治疗后，较前(2016-12-12)基本变化不著；多发骨转移，变化不著2.右乳腺体局部密度增高，变化不著；肝左叶低密度影，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右肺上叶癌侵及脏层胸膜并双侧锁骨上区、右肺门及纵隔淋巴结转移,骨转移,较前变化不著2.双肺微小结节及双侧肾上腺饱满,变化不著。右肺上叶尖段可见软组织肿块影,最大截面约1.2CM×1.6CM,边缘浅分叶可见细毛刺,内缘有长毛刺与纵隔相连,增强扫描呈中等不均匀性强化;右肺野可见一类结节灶、左肺上叶,大者直径约0.3CM。双侧锁骨上区、右肺门、纵隔内右侧气管食管沟、气管右前、腔静脉后、血管前、主肺动脉窗区及隆突下可见肿大淋巴结,大者短径约1.2CM。肝脏形态、大小可,实质密度均质。肝内外胆管未见扩张。胆囊充盈可,壁不厚。胰、脾、扫描野内双肾形态大小密度未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。骨窗示锁骨、肋骨、椎体可见多发骨质破坏。	</t>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右肺上叶癌侵及脏层胸膜并双侧锁骨上区、右肺门及纵隔淋巴结转移，骨转移，较前变化不著2.双肺微小结节及双侧肾上腺饱满，变化不著。右肺上叶尖段可见软组织肿块影，最大截面约1.2CM×1.6CM，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；右肺野可见一类结节灶、左肺上叶，大者直径约0.3CM。双侧锁骨上区、右肺门、纵隔内右侧气管食管沟、气管右前、腔静脉后、血管前、主肺动脉窗区及隆突下可见肿大淋巴结，大者短径约1.2CM。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾形态大小密度未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。骨窗示锁骨、肋骨、椎体可见多发骨质破坏。	</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>右肺下叶支气管局部狭窄截断,周围示软组织密度肿块影,其与右肺门肿大淋巴结、远端不张肺组织分界不清,大小不易测量,增强后呈不均匀明显强化;邻近右肺野示不规则形斑片影,牵拉胸膜;余右肺野散在数个结节灶,大者长径约1.0CM,部分局部牵拉胸膜。气管及余各支气管通畅。右侧气管食管沟、腔静脉后、主肺动脉窗区、主动脉弓旁、隆突下、右侧心膈角区及右肺门示增大淋巴结,大者短径约0.6CM。右侧胸膜增厚,局部呈小结节状,大者直径约0.3CM;右侧胸腔内示弧形液体密度影。心包内示少量液体密度影。右侧乳腺术后缺如,术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区及锁骨上区未见明显肿大淋巴结。肝右叶示颗粒状钙化密度影。胆囊充盈可,壁稍厚并可见强化。胰腺、脾、双肾上腺及扫描范围内双肾未见确切异常。腹腔及腹膜后未见明显肿大淋巴结。左侧大脑内示多发结节、肿块影,大者截面约4.2CM×3.1CM,密度不均匀,周围示大片无强化的低密度水肿带,邻近侧脑室局部略示受压变形,增强后病灶呈环形明显强化。中线结构略右偏。双侧上颌窦内示液体密度影。骨窗:胸骨柄右侧、胸骨下段及右侧第12肋局部骨质密度不均匀增高。	1.结合临床,右侧中心型肺癌并阻塞性肺不张较前2014-8-18变化不著,右肺门及纵隔淋巴结转移,右胸膜转移,骨转移,较前变化不著;脑转移较前略好转2.右侧胸腔积液、心包积液3.右肺结节,建议观察4.右侧乳腺术后改变5.肝内钙化灶6.胆囊炎7.双上颌窦炎。</t>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>右肺下叶支气管局部狭窄截断，周围示软组织密度肿块影，其与右肺门肿大淋巴结、远端不张肺组织分界不清，大小不易测量，增强后呈不均匀明显强化；邻近右肺野示不规则形斑片影，牵拉胸膜；余右肺野散在数个结节灶，大者长径约1.0CM，部分局部牵拉胸膜。气管及余各支气管通畅。右侧气管食管沟、腔静脉后、主肺动脉窗区、主动脉弓旁、隆突下、右侧心膈角区及右肺门示增大淋巴结，大者短径约0.6CM。右侧胸膜增厚，局部呈小结节状，大者直径约0.3CM；右侧胸腔内示弧形液体密度影。心包内示少量液体密度影。右侧乳腺术后缺如，术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区及锁骨上区未见明显肿大淋巴结。肝右叶示颗粒状钙化密度影。胆囊充盈可，壁稍厚并可见强化。胰腺、脾、双肾上腺及扫描范围内双肾未见确切异常。腹腔及腹膜后未见明显肿大淋巴结。左侧大脑内示多发结节、肿块影，大者截面约4.2CM×3.1CM，密度不均匀，周围示大片无强化的低密度水肿带，邻近侧脑室局部略示受压变形，增强后病灶呈环形明显强化。中线结构略右偏。双侧上颌窦内示液体密度影。骨窗：胸骨柄右侧、胸骨下段及右侧第12肋局部骨质密度不均匀增高。	1.结合临床，右侧中心型肺癌并阻塞性肺不张较前2014-8-18变化不著，右肺门及纵隔淋巴结转移，右胸膜转移，骨转移，较前变化不著；脑转移较前略好转2.右侧胸腔积液、心包积液3.右肺结节，建议观察4.右侧乳腺术后改变5.肝内钙化灶6.胆囊炎7.双上颌窦炎。</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌较前(2016-3-9)变化不著;双肺转移较前大部分变化不著,少部分较前增大,少部分缩小;肝转移、纵隔淋巴结转移较前变化不著;右侧内乳区饱满,变化不著;原脑转移瘤显示不清2.左胸膜局限性增厚,局部钙化,变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影,约6.8CM×5.3CM,边缘分叶,局部与周围腺体及乳头区皮肤分界不清,胸肌间脂肪间隙模糊,增强扫描见显著不均匀强化,其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结,大者短径约0.6CM。右侧内乳区显示饱满。纵隔内心包右旁、气管隆突下及左侧下肺静脉旁及下段食管旁见肿大淋巴结影,大者短径约1.0CM。双肺野散在分布大小不等结节灶,大者直径约1.5CM,边缘清晰,局部与胸膜及纵隔关系密切,增强扫描可见强化。左胸膜增厚,局部呈结节样;局部见多发钙化灶并致局部肋骨欠规则。肝实质内见多个低密度灶,大者直径约0.3CM,边缘尚清晰,增强扫描边缘强化显著。胆囊充盈可,壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内未见异常密度影,脑沟、脑池未见增宽或狭窄,脑室大小、形态,位置正常,中线结构居中。增强:脑实质未见异常强化,脑沟、脑池、脑室内未见异常。	</t>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌较前(2016-3-9)变化不著；双肺转移较前大部分变化不著，少部分较前增大，少部分缩小；肝转移、纵隔淋巴结转移较前变化不著；右侧内乳区饱满，变化不著；原脑转移瘤显示不清2.左胸膜局限性增厚，局部钙化，变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影，约6.8CM×5.3CM，边缘分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结，大者短径约0.6CM。右侧内乳区显示饱满。纵隔内心包右旁、气管隆突下及左侧下肺静脉旁及下段食管旁见肿大淋巴结影，大者短径约1.0CM。双肺野散在分布大小不等结节灶，大者直径约1.5CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。肝实质内见多个低密度灶，大者直径约0.3CM，边缘尚清晰，增强扫描边缘强化显著。胆囊充盈可，壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内未见异常密度影，脑沟、脑池未见增宽或狭窄，脑室大小、形态，位置正常，中线结构居中。增强：脑实质未见异常强化，脑沟、脑池、脑室内未见异常。	</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>左乳外上象限可见一软组织肿块影,最大截面约1.1CM×1.6CM,边缘浅分叶毛糙,增强扫描持续性强化,余左乳可见多发结节状片状强化灶。右乳未见异常。左侧腋窝、胸肌后方可见多发稍淋巴结,大者短径约0.6CM。双肺野清晰,肺内未见实质性病变。双肺门及纵隔内未见肿大淋巴结。脑实质密度均质,其内未见异常密度灶,增强扫描未见异常强化。诸脑室池未见扩张,中线结构居中。	1.左乳占位,考虑乳腺癌并左侧腋窝、胸肌后方淋巴结转移2.颅脑扫描未见异常。</t>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>左乳外上象限可见一软组织肿块影，最大截面约1.1CM×1.6CM，边缘浅分叶毛糙，增强扫描持续性强化，余左乳可见多发结节状片状强化灶。右乳未见异常。左侧腋窝、胸肌后方可见多发稍淋巴结，大者短径约0.6CM。双肺野清晰，肺内未见实质性病变。双肺门及纵隔内未见肿大淋巴结。脑实质密度均质，其内未见异常密度灶，增强扫描未见异常强化。诸脑室池未见扩张，中线结构居中。	1.左乳占位，考虑乳腺癌并左侧腋窝、胸肌后方淋巴结转移2.颅脑扫描未见异常。</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>右肺下叶可见不规则软组织密度影,与右肺门分界不清,边缘毛糙,分叶状,长径约为1.6CM×1.5CM,右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影,部分边缘毛糙;纵隔内未见增大淋巴结影。心包内见少许液性密度影。甲状腺增大。1.考虑右肺下叶肺癌,并双肺、右胸膜多发转移;较前CT(2016-01-05)右肺下叶肿块影略小,余较前片相仿。2.心包积液;3.甲状腺大;请结合临床。</t>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>右肺下叶可见不规则软组织密度影，与右肺门分界不清，边缘毛糙，分叶状，长径约为1.6CM×1.5CM，右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影，部分边缘毛糙；纵隔内未见增大淋巴结影。心包内见少许液性密度影。甲状腺增大。1.考虑右肺下叶肺癌，并双肺、右胸膜多发转移；较前CT(2016-01-05)右肺下叶肿块影略小，余较前片相仿。2.心包积液；3.甲状腺大；请结合临床。</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>右乳术后缺如,部分胸肌尚存,术区未见异常强化灶。右侧腋窝结构紊乱,局部示一囊性密度灶,直径约2.4CM,可见环形强化。左乳及左侧腋窝未见异常。双肺野示多发结节灶,边缘较清,大者直径约0.3CM。右肺上叶及左肺下叶可见条索状密度增高影。双肺门及纵隔未见增大淋巴结。肝实质内示数个低密度灶,边缘较模糊,可见轻度强化,大者直径约0.8CM。胆囊充盈可,壁不厚。胰、脾、双肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。膀胱充盈可,壁不厚。子宫及双侧附件未见异常。子宫及直肠陷窝区可见少量液性密度影。盆腔内未见肿大淋巴结。鼻咽、口咽及喉形态可,诸壁不厚。甲状腺形态大小密度可。双颈部肌间隙清晰,未见肿大淋巴结。骨窗示:部分胸腰椎及附件、部分肋骨、骶椎、右侧髂骨、双侧坐骨可见成骨性骨质破坏。	1.结合临床,右乳癌术后改变,双肺转移,较前2014-4-15略好转;肝转移,部分较前好转,部分变化不著;多发骨转移2.右侧腋窝囊性密度灶,较前变化不著3.部分胸腰椎及附件骨质密度增高,请结合其他检查4.盆腔少量积液5.颈部扫描未见异常。</t>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>右乳术后缺如，部分胸肌尚存，术区未见异常强化灶。右侧腋窝结构紊乱，局部示一囊性密度灶，直径约2.4CM，可见环形强化。左乳及左侧腋窝未见异常。双肺野示多发结节灶，边缘较清，大者直径约0.3CM。右肺上叶及左肺下叶可见条索状密度增高影。双肺门及纵隔未见增大淋巴结。肝实质内示数个低密度灶，边缘较模糊，可见轻度强化，大者直径约0.8CM。胆囊充盈可，壁不厚。胰、脾、双肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。膀胱充盈可，壁不厚。子宫及双侧附件未见异常。子宫及直肠陷窝区可见少量液性密度影。盆腔内未见肿大淋巴结。鼻咽、口咽及喉形态可，诸壁不厚。甲状腺形态大小密度可。双颈部肌间隙清晰，未见肿大淋巴结。骨窗示：部分胸腰椎及附件、部分肋骨、骶椎、右侧髂骨、双侧坐骨可见成骨性骨质破坏。	1.结合临床，右乳癌术后改变，双肺转移，较前2014-4-15略好转；肝转移，部分较前好转，部分变化不著；多发骨转移2.右侧腋窝囊性密度灶，较前变化不著3.部分胸腰椎及附件骨质密度增高，请结合其他检查4.盆腔少量积液5.颈部扫描未见异常。</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.左肺下叶癌,左肺门、纵隔淋巴结转移,较前2016-07-15范围基本变化不著,肿块内囊性坏死区较前增多,考虑略好转,请结合临床;淋巴结较前部分略增大,大部分变化不著2.双肺炎症,较前进展;双肺气肿3.左锁上淋巴结略大4.原片所示肝内低密度灶显示不清,建议观察5.左肾小囊肿。左肺下叶可见一不规则肿块,截面约7.2CM×7.0CM,边缘分叶,与胸膜关系密切,周围示斑片及絮状密度增高影,增强扫描病变呈较显著不均匀强化,其内见较多低密度坏死囊变区。双肺野见较多片状高密度影。余双肺多发泡状过度透光灶。左肺门及纵隔多发肿大淋巴结,大者短径约3.6CM。左锁上淋巴结略大,短径约0.6CM。肝实质密度均匀,未见异常密度灶。胆囊充盈可,壁略厚。胰脾肾上腺及右肾未见异常。左肾见囊性小结节灶。腹腔腹膜后未见明显肿大淋巴结。	</t>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.左肺下叶癌，左肺门、纵隔淋巴结转移，较前2016-07-15范围基本变化不著，肿块内囊性坏死区较前增多，考虑略好转，请结合临床；淋巴结较前部分略增大，大部分变化不著2.双肺炎症，较前进展；双肺气肿3.左锁上淋巴结略大4.原片所示肝内低密度灶显示不清，建议观察5.左肾小囊肿。左肺下叶可见一不规则肿块，截面约7.2CM×7.0CM，边缘分叶，与胸膜关系密切，周围示斑片及絮状密度增高影，增强扫描病变呈较显著不均匀强化，其内见较多低密度坏死囊变区。双肺野见较多片状高密度影。余双肺多发泡状过度透光灶。左肺门及纵隔多发肿大淋巴结，大者短径约3.6CM。左锁上淋巴结略大，短径约0.6CM。肝实质密度均匀，未见异常密度灶。胆囊充盈可，壁略厚。胰脾肾上腺及右肾未见异常。左肾见囊性小结节灶。腹腔腹膜后未见明显肿大淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>1.结合临床,左乳癌术后,术区小片影,较前(2016-4-5)范围略缩小;宫颈转移治疗后,变化不著;骨转移,较前胸椎周围软组织密度增厚,余基本变化不著2.左肺下叶类结节灶,变化不著;左肺纤维灶3.考虑子宫肌瘤,变化不著4.双侧附件略饱满,变化不著5.双侧腋窝、左锁上、腹腔、腹膜后及盆腔小淋巴结,较前基本变化不著6.双侧坐骨局限性骨质密度减低,右侧部分肋骨骨折,均变化不著左乳外侧局部结构紊乱,局部可见小斑片状强化影。左肺下叶见索条影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝、胸肌间及左锁上见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。左侧肾上腺饱满,肝、胆、胰、脾、右侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见大者短径约0.5CM小淋巴结。宫颈体积稍大,强化不均。宫体体积不规则增大,见多发软组织密度灶,增强后呈不均匀强化。双侧附件饱满。膀胱充盈良好,壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎骨及胸骨密度不均,部分周围示软组织密度影,以胸椎周围为著,与邻近结构分界不清。双侧坐骨局限性骨质密度减低。右侧部分肋骨骨质中断。</t>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1.结合临床，左乳癌术后，术区小片影，较前(2016-4-5)范围略缩小；宫颈转移治疗后，变化不著；骨转移，较前胸椎周围软组织密度增厚，余基本变化不著2.左肺下叶类结节灶，变化不著；左肺纤维灶3.考虑子宫肌瘤，变化不著4.双侧附件略饱满，变化不著5.双侧腋窝、左锁上、腹腔、腹膜后及盆腔小淋巴结，较前基本变化不著6.双侧坐骨局限性骨质密度减低，右侧部分肋骨骨折，均变化不著左乳外侧局部结构紊乱，局部可见小斑片状强化影。左肺下叶见索条影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝、胸肌间及左锁上见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。左侧肾上腺饱满，肝、胆、胰、脾、右侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见大者短径约0.5CM小淋巴结。宫颈体积稍大，强化不均。宫体体积不规则增大，见多发软组织密度灶，增强后呈不均匀强化。双侧附件饱满。膀胱充盈良好，壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎骨及胸骨密度不均，部分周围示软组织密度影，以胸椎周围为著，与邻近结构分界不清。双侧坐骨局限性骨质密度减低。右侧部分肋骨骨质中断。</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>肝脏大小形态可,实质内示低密度影,边界清晰,增强扫描未见强化,直径不足0.5CM。另肝左叶(2-51)动脉期见一长径约0.7CM强化结节,延迟呈等密度。胆囊不大,壁不厚。胰腺、双侧肾脏、双侧肾上腺及脾未见异常。腹腔及腹膜后未见肿大淋巴结。右乳术后,术区结构紊乱,胸肌存在,壁未见增厚及异常强化。右侧腋窝结构紊乱。左侧腋窝、双侧内乳区、肺门及纵隔未见增大淋巴结。左肺见小类结节,直径不足0.5CM。右肺见少许索条影。双侧胸膜未见增厚。双侧胸腔未见积液征象。鼻咽、口咽、喉及下咽未见异常。双颈见大者短径约0.9CM稍大淋巴结。双侧颈部未见增大淋巴结。椎体(4-51、6-36)局部密度增高。	1.结合临床,右乳癌术后;部分椎体密度增高,考虑转移,请结合ECT2.肝囊肿3.左肺类结节,建议观察;右肺少许纤维灶4.肝内强化灶,考虑血管瘤,建议观察5.双颈部淋巴结稍大。</t>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>肝脏大小形态可，实质内示低密度影，边界清晰，增强扫描未见强化，直径不足0.5CM。另肝左叶(2-51)动脉期见一长径约0.7CM强化结节，延迟呈等密度。胆囊不大，壁不厚。胰腺、双侧肾脏、双侧肾上腺及脾未见异常。腹腔及腹膜后未见肿大淋巴结。右乳术后，术区结构紊乱，胸肌存在，壁未见增厚及异常强化。右侧腋窝结构紊乱。左侧腋窝、双侧内乳区、肺门及纵隔未见增大淋巴结。左肺见小类结节，直径不足0.5CM。右肺见少许索条影。双侧胸膜未见增厚。双侧胸腔未见积液征象。鼻咽、口咽、喉及下咽未见异常。双颈见大者短径约0.9CM稍大淋巴结。双侧颈部未见增大淋巴结。椎体(4-51、6-36)局部密度增高。	1.结合临床，右乳癌术后；部分椎体密度增高，考虑转移，请结合ECT2.肝囊肿3.左肺类结节，建议观察；右肺少许纤维灶4.肝内强化灶，考虑血管瘤，建议观察5.双颈部淋巴结稍大。</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳内上象限结节灶,考虑右乳癌并右腋窝淋巴结转移2.颅脑扫描未见明确异常。右乳内上象限可见一不规则软组织密度灶,截面大小约1.3CM×1.2CM,边缘模糊可见浅分叶,并可见少许毛刺;增强后肿块呈较显著强化。右侧腋窝可见肿大淋巴结,大者短径约1.0CM,可见较显著强化。左乳未见异常。左腋窝及双侧内乳区未见明显肿大淋巴结。双侧肺野较清晰,肺野内未见实性占位。双肺门及纵隔内未见明显肿大淋巴结。双侧胸腔未见积液。扫描野内骨质未见明显破坏征象。脑实质密度正常,未见明显异常密度灶。脑室、池无扩张,脑沟、裂无增深,中线结构居中。颅骨诸骨质未见破坏。	</t>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳内上象限结节灶，考虑右乳癌并右腋窝淋巴结转移2.颅脑扫描未见明确异常。右乳内上象限可见一不规则软组织密度灶，截面大小约1.3CM×1.2CM，边缘模糊可见浅分叶，并可见少许毛刺；增强后肿块呈较显著强化。右侧腋窝可见肿大淋巴结，大者短径约1.0CM，可见较显著强化。左乳未见异常。左腋窝及双侧内乳区未见明显肿大淋巴结。双侧肺野较清晰，肺野内未见实性占位。双肺门及纵隔内未见明显肿大淋巴结。双侧胸腔未见积液。扫描野内骨质未见明显破坏征象。脑实质密度正常，未见明显异常密度灶。脑室、池无扩张，脑沟、裂无增深，中线结构居中。颅骨诸骨质未见破坏。	</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>结合病史,右乳癌累及右侧乳头、右腋窝淋巴结转移治疗后,较前(2014-06-19)MR片示好转。右乳头后方见一不规则异常信号影,边缘分叶、毛糙,局部累及右乳头致其凹陷,邻近皮肤略示增厚,表现为T1WI低信号,T2WI高信号,T2压脂序列高信号,DWI呈高信号,增强扫描可见显著强化,大小约1.5CM×1.7CM×2.0CM,时间-信号强度曲线为平台型。左乳增强前后未见异常。所扫双侧腋窝未见明显肿大淋巴结。余未见异常。</t>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>结合病史，右乳癌累及右侧乳头、右腋窝淋巴结转移治疗后，较前(2014-06-19)MR片示好转。右乳头后方见一不规则异常信号影，边缘分叶、毛糙，局部累及右乳头致其凹陷，邻近皮肤略示增厚，表现为T1WI低信号，T2WI高信号，T2压脂序列高信号，DWI呈高信号，增强扫描可见显著强化，大小约1.5CM×1.7CM×2.0CM，时间-信号强度曲线为平台型。左乳增强前后未见异常。所扫双侧腋窝未见明显肿大淋巴结。余未见异常。</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右肺癌治疗后,较前片2016-03-03略饱满;双肺类结节灶治疗后,变化不著;右肺门、纵隔淋巴结转移治疗后,较前变化不著。2.右肺下叶炎症、纤维灶,变化不著。3.右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影,变化不著。6.颅脑扫描未见明确异常。右肺下叶见不规则斑片状软组织影,边缘毛糙,大小不易测量,增强后中度强化;其远端肺野见斑片状及索条状密度增高影。余双肺可见小类结节灶,边缘模糊,大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结,大者短径不足1.0CM,部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝实质密度欠均匀,其内见一斑点状钙化灶。胆囊充盈可,壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶,大者短径约0.6CM。T12右侧椎弓根示斑片状密度增高影。脑实质密度均质,未见明确异常密度灶。脑室、池未见扩张,中线结构居中。	</t>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右肺癌治疗后，较前片2016-03-03略饱满；双肺类结节灶治疗后，变化不著；右肺门、纵隔淋巴结转移治疗后，较前变化不著。2.右肺下叶炎症、纤维灶，变化不著。3.右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影，变化不著。6.颅脑扫描未见明确异常。右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。余双肺可见小类结节灶，边缘模糊，大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径不足1.0CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝实质密度欠均匀，其内见一斑点状钙化灶。胆囊充盈可，壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶，大者短径约0.6CM。T12右侧椎弓根示斑片状密度增高影。脑实质密度均质，未见明确异常密度灶。脑室、池未见扩张，中线结构居中。	</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>左肺下叶支气管截断,局部可见软组织密度影,与远端不张肺组织及肺门、纵隔淋巴结分界不清。余双侧肺野内可见小结节灶及多发囊泡状过度充气区。纵隔内气管周围、腔静脉后气管前间隙、主肺动脉窗区、隆突下、双肺门示多发增大淋巴结,部分融合成团,与周围结构分界不清,大小不易测量。心包及左侧胸腔示液性密度影。扫描野左肾上腺可见软组织密度影,长径约5.2CM,轻度强化。肝内示多发小斑片状低密度影,强化不著,边界不清。左肾示片状低密度灶。左侧第4肋形态欠规则。	1.结合临床,左肺癌并阻塞性肺不张,较前(2016-2-14)进展;双肺门、纵隔淋巴结转移,较前增大;左肾上腺转移,较前增大2.双肺结节灶,建议观察;双肺气肿3.心包及左侧胸腔少量积液4.肝及左肾低密度灶,建议观察5.左侧第4肋骨折,变化不著。</t>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>左肺下叶支气管截断，局部可见软组织密度影，与远端不张肺组织及肺门、纵隔淋巴结分界不清。余双侧肺野内可见小结节灶及多发囊泡状过度充气区。纵隔内气管周围、腔静脉后气管前间隙、主肺动脉窗区、隆突下、双肺门示多发增大淋巴结，部分融合成团，与周围结构分界不清，大小不易测量。心包及左侧胸腔示液性密度影。扫描野左肾上腺可见软组织密度影，长径约5.2CM，轻度强化。肝内示多发小斑片状低密度影，强化不著，边界不清。左肾示片状低密度灶。左侧第4肋形态欠规则。	1.结合临床，左肺癌并阻塞性肺不张，较前(2016-2-14)进展；双肺门、纵隔淋巴结转移，较前增大；左肾上腺转移，较前增大2.双肺结节灶，建议观察；双肺气肿3.心包及左侧胸腔少量积液4.肝及左肾低密度灶，建议观察5.左侧第4肋骨折，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后,右侧胸壁局部斑片形轻度代谢,考虑术后改变。2.肝转移瘤治疗后仅肝左外叶病灶略高代谢。多发骨转移治疗后呈成骨性改变,未见确切异常代谢;原肺转移治疗后病变消失。3.双侧锁骨上小淋巴结,未见高代谢;纵隔7区略高代谢淋巴结,余纵隔淋巴结未见异常代谢;右上臂局部未见异常代谢;请结合既往影像学资料。4.肝内钙化灶。5.子宫肌瘤。6.左侧上颌窦粘膜囊肿。静脉注射示踪剂FDG后60MMIN行PET/CT显像。PET/CT图像示右侧乳腺癌术后缺如,右侧胸壁局部脂肪密度增高,局部斑片状轻度放射性摄取增高,最高SUV2.3,余右侧胸壁未见显著增厚及明显异常放射性摄取。右侧腋窝脂肪密度增高,结构略紊乱,未见明显确切异常放射性摄取增高的淋巴结。左侧腋窝淋巴结未见显著增大及明显异常放射性摄取。右上臂皮下局部脂肪组织轻度斑片状放射性摄取增高,最高SUV1.2,考虑术后改变,余右上臂软组织未见明显异常放射性摄取。部分胸骨、右侧肩胛骨、左侧第7肋骨、右侧第8肋骨、T2、T5、T6、T7、T9椎体、双侧髂骨、部分骶骨、右侧髋臼、左侧股骨上段多发骨质局部密度增高,未见明显确切异常放射性摄取。肝左叶示一结节灶,长径约1.1CM,轻度放射性摄取增高,最高SUV4.1,延迟扫描为2.6。视野内多发胸腰椎、骨盆诸骨、双侧肱骨上段、双侧股骨上段多发骨髓轻度放射性摄取增高,最高SUV3.2,考虑反应性改变。双肺示少许斑片影或条索影,双肺未见明显异常放射性摄取结节灶。双肺门淋巴结未见明显肿大及明显异常放射性摄取。纵隔7区示放射性摄取略增高的淋巴结,短径约0.6CM,最高SUV2.9。气管居中。右侧胸膜局部增厚。大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深。小脑显影如常,两侧小脑对称。左侧上颌窦示类圆形囊性密度灶,边缘清晰。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。左侧上颌窦内见1.0CM囊性密度灶。双侧锁骨上区示小淋巴结,大者短径约0.7CM,未见明显异常放射性摄取。胃壁未示显著增厚,局部环形放射性摄取增高,最高SUV4.4。余肝内未见确切异常放射性摄取增高灶。肝右叶示结节状钙化,长径约0.9CM,边缘清晰。胆囊大小正常,密度均匀。胰腺形态放射性分布尚好。脾轻度显影,放射性分布欠均匀。两侧肾脏显影可,肾实质密度均匀。两侧肾上腺显影大致正常。腹部见条索状肠影。盆腔内膀胱放射性浓聚如常。两侧腹股沟无异常淋巴结显示。子宫体积增大,局部向前凸出形成较大结节,无异常放射性浓聚。两侧附件区未见异常放射性摄取。	</t>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后，右侧胸壁局部斑片形轻度代谢，考虑术后改变。2.肝转移瘤治疗后仅肝左外叶病灶略高代谢。多发骨转移治疗后呈成骨性改变，未见确切异常代谢；原肺转移治疗后病变消失。3.双侧锁骨上小淋巴结，未见高代谢；纵隔7区略高代谢淋巴结，余纵隔淋巴结未见异常代谢；右上臂局部未见异常代谢；请结合既往影像学资料。4.肝内钙化灶。5.子宫肌瘤。6.左侧上颌窦粘膜囊肿。静脉注射示踪剂FDG后60MMIN行PET/CT显像。PET/CT图像示右侧乳腺癌术后缺如，右侧胸壁局部脂肪密度增高，局部斑片状轻度放射性摄取增高，最高SUV2.3，余右侧胸壁未见显著增厚及明显异常放射性摄取。右侧腋窝脂肪密度增高，结构略紊乱，未见明显确切异常放射性摄取增高的淋巴结。左侧腋窝淋巴结未见显著增大及明显异常放射性摄取。右上臂皮下局部脂肪组织轻度斑片状放射性摄取增高，最高SUV1.2，考虑术后改变，余右上臂软组织未见明显异常放射性摄取。部分胸骨、右侧肩胛骨、左侧第7肋骨、右侧第8肋骨、T2、T5、T6、T7、T9椎体、双侧髂骨、部分骶骨、右侧髋臼、左侧股骨上段多发骨质局部密度增高，未见明显确切异常放射性摄取。肝左叶示一结节灶，长径约1.1CM，轻度放射性摄取增高，最高SUV4.1，延迟扫描为2.6。视野内多发胸腰椎、骨盆诸骨、双侧肱骨上段、双侧股骨上段多发骨髓轻度放射性摄取增高，最高SUV3.2，考虑反应性改变。双肺示少许斑片影或条索影，双肺未见明显异常放射性摄取结节灶。双肺门淋巴结未见明显肿大及明显异常放射性摄取。纵隔7区示放射性摄取略增高的淋巴结，短径约0.6CM，最高SUV2.9。气管居中。右侧胸膜局部增厚。大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深。小脑显影如常，两侧小脑对称。左侧上颌窦示类圆形囊性密度灶，边缘清晰。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。左侧上颌窦内见1.0CM囊性密度灶。双侧锁骨上区示小淋巴结，大者短径约0.7CM，未见明显异常放射性摄取。胃壁未示显著增厚，局部环形放射性摄取增高，最高SUV4.4。余肝内未见确切异常放射性摄取增高灶。肝右叶示结节状钙化，长径约0.9CM，边缘清晰。胆囊大小正常，密度均匀。胰腺形态放射性分布尚好。脾轻度显影，放射性分布欠均匀。两侧肾脏显影可，肾实质密度均匀。两侧肾上腺显影大致正常。腹部见条索状肠影。盆腔内膀胱放射性浓聚如常。两侧腹股沟无异常淋巴结显示。子宫体积增大，局部向前凸出形成较大结节，无异常放射性浓聚。两侧附件区未见异常放射性摄取。	</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>左乳术后,术区胸肌存在,壁未见增厚及异常强化。左侧腋窝结构紊乱。右乳未见异常。右腋窝及前纵隔胸腺区、隆突下示数个增大淋巴结,大者位于右侧,短径约0.8CM。余纵隔内见数个小淋巴结,直径不足0.5CM。双侧内乳区、双侧腋窝、双侧肺门未见增大淋巴结。双肺散在小结节灶,大者直径约1.1CM,部分为磨玻璃密度。双肺见少许索条或斑片状密度增高影,部分位于胸膜下。双侧胸膜轻度增厚。双侧胸腔未见积液征象。肝内见小囊性低密度结节灶,大者直径不足1.0CM。胆胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。脑实质未见异常。右侧上颌窦内示液体密度影。骨窗示:T10椎体前缘可见斑片状高密度影。	1.结合临床,左乳癌术后;右腋窝淋巴结肿大,不除外转移;纵隔淋巴结肿大;右肺结节灶,考虑转移;余双肺野类结节影,较前(2015-08-04)片变化不著2.双肺炎症及纤维灶,变化不著3.双侧胸膜轻度增厚4.肝内低密度灶,考虑囊,变化不著5.T10椎体前缘成骨性骨质改变,变化不著。</t>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>左乳术后，术区胸肌存在，壁未见增厚及异常强化。左侧腋窝结构紊乱。右乳未见异常。右腋窝及前纵隔胸腺区、隆突下示数个增大淋巴结，大者位于右侧，短径约0.8CM。余纵隔内见数个小淋巴结，直径不足0.5CM。双侧内乳区、双侧腋窝、双侧肺门未见增大淋巴结。双肺散在小结节灶，大者直径约1.1CM，部分为磨玻璃密度。双肺见少许索条或斑片状密度增高影，部分位于胸膜下。双侧胸膜轻度增厚。双侧胸腔未见积液征象。肝内见小囊性低密度结节灶，大者直径不足1.0CM。胆胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。脑实质未见异常。右侧上颌窦内示液体密度影。骨窗示：T10椎体前缘可见斑片状高密度影。	1.结合临床，左乳癌术后；右腋窝淋巴结肿大，不除外转移；纵隔淋巴结肿大；右肺结节灶，考虑转移；余双肺野类结节影，较前(2015-08-04)片变化不著2.双肺炎症及纤维灶，变化不著3.双侧胸膜轻度增厚4.肝内低密度灶，考虑囊，变化不著5.T10椎体前缘成骨性骨质改变，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>右肺下叶见不规则斑片状软组织影,边缘毛糙,大小不易测量,增强后中度强化;其远端肺野见斑片状及索条状密度增高影。右肺见小类结节灶,边缘模糊,直径不足0.5CM。左肺野清晰。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结,大者短径不足1.0CM,部分增强后强化显著。右侧胸膜略增厚。肝内强化不均质,肝右叶见一斑点状钙化灶。胆胰脾肾上腺及双肾未见异常。肝胃韧带区见短径不足0.5CM小淋巴结。脑实质密度均匀。T12右侧椎弓根示斑片状密度增高影。	1.结合临床,右肺癌并右肺下叶炎症,较前片2016-6-21基本变化不著;右肺类结节,变化不著;右肺门、纵隔淋巴结转移治疗后,较前变化不著。2.右侧胸膜略增厚,变化不著3.肝内钙化灶。4.T12右侧椎弓根密度增高影,变化不著。5.颅脑扫描未见明显异常。</t>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。右肺见小类结节灶，边缘模糊，直径不足0.5CM。左肺野清晰。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径不足1.0CM，部分增强后强化显著。右侧胸膜略增厚。肝内强化不均质，肝右叶见一斑点状钙化灶。胆胰脾肾上腺及双肾未见异常。肝胃韧带区见短径不足0.5CM小淋巴结。脑实质密度均匀。T12右侧椎弓根示斑片状密度增高影。	1.结合临床，右肺癌并右肺下叶炎症，较前片2016-6-21基本变化不著；右肺类结节，变化不著；右肺门、纵隔淋巴结转移治疗后，较前变化不著。2.右侧胸膜略增厚，变化不著3.肝内钙化灶。4.T12右侧椎弓根密度增高影，变化不著。5.颅脑扫描未见明显异常。</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.左肺上叶癌,左侧胸膜转移,左肺门、纵隔淋巴结转移,骨转移:较前(2016-8-25)均好转2.左侧胸腔积液,较前减少3.前纵隔占位,不除外胸腺囊肿,变化不著;另胸壁后心包前低密度灶,请结合临床。左肺上叶示一不规则软组织密度灶,大小约1.3CM×1.8CM,边缘分叶,可见强化。左侧胸膜及叶间胸膜示多发结节灶,可见强化。左侧胸腔示液体密度影。左肺门、纵隔内示数个肿大淋巴结,大者短径约0.9CM。前纵隔胸腺区示类囊性密度灶,短径约2.0CM,边界清,无强化。另胸壁后心包前见团片状低密度影。左侧第七后肋呈溶骨性骨质破坏,局部形成软组织密度肿块。	</t>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.左肺上叶癌，左侧胸膜转移，左肺门、纵隔淋巴结转移，骨转移：较前(2016-8-25)均好转2.左侧胸腔积液，较前减少3.前纵隔占位，不除外胸腺囊肿，变化不著；另胸壁后心包前低密度灶，请结合临床。左肺上叶示一不规则软组织密度灶，大小约1.3CM×1.8CM，边缘分叶，可见强化。左侧胸膜及叶间胸膜示多发结节灶，可见强化。左侧胸腔示液体密度影。左肺门、纵隔内示数个肿大淋巴结，大者短径约0.9CM。前纵隔胸腺区示类囊性密度灶，短径约2.0CM，边界清，无强化。另胸壁后心包前见团片状低密度影。左侧第七后肋呈溶骨性骨质破坏，局部形成软组织密度肿块。	</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>右乳术后缺如,术区胸壁未见明显增厚。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门未见肿大淋巴结。左侧内乳区、纵隔内及右侧心膈角区见略肿大淋巴结,大者短径约0.8CM。右肺中叶见一结节灶(图4-25),直径约0.3CM,密度较低。右侧胸膜显示不均匀增厚。肝实质密度不均匀性减低,实质内可见散在多发低密度灶,边缘较模糊,大者直径约1.7CM,轻度强化。另肝内可见结节状钙化灶。胆囊未见显示。双肾门朝向前方。胰腺、脾、双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。鼻咽、口咽及喉形态可,诸壁不厚。双侧副鼻窦充气良好。甲状腺双侧叶形态大小密度可。双颈部肌间隙清晰,未见明显肿大淋巴结。胸骨、右侧部分肋骨及部分胸椎示成骨性骨质破坏。1.结合临床,右乳癌术后改变,肝脏多发转移;多发骨转移;左侧内乳区、纵隔及右侧心膈角区淋巴结肿大2.右肺中叶结节灶,较前2016-2-24变化不著3.右侧胸膜增厚,建议观察4.肝内钙化灶5.胆囊未见显示,请结合临床6.颈部扫描未见明显异常</t>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>右乳术后缺如，术区胸壁未见明显增厚。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门未见肿大淋巴结。左侧内乳区、纵隔内及右侧心膈角区见略肿大淋巴结，大者短径约0.8CM。右肺中叶见一结节灶(图4-25)，直径约0.3CM，密度较低。右侧胸膜显示不均匀增厚。肝实质密度不均匀性减低，实质内可见散在多发低密度灶，边缘较模糊，大者直径约1.7CM，轻度强化。另肝内可见结节状钙化灶。胆囊未见显示。双肾门朝向前方。胰腺、脾、双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。鼻咽、口咽及喉形态可，诸壁不厚。双侧副鼻窦充气良好。甲状腺双侧叶形态大小密度可。双颈部肌间隙清晰，未见明显肿大淋巴结。胸骨、右侧部分肋骨及部分胸椎示成骨性骨质破坏。1.结合临床，右乳癌术后改变，肝脏多发转移；多发骨转移；左侧内乳区、纵隔及右侧心膈角区淋巴结肿大2.右肺中叶结节灶，较前2016-2-24变化不著3.右侧胸膜增厚，建议观察4.肝内钙化灶5.胆囊未见显示，请结合临床6.颈部扫描未见明显异常</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>直肠术后,术区示高密度吻合器影,壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低,内示小囊性密度灶。双肾内示低密度灶,边缘模糊,另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约3.7CM(纵隔窗),内示空洞影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶,边缘较清晰。	1.结合临床,直肠癌术后;双肺转移,较前(2016-10-24)片基本稳定2.双肾低密度灶,基本变化不著,建议观察;双肾囊肿3.双侧胸膜略增厚,变化不著4.甲状腺低密度灶,变化不著5.脂肪肝;考虑肝囊肿。</t>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>直肠术后，术区示高密度吻合器影，壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低，内示小囊性密度灶。双肾内示低密度灶，边缘模糊，另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.7CM(纵隔窗)，内示空洞影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	1.结合临床，直肠癌术后；双肺转移，较前(2016-10-24)片基本稳定2.双肾低密度灶，基本变化不著，建议观察；双肾囊肿3.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著5.脂肪肝；考虑肝囊肿。</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,左乳术后;右乳近皮下扁平占位,考虑乳癌累及皮肤,建议进一步检查2.双肺结节灶,考虑转移,建议结合前片3.肝内低密度灶,建议进一步检查4.右侧内乳区小淋巴结5.颈部扫描未见明确异常6.T12椎体血管瘤。左乳术后缺如,术区结构紊乱,周围脂肪间隙模糊,部分胸肌尚存,术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱,可见短径约0.5CM的小淋巴结。右乳近皮下见一较扁平结节灶,边缘模糊,与邻近增厚皮肤分界不清,长径约2.5CM;增强扫描呈不均匀强化。右乳局部皮肤示凹陷。右侧内乳区见短径不足0.5CM的小淋巴结。双肺门及纵隔未见明确肿大淋巴结。双肺野内见多发结节灶,部分呈磨玻璃密度,边界较清,大者直径约0.5CM。肝脏大小、形态可,肝右叶实质内见一低密度灶,边界欠清,直径约0.5CM。胆囊充盈可,壁略厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。T12椎体内示低密度影,边界较清晰,其内可见粗颗粒状高密度影。扫描野内鼻咽、口咽、喉形态可,壁不厚。双颈部未见明确肿大淋巴结。甲状腺双侧叶未见明确异常密度灶。	</t>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，左乳术后；右乳近皮下扁平占位，考虑乳癌累及皮肤，建议进一步检查2.双肺结节灶，考虑转移，建议结合前片3.肝内低密度灶，建议进一步检查4.右侧内乳区小淋巴结5.颈部扫描未见明确异常6.T12椎体血管瘤。左乳术后缺如，术区结构紊乱，周围脂肪间隙模糊，部分胸肌尚存，术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱，可见短径约0.5CM的小淋巴结。右乳近皮下见一较扁平结节灶，边缘模糊，与邻近增厚皮肤分界不清，长径约2.5CM；增强扫描呈不均匀强化。右乳局部皮肤示凹陷。右侧内乳区见短径不足0.5CM的小淋巴结。双肺门及纵隔未见明确肿大淋巴结。双肺野内见多发结节灶，部分呈磨玻璃密度，边界较清，大者直径约0.5CM。肝脏大小、形态可，肝右叶实质内见一低密度灶，边界欠清，直径约0.5CM。胆囊充盈可，壁略厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。T12椎体内示低密度影，边界较清晰，其内可见粗颗粒状高密度影。扫描野内鼻咽、口咽、喉形态可，壁不厚。双颈部未见明确肿大淋巴结。甲状腺双侧叶未见明确异常密度灶。	</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>左肺术后,术区结构紊乱,可见片状密度增高影。右肺下叶近胸膜下可见多发结节灶,大者直径约0.7CM。右肺上叶及中叶见少许斑片条索状密度增高影,部分内见钙化灶。右肺中叶胸膜下见结节灶,部分内见钙化灶,大者直径约0.4CM。双侧胸膜未见增厚,双侧胸腔未见积液征象。双肺门、纵隔未见肿大淋巴结。直肠术后,吻合口壁未见增厚及异常强化征象。膀胱充盈可,壁不厚。子宫及附件区未见异常。盆腔内未见肿大淋巴结。盆腔内未见积液征象。肝脏形态、大小可,胆囊窝周围可见片状略低密度区,边界不清,余肝实质密度减低。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。	1.结合临床,直肠癌术后2.左肺术后改变,右肺新发结节灶,考虑转移3.右肺结节灶及钙化,较前变化不著4.肝近胆囊窝区低密度区,不除外不均质性脂肪肝,建议观察;脂肪肝。</t>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>左肺术后，术区结构紊乱，可见片状密度增高影。右肺下叶近胸膜下可见多发结节灶，大者直径约0.7CM。右肺上叶及中叶见少许斑片条索状密度增高影，部分内见钙化灶。右肺中叶胸膜下见结节灶，部分内见钙化灶，大者直径约0.4CM。双侧胸膜未见增厚，双侧胸腔未见积液征象。双肺门、纵隔未见肿大淋巴结。直肠术后，吻合口壁未见增厚及异常强化征象。膀胱充盈可，壁不厚。子宫及附件区未见异常。盆腔内未见肿大淋巴结。盆腔内未见积液征象。肝脏形态、大小可，胆囊窝周围可见片状略低密度区，边界不清，余肝实质密度减低。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。	1.结合临床，直肠癌术后2.左肺术后改变，右肺新发结节灶，考虑转移3.右肺结节灶及钙化，较前变化不著4.肝近胆囊窝区低密度区，不除外不均质性脂肪肝，建议观察；脂肪肝。</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合右乳癌术后病史,左顶叶转移。2.右上颌窦囊肿。左侧顶叶见一类圆形异常信号影,表现为T1WI中心低、边缘略高信号,T2WI及压水序列为中心高、边缘等信号,DWI为中心低、边缘高信号,增强扫描呈较显著不均匀强化,大小约1.0CM×0.8CM,周围可见斑片状长T2信号影。余脑实质内增强扫描未见异常信号及强化征象。脑室、池、脑沟裂未见异常。中线结构居中,未见移位。右上颌窦可见一长T1长T2信号结节,边界清楚。	</t>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合右乳癌术后病史，左顶叶转移。2.右上颌窦囊肿。左侧顶叶见一类圆形异常信号影，表现为T1WI中心低、边缘略高信号，T2WI及压水序列为中心高、边缘等信号，DWI为中心低、边缘高信号，增强扫描呈较显著不均匀强化，大小约1.0CM×0.8CM，周围可见斑片状长T2信号影。余脑实质内增强扫描未见异常信号及强化征象。脑室、池、脑沟裂未见异常。中线结构居中，未见移位。右上颌窦可见一长T1长T2信号结节，边界清楚。	</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合病史,右肺癌术后复发并右肺门、纵隔、右锁上淋巴结转移;双肺转移;腹腔淋巴结肿大,考虑转移,大部变化不著,部分略饱满2.双肺炎症,变化不著;右侧少量胸腔积液,基本变化不著,心包积液;右侧胸膜增厚,变化不著3.左胸壁脂肪瘤,变化不著4.脾实质内低密度灶,变化不著,建议观察5.脂肪肝6.左侧肩胛骨局部骨质稀疏,变化不著。右肺下叶切除术后,右下肺门区见软组织肿块影,截面约2.0CM×4.3CM。双肺内见多发结节灶,大者短径约0.7CM。双肺近纵隔周围见多发斑片状密度增高影,其内可见支气管充气征。右侧胸腔见少量液性密度影,右侧胸膜增厚。右锁上、右肺门、纵隔内2R、4R、7区见多发增大淋巴结,部分融合成团,大者短径约2.5CM。心包腔内见少量液性密度影。肝脏密度减低。腹腔内见多发肿大淋巴结,大者短径约2.0CM。脾实质内见一低密度灶,边缘模糊。左前下胸壁软组织内示梭形脂肪样密度影,边界清。骨窗示:左侧肩胛骨局部骨质结节状稀疏。	</t>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合病史，右肺癌术后复发并右肺门、纵隔、右锁上淋巴结转移；双肺转移；腹腔淋巴结肿大，考虑转移，大部变化不著，部分略饱满2.双肺炎症，变化不著；右侧少量胸腔积液，基本变化不著，心包积液；右侧胸膜增厚，变化不著3.左胸壁脂肪瘤，变化不著4.脾实质内低密度灶，变化不著，建议观察5.脂肪肝6.左侧肩胛骨局部骨质稀疏，变化不著。右肺下叶切除术后，右下肺门区见软组织肿块影，截面约2.0CM×4.3CM。双肺内见多发结节灶，大者短径约0.7CM。双肺近纵隔周围见多发斑片状密度增高影，其内可见支气管充气征。右侧胸腔见少量液性密度影，右侧胸膜增厚。右锁上、右肺门、纵隔内2R、4R、7区见多发增大淋巴结，部分融合成团，大者短径约2.5CM。心包腔内见少量液性密度影。肝脏密度减低。腹腔内见多发肿大淋巴结，大者短径约2.0CM。脾实质内见一低密度灶，边缘模糊。左前下胸壁软组织内示梭形脂肪样密度影，边界清。骨窗示：左侧肩胛骨局部骨质结节状稀疏。	</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>右肺上叶术后,术区可见金属吻合钉,右肺野内见多发条索状密度增高影。双肺野内见数个类结节灶(图3-31、41、57、32),大者直径约0.6CM。双肺内多发过度透光囊泡影,纵隔内可见多发肿大淋巴结影,大者短径不足1.0CM。左肺上叶见一磨玻璃密度灶(图3-25),直径约0.5CM。右侧胸腔内见液性密度影,右侧胸膜增厚。肝内见数个低密度灶,边界尚清,大者直径约2.1CM,增强扫描动脉期边缘结节状强化,延迟后造影剂向心性充填。另于肝实质内见多发低密度灶,部分边界较清,部分边缘模糊,大者直径约1.0CM。胆囊充盈可,壁增厚并强化。腹腔及腹膜后未见明确肿大淋巴结。部分椎体及其附件可见高密度影,骨质密度增高。	1.结合临床,右肺癌术后改变,右肺炎症及纤维灶;纵隔淋巴结肿大;双肺气肿2.双肺多发结节灶,建议结合前片定性,不除外转移3.右侧胸腔少量积液;右侧胸膜增厚4.肝血管瘤5.肝内多发低密度灶,部分为囊肿,部分建议进一步检查6.胆囊炎7.部分椎体及附件骨质密度增高,建议进一步检查8.左肺上叶膜玻璃密度灶,建议观察。</t>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>右肺上叶术后，术区可见金属吻合钉，右肺野内见多发条索状密度增高影。双肺野内见数个类结节灶(图3-31、41、57、32)，大者直径约0.6CM。双肺内多发过度透光囊泡影，纵隔内可见多发肿大淋巴结影，大者短径不足1.0CM。左肺上叶见一磨玻璃密度灶(图3-25)，直径约0.5CM。右侧胸腔内见液性密度影，右侧胸膜增厚。肝内见数个低密度灶，边界尚清，大者直径约2.1CM，增强扫描动脉期边缘结节状强化，延迟后造影剂向心性充填。另于肝实质内见多发低密度灶，部分边界较清，部分边缘模糊，大者直径约1.0CM。胆囊充盈可，壁增厚并强化。腹腔及腹膜后未见明确肿大淋巴结。部分椎体及其附件可见高密度影，骨质密度增高。	1.结合临床，右肺癌术后改变，右肺炎症及纤维灶；纵隔淋巴结肿大；双肺气肿2.双肺多发结节灶，建议结合前片定性，不除外转移3.右侧胸腔少量积液；右侧胸膜增厚4.肝血管瘤5.肝内多发低密度灶，部分为囊肿，部分建议进一步检查6.胆囊炎7.部分椎体及附件骨质密度增高，建议进一步检查8.左肺上叶膜玻璃密度灶，建议观察。</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>右肺上叶尖段可见一不规则软组织密度影,截面约为1.1CM×0.9CM,病变边缘毛刺,呈分叶状,向内侵及纵隔并与纵隔肿大淋巴结分界欠清,增强后呈不均匀强化。双锁上、纵隔内血管前间隙、气管周围、腔静脉后气管间隙、主肺动脉窗区、隆突下、双肺门可见多发肿大淋巴结,大者短径约为1.1CM。双肺野可见多个大小不一的散在类结节灶,大者直径约为0.5CM。双侧胸腔内未见液性密度影。心包内示少许液体密度影。肝右后叶示一低密度灶(4-60),边缘模糊,直径约0.3CM。余肝实质内示多个囊性密度影,长径不足0.5CM,肝左内叶实质内可见一长径约为1.2CM的低密度灶,边缘尚清,增强后强化明显,延迟扫描仍有强化。胆囊充盈可,壁略示增厚,内示结节状高密度影。脾、胰腺、双侧肾上腺、双肾未见明显异常。腹膜后腹主动脉周围示多个肿大淋巴结影,大者短径约为0.5CM。骨窗示:L1椎体内示低密度灶,余部分胸腰椎椎体局部骨质密度不均匀,可见类圆形高密度影。	1.结合临床,右肺上叶癌并双肺转移,较前(2014-11-6)好转;双锁上、纵隔、双肺门、腹膜后淋巴结转移,较前好转;肝内低密度灶,较前变化不著2.肝左叶低密度灶,考虑血管瘤,变化不著4.胆囊炎,胆囊结石5.肝囊肿6.少量心包节积液7.L1椎体骨质异常,变化不著;部分胸腰椎骨质密度局部增高;较前变化不著。</t>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>右肺上叶尖段可见一不规则软组织密度影，截面约为1.1CM×0.9CM，病变边缘毛刺，呈分叶状，向内侵及纵隔并与纵隔肿大淋巴结分界欠清，增强后呈不均匀强化。双锁上、纵隔内血管前间隙、气管周围、腔静脉后气管间隙、主肺动脉窗区、隆突下、双肺门可见多发肿大淋巴结，大者短径约为1.1CM。双肺野可见多个大小不一的散在类结节灶，大者直径约为0.5CM。双侧胸腔内未见液性密度影。心包内示少许液体密度影。肝右后叶示一低密度灶(4-60)，边缘模糊，直径约0.3CM。余肝实质内示多个囊性密度影，长径不足0.5CM，肝左内叶实质内可见一长径约为1.2CM的低密度灶，边缘尚清，增强后强化明显，延迟扫描仍有强化。胆囊充盈可，壁略示增厚，内示结节状高密度影。脾、胰腺、双侧肾上腺、双肾未见明显异常。腹膜后腹主动脉周围示多个肿大淋巴结影，大者短径约为0.5CM。骨窗示：L1椎体内示低密度灶，余部分胸腰椎椎体局部骨质密度不均匀，可见类圆形高密度影。	1.结合临床，右肺上叶癌并双肺转移，较前(2014-11-6)好转；双锁上、纵隔、双肺门、腹膜后淋巴结转移，较前好转；肝内低密度灶，较前变化不著2.肝左叶低密度灶，考虑血管瘤，变化不著4.胆囊炎，胆囊结石5.肝囊肿6.少量心包节积液7.L1椎体骨质异常，变化不著；部分胸腰椎骨质密度局部增高；较前变化不著。</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>右肺下叶肺门旁可见一肿块影,最大层面2.70CM×3.75CM,CT值约37HU,增强后三期CT值分别为:50HU、68HU、51HU。右下肺支气管受压变窄,右肺下叶可见斑片状阴影,其内可见支气管充气征,并可见血管影注入。最大层面5.51CM×7.59CM,CT值约37HU,增强后三期CT值分别是:56HU、68HU、84HU。左肺下叶后底段及外底段可见淡片影。双肺可见多发囊状薄壁透亮影,双上肺为著。两肺门区未见异常。纵隔内可见增大的淋巴结,最大层面1.35CM×2.27CM,部分淋巴结钙化。两胸腔无积液征象。心脏大血管未见异常。片示左肾囊肿。肝内多发不强化低密度影。1.右下肺中央型肺癌并下叶阻塞性肺炎,纵隔淋巴结转移;2.左肺下叶后底段及外底段炎症;3.肺气肿、肺大泡;4.片示左肾囊肿,肝囊肿。</t>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>右肺下叶肺门旁可见一肿块影，最大层面2.70CM×3.75CM，CT值约37HU，增强后三期CT值分别为：50HU、68HU、51HU。右下肺支气管受压变窄，右肺下叶可见斑片状阴影，其内可见支气管充气征，并可见血管影注入。最大层面5.51CM×7.59CM，CT值约37HU，增强后三期CT值分别是：56HU、68HU、84HU。左肺下叶后底段及外底段可见淡片影。双肺可见多发囊状薄壁透亮影，双上肺为著。两肺门区未见异常。纵隔内可见增大的淋巴结，最大层面1.35CM×2.27CM，部分淋巴结钙化。两胸腔无积液征象。心脏大血管未见异常。片示左肾囊肿。肝内多发不强化低密度影。1.右下肺中央型肺癌并下叶阻塞性肺炎，纵隔淋巴结转移；2.左肺下叶后底段及外底段炎症；3.肺气肿、肺大泡；4.片示左肾囊肿，肝囊肿。</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合乳癌术后病史,颈胸腰骶椎多发转移。2.腰骶椎退行性变,椎间盘L5/S1膨出。3.胸腰椎T10、L2椎体异常信号,考虑脂肪岛。4.考虑子宫肌瘤。所扫颈胸腰骶椎C7~T3、T7、T10、L1、L3~5及S1椎体及部分附件可见结节状、斑片状或整个椎体骨质信号异常,表现为T1WI、T2WI低信号,压脂序列为高信号。腰骶椎曲度略变直,部分椎体前缘见棘样突起,L3椎体前下缘见片状异常信号影,另胸腰椎T10、L2椎体见结节状T1WI、T2WI高信号影,压脂序列为低信号。椎间盘L5/S1向后膨,相应硬膜囊受压略变形,椎间隙略变窄。扫描野内子宫体积增大,其内见一较大肿块影,截面约3.9CM×3.2CM,表现为T1WI等信号,T2WI、压脂序列为低信号,边界清晰。	</t>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合乳癌术后病史，颈胸腰骶椎多发转移。2.腰骶椎退行性变，椎间盘L5/S1膨出。3.胸腰椎T10、L2椎体异常信号，考虑脂肪岛。4.考虑子宫肌瘤。所扫颈胸腰骶椎C7~T3、T7、T10、L1、L3~5及S1椎体及部分附件可见结节状、斑片状或整个椎体骨质信号异常，表现为T1WI、T2WI低信号，压脂序列为高信号。腰骶椎曲度略变直，部分椎体前缘见棘样突起，L3椎体前下缘见片状异常信号影，另胸腰椎T10、L2椎体见结节状T1WI、T2WI高信号影，压脂序列为低信号。椎间盘L5/S1向后膨，相应硬膜囊受压略变形，椎间隙略变窄。扫描野内子宫体积增大，其内见一较大肿块影，截面约3.9CM×3.2CM，表现为T1WI等信号，T2WI、压脂序列为低信号，边界清晰。	</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>1.右下中心型肺癌,右肺及右侧胸膜多个结节考虑转移,较前CT(201.-03-01)病变进展,右侧胸腔积液,较前增多;纵隔淋巴结增大;2.右侧第2、8肋骨成骨性转移,较前相仿;3.右乳钙化结节,详查;4.脂肪肝。双侧胸廓不对称,右侧胸廓塌陷,右肺体积减小,右肺下叶见高密度肿块影,形态不规则,边界不清楚,大小约1.89CM×3.6CM,CT值约29HU;右肺野及右胸膜可见高密度结节影,大小不一;右侧胸腔及右侧叶间裂见液性密度影,部分形成包裹,右侧胸腔可见弧形液性密度影,右侧胸膜不均匀增厚,邻近肺组织部分受压膨胀不全。右肺门区增大的淋巴结。心影略增大,右侧心膈角区多发结节,右侧第2、8肋骨骨质密度不均匀增高,形态不规整,其内可见骨质破坏。右侧乳腺内见一结节影,径约0.9CM,边界清晰,其内见点状钙化。肝实质密度明显减低。</t>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1.右下中心型肺癌，右肺及右侧胸膜多个结节考虑转移，较前CT(201.-03-01)病变进展，右侧胸腔积液，较前增多；纵隔淋巴结增大；2.右侧第2、8肋骨成骨性转移，较前相仿；3.右乳钙化结节，详查；4.脂肪肝。双侧胸廓不对称，右侧胸廓塌陷，右肺体积减小，右肺下叶见高密度肿块影，形态不规则，边界不清楚，大小约1.89CM×3.6CM，CT值约29HU；右肺野及右胸膜可见高密度结节影，大小不一；右侧胸腔及右侧叶间裂见液性密度影，部分形成包裹，右侧胸腔可见弧形液性密度影，右侧胸膜不均匀增厚，邻近肺组织部分受压膨胀不全。右肺门区增大的淋巴结。心影略增大，右侧心膈角区多发结节，右侧第2、8肋骨骨质密度不均匀增高，形态不规整，其内可见骨质破坏。右侧乳腺内见一结节影，径约0.9CM，边界清晰，其内见点状钙化。肝实质密度明显减低。</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>右乳上象限局部(图2-35)皮肤增厚,邻近腺体密实。右侧腋窝见增大淋巴结,短径约1.4CM。右肺内见多发大小不一的软组织密度结节,以右上肺为著,大者长径约1.1CM,部分病灶边缘模糊。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。鼻咽、口咽、下咽及喉未见明显异常。甲状腺右侧叶示低密度灶,长径约1.2CM,边界较清晰。左锁上、左颈根部、左颈后三角区示多发淋巴结,大者短径约0.6CM,局部脂肪间隙密度增高。肝脏形态、大小可,密度均质,未见结节及肿块。胆囊不大,壁不厚。胰腺、脾、双肾上腺及扫描野内双肾未见明显异常。腹腔及腹膜后未见确切增大淋巴结。	1.结合病史,右乳癌治疗后改变,请结合前片2.右腋窝淋巴结肿大,考虑转移,请结合前片3.右肺多发结节,考虑转移,请结合前片4.左锁上、左颈根部、左颈后三角区多发淋巴结肿大,请结合前片及临床5.甲状腺右侧叶低密度灶6.上腹部扫描未见明显异常。</t>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>右乳上象限局部(图2-35)皮肤增厚，邻近腺体密实。右侧腋窝见增大淋巴结，短径约1.4CM。右肺内见多发大小不一的软组织密度结节，以右上肺为著，大者长径约1.1CM，部分病灶边缘模糊。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。鼻咽、口咽、下咽及喉未见明显异常。甲状腺右侧叶示低密度灶，长径约1.2CM，边界较清晰。左锁上、左颈根部、左颈后三角区示多发淋巴结，大者短径约0.6CM，局部脂肪间隙密度增高。肝脏形态、大小可，密度均质，未见结节及肿块。胆囊不大，壁不厚。胰腺、脾、双肾上腺及扫描野内双肾未见明显异常。腹腔及腹膜后未见确切增大淋巴结。	1.结合病史，右乳癌治疗后改变，请结合前片2.右腋窝淋巴结肿大，考虑转移，请结合前片3.右肺多发结节，考虑转移，请结合前片4.左锁上、左颈根部、左颈后三角区多发淋巴结肿大，请结合前片及临床5.甲状腺右侧叶低密度灶6.上腹部扫描未见明显异常。</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>双肺纹理增强、紊乱,局部支气管壁增厚,边缘模糊。双肺透过度增高,可见多发小圆形透亮影;左肺上叶钙化灶。右肺门略增大,可见少许软组织密度影包绕右肺门区支气管血管束,平扫CT值约43HU,增强扫描呈轻中度强化。支气管管壁增厚,管腔略变窄。主动脉肺窗内见增大的淋巴结,边界模糊,短径约2.5CM,增强扫描呈环形强化,内部有无强化区。所示胆囊体积明显增大,其内可见结节状致密影,径约1.29CM。所示脾脏前端可见小圆形等密度影,增强扫描呈均匀强化。与2015-03-03CT相比:1.右肺中央型肺癌,较前肿块减小,显示欠清,纵隔淋巴结转移,较前相仿;2.慢性支气管炎、肺气肿改变;3.胆囊结石,副脾,均较前相仿,请结合腹部检查。</t>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>双肺纹理增强、紊乱，局部支气管壁增厚，边缘模糊。双肺透过度增高，可见多发小圆形透亮影；左肺上叶钙化灶。右肺门略增大，可见少许软组织密度影包绕右肺门区支气管血管束，平扫CT值约43HU，增强扫描呈轻中度强化。支气管管壁增厚，管腔略变窄。主动脉肺窗内见增大的淋巴结，边界模糊，短径约2.5CM，增强扫描呈环形强化，内部有无强化区。所示胆囊体积明显增大，其内可见结节状致密影，径约1.29CM。所示脾脏前端可见小圆形等密度影，增强扫描呈均匀强化。与2015-03-03CT相比：1.右肺中央型肺癌，较前肿块减小，显示欠清，纵隔淋巴结转移，较前相仿；2.慢性支气管炎、肺气肿改变；3.胆囊结石，副脾，均较前相仿，请结合腹部检查。</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>1.右乳癌,肝转移,较前略缩小;多发骨转移,较前骨质密度增高2.纵隔淋巴结略大,变化不著3.双侧胸膜略厚,双侧胸腔及心包积液,较前进展4.双肺炎症5.右侧侧脑室旁片状低密度区,考虑梗塞,建议MR检查右乳示多发软组织密度结节及肿块,部分融合,大者截面约1.4CM×1.9CM,边缘分叶,与皮肤关系密切,增强扫描可见较显著不均匀强化。左乳未见异常。左腋窝及锁上未见明显肿大淋巴结。纵隔内4R/L及7区示多个略增大淋巴结,大者短径约0.7CM。双肺纵隔旁见斑片状密度增高影。双侧胸腔、心包示液体密度影,以右侧为著,双侧胸膜略厚。肝内示多发低密度结节及肿块,大者截面约3.3CM×2.6CM,边缘模糊,增强扫描可见不均匀强化。胆胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。多发胸腰椎、肋骨、双侧肩胛骨及胸骨示骨质破坏。右侧侧脑室旁见片状低密度区,边缘模糊,增强后未见强化,余脑实质未见异常。</t>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1.右乳癌，肝转移，较前略缩小；多发骨转移，较前骨质密度增高2.纵隔淋巴结略大，变化不著3.双侧胸膜略厚，双侧胸腔及心包积液，较前进展4.双肺炎症5.右侧侧脑室旁片状低密度区，考虑梗塞，建议MR检查右乳示多发软组织密度结节及肿块，部分融合，大者截面约1.4CM×1.9CM，边缘分叶，与皮肤关系密切，增强扫描可见较显著不均匀强化。左乳未见异常。左腋窝及锁上未见明显肿大淋巴结。纵隔内4R/L及7区示多个略增大淋巴结，大者短径约0.7CM。双肺纵隔旁见斑片状密度增高影。双侧胸腔、心包示液体密度影，以右侧为著，双侧胸膜略厚。肝内示多发低密度结节及肿块，大者截面约3.3CM×2.6CM，边缘模糊，增强扫描可见不均匀强化。胆胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。多发胸腰椎、肋骨、双侧肩胛骨及胸骨示骨质破坏。右侧侧脑室旁见片状低密度区，边缘模糊，增强后未见强化，余脑实质未见异常。</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>双肺多发粟粒灶及小结节,右肺下叶可见高密度团块影,呈分叶状,右肺下叶部分支气管闭塞,其内密度均匀,大小约为6.5CM×7.1CM,平扫CT值约为42HU。两肺门区未见异常。所示肺内血管支气管束影稍增多。纵隔内见多发小淋巴结影。右侧胸腔积液征象。部分大血管管壁及冠脉走行区可见致密影。所示左肾上腺结合部可见软组织小结节影。1、右肺下叶肺癌,建议能谱增强详查;2、双肺多发小结节及粟粒灶,转移可能性大;3、右侧胸腔积液;4、所示左肾上腺结合部软组织小结节影,随诊。</t>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>双肺多发粟粒灶及小结节，右肺下叶可见高密度团块影，呈分叶状，右肺下叶部分支气管闭塞，其内密度均匀，大小约为6.5CM×7.1CM，平扫CT值约为42HU。两肺门区未见异常。所示肺内血管支气管束影稍增多。纵隔内见多发小淋巴结影。右侧胸腔积液征象。部分大血管管壁及冠脉走行区可见致密影。所示左肾上腺结合部可见软组织小结节影。1、右肺下叶肺癌，建议能谱增强详查；2、双肺多发小结节及粟粒灶，转移可能性大；3、右侧胸腔积液；4、所示左肾上腺结合部软组织小结节影，随诊。</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后2.左腋窝小淋巴结;纵隔淋巴结略增大3.脂肪肝;肝囊肿;脾内低密度灶,考虑囊肿4.胆囊结石5.考虑多发骨转移,较前进展6.考虑子宫肌瘤。右乳术后缺如,术区未见异常增厚及强化。左乳未见异常。左腋窝示数个小淋巴结,大者短径约0.5CM。右锁骨上区脂肪间隙略示模糊;上纵隔气管右旁及腔静脉后气管前示略大淋巴结,短径约0.7CM。肝脏密度减低。胆囊可见结节状致密影。肝及脾内均示低密度灶,大者直径约1.3CM,边界清,强化不著。双肺野清晰。子宫区见软组织肿块影,边缘清晰,密度均匀,大者直径约3.3CM。盆腔充盈可,壁不厚。盆腔内未见明显肿大淋巴结。左侧肱骨头、左侧部分肋骨、胸腰椎椎体及右侧股骨可见骨质破坏。	</t>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后2.左腋窝小淋巴结；纵隔淋巴结略增大3.脂肪肝；肝囊肿；脾内低密度灶，考虑囊肿4.胆囊结石5.考虑多发骨转移，较前进展6.考虑子宫肌瘤。右乳术后缺如，术区未见异常增厚及强化。左乳未见异常。左腋窝示数个小淋巴结，大者短径约0.5CM。右锁骨上区脂肪间隙略示模糊；上纵隔气管右旁及腔静脉后气管前示略大淋巴结，短径约0.7CM。肝脏密度减低。胆囊可见结节状致密影。肝及脾内均示低密度灶，大者直径约1.3CM，边界清，强化不著。双肺野清晰。子宫区见软组织肿块影，边缘清晰，密度均匀，大者直径约3.3CM。盆腔充盈可，壁不厚。盆腔内未见明显肿大淋巴结。左侧肱骨头、左侧部分肋骨、胸腰椎椎体及右侧股骨可见骨质破坏。	</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,双肺癌术后,左肺门区片状影,考虑复发,较前(2014-9-03)变化不著;纵隔淋巴结转移,大部分较前变化不著,部分为新发;左锁上淋巴结较前变化不著;左肺小叶间隔增厚;双肺转移,较前显著;脾内低密度灶,考虑转移,较前增大2.右肺纤维灶及钙化灶3.左肺炎症,较前明显4.左侧腋窝区皮下类结节灶,较前变化不著5.左侧胸腔少量积液。双肺部分术后,术区结构紊乱,周围脂肪间隙模糊,左肺门区可见金属吻合钉影,并可见片状软组织密度影,截面约5.0CM×4.0CM,包埋左肺动脉残端,增强扫描呈中度不均匀强化,向下延续与左下肺静脉关系密切。右肺可见结节状致密影。左肺野可见多发斑片状密度增高影;右肺下叶胸膜下可见斑片状密度增高影,其内可见线状高密度影。左肺野小叶间隔增厚;双肺野示多发类圆形结节灶,大者直径约0.7CM。右侧胸膜示增厚,局部可见钙化。纵隔内气管食管沟2R/L、7/8区见肿大淋巴结,短径约1.2CM,并可见强化,与肿块分界不清。另于左锁上、纵隔内2R、5区见小淋巴结,大者短径约0.6CM。左侧腋窝皮下可见类结节灶,直径约0.3CM,边缘清晰,增强扫描未见强化。左侧胸腔内示少量液体密度影。肝脏实质密度均匀,大小、形态可。胆囊充盈可,壁不厚。脾实质内示一类圆形低密度灶,直径约1.8CM,边缘模糊,轻度强化.胰、脾、双肾上腺及双肾未见异常,腹腔及腹膜后未见肿大淋巴结。	</t>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，双肺癌术后，左肺门区片状影，考虑复发，较前(2014-9-03)变化不著；纵隔淋巴结转移，大部分较前变化不著，部分为新发；左锁上淋巴结较前变化不著；左肺小叶间隔增厚；双肺转移，较前显著；脾内低密度灶，考虑转移，较前增大2.右肺纤维灶及钙化灶3.左肺炎症，较前明显4.左侧腋窝区皮下类结节灶，较前变化不著5.左侧胸腔少量积液。双肺部分术后，术区结构紊乱，周围脂肪间隙模糊，左肺门区可见金属吻合钉影，并可见片状软组织密度影，截面约5.0CM×4.0CM，包埋左肺动脉残端，增强扫描呈中度不均匀强化，向下延续与左下肺静脉关系密切。右肺可见结节状致密影。左肺野可见多发斑片状密度增高影；右肺下叶胸膜下可见斑片状密度增高影，其内可见线状高密度影。左肺野小叶间隔增厚；双肺野示多发类圆形结节灶，大者直径约0.7CM。右侧胸膜示增厚，局部可见钙化。纵隔内气管食管沟2R/L、7/8区见肿大淋巴结，短径约1.2CM，并可见强化，与肿块分界不清。另于左锁上、纵隔内2R、5区见小淋巴结，大者短径约0.6CM。左侧腋窝皮下可见类结节灶，直径约0.3CM，边缘清晰，增强扫描未见强化。左侧胸腔内示少量液体密度影。肝脏实质密度均匀，大小、形态可。胆囊充盈可，壁不厚。脾实质内示一类圆形低密度灶，直径约1.8CM，边缘模糊，轻度强化.胰、脾、双肾上腺及双肾未见异常，腹腔及腹膜后未见肿大淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>右肺下叶见不规则斑片状软组织影,边缘毛糙,大小不易测量,增强后中度强化;其远端肺野见斑片状及索条状密度增高影。另右肺下叶小叶间隔增厚。余双肺野可见小类结节灶,边缘模糊,大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结,大者短径约1.1CM,部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝内见一斑点状钙化灶。胆囊充盈可,壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶,大者短径约0.6CM。T12右侧椎弓根示斑片状密度增高影。	1.结合临床,右肺癌治疗后,较前片2015-3-12示缩小;双肺类结节灶治疗后,部分显示不清,部分变化不著;右肺门、纵隔淋巴结转移治疗后,部分略示缩小,部分变化不著。2.右肺下叶炎症,右肺下叶小叶间隔增厚,变化不著。3.右侧少量胸腔积液,变化不著;右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影,变化不著。</t>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。另右肺下叶小叶间隔增厚。余双肺野可见小类结节灶，边缘模糊，大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径约1.1CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝内见一斑点状钙化灶。胆囊充盈可，壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶，大者短径约0.6CM。T12右侧椎弓根示斑片状密度增高影。	1.结合临床，右肺癌治疗后，较前片2015-3-12示缩小；双肺类结节灶治疗后，部分显示不清，部分变化不著；右肺门、纵隔淋巴结转移治疗后，部分略示缩小，部分变化不著。2.右肺下叶炎症，右肺下叶小叶间隔增厚，变化不著。3.右侧少量胸腔积液，变化不著；右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>左肺上叶见一空洞性病变,边缘分叶、毛糙,上叶支气管部分示截断,截面积约2.1CM×2.0CM;增强扫描呈轻度强化。右肺野内见结节状致密影。双肺内示散在斑片状密度增高影。左侧胸壁见高密度影,局部伪影较大,周围结构显示不清。左肺门及纵隔内血管前间隙见肿大淋巴结,大者短径约0.9CM。双侧胸膜示不均匀增厚并强化,双侧胸腔内见液性密度影。肝实质内见多发低密度灶,大部分边界较清,少许边缘模糊,大者直径约0.5CM。胆囊充盈可,壁增厚。右肾见囊性密度灶,边界清。腹腔及腹膜后未见明确肿大淋巴结。左侧第10、8肋骨示骨质膨胀,骨皮质欠连续,局部骨质密度增高或减低。	1.结合临床,左肺癌并左肺门淋巴结转移治疗后,较前(2016-12-19)考虑基本变化不著;纵隔淋巴结肿大,较前略增大2.双肺炎症及部分膨胀不全,部分较前好转,右肺钙化灶3.肝内多发低密度灶,部分为囊肿,部分建议观察,变化不著4.右肾囊肿5.部分肋骨骨质异常,考虑转移,较前变化不著6.双侧胸腔积液,右侧略减少,左侧变化不著。</t>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>左肺上叶见一空洞性病变，边缘分叶、毛糙，上叶支气管部分示截断，截面积约2.1CM×2.0CM；增强扫描呈轻度强化。右肺野内见结节状致密影。双肺内示散在斑片状密度增高影。左侧胸壁见高密度影，局部伪影较大，周围结构显示不清。左肺门及纵隔内血管前间隙见肿大淋巴结，大者短径约0.9CM。双侧胸膜示不均匀增厚并强化，双侧胸腔内见液性密度影。肝实质内见多发低密度灶，大部分边界较清，少许边缘模糊，大者直径约0.5CM。胆囊充盈可，壁增厚。右肾见囊性密度灶，边界清。腹腔及腹膜后未见明确肿大淋巴结。左侧第10、8肋骨示骨质膨胀，骨皮质欠连续，局部骨质密度增高或减低。	1.结合临床，左肺癌并左肺门淋巴结转移治疗后，较前(2016-12-19)考虑基本变化不著；纵隔淋巴结肿大，较前略增大2.双肺炎症及部分膨胀不全，部分较前好转，右肺钙化灶3.肝内多发低密度灶，部分为囊肿，部分建议观察，变化不著4.右肾囊肿5.部分肋骨骨质异常，考虑转移，较前变化不著6.双侧胸腔积液，右侧略减少，左侧变化不著。</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>右侧小脑半球、右侧颞叶、顶叶及左额叶、顶叶、颞叶见多发结节样异常信号影,表现为T1WI低信号,T2WI及压水序列高信号,DWI序列呈等、高信号,增强扫描呈结节样或环形强化,大着直径约1.6CM位于左顶叶,部分病灶周围脑实质内见长T2水肿带。脑室、脑池未见扩张,中线结构居中。余未见异常。	结合右肺癌病史,符合脑多发转移瘤MR表现。</t>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>右侧小脑半球、右侧颞叶、顶叶及左额叶、顶叶、颞叶见多发结节样异常信号影，表现为T1WI低信号，T2WI及压水序列高信号，DWI序列呈等、高信号，增强扫描呈结节样或环形强化，大着直径约1.6CM位于左顶叶，部分病灶周围脑实质内见长T2水肿带。脑室、脑池未见扩张，中线结构居中。余未见异常。	结合右肺癌病史，符合脑多发转移瘤MR表现。</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>右顶叶上矢状窦右旁见一类圆形异常信号,表现为T1WI等信号,T2WI略高信号,压水像及DWI为等信号,增强扫描可见明显强化,大小约0.3CM×0.3CM,于冠状位可见结节与脑膜关系密切,周围未见明显水肿带。余脑实质增强前后未见异常信号。脑室系统无扩张。中线结构居中。腰椎生理弯曲略变直,部分椎体前缘见棘样突起,腰椎L1~3椎体可见结节状或斑片状长T1短T2信号,压脂序列呈低、高信号,边缘模糊。所扫腰骶椎椎管内未见异常占位性病灶。	1.结合乳癌病史,右顶叶转移瘤,较本院(2016-07-26)MR片好转;腰椎L1~3转移,较前进展。2.腰椎退行性变。</t>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>右顶叶上矢状窦右旁见一类圆形异常信号，表现为T1WI等信号，T2WI略高信号，压水像及DWI为等信号，增强扫描可见明显强化，大小约0.3CM×0.3CM，于冠状位可见结节与脑膜关系密切，周围未见明显水肿带。余脑实质增强前后未见异常信号。脑室系统无扩张。中线结构居中。腰椎生理弯曲略变直，部分椎体前缘见棘样突起，腰椎L1~3椎体可见结节状或斑片状长T1短T2信号，压脂序列呈低、高信号，边缘模糊。所扫腰骶椎椎管内未见异常占位性病灶。	1.结合乳癌病史，右顶叶转移瘤，较本院(2016-07-26)MR片好转；腰椎L1~3转移，较前进展。2.腰椎退行性变。</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>1.右肺下叶不规则结节;2.双肺散在炎症,右肺为著,右肺间质纤维化;3.双肺上叶陈旧性病变;4.两侧肩胛骨、锁骨、左侧肱骨头、胸骨、部分胸椎及双侧多发肋骨多发转移;5.降主动脉管壁钙化。双肺纹理增强,右肺小叶间隔增厚、紊乱;双肺内见多发斑片状模糊高密度影,以右肺为著。右肺下叶后基底段可见一结节样高密度影,病变大小约为1.2CM×0.9CM,CT值约为22HU。双肺上叶见结节状及索条状高密度影。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。双侧胸膜增厚;两胸腔无积液征象。心脏不大,降主动脉管壁见钙化影。两侧肩胛骨、锁骨、左侧肱骨头、胸骨、部分胸椎及双侧多发肋骨见斑片状高密度影。</t>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1.右肺下叶不规则结节；2.双肺散在炎症，右肺为著，右肺间质纤维化；3.双肺上叶陈旧性病变；4.两侧肩胛骨、锁骨、左侧肱骨头、胸骨、部分胸椎及双侧多发肋骨多发转移；5.降主动脉管壁钙化。双肺纹理增强，右肺小叶间隔增厚、紊乱；双肺内见多发斑片状模糊高密度影，以右肺为著。右肺下叶后基底段可见一结节样高密度影，病变大小约为1.2CM×0.9CM，CT值约为22HU。双肺上叶见结节状及索条状高密度影。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。双侧胸膜增厚；两胸腔无积液征象。心脏不大，降主动脉管壁见钙化影。两侧肩胛骨、锁骨、左侧肱骨头、胸骨、部分胸椎及双侧多发肋骨见斑片状高密度影。</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>左肺上叶可见一不规则软组织密度灶,约2.6CM×3.7CM,增强扫描呈明显不均匀强化,其边缘呈浅分叶,双肺野内散在多发结节灶,大者直径约0.6CM,纵隔内4R、7区示多发肿大淋巴结,大者短径约1.0CM。T6椎体右侧椎弓根及右侧第6后肋可见局限性骨质密度增高影。	1.左肺上叶癌累及胸膜并双肺多发转移2.纵隔淋巴结肿大3.T6椎体右侧椎弓根及右侧第6后肋局限性骨质密度增高,请结合其他检查。</t>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>左肺上叶可见一不规则软组织密度灶，约2.6CM×3.7CM，增强扫描呈明显不均匀强化，其边缘呈浅分叶，双肺野内散在多发结节灶，大者直径约0.6CM，纵隔内4R、7区示多发肿大淋巴结，大者短径约1.0CM。T6椎体右侧椎弓根及右侧第6后肋可见局限性骨质密度增高影。	1.左肺上叶癌累及胸膜并双肺多发转移2.纵隔淋巴结肿大3.T6椎体右侧椎弓根及右侧第6后肋局限性骨质密度增高，请结合其他检查。</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>右乳术后,术区壁未见增厚及异常强化。纵隔内右上气管、血管前间隙、隆突下、食管旁见增大淋巴结,大者短径约0.8CM。双锁骨上及左侧腋窝示小淋巴结,大者短径不足0.5CM。右侧腋窝未见增大淋巴结。双肺见多发小斑片影及类结节灶,大者长径约1.0CM,部分与邻近胸膜分界不清。余双肺内示条片密度增高影,局部牵拉邻近胸膜。双侧胸膜略增厚,左侧胸膜见少许斑点状钙化灶。双侧胸腔未见积液征象。肝脏体积略缩小,内见多发结节灶,融合成团,大小不易测量,增强后呈不均匀强化。门脉左支充盈欠佳。腹腔内贲门旁、肝胃韧带区、肝十二指肠韧带区、腹膜后腹主动脉旁见多发增大淋巴结,大者短径约0.8CM,部分与胰腺分界欠清。膈上后组见短径不足0.5CM小淋巴结。胆囊充盈不良,壁增厚并见强化。左肾示囊性低密度灶,大者长径约0.7CM,部分边界欠清。脾、双侧肾上腺及右肾未见异常。腹腔内示液性密度影。大网膜、腹膜、肠系膜略增厚。胸骨、右侧肱骨、肋骨、胸腰椎示多发溶骨性骨质破坏,局部形成软组织肿块。	1.结合临床,右乳癌术后;纵隔淋巴结肿大,较前(2015-2-24)好转,腹腔及腹膜后淋巴结肿大,部分好转,部分变化不著;双肺转移,较前好转;肝多发转移,大部分较前缩小,部分变化不著;骨多发转移伴局部软组织肿块形成,较前部分成骨性成分增多,部分软组织肿块减小,余变化不著。2.胆囊炎;考虑左肾囊肿。3.腹膜、网膜、肠系膜略增厚,少量腹水,变化不著。4.门脉左支充盈欠佳,请结合其他检查。5.考虑双肺炎症,双侧胸膜略增厚并左侧胸膜钙化灶。</t>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>右乳术后，术区壁未见增厚及异常强化。纵隔内右上气管、血管前间隙、隆突下、食管旁见增大淋巴结，大者短径约0.8CM。双锁骨上及左侧腋窝示小淋巴结，大者短径不足0.5CM。右侧腋窝未见增大淋巴结。双肺见多发小斑片影及类结节灶，大者长径约1.0CM，部分与邻近胸膜分界不清。余双肺内示条片密度增高影，局部牵拉邻近胸膜。双侧胸膜略增厚，左侧胸膜见少许斑点状钙化灶。双侧胸腔未见积液征象。肝脏体积略缩小，内见多发结节灶，融合成团，大小不易测量，增强后呈不均匀强化。门脉左支充盈欠佳。腹腔内贲门旁、肝胃韧带区、肝十二指肠韧带区、腹膜后腹主动脉旁见多发增大淋巴结，大者短径约0.8CM，部分与胰腺分界欠清。膈上后组见短径不足0.5CM小淋巴结。胆囊充盈不良，壁增厚并见强化。左肾示囊性低密度灶，大者长径约0.7CM，部分边界欠清。脾、双侧肾上腺及右肾未见异常。腹腔内示液性密度影。大网膜、腹膜、肠系膜略增厚。胸骨、右侧肱骨、肋骨、胸腰椎示多发溶骨性骨质破坏，局部形成软组织肿块。	1.结合临床，右乳癌术后；纵隔淋巴结肿大，较前(2015-2-24)好转，腹腔及腹膜后淋巴结肿大，部分好转，部分变化不著；双肺转移，较前好转；肝多发转移，大部分较前缩小，部分变化不著；骨多发转移伴局部软组织肿块形成，较前部分成骨性成分增多，部分软组织肿块减小，余变化不著。2.胆囊炎；考虑左肾囊肿。3.腹膜、网膜、肠系膜略增厚，少量腹水，变化不著。4.门脉左支充盈欠佳，请结合其他检查。5.考虑双肺炎症，双侧胸膜略增厚并左侧胸膜钙化灶。</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>左侧乳腺可见弥漫分布的结节样、小片状异常信号区,表现为T1WI等信号,T2WI略高信号,压脂序列高信号,DWI序列高信号,注射对比剂GD-DTPA后呈环形强化,动态增强曲线呈平台型,大者约19MM×10MM,部分病变与胸壁间可见条索相连,左乳皮肤增厚,乳头凹陷。右侧乳腺可见数个强化小结节。所扫左侧腋窝结构紊乱,可见数个大小不等淋巴结,大者直径约10MM。所扫右侧腋窝可见多个小淋巴结。余未见异常。	1.结合临床,左乳癌并左腋窝淋巴结转移,较本院(2014-09-04)MR片好转。2.右乳多发结节灶,考虑良性病变(BI-RADSIII级),建议观察。</t>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>左侧乳腺可见弥漫分布的结节样、小片状异常信号区，表现为T1WI等信号，T2WI略高信号，压脂序列高信号，DWI序列高信号，注射对比剂GD-DTPA后呈环形强化，动态增强曲线呈平台型，大者约19MM×10MM，部分病变与胸壁间可见条索相连，左乳皮肤增厚，乳头凹陷。右侧乳腺可见数个强化小结节。所扫左侧腋窝结构紊乱，可见数个大小不等淋巴结，大者直径约10MM。所扫右侧腋窝可见多个小淋巴结。余未见异常。	1.结合临床，左乳癌并左腋窝淋巴结转移，较本院(2014-09-04)MR片好转。2.右乳多发结节灶，考虑良性病变(BI-RADSIII级)，建议观察。</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>左上中央型肺癌,纵隔及左肺门淋巴结转移不除外,较2015-11-17CT病变稍增大,请结合临床。左上肺门处可见肿块影,分叶状,大小为4.4CM×2.8CM,形状不规则,边缘清,与肺动脉分界不清,CT值为34HU,增强扫描三期CT值分别为73、61、63HU,均匀中度强化,包绕左肺动脉,左肺上叶舌段支气管稍狭窄,纵隔及左肺门可见多发肿大淋巴结,大者短径为1.2CM。两胸腔无积液征象。心脏大血管未见异常。</t>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>左上中央型肺癌，纵隔及左肺门淋巴结转移不除外，较2015-11-17CT病变稍增大，请结合临床。左上肺门处可见肿块影，分叶状，大小为4.4CM×2.8CM，形状不规则，边缘清，与肺动脉分界不清，CT值为34HU，增强扫描三期CT值分别为73、61、63HU，均匀中度强化，包绕左肺动脉，左肺上叶舌段支气管稍狭窄，纵隔及左肺门可见多发肿大淋巴结，大者短径为1.2CM。两胸腔无积液征象。心脏大血管未见异常。</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合乳癌病史,左小脑半球转移瘤,及左枕骨转移灶;2.双上颌窦炎。左侧小脑半球示一结节灶,截面约3.2CM×2.6CM,边缘较清,呈等T1等T2信号,T2-FLAIR呈等高混杂信号,增强扫描呈明显不均匀强化;病变周围示片状长T2水肿带;第四脑室受压右移,中线结构局部右移。左枕骨示斑片状等T1等T2信号,T2-FLAIR呈低信号,增强扫描呈明显不均匀强化。扫描野内双侧上颌窦内示液性信号影。	</t>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合乳癌病史，左小脑半球转移瘤，及左枕骨转移灶；2.双上颌窦炎。左侧小脑半球示一结节灶，截面约3.2CM×2.6CM，边缘较清，呈等T1等T2信号，T2-FLAIR呈等高混杂信号，增强扫描呈明显不均匀强化；病变周围示片状长T2水肿带；第四脑室受压右移，中线结构局部右移。左枕骨示斑片状等T1等T2信号，T2-FLAIR呈低信号，增强扫描呈明显不均匀强化。扫描野内双侧上颌窦内示液性信号影。	</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>1.结合临床,右乳癌术后改变,术区胸壁强化欠均质,请结合其他检查;骨转移,较前(2015-10-14)变化不著;左锁骨上淋巴结转移治疗后,较前好转2.右肺中叶结节灶,变化不著;左肺尖区类结节灶,建议观察3.脂肪肝,肝内钙化灶;肝内低密度灶,考虑囊肿,建议观察4.胆囊结石右乳术后缺如,术区胸壁局部强化欠均质(如5-20)。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧锁骨上、左侧内乳区见小淋巴结,短径不足0.5CM。右肺中叶见一结节灶(图3-29),直径约0.3CM,密度较低。左肺尖区示类结节灶。膈上示稍大淋巴结。肝实质密度不均匀性减低,肝内见斑点状钙化灶及囊性密度灶。胆囊充盈可,壁未见增厚,内示泥沙样略高密度影。双肾门朝向前方。胰腺、脾、双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。胸骨及部分胸椎示骨质破坏。</t>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1.结合临床，右乳癌术后改变，术区胸壁强化欠均质，请结合其他检查；骨转移，较前(2015-10-14)变化不著；左锁骨上淋巴结转移治疗后，较前好转2.右肺中叶结节灶，变化不著；左肺尖区类结节灶，建议观察3.脂肪肝，肝内钙化灶；肝内低密度灶，考虑囊肿，建议观察4.胆囊结石右乳术后缺如，术区胸壁局部强化欠均质(如5-20)。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧锁骨上、左侧内乳区见小淋巴结，短径不足0.5CM。右肺中叶见一结节灶(图3-29)，直径约0.3CM，密度较低。左肺尖区示类结节灶。膈上示稍大淋巴结。肝实质密度不均匀性减低，肝内见斑点状钙化灶及囊性密度灶。胆囊充盈可，壁未见增厚，内示泥沙样略高密度影。双肾门朝向前方。胰腺、脾、双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。胸骨及部分胸椎示骨质破坏。</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.右乳癌术后改变;多发骨转移,较前2016-9-12变化不著2.左肺钙化灶3.右肾囊肿4.腹腔内淋巴结肿大,较前略饱满4.右侧上颌窦炎症5.颅脑扫描未见明显异常。右乳术后缺如,术区皮肤略增厚,可见强化。右侧腋窝斑片状密度增高影,考虑为淋巴结清扫术后改变。左乳及左侧腋窝未见异常。左肺下叶见散小结节灶,直径约0.3CM。双肺门及纵隔内未见肿大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶,边界清晰,未见强化。腹腔内肝胃韧带区见稍大淋巴结,短径约0.8CM。腹膜后未见增大淋巴结。骨窗示:扫描野内多发胸腰骶椎体、胸骨、左侧锁骨、右侧肩胛骨、部分肋骨、左侧肱骨、双侧髂骨、双侧耻骨、坐骨、右侧股骨呈成骨性及溶骨性骨质破坏,局部呈膨胀性改变。脑实质密度正常,未见明显异常密度灶及强化灶。脑室、池无扩张,中线结构居中,颅骨诸骨质未见破坏。右侧上颌窦内见液性密度影。	</t>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.右乳癌术后改变；多发骨转移，较前2016-9-12变化不著2.左肺钙化灶3.右肾囊肿4.腹腔内淋巴结肿大，较前略饱满4.右侧上颌窦炎症5.颅脑扫描未见明显异常。右乳术后缺如，术区皮肤略增厚，可见强化。右侧腋窝斑片状密度增高影，考虑为淋巴结清扫术后改变。左乳及左侧腋窝未见异常。左肺下叶见散小结节灶，直径约0.3CM。双肺门及纵隔内未见肿大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶，边界清晰，未见强化。腹腔内肝胃韧带区见稍大淋巴结，短径约0.8CM。腹膜后未见增大淋巴结。骨窗示：扫描野内多发胸腰骶椎体、胸骨、左侧锁骨、右侧肩胛骨、部分肋骨、左侧肱骨、双侧髂骨、双侧耻骨、坐骨、右侧股骨呈成骨性及溶骨性骨质破坏，局部呈膨胀性改变。脑实质密度正常，未见明显异常密度灶及强化灶。脑室、池无扩张，中线结构居中，颅骨诸骨质未见破坏。右侧上颌窦内见液性密度影。	</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>右肺上叶纵隔旁见一团片状软组织密度影,大小约1.2CM×1.0CM(肺窗),边缘毛糙,与纵隔胸膜关系密切,增强后病变呈中等强化。另于双肺内见少许斑片状密度增高影。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。心包腔内示少量液性密度影。扫描野双侧肾上腺增大,见软组织密度结节灶,大者约1.3CM×1.7CM,可见强化。脑实质均质,未见异常密度灶。脑室系统未见扩张。中线结构居中。	1.结合病史,右肺上叶癌治疗后,较2015-1-30好转2.双侧肾上腺结节灶,考虑转移,左侧者较前增大3.双肺纤维灶,较前变化不著4.心包少量积液5.颅脑扫描未见异常。</t>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>右肺上叶纵隔旁见一团片状软组织密度影，大小约1.2CM×1.0CM(肺窗)，边缘毛糙，与纵隔胸膜关系密切，增强后病变呈中等强化。另于双肺内见少许斑片状密度增高影。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。心包腔内示少量液性密度影。扫描野双侧肾上腺增大，见软组织密度结节灶，大者约1.3CM×1.7CM，可见强化。脑实质均质，未见异常密度灶。脑室系统未见扩张。中线结构居中。	1.结合病史，右肺上叶癌治疗后，较2015-1-30好转2.双侧肾上腺结节灶，考虑转移，左侧者较前增大3.双肺纤维灶，较前变化不著4.心包少量积液5.颅脑扫描未见异常。</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>左乳外侧见团块状影,边缘不清,内见弥漫细小多形性钙化,增强后呈较显著不均匀强化;同侧乳晕区皮肤略增厚,乳头凹陷。左侧腋窝见大者短径约0.6CM肿大淋巴结,强化较显著。双肺野清晰。扫描野内肝内见大者直径约0.6CM低密度结节,边缘清晰或欠清晰,未见强化。	1.左乳癌并左侧腋窝淋巴结转移2.肝内低密度灶,部分为囊肿,部分囊肿可能,建议观察。</t>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>左乳外侧见团块状影，边缘不清，内见弥漫细小多形性钙化，增强后呈较显著不均匀强化；同侧乳晕区皮肤略增厚，乳头凹陷。左侧腋窝见大者短径约0.6CM肿大淋巴结，强化较显著。双肺野清晰。扫描野内肝内见大者直径约0.6CM低密度结节，边缘清晰或欠清晰，未见强化。	1.左乳癌并左侧腋窝淋巴结转移2.肝内低密度灶，部分为囊肿，部分囊肿可能，建议观察。</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>右肺上叶尖段可见软组织肿块影,最大截面约0.8CM×1.6CM(肺窗),边缘浅分叶可见细毛刺,内缘有长毛刺与纵隔相连,增强扫描呈中等不均匀性强化;余双肺野较清晰,未见明确异常密度灶。纵隔、双肺门未见明确肿大淋巴结。肝脏形态、大小可,实质密度均质。肝内外胆管未见扩张。胆囊充盈可,壁不厚。胰、脾、扫描野内双肾形态大小密度未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。骨窗示双侧锁骨、左侧肱骨、双侧肩胛骨、胸骨、双侧多发肋骨、多发胸腰骶椎椎体可见多发骨质破坏。	1.结合临床,右肺上叶癌侵及脏层胸膜较前(2016-3-22)变化不著;骨转移较前变化不著2.双侧肾上腺饱满,变化不著。</t>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>右肺上叶尖段可见软组织肿块影，最大截面约0.8CM×1.6CM(肺窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。纵隔、双肺门未见明确肿大淋巴结。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾形态大小密度未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。骨窗示双侧锁骨、左侧肱骨、双侧肩胛骨、胸骨、双侧多发肋骨、多发胸腰骶椎椎体可见多发骨质破坏。	1.结合临床，右肺上叶癌侵及脏层胸膜较前(2016-3-22)变化不著；骨转移较前变化不著2.双侧肾上腺饱满，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>右肺下叶背段脊柱旁可见软组织密度结节灶,大小约1.7CM×1.0CM,边缘毛糙,局部与邻近胸膜关系密切,并可见胸膜牵拉征;增强后结节呈中度不均匀强化。右肺下叶见斑片状及条索状密度增高影。右侧胸膜(含叶间胸膜及纵隔胸膜)示不规则增厚,局部呈条状及结节状,增强扫描可见强化。左侧叶间胸膜见多发结节灶。右侧胸腔内可见少量液性密度影,边缘可见膨胀不全肺组织影。双肺门及纵隔内未见肿大淋巴结。肝脏大小、形态可,动脉期实质内见数个强化结节灶,边界较清,强化较显著,门脉及延迟期部分显示不清。另于肝右叶见一低密度灶(图2-55),边界清,直径约0.8CM,动脉期中心可见强化,门脉及延迟显示欠清。胆囊充盈可,壁不厚。胰腺、脾及双肾未见明确异常。腹腔、腹膜后未见明确肿大淋巴结。腹腔内未见积液征象。	1.结合临床,右肺癌治疗后,较前(2014-11-12)好转;右侧胸膜转移较前变化不著,右侧胸腔积液伴右肺局限性实变,变化不著2.左侧叶间胸膜结节灶,转移不除外,建议观察3.肝内多发强化灶,考虑血管瘤。</t>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>右肺下叶背段脊柱旁可见软组织密度结节灶，大小约1.7CM×1.0CM，边缘毛糙，局部与邻近胸膜关系密切，并可见胸膜牵拉征；增强后结节呈中度不均匀强化。右肺下叶见斑片状及条索状密度增高影。右侧胸膜(含叶间胸膜及纵隔胸膜)示不规则增厚，局部呈条状及结节状，增强扫描可见强化。左侧叶间胸膜见多发结节灶。右侧胸腔内可见少量液性密度影，边缘可见膨胀不全肺组织影。双肺门及纵隔内未见肿大淋巴结。肝脏大小、形态可，动脉期实质内见数个强化结节灶，边界较清，强化较显著，门脉及延迟期部分显示不清。另于肝右叶见一低密度灶(图2-55)，边界清，直径约0.8CM，动脉期中心可见强化，门脉及延迟显示欠清。胆囊充盈可，壁不厚。胰腺、脾及双肾未见明确异常。腹腔、腹膜后未见明确肿大淋巴结。腹腔内未见积液征象。	1.结合临床，右肺癌治疗后，较前(2014-11-12)好转；右侧胸膜转移较前变化不著，右侧胸腔积液伴右肺局限性实变，变化不著2.左侧叶间胸膜结节灶，转移不除外，建议观察3.肝内多发强化灶，考虑血管瘤。</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>左乳术后缺如,术区结构紊乱,周围脂肪间隙模糊,部分胸肌尚存,术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱。右乳未见明确异常。左侧锁骨上间隙较模糊。左肺门示短径约0.6CM淋巴结。右侧腋窝、双侧内乳区、右肺门及纵隔未见明确肿大淋巴结。左肺示少许斑片影。右肺未见明确异常密度灶。肝脏密度减低,内见囊性密度灶,边界较清,直径约2.0CM。另肝内示斑片状低密度灶,强化不著,边界欠清。胆囊、胰腺、脾、双侧肾上腺及左肾未见明确异常。右肾见短径不足0.5CM的小低密度灶。腹腔内肝胃韧带区、腹膜后腹主动脉周围见小淋巴结,大者短径约0.6CM。网膜及肠系膜、盆腹膜示增厚,局部呈斑片状及结节状改变,部分与邻近肠管分界不清,增强呈不均匀强化。卵巢术后,术区结构紊乱,周围间隙模糊,可见片状低密度影,与周围结构分界不清。宫颈体积增大,密度欠均匀。膀胱充盈可,壁略增厚。盆腔内未见明确肿大淋巴结。多发胸腰骶椎椎体及附件、双侧部分肋骨、双侧髋骨示骨质密度增高,局部可见结节状高密度影。双侧肱骨、股骨及左侧肩胛骨密度欠均。	1.结合临床,左乳癌术后;卵巢转移术后,术区片状低密度影,较前变化不著2.网膜、肠系膜及盆腹膜转移治疗后,较前变化不著3.脂肪肝;肝囊肿;肝内低密度灶,变化不著4.右肾囊肿5.宫颈体积增大,变化不著6.胸腰骶椎、肋骨、髋骨骨质密度增高,考虑转移,较前变化不著。</t>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>左乳术后缺如，术区结构紊乱，周围脂肪间隙模糊，部分胸肌尚存，术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱。右乳未见明确异常。左侧锁骨上间隙较模糊。左肺门示短径约0.6CM淋巴结。右侧腋窝、双侧内乳区、右肺门及纵隔未见明确肿大淋巴结。左肺示少许斑片影。右肺未见明确异常密度灶。肝脏密度减低，内见囊性密度灶，边界较清，直径约2.0CM。另肝内示斑片状低密度灶，强化不著，边界欠清。胆囊、胰腺、脾、双侧肾上腺及左肾未见明确异常。右肾见短径不足0.5CM的小低密度灶。腹腔内肝胃韧带区、腹膜后腹主动脉周围见小淋巴结，大者短径约0.6CM。网膜及肠系膜、盆腹膜示增厚，局部呈斑片状及结节状改变，部分与邻近肠管分界不清，增强呈不均匀强化。卵巢术后，术区结构紊乱，周围间隙模糊，可见片状低密度影，与周围结构分界不清。宫颈体积增大，密度欠均匀。膀胱充盈可，壁略增厚。盆腔内未见明确肿大淋巴结。多发胸腰骶椎椎体及附件、双侧部分肋骨、双侧髋骨示骨质密度增高，局部可见结节状高密度影。双侧肱骨、股骨及左侧肩胛骨密度欠均。	1.结合临床，左乳癌术后；卵巢转移术后，术区片状低密度影，较前变化不著2.网膜、肠系膜及盆腹膜转移治疗后，较前变化不著3.脂肪肝；肝囊肿；肝内低密度灶，变化不著4.右肾囊肿5.宫颈体积增大，变化不著6.胸腰骶椎、肋骨、髋骨骨质密度增高，考虑转移，较前变化不著。</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>右肺上叶后段近胸膜处示软组织结节灶,增强扫描明显强化,形态不规则,截面约2.1CM×1.9CM。双肺内示泡状过度透光区。纵隔内气管右旁、腔静脉后间隙、隆突下、右肺门示增大淋巴结,大者短径约1.3CM。右侧胸膜增厚呈结节及肿块状,明显强化。右侧胸腔示液体密度影。肝实质内示数个囊性密度灶,大者短径约0.5CM。胆、胰、脾、双肾上腺、双肾形态、密度未见明显异常。腹腔及腹膜后未见明显增大淋巴结。	1.结合临床,右肺癌,较前(2014-10-7)略似饱满,建议观察;右肺门并纵隔淋巴结转移,较前部分好转,部分变化不著;右侧胸膜转移,较前部分好转,部分变化不著;右侧胸腔积液,较前变化不著2.肝囊肿。</t>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>右肺上叶后段近胸膜处示软组织结节灶，增强扫描明显强化，形态不规则，截面约2.1CM×1.9CM。双肺内示泡状过度透光区。纵隔内气管右旁、腔静脉后间隙、隆突下、右肺门示增大淋巴结，大者短径约1.3CM。右侧胸膜增厚呈结节及肿块状，明显强化。右侧胸腔示液体密度影。肝实质内示数个囊性密度灶，大者短径约0.5CM。胆、胰、脾、双肾上腺、双肾形态、密度未见明显异常。腹腔及腹膜后未见明显增大淋巴结。	1.结合临床，右肺癌，较前(2014-10-7)略似饱满，建议观察；右肺门并纵隔淋巴结转移，较前部分好转，部分变化不著；右侧胸膜转移，较前部分好转，部分变化不著；右侧胸腔积液，较前变化不著2.肝囊肿。</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后2.左肺门、纵隔淋巴结转移,较前(2015-9-9)略示进展3.双肺炎症,较前加重;双侧胸膜略增厚,较前进展,双侧胸腔积液4.双肺小结节灶,变化不著5.肝囊肿、钙化灶6.右肾囊肿7.右肾上腺结节灶,考虑腺瘤,变化不著8.甲状腺低密度灶,变化不著。右乳术后,前胸壁软组织略增厚,未见明显异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺门、纵隔内主肺动脉窗区可见肿大淋巴结,直径约1.8CM。右肺门淋巴结略增大,短径约0.8CM。左肺上叶支气管受压狭窄,远端肺野近纵隔旁可见带状密度增高影,另双肺内见斑片状密度增高影,右肺下叶为著。余双肺散在小结节灶,大者直径约0.4CM。双侧胸膜略增厚,双侧胸腔内可见较多液性密度影。甲状腺示斑片状低密度灶。肝内见囊性密度灶及斑片状致密影。胆囊壁增厚。右肾示小囊性密度灶。右肾上腺可见结节灶,直径约0.8CM,密度较低,强化不明显。骨窗示多发胸椎椎体、肋骨骨质略示稀疏。	</t>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后2.左肺门、纵隔淋巴结转移，较前(2015-9-9)略示进展3.双肺炎症，较前加重；双侧胸膜略增厚，较前进展，双侧胸腔积液4.双肺小结节灶，变化不著5.肝囊肿、钙化灶6.右肾囊肿7.右肾上腺结节灶，考虑腺瘤，变化不著8.甲状腺低密度灶，变化不著。右乳术后，前胸壁软组织略增厚，未见明显异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺门、纵隔内主肺动脉窗区可见肿大淋巴结，直径约1.8CM。右肺门淋巴结略增大，短径约0.8CM。左肺上叶支气管受压狭窄，远端肺野近纵隔旁可见带状密度增高影，另双肺内见斑片状密度增高影，右肺下叶为著。余双肺散在小结节灶，大者直径约0.4CM。双侧胸膜略增厚，双侧胸腔内可见较多液性密度影。甲状腺示斑片状低密度灶。肝内见囊性密度灶及斑片状致密影。胆囊壁增厚。右肾示小囊性密度灶。右肾上腺可见结节灶，直径约0.8CM，密度较低，强化不明显。骨窗示多发胸椎椎体、肋骨骨质略示稀疏。	</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,左肺癌治疗后;左侧胸膜转移及叶裂转移2.左肺慢性炎症及纤维灶3.左侧心包及心膈角区结节影4.肝囊肿以上均较前(2016-08-29)片变化不著。左肺上叶纵隔旁示一不规则软组织密度结节灶,与纵隔内主肺动脉窗区肿大淋巴结分界不清。左肺野内见斑片索条状密度增高影,左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧心包及左侧心膈角区可见多发结节影,大者直径不足1.0CM。肝脏大小形态未见异常,肝实质内可见一小低密度灶,边界清。胆囊、胰腺、脾、双肾、肾上腺未见异常,腹腔腹膜后未见肿大淋巴结影。	</t>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，左肺癌治疗后；左侧胸膜转移及叶裂转移2.左肺慢性炎症及纤维灶3.左侧心包及心膈角区结节影4.肝囊肿以上均较前(2016-08-29)片变化不著。左肺上叶纵隔旁示一不规则软组织密度结节灶，与纵隔内主肺动脉窗区肿大淋巴结分界不清。左肺野内见斑片索条状密度增高影，左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧心包及左侧心膈角区可见多发结节影，大者直径不足1.0CM。肝脏大小形态未见异常，肝实质内可见一小低密度灶，边界清。胆囊、胰腺、脾、双肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。	</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右肺癌,较前(2016-1-28)进展;阻塞性肺炎,略减轻;纵隔及右肺门淋巴结转移,较前进展;右肺中叶转移结节,,较前增大2.甲状腺低密度灶,考虑结节性甲状腺肿,变化不著3.肝囊肿4.右肺炎症,较前局部好转;双肺气肿5.右侧胸腔积液,较前减少;心包腔积液,略增多6.胆囊炎;胆囊内结节影,考虑小息肉,变化不著7.部分椎体密度不均,较前局部加重,转移可能性大,请结合ECT。右肺水平裂旁见一软组织密度肿块,大小约4.5CM×3.4CM,边缘毛刺、浅分叶,局部牵拉邻近肋胸膜凹陷,病变周围肺野内见少许条索及斑片影,增强扫描病变呈轻度不均匀强化。右肺中叶见一直径约1.8CM结节灶,与上述病变分界不清。右肺野内见多发斑片状及条索状密度增高影。双肺野内见多发囊泡状过度透光区。纵隔及右肺门见肿大淋巴结,大者短径约1.7CM,增强扫描呈不均匀强化。扫描野内甲状腺右侧叶上极见一低密度灶,直径约1.9CM,边界较清晰,增强扫描可见强化,甲状腺被膜完整。心包内及右侧胸腔内见弧形液性密度影。肝实质内见多发囊性密度灶,大者直径约1.8CM,边界清,无强化。胆囊充盈可,壁略厚,其内见结节状高密度影,直径不足0.5CM。胰、双侧肾上腺及双肾未见异常。脾内见一直径不足0.5CM小低密度结节。腹腔及腹膜后未见增大淋巴结。部分椎体密度不均。	</t>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右肺癌，较前(2016-1-28)进展；阻塞性肺炎，略减轻；纵隔及右肺门淋巴结转移，较前进展；右肺中叶转移结节，，较前增大2.甲状腺低密度灶，考虑结节性甲状腺肿，变化不著3.肝囊肿4.右肺炎症，较前局部好转；双肺气肿5.右侧胸腔积液，较前减少；心包腔积液，略增多6.胆囊炎；胆囊内结节影，考虑小息肉，变化不著7.部分椎体密度不均，较前局部加重，转移可能性大，请结合ECT。右肺水平裂旁见一软组织密度肿块，大小约4.5CM×3.4CM，边缘毛刺、浅分叶，局部牵拉邻近肋胸膜凹陷，病变周围肺野内见少许条索及斑片影，增强扫描病变呈轻度不均匀强化。右肺中叶见一直径约1.8CM结节灶，与上述病变分界不清。右肺野内见多发斑片状及条索状密度增高影。双肺野内见多发囊泡状过度透光区。纵隔及右肺门见肿大淋巴结，大者短径约1.7CM，增强扫描呈不均匀强化。扫描野内甲状腺右侧叶上极见一低密度灶，直径约1.9CM，边界较清晰，增强扫描可见强化，甲状腺被膜完整。心包内及右侧胸腔内见弧形液性密度影。肝实质内见多发囊性密度灶，大者直径约1.8CM，边界清，无强化。胆囊充盈可，壁略厚，其内见结节状高密度影，直径不足0.5CM。胰、双侧肾上腺及双肾未见异常。脾内见一直径不足0.5CM小低密度结节。腹腔及腹膜后未见增大淋巴结。部分椎体密度不均。	</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>1.结合临床,右乳癌术后,纵隔、双肺门淋巴结转移,左肺转移,较前2016-1-26变化不著;左肾上腺转移,较前变化不著;骨转移,较前变化不著2.双肺炎症,部分加重3.心包积液4.肝囊肿右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结,大者直径约0.5CM。左肺野示数个结节灶,大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶,直径约0.9CM。胆、胰、脾及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示溶骨性及混合性骨质破坏。</t>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1.结合临床，右乳癌术后，纵隔、双肺门淋巴结转移，左肺转移，较前2016-1-26变化不著；左肾上腺转移，较前变化不著；骨转移，较前变化不著2.双肺炎症，部分加重3.心包积液4.肝囊肿右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结，大者直径约0.5CM。左肺野示数个结节灶，大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶，直径约0.9CM。胆、胰、脾及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示溶骨性及混合性骨质破坏。</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>直肠术后,术区示高密度吻合器影,壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低,内示小囊性密度灶。双肾内示低密度灶,边缘模糊,另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约3.7CM(纵隔窗),内示空洞影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚,胸腔未见积液征象。甲状腺右叶见低密度灶,边缘较清晰。	1.结合临床,直肠癌术后;双肺转移,较前(2016-12-8)部分增大,部分变化不著2.双肾低密度灶,基本变化不著,建议观察;双肾囊肿3.双侧胸膜略增厚,变化不著4.甲状腺低密度灶,变化不著5.脂肪肝;考虑肝囊肿,变化不著。</t>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>直肠术后，术区示高密度吻合器影，壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低，内示小囊性密度灶。双肾内示低密度灶，边缘模糊，另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.7CM(纵隔窗)，内示空洞影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚，胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	1.结合临床，直肠癌术后；双肺转移，较前(2016-12-8)部分增大，部分变化不著2.双肾低密度灶，基本变化不著，建议观察；双肾囊肿3.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著5.脂肪肝；考虑肝囊肿，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>左乳术后,术区结构紊乱,未见结节及肿块。左侧腋窝结构紊乱。左侧胸肌深面可见软组织密度灶,大者大小约1.3CM×2.0CM,明显不均匀强化。右乳未见异常。左侧内乳区、左侧锁骨上、膈上前组、中组见增大淋巴结,大者短径约0.4CM。双侧肺门及纵隔未见肿大淋巴结。双肺野尚清晰。甲状腺内示低密度灶。扫描野内肝实质内见多发低密度结节及肿块,边缘略模糊,其密度不均。脑组织密度均质,各脑室池系统及中线结构未见异常。部分椎骨及肋骨示溶骨性破坏。	1.结合临床,左乳癌术后改变;左侧胸肌深面转移,较前(2016-7-5)好转;左侧内乳淋巴结肿大;肝转移,较前好转;左侧锁骨上、膈上淋巴结肿大,较前好转;骨转移变化不著2.甲状腺低密度灶,较前变化不著3.颅脑扫描未见异常。</t>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>左乳术后，术区结构紊乱，未见结节及肿块。左侧腋窝结构紊乱。左侧胸肌深面可见软组织密度灶，大者大小约1.3CM×2.0CM，明显不均匀强化。右乳未见异常。左侧内乳区、左侧锁骨上、膈上前组、中组见增大淋巴结，大者短径约0.4CM。双侧肺门及纵隔未见肿大淋巴结。双肺野尚清晰。甲状腺内示低密度灶。扫描野内肝实质内见多发低密度结节及肿块，边缘略模糊，其密度不均。脑组织密度均质，各脑室池系统及中线结构未见异常。部分椎骨及肋骨示溶骨性破坏。	1.结合临床，左乳癌术后改变；左侧胸肌深面转移，较前(2016-7-5)好转；左侧内乳淋巴结肿大；肝转移，较前好转；左侧锁骨上、膈上淋巴结肿大，较前好转；骨转移变化不著2.甲状腺低密度灶，较前变化不著3.颅脑扫描未见异常。</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合病史,肝癌伴肝内转移治疗后,部分较2014-10-07片变化不著;肝左内叶近膈顶处病灶较前增大,邻近下腔静脉受压;肝内多发强化结节,部分较前增大2.双肺多发转移,较前进展3.双肺局限性肺气肿,肺大泡;双肺纤维灶4.右侧叶间胸膜结节灶,较前变化不著5.肝小囊肿6.左侧肾上腺饱满,较前变化不著。肝脏体积增大,形态欠规则,实质内见多发混杂密度结节及肿块影,边界欠清,部分可见假包膜形成,大者截面积约12.0CM×11.2CM,部分其内示高密度碘油影沉积;增强扫描呈中度不均匀强化,大者其内可见低密度坏死区,延迟后病灶部分可见廓清。肝左内叶近膈顶处病灶大小约6.5CM×5.3CM,邻近下腔静脉受压变窄。余肝内见数个动脉期较显著强化灶,门脉期和延迟期廓清迅速,大者长径约4.5CM。肝内另见小囊性密度灶,大者长径不足0.5CM,界清,无强化。门脉主干及左支显示尚可,门脉右前支示受压显著变窄,右后支显示欠清。胆囊充盈不佳,壁略厚伴强化。胰腺、脾、双肾及右侧肾上腺未见明确异常。左侧肾上腺略示饱满。腹腔及腹膜后未见确切增大淋巴结。双肺内示多发大小不一的结节灶,大者长径约0.9CM。双肺内胸膜下见多发泡状过度透亮区及条索状密度增高影,局部肺大泡形成。双肺门及纵隔未见确切增大淋巴结。纵隔内冠状动脉见条形钙化。右侧叶间胸膜增厚局部示类结节灶。双侧胸腔未见液性密度影。	</t>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合病史，肝癌伴肝内转移治疗后，部分较2014-10-07片变化不著；肝左内叶近膈顶处病灶较前增大，邻近下腔静脉受压；肝内多发强化结节，部分较前增大2.双肺多发转移，较前进展3.双肺局限性肺气肿，肺大泡；双肺纤维灶4.右侧叶间胸膜结节灶，较前变化不著5.肝小囊肿6.左侧肾上腺饱满，较前变化不著。肝脏体积增大，形态欠规则，实质内见多发混杂密度结节及肿块影，边界欠清，部分可见假包膜形成，大者截面积约12.0CM×11.2CM，部分其内示高密度碘油影沉积；增强扫描呈中度不均匀强化，大者其内可见低密度坏死区，延迟后病灶部分可见廓清。肝左内叶近膈顶处病灶大小约6.5CM×5.3CM，邻近下腔静脉受压变窄。余肝内见数个动脉期较显著强化灶，门脉期和延迟期廓清迅速，大者长径约4.5CM。肝内另见小囊性密度灶，大者长径不足0.5CM，界清，无强化。门脉主干及左支显示尚可，门脉右前支示受压显著变窄，右后支显示欠清。胆囊充盈不佳，壁略厚伴强化。胰腺、脾、双肾及右侧肾上腺未见明确异常。左侧肾上腺略示饱满。腹腔及腹膜后未见确切增大淋巴结。双肺内示多发大小不一的结节灶，大者长径约0.9CM。双肺内胸膜下见多发泡状过度透亮区及条索状密度增高影，局部肺大泡形成。双肺门及纵隔未见确切增大淋巴结。纵隔内冠状动脉见条形钙化。右侧叶间胸膜增厚局部示类结节灶。双侧胸腔未见液性密度影。	</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>右侧乳腺术后,术区胸壁部分胸肌尚存,右侧胸壁近胸骨旁见一较大软组织密度肿块,大小约7.2CM×4.5CM,越过胸壁想胸腔内侵及,相邻胸骨骨质破坏,增强扫描可见明显强化。右侧内乳区及纵隔内见多发肿大淋巴结。左侧乳腺未见异常。左侧腋窝见直径约0.6CM的小淋巴结。双肺野见数个结节灶,大者直径约1.0CM。部分肋骨骨质密度不均。扫描野内右侧颈后三角区见多发肿大淋巴结。	1.结合临床,右侧乳腺癌术后,右侧胸壁复发并累及胸骨;右侧颈部、右侧内乳区、纵隔淋巴结转移2.左侧腋窝淋巴结稍大,建议观察3.双肺结节灶,不除外转移,请结合前片或密切随访4.部分肋骨骨质密度不均,请结合骨扫描除外转移。</t>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>右侧乳腺术后，术区胸壁部分胸肌尚存，右侧胸壁近胸骨旁见一较大软组织密度肿块，大小约7.2CM×4.5CM，越过胸壁想胸腔内侵及，相邻胸骨骨质破坏，增强扫描可见明显强化。右侧内乳区及纵隔内见多发肿大淋巴结。左侧乳腺未见异常。左侧腋窝见直径约0.6CM的小淋巴结。双肺野见数个结节灶，大者直径约1.0CM。部分肋骨骨质密度不均。扫描野内右侧颈后三角区见多发肿大淋巴结。	1.结合临床，右侧乳腺癌术后，右侧胸壁复发并累及胸骨；右侧颈部、右侧内乳区、纵隔淋巴结转移2.左侧腋窝淋巴结稍大，建议观察3.双肺结节灶，不除外转移，请结合前片或密切随访4.部分肋骨骨质密度不均，请结合骨扫描除外转移。</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>右乳术后,术区未见增厚及异常强化征象;右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结,短径不足0.5CM。右肺上叶可见团片状密度增高影。另于右肺上叶及中叶见少许条索状密度增高影。左肺下叶见一结节灶,呈磨玻璃密度,直径约0.8CM。左侧肺野较清晰。纵隔内气管前腔静脉后见肿大淋巴结,短径约0.8CM。肝实质内示多发结节灶,边缘欠清,大者直径不足1.0CM。胆胰脾双肾上腺右肾形态、密度未见明显异常。左肾示囊性密度灶,未见强化。腹腔及腹膜后未见明显增大淋巴结。	1.结合临床,右乳癌术后,肺转移微波消融术后改变,范围较前(2016-06-09)基本变化不著;左肺结节灶,考虑转移2.纵隔淋巴结肿大,较前变化不著3.肝内多发低密度灶,考虑转移,基本变化不著4.左肾囊肿。</t>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>右乳术后，术区未见增厚及异常强化征象；右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结，短径不足0.5CM。右肺上叶可见团片状密度增高影。另于右肺上叶及中叶见少许条索状密度增高影。左肺下叶见一结节灶，呈磨玻璃密度，直径约0.8CM。左侧肺野较清晰。纵隔内气管前腔静脉后见肿大淋巴结，短径约0.8CM。肝实质内示多发结节灶，边缘欠清，大者直径不足1.0CM。胆胰脾双肾上腺右肾形态、密度未见明显异常。左肾示囊性密度灶，未见强化。腹腔及腹膜后未见明显增大淋巴结。	1.结合临床，右乳癌术后，肺转移微波消融术后改变，范围较前(2016-06-09)基本变化不著；左肺结节灶，考虑转移2.纵隔淋巴结肿大，较前变化不著3.肝内多发低密度灶，考虑转移，基本变化不著4.左肾囊肿。</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>右侧乳腺乳头后方见较多不规则软组织密度肿块影,最大截面约4.7CM×6.7CM,边缘分叶,局部与周围腺体及乳头区皮肤分界不清,胸肌间脂肪间隙模糊,增强扫描见显著不均匀强化,其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见稍大淋巴结,大者短径约0.6CM。右侧内乳区见增大淋巴结,短径约0.5CM。纵隔内左侧下肺静脉旁见短径约0.6CM的淋巴结影。双肺野散在分布大小不等结节灶,大者直径约1.6CM,边缘清晰,局部与胸膜及纵隔关系密切,增强扫描可见强化。左肺胸膜增厚,局部呈结节样;局部见多发钙化灶并致局部肋骨欠规则。扫描野肝实质内见多个低密度灶,大者直径约1.5CM,边缘清晰,增强扫描边缘强化显著,部分见牛眼征。	1.结合临床,右乳癌治疗后,较前(2015-03-27)好转;双侧腋窝、纵隔淋巴结肿大,较前缩小;右侧内乳区淋巴结肿大;双肺转移,部分较前缩小,部分变化不著;肝转移,较前略缩小2.左肺胸膜局限性增厚,局部钙化,变化不著。</t>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>右侧乳腺乳头后方见较多不规则软组织密度肿块影，最大截面约4.7CM×6.7CM，边缘分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见稍大淋巴结，大者短径约0.6CM。右侧内乳区见增大淋巴结，短径约0.5CM。纵隔内左侧下肺静脉旁见短径约0.6CM的淋巴结影。双肺野散在分布大小不等结节灶，大者直径约1.6CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左肺胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。扫描野肝实质内见多个低密度灶，大者直径约1.5CM，边缘清晰，增强扫描边缘强化显著，部分见牛眼征。	1.结合临床，右乳癌治疗后，较前(2015-03-27)好转；双侧腋窝、纵隔淋巴结肿大，较前缩小；右侧内乳区淋巴结肿大；双肺转移，部分较前缩小，部分变化不著；肝转移，较前略缩小2.左肺胸膜局限性增厚，局部钙化，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右肺癌治疗后,较前片2014-10-14变化不著;右肺门、纵隔淋巴结转移,较前变化不著2.右肺下叶炎症,较前略显著;右肺下叶小叶间隔增厚,较前基本变化不著3.双肺多发类结节灶,建议密切观察以除外转移4.右侧少量胸腔积液,较前略减少5.肝内钙化灶6.颅脑扫描未见明显异常。右肺下叶见不规则斑片状软组织影,边缘毛糙,大小不易测量,增强后中度强化;其远端肺野见斑片状及索条状密度增高影。另右肺下叶小叶间隔增厚。余双肺野可见多个类结节灶,部分位于胸膜下,边缘模糊,大者直径约0.5CM。右肺门及纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结,大者短径约1.1CM,部分增强后强化显著。右侧胸腔内示少量液体密度影。扫描野内肝内见一斑点状钙化灶。脑实质密度均匀。脑室、池无扩张。脑沟、回无增宽。中线结构居中。	</t>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右肺癌治疗后，较前片2014-10-14变化不著；右肺门、纵隔淋巴结转移，较前变化不著2.右肺下叶炎症，较前略显著；右肺下叶小叶间隔增厚，较前基本变化不著3.双肺多发类结节灶，建议密切观察以除外转移4.右侧少量胸腔积液，较前略减少5.肝内钙化灶6.颅脑扫描未见明显异常。右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。另右肺下叶小叶间隔增厚。余双肺野可见多个类结节灶，部分位于胸膜下，边缘模糊，大者直径约0.5CM。右肺门及纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径约1.1CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。扫描野内肝内见一斑点状钙化灶。脑实质密度均匀。脑室、池无扩张。脑沟、回无增宽。中线结构居中。	</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>直肠术后,术区示高密度吻合器影,壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低,内示小囊性密度灶。双肾内示低密度灶,边缘模糊,另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约3.6CM(纵隔窗),内示空洞影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶,边缘较清晰。	1.结合临床,直肠癌术后;双肺转移,较前(2016-9-8)部分缩小,部分略饱满,余变化不著2.双肾低密度灶,部分变化不著,部分略缩小,建议观察;双肾囊肿3.双侧胸膜略增厚,变化不著4.甲状腺低密度灶,变化不著5.脂肪肝;考虑肝囊肿。</t>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>直肠术后，术区示高密度吻合器影，壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低，内示小囊性密度灶。双肾内示低密度灶，边缘模糊，另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.6CM(纵隔窗)，内示空洞影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	1.结合临床，直肠癌术后；双肺转移，较前(2016-9-8)部分缩小，部分略饱满，余变化不著2.双肾低密度灶，部分变化不著，部分略缩小，建议观察；双肾囊肿3.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著5.脂肪肝；考虑肝囊肿。</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>1.右肺下叶肺癌,并双肺、右胸膜多发转移;2.右侧胸腔积液,心包积液;3.甲状腺饱满;以上征象较前CT(2015-11-13)相仿。右肺下叶可见不规则稍低密度影,与右肺门分界不清,边缘毛糙,CT值约为38HU,其内密度不均,长径约为1.99CM×1.5CM,邻近肺组织可见模糊影,右肺下叶内基底段支气管截断,右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影,边缘毛糙,大者径约为0.6CM;纵隔内未见增大淋巴结影。右侧胸腔、心包内见少许液性密度影。甲状腺明显肿大。</t>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1.右肺下叶肺癌，并双肺、右胸膜多发转移；2.右侧胸腔积液，心包积液；3.甲状腺饱满；以上征象较前CT(2015-11-13)相仿。右肺下叶可见不规则稍低密度影，与右肺门分界不清，边缘毛糙，CT值约为38HU，其内密度不均，长径约为1.99CM×1.5CM，邻近肺组织可见模糊影，右肺下叶内基底段支气管截断，右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影，边缘毛糙，大者径约为0.6CM；纵隔内未见增大淋巴结影。右侧胸腔、心包内见少许液性密度影。甲状腺明显肿大。</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右肺上叶癌侵及脏层胸膜治疗后,较前(2017-2-3)基本变化不著;多发骨转移,变化不著2.右乳腺体局部密度增高,变化不著;肝左叶低密度影,变化不著。右肺上叶尖段可见软组织密度影,最大截面约0.9CM×1.0CM(纵隔窗),边缘浅分叶可见细毛刺,内缘有长毛刺与纵隔相连,增强扫描呈中等不均匀性强化;余双肺野较清晰,未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。肝脏形态、大小可,左叶局限性灌注不均。肝内外胆管未见扩张。胆囊充盈可,壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示:双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏,以成骨性为主,部分肋骨形态欠规则,略呈膨胀性改变。	</t>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右肺上叶癌侵及脏层胸膜治疗后，较前(2017-2-3)基本变化不著；多发骨转移，变化不著2.右乳腺体局部密度增高，变化不著；肝左叶低密度影，变化不著。右肺上叶尖段可见软组织密度影，最大截面约0.9CM×1.0CM(纵隔窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。肝脏形态、大小可，左叶局限性灌注不均。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示：双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏，以成骨性为主，部分肋骨形态欠规则，略呈膨胀性改变。	</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>左肺上叶近纵隔旁见团片状软组织影,最大截面大小约为4.02CM×6.56CM,肿块与纵隔分界不清,平扫CT值约35HU,左肺上叶支气管截断,左主支气管不规则变窄,管腔内可见结节状软组织密度影。右肺上叶后段可见一结节,径约0.5CM;左肺上叶可见大片状影,边缘模糊。右肺下叶可见多发结节状影,大者直径约为0.85CM。双肺纵隔旁及胸膜下见多个条索状及斑片状高密度影。腔静脉间隙、主动脉弓旁、气管隆突上纵隔及左肺门多发结节状软组织影,密度欠均匀,见小斑片状高密度影,部分融合。左侧胸腔少量液体密度影。主动脉壁可见条状钙化。1.左肺上叶肺癌并左肺上叶阻塞性炎症,并左肺门及纵隔淋巴结转移,较前片2013-06-24进展,左主支气管受侵;右肺下叶多发结节,较前新发,密切随诊除外转移可能;2.右肺上叶小结节,与前相仿;3.双肺纵隔旁及胸膜下斑片影,较前未见明显变化;4.左侧胸腔积液。</t>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>左肺上叶近纵隔旁见团片状软组织影，最大截面大小约为4.02CM×6.56CM，肿块与纵隔分界不清，平扫CT值约35HU，左肺上叶支气管截断，左主支气管不规则变窄，管腔内可见结节状软组织密度影。右肺上叶后段可见一结节，径约0.5CM；左肺上叶可见大片状影，边缘模糊。右肺下叶可见多发结节状影，大者直径约为0.85CM。双肺纵隔旁及胸膜下见多个条索状及斑片状高密度影。腔静脉间隙、主动脉弓旁、气管隆突上纵隔及左肺门多发结节状软组织影，密度欠均匀，见小斑片状高密度影，部分融合。左侧胸腔少量液体密度影。主动脉壁可见条状钙化。1.左肺上叶肺癌并左肺上叶阻塞性炎症，并左肺门及纵隔淋巴结转移，较前片2013-06-24进展，左主支气管受侵；右肺下叶多发结节，较前新发，密切随诊除外转移可能；2.右肺上叶小结节，与前相仿；3.双肺纵隔旁及胸膜下斑片影，较前未见明显变化；4.左侧胸腔积液。</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,考虑左乳癌治疗后较前2016-4-13好转;左侧腋窝软组织影,考虑转移,较前好转;骨转移较前变化不著;考虑双肺转移较前好转2.左侧锁骨上间隙模糊,较前好转。左乳偏外侧象限见多发结节灶,部分边缘模糊、毛糙,大者直径约0.9CM;增强扫描呈较显著不均匀强化。左侧腋窝见软组织密度影,边缘较毛糙,截面积约1.4CM×1.2CM;增强扫描呈不均匀强化。左锁上间隙较模糊,纵隔内左肾见小囊性密度灶。胰腺、脾、双侧肾上腺及右肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。双肺野内见多发结节灶,部分边缘模糊,形态欠规则,大者直径约0.5CM。所扫肝脏大小、形态可,实质密度均质。膀胱壁不厚。子宫及双附件未见明确异常。盆腔内未见明确肿大淋巴结。右侧多发肋骨、左侧髂骨、左侧耻骨及坐骨示溶骨性骨质破坏。	</t>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，考虑左乳癌治疗后较前2016-4-13好转；左侧腋窝软组织影，考虑转移，较前好转；骨转移较前变化不著；考虑双肺转移较前好转2.左侧锁骨上间隙模糊，较前好转。左乳偏外侧象限见多发结节灶，部分边缘模糊、毛糙，大者直径约0.9CM；增强扫描呈较显著不均匀强化。左侧腋窝见软组织密度影，边缘较毛糙，截面积约1.4CM×1.2CM；增强扫描呈不均匀强化。左锁上间隙较模糊，纵隔内左肾见小囊性密度灶。胰腺、脾、双侧肾上腺及右肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。双肺野内见多发结节灶，部分边缘模糊，形态欠规则，大者直径约0.5CM。所扫肝脏大小、形态可，实质密度均质。膀胱壁不厚。子宫及双附件未见明确异常。盆腔内未见明确肿大淋巴结。右侧多发肋骨、左侧髂骨、左侧耻骨及坐骨示溶骨性骨质破坏。	</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>左肺门增大,见肿块影,大小约为4.0CM×4.2CM,CT值约29HU,左肺支气管受压变窄,增强扫描三期CT值约49HU、63HU、65HU。左肺下叶见斑片灶。胸膜未见增厚改变。两胸腔无积液征象。纵隔淋巴结增大,大者短径约2.9CM。右锁骨上淋巴结增大,大者短径约1.9CM。左肺动脉局部显示不清。左室心肌增厚。考虑左肺中央型肺癌伴纵隔及右锁骨上淋巴结转移,左肺动脉受累,左肺下叶阻塞性肺炎或肺不张。</t>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>左肺门增大，见肿块影，大小约为4.0CM×4.2CM，CT值约29HU，左肺支气管受压变窄，增强扫描三期CT值约49HU、63HU、65HU。左肺下叶见斑片灶。胸膜未见增厚改变。两胸腔无积液征象。纵隔淋巴结增大，大者短径约2.9CM。右锁骨上淋巴结增大，大者短径约1.9CM。左肺动脉局部显示不清。左室心肌增厚。考虑左肺中央型肺癌伴纵隔及右锁骨上淋巴结转移，左肺动脉受累，左肺下叶阻塞性肺炎或肺不张。</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>右乳示多发软组织密度结节及肿块,部分融合,大者截面约3.7CM×3.2CM,边缘分叶,与皮肤关系密切,增强扫描可见较显著不均匀强化。右腋窝示强化小淋巴结,大者短径约0.5CM。左乳未见异常。左腋窝及锁上未见明显肿大淋巴结。纵隔内4R/L及7区示多个略增大淋巴结,大者短径约0.7CM。双侧胸腔示少量液体密度影,左侧较著,左肺下叶部分受压膨胀不全。余双肺示少许条索影。左侧胸膜略厚。肝内示多发低密度结节及肿块,大者截面约5.8CM×5.1CM,边缘模糊,增强扫描可见不均匀强化。胆胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。脑实质密度均匀。多发胸腰椎、肋骨、左侧肩胛骨及胸骨示骨质破坏。1.右乳癌,肝转移,多发骨转移2.右腋窝小淋巴结;纵隔淋巴结略大3.左侧胸膜略厚,双侧胸腔少量积液并左肺部分不张4.双肺纤维灶5.颅脑扫描未见明显异常</t>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>右乳示多发软组织密度结节及肿块，部分融合，大者截面约3.7CM×3.2CM，边缘分叶，与皮肤关系密切，增强扫描可见较显著不均匀强化。右腋窝示强化小淋巴结，大者短径约0.5CM。左乳未见异常。左腋窝及锁上未见明显肿大淋巴结。纵隔内4R/L及7区示多个略增大淋巴结，大者短径约0.7CM。双侧胸腔示少量液体密度影，左侧较著，左肺下叶部分受压膨胀不全。余双肺示少许条索影。左侧胸膜略厚。肝内示多发低密度结节及肿块，大者截面约5.8CM×5.1CM，边缘模糊，增强扫描可见不均匀强化。胆胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。脑实质密度均匀。多发胸腰椎、肋骨、左侧肩胛骨及胸骨示骨质破坏。1.右乳癌，肝转移，多发骨转移2.右腋窝小淋巴结；纵隔淋巴结略大3.左侧胸膜略厚，双侧胸腔少量积液并左肺部分不张4.双肺纤维灶5.颅脑扫描未见明显异常</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右肺癌并阻塞性肺不张治疗后,较前(2016-5-26)变化不明显;双肺多发转移,进展;骨转移,变化不明显2.肝囊肿3.右肾低密度灶,变化不著4.部分肋骨密度增高,变化不著。右肺中叶支气管开口处见一不规则低密度影,边缘模糊,大小不易测量,增强后可见轻度强化,远端示片状肺不张影。双肺见多发结节灶,部分边界欠清。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶,大者直径不足1.0CM。右肾见直径约0.5CM低密度灶,未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分椎骨示成骨性破坏。右侧第3肋局限性骨质密度增高。	</t>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右肺癌并阻塞性肺不张治疗后，较前(2016-5-26)变化不明显；双肺多发转移，进展；骨转移，变化不明显2.肝囊肿3.右肾低密度灶，变化不著4.部分肋骨密度增高，变化不著。右肺中叶支气管开口处见一不规则低密度影，边缘模糊，大小不易测量，增强后可见轻度强化，远端示片状肺不张影。双肺见多发结节灶，部分边界欠清。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶，大者直径不足1.0CM。右肾见直径约0.5CM低密度灶，未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分椎骨示成骨性破坏。右侧第3肋局限性骨质密度增高。	</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>右肺下叶肿块,边缘毛刺,邻近胸膜牵拉,大小约为2.54CM×3.0CM,CT值约46HU。双肺内可见多发结节样及粟粒样密度影,大者径约1.1CM。右肺下叶斑片状高密度影,边界模糊。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。右侧胸腔少量积液征象。心脏大血管未见异常。部分上位胸椎骨密度增高。右乳腺钙化灶。甲状腺右叶增大,密度不均匀。1.右肺下叶后基底段团块灶,考虑恶性占位性病变,周围型肺癌可能性大,伴双肺多发转移,较前2016-09-22CT片略增大;2.右肺下叶炎症,请结合临床;3.部分胸椎骨及邻近肋骨密度增高,较前相仿;4.甲状腺右叶病变,请结合相关检查。5.右侧胸腔少量积液征象。</t>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>右肺下叶肿块，边缘毛刺，邻近胸膜牵拉，大小约为2.54CM×3.0CM，CT值约46HU。双肺内可见多发结节样及粟粒样密度影，大者径约1.1CM。右肺下叶斑片状高密度影，边界模糊。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。右侧胸腔少量积液征象。心脏大血管未见异常。部分上位胸椎骨密度增高。右乳腺钙化灶。甲状腺右叶增大，密度不均匀。1.右肺下叶后基底段团块灶，考虑恶性占位性病变，周围型肺癌可能性大，伴双肺多发转移，较前2016-09-22CT片略增大；2.右肺下叶炎症，请结合临床；3.部分胸椎骨及邻近肋骨密度增高，较前相仿；4.甲状腺右叶病变，请结合相关检查。5.右侧胸腔少量积液征象。</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌治疗后;多发骨转移2.双肺结节及类结节灶,建议密切观察3.双肺气肿。右乳治疗后,腺体结构紊乱,皮肤局部增厚。余双乳腺体结构亦示紊乱。双侧腋窝见短径不足0.5CM小淋巴结。胸廓诸骨示较广泛性成骨性改变。双肺见结节及类结节灶,直径不足0.5CM。双肺见斑片状过度透光区。	</t>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌治疗后；多发骨转移2.双肺结节及类结节灶，建议密切观察3.双肺气肿。右乳治疗后，腺体结构紊乱，皮肤局部增厚。余双乳腺体结构亦示紊乱。双侧腋窝见短径不足0.5CM小淋巴结。胸廓诸骨示较广泛性成骨性改变。双肺见结节及类结节灶，直径不足0.5CM。双肺见斑片状过度透光区。	</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>1.左肺癌术后改变,左肺上野近胸膜处较大结节灶,转移瘤待除外,请与前片比较;2.双肺多发结节灶(部分钙化),考虑为陈旧性病变,双侧胸膜增厚;3.慢性支气管炎、伴右肺中叶及左肺上叶舌段少许感染;4.纵隔及肺门多发增大淋巴结,转移待除外,请与前片比较或详查;5.食道各段增粗、扩张,请结合临床。左肺上叶体积变小,左肺上野近叶间胸膜处可见较大结节影,边界尚清,大小约2.36CM,CT值约33HU。另见双肺边缘处可见多个大小不等结节影,部分钙化,右肺中叶及左肺上叶舌段见片状高密度影。局部肺野透光度增加。所示气管支气管影未见狭窄。纵隔内及双侧肺门可见多发增大的淋巴结,较大者短径约1.04CM。双侧胸膜增厚,食管各段增粗、扩张。心脏大血管未见异常。</t>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1.左肺癌术后改变，左肺上野近胸膜处较大结节灶，转移瘤待除外，请与前片比较；2.双肺多发结节灶(部分钙化)，考虑为陈旧性病变，双侧胸膜增厚；3.慢性支气管炎、伴右肺中叶及左肺上叶舌段少许感染；4.纵隔及肺门多发增大淋巴结，转移待除外，请与前片比较或详查；5.食道各段增粗、扩张，请结合临床。左肺上叶体积变小，左肺上野近叶间胸膜处可见较大结节影，边界尚清，大小约2.36CM，CT值约33HU。另见双肺边缘处可见多个大小不等结节影，部分钙化，右肺中叶及左肺上叶舌段见片状高密度影。局部肺野透光度增加。所示气管支气管影未见狭窄。纵隔内及双侧肺门可见多发增大的淋巴结，较大者短径约1.04CM。双侧胸膜增厚，食管各段增粗、扩张。心脏大血管未见异常。</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>右肺下叶背段可见不规则软组织密度肿块,截面大小约1.3CM×0.9CM,边缘浅分叶,周围可见多发长短毛刺,胸膜可见牵拉凹陷,增强后呈较显著不均质强化。左侧肺野较清晰。右侧胸膜(含叶间胸膜)可见不均匀增厚,可见多发结节灶,增强后呈较显著强化。右肺门、纵隔内2R、3A、7区可见多发略肿大淋巴结,大者短径约0.5CM。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。骨窗示:右侧第三、六、七肋骨示溶骨性骨质破坏。	1.右肺下叶癌并右侧胸膜(含叶间胸膜)转移较前2016-3-29变化不著;右肺门、纵隔淋巴结肿大,考虑转移,较前变化不著;多发骨转移较前变化不著2.上腹部扫描未见明显异常。</t>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>右肺下叶背段可见不规则软组织密度肿块，截面大小约1.3CM×0.9CM，边缘浅分叶，周围可见多发长短毛刺，胸膜可见牵拉凹陷，增强后呈较显著不均质强化。左侧肺野较清晰。右侧胸膜(含叶间胸膜)可见不均匀增厚，可见多发结节灶，增强后呈较显著强化。右肺门、纵隔内2R、3A、7区可见多发略肿大淋巴结，大者短径约0.5CM。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。骨窗示：右侧第三、六、七肋骨示溶骨性骨质破坏。	1.右肺下叶癌并右侧胸膜(含叶间胸膜)转移较前2016-3-29变化不著；右肺门、纵隔淋巴结肿大，考虑转移，较前变化不著；多发骨转移较前变化不著2.上腹部扫描未见明显异常。</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>注射示踪剂后60MMIN显像,见大脑形态如常,皮层各叶放射性分布均匀。中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。双颈部见多发淋巴结,未见明显异常放射性摄取。右乳术后缺如,右腋窝结构紊乱,术区软组织呈斑片状及条形摄取,最高SUV2.7,双肺示多发结节灶,大者约为0.7CM,部分轻度放射性摄取,右肺前胸膜下示斑片状密度增高影,内可见支气管充气征象,可见轻度放射性摄取,最高SUV2.0,右侧胸腔内见少量液性密度影。左侧腋窝、纵隔内4R、7区、左肺门、门腔静脉间、腹膜后大血管周围见多发摄取增高淋巴结,最高SUV5.8,大者短径约1.3CM。腹部胃充盈好,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹膜后未见明显肿大淋巴结。腹水征阴性。腹壁软组织未见明显异常影像。盆腔内膀胱放射性浓聚如常,膀胱壁无增厚。两侧腹股沟无异常淋巴结显示。子宫形态尚可,局部无异常放射性浓聚。两侧附件区未见异常放射性摄取。脊柱诸椎体未见明显异常放射性摄取影。	1.结合病史,右乳癌术后放疗后,术区软组织略高代谢,考虑为治疗后改变;双肺多发转移,左腋窝、纵隔、腹腔及腹膜后多发淋巴结转移;2.右肺慢性炎症及局限性纤维变。3.右侧少量胸腔积液。</t>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>注射示踪剂后60MMIN显像，见大脑形态如常，皮层各叶放射性分布均匀。中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。双颈部见多发淋巴结，未见明显异常放射性摄取。右乳术后缺如，右腋窝结构紊乱，术区软组织呈斑片状及条形摄取，最高SUV2.7，双肺示多发结节灶，大者约为0.7CM，部分轻度放射性摄取，右肺前胸膜下示斑片状密度增高影，内可见支气管充气征象，可见轻度放射性摄取，最高SUV2.0，右侧胸腔内见少量液性密度影。左侧腋窝、纵隔内4R、7区、左肺门、门腔静脉间、腹膜后大血管周围见多发摄取增高淋巴结，最高SUV5.8，大者短径约1.3CM。腹部胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹膜后未见明显肿大淋巴结。腹水征阴性。腹壁软组织未见明显异常影像。盆腔内膀胱放射性浓聚如常，膀胱壁无增厚。两侧腹股沟无异常淋巴结显示。子宫形态尚可，局部无异常放射性浓聚。两侧附件区未见异常放射性摄取。脊柱诸椎体未见明显异常放射性摄取影。	1.结合病史，右乳癌术后放疗后，术区软组织略高代谢，考虑为治疗后改变；双肺多发转移，左腋窝、纵隔、腹腔及腹膜后多发淋巴结转移；2.右肺慢性炎症及局限性纤维变。3.右侧少量胸腔积液。</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>右乳术后,前胸壁软组织略增厚,未见明显异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺门、纵隔内主肺动脉窗区可见肿大淋巴结,直径约1.7CM。右肺门淋巴结略增大,短径约0.8CM。左肺上叶支气管受压狭窄,远端肺野近纵隔旁可见带状密度增高影,另双肺内见斑片状密度增高影,右肺下叶为著。余双肺散在小结节灶,大者直径约0.4CM。双侧胸膜略增厚。甲状腺示斑片状低密度灶。肝内见囊性密度灶及斑片状致密影。胆囊壁增厚。右肾示小囊性密度灶。右肾上腺可见结节灶,直径约0.8CM,密度较低,强化不明显。	1.结合临床,右乳癌术后2.左肺门、纵隔淋巴结转移,较前(2015-6-30)变化不著3.双肺炎症,较前好转;双侧胸膜略增厚4.双肺小结节灶,变化不著5.肝囊肿、钙化灶6.右肾囊肿7.右肾上腺结节灶,考虑腺瘤,变化不著8.甲状腺低密度灶,变化不著。</t>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>右乳术后，前胸壁软组织略增厚，未见明显异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺门、纵隔内主肺动脉窗区可见肿大淋巴结，直径约1.7CM。右肺门淋巴结略增大，短径约0.8CM。左肺上叶支气管受压狭窄，远端肺野近纵隔旁可见带状密度增高影，另双肺内见斑片状密度增高影，右肺下叶为著。余双肺散在小结节灶，大者直径约0.4CM。双侧胸膜略增厚。甲状腺示斑片状低密度灶。肝内见囊性密度灶及斑片状致密影。胆囊壁增厚。右肾示小囊性密度灶。右肾上腺可见结节灶，直径约0.8CM，密度较低，强化不明显。	1.结合临床，右乳癌术后2.左肺门、纵隔淋巴结转移，较前(2015-6-30)变化不著3.双肺炎症，较前好转；双侧胸膜略增厚4.双肺小结节灶，变化不著5.肝囊肿、钙化灶6.右肾囊肿7.右肾上腺结节灶，考虑腺瘤，变化不著8.甲状腺低密度灶，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>1.左肺术后改变;2.左残肺肿块,考虑复发可能,与2014-06-06CT片对比,病灶范围增大;3.双肺多发粟粒灶及结节,考虑多发转移,较前病灶数目增多,范围增大;4.气管前肿大淋巴结,较前略增大;5.心包略增厚;6.胸12椎体内高密度灶,随诊。左肺体积减小,部分肺组织及支气管缺如,纵隔左偏;左残肺近纵隔旁见肿块影及线样致密影,边缘呈分叶征,其内可见截断支气管影,肿块最大截面约为4.43CM×5.58CM,CT值约为36HU,邻近胸膜增厚。双肺多发小粟粒影及磨玻璃密度结节影,边缘模糊,大者最大径约为0.57CM。气管前腔静脉后可见一肿大淋巴结,最大截面约为2.06CM×1.16CM。两胸腔无积液征象。主动脉及冠状动脉走形区可见条形钙化影,心包略增厚。所示胸12椎体内可见结节样致密影。</t>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1.左肺术后改变；2.左残肺肿块，考虑复发可能，与2014-06-06CT片对比，病灶范围增大；3.双肺多发粟粒灶及结节，考虑多发转移，较前病灶数目增多，范围增大；4.气管前肿大淋巴结，较前略增大；5.心包略增厚；6.胸12椎体内高密度灶，随诊。左肺体积减小，部分肺组织及支气管缺如，纵隔左偏；左残肺近纵隔旁见肿块影及线样致密影，边缘呈分叶征，其内可见截断支气管影，肿块最大截面约为4.43CM×5.58CM，CT值约为36HU，邻近胸膜增厚。双肺多发小粟粒影及磨玻璃密度结节影，边缘模糊，大者最大径约为0.57CM。气管前腔静脉后可见一肿大淋巴结，最大截面约为2.06CM×1.16CM。两胸腔无积液征象。主动脉及冠状动脉走形区可见条形钙化影，心包略增厚。所示胸12椎体内可见结节样致密影。</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>脑干、双侧大脑及小脑半球见多发大小不等的结节样异常信号,表现为T1WI低、略低信号,T2WI略高、高信号,压水序列高信号,DWI序列低、高信号,增强扫描呈结节样、环形或不均匀强化,大者约1.3CM×2.1CM,部分病变周围脑白质见小片状或片状长T2信号水肿带,四脑室及双侧侧脑室略受压变形。中线结构居中。左上颌窦可见小片状长T2信号区。余未见异常。	1.结合乳癌病史,脑多发转移瘤,较本院(2015-11-04)MR片略示好转。2.左上颌窦炎。</t>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>脑干、双侧大脑及小脑半球见多发大小不等的结节样异常信号，表现为T1WI低、略低信号，T2WI略高、高信号，压水序列高信号，DWI序列低、高信号，增强扫描呈结节样、环形或不均匀强化，大者约1.3CM×2.1CM，部分病变周围脑白质见小片状或片状长T2信号水肿带，四脑室及双侧侧脑室略受压变形。中线结构居中。左上颌窦可见小片状长T2信号区。余未见异常。	1.结合乳癌病史，脑多发转移瘤，较本院(2015-11-04)MR片略示好转。2.左上颌窦炎。</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>左肺上叶见一空洞性病变,边缘分叶、毛糙,上叶支气管部分示截断,截面积约2.3CM×2.0CM;增强扫描呈轻度强化。右肺野内见结节状致密影。双肺内示斑片状密度增高影。左侧胸壁见高密度影,局部伪影较大,周围结构显示不清。左肺门见肿大淋巴结,短径约0.6CM。纵隔内见多发小淋巴结,大者短径约0.5CM。双侧胸膜示不均匀增厚并强化,双侧胸腔内见液性密度影。肝实质内见多发低密度灶,大部分边界较清,少许边缘模糊,大者直径约0.5CM。胆囊充盈可,壁增厚。右肾见囊性密度灶,边界清。腹腔及腹膜后未见明确肿大淋巴结。左侧第10、8肋骨示骨质膨胀,骨皮质欠连续,局部骨质密度增高或减低。	1.结合临床,左肺癌并左肺门淋巴结转移治疗后,较前(2016-09-18)示好转2.双肺炎症及部分膨胀不全,右肺钙化灶3.肝内多发低密度灶,部分为囊肿,部分建议观察,变化不著4.右肾囊肿5.部分肋骨骨质异常,不除外转移,较前变化不著6.双侧胸腔积液,右侧减少,左侧增多。</t>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>左肺上叶见一空洞性病变，边缘分叶、毛糙，上叶支气管部分示截断，截面积约2.3CM×2.0CM；增强扫描呈轻度强化。右肺野内见结节状致密影。双肺内示斑片状密度增高影。左侧胸壁见高密度影，局部伪影较大，周围结构显示不清。左肺门见肿大淋巴结，短径约0.6CM。纵隔内见多发小淋巴结，大者短径约0.5CM。双侧胸膜示不均匀增厚并强化，双侧胸腔内见液性密度影。肝实质内见多发低密度灶，大部分边界较清，少许边缘模糊，大者直径约0.5CM。胆囊充盈可，壁增厚。右肾见囊性密度灶，边界清。腹腔及腹膜后未见明确肿大淋巴结。左侧第10、8肋骨示骨质膨胀，骨皮质欠连续，局部骨质密度增高或减低。	1.结合临床，左肺癌并左肺门淋巴结转移治疗后，较前(2016-09-18)示好转2.双肺炎症及部分膨胀不全，右肺钙化灶3.肝内多发低密度灶，部分为囊肿，部分建议观察，变化不著4.右肾囊肿5.部分肋骨骨质异常，不除外转移，较前变化不著6.双侧胸腔积液，右侧减少，左侧增多。</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">左肺癌术后,左侧胸膜及淋巴结转移,少量胸腔积液。会诊*********CT(2016-09-12)左肺下叶术后缺如,左肺门见高密度吻合器影,残余左肺见索条影,左侧胸膜见多发结节灶,较大者位于下舌段近纵隔处,大小约2.5CM×1.5CM,呈均匀强化;左侧膈淋巴结肿大。左侧胸膜腔内见少量液性密度影,呈包裹性改变。右肺上叶后段胸膜下小结节灶,大小约0.4CM×0.3CM。	</t>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">左肺癌术后，左侧胸膜及淋巴结转移，少量胸腔积液。会诊*********CT(2016-09-12)左肺下叶术后缺如，左肺门见高密度吻合器影，残余左肺见索条影，左侧胸膜见多发结节灶，较大者位于下舌段近纵隔处，大小约2.5CM×1.5CM，呈均匀强化；左侧膈淋巴结肿大。左侧胸膜腔内见少量液性密度影，呈包裹性改变。右肺上叶后段胸膜下小结节灶，大小约0.4CM×0.3CM。	</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>左肺上叶见一不规则软组织密度肿块影,边缘分叶、毛糙,上叶支气管部分示截断,病变向内与左肺门肿大淋巴结分界不清,截面积约2.6CM×2.1CM;增强扫描呈不均匀强化。右肺野内见结节状致密影。左侧胸壁见高密度影,局部伪影较大,周围结构显示不清。左肺门见肿大淋巴结,短径约1.0CM。肝实质内见多发低密度灶,大部分边界较清,少许边缘模糊,大者直径约0.5CM。胆囊充盈可,其内可见点状致密影。右肾见囊性密度灶,边界清。腹腔及腹膜后未见明确肿大淋巴结。左侧第10、8肋骨示骨质膨胀,骨皮质欠连续,局部骨质密度增高或减低。	1.结合临床,考虑左肺癌;左肺门淋巴结转移2.右肺钙化灶3.肝内多发低密度灶,部分为囊肿,部分建议观察4.右肾囊肿5.胆囊结石6.部分肋骨骨质异常,建议进一步检查,不除外转移。</t>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>左肺上叶见一不规则软组织密度肿块影，边缘分叶、毛糙，上叶支气管部分示截断，病变向内与左肺门肿大淋巴结分界不清，截面积约2.6CM×2.1CM；增强扫描呈不均匀强化。右肺野内见结节状致密影。左侧胸壁见高密度影，局部伪影较大，周围结构显示不清。左肺门见肿大淋巴结，短径约1.0CM。肝实质内见多发低密度灶，大部分边界较清，少许边缘模糊，大者直径约0.5CM。胆囊充盈可，其内可见点状致密影。右肾见囊性密度灶，边界清。腹腔及腹膜后未见明确肿大淋巴结。左侧第10、8肋骨示骨质膨胀，骨皮质欠连续，局部骨质密度增高或减低。	1.结合临床，考虑左肺癌；左肺门淋巴结转移2.右肺钙化灶3.肝内多发低密度灶，部分为囊肿，部分建议观察4.右肾囊肿5.胆囊结石6.部分肋骨骨质异常，建议进一步检查，不除外转移。</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后2.右肺占位,考虑右肺癌,较前(2016-05-12)略好转3.右肺门及纵隔淋巴结肿大,考虑转移,较前略好转;右锁上淋巴结稍大,变化不著4.右侧胸膜增厚并结节灶,考虑转移,变化不著5.胆囊炎7.甲状腺左侧叶低密度灶,变化不著。右肺尖见不规则软组织密度影,其边缘可见小空洞影,边缘分叶、模糊,并可见胸膜牵拉征,截面积约3.5CM×2.2CM;增强扫描呈较显著不均匀强化。右肺上叶及中叶见少许条索状密度增高影。左肺野较清晰。右肺门、纵隔内2R、3A、4R、7区见多发肿大淋巴结,大者短径约1.5CM,增强扫描呈不均匀强化。右锁上见稍大淋巴结,短径约0.5CM。右侧胸膜局部增厚呈结节状(图7-26),直径约0.6CM,呈较显著不均匀强化。右乳术后缺如,术区结构紊乱,周围间隙模糊,未见明确异常强化。左乳及左侧腋窝未见明确异常。肝脏大小、形态正常,实质密度均质。胆囊充盈好,壁不厚。以、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。甲状腺左侧叶见小低密度灶,边界尚清,直径约0.5CM。鼻咽、口咽及喉未见异常。双侧颈后三角区见大者短径约0.5CM小淋巴结。	</t>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后2.右肺占位，考虑右肺癌，较前(2016-05-12)略好转3.右肺门及纵隔淋巴结肿大，考虑转移，较前略好转；右锁上淋巴结稍大，变化不著4.右侧胸膜增厚并结节灶，考虑转移，变化不著5.胆囊炎7.甲状腺左侧叶低密度灶，变化不著。右肺尖见不规则软组织密度影，其边缘可见小空洞影，边缘分叶、模糊，并可见胸膜牵拉征，截面积约3.5CM×2.2CM；增强扫描呈较显著不均匀强化。右肺上叶及中叶见少许条索状密度增高影。左肺野较清晰。右肺门、纵隔内2R、3A、4R、7区见多发肿大淋巴结，大者短径约1.5CM，增强扫描呈不均匀强化。右锁上见稍大淋巴结，短径约0.5CM。右侧胸膜局部增厚呈结节状(图7-26)，直径约0.6CM，呈较显著不均匀强化。右乳术后缺如，术区结构紊乱，周围间隙模糊，未见明确异常强化。左乳及左侧腋窝未见明确异常。肝脏大小、形态正常，实质密度均质。胆囊充盈好，壁不厚。以、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。甲状腺左侧叶见小低密度灶，边界尚清，直径约0.5CM。鼻咽、口咽及喉未见异常。双侧颈后三角区见大者短径约0.5CM小淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>脑干、双侧小脑及大脑实质内见多发大小不等结节灶,表现为T1WI等或略低、略高信号,T2WI为等或略高信号,压水序列为高信号,DWI为低或中心低、边缘略高信号,增强扫描呈不均匀强化或环形强化,大者直径约1.1CM。另双侧大脑脑白质区见多发斑点状长T1、略长T2、T2FLAIR高信号及DWI等信号,边缘模糊,增强扫描无强化。右颞叶、右额叶及右侧基底节区见点状、小结节状略长T1长T2信号影、压水序列及DWI高信号,增强扫描无强化。脑室系统及脑沟、裂、池未见异常,中线结构无移位。	1.结合肺癌病史,脑多发转移。2.脑多发小缺血灶。3.右颞叶、右额叶及右基底节区异常信号,考虑急性腔隙性脑梗塞。</t>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>脑干、双侧小脑及大脑实质内见多发大小不等结节灶，表现为T1WI等或略低、略高信号，T2WI为等或略高信号，压水序列为高信号，DWI为低或中心低、边缘略高信号，增强扫描呈不均匀强化或环形强化，大者直径约1.1CM。另双侧大脑脑白质区见多发斑点状长T1、略长T2、T2FLAIR高信号及DWI等信号，边缘模糊，增强扫描无强化。右颞叶、右额叶及右侧基底节区见点状、小结节状略长T1长T2信号影、压水序列及DWI高信号，增强扫描无强化。脑室系统及脑沟、裂、池未见异常，中线结构无移位。	1.结合肺癌病史，脑多发转移。2.脑多发小缺血灶。3.右颞叶、右额叶及右基底节区异常信号，考虑急性腔隙性脑梗塞。</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后改变,双肺转移,较前(2015-11-17)变化不著;肝转移,较前进展;多发骨转移;左乳结节灶,不除外转移,建议观察2.右侧腋窝囊性密度灶,较前略示饱满3.左肺炎症,较前好转,右肺纤维灶。右乳术后缺如,部分胸肌尚存,术区未见异常强化灶。右侧腋窝结构紊乱,局部示一囊性密度灶,直径约2.4CM,可见环形强化。左乳外下象限内见一强化结节灶,边缘略示模糊,直径约0.9CM。左侧腋窝未见异常。双肺野示多发结节灶,边缘较清,大者直径约0.3CM。右肺上叶及左肺下叶可见斑片状条索状密度增高影。双肺门及纵隔未见增大淋巴结。肝实质内示数个低密度灶,边缘较模糊,可见轻度强化,大者直径约3.6CM。胆囊充盈可,壁不厚。胰、脾、双肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。膀胱充盈可,壁不厚。子宫及附件区未见异常。盆腔内未见肿大淋巴结。盆腔内可见少许液性密度影。部分胸腰椎及附件、部分肋骨、髂骨、坐骨、骶骨可见成骨性骨质破坏。	</t>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后改变，双肺转移，较前(2015-11-17)变化不著；肝转移，较前进展；多发骨转移；左乳结节灶，不除外转移，建议观察2.右侧腋窝囊性密度灶，较前略示饱满3.左肺炎症，较前好转，右肺纤维灶。右乳术后缺如，部分胸肌尚存，术区未见异常强化灶。右侧腋窝结构紊乱，局部示一囊性密度灶，直径约2.4CM，可见环形强化。左乳外下象限内见一强化结节灶，边缘略示模糊，直径约0.9CM。左侧腋窝未见异常。双肺野示多发结节灶，边缘较清，大者直径约0.3CM。右肺上叶及左肺下叶可见斑片状条索状密度增高影。双肺门及纵隔未见增大淋巴结。肝实质内示数个低密度灶，边缘较模糊，可见轻度强化，大者直径约3.6CM。胆囊充盈可，壁不厚。胰、脾、双肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。膀胱充盈可，壁不厚。子宫及附件区未见异常。盆腔内未见肿大淋巴结。盆腔内可见少许液性密度影。部分胸腰椎及附件、部分肋骨、髂骨、坐骨、骶骨可见成骨性骨质破坏。	</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>左乳术后缺如,左侧胸壁及胸肌可见数个结节及类结节灶,大者直径约0.7CM,边缘模糊,可见强化。右乳未见异常。双腋窝、内乳及纵隔未见明显肿大淋巴结。右肺示数个结节及类结节灶,大者长径约1.1CM,可见强化,局部略呈空洞状。左肺示少许斑片及条索影。扫描野内甲状腺内示数个低密度灶,直径不足0.5CM,边界清。脑实质密度均匀。	1.结合临床,左乳癌术后,术区胸壁及胸肌结节灶,复发或转移可能大;右肺结节及类结节灶,转移待排,请结合前片2.甲状腺低密度灶,考虑良性病变,建议观察3.左肺纤维灶4.颅脑扫描未见明显异常。</t>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>左乳术后缺如，左侧胸壁及胸肌可见数个结节及类结节灶，大者直径约0.7CM，边缘模糊，可见强化。右乳未见异常。双腋窝、内乳及纵隔未见明显肿大淋巴结。右肺示数个结节及类结节灶，大者长径约1.1CM，可见强化，局部略呈空洞状。左肺示少许斑片及条索影。扫描野内甲状腺内示数个低密度灶，直径不足0.5CM，边界清。脑实质密度均匀。	1.结合临床，左乳癌术后，术区胸壁及胸肌结节灶，复发或转移可能大；右肺结节及类结节灶，转移待排，请结合前片2.甲状腺低密度灶，考虑良性病变，建议观察3.左肺纤维灶4.颅脑扫描未见明显异常。</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>1.右肺中央型肺癌伴远端肺组织阻塞性肺炎;纵隔淋巴结肿大,考虑转移可能;2.肺气肿;3.左肺上叶磨玻璃结节,随诊;4.左肺上叶肺大泡;5.主动脉及冠状动脉内钙化;6.肝内及右肾多发囊肿;7.左侧肾上腺占位,不除外转移可能。右肺门增大,右肺上叶可见团块状高密度影,大小约5.88CM×5.89CM,平扫CT值约29HU,增强扫描强化不均匀,三期CT值约58HU、56HU、44HU,右肺上叶支气管狭窄,远端肺组织内可见片状稍高密度模糊影;双肺上叶透过度不均匀增高;左肺上叶尖段(216)可见小结节状磨玻璃密度影,边界较清;左肺上叶舌段可见类圆形薄壁透亮影,径约0.68CM。纵隔内可见肿大淋巴结影,径约1.83CM。两胸腔未见积液征象。心脏形态大小正常,其内未见异常密度影;主动脉及冠状动脉走行区可见条状钙化密度影;肝内及右肾可见多发类圆形低密度影,边界清楚,增强扫描未见强化。左侧肾上腺可见结节状低密度影,径约1.4CM,平扫CT值约6HU,增强扫描三期CT值约85HU、66HU、38HU,</t>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1.右肺中央型肺癌伴远端肺组织阻塞性肺炎；纵隔淋巴结肿大，考虑转移可能；2.肺气肿；3.左肺上叶磨玻璃结节，随诊；4.左肺上叶肺大泡；5.主动脉及冠状动脉内钙化；6.肝内及右肾多发囊肿；7.左侧肾上腺占位，不除外转移可能。右肺门增大，右肺上叶可见团块状高密度影，大小约5.88CM×5.89CM，平扫CT值约29HU，增强扫描强化不均匀，三期CT值约58HU、56HU、44HU，右肺上叶支气管狭窄，远端肺组织内可见片状稍高密度模糊影；双肺上叶透过度不均匀增高；左肺上叶尖段(216)可见小结节状磨玻璃密度影，边界较清；左肺上叶舌段可见类圆形薄壁透亮影，径约0.68CM。纵隔内可见肿大淋巴结影，径约1.83CM。两胸腔未见积液征象。心脏形态大小正常，其内未见异常密度影；主动脉及冠状动脉走行区可见条状钙化密度影；肝内及右肾可见多发类圆形低密度影，边界清楚，增强扫描未见强化。左侧肾上腺可见结节状低密度影，径约1.4CM，平扫CT值约6HU，增强扫描三期CT值约85HU、66HU、38HU，</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>1.右肺下叶后基底段团块灶,考虑恶性占位性病变,周围型肺癌可能性大,伴双肺多发转移,较前2016-05-112CT相仿;2.部分胸椎骨密度增高,较前相仿。右肺下叶肿块,边缘毛刺,邻近胸膜牵拉,大小约为2.44CM×1.8CM,CT值约10HU,增强扫描扫描示病灶三期CT值分别约为38HU、60HU、46HU。双肺内可见多发结节样及粟粒样密度影,大者径约0.75CM。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。部分上位胸椎骨密度增高。右乳腺钙化灶。</t>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1.右肺下叶后基底段团块灶，考虑恶性占位性病变，周围型肺癌可能性大，伴双肺多发转移，较前2016-05-112CT相仿；2.部分胸椎骨密度增高，较前相仿。右肺下叶肿块，边缘毛刺，邻近胸膜牵拉，大小约为2.44CM×1.8CM，CT值约10HU，增强扫描扫描示病灶三期CT值分别约为38HU、60HU、46HU。双肺内可见多发结节样及粟粒样密度影，大者径约0.75CM。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。部分上位胸椎骨密度增高。右乳腺钙化灶。</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,左肺癌并阻塞性肺不张及炎症2.左肺门、纵隔淋巴结转移,右肺门淋巴结肿大,不除外转移3.左侧第4肋陈旧性骨折。左肺下叶示软组织肿块影,部分支气管狭窄,远端见少许实变肺组织及斑片状密度增高影,增强扫描病变呈较明显强化,直径约2.8CM。余肺野清。纵隔内气管周围、腔静脉后气管前间隙、主肺动脉窗区、隆突下、双肺门示多发增大淋巴结,大者短径约3.5CM。左侧第4肋示陈旧性骨折线形成。	</t>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，左肺癌并阻塞性肺不张及炎症2.左肺门、纵隔淋巴结转移，右肺门淋巴结肿大，不除外转移3.左侧第4肋陈旧性骨折。左肺下叶示软组织肿块影，部分支气管狭窄，远端见少许实变肺组织及斑片状密度增高影，增强扫描病变呈较明显强化，直径约2.8CM。余肺野清。纵隔内气管周围、腔静脉后气管前间隙、主肺动脉窗区、隆突下、双肺门示多发增大淋巴结，大者短径约3.5CM。左侧第4肋示陈旧性骨折线形成。	</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,直肠癌术后,双肺转移瘤,较前2016-7-21示进展2.双肾低密度灶,较前(2016-3-15)部分变化不著,部分略示饱满,建议观察除外转移;双肾囊肿3.双侧胸膜略增厚,变化不著4.甲状腺低密度灶,变化不著5.脂肪肝。直肠术后,术区示高密度吻合器影,壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低。双肾内示低密度灶,边缘模糊,另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约3.6CM(纵隔窗),内示小空泡影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶,边缘较清晰。	</t>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，直肠癌术后，双肺转移瘤，较前2016-7-21示进展2.双肾低密度灶，较前(2016-3-15)部分变化不著，部分略示饱满，建议观察除外转移；双肾囊肿3.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著5.脂肪肝。直肠术后，术区示高密度吻合器影，壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低。双肾内示低密度灶，边缘模糊，另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.6CM(纵隔窗)，内示小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,左肺癌并纵隔淋巴结转移,较前(2016-11-23)进展2.左侧胸膜增厚3.甲状腺左侧叶低密度灶,建议进一步检查4.上腹部CT扫描未见明显异常。左肺上叶纵隔旁示不规则软组织密度影,截面积约4.7CM×3.5CM,邻近支气管部分狭窄,远端肺内示斑片影及条片影;病变与纵隔内肿大淋巴结分界不清,并与心包分界不清,左侧胸膜及叶间胸膜略增厚。右肺野较清晰。纵隔内左肺动脉旁见肿大淋巴结,短径约1.8CM。扫描野内甲状腺左侧叶见低密度灶,边缘模糊。肝胆胰脾双肾上腺扫描野内双肾形态、密度未见明显异常。腹腔及腹膜后未见明显增大淋巴结。	</t>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，左肺癌并纵隔淋巴结转移，较前(2016-11-23)进展2.左侧胸膜增厚3.甲状腺左侧叶低密度灶，建议进一步检查4.上腹部CT扫描未见明显异常。左肺上叶纵隔旁示不规则软组织密度影，截面积约4.7CM×3.5CM，邻近支气管部分狭窄，远端肺内示斑片影及条片影；病变与纵隔内肿大淋巴结分界不清，并与心包分界不清，左侧胸膜及叶间胸膜略增厚。右肺野较清晰。纵隔内左肺动脉旁见肿大淋巴结，短径约1.8CM。扫描野内甲状腺左侧叶见低密度灶，边缘模糊。肝胆胰脾双肾上腺扫描野内双肾形态、密度未见明显异常。腹腔及腹膜后未见明显增大淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>1.左侧胸膜恶性肿瘤,双肺、胸3椎体及纵隔淋巴结转移,对比2012.5.11片胸膜病变进展;2.右肺上叶肺大泡。左肺肋胸膜、膈胸膜、斜裂胸膜广泛明显增厚,最厚约3.25CM,CT值约38HU。两肺纹理增强,双肺野内见多发大小不等密度增高影,部分呈磨玻璃密度改变,大者约0.94CM×1.64CM;右肺上叶尖段见囊状透过度增高区。两肺门区未见异常。所示气管支气管影正常。纵隔内见多发小淋巴结影,大者短径0.84CM。两胸腔无积液征象。主动脉管壁见钙化影。胸3椎体见结节样致密影。</t>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1.左侧胸膜恶性肿瘤，双肺、胸3椎体及纵隔淋巴结转移，对比2012.5.11片胸膜病变进展；2.右肺上叶肺大泡。左肺肋胸膜、膈胸膜、斜裂胸膜广泛明显增厚，最厚约3.25CM，CT值约38HU。两肺纹理增强，双肺野内见多发大小不等密度增高影，部分呈磨玻璃密度改变，大者约0.94CM×1.64CM；右肺上叶尖段见囊状透过度增高区。两肺门区未见异常。所示气管支气管影正常。纵隔内见多发小淋巴结影，大者短径0.84CM。两胸腔无积液征象。主动脉管壁见钙化影。胸3椎体见结节样致密影。</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>1.考虑左肺上叶中心型肺癌(较2013.2.20CT对比明显增大)并阻塞性肺不张,纵膈内多发淋巴结转移;2.心包积液较前新增;3.双侧胸腔积液,较前新增。左肺门区见团块状软组织密度影,最大截面约为7.73CM×7.39CM,CT值约45HU,左肺上叶上舌段支气管变窄,前段、尖后段、下舌段支气管均未见显示。右肺门未见明显异常。纵隔见多个肿大淋巴结影。心包可见大量积液。双侧胸腔可见弧形影。</t>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1.考虑左肺上叶中心型肺癌(较2013.2.20CT对比明显增大)并阻塞性肺不张，纵膈内多发淋巴结转移；2.心包积液较前新增；3.双侧胸腔积液，较前新增。左肺门区见团块状软组织密度影，最大截面约为7.73CM×7.39CM，CT值约45HU，左肺上叶上舌段支气管变窄，前段、尖后段、下舌段支气管均未见显示。右肺门未见明显异常。纵隔见多个肿大淋巴结影。心包可见大量积液。双侧胸腔可见弧形影。</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.右下肺门占位,首先考虑原发性肺癌,并右侧胸膜转移,多发脑转移2.右肺门、纵隔及左锁上淋巴结肿大3.心包腔少量积液4.双侧上颌窦炎症。右侧乳腺术后缺如,术区未见异常强化灶。右下肺门区可见不规则软组织密度肿块,截面约4.3CM×3.4CM,边缘模糊,密度不均质,其内可见散在钙化灶,肿块包绕血管生长,肿块与斜裂胸膜关系密切;增强后病变呈较显著不均质强化。左侧肺野较清晰。右肺门区、纵隔内2R、5区、7区、右侧心膈角区及左锁上可见多发肿大淋巴结,大者短径约1.0CM。心包腔内可见少量液性密度影。双侧脑实质内可见多发结节及肿块影,大者截面3.7CM×3.1CM,其内可见低密度坏死区,增强后可见较显著不均质强化,部分病变周围可见少许低密度水肿带。双侧脑室未见扩张,中线结构略向右侧移位。扫描野双侧上颌窦内可见液性密度影。	</t>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.右下肺门占位，首先考虑原发性肺癌，并右侧胸膜转移，多发脑转移2.右肺门、纵隔及左锁上淋巴结肿大3.心包腔少量积液4.双侧上颌窦炎症。右侧乳腺术后缺如，术区未见异常强化灶。右下肺门区可见不规则软组织密度肿块，截面约4.3CM×3.4CM，边缘模糊，密度不均质，其内可见散在钙化灶，肿块包绕血管生长，肿块与斜裂胸膜关系密切；增强后病变呈较显著不均质强化。左侧肺野较清晰。右肺门区、纵隔内2R、5区、7区、右侧心膈角区及左锁上可见多发肿大淋巴结，大者短径约1.0CM。心包腔内可见少量液性密度影。双侧脑实质内可见多发结节及肿块影，大者截面3.7CM×3.1CM，其内可见低密度坏死区，增强后可见较显著不均质强化，部分病变周围可见少许低密度水肿带。双侧脑室未见扩张，中线结构略向右侧移位。扫描野双侧上颌窦内可见液性密度影。	</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后;右侧内乳区、纵隔、腹腔及腹膜后淋巴结肿大,考虑转移;双肺多发转移,肝多发转移,骨多发转移伴软组织肿块形成,并局部侵及椎管2.胆囊炎3.腹膜、网膜、肠系膜略增厚,少量腹水4.左侧胸膜钙化灶。右乳术后,术区壁未见增厚及异常强化。右侧内乳区、纵隔内右上气管、血管前间隙、隆突下、食管旁见增大淋巴结,大者短径约0.8CM。双侧腋窝未见增大淋巴结。双肺见多发结节灶,大者长径约2.0CM。左侧胸膜见少许斑点状钙化灶。双侧胸腔未见积液征象。肝内见多发结节灶,融合成团,大小不易测量,增强后呈不均匀强化。门脉及下腔静脉主干及分支未见明确充盈缺损。腹腔内贲门旁、肝胃韧带区、肝十二指肠韧带区、腹膜后腹主动脉旁见多发增大淋巴结,大者短径约1.2CM,部分与胰腺分界不清。膈上后组见短径不足0.5CM小淋巴结。胆囊充盈不良,壁增厚并见强化。脾、双侧肾上腺及双肾未见异常。肝周及右侧结肠旁沟、小网膜囊腔见少许液性密度影。大网膜、腹膜、肠系膜略增厚。胸骨、右侧肱骨、肋骨、胸腰椎示多发溶骨性骨质破坏,局部形成软组织肿块,局部突向椎管内。	</t>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后；右侧内乳区、纵隔、腹腔及腹膜后淋巴结肿大，考虑转移；双肺多发转移，肝多发转移，骨多发转移伴软组织肿块形成，并局部侵及椎管2.胆囊炎3.腹膜、网膜、肠系膜略增厚，少量腹水4.左侧胸膜钙化灶。右乳术后，术区壁未见增厚及异常强化。右侧内乳区、纵隔内右上气管、血管前间隙、隆突下、食管旁见增大淋巴结，大者短径约0.8CM。双侧腋窝未见增大淋巴结。双肺见多发结节灶，大者长径约2.0CM。左侧胸膜见少许斑点状钙化灶。双侧胸腔未见积液征象。肝内见多发结节灶，融合成团，大小不易测量，增强后呈不均匀强化。门脉及下腔静脉主干及分支未见明确充盈缺损。腹腔内贲门旁、肝胃韧带区、肝十二指肠韧带区、腹膜后腹主动脉旁见多发增大淋巴结，大者短径约1.2CM，部分与胰腺分界不清。膈上后组见短径不足0.5CM小淋巴结。胆囊充盈不良，壁增厚并见强化。脾、双侧肾上腺及双肾未见异常。肝周及右侧结肠旁沟、小网膜囊腔见少许液性密度影。大网膜、腹膜、肠系膜略增厚。胸骨、右侧肱骨、肋骨、胸腰椎示多发溶骨性骨质破坏，局部形成软组织肿块，局部突向椎管内。	</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>左肺下叶近肺门区示一不规则低密度肿块,大小约3.9CM×4.5CM,左肺下叶支气管截断,远端可见实变不张肺组织,其内密度不均,可见片状低密度影,增强扫描病变呈较显著不均匀强化,左下肺静脉包绕其中;左侧叶间胸膜显示欠清。右肺中叶示一小结节灶,直径约0.4CM,密度较高,边界清。余双肺野示少许条索影。双锁上、纵隔及左肺门示多发肿大淋巴结,部分融合,大者短径约4.3CM,与肺动脉关系密切。左侧胸腔及心包示少量液体密度影。肝内胆管略有扩张。胆胰脾右肾上腺未见异常。左肾上腺略示饱满。双肾均可见囊性密度灶。腹腔腹膜后未见明显肿大淋巴结。脑实质密度均匀。	1.结合临床,左肺下叶癌伴阻塞性肺不张;左肺门、纵隔及双侧锁上淋巴结转移2.右肺小结节灶,建议观察3.双肺少许纤维灶4.左侧胸腔少量积液;心包积液5.左肾上腺略饱满,建议观察6.双肾囊肿7.颅脑扫描未见明显异常。</t>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>左肺下叶近肺门区示一不规则低密度肿块，大小约3.9CM×4.5CM，左肺下叶支气管截断，远端可见实变不张肺组织，其内密度不均，可见片状低密度影，增强扫描病变呈较显著不均匀强化，左下肺静脉包绕其中；左侧叶间胸膜显示欠清。右肺中叶示一小结节灶，直径约0.4CM，密度较高，边界清。余双肺野示少许条索影。双锁上、纵隔及左肺门示多发肿大淋巴结，部分融合，大者短径约4.3CM，与肺动脉关系密切。左侧胸腔及心包示少量液体密度影。肝内胆管略有扩张。胆胰脾右肾上腺未见异常。左肾上腺略示饱满。双肾均可见囊性密度灶。腹腔腹膜后未见明显肿大淋巴结。脑实质密度均匀。	1.结合临床，左肺下叶癌伴阻塞性肺不张；左肺门、纵隔及双侧锁上淋巴结转移2.右肺小结节灶，建议观察3.双肺少许纤维灶4.左侧胸腔少量积液；心包积液5.左肾上腺略饱满，建议观察6.双肾囊肿7.颅脑扫描未见明显异常。</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右肺癌并双肺转移,双锁上、纵隔、双肺门、腹膜后淋巴结转移2.肝内低密度灶,不除外肝转移,建议定期复查3.肝囊肿;肝左内叶低密度灶,考虑血管瘤4.胆囊结石5.L1椎体骨质异常,建议定期复查。右肺上叶尖段可见一不规则软组织密度影,截面约为2.8CM×2.1CM,病变边缘毛刺,呈分叶状,向内侵及纵隔并与纵隔肿大淋巴结分界欠清,增强后呈不均匀强化。双锁上、纵隔内血管前间隙、气管周围、腔静脉后气管间隙、主肺动脉窗区、隆突下、双肺门可见多发肿大淋巴结,大者短径约为1.6CM。双肺野可见多个大小不一的散在类结节灶,大者长径约为0.7CM。双侧胸腔内未见液性密度影。肝右后叶示一低密度灶(5-23),边缘模糊,直径约0.5CM。余肝实质内示多个囊性密度影,长径不足0.5CM,肝左内叶实质内可见一长径约为1.2CM的低密度灶,边缘尚清,增强后强化明显,延迟扫描仍有强化。胆囊充盈可,壁略示增厚,内示点状高密度影。脾、胰腺、双侧肾上腺、双肾未见明显异常。腹膜后腹主动脉周围示多个肿大淋巴结影,大者短径约为1.1CM。骨窗示:L1椎体局部示低密度灶。	</t>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右肺癌并双肺转移，双锁上、纵隔、双肺门、腹膜后淋巴结转移2.肝内低密度灶，不除外肝转移，建议定期复查3.肝囊肿；肝左内叶低密度灶，考虑血管瘤4.胆囊结石5.L1椎体骨质异常，建议定期复查。右肺上叶尖段可见一不规则软组织密度影，截面约为2.8CM×2.1CM，病变边缘毛刺，呈分叶状，向内侵及纵隔并与纵隔肿大淋巴结分界欠清，增强后呈不均匀强化。双锁上、纵隔内血管前间隙、气管周围、腔静脉后气管间隙、主肺动脉窗区、隆突下、双肺门可见多发肿大淋巴结，大者短径约为1.6CM。双肺野可见多个大小不一的散在类结节灶，大者长径约为0.7CM。双侧胸腔内未见液性密度影。肝右后叶示一低密度灶(5-23)，边缘模糊，直径约0.5CM。余肝实质内示多个囊性密度影，长径不足0.5CM，肝左内叶实质内可见一长径约为1.2CM的低密度灶，边缘尚清，增强后强化明显，延迟扫描仍有强化。胆囊充盈可，壁略示增厚，内示点状高密度影。脾、胰腺、双侧肾上腺、双肾未见明显异常。腹膜后腹主动脉周围示多个肿大淋巴结影，大者短径约为1.1CM。骨窗示：L1椎体局部示低密度灶。	</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.左乳术后改变2.右侧胸膜增厚,考虑转移,较前(2015-6-15)变化不著;右侧胸腔积液变化不著;右肺结节灶,考虑转移较前变化不著3.纵隔淋巴结肿大,变化不著。4.右肺炎症或纤维灶。5.肝周结节灶较前变化不著6.结合临床,卵巢癌术后改变。左乳术后,部分胸肌尚存,术区胸壁略肿胀,皮肤略增厚,右乳未见异常。右侧内乳区示短径不足0.5CM淋巴结。双侧腋窝及左侧内乳区未见肿大淋巴结。纵隔内腔静脉后间隙、肺动脉窗区、隆突下可见肿大淋巴结,大者短径约0.8CM。右侧胸膜增厚,局部呈结节状、带状,右侧胸腔可见游离性及包裹性液体密度影,部分其内可见高密度引流管影。右肺见条索状密度增高影及多发结节灶。左肺野较清晰。扫描野内肝周示结节灶,短径约1.1CM,与肝脏分界欠清。盆腔内子宫、附件术后缺如,术区残端未见异常。膀胱充盈好,壁不厚。直肠未见异常。盆腔内未见肿大淋巴结。	</t>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.左乳术后改变2.右侧胸膜增厚，考虑转移，较前(2015-6-15)变化不著；右侧胸腔积液变化不著；右肺结节灶，考虑转移较前变化不著3.纵隔淋巴结肿大，变化不著。4.右肺炎症或纤维灶。5.肝周结节灶较前变化不著6.结合临床，卵巢癌术后改变。左乳术后，部分胸肌尚存，术区胸壁略肿胀，皮肤略增厚，右乳未见异常。右侧内乳区示短径不足0.5CM淋巴结。双侧腋窝及左侧内乳区未见肿大淋巴结。纵隔内腔静脉后间隙、肺动脉窗区、隆突下可见肿大淋巴结，大者短径约0.8CM。右侧胸膜增厚，局部呈结节状、带状，右侧胸腔可见游离性及包裹性液体密度影，部分其内可见高密度引流管影。右肺见条索状密度增高影及多发结节灶。左肺野较清晰。扫描野内肝周示结节灶，短径约1.1CM，与肝脏分界欠清。盆腔内子宫、附件术后缺如，术区残端未见异常。膀胱充盈好，壁不厚。直肠未见异常。盆腔内未见肿大淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>右肺上叶纵隔旁见一团片状软组织密度影,大小约1.8CM×1.9CM(肺窗),边缘毛糙,与纵隔胸膜关系密切,增强后病变呈中等强化。另于双肺内见少许斑片状密度增高影。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。心包腔内示少量液性密度影。肝脏未见异常密度灶。双侧肾上腺增大,见软组织密度结节灶,大者位于左侧,约1.8CM×2.2CM,可见强化。胆胰脾及右肾未见异常。左肾示囊性密度灶,直径约0.8CM,边界清,无强化。脑实质均质,未见异常密度灶。脑室系统未见扩张。中线结构居中。	1.结合病史,右肺上叶癌治疗后,病变较2015-04-07片增大2.双侧肾上腺结节灶,考虑转移,左侧者较前增大3.双肺纤维灶,较前变化不著4.心包少量积液5.左肾囊肿6.颅脑扫描未见异常。</t>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>右肺上叶纵隔旁见一团片状软组织密度影，大小约1.8CM×1.9CM(肺窗)，边缘毛糙，与纵隔胸膜关系密切，增强后病变呈中等强化。另于双肺内见少许斑片状密度增高影。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。心包腔内示少量液性密度影。肝脏未见异常密度灶。双侧肾上腺增大，见软组织密度结节灶，大者位于左侧，约1.8CM×2.2CM，可见强化。胆胰脾及右肾未见异常。左肾示囊性密度灶，直径约0.8CM，边界清，无强化。脑实质均质，未见异常密度灶。脑室系统未见扩张。中线结构居中。	1.结合病史，右肺上叶癌治疗后，病变较2015-04-07片增大2.双侧肾上腺结节灶，考虑转移，左侧者较前增大3.双肺纤维灶，较前变化不著4.心包少量积液5.左肾囊肿6.颅脑扫描未见异常。</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.右肺癌2.纵隔淋巴结转移3.右侧叶间胸膜结节,考虑转移4.右肺内小结节,不除外转移,建议观察5.右肺门淋巴结肿大6.左肺下叶钙化结节灶;左肺尖类结节灶,建议观察7.甲状腺右侧叶体积增大,考虑结节性甲状腺肿8.肝内低密度灶,考虑囊肿9.左肾囊肿10.颅脑扫描未见明确异常11.T3椎体骨质密度不均,请结合骨扫描。右肺上叶见一软组织密度结节灶,大小约2.5CM×2.0CM,其边缘浅分叶,并见细毛刺,外缘见胸膜凹陷征;增强后病变呈中等不均匀强化。左肺下叶见一长径约0.4CM钙化结节灶(图5-30),边缘清晰。右肺内见少许小结节,边缘清晰,直径不足0.5CM。右侧水平裂及斜裂见多发小结节灶,边缘清晰,直径不足1.0CM。左肺尖(5-12)示一类结节灶,边界清,密度略高,直径约0.2CM。右肺门区见短径约0.9CM淋巴结。纵隔内4R见增大淋巴结,大者短径约1.9CM。甲状腺右侧叶体积增大,其内见钙化结节灶。双侧胸腔未见液性密度影。肝实质内见小低密度灶,边界欠清,大者直径不足1.0CM,未见明确强化。胆囊充盈可,壁不厚。左肾实质内见囊性密度灶,直径约1.2CM。胰腺、脾、右肾及双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。脑实质密度均质。脑室、池未见扩张。中线结构居中。骨窗示:T3椎体骨质密度不均。	</t>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.右肺癌2.纵隔淋巴结转移3.右侧叶间胸膜结节，考虑转移4.右肺内小结节，不除外转移，建议观察5.右肺门淋巴结肿大6.左肺下叶钙化结节灶；左肺尖类结节灶，建议观察7.甲状腺右侧叶体积增大，考虑结节性甲状腺肿8.肝内低密度灶，考虑囊肿9.左肾囊肿10.颅脑扫描未见明确异常11.T3椎体骨质密度不均，请结合骨扫描。右肺上叶见一软组织密度结节灶，大小约2.5CM×2.0CM，其边缘浅分叶，并见细毛刺，外缘见胸膜凹陷征；增强后病变呈中等不均匀强化。左肺下叶见一长径约0.4CM钙化结节灶(图5-30)，边缘清晰。右肺内见少许小结节，边缘清晰，直径不足0.5CM。右侧水平裂及斜裂见多发小结节灶，边缘清晰，直径不足1.0CM。左肺尖(5-12)示一类结节灶，边界清，密度略高，直径约0.2CM。右肺门区见短径约0.9CM淋巴结。纵隔内4R见增大淋巴结，大者短径约1.9CM。甲状腺右侧叶体积增大，其内见钙化结节灶。双侧胸腔未见液性密度影。肝实质内见小低密度灶，边界欠清，大者直径不足1.0CM，未见明确强化。胆囊充盈可，壁不厚。左肾实质内见囊性密度灶，直径约1.2CM。胰腺、脾、右肾及双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。脑实质密度均质。脑室、池未见扩张。中线结构居中。骨窗示：T3椎体骨质密度不均。	</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>右肺下叶见不规则斑片状软组织影,边缘毛糙,大小不易测量,增强后中度强化;其远端肺野见斑片状及索条状密度增高影。右肺见小类结节灶,边缘模糊,直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结,大者短径不足1.0CM,部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。扫描野内肝内见一斑点状钙化灶。肝胃韧带区见短径不足0.5CM小淋巴结。T12右侧椎弓根示斑片状密度增高影。	1.结合临床,右肺癌并右肺下叶炎症,较前片2016-6-2略好转;右肺类结节,变化不著;右肺门、纵隔淋巴结转移治疗后,较前变化不著。2.右侧胸膜略增厚,变化不著3.肝内钙化灶。4.T12右侧椎弓根密度增高影,变化不著。</t>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。右肺见小类结节灶，边缘模糊，直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径不足1.0CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。扫描野内肝内见一斑点状钙化灶。肝胃韧带区见短径不足0.5CM小淋巴结。T12右侧椎弓根示斑片状密度增高影。	1.结合临床，右肺癌并右肺下叶炎症，较前片2016-6-2略好转；右肺类结节，变化不著；右肺门、纵隔淋巴结转移治疗后，较前变化不著。2.右侧胸膜略增厚，变化不著3.肝内钙化灶。4.T12右侧椎弓根密度增高影，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>右乳腺体内、皮肤区、右胸壁、右腋窝及扫描野内右颈根部可见多发软组织密度灶,边缘毛糙,增强后呈不均质明显强化,部分相互融合,右腋窝者局部可见溃疡形成。右侧胸壁及右上臂软组织肿胀。左乳未见异常。左侧腋窝、气管右旁可见增大淋巴结,大者短径不足1.0CM。双肺内可见散在类圆形结节灶,边界较清晰,大者直径约0.6CM。双肺见斑片索条影。甲状腺体积增大,局部可见低密度灶及钙化灶。双侧胸膜略增厚。扫描野内肝脏实质密度减低。右肾见囊性结节。右侧锁骨呈内固定术后改变。右侧部分肋骨密度欠均。脑实质密度均匀,未见结节及异常强化灶。脑室脑池未见扩张。中线结构居中。	1.右乳癌侵及皮肤及胸壁并右侧胸壁转移、右腋窝及右颈根部淋巴结转移治疗后,较前(2016-7-27)部分好转,部分进展;双肺转移,较前基本变化不著;双肺炎症2.左侧腋窝、纵隔小淋巴结,变化不著3.甲状腺增大伴低密度灶及钙化灶,考虑变化不著4.脂肪肝5.右侧锁骨术后改变6.颅脑扫描未见异常。</t>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>右乳腺体内、皮肤区、右胸壁、右腋窝及扫描野内右颈根部可见多发软组织密度灶，边缘毛糙，增强后呈不均质明显强化，部分相互融合，右腋窝者局部可见溃疡形成。右侧胸壁及右上臂软组织肿胀。左乳未见异常。左侧腋窝、气管右旁可见增大淋巴结，大者短径不足1.0CM。双肺内可见散在类圆形结节灶，边界较清晰，大者直径约0.6CM。双肺见斑片索条影。甲状腺体积增大，局部可见低密度灶及钙化灶。双侧胸膜略增厚。扫描野内肝脏实质密度减低。右肾见囊性结节。右侧锁骨呈内固定术后改变。右侧部分肋骨密度欠均。脑实质密度均匀，未见结节及异常强化灶。脑室脑池未见扩张。中线结构居中。	1.右乳癌侵及皮肤及胸壁并右侧胸壁转移、右腋窝及右颈根部淋巴结转移治疗后，较前(2016-7-27)部分好转，部分进展；双肺转移，较前基本变化不著；双肺炎症2.左侧腋窝、纵隔小淋巴结，变化不著3.甲状腺增大伴低密度灶及钙化灶，考虑变化不著4.脂肪肝5.右侧锁骨术后改变6.颅脑扫描未见异常。</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>左乳术后缺如,左侧胸壁及胸肌复发术后,术区胸壁部分胸肌尚存,局部皮肤略增厚,轻度强化。左侧腋窝间隙模糊。右乳未见异常。右腋窝、内乳及纵隔未见明显肿大淋巴结。右肺示数个结节及类结节灶,大者长径约1.1CM,可见强化,局部略呈空洞状。左肺示少许斑片及条索影。扫描野内甲状腺内示数个低密度灶,直径不足0.5CM,边界清。右肾示囊性密度灶。肝脏、胆囊、胰腺、脾、双侧肾上腺及扫描野内左肾未见明显异常。腹腔及腹膜后未见肿大淋巴结。扫描野内骨质未见明显破坏征象。	1.结合临床,左乳癌术后,术区胸壁复发术后,术区皮肤略增厚,较前2016-8-22基本变化不著;右肺结节及类结节灶,转移待排,变化不著2.甲状腺低密度灶,变化不著3.左肺纤维灶4.右肾囊肿。</t>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>左乳术后缺如，左侧胸壁及胸肌复发术后，术区胸壁部分胸肌尚存，局部皮肤略增厚，轻度强化。左侧腋窝间隙模糊。右乳未见异常。右腋窝、内乳及纵隔未见明显肿大淋巴结。右肺示数个结节及类结节灶，大者长径约1.1CM，可见强化，局部略呈空洞状。左肺示少许斑片及条索影。扫描野内甲状腺内示数个低密度灶，直径不足0.5CM，边界清。右肾示囊性密度灶。肝脏、胆囊、胰腺、脾、双侧肾上腺及扫描野内左肾未见明显异常。腹腔及腹膜后未见肿大淋巴结。扫描野内骨质未见明显破坏征象。	1.结合临床，左乳癌术后，术区胸壁复发术后，术区皮肤略增厚，较前2016-8-22基本变化不著；右肺结节及类结节灶，转移待排，变化不著2.甲状腺低密度灶，变化不著3.左肺纤维灶4.右肾囊肿。</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>左乳术后,术区结构紊乱,未见结节及肿块。左侧腋窝结构紊乱。左侧胸肌深面可见软组织密度灶,大者大小约1.6CM×2.4CM。右乳未见异常。左侧内乳区、左侧锁骨上、膈上前组、中组及扫描野内腹腔内见增大淋巴结,大者短径约1.3CM。双侧肺门及纵隔未见肿大淋巴结。右侧水平裂区(3-26)及左肺胸膜下示小类结节灶。甲状腺内示低密度灶。心腔内密度减低。扫描野内肝实质内见多发低密度结节及肿块,边缘略模糊,其密度不均。部分椎骨及肋骨示溶骨性破坏。	1.结合临床,左乳癌术后改变;左侧胸肌深面转移,较前(2016-4-8)考虑变化不著;左侧内乳淋巴结肿大,变化不著;肝转移,较前增多、部分密度增高,余部分增大,部分略缩小;左侧锁骨上、膈上及腹腔淋巴结肿大;骨转移2.右侧水平裂区及左肺类结节灶,变化不著3.甲状腺低密度灶4.提示贫血。</t>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>左乳术后，术区结构紊乱，未见结节及肿块。左侧腋窝结构紊乱。左侧胸肌深面可见软组织密度灶，大者大小约1.6CM×2.4CM。右乳未见异常。左侧内乳区、左侧锁骨上、膈上前组、中组及扫描野内腹腔内见增大淋巴结，大者短径约1.3CM。双侧肺门及纵隔未见肿大淋巴结。右侧水平裂区(3-26)及左肺胸膜下示小类结节灶。甲状腺内示低密度灶。心腔内密度减低。扫描野内肝实质内见多发低密度结节及肿块，边缘略模糊，其密度不均。部分椎骨及肋骨示溶骨性破坏。	1.结合临床，左乳癌术后改变；左侧胸肌深面转移，较前(2016-4-8)考虑变化不著；左侧内乳淋巴结肿大，变化不著；肝转移，较前增多、部分密度增高，余部分增大，部分略缩小；左侧锁骨上、膈上及腹腔淋巴结肿大；骨转移2.右侧水平裂区及左肺类结节灶，变化不著3.甲状腺低密度灶4.提示贫血。</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>右肺下叶胸膜下可见一不规则软组织密度灶,大小约2.2CM×1.6CM,边缘毛糙、浅分叶,与胸膜关系密切,增强扫描呈较显著强化。左肺可见类结节影(图3-25、27等),直径约0.3CM,边缘较清。左肺下叶可见一类结节影(图3-33),边缘模糊。右侧胸膜(含叶间胸膜)增厚,可见多发结节灶,增强扫描可见强化。右侧胸腔内示弧形液体密度影。右肺门及纵隔内右上气管前、气管隆突周围可见多发增大淋巴结,大者短径约0.8CM。左肾上腺略示饱满。	1.结合临床,右肺癌并右侧胸膜(含叶间胸膜)转移;右肺门、纵隔淋巴结肿大,转移可能大;左肺小结节灶,考虑转移2.左肾上腺略示饱满,转移待排3.右侧少量胸腔积液4.左肺下叶类结节影,建议观察。</t>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>右肺下叶胸膜下可见一不规则软组织密度灶，大小约2.2CM×1.6CM，边缘毛糙、浅分叶，与胸膜关系密切，增强扫描呈较显著强化。左肺可见类结节影(图3-25、27等)，直径约0.3CM，边缘较清。左肺下叶可见一类结节影(图3-33)，边缘模糊。右侧胸膜(含叶间胸膜)增厚，可见多发结节灶，增强扫描可见强化。右侧胸腔内示弧形液体密度影。右肺门及纵隔内右上气管前、气管隆突周围可见多发增大淋巴结，大者短径约0.8CM。左肾上腺略示饱满。	1.结合临床，右肺癌并右侧胸膜(含叶间胸膜)转移；右肺门、纵隔淋巴结肿大，转移可能大；左肺小结节灶，考虑转移2.左肾上腺略示饱满，转移待排3.右侧少量胸腔积液4.左肺下叶类结节影，建议观察。</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>腰骶椎曲度略变直,部分椎体前缘见棘样突起,L3椎体前下缘见片状异常信号影,表现为T1WI、T2WI低信号,压脂序列为高信号。另L2椎体见T1WI、T2WI高信号影,压脂序列为低信号。椎间盘L5/S1向后膨,相应硬膜囊受压略变形,椎间隙略变窄。扫描野内子宫体积增大,其内见一较大肿块影,截面约3.9CM×3.2CM,表现为T1WI等信号,T2WI、压脂序列为低信号,边界清晰。	1.结合乳癌术后病史,腰椎L3转移。2.腰骶椎退行性变,椎间盘L5/S1膨出。3.腰椎L2椎体异常信号,考虑脂肪岛。4.考虑子宫肌瘤。</t>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>腰骶椎曲度略变直，部分椎体前缘见棘样突起，L3椎体前下缘见片状异常信号影，表现为T1WI、T2WI低信号，压脂序列为高信号。另L2椎体见T1WI、T2WI高信号影，压脂序列为低信号。椎间盘L5/S1向后膨，相应硬膜囊受压略变形，椎间隙略变窄。扫描野内子宫体积增大，其内见一较大肿块影，截面约3.9CM×3.2CM，表现为T1WI等信号，T2WI、压脂序列为低信号，边界清晰。	1.结合乳癌术后病史，腰椎L3转移。2.腰骶椎退行性变，椎间盘L5/S1膨出。3.腰椎L2椎体异常信号，考虑脂肪岛。4.考虑子宫肌瘤。</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,左乳癌术后,术区复发,较前(2016.6.16)变化不著;左锁上、颈部、左肺门、纵隔及膈上淋巴结转移治疗后,基本变化不著;双肺转移,部分缩小,部分变化不著;多发肝转移,部分增大,部分变化不著;多发骨转移,部分略明显,部分变化不著。2.颈背部结节,不除外转移,变化不著。3.腹腔略大淋巴结,变化不著。4.双肺炎症,略减轻。5.左肩部脂肪瘤。6.左肾未见显示。左乳术后缺如,胸肌尚存,左侧胸壁见软组织影,边缘模糊,大者短径约1.5CM,示明显不均质强化,邻近前胸壁皮肤局部增厚呈软组织密度影,明显强化。双锁上、左肺门、纵隔、左侧颈后三角区、膈上见增大淋巴结,边界尚清,大者短径约1.0CM。双肺见结节灶,大者长径约0.8CM,双肺纹理增强并见斑片模糊略高密度影。甲状腺形态饱满,密度不均。下颈背部皮下见一长径约1.0CM的强化灶。左肩部皮下示脂肪样密度影。肝内见多发低密度灶,边缘轻度强化,大者长径约3.8CM。胆囊、胰脾、双侧肾上腺及扫描野内右肾未见异常。扫描野内左肾未见显示。腹腔及腹膜后见稍大淋巴结,边界不清。骨窗示:胸骨、肩胛骨、多发椎骨、肋骨、右肱骨见骨质破坏区。	</t>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，左乳癌术后，术区复发，较前(2016.6.16)变化不著；左锁上、颈部、左肺门、纵隔及膈上淋巴结转移治疗后，基本变化不著；双肺转移，部分缩小，部分变化不著；多发肝转移，部分增大，部分变化不著；多发骨转移，部分略明显，部分变化不著。2.颈背部结节，不除外转移，变化不著。3.腹腔略大淋巴结，变化不著。4.双肺炎症，略减轻。5.左肩部脂肪瘤。6.左肾未见显示。左乳术后缺如，胸肌尚存，左侧胸壁见软组织影，边缘模糊，大者短径约1.5CM，示明显不均质强化，邻近前胸壁皮肤局部增厚呈软组织密度影，明显强化。双锁上、左肺门、纵隔、左侧颈后三角区、膈上见增大淋巴结，边界尚清，大者短径约1.0CM。双肺见结节灶，大者长径约0.8CM，双肺纹理增强并见斑片模糊略高密度影。甲状腺形态饱满，密度不均。下颈背部皮下见一长径约1.0CM的强化灶。左肩部皮下示脂肪样密度影。肝内见多发低密度灶，边缘轻度强化，大者长径约3.8CM。胆囊、胰脾、双侧肾上腺及扫描野内右肾未见异常。扫描野内左肾未见显示。腹腔及腹膜后见稍大淋巴结，边界不清。骨窗示：胸骨、肩胛骨、多发椎骨、肋骨、右肱骨见骨质破坏区。	</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>左肺门区略增大,左肺上叶支气管狭窄;左肺上叶尖后段支气管腔轻度狭窄。左肺上叶尖后段(51)见一结节影,约为1.46CM,可见毛刺及浅分叶,邻近血管增粗、僵直。左肺上叶可见多发斑片模糊高密度影。左肺上叶胸膜下见多发纤维索条影。双上肺尖见局部胸膜轻度增厚。右肺尖、右肺下叶可见多发散在粟粒影。右肺下叶近斜裂(34)见一结节影,约为0.3CM×0.2CM,并见索条影相连。右肺门区未见异常。纵隔内见多发淋巴结,较大者短径2.4CM,界清。两胸腔无积液征象。1.左肺门占位可能大;左肺上叶尖后段结节,较前CT(2015-07-17)明显增大,纵隔淋巴结较前增大,考虑肺癌;左肺上叶阻塞性肺炎,较前新发;2.右肺下叶外基底段钙化灶;右肺下叶多发炎症;3.右肺下叶近斜裂结节,较前相仿;4.右肺下叶多发粟粒灶,较前新发,不除外转移,随诊。</t>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>左肺门区略增大，左肺上叶支气管狭窄；左肺上叶尖后段支气管腔轻度狭窄。左肺上叶尖后段(51)见一结节影，约为1.46CM，可见毛刺及浅分叶，邻近血管增粗、僵直。左肺上叶可见多发斑片模糊高密度影。左肺上叶胸膜下见多发纤维索条影。双上肺尖见局部胸膜轻度增厚。右肺尖、右肺下叶可见多发散在粟粒影。右肺下叶近斜裂(34)见一结节影，约为0.3CM×0.2CM，并见索条影相连。右肺门区未见异常。纵隔内见多发淋巴结，较大者短径2.4CM，界清。两胸腔无积液征象。1.左肺门占位可能大；左肺上叶尖后段结节，较前CT(2015-07-17)明显增大，纵隔淋巴结较前增大，考虑肺癌；左肺上叶阻塞性肺炎，较前新发；2.右肺下叶外基底段钙化灶；右肺下叶多发炎症；3.右肺下叶近斜裂结节，较前相仿；4.右肺下叶多发粟粒灶，较前新发，不除外转移，随诊。</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,左肺癌治疗后,较前(2016-4-26)片变化不著,左侧胸膜转移及叶裂转移较前变化不著2.左肺慢性炎症及纤维灶3.左侧心包及心膈角区结节影,较前缩小4.肝囊肿。左肺上叶纵隔旁示一不规则软组织密度结节灶,与纵隔内主肺动脉窗区肿大淋巴结分界不清。左肺野内见斑片索条状密度增高影,左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧心包及左侧心膈角区可见多发结节影,大者直径不足1.0CM。肝脏大小形态未见异常,肝实质内可见一小低密度灶,边界清。胆囊、胰腺、脾、双肾、肾上腺未见异常,腹腔腹膜后未见肿大淋巴结影。	</t>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，左肺癌治疗后，较前(2016-4-26)片变化不著，左侧胸膜转移及叶裂转移较前变化不著2.左肺慢性炎症及纤维灶3.左侧心包及心膈角区结节影，较前缩小4.肝囊肿。左肺上叶纵隔旁示一不规则软组织密度结节灶，与纵隔内主肺动脉窗区肿大淋巴结分界不清。左肺野内见斑片索条状密度增高影，左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧心包及左侧心膈角区可见多发结节影，大者直径不足1.0CM。肝脏大小形态未见异常，肝实质内可见一小低密度灶，边界清。胆囊、胰腺、脾、双肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。	</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.左肺上叶癌,左侧胸膜转移,左肺门、纵隔淋巴结转移,较前(2016-9-28)均好转;骨转移,较前变化不著2.左侧胸腔积液,较前减少。左肺上叶示一不规则软组织密度灶,大小约1.3CM×1.7CM,边缘分叶,可见强化。左侧胸膜及叶间胸膜示多发结节灶,可见强化。左侧胸腔示液体密度影。左肺门、纵隔内示数个肿大淋巴结,大者短径约0.6CM。左侧第七后肋呈溶骨性骨质破坏,局部形成软组织密度肿块。	</t>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.左肺上叶癌，左侧胸膜转移，左肺门、纵隔淋巴结转移，较前(2016-9-28)均好转；骨转移，较前变化不著2.左侧胸腔积液，较前减少。左肺上叶示一不规则软组织密度灶，大小约1.3CM×1.7CM，边缘分叶，可见强化。左侧胸膜及叶间胸膜示多发结节灶，可见强化。左侧胸腔示液体密度影。左肺门、纵隔内示数个肿大淋巴结，大者短径约0.6CM。左侧第七后肋呈溶骨性骨质破坏，局部形成软组织密度肿块。	</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,左肺癌并阻塞性肺不张,较前(2015-12-14)略示缩小;纵隔淋巴结转移较前变化不著;右肺门淋巴结稍大较前变化不著2.双肺炎症及纤维灶、气肿;双肺类结节灶,较前变化不著3.肝内钙化灶4.肝内低密度灶,考虑囊肿;双肾囊肿。左肺下叶背段支气管截断,断端见软组织密度灶,远端见不张肺组织,内见扩张支气管及其内粘液栓,二者分界不清,增强后前者中等不均匀强化,侵及左下肺门,与左下肺动脉及其分支、降主动脉关系密切。右肺及纵隔见大者短径约0.8CM中等淋巴结。左侧锁骨上见短径不足0.5CM小淋巴结。双肺见少许斑片索条影及少许泡状过度透光区。左肺上叶(5-14、17)见大者长径约0.8CM类结节灶。右肺(5-18、29)见直径不足0.5CM小类结节灶。肝内见斑点状钙化灶及低密度结节灶,后者大者长径约2.0CM,大部分边缘清晰,部分欠清,均未见强化。胆、胰、脾、双侧肾上腺未见异常。双肾见囊性结节灶。腹腔及腹膜后未见肿大淋巴结。	</t>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，左肺癌并阻塞性肺不张，较前(2015-12-14)略示缩小；纵隔淋巴结转移较前变化不著；右肺门淋巴结稍大较前变化不著2.双肺炎症及纤维灶、气肿；双肺类结节灶，较前变化不著3.肝内钙化灶4.肝内低密度灶，考虑囊肿；双肾囊肿。左肺下叶背段支气管截断，断端见软组织密度灶，远端见不张肺组织，内见扩张支气管及其内粘液栓，二者分界不清，增强后前者中等不均匀强化，侵及左下肺门，与左下肺动脉及其分支、降主动脉关系密切。右肺及纵隔见大者短径约0.8CM中等淋巴结。左侧锁骨上见短径不足0.5CM小淋巴结。双肺见少许斑片索条影及少许泡状过度透光区。左肺上叶(5-14、17)见大者长径约0.8CM类结节灶。右肺(5-18、29)见直径不足0.5CM小类结节灶。肝内见斑点状钙化灶及低密度结节灶，后者大者长径约2.0CM，大部分边缘清晰，部分欠清，均未见强化。胆、胰、脾、双侧肾上腺未见异常。双肾见囊性结节灶。腹腔及腹膜后未见肿大淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>1、左肺下叶团块灶,考虑周围型肺癌并少许阻塞性炎症,请结合临床;2、右肺下叶结节灶,请随诊;3、支气管炎,右肺中叶索条灶;4、甲状腺低密度灶,请结合临床;5、左侧肾上腺结节,转移不除外,随诊。左肺下叶见团块影,最大截面积约3.77CM×3.50CM,CT值约22HU,可见浅分叶及胸膜牵拉征,增强扫描三期CT值约51HU、79HU、71HU,周围可见淡片影。右肺下叶后基底段见结节影,径约0.49CM。双肺纹理增强、模糊。右肺中叶见索条影。双侧肺门未见异常。纵隔未见异常增大淋巴结。双侧胸腔未见积液征象。心及大血管未见异常。甲状腺左叶见低密度影,增强扫描未见强化。所示左侧肾上腺可见结节影,增强后可见轻度强化。</t>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1、左肺下叶团块灶，考虑周围型肺癌并少许阻塞性炎症，请结合临床；2、右肺下叶结节灶，请随诊；3、支气管炎，右肺中叶索条灶；4、甲状腺低密度灶，请结合临床；5、左侧肾上腺结节，转移不除外，随诊。左肺下叶见团块影，最大截面积约3.77CM×3.50CM，CT值约22HU，可见浅分叶及胸膜牵拉征，增强扫描三期CT值约51HU、79HU、71HU，周围可见淡片影。右肺下叶后基底段见结节影，径约0.49CM。双肺纹理增强、模糊。右肺中叶见索条影。双侧肺门未见异常。纵隔未见异常增大淋巴结。双侧胸腔未见积液征象。心及大血管未见异常。甲状腺左叶见低密度影，增强扫描未见强化。所示左侧肾上腺可见结节影，增强后可见轻度强化。</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右肺癌并右肺下叶炎症,较前片2016-12-15基本稳定;右肺类结节,变化不著;右肺门、纵隔淋巴结转移治疗后,较前变化不著。2.右侧胸膜略增厚,变化不著3.肝内钙化灶。4.T12右侧椎弓根密度增高影,变化不著。5.心脏体积增大;冠脉钙化。6.右侧胸腔积液,其内夹层高密度影,考虑出血可能大,请结合临床。右肺下叶见不规则斑片状软组织影,边缘毛糙,大小不易测量,增强后中度强化;其远端肺野见斑片状及索条状密度增高影。右肺见小类结节灶,边缘模糊,直径不足0.5CM。左肺野清晰。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结,大者短径不足1.0CM,部分增强后强化显著。右侧胸膜略增厚。心脏体积增大,冠脉可见钙化。右侧胸腔示液体密度影,其内夹层部分高密度影,平扫示CT值约56HU,增强扫描强化不著。肝内强化不均质,肝右叶见一斑点状钙化灶。T12右侧椎弓根示斑片状密度增高影。	</t>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右肺癌并右肺下叶炎症，较前片2016-12-15基本稳定；右肺类结节，变化不著；右肺门、纵隔淋巴结转移治疗后，较前变化不著。2.右侧胸膜略增厚，变化不著3.肝内钙化灶。4.T12右侧椎弓根密度增高影，变化不著。5.心脏体积增大；冠脉钙化。6.右侧胸腔积液，其内夹层高密度影，考虑出血可能大，请结合临床。右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。右肺见小类结节灶，边缘模糊，直径不足0.5CM。左肺野清晰。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径不足1.0CM，部分增强后强化显著。右侧胸膜略增厚。心脏体积增大，冠脉可见钙化。右侧胸腔示液体密度影，其内夹层部分高密度影，平扫示CT值约56HU，增强扫描强化不著。肝内强化不均质，肝右叶见一斑点状钙化灶。T12右侧椎弓根示斑片状密度增高影。	</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>右肺下叶见不规则斑片状软组织影,边缘毛糙,大小不易测量,增强后中度强化;其远端肺野见斑片状及索条状密度增高影。余双肺可见小类结节灶,边缘模糊,大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结,大者短径约1.1CM,部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝内见一斑点状钙化灶。胆囊充盈可,壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶,大者短径约0.6CM。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。双侧上颌窦及筛窦内示密度增高影。T12右侧椎弓根示斑片状密度增高影。	1.结合临床,右肺癌治疗后,较前片2015-7-1变化不著;双肺类结节灶治疗后,变化不著;右肺门、纵隔淋巴结转移治疗后,大部分变化不著,部分略缩小。2.右肺下叶炎症、纤维灶,变化不著。3.右侧少量胸腔积液,变化不著;右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影,变化不著。6.颅脑CT扫描颅内结构未见明显异常。7.鼻旁窦炎。</t>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。余双肺可见小类结节灶，边缘模糊，大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径约1.1CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝内见一斑点状钙化灶。胆囊充盈可，壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶，大者短径约0.6CM。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。双侧上颌窦及筛窦内示密度增高影。T12右侧椎弓根示斑片状密度增高影。	1.结合临床，右肺癌治疗后，较前片2015-7-1变化不著；双肺类结节灶治疗后，变化不著；右肺门、纵隔淋巴结转移治疗后，大部分变化不著，部分略缩小。2.右肺下叶炎症、纤维灶，变化不著。3.右侧少量胸腔积液，变化不著；右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影，变化不著。6.颅脑CT扫描颅内结构未见明显异常。7.鼻旁窦炎。</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后,肝转移,较前2016-07-20基本变化不著;右肺结节灶,考虑转移,较前缩小2.左肺纤维灶3.胆囊炎。右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一结节灶,直径约0.6CM,边界清。纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块,大者直径约3.5CM,边缘模糊,轻度强化。胆囊充盈可,壁示增厚。胰、脾及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。	</t>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后，肝转移，较前2016-07-20基本变化不著；右肺结节灶，考虑转移，较前缩小2.左肺纤维灶3.胆囊炎。右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一结节灶，直径约0.6CM，边界清。纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块，大者直径约3.5CM，边缘模糊，轻度强化。胆囊充盈可，壁示增厚。胰、脾及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.乳腺癌术后右肺、肝脏及纵隔多发淋巴结转移。2.右肺炎症;左肺下叶结节灶,考虑炎症;3.左肾囊肿;4.颅脑CT扫描未见明显异常;5.右侧上颌窦囊肿。会诊*******(2016-11-21)右侧乳腺癌术后缺如,术区未见异常密度灶。右肺上叶示不规则软组织密度影,大小约为2.3CM×2.6CM,可见分叶,与邻近胸膜关系密切,周围多发类结节灶及条索状、片状密度增高影,增强扫描可见强化。左肺下叶示结节灶,大小约为1.6CM×2.0CM,边界欠清晰,内示点状致密影,可见引流支气管,以宽基底与胸膜相连,增强扫描可见轻度强化。纵隔内示多发肿大淋巴结。肝脏体积略饱满,形态欠规则。肝内多发低密度影,最大截面约为3.8CM×4.0CM,部分内示点状致密影,增强扫描强化不著。胆囊体积略大,壁不厚。右肾、胰腺、脾及双侧肾上腺未见明显异常。左肾大小形态可,内示低密度影,边界清晰,未见强化。腹腔及腹膜后未见明显肿大淋巴结。脑实质均质。脑室系统未见扩张,中线结构居中。右侧上颌窦示囊性密度增高影,增强扫描强化不著。所扫颈腰椎未见明显骨质破坏征象。	</t>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.乳腺癌术后右肺、肝脏及纵隔多发淋巴结转移。2.右肺炎症；左肺下叶结节灶，考虑炎症；3.左肾囊肿；4.颅脑CT扫描未见明显异常；5.右侧上颌窦囊肿。会诊*******(2016-11-21)右侧乳腺癌术后缺如，术区未见异常密度灶。右肺上叶示不规则软组织密度影，大小约为2.3CM×2.6CM，可见分叶，与邻近胸膜关系密切，周围多发类结节灶及条索状、片状密度增高影，增强扫描可见强化。左肺下叶示结节灶，大小约为1.6CM×2.0CM，边界欠清晰，内示点状致密影，可见引流支气管，以宽基底与胸膜相连，增强扫描可见轻度强化。纵隔内示多发肿大淋巴结。肝脏体积略饱满，形态欠规则。肝内多发低密度影，最大截面约为3.8CM×4.0CM，部分内示点状致密影，增强扫描强化不著。胆囊体积略大，壁不厚。右肾、胰腺、脾及双侧肾上腺未见明显异常。左肾大小形态可，内示低密度影，边界清晰，未见强化。腹腔及腹膜后未见明显肿大淋巴结。脑实质均质。脑室系统未见扩张，中线结构居中。右侧上颌窦示囊性密度增高影，增强扫描强化不著。所扫颈腰椎未见明显骨质破坏征象。	</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,双侧乳腺癌术后改变,右侧皮肤增厚并强化,较前2016-010-20片基本变化不著2.双肺结节灶,不除外转移,较前变化不著,建议观察3.肝内低密度灶,较前变化不著;左肾小囊肿4.T12椎体血管瘤5.胆囊炎。左乳术后缺如,术区未见异常强化灶;右侧乳腺术后,术区胸肌尚存,间隙模糊,皮肤略增厚,可见强化。左侧腋窝结构紊乱,可见短径约0.5CM的小淋巴结。双肺门及纵隔未见明确肿大淋巴结。双肺野内见多发结节灶,部分呈磨玻璃密度,边界较清,大者直径约0.5CM。肝脏大小、形态可,肝右叶实质内见一低密度灶,边界欠清,直径约0.5CM。左肾上极见囊性无强化小结节灶。左侧肾上腺饱满,密度未见明显异常。胆囊充盈可,壁厚。腹腔及腹膜后未见明确肿大淋巴结。T12椎体内示低密度影,边界较清晰,其内可见粗颗粒状高密度影。	</t>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，双侧乳腺癌术后改变，右侧皮肤增厚并强化，较前2016-010-20片基本变化不著2.双肺结节灶，不除外转移，较前变化不著，建议观察3.肝内低密度灶，较前变化不著；左肾小囊肿4.T12椎体血管瘤5.胆囊炎。左乳术后缺如，术区未见异常强化灶；右侧乳腺术后，术区胸肌尚存，间隙模糊，皮肤略增厚，可见强化。左侧腋窝结构紊乱，可见短径约0.5CM的小淋巴结。双肺门及纵隔未见明确肿大淋巴结。双肺野内见多发结节灶，部分呈磨玻璃密度，边界较清，大者直径约0.5CM。肝脏大小、形态可，肝右叶实质内见一低密度灶，边界欠清，直径约0.5CM。左肾上极见囊性无强化小结节灶。左侧肾上腺饱满，密度未见明显异常。胆囊充盈可，壁厚。腹腔及腹膜后未见明确肿大淋巴结。T12椎体内示低密度影，边界较清晰，其内可见粗颗粒状高密度影。	</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>1.胃窦壁厚,较前相仿,考虑胃癌,胃周及腹膜后多发淋巴结转移;2.肝包膜下钙化灶;脾多发钙化灶;3.胆囊颈结石,胆囊炎;4.左肾囊肿;5.腹盆腔积液,较前略增多。肝右叶包膜下见点状致密影。胆囊不大,壁厚,胆囊颈部见结节状稍高密度影,最大截面大小约0.4CM×0.7CM。脾不大,脾内及脾包膜下见多发点状及结节状致密影。胰腺大小形态未见明显异常。胃窦部胃壁可见结节状增厚,CT值约38HU;胃周及腹膜后可见多发小淋巴结,较大者短径约0.9CM。双肾大小正常,左肾见多发低密度灶,CT值约4HU。膀胱充盈尚可,其内未见明显异常密度灶。子宫及附件未见明显异常。腹腔肠管未见明显扩张。腹盆腔内见少量液体密度影。所示双侧腹股沟区多发淋巴结影。</t>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>1.胃窦壁厚，较前相仿，考虑胃癌，胃周及腹膜后多发淋巴结转移；2.肝包膜下钙化灶；脾多发钙化灶；3.胆囊颈结石，胆囊炎；4.左肾囊肿；5.腹盆腔积液，较前略增多。肝右叶包膜下见点状致密影。胆囊不大，壁厚，胆囊颈部见结节状稍高密度影，最大截面大小约0.4CM×0.7CM。脾不大，脾内及脾包膜下见多发点状及结节状致密影。胰腺大小形态未见明显异常。胃窦部胃壁可见结节状增厚，CT值约38HU；胃周及腹膜后可见多发小淋巴结，较大者短径约0.9CM。双肾大小正常，左肾见多发低密度灶，CT值约4HU。膀胱充盈尚可，其内未见明显异常密度灶。子宫及附件未见明显异常。腹腔肠管未见明显扩张。腹盆腔内见少量液体密度影。所示双侧腹股沟区多发淋巴结影。</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.左肺上叶癌,较前2017-2-24略饱满;左侧胸膜转移,变化不著;左肺门、纵隔淋巴结转移,部分略缩小,部分变化不著;骨转移,变化不著2.左侧胸腔积液,较前减少。左肺上叶示一不规则软组织密度灶,大小约1.3CM×1.8CM,边缘分叶,可见强化。左侧胸膜及叶间胸膜示多发结节灶,可见强化。左侧胸腔示液体密度影。右肺胸膜下示小类结节灶。左肺门、纵隔内示数个增大淋巴结,大者短径约0.6CM。部分椎骨及肋骨示高密度灶,左侧第七后肋示骨质破坏。左乳内示小类结节灶。	</t>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.左肺上叶癌，较前2017-2-24略饱满；左侧胸膜转移，变化不著；左肺门、纵隔淋巴结转移，部分略缩小，部分变化不著；骨转移，变化不著2.左侧胸腔积液，较前减少。左肺上叶示一不规则软组织密度灶，大小约1.3CM×1.8CM，边缘分叶，可见强化。左侧胸膜及叶间胸膜示多发结节灶，可见强化。左侧胸腔示液体密度影。右肺胸膜下示小类结节灶。左肺门、纵隔内示数个增大淋巴结，大者短径约0.6CM。部分椎骨及肋骨示高密度灶，左侧第七后肋示骨质破坏。左乳内示小类结节灶。	</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,左乳癌术后,术区复发,较前片(2016.05.13)变化不著;左锁上、颈部、左肺门、纵隔及膈上淋巴结转移,较前部分变化不著,部分略示好转;双肺转移,较前变化不著;多发肝转移,较前大部变化不著,部分略好转。2.多发骨转移,较前变化不著。颈背部结节,不除外转移,较前变化不著。腹腔略大淋巴结,较前变化不著。3.双肺炎症。左乳术后缺如,胸肌尚存,左侧胸壁见软组织影,边缘模糊,大者短径约1.5CM,示明显不均质强化,邻近前胸壁皮肤局部增厚呈软组织密度影,明显强化。双锁上、左肺门、纵隔、左侧颈后三角区、膈上见肿大淋巴结,边界尚清,大者短径约1.0CM。双肺见结节灶,大者直径约1.0CM,双肺纹理增强并见斑片模糊略高密度影。下颈背部皮下见一长径约1.0CM的强化灶。肝内见多发低密度灶,边缘轻度强化,大者长径约3.2CM。胆囊充盈可,壁不厚。胰脾、双侧肾上腺及右肾未见异常。扫描野内左肾未见显示。腹腔及腹膜后见稍大,边界不清。骨窗示:胸骨、部分胸腰椎椎体、肋骨见骨质破坏区。	</t>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，左乳癌术后，术区复发，较前片(2016.05.13)变化不著；左锁上、颈部、左肺门、纵隔及膈上淋巴结转移，较前部分变化不著，部分略示好转；双肺转移，较前变化不著；多发肝转移，较前大部变化不著，部分略好转。2.多发骨转移，较前变化不著。颈背部结节，不除外转移，较前变化不著。腹腔略大淋巴结，较前变化不著。3.双肺炎症。左乳术后缺如，胸肌尚存，左侧胸壁见软组织影，边缘模糊，大者短径约1.5CM，示明显不均质强化，邻近前胸壁皮肤局部增厚呈软组织密度影，明显强化。双锁上、左肺门、纵隔、左侧颈后三角区、膈上见肿大淋巴结，边界尚清，大者短径约1.0CM。双肺见结节灶，大者直径约1.0CM，双肺纹理增强并见斑片模糊略高密度影。下颈背部皮下见一长径约1.0CM的强化灶。肝内见多发低密度灶，边缘轻度强化，大者长径约3.2CM。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及右肾未见异常。扫描野内左肾未见显示。腹腔及腹膜后见稍大，边界不清。骨窗示：胸骨、部分胸腰椎椎体、肋骨见骨质破坏区。	</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>所示右侧乳腺组织缺如,右乳腺区及右肺上叶近纵隔区见类圆形及团片状肿块影,最大径约6.0CM,CT值37HU,边界不清,周边见片状模糊影,右内乳动脉区、纵隔及颈部见多发肿大淋巴结,部分似见融合。双肺内见多发大小不一类圆形高密度影,大者径约1.91CM。左室增大,大血管管壁未见钙化。双侧胸腔未见液体密度影。胸骨骨质欠规整,内可见结节状高密度影。所示层面肝脏见多发片状低密度影。对比2012-09-05胸部CT:1.右乳腺癌术后复发改变,右内乳淋巴结、纵隔及两侧颈部多发淋巴结转移,双肺多发转移,胸骨转移,右侧胸壁软组织转移,较前片病变明显进展,右肺上叶近纵隔区转移灶较前范围区域明显变大,请结合临床;2.左心室大;4.肝脏病变,结合腹部CT详查。</t>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>所示右侧乳腺组织缺如，右乳腺区及右肺上叶近纵隔区见类圆形及团片状肿块影，最大径约6.0CM，CT值37HU，边界不清，周边见片状模糊影，右内乳动脉区、纵隔及颈部见多发肿大淋巴结，部分似见融合。双肺内见多发大小不一类圆形高密度影，大者径约1.91CM。左室增大，大血管管壁未见钙化。双侧胸腔未见液体密度影。胸骨骨质欠规整，内可见结节状高密度影。所示层面肝脏见多发片状低密度影。对比2012-09-05胸部CT：1.右乳腺癌术后复发改变，右内乳淋巴结、纵隔及两侧颈部多发淋巴结转移，双肺多发转移，胸骨转移，右侧胸壁软组织转移，较前片病变明显进展，右肺上叶近纵隔区转移灶较前范围区域明显变大，请结合临床；2.左心室大；4.肝脏病变，结合腹部CT详查。</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,左肺癌并阻塞性肺不张,较前(2016-1-27)进展;纵隔淋巴结转移较前变化不著;右肺门淋巴结稍大较前变化不著2.双肺炎症及纤维灶、气肿;双肺类结节灶,较前变化不著3.肝内钙化灶4.肝内低密度灶,考虑囊肿;双肾囊肿。左肺下叶背段支气管截断,断端见软组织密度灶,远端见不张肺组织,内见扩张支气管及其内粘液栓,二者分界不清,增强后前者中等不均匀强化,侵及左下肺门,与左下肺动脉及其分支、降主动脉关系密切。右肺及纵隔见大者短径约0.8CM中等淋巴结。左侧锁骨上见短径不足0.5CM小淋巴结。双肺见少许斑片索条影及少许泡状过度透光区。左肺上叶(5-12、15)见大者长径约0.8CM类结节灶。右肺(5-17、27)见直径不足0.5CM小类结节灶。肝内见斑点状钙化灶及低密度结节灶,后者大者长径约2.0CM,大部分边缘清晰,部分欠清,均未见强化。胆、胰、脾、双侧肾上腺未见异常。双肾见囊性结节灶。腹腔及腹膜后未见肿大淋巴结。	</t>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，左肺癌并阻塞性肺不张，较前(2016-1-27)进展；纵隔淋巴结转移较前变化不著；右肺门淋巴结稍大较前变化不著2.双肺炎症及纤维灶、气肿；双肺类结节灶，较前变化不著3.肝内钙化灶4.肝内低密度灶，考虑囊肿；双肾囊肿。左肺下叶背段支气管截断，断端见软组织密度灶，远端见不张肺组织，内见扩张支气管及其内粘液栓，二者分界不清，增强后前者中等不均匀强化，侵及左下肺门，与左下肺动脉及其分支、降主动脉关系密切。右肺及纵隔见大者短径约0.8CM中等淋巴结。左侧锁骨上见短径不足0.5CM小淋巴结。双肺见少许斑片索条影及少许泡状过度透光区。左肺上叶(5-12、15)见大者长径约0.8CM类结节灶。右肺(5-17、27)见直径不足0.5CM小类结节灶。肝内见斑点状钙化灶及低密度结节灶，后者大者长径约2.0CM，大部分边缘清晰，部分欠清，均未见强化。胆、胰、脾、双侧肾上腺未见异常。双肾见囊性结节灶。腹腔及腹膜后未见肿大淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>子宫及双侧附件术后,阴道残端未见显著增厚。膀胱充盈好,充盈高密度影,壁无增厚。盆腔内肠间隙可见少量液性密度影。盆腔内未见显著增大淋巴结。肝实质密度均匀,未见异常密度灶。肝包膜下可见低密度影,强化不著。网膜区可见结节灶,边缘模糊,短径约1.0CM,密度较低,强化不著。肠系膜区可见结节影(图4-38),边缘模糊,直径约0.8CM,可见较显著强化。胆囊充盈可,壁增厚。胰脾及双侧肾上腺未见异常。双肾实质示低密度灶,大者直径约0.4CM,边界尚清。心膈角区(图4-1、12)可见强化淋巴结,大者短径约1.6CM。余腹腔腹膜后未见确切肿大淋巴结。肠间隙可见少量液体密度影。右肺野见少许高密度条索影,左肺野清晰。右侧胸膜呈结节状增厚并强化。双肺门及纵隔未见明显肿大淋巴结。左乳外上象限可见一强化结节灶,直径约1.5CM,边缘略示毛糙。右侧胸腔内示少量液体密度影。	1.结合临床,卵巢癌术后;心膈角区淋巴结转移;右侧胸膜转移;右侧肠系膜区强化结节灶,考虑转移;肝包膜下及网膜区低密度灶,请结合前片;左乳强化灶,首先考虑转移瘤2.少量腹水、盆腔积液;右侧胸腔少量积液3.胆囊炎4.双肾低密度灶,囊肿可能大,建议观察5.右肺纤维灶。</t>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>子宫及双侧附件术后，阴道残端未见显著增厚。膀胱充盈好，充盈高密度影，壁无增厚。盆腔内肠间隙可见少量液性密度影。盆腔内未见显著增大淋巴结。肝实质密度均匀，未见异常密度灶。肝包膜下可见低密度影，强化不著。网膜区可见结节灶，边缘模糊，短径约1.0CM，密度较低，强化不著。肠系膜区可见结节影(图4-38)，边缘模糊，直径约0.8CM，可见较显著强化。胆囊充盈可，壁增厚。胰脾及双侧肾上腺未见异常。双肾实质示低密度灶，大者直径约0.4CM，边界尚清。心膈角区(图4-1、12)可见强化淋巴结，大者短径约1.6CM。余腹腔腹膜后未见确切肿大淋巴结。肠间隙可见少量液体密度影。右肺野见少许高密度条索影，左肺野清晰。右侧胸膜呈结节状增厚并强化。双肺门及纵隔未见明显肿大淋巴结。左乳外上象限可见一强化结节灶，直径约1.5CM，边缘略示毛糙。右侧胸腔内示少量液体密度影。	1.结合临床，卵巢癌术后；心膈角区淋巴结转移；右侧胸膜转移；右侧肠系膜区强化结节灶，考虑转移；肝包膜下及网膜区低密度灶，请结合前片；左乳强化灶，首先考虑转移瘤2.少量腹水、盆腔积液；右侧胸腔少量积液3.胆囊炎4.双肾低密度灶，囊肿可能大，建议观察5.右肺纤维灶。</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌较前(2016-4-27)进展;双肺转移较前进展;肝转移变化不著;左肺门及纵隔淋巴结转移较前进展;右侧内乳区饱满,变化不著;脑转移瘤较前明显进展;脑膜异常强化,不除外转移,建议MRI;脑室系统较前示变窄2.左胸膜局限性增厚,局部钙化,变化不著3.颈部小淋巴结。右侧乳腺乳头上方见不规则软组织密度肿块影,约9.4CM×7.9CM,边缘分叶,局部与周围腺体及乳头区皮肤分界不清,胸肌间脂肪间隙模糊,增强扫描见显著不均匀强化,其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发肿大或小淋巴结,大者短径约0.9CM。右侧内乳区显示饱满。左肺门及纵隔内见肿大淋巴结影,大者短径约1.5CM。双肺野散在分布大小不等结节灶,大者直径约1.7CM,边缘清晰,局部与胸膜及纵隔关系密切,增强扫描可见强化。左胸膜增厚,局部呈结节样;局部见多发钙化灶并致局部肋骨欠规则。双侧颈动脉鞘区可见多发小淋巴结,短径不足1.0CM。肝实质内见多个低密度灶,大者直径约0.3CM,边缘尚清晰,增强扫描边缘强化显著。胆囊充盈可,壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内可见多发结节状斑片状强化灶,周围可见低密度水肿带,部分脑膜示异常强化。脑室系统略示变窄。	</t>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌较前(2016-4-27)进展；双肺转移较前进展；肝转移变化不著；左肺门及纵隔淋巴结转移较前进展；右侧内乳区饱满，变化不著；脑转移瘤较前明显进展；脑膜异常强化，不除外转移，建议MRI；脑室系统较前示变窄2.左胸膜局限性增厚，局部钙化，变化不著3.颈部小淋巴结。右侧乳腺乳头上方见不规则软组织密度肿块影，约9.4CM×7.9CM，边缘分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发肿大或小淋巴结，大者短径约0.9CM。右侧内乳区显示饱满。左肺门及纵隔内见肿大淋巴结影，大者短径约1.5CM。双肺野散在分布大小不等结节灶，大者直径约1.7CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。双侧颈动脉鞘区可见多发小淋巴结，短径不足1.0CM。肝实质内见多个低密度灶，大者直径约0.3CM，边缘尚清晰，增强扫描边缘强化显著。胆囊充盈可，壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内可见多发结节状斑片状强化灶，周围可见低密度水肿带，部分脑膜示异常强化。脑室系统略示变窄。	</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>右肺下叶支气管开口区可见不规则软组织密度肿块,下叶支气管截断,远端可见不张肺组织实变影,病变与之分界不清,大小不易测量;增强后病变呈较显著不均质强化,不张肺组织内可见粘液栓影。病变与右下肺静脉关系密切,分界欠清。余双侧肺野内可见散在类结节灶,密度较淡,大者直径约0.3CM。双侧肺野内可见絮状及条索状密度增高影。双肺门、纵隔内2R、5区、6区、7区、8R、9L及右锁上可见多发肿大淋巴结,大者短径约1.1CM。右侧胸腔内可见少量弧形液性密度影;右侧胸膜显示增厚,局部呈类结节状。肝脏形态、大小可,肝左叶可见一类圆形低密度灶,直径约0.3CM,边界较清。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶,直径约0.5CM,边界清晰,未见强化。双侧肾上腺饱满,左侧肾上腺可见软组织密度结节灶,截面大小约1.9CM×1.4CM,可见不均质强化。腹腔及腹膜后未见增大淋巴结。骨窗示:左侧第八肋骨呈溶骨性骨质破坏。	1.右肺下叶占位,考虑右肺癌并右肺下叶阻塞性肺不张2.双肺门及纵隔、右锁上淋巴结肿大3.双肺多发类结节灶,建议密切观察以除外转移4.右侧胸膜增厚;右侧胸腔少量积液5.双侧炎症6.左侧第八肋骨骨质破坏,考虑转移7.左侧肾上腺结节灶,考虑转移8.肝左叶低密度灶,建议观察9.右肾囊肿。</t>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>右肺下叶支气管开口区可见不规则软组织密度肿块，下叶支气管截断，远端可见不张肺组织实变影，病变与之分界不清，大小不易测量；增强后病变呈较显著不均质强化，不张肺组织内可见粘液栓影。病变与右下肺静脉关系密切，分界欠清。余双侧肺野内可见散在类结节灶，密度较淡，大者直径约0.3CM。双侧肺野内可见絮状及条索状密度增高影。双肺门、纵隔内2R、5区、6区、7区、8R、9L及右锁上可见多发肿大淋巴结，大者短径约1.1CM。右侧胸腔内可见少量弧形液性密度影；右侧胸膜显示增厚，局部呈类结节状。肝脏形态、大小可，肝左叶可见一类圆形低密度灶，直径约0.3CM，边界较清。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶，直径约0.5CM，边界清晰，未见强化。双侧肾上腺饱满，左侧肾上腺可见软组织密度结节灶，截面大小约1.9CM×1.4CM，可见不均质强化。腹腔及腹膜后未见增大淋巴结。骨窗示：左侧第八肋骨呈溶骨性骨质破坏。	1.右肺下叶占位，考虑右肺癌并右肺下叶阻塞性肺不张2.双肺门及纵隔、右锁上淋巴结肿大3.双肺多发类结节灶，建议密切观察以除外转移4.右侧胸膜增厚；右侧胸腔少量积液5.双侧炎症6.左侧第八肋骨骨质破坏，考虑转移7.左侧肾上腺结节灶，考虑转移8.肝左叶低密度灶，建议观察9.右肾囊肿。</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>左乳外上象限可见较大不规则软组织密度肿块,边缘分叶,截面约4.6CM×2.9CM,其内可见粗大砂砾状钙化灶,肿块与周围腺体分界欠清,增强后病变呈较显著不均质强化。左侧乳腺皮肤不均匀增厚,增强后呈轻度不均匀强化。左侧腋窝可见多发肿大淋巴结,大者短径约1.4CM。左肺下叶叶间胸膜下可见软组织密度灶,截面约2.0CM×1.8CM,边缘浅分叶,增强后呈中度不均质强化。双侧叶间胸膜可见散在多发类结节灶,边界较清,大者直径约0.2CM。双肺门及纵隔内未见明显肿大淋巴结。扫描野内骨质未见明显破坏征象。	1.左乳癌并左腋窝淋巴结转移2.左肺下叶占位,不除外原发性肺癌3.双侧叶间胸膜多发结节灶,转移不能除外。</t>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>左乳外上象限可见较大不规则软组织密度肿块，边缘分叶，截面约4.6CM×2.9CM，其内可见粗大砂砾状钙化灶，肿块与周围腺体分界欠清，增强后病变呈较显著不均质强化。左侧乳腺皮肤不均匀增厚，增强后呈轻度不均匀强化。左侧腋窝可见多发肿大淋巴结，大者短径约1.4CM。左肺下叶叶间胸膜下可见软组织密度灶，截面约2.0CM×1.8CM，边缘浅分叶，增强后呈中度不均质强化。双侧叶间胸膜可见散在多发类结节灶，边界较清，大者直径约0.2CM。双肺门及纵隔内未见明显肿大淋巴结。扫描野内骨质未见明显破坏征象。	1.左乳癌并左腋窝淋巴结转移2.左肺下叶占位，不除外原发性肺癌3.双侧叶间胸膜多发结节灶，转移不能除外。</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>左肺下叶背段可见团块影,较大截面大小约为5.71CM×3.91CM,平扫CT值约为39HU,边界尚清,浅分叶状,周围可见斑片状稍高密度影。双肺另见弥漫多发大小不等结节影。两肺门区未见异常。纵隔内未见淋巴结增大。两侧胸腔内可见弧形液体密度影。心脏大血管未见异常。右侧部分肋骨形态欠规整。第11胸椎右侧附件区骨质破坏,并见软组织肿块。1.左肺下叶背段周围型肺癌,较前略大,伴双肺多发转移瘤,第11胸椎右侧附件区骨转移;2.右侧部分肋骨陈旧性骨折改变;3.第11胸椎右侧附件区骨质破坏,并见软组织肿块,较前相仿;4.双侧胸腔积液,较前片2015-11-19新发。</t>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>左肺下叶背段可见团块影，较大截面大小约为5.71CM×3.91CM，平扫CT值约为39HU，边界尚清，浅分叶状，周围可见斑片状稍高密度影。双肺另见弥漫多发大小不等结节影。两肺门区未见异常。纵隔内未见淋巴结增大。两侧胸腔内可见弧形液体密度影。心脏大血管未见异常。右侧部分肋骨形态欠规整。第11胸椎右侧附件区骨质破坏，并见软组织肿块。1.左肺下叶背段周围型肺癌，较前略大，伴双肺多发转移瘤，第11胸椎右侧附件区骨转移；2.右侧部分肋骨陈旧性骨折改变；3.第11胸椎右侧附件区骨质破坏，并见软组织肿块，较前相仿；4.双侧胸腔积液，较前片2015-11-19新发。</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>右乳外上象限可见一不规则软组织密度肿块,边缘明显分叶,周围可见条索影,肿块截面大小约2.4CM×2.3CM,增强后可见病变显著强化。余右侧乳腺内可见显著强化结节灶。右侧腋窝可见肿大淋巴结,大者短径约0.9CM,可见显著强化。左乳及左侧腋窝未见异常。右侧内乳区略饱满。右肺上叶及左肺下叶可见散在类结节灶,边界较清,大者直径约0.3CM;余双肺野清晰,肺纹理走形自然,气管及各级支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶,边界清晰,未见强化。腹腔及腹膜后未见增大淋巴结。骨窗示:多发胸腰椎椎体、部分肋骨呈溶骨性骨质破坏,局部呈膨胀性改变。	1.右乳癌并右侧腋窝转移,多发骨转移2.双肺类结节灶,纤维灶可能,建议观察3.右肾囊肿。</t>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>右乳外上象限可见一不规则软组织密度肿块，边缘明显分叶，周围可见条索影，肿块截面大小约2.4CM×2.3CM，增强后可见病变显著强化。余右侧乳腺内可见显著强化结节灶。右侧腋窝可见肿大淋巴结，大者短径约0.9CM，可见显著强化。左乳及左侧腋窝未见异常。右侧内乳区略饱满。右肺上叶及左肺下叶可见散在类结节灶，边界较清，大者直径约0.3CM；余双肺野清晰，肺纹理走形自然，气管及各级支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶，边界清晰，未见强化。腹腔及腹膜后未见增大淋巴结。骨窗示：多发胸腰椎椎体、部分肋骨呈溶骨性骨质破坏，局部呈膨胀性改变。	1.右乳癌并右侧腋窝转移，多发骨转移2.双肺类结节灶，纤维灶可能，建议观察3.右肾囊肿。</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>左肺下叶可见一不规则肿块,截面约7.2CM×7.0CM,边缘分叶,与胸膜关系密切,周围示斑片及絮状密度增高影,增强扫描病变呈较显著不均匀强化。余双肺多发泡状过度透光灶。左肺门及纵隔多发肿大淋巴结,大者短径约3.6CM。左锁上淋巴结略大,短径约0.6CM。肝右叶略示一低密度灶,直径约1.2CM,边缘模糊,增强扫描略强化,延迟扫描呈等密度。胆囊充盈可,壁略厚。胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。	1.左肺下叶癌,左肺门、纵隔淋巴结转移2.左肺炎症;双肺气肿3.左锁上淋巴结略大4.肝内低密度灶,建议进一步检查。</t>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>左肺下叶可见一不规则肿块，截面约7.2CM×7.0CM，边缘分叶，与胸膜关系密切，周围示斑片及絮状密度增高影，增强扫描病变呈较显著不均匀强化。余双肺多发泡状过度透光灶。左肺门及纵隔多发肿大淋巴结，大者短径约3.6CM。左锁上淋巴结略大，短径约0.6CM。肝右叶略示一低密度灶，直径约1.2CM，边缘模糊，增强扫描略强化，延迟扫描呈等密度。胆囊充盈可，壁略厚。胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。	1.左肺下叶癌，左肺门、纵隔淋巴结转移2.左肺炎症；双肺气肿3.左锁上淋巴结略大4.肝内低密度灶，建议进一步检查。</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>右肺中叶近肺门处示不规则软组织密度影,远侧肺组织示实变征象,周围多发多发条索状及斑片状密度增高影,与周围组织关系密切,增强扫描示中度强化。右肺中叶外侧段见一磨玻璃密度结节。余双肺野内散在囊泡状过度透光灶。右肺门及纵隔示多发肿大淋巴结,部分融合成团,大者短径约为1.2CM。肝脏示低密度影,边界清晰,增强扫描未见强化,余肝实质未见异常密度影。胆囊、胰腺、脾、双肾、未见异常,右侧肾上腺外支见一结节灶,直径约0.8CM,边缘光滑,密度均匀。腹腔腹膜后未见肿大淋巴结影。	1.右肺癌并阻塞性肺炎,肺不张,右肺门及纵隔淋巴结转移;较前片(2016,07,27)变化不明显。2.双肺气肿。3.右肺磨玻璃结节(考虑良性)。4.肝囊肿。5.右肾上腺小结节,考虑腺瘤可能性大。</t>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>右肺中叶近肺门处示不规则软组织密度影，远侧肺组织示实变征象，周围多发多发条索状及斑片状密度增高影，与周围组织关系密切，增强扫描示中度强化。右肺中叶外侧段见一磨玻璃密度结节。余双肺野内散在囊泡状过度透光灶。右肺门及纵隔示多发肿大淋巴结，部分融合成团，大者短径约为1.2CM。肝脏示低密度影，边界清晰，增强扫描未见强化，余肝实质未见异常密度影。胆囊、胰腺、脾、双肾、未见异常，右侧肾上腺外支见一结节灶，直径约0.8CM，边缘光滑，密度均匀。腹腔腹膜后未见肿大淋巴结影。	1.右肺癌并阻塞性肺炎，肺不张，右肺门及纵隔淋巴结转移；较前片(2016，07，27)变化不明显。2.双肺气肿。3.右肺磨玻璃结节(考虑良性)。4.肝囊肿。5.右肾上腺小结节，考虑腺瘤可能性大。</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合病史,右肺癌术后复发,较前(2017-1-11)增大;右肺门、纵隔、右锁上淋巴结转移,较前部分增大,部分变化不著;双颈部及左侧锁骨上淋巴结转移;双肺转移,较前进展;腹腔淋巴结肿大,考虑转移,较前进展2.双肺炎症,局部略加重;右侧少量胸腔积液,基本变化不著,心包积液,略增多;右侧胸膜增厚,变化不著3.左胸壁脂肪瘤,变化不著4.肝左叶低密度灶,请结合临床5.左侧肩胛骨局部骨质稀疏,变化不著。右肺下叶切除术后,右下肺门区见软组织肿块影,截面约5.5CM×5.3CM。双肺内见多发结节灶,大者短径约3.0CM。双肺近纵隔周围见多发斑片状密度增高影。右侧胸腔见少量液性密度影,右侧胸膜增厚。双颈部、双锁上、右肺门、纵隔、腹腔见多发增大淋巴结,部分融合成团。心包腔内见少量液性密度影。肝左叶见低密度结节。左前下胸壁软组织内示梭形脂肪样密度影,边界清。骨窗示:左侧肩胛骨局部骨质结节状稀疏。	</t>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合病史，右肺癌术后复发，较前(2017-1-11)增大；右肺门、纵隔、右锁上淋巴结转移，较前部分增大，部分变化不著；双颈部及左侧锁骨上淋巴结转移；双肺转移，较前进展；腹腔淋巴结肿大，考虑转移，较前进展2.双肺炎症，局部略加重；右侧少量胸腔积液，基本变化不著，心包积液，略增多；右侧胸膜增厚，变化不著3.左胸壁脂肪瘤，变化不著4.肝左叶低密度灶，请结合临床5.左侧肩胛骨局部骨质稀疏，变化不著。右肺下叶切除术后，右下肺门区见软组织肿块影，截面约5.5CM×5.3CM。双肺内见多发结节灶，大者短径约3.0CM。双肺近纵隔周围见多发斑片状密度增高影。右侧胸腔见少量液性密度影，右侧胸膜增厚。双颈部、双锁上、右肺门、纵隔、腹腔见多发增大淋巴结，部分融合成团。心包腔内见少量液性密度影。肝左叶见低密度结节。左前下胸壁软组织内示梭形脂肪样密度影，边界清。骨窗示：左侧肩胛骨局部骨质结节状稀疏。	</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>左上肺门处可见肿块影,分叶状,大小为3.95CM×3.19CM,形状不规则,边缘清,与肺动脉分界不清,CT值为35HU,增强扫描三期CT值分别为52、62、54HU,均匀轻度强化,包绕左肺动脉,左肺上动脉未见显示,纵隔及左肺门可见多发肿大淋巴结,大者短径为1.00CM。左侧胸膜牵拉凹陷。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常左上肺门中央型肺癌,阻塞左上肺动脉,纵隔及左肺门淋巴结转移,较2015-08-05CT左上肺门旁病变减小,纵隔及左肺门淋巴结减小。</t>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>左上肺门处可见肿块影，分叶状，大小为3.95CM×3.19CM，形状不规则，边缘清，与肺动脉分界不清，CT值为35HU，增强扫描三期CT值分别为52、62、54HU，均匀轻度强化，包绕左肺动脉，左肺上动脉未见显示，纵隔及左肺门可见多发肿大淋巴结，大者短径为1.00CM。左侧胸膜牵拉凹陷。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常左上肺门中央型肺癌，阻塞左上肺动脉，纵隔及左肺门淋巴结转移，较2015-08-05CT左上肺门旁病变减小，纵隔及左肺门淋巴结减小。</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>会诊*******(东院区)(2016-08-17与2016-5-29对比)左侧乳腺术后,术区胸壁未见增厚,左侧部分肋骨骨质密度不均,左前第6肋骨质离断,断端骨质密度增高。右侧乳腺外侧见一椭圆形结节灶,可见强化,长径约1.3CM,其内可见斑点状钙化影。右侧腋窝见强化的淋巴结,大者直径约1.2CM。右肺上叶见片状软组织密度影,边缘毛糙,其内可见小条状金属影,与邻近胸膜关系密切。左肺野近胸壁后方见斑片状高密度影。右侧胸膜及叶间胸膜处见数个小结节灶。左肺下叶近胸膜处见一直径约0.3CM的小结节灶,有条索影与胸膜相连。扫描野所示肝内示囊性密度影。	1.结合临床,左侧乳腺癌术后,左前第6肋骨折,变化不著;2.右侧乳腺强化结节灶,较前(2016-5-29)进展;右侧腋窝淋巴结肿大,较前进展;3.右肺转移灶治疗后改变,双肺炎症,较前(2016-5-29)较前进展;4.右侧胸膜结节灶转移,较前增大;5.左肺下叶结节灶,考虑肺内淋巴结可能大,变化不著;6.肝囊肿。</t>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>会诊*******(东院区)(2016-08-17与2016-5-29对比)左侧乳腺术后，术区胸壁未见增厚，左侧部分肋骨骨质密度不均，左前第6肋骨质离断，断端骨质密度增高。右侧乳腺外侧见一椭圆形结节灶，可见强化，长径约1.3CM，其内可见斑点状钙化影。右侧腋窝见强化的淋巴结，大者直径约1.2CM。右肺上叶见片状软组织密度影，边缘毛糙，其内可见小条状金属影，与邻近胸膜关系密切。左肺野近胸壁后方见斑片状高密度影。右侧胸膜及叶间胸膜处见数个小结节灶。左肺下叶近胸膜处见一直径约0.3CM的小结节灶，有条索影与胸膜相连。扫描野所示肝内示囊性密度影。	1.结合临床，左侧乳腺癌术后，左前第6肋骨折，变化不著；2.右侧乳腺强化结节灶，较前(2016-5-29)进展；右侧腋窝淋巴结肿大，较前进展；3.右肺转移灶治疗后改变，双肺炎症，较前(2016-5-29)较前进展；4.右侧胸膜结节灶转移，较前增大；5.左肺下叶结节灶，考虑肺内淋巴结可能大，变化不著；6.肝囊肿。</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>左肺上叶可见一不规则软组织密度灶,大小约1.7CM×2.4CM,边缘分叶、毛刺,牵拉远端胸膜致其略示凹陷,增强扫描病变呈较显著不均匀强化。左下肺门区可见团片状软组织密度影,截面约2.1CM×1.2CM,边缘毛糙,增强扫描可见强化;左肺下叶支气管狭窄。左肺野纹理增多,小叶间隔增厚,上叶为著。左肺上叶纵隔旁可见索条状密度增高影。余左肺野可见类结节状影(图5-17、24),边缘模糊。左侧胸膜(含叶间胸膜)略示增厚。右肺野小叶间隔亦略厚。右侧胸膜(含叶间胸膜)略厚。左侧胸腔内示弧形液体密度影。右侧锁骨上区、纵隔内2R、3A、4R/L、7区、8区及左肺门可见多发肿大淋巴结,部分融合,大者短径约1.5CM,增强扫描可见强化。左锁上示短径不足0.5CM的小淋巴结。所扫肝内见小囊性密度灶。胆囊壁增厚。左肾示一小囊肿。另胸骨、多发胸椎、多发肋骨可见成骨性骨质破坏。右侧肩胛骨局部骨质密度增高;双侧肱骨头、左侧肩胛骨骨质密度略示稀疏。	1.结合临床,左肺癌并左肺门、纵隔淋巴结转移;右侧锁骨上区淋巴结肿大,转移待排;多发骨转移;考虑左肺癌性淋巴管炎2.右肺下叶间隔略示增厚,建议观察3.左肺炎症4.左肺类结节灶,不除外为炎性结节5.双侧胸膜(含叶间胸膜)增厚,左侧较著6.左侧胸腔积液7.肝脏小囊肿;左肾小囊肿8.胆囊炎。</t>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>左肺上叶可见一不规则软组织密度灶，大小约1.7CM×2.4CM，边缘分叶、毛刺，牵拉远端胸膜致其略示凹陷，增强扫描病变呈较显著不均匀强化。左下肺门区可见团片状软组织密度影，截面约2.1CM×1.2CM，边缘毛糙，增强扫描可见强化；左肺下叶支气管狭窄。左肺野纹理增多，小叶间隔增厚，上叶为著。左肺上叶纵隔旁可见索条状密度增高影。余左肺野可见类结节状影(图5-17、24)，边缘模糊。左侧胸膜(含叶间胸膜)略示增厚。右肺野小叶间隔亦略厚。右侧胸膜(含叶间胸膜)略厚。左侧胸腔内示弧形液体密度影。右侧锁骨上区、纵隔内2R、3A、4R/L、7区、8区及左肺门可见多发肿大淋巴结，部分融合，大者短径约1.5CM，增强扫描可见强化。左锁上示短径不足0.5CM的小淋巴结。所扫肝内见小囊性密度灶。胆囊壁增厚。左肾示一小囊肿。另胸骨、多发胸椎、多发肋骨可见成骨性骨质破坏。右侧肩胛骨局部骨质密度增高；双侧肱骨头、左侧肩胛骨骨质密度略示稀疏。	1.结合临床，左肺癌并左肺门、纵隔淋巴结转移；右侧锁骨上区淋巴结肿大，转移待排；多发骨转移；考虑左肺癌性淋巴管炎2.右肺下叶间隔略示增厚，建议观察3.左肺炎症4.左肺类结节灶，不除外为炎性结节5.双侧胸膜(含叶间胸膜)增厚，左侧较著6.左侧胸腔积液7.肝脏小囊肿；左肾小囊肿8.胆囊炎。</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合病史,右乳癌术后改变,术区胸壁强化欠均匀,建议观察;考虑骨转移并部分肋骨骨折2.左肺下叶类结节,较前2015-08-19基本变化不著3.右肺炎症。右乳术后缺如,术区结构紊乱,部分胸壁组织尚存,胸壁略增厚并强化欠均匀。右侧腋窝呈术后改变,未见异常密度灶。左乳未见异常。左侧腋窝见多发小淋巴结,大者短径约0.6CM,其内可见脂肪密度影。双侧内乳区、双肺门及纵隔未见确切肿大淋巴结。左肺下叶见一类结节灶,直径约0.4CM,密度较高。右肺胸膜下见斑片状及条索状密度增高影。右侧多发肋骨示溶骨性及成骨性骨质改变,部分骨皮质欠连续。	</t>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合病史，右乳癌术后改变，术区胸壁强化欠均匀，建议观察；考虑骨转移并部分肋骨骨折2.左肺下叶类结节，较前2015-08-19基本变化不著3.右肺炎症。右乳术后缺如，术区结构紊乱，部分胸壁组织尚存，胸壁略增厚并强化欠均匀。右侧腋窝呈术后改变，未见异常密度灶。左乳未见异常。左侧腋窝见多发小淋巴结，大者短径约0.6CM，其内可见脂肪密度影。双侧内乳区、双肺门及纵隔未见确切肿大淋巴结。左肺下叶见一类结节灶，直径约0.4CM，密度较高。右肺胸膜下见斑片状及条索状密度增高影。右侧多发肋骨示溶骨性及成骨性骨质改变，部分骨皮质欠连续。	</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>1.右肺上叶肿块,首先考虑肺癌并右肺转移,纵隔淋巴结转移,请结合临床,详查;2.右侧大量胸腔积液,右肺下叶膨胀不全;3.一胸椎高密度灶,随诊。右肺上叶见肿块影,径约2.07CM,CT值约50HU,呈分叶状,边缘毛糙;右肺可见多发类圆形结节影,大者径约0.55CM;右侧胸腔可见弧形液性密度影,右肺下叶膨胀不全;纵隔内可见肿大淋巴结影,大者短径约1.05CM。心脏大血管未见异常。一胸椎见结节样高密度影。</t>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>1.右肺上叶肿块，首先考虑肺癌并右肺转移，纵隔淋巴结转移，请结合临床，详查；2.右侧大量胸腔积液，右肺下叶膨胀不全；3.一胸椎高密度灶，随诊。右肺上叶见肿块影，径约2.07CM，CT值约50HU，呈分叶状，边缘毛糙；右肺可见多发类圆形结节影，大者径约0.55CM；右侧胸腔可见弧形液性密度影，右肺下叶膨胀不全；纵隔内可见肿大淋巴结影，大者短径约1.05CM。心脏大血管未见异常。一胸椎见结节样高密度影。</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后;纵隔淋巴结肿大治疗后,较前(2015-4-24)部分缩小,部分变化不著;腹腔及腹膜后淋巴结肿大治疗后,变化不著;双肺转移,大部分缩小,部分变化不著;肝多发转移,大部分密度减低,部分略缩小;多发骨转移,较前部分成骨性成分增多,余变化不著。2.胆囊炎;考虑左肾囊肿,变化不著;脾内低密度灶。3.腹膜、网膜、肠系膜略增厚,变化不著;少量腹水,略示减少。4.门脉左支充盈欠佳,变化不著。5.考虑双肺炎症,局部示好转;双侧胸膜略增厚并左侧胸膜钙化灶。右乳术后,术区壁未见增厚及异常强化。纵隔内右上气管、血管前间隙、隆突下、食管旁见小或增大淋巴结,大者短径约0.6CM。双锁骨上及左侧腋窝示小淋巴结,大者短径不足0.5CM。右侧腋窝未见增大淋巴结。双肺见多发小斑片影及类结节灶,部分与邻近胸膜分界不清。余双肺内示条片密度增高影,局部牵拉邻近胸膜。双侧胸膜略增厚,左侧胸膜见少许斑点状钙化灶。双侧胸腔未见积液征象。肝脏体积缩小,左叶为著,肝内见多发结节灶,融合成团,大小不易测量,增强后呈不均匀强化。门脉左支充盈欠佳。腹腔内贲门旁、肝胃韧带区、肝十二指肠韧带区、腹膜后腹主动脉旁见多发小或增大淋巴结,大者短径约0.8CM,部分与胰腺分界欠清。膈上后组见短径不足0.5CM小淋巴结。胆囊充盈可,壁增厚并见强化。左肾示囊性低密度灶,大者长径约0.7CM,部分边界欠清。脾内示小斑片状低密度区。双侧肾上腺及右肾未见异常。腹腔内示液性密度影。大网膜、腹膜、肠系膜略增厚。胸骨、右侧肱骨、锁骨、肋骨、胸腰椎示多发溶骨性、成骨性骨质破坏,局部周围示软组织影,部分肋骨骨质欠连续。	</t>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后；纵隔淋巴结肿大治疗后，较前(2015-4-24)部分缩小，部分变化不著；腹腔及腹膜后淋巴结肿大治疗后，变化不著；双肺转移，大部分缩小，部分变化不著；肝多发转移，大部分密度减低，部分略缩小；多发骨转移，较前部分成骨性成分增多，余变化不著。2.胆囊炎；考虑左肾囊肿，变化不著；脾内低密度灶。3.腹膜、网膜、肠系膜略增厚，变化不著；少量腹水，略示减少。4.门脉左支充盈欠佳，变化不著。5.考虑双肺炎症，局部示好转；双侧胸膜略增厚并左侧胸膜钙化灶。右乳术后，术区壁未见增厚及异常强化。纵隔内右上气管、血管前间隙、隆突下、食管旁见小或增大淋巴结，大者短径约0.6CM。双锁骨上及左侧腋窝示小淋巴结，大者短径不足0.5CM。右侧腋窝未见增大淋巴结。双肺见多发小斑片影及类结节灶，部分与邻近胸膜分界不清。余双肺内示条片密度增高影，局部牵拉邻近胸膜。双侧胸膜略增厚，左侧胸膜见少许斑点状钙化灶。双侧胸腔未见积液征象。肝脏体积缩小，左叶为著，肝内见多发结节灶，融合成团，大小不易测量，增强后呈不均匀强化。门脉左支充盈欠佳。腹腔内贲门旁、肝胃韧带区、肝十二指肠韧带区、腹膜后腹主动脉旁见多发小或增大淋巴结，大者短径约0.8CM，部分与胰腺分界欠清。膈上后组见短径不足0.5CM小淋巴结。胆囊充盈可，壁增厚并见强化。左肾示囊性低密度灶，大者长径约0.7CM，部分边界欠清。脾内示小斑片状低密度区。双侧肾上腺及右肾未见异常。腹腔内示液性密度影。大网膜、腹膜、肠系膜略增厚。胸骨、右侧肱骨、锁骨、肋骨、胸腰椎示多发溶骨性、成骨性骨质破坏，局部周围示软组织影，部分肋骨骨质欠连续。	</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌,较前(2015-09-15)片增大;双肺转移,较前增大;肝转移,较前好转;纵隔淋巴结转移;右侧内乳区饱满,变化不著;脑多发转移,较前好转2.左肺胸膜局限性增厚,局部钙化,变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影,约7.6CM×6.2CM,边缘分叶,局部与周围腺体及乳头区皮肤分界不清,胸肌间脂肪间隙模糊,增强扫描见显著不均匀强化,其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结,大者短径约0.6CM。右侧内乳区显示饱满。纵隔内心包右旁、气管隆突下及左侧下肺静脉旁及下段食管旁见肿大淋巴结影,大者短径约2.1CM。双肺野散在分布大小不等结节灶,大者直径约4.1CM,边缘清晰,局部与胸膜及纵隔关系密切,增强扫描可见强化。左肺胸膜增厚,局部呈结节样;局部见多发钙化灶并致局部肋骨欠规则。肝实质内见多个低密度灶,大者直径约0.5CM,边缘尚清晰,增强扫描边缘强化显著。胆囊充盈可,壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内示多发结节灶,大者直径约0.4CM,增强扫描可见环形强化。脑室池无扩张。脑沟回无增宽。中线结构居中。	</t>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌，较前(2015-09-15)片增大；双肺转移，较前增大；肝转移，较前好转；纵隔淋巴结转移；右侧内乳区饱满，变化不著；脑多发转移，较前好转2.左肺胸膜局限性增厚，局部钙化，变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影，约7.6CM×6.2CM，边缘分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结，大者短径约0.6CM。右侧内乳区显示饱满。纵隔内心包右旁、气管隆突下及左侧下肺静脉旁及下段食管旁见肿大淋巴结影，大者短径约2.1CM。双肺野散在分布大小不等结节灶，大者直径约4.1CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左肺胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。肝实质内见多个低密度灶，大者直径约0.5CM，边缘尚清晰，增强扫描边缘强化显著。胆囊充盈可，壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内示多发结节灶，大者直径约0.4CM，增强扫描可见环形强化。脑室池无扩张。脑沟回无增宽。中线结构居中。	</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>左乳术后缺如,术区结构紊乱,周围脂肪间隙模糊,部分胸肌尚存,术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱。右乳未见明确异常。左肺门示短径约0.6CM淋巴结。右侧腋窝、双侧内乳区、右肺门及纵隔未见明确肿大淋巴结。左肺示少许斑片影。右肺未见明确异常密度灶。肝脏密度减低,内见囊性密度灶,边界较清,直径约2.0CM。另肝内示斑片状低密度灶,强化不著,边界欠清。胆囊、胰腺、脾、双侧肾上腺及左肾未见明确异常。右肾见短径不足0.5CM的小低密度灶。腹腔内肝胃韧带区、腹膜后腹主动脉周围见小淋巴结,大者短径约0.6CM。网膜及肠系膜、盆腹膜示增厚,局部呈斑片状及结节状改变,部分与邻近肠管分界不清,增强呈不均匀强化。腹腔内见液性密度影。卵巢术后,术区结构紊乱,周围间隙模糊,可见片状低密度影,与周围结构分界不清。宫颈体积增大,密度欠均匀。膀胱充盈可,壁略增厚。盆腔内未见明确肿大淋巴结。多发胸腰骶椎椎体及附件、双侧部分肋骨、骶骨、双侧髋骨示骨质密度增高,局部可见结节状高密度影。	1.结合临床,左乳癌术后;卵巢转移术后,术区片状低密度影,较前2016-6-13变化不著2.网膜、肠系膜及盆腹膜转移治疗后,腹水,较前进展3.脂肪肝;肝囊肿;肝内低密度灶,变化不著4.右肾囊肿5.宫颈体积增大,变化不著6.胸腰骶椎、肋骨、骶骨、髋骨骨质密度增高,考虑转移,较前变化不著。</t>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>左乳术后缺如，术区结构紊乱，周围脂肪间隙模糊，部分胸肌尚存，术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱。右乳未见明确异常。左肺门示短径约0.6CM淋巴结。右侧腋窝、双侧内乳区、右肺门及纵隔未见明确肿大淋巴结。左肺示少许斑片影。右肺未见明确异常密度灶。肝脏密度减低，内见囊性密度灶，边界较清，直径约2.0CM。另肝内示斑片状低密度灶，强化不著，边界欠清。胆囊、胰腺、脾、双侧肾上腺及左肾未见明确异常。右肾见短径不足0.5CM的小低密度灶。腹腔内肝胃韧带区、腹膜后腹主动脉周围见小淋巴结，大者短径约0.6CM。网膜及肠系膜、盆腹膜示增厚，局部呈斑片状及结节状改变，部分与邻近肠管分界不清，增强呈不均匀强化。腹腔内见液性密度影。卵巢术后，术区结构紊乱，周围间隙模糊，可见片状低密度影，与周围结构分界不清。宫颈体积增大，密度欠均匀。膀胱充盈可，壁略增厚。盆腔内未见明确肿大淋巴结。多发胸腰骶椎椎体及附件、双侧部分肋骨、骶骨、双侧髋骨示骨质密度增高，局部可见结节状高密度影。	1.结合临床，左乳癌术后；卵巢转移术后，术区片状低密度影，较前2016-6-13变化不著2.网膜、肠系膜及盆腹膜转移治疗后，腹水，较前进展3.脂肪肝；肝囊肿；肝内低密度灶，变化不著4.右肾囊肿5.宫颈体积增大，变化不著6.胸腰骶椎、肋骨、骶骨、髋骨骨质密度增高，考虑转移，较前变化不著。</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>右肺下叶外,后基底段见一高密度团块影,大小约5.01CM×4.97CM,CT值约38HU,呈分叶状改变,与邻近胸膜关系紧密。双肺散在多发小结节状稍高密度影。两肺门区未见异常。纵隔内见多发小淋巴结。右肺叶间裂增厚,右侧胸腔见弧形液体密度影。心脏大血管未见异常。第11胸椎椎体可见类圆形低密度影,骨质破坏。所示肝实质密度较同层脾脏密度减低,CT值约41HU。1.右肺下叶占位,考虑周围型肺癌伴双肺内转移,胸椎骨转移,随诊;2.右侧胸腔积液,右肺叶间裂包裹性积液;3.所示脂肪肝。</t>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>右肺下叶外，后基底段见一高密度团块影，大小约5.01CM×4.97CM，CT值约38HU，呈分叶状改变，与邻近胸膜关系紧密。双肺散在多发小结节状稍高密度影。两肺门区未见异常。纵隔内见多发小淋巴结。右肺叶间裂增厚，右侧胸腔见弧形液体密度影。心脏大血管未见异常。第11胸椎椎体可见类圆形低密度影，骨质破坏。所示肝实质密度较同层脾脏密度减低，CT值约41HU。1.右肺下叶占位，考虑周围型肺癌伴双肺内转移，胸椎骨转移，随诊；2.右侧胸腔积液，右肺叶间裂包裹性积液；3.所示脂肪肝。</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>1.左肺下叶磨玻璃密度影,对比2011.5.17片密度略变实,考虑周围型肺(腺)癌;2.左肺上叶炎性病变,较前相仿;3.左侧肾上腺低密度灶,不除外转移,详查。左肺下叶后基底段可见一磨玻璃密度影,边界不清,最大层面大小约1.6CM×2.0CM,与胸膜相连,其内密度不均,周围见索条;左肺上叶可见条索影。双肺纹理增粗、紊乱,两肺门区未见异常。所示气管支气管影正常。纵隔内可见稍大淋巴结影。两胸腔无积液征象。动脉内壁、冠状走形区可见多发线样高密度影。左侧肾上腺可见一结节样低密度影,大小为1.8CM×2.0CM,CT值为-9HU。</t>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>1.左肺下叶磨玻璃密度影，对比2011.5.17片密度略变实，考虑周围型肺(腺)癌；2.左肺上叶炎性病变，较前相仿；3.左侧肾上腺低密度灶，不除外转移，详查。左肺下叶后基底段可见一磨玻璃密度影，边界不清，最大层面大小约1.6CM×2.0CM，与胸膜相连，其内密度不均，周围见索条；左肺上叶可见条索影。双肺纹理增粗、紊乱，两肺门区未见异常。所示气管支气管影正常。纵隔内可见稍大淋巴结影。两胸腔无积液征象。动脉内壁、冠状走形区可见多发线样高密度影。左侧肾上腺可见一结节样低密度影，大小为1.8CM×2.0CM，CT值为-9HU。</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>右肺下叶支气管局部狭窄截断,周围示软组织密度肿块影,与周围不张实变的肺组织及右肺门肿大淋巴结分界不清,最大截面约3.7CM×2.9CM,增强后呈不均匀明显强化,病变周围支气管腔内见软组织密度影,延支气管分布。余右肺野略示小结节影,密度较淡,直径不足0.5CM。左肺野较清晰。右侧胸膜增厚。右侧胸腔及心包内示少量液体密度影。右侧乳腺术后缺如,术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区及锁骨上区未见明显肿大淋巴结。所扫肝右叶示颗粒状钙化密度影。左侧大脑内示多发结节、肿块影,大者截面约3.0CM×3.6CM,密度不均匀,周围示大片无强化的低密度水肿带,邻近侧脑室局部略示受压变形,增强后病灶呈环形明显强化。中线结构略尚居中。左侧上颌窦内示液体密度影。骨窗:胸骨柄右侧、胸骨下段局部骨质密度不均匀增高。	1.结合临床,右侧中心型肺癌并阻塞性肺不张治疗后,不张较前(2014-11-24)变化不著;右肺门淋巴结转移,变化不著;右胸膜转移;骨转移,变化不著;脑转移,较前大小变化不著2.右侧胸腔及心包积液,较前减少3.右肺结节,较前变化不著4.右侧乳腺术后改变5.肝内钙化灶6.左上颌窦炎症。</t>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>右肺下叶支气管局部狭窄截断，周围示软组织密度肿块影，与周围不张实变的肺组织及右肺门肿大淋巴结分界不清，最大截面约3.7CM×2.9CM，增强后呈不均匀明显强化，病变周围支气管腔内见软组织密度影，延支气管分布。余右肺野略示小结节影，密度较淡，直径不足0.5CM。左肺野较清晰。右侧胸膜增厚。右侧胸腔及心包内示少量液体密度影。右侧乳腺术后缺如，术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区及锁骨上区未见明显肿大淋巴结。所扫肝右叶示颗粒状钙化密度影。左侧大脑内示多发结节、肿块影，大者截面约3.0CM×3.6CM，密度不均匀，周围示大片无强化的低密度水肿带，邻近侧脑室局部略示受压变形，增强后病灶呈环形明显强化。中线结构略尚居中。左侧上颌窦内示液体密度影。骨窗：胸骨柄右侧、胸骨下段局部骨质密度不均匀增高。	1.结合临床，右侧中心型肺癌并阻塞性肺不张治疗后，不张较前(2014-11-24)变化不著；右肺门淋巴结转移，变化不著；右胸膜转移；骨转移，变化不著；脑转移，较前大小变化不著2.右侧胸腔及心包积液，较前减少3.右肺结节，较前变化不著4.右侧乳腺术后改变5.肝内钙化灶6.左上颌窦炎症。</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,左乳癌术后;左侧内乳区淋巴结转移;肝脏多发转移;多发骨转移,不除外累及椎管;双肺结节灶,考虑转移2.肝内胆管轻度扩张3.肝囊肿4.双肾小囊肿5.甲状腺低密度灶。左乳术后缺如,术区未见异常增厚及强化灶。左腋窝结构略示紊乱。右乳未见异常。左侧内乳区可见肿大淋巴结,短径约1.0CM,增强扫描可见较显著强化。右腋窝、纵隔及双肺门未见肿大淋巴结。双侧胸腔未见积液征象。双肺野均可见小结节灶,大者直径约0.4CM,边缘略示模糊。扫描野内甲状腺内可见低密度灶,边界清晰。肝内示多发低密度结节及肿块影,部分融合,大者截面约6.5CM×3.4CM,边缘模糊,增强扫描可见不均匀强化。肝内胆管轻度扩张。另于肝内见类圆形囊性密度灶,大者直径约6.0CM,边界清,无强化,局部突出于肝实质之外。胆囊充盈可,壁不厚。胰、脾及肾上腺未见异常。双肾可见小的囊性密度灶,大者直径约0.5CM,边界清。腹腔内肝胃韧带区及腹膜后腹主动脉旁可见小淋巴结,大者短径约0.5CM。另多发胸椎、双侧部分肋骨可见成骨性及溶骨性骨质破坏,局部形成软组织密度影,椎管显示不清。	</t>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，左乳癌术后；左侧内乳区淋巴结转移；肝脏多发转移；多发骨转移，不除外累及椎管；双肺结节灶，考虑转移2.肝内胆管轻度扩张3.肝囊肿4.双肾小囊肿5.甲状腺低密度灶。左乳术后缺如，术区未见异常增厚及强化灶。左腋窝结构略示紊乱。右乳未见异常。左侧内乳区可见肿大淋巴结，短径约1.0CM，增强扫描可见较显著强化。右腋窝、纵隔及双肺门未见肿大淋巴结。双侧胸腔未见积液征象。双肺野均可见小结节灶，大者直径约0.4CM，边缘略示模糊。扫描野内甲状腺内可见低密度灶，边界清晰。肝内示多发低密度结节及肿块影，部分融合，大者截面约6.5CM×3.4CM，边缘模糊，增强扫描可见不均匀强化。肝内胆管轻度扩张。另于肝内见类圆形囊性密度灶，大者直径约6.0CM，边界清，无强化，局部突出于肝实质之外。胆囊充盈可，壁不厚。胰、脾及肾上腺未见异常。双肾可见小的囊性密度灶，大者直径约0.5CM，边界清。腹腔内肝胃韧带区及腹膜后腹主动脉旁可见小淋巴结，大者短径约0.5CM。另多发胸椎、双侧部分肋骨可见成骨性及溶骨性骨质破坏，局部形成软组织密度影，椎管显示不清。	</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>1.右上中心型肺癌并阻塞性肺炎,纵隔淋巴结转移,较前(2016-09-02)相仿;2.右肺上叶结节,较前相仿,请随诊;3.左肺上叶舌段、右肺下叶炎症,较前片变小;4.双侧胸腔积液,较前片减少;5.双肺上叶肺气肿。右上肺门旁可见结节影,大小约3.8CM×2.3CM,平扫CT值约39HU,右肺上叶支气管受压、变窄,边缘可见细短毛刺;右肺上叶(44)可见不规则结节影,大小约1.4CM×0.9CM。双肺支气管血管束增强,左肺上叶舌段、右肺下叶斑片影。右肺门区饱满。所示气管支气管影通畅。双肺上叶见多发低密度囊腔。纵隔内可见增大的淋巴结,大者短径约1.9CM。两胸腔可见液性密度影。心脏大血管未见异常。</t>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>1.右上中心型肺癌并阻塞性肺炎，纵隔淋巴结转移，较前(2016-09-02)相仿；2.右肺上叶结节，较前相仿，请随诊；3.左肺上叶舌段、右肺下叶炎症，较前片变小；4.双侧胸腔积液，较前片减少；5.双肺上叶肺气肿。右上肺门旁可见结节影，大小约3.8CM×2.3CM，平扫CT值约39HU，右肺上叶支气管受压、变窄，边缘可见细短毛刺；右肺上叶(44)可见不规则结节影，大小约1.4CM×0.9CM。双肺支气管血管束增强，左肺上叶舌段、右肺下叶斑片影。右肺门区饱满。所示气管支气管影通畅。双肺上叶见多发低密度囊腔。纵隔内可见增大的淋巴结，大者短径约1.9CM。两胸腔可见液性密度影。心脏大血管未见异常。</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>右肺下叶基底段见软组织肿块影,边缘模糊,有分叶,肿块最大截面约1.9CM×3.5CM,增强后可见显著强化;邻近胸膜可见增厚。右肺内、右侧肋胸膜、叶间胸膜及斜裂胸膜示多发结节灶,大者直径约0.3CM,增强后可见强化。左侧肺野清晰,未见异常。左锁上、纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结,短径约0.8CM。肝实质内见多发囊性密度灶,大者直径约3.0CM。胆囊充盈可,壁不厚。胰脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见囊性密度灶,短径约2.0CM。肝总动脉旁示增大淋巴结,短径约0.5CM。	1.结合临床,右肺下叶癌并右侧胸膜转移较前(2014-5-19)好转2.右肺结节灶,考虑转移,较前好转3.左锁上、纵隔、腹腔淋巴结肿大,较前缩小4.肝囊肿5.右肾囊肿。</t>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>右肺下叶基底段见软组织肿块影，边缘模糊，有分叶，肿块最大截面约1.9CM×3.5CM，增强后可见显著强化；邻近胸膜可见增厚。右肺内、右侧肋胸膜、叶间胸膜及斜裂胸膜示多发结节灶，大者直径约0.3CM，增强后可见强化。左侧肺野清晰，未见异常。左锁上、纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结，短径约0.8CM。肝实质内见多发囊性密度灶，大者直径约3.0CM。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见囊性密度灶，短径约2.0CM。肝总动脉旁示增大淋巴结，短径约0.5CM。	1.结合临床，右肺下叶癌并右侧胸膜转移较前(2014-5-19)好转2.右肺结节灶，考虑转移，较前好转3.左锁上、纵隔、腹腔淋巴结肿大，较前缩小4.肝囊肿5.右肾囊肿。</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>右肺上叶纵隔旁见一团片状软组织密度影,大小约1.3CM×1.0CM(肺窗),边缘毛糙,与纵隔胸膜关系密切,增强后病变呈中等强化。另于双肺内见少许斑片状密度增高影。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。心包腔内示少量液性密度影。肝脏形态、大小可,密度均质,未见确切结节及肿块。肝内外胆管未见扩张。胆囊充盈欠佳,壁略厚伴强化。胰腺、脾及扫描野内右肾未见明显异常。双侧肾上腺增大,见软组织密度结节灶,大者直径约1.3CM,可见强化。左肾实质内见囊性密度影,长径约0.8CM,界清,无强化。腹腔及腹膜后未见确切增大淋巴结。	1.结合病史,右肺上叶癌治疗后,较2015-1-4片变化不著2.双侧肾上腺结节灶,考虑转移,较前变化不著3.双肺纤维灶,较前变化不著4.心包少量积液5.胆囊炎6.左肾囊肿。</t>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>右肺上叶纵隔旁见一团片状软组织密度影，大小约1.3CM×1.0CM(肺窗)，边缘毛糙，与纵隔胸膜关系密切，增强后病变呈中等强化。另于双肺内见少许斑片状密度增高影。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。心包腔内示少量液性密度影。肝脏形态、大小可，密度均质，未见确切结节及肿块。肝内外胆管未见扩张。胆囊充盈欠佳，壁略厚伴强化。胰腺、脾及扫描野内右肾未见明显异常。双侧肾上腺增大，见软组织密度结节灶，大者直径约1.3CM，可见强化。左肾实质内见囊性密度影，长径约0.8CM，界清，无强化。腹腔及腹膜后未见确切增大淋巴结。	1.结合病史，右肺上叶癌治疗后，较2015-1-4片变化不著2.双侧肾上腺结节灶，考虑转移，较前变化不著3.双肺纤维灶，较前变化不著4.心包少量积液5.胆囊炎6.左肾囊肿。</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>1.右肺上叶中心型肺癌并阻塞性肺炎、阻塞性肺不张;右侧大量胸腔积液,对比2012-08-31片明显进展;右侧第2肋骨转移;2.左肺下叶病灶为新发病灶,考虑转移瘤;3.慢性支气管炎、肺气肿征象;4.左肺尖陈旧性病变。两肺支气管血管束增多、变细;两肺透过度明显增加,肺野内弥漫囊状透光区;右肺门增大,右肺上叶支气管腔明显狭窄,壁明显增厚,呈团块状、范围约5.4CM×3.4CM,CT值约34HU,增强扫描可见病灶呈轻度不均匀强化,三期CT值分别为47HU、69HU、60HU,右侧胸腔内可见大量积液征象,右肺膨胀不全。左肺下叶内基底胸膜下可见小结节影,径约为0.5CM。左肺尖可见片状及结节影,其内可见钙化;纵隔内可见增大的淋巴结,增强扫描呈环影强化;心影增大。主动脉和冠脉钙化。</t>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>1.右肺上叶中心型肺癌并阻塞性肺炎、阻塞性肺不张；右侧大量胸腔积液，对比2012-08-31片明显进展；右侧第2肋骨转移；2.左肺下叶病灶为新发病灶，考虑转移瘤；3.慢性支气管炎、肺气肿征象；4.左肺尖陈旧性病变。两肺支气管血管束增多、变细；两肺透过度明显增加，肺野内弥漫囊状透光区；右肺门增大，右肺上叶支气管腔明显狭窄，壁明显增厚，呈团块状、范围约5.4CM×3.4CM，CT值约34HU，增强扫描可见病灶呈轻度不均匀强化，三期CT值分别为47HU、69HU、60HU，右侧胸腔内可见大量积液征象，右肺膨胀不全。左肺下叶内基底胸膜下可见小结节影，径约为0.5CM。左肺尖可见片状及结节影，其内可见钙化；纵隔内可见增大的淋巴结，增强扫描呈环影强化；心影增大。主动脉和冠脉钙化。</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>右肺下叶基底段见软组织肿块影,边缘模糊,有分叶,最大截面约4.0CM×3.0CM(纵隔窗),增强后可见显著强化;邻近叶间胸膜可见增厚。右肺野内见多个结节灶,大者直径约0.5CM,部分与胸膜关系密切,增强后可见强化。左肺上叶胸膜下见直径约0.2CM小结节灶。左肺见多发索条状及斑片状密度增高影。右侧胸腔见液性密度影。左锁上、纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结,短径约0.9CM。肝实质内见多发囊性密度灶,大者直径约3.0CM。另肝内(2-52)动脉期见一强化结节灶,长径约0.8CM,延迟呈等密度。胆囊充盈可,壁不厚。胰、脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见囊性密度灶,短径约2.0CM。腹主动脉周围示淋巴结,大者短径约0.5CM。	1.结合临床,右肺下叶癌并右侧胸膜转移较前(2014-10-20)进展;右侧胸腔积液;右肺转移,较前进展2.左肺上叶类结节灶,变化不著,建议观察;左肺炎症3.左锁上、纵隔、腹膜后小或稍大淋巴结,较前变化不著4.肝囊肿5.右肾囊肿6.肝内强化灶,考虑血管瘤。</t>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>右肺下叶基底段见软组织肿块影，边缘模糊，有分叶，最大截面约4.0CM×3.0CM(纵隔窗)，增强后可见显著强化；邻近叶间胸膜可见增厚。右肺野内见多个结节灶，大者直径约0.5CM，部分与胸膜关系密切，增强后可见强化。左肺上叶胸膜下见直径约0.2CM小结节灶。左肺见多发索条状及斑片状密度增高影。右侧胸腔见液性密度影。左锁上、纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结，短径约0.9CM。肝实质内见多发囊性密度灶，大者直径约3.0CM。另肝内(2-52)动脉期见一强化结节灶，长径约0.8CM，延迟呈等密度。胆囊充盈可，壁不厚。胰、脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见囊性密度灶，短径约2.0CM。腹主动脉周围示淋巴结，大者短径约0.5CM。	1.结合临床，右肺下叶癌并右侧胸膜转移较前(2014-10-20)进展；右侧胸腔积液；右肺转移，较前进展2.左肺上叶类结节灶，变化不著，建议观察；左肺炎症3.左锁上、纵隔、腹膜后小或稍大淋巴结，较前变化不著4.肝囊肿5.右肾囊肿6.肝内强化灶，考虑血管瘤。</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后改变,双肺转移,较前(2014-8-14)变化不著;肝转移较前进展;多发骨转移较前变化不著2.右侧腋窝囊性密度灶较前吸收。右乳术后缺如,部分胸肌尚存,术区未见异常强化灶。右侧腋窝结构紊乱,局部示一囊性密度灶,直径约2.4CM,可见环形强化。左乳及左侧腋窝未见异常。双肺野示多发结节灶,边缘较清,大者直径约0.3CM。右肺上叶及左肺下叶可见条索状密度增高影。双肺门及纵隔未见增大淋巴结。肝实质内示数个低密度灶,边缘较模糊,可见轻度强化,大者直径约2.5CM。胆囊充盈可,壁不厚。胰、脾、双肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。膀胱充盈可,壁不厚。子宫及双侧附件未见异常。盆腔内未见肿大淋巴结。部分胸腰椎及附件、部分肋骨、骶椎、右侧髂骨、双侧坐骨可见成骨性骨质破坏。	</t>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后改变，双肺转移，较前(2014-8-14)变化不著；肝转移较前进展；多发骨转移较前变化不著2.右侧腋窝囊性密度灶较前吸收。右乳术后缺如，部分胸肌尚存，术区未见异常强化灶。右侧腋窝结构紊乱，局部示一囊性密度灶，直径约2.4CM，可见环形强化。左乳及左侧腋窝未见异常。双肺野示多发结节灶，边缘较清，大者直径约0.3CM。右肺上叶及左肺下叶可见条索状密度增高影。双肺门及纵隔未见增大淋巴结。肝实质内示数个低密度灶，边缘较模糊，可见轻度强化，大者直径约2.5CM。胆囊充盈可，壁不厚。胰、脾、双肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。膀胱充盈可，壁不厚。子宫及双侧附件未见异常。盆腔内未见肿大淋巴结。部分胸腰椎及附件、部分肋骨、骶椎、右侧髂骨、双侧坐骨可见成骨性骨质破坏。	</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>静脉注射示踪剂FDG后60MMIN行PET/CT显像。PET/CT图像示右肺上叶尖段不规则软组织密度影,边缘分叶、毛刺,邻近胸膜示牵拉,截面约为2.7CM×2.5CM,放射性浓聚,最高SUV9.0。纵隔气管前腔静脉后(2R、4R)、血管前间隙(3A)、右肺门(10R)淋巴结肿大,大者短径约为1.3CM,放射性浓聚,最高SUV10.9;右锁上、右侧下肺静脉上方(9L)小淋巴结,大者短径约为0.5CM,轻度放射性摄取,最高SUV3.5。右前胸膜结节,轻度放射性摄取增高,短径约为0.7CM,最高SUV3.0。右乳腺术后,术区未见复发征象及异常放射性摄取。左乳腺及双腋窝未见异常放射性摄取。脑内未见确切异常密度灶,中线无移位。脑室无扩大。小脑显影如常,两侧小脑对称。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。左侧上颌窦粘膜增厚。腹部胃充盈好,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。腹壁软组织未见明显异常影像。盆腔内膀胱放射性浓聚如常,膀胱壁无增厚。两侧腹股沟无异常淋巴结显示。子宫形态尚可,子宫腔内液性密度影,放射性浓聚,最高SUV7.6,考虑为月经期子宫内膜增厚所致。两侧附件区未见异常放射性摄取。视野内轴心骨未见异常放射性浓聚。上、下肢关节带大致正常。视野内皮肤及软组织内未见异常放射性摄取。	1.右乳癌术后。2.右肺上叶原发性肺癌并纵隔、右肺门淋巴结转移;右锁上、纵隔9L区淋巴结,右前胸膜结节略高代谢,均考虑转移。3.左侧上颌窦炎症。</t>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>静脉注射示踪剂FDG后60MMIN行PET/CT显像。PET/CT图像示右肺上叶尖段不规则软组织密度影，边缘分叶、毛刺，邻近胸膜示牵拉，截面约为2.7CM×2.5CM，放射性浓聚，最高SUV9.0。纵隔气管前腔静脉后(2R、4R)、血管前间隙(3A)、右肺门(10R)淋巴结肿大，大者短径约为1.3CM，放射性浓聚，最高SUV10.9；右锁上、右侧下肺静脉上方(9L)小淋巴结，大者短径约为0.5CM，轻度放射性摄取，最高SUV3.5。右前胸膜结节，轻度放射性摄取增高，短径约为0.7CM，最高SUV3.0。右乳腺术后，术区未见复发征象及异常放射性摄取。左乳腺及双腋窝未见异常放射性摄取。脑内未见确切异常密度灶，中线无移位。脑室无扩大。小脑显影如常，两侧小脑对称。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。左侧上颌窦粘膜增厚。腹部胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。腹壁软组织未见明显异常影像。盆腔内膀胱放射性浓聚如常，膀胱壁无增厚。两侧腹股沟无异常淋巴结显示。子宫形态尚可，子宫腔内液性密度影，放射性浓聚，最高SUV7.6，考虑为月经期子宫内膜增厚所致。两侧附件区未见异常放射性摄取。视野内轴心骨未见异常放射性浓聚。上、下肢关节带大致正常。视野内皮肤及软组织内未见异常放射性摄取。	1.右乳癌术后。2.右肺上叶原发性肺癌并纵隔、右肺门淋巴结转移；右锁上、纵隔9L区淋巴结，右前胸膜结节略高代谢，均考虑转移。3.左侧上颌窦炎症。</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.右乳癌术后改变;多发骨转移,较前2016-5-24部分密度增高,大部分变化不著2.左肺钙化灶3.右肾囊肿4.腹腔内淋巴结肿大,较前略饱满。右乳术后缺如,术区皮肤略增厚,可见强化。右侧腋窝斑片状密度增高影,内见少许液性密度影,考虑为淋巴结清扫术后改变。左乳及左侧腋窝未见异常。左肺下叶见散小结节灶,直径约0.3CM。双肺门及纵隔内未见肿大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶,边界清晰,未见强化。腹腔内肝胃韧带区见稍大淋巴结,短径约0.8CM。腹膜后未见增大淋巴结。骨窗示:扫描野内多发胸腰椎体、胸骨、左侧锁骨、右侧肩胛骨、部分肋骨呈成骨性及溶骨性骨质破坏,局部呈膨胀性改变。	</t>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.右乳癌术后改变；多发骨转移，较前2016-5-24部分密度增高，大部分变化不著2.左肺钙化灶3.右肾囊肿4.腹腔内淋巴结肿大，较前略饱满。右乳术后缺如，术区皮肤略增厚，可见强化。右侧腋窝斑片状密度增高影，内见少许液性密度影，考虑为淋巴结清扫术后改变。左乳及左侧腋窝未见异常。左肺下叶见散小结节灶，直径约0.3CM。双肺门及纵隔内未见肿大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶，边界清晰，未见强化。腹腔内肝胃韧带区见稍大淋巴结，短径约0.8CM。腹膜后未见增大淋巴结。骨窗示：扫描野内多发胸腰椎体、胸骨、左侧锁骨、右侧肩胛骨、部分肋骨呈成骨性及溶骨性骨质破坏，局部呈膨胀性改变。	</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>左肺上叶纵隔旁示一不规则软组织密度结节灶,与纵隔内主肺动脉窗区肿大淋巴结分界不清,与左肺上叶支气管及左肺动脉关系密切。左肺野内见斑片索条状密度增高影,左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧胸腔内可见少许液性密度影及引流管影。左侧心包及左侧心膈角区可见多发结节影,大者长径约1.0CM。肝脏大小形态未见异常,肝实质内可见一小低密度灶,边界清。胆囊、胰腺、脾、双肾、肾上腺未见异常,腹腔腹膜后未见肿大淋巴结影。脑实质内未见异常密度影,脑沟、脑池未见增宽或狭窄,脑室大小、形态,位置正常,中线结构居中。增强:脑实质未见异常强化,脑沟、脑池、脑室内未见异常。	1.结合临床,左肺癌治疗后,较前(2016-3-30)片变化不著,左侧胸膜转移及叶裂转移较前变化不著2.左肺慢性炎症及纤维灶3.左侧少量胸腔积液较前变化不著4.左侧心包及心膈角区结节影,较前变化不著5.颅脑扫描未见异常6.肝囊肿。</t>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>左肺上叶纵隔旁示一不规则软组织密度结节灶，与纵隔内主肺动脉窗区肿大淋巴结分界不清，与左肺上叶支气管及左肺动脉关系密切。左肺野内见斑片索条状密度增高影，左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧胸腔内可见少许液性密度影及引流管影。左侧心包及左侧心膈角区可见多发结节影，大者长径约1.0CM。肝脏大小形态未见异常，肝实质内可见一小低密度灶，边界清。胆囊、胰腺、脾、双肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。脑实质内未见异常密度影，脑沟、脑池未见增宽或狭窄，脑室大小、形态，位置正常，中线结构居中。增强：脑实质未见异常强化，脑沟、脑池、脑室内未见异常。	1.结合临床，左肺癌治疗后，较前(2016-3-30)片变化不著，左侧胸膜转移及叶裂转移较前变化不著2.左肺慢性炎症及纤维灶3.左侧少量胸腔积液较前变化不著4.左侧心包及心膈角区结节影，较前变化不著5.颅脑扫描未见异常6.肝囊肿。</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>左乳偏外侧象限见多发结节灶,部分边缘模糊、毛糙,大者职敬业1.7CM;增强扫描呈较显著不均匀强化。左侧腋窝见软组织密度影,边缘较毛糙,截面积约1.6CM×1.2CM;增强扫描呈较显著不均匀强化。左锁上间隙较模糊,可见片状低密度影,未见明确异常占位。纵隔内见小淋巴结影,大者短径约0.5CM。双肺野内见多发结节灶,部分边缘模糊,形态欠规则,大者直径约0.7CM。肝脏大小、形态可,实质密度均质。胆囊充盈欠佳,壁增厚并强化。左肾见小囊性密度灶。胰腺、脾、双侧肾上腺及右肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。膀胱壁不厚。子宫及双附件未见明确异常。盆腔内未见明确肿大淋巴结。右侧多发肋骨、左侧髂骨、左侧耻骨及坐骨示溶骨性骨质破坏。	1.结合临床,考虑左乳癌;左侧腋窝软组织影,考虑转移;骨转移;考虑双肺转移2.左侧锁骨上间隙模糊,建议结合临床3.胆囊炎4.左肾囊肿。</t>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>左乳偏外侧象限见多发结节灶，部分边缘模糊、毛糙，大者职敬业1.7CM；增强扫描呈较显著不均匀强化。左侧腋窝见软组织密度影，边缘较毛糙，截面积约1.6CM×1.2CM；增强扫描呈较显著不均匀强化。左锁上间隙较模糊，可见片状低密度影，未见明确异常占位。纵隔内见小淋巴结影，大者短径约0.5CM。双肺野内见多发结节灶，部分边缘模糊，形态欠规则，大者直径约0.7CM。肝脏大小、形态可，实质密度均质。胆囊充盈欠佳，壁增厚并强化。左肾见小囊性密度灶。胰腺、脾、双侧肾上腺及右肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。膀胱壁不厚。子宫及双附件未见明确异常。盆腔内未见明确肿大淋巴结。右侧多发肋骨、左侧髂骨、左侧耻骨及坐骨示溶骨性骨质破坏。	1.结合临床，考虑左乳癌；左侧腋窝软组织影，考虑转移；骨转移；考虑双肺转移2.左侧锁骨上间隙模糊，建议结合临床3.胆囊炎4.左肾囊肿。</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>右颞叶、右侧小脑半球、右侧桥小脑结合臂见数个结节样异常信号,表现为T1WI等低信号、T2WI略高信号,压水序列高信号,增强扫描可见强化,大者直径约8MM,病变周围脑实质未见明显水肿带。脑室系统无扩张。中线结构居中。腰骶椎多个椎体及附件见多发结节样异常信号,表现为T1WI低信号,T2WI低信号,压脂序列高信号,增强扫描可见强化。多个椎体边缘见棘样骨质信号突起。椎体相对缘见斑片状异常信号,表现为T1WI高信号,T2WI高信号,压脂序列等信号,增强扫描无强化。所扫脊髓及椎管内未见异常信号。	结合乳腺癌术后病史,考虑脑多发转移瘤;腰骶椎多发转移瘤腰椎退行性变。</t>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>右颞叶、右侧小脑半球、右侧桥小脑结合臂见数个结节样异常信号，表现为T1WI等低信号、T2WI略高信号，压水序列高信号，增强扫描可见强化，大者直径约8MM，病变周围脑实质未见明显水肿带。脑室系统无扩张。中线结构居中。腰骶椎多个椎体及附件见多发结节样异常信号，表现为T1WI低信号，T2WI低信号，压脂序列高信号，增强扫描可见强化。多个椎体边缘见棘样骨质信号突起。椎体相对缘见斑片状异常信号，表现为T1WI高信号，T2WI高信号，压脂序列等信号，增强扫描无强化。所扫脊髓及椎管内未见异常信号。	结合乳腺癌术后病史，考虑脑多发转移瘤；腰骶椎多发转移瘤腰椎退行性变。</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,直肠癌术后;考虑双肺转移,请结合前片。2.右侧精囊腺饱满、密度较低,请结合其他检查。3.考虑肝囊肿、双肾囊肿,右肾部分病变密度较高,请结合其他检查或观察。4.双侧胸膜略增厚。直肠术后,局部见金属吻合钉影,吻合口未见显著增厚及异常强化。膀胱充盈好,壁无增厚。右侧精囊腺略饱满,密度较低。左侧精囊腺及前列腺未见明显异常。左侧髂外血管旁示短径不足0.5CM淋巴结。双肺近胸膜下示多个结节灶,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约2.6CM,内示斑点状致密影及小空泡影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。肝脏实质内见斑片状低密度灶,边缘清晰,强化不著。肝内外胆管未见扩张。胆囊充盈可,壁增厚。双肾囊性密度灶,右侧部分密度略高。胰腺、脾及肾上腺形态、大小、密度未见异常。肠系膜区及腹膜后示短径不足0.5CM小淋巴结。	</t>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，直肠癌术后；考虑双肺转移，请结合前片。2.右侧精囊腺饱满、密度较低，请结合其他检查。3.考虑肝囊肿、双肾囊肿，右肾部分病变密度较高，请结合其他检查或观察。4.双侧胸膜略增厚。直肠术后，局部见金属吻合钉影，吻合口未见显著增厚及异常强化。膀胱充盈好，壁无增厚。右侧精囊腺略饱满，密度较低。左侧精囊腺及前列腺未见明显异常。左侧髂外血管旁示短径不足0.5CM淋巴结。双肺近胸膜下示多个结节灶，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约2.6CM，内示斑点状致密影及小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。肝脏实质内见斑片状低密度灶，边缘清晰，强化不著。肝内外胆管未见扩张。胆囊充盈可，壁增厚。双肾囊性密度灶，右侧部分密度略高。胰腺、脾及肾上腺形态、大小、密度未见异常。肠系膜区及腹膜后示短径不足0.5CM小淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见小淋巴结,大者直径约0.5CM。左肺野示数个结节灶,大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺饱满。胆、胰、脾及扫描野内右肾未见异常。左肾示直径约3.0CM的囊性密度灶。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示成骨性及混合性骨质破坏。1.结合临床,右乳癌术后,纵隔、双肺门淋巴结较前(2016-04-22)片变化不著,左肺转移,变化不著;左肾上腺转移,较前变化不著;骨转移,较前变化不著2.双肺炎症,基本变化不著3.心包少量积液,变化不著4.肝囊肿;左肾囊肿</t>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见小淋巴结，大者直径约0.5CM。左肺野示数个结节灶，大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺饱满。胆、胰、脾及扫描野内右肾未见异常。左肾示直径约3.0CM的囊性密度灶。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示成骨性及混合性骨质破坏。1.结合临床，右乳癌术后，纵隔、双肺门淋巴结较前(2016-04-22)片变化不著，左肺转移，变化不著；左肾上腺转移，较前变化不著；骨转移，较前变化不著2.双肺炎症，基本变化不著3.心包少量积液，变化不著4.肝囊肿；左肾囊肿</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>右肺下叶后底段可见团块影,边界清晰,可见血管注入,最大层面3.47CM×2.57CM,CT值约48HU,增强后边缘略有强化,CT值57HU。气管隆突下见一增大淋巴结影,最大层面3.74CM×2.67CM,CT值在23-48HU之间,增强后环形强化,环形组织三期CT值分别是58HU、81HU、67HU。食管下段旁小淋巴结,环形强化。右肺上叶后段条带状阴影,最大层面1.68CM×0.73CM,CT值约10HU,增强22HU、33HU、41HU。两肺门区未见异常。所示气管支气管影正常。两胸腔无积液征象。心脏大血管未见异常。1.右肺下叶后底段占位,考虑恶性病变可能,气管隆突下增大淋巴结,转移性可能,请结合临床详查除外其他可能;2.右肺上叶后段条带状阴影,请结合临床详查。3.左上肺小絮状影,左下肺胸膜下小结节灶,请随诊。</t>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>右肺下叶后底段可见团块影，边界清晰，可见血管注入，最大层面3.47CM×2.57CM，CT值约48HU，增强后边缘略有强化，CT值57HU。气管隆突下见一增大淋巴结影，最大层面3.74CM×2.67CM，CT值在23-48HU之间，增强后环形强化，环形组织三期CT值分别是58HU、81HU、67HU。食管下段旁小淋巴结，环形强化。右肺上叶后段条带状阴影，最大层面1.68CM×0.73CM，CT值约10HU，增强22HU、33HU、41HU。两肺门区未见异常。所示气管支气管影正常。两胸腔无积液征象。心脏大血管未见异常。1.右肺下叶后底段占位，考虑恶性病变可能，气管隆突下增大淋巴结，转移性可能，请结合临床详查除外其他可能；2.右肺上叶后段条带状阴影，请结合临床详查。3.左上肺小絮状影，左下肺胸膜下小结节灶，请随诊。</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,直肠癌术后,双肺转移瘤,较前2015-12-15部分增大,部分变化不著,部分考虑新发病灶2.双肾低密度灶,变化不著3.双侧胸膜略增厚,变化不著4.甲状腺低密度灶,变化不著5.双肾囊肿。双肺近胸膜下示多个结节灶及肿块,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约3.4CM(纵隔窗),内示小空泡影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶,边缘较清晰。肝脏实质密度均质。胆囊充盈可,壁不厚。胰、脾及双侧肾上腺未见异常。双肾见斑片状低密度灶,边界欠清。双肾内可见散在小囊性密度灶,边界清晰,未见强化。腹腔及腹膜后未见明显肿大淋巴结。直肠保肛术后,术区可见金属吻合钉影,周围肠壁未见明显增厚及异常强化。膀胱充盈可,壁不厚。前列腺及精囊腺未见异常。盆腔内未见积液及肿大淋巴结。	</t>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，直肠癌术后，双肺转移瘤，较前2015-12-15部分增大，部分变化不著，部分考虑新发病灶2.双肾低密度灶，变化不著3.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著5.双肾囊肿。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.4CM(纵隔窗)，内示小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。肝脏实质密度均质。胆囊充盈可，壁不厚。胰、脾及双侧肾上腺未见异常。双肾见斑片状低密度灶，边界欠清。双肾内可见散在小囊性密度灶，边界清晰，未见强化。腹腔及腹膜后未见明显肿大淋巴结。直肠保肛术后，术区可见金属吻合钉影，周围肠壁未见明显增厚及异常强化。膀胱充盈可，壁不厚。前列腺及精囊腺未见异常。盆腔内未见积液及肿大淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>左肺上叶近纵隔旁见软组织肿块影,边缘有毛刺,截面约1.5CM×1.2CM,增强后可见强化。双肺下叶示类结节灶。右肺下叶见少许条索影,余肺野清晰,未见异常。前列腺形态大小正常,边缘光整,与周围组织间隙清晰,实质内密度均匀。精囊腺形态大小密度正常。膀胱充盈好,壁不厚。盆腔内未见肿大淋巴结。左侧臀部肌群内见软组织肿块,邻近左侧髂骨骨质破坏,肿块最大截面约4.0CM×5.3CM。L4椎体可见局限性骨质密度减低。	1.结合临床,左肺癌,较前(2017-2-2)饱满2.左侧臀部肌肉转移累伴左髂骨骨质破坏,治疗后较前进展;L4椎体低密度灶,较前变化不著。</t>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>左肺上叶近纵隔旁见软组织肿块影，边缘有毛刺，截面约1.5CM×1.2CM，增强后可见强化。双肺下叶示类结节灶。右肺下叶见少许条索影，余肺野清晰，未见异常。前列腺形态大小正常，边缘光整，与周围组织间隙清晰，实质内密度均匀。精囊腺形态大小密度正常。膀胱充盈好，壁不厚。盆腔内未见肿大淋巴结。左侧臀部肌群内见软组织肿块，邻近左侧髂骨骨质破坏，肿块最大截面约4.0CM×5.3CM。L4椎体可见局限性骨质密度减低。	1.结合临床，左肺癌，较前(2017-2-2)饱满2.左侧臀部肌肉转移累伴左髂骨骨质破坏，治疗后较前进展；L4椎体低密度灶，较前变化不著。</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>右乳术后缺如,术区皮肤略增厚,可见强化。右侧腋窝可见囊性密度灶,未见强化,考虑为淋巴结清扫术后改变。左乳及左侧腋窝未见异常。右侧内乳区略饱满。右肺上叶及左肺下叶可见散在类结节灶,边界较清,大者直径约0.3CM;余双肺野清晰,肺纹理走形自然,气管及各级支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶,边界清晰,未见强化。腹腔内肝胃韧带区见多发增大淋巴结,大者短径约0.8CM。腹膜后未见增大淋巴结。脑实质密度均质,未见明确异常密度灶。脑室、池未见扩张,中线结构居中。右侧上颌窦内可见少量液性密度影。骨窗示:扫描野内多发胸腰椎体、左侧锁骨、右侧肩胛骨、部分肋骨呈成骨性及溶骨性骨质破坏,局部呈膨胀性改变。	1.右乳癌术后改变;多发骨转移,较前2016-1-19变化不著2.双肺类结节灶,纤维灶可能,较前变化不著3.右肾囊肿4.腹腔内淋巴结肿大,变化不著5.右侧上颌窦炎症6.颅脑扫描未见明确异常。</t>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>右乳术后缺如，术区皮肤略增厚，可见强化。右侧腋窝可见囊性密度灶，未见强化，考虑为淋巴结清扫术后改变。左乳及左侧腋窝未见异常。右侧内乳区略饱满。右肺上叶及左肺下叶可见散在类结节灶，边界较清，大者直径约0.3CM；余双肺野清晰，肺纹理走形自然，气管及各级支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶，边界清晰，未见强化。腹腔内肝胃韧带区见多发增大淋巴结，大者短径约0.8CM。腹膜后未见增大淋巴结。脑实质密度均质，未见明确异常密度灶。脑室、池未见扩张，中线结构居中。右侧上颌窦内可见少量液性密度影。骨窗示：扫描野内多发胸腰椎体、左侧锁骨、右侧肩胛骨、部分肋骨呈成骨性及溶骨性骨质破坏，局部呈膨胀性改变。	1.右乳癌术后改变；多发骨转移，较前2016-1-19变化不著2.双肺类结节灶，纤维灶可能，较前变化不著3.右肾囊肿4.腹腔内淋巴结肿大，变化不著5.右侧上颌窦炎症6.颅脑扫描未见明确异常。</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>左肺上叶可见一不规则软组织密度灶,大小约1.6CM×2.0CM,边缘毛糙,可见毛刺及胸膜凹陷征,增强扫描病变呈较显著、均匀强化。左下肺门区及内前基底段区见团片状、条片状软组织密度影,边缘毛糙,增强扫描可见强化;左肺下叶部分支气管略变窄。右肺上叶(4-26)、下叶(4-39)及左肺下叶(4-28)见类结节灶,边缘模糊。双肺内示索条状密度增高影。双肺上叶小叶间隔增厚,以左侧为著。双侧胸膜(含叶间胸膜)略厚。气管及左主支气管腔内示斑片、斑点状略高密度影。左侧胸腔内示带状液体密度影。右侧锁骨上区、纵隔内2R、3A、4R/L、7区、8区及左肺门可见多发肿大淋巴结,部分融合,大者短径约1.4CM,增强扫描可见强化。左锁上及右侧内乳区示短径不足0.5CM的小淋巴结。左侧膈肌升高,扫描野内肝内及左肾见小囊状无明显强化低密度灶,直径不足0.5CM,边界清。胆囊壁增厚。胸骨、多发椎骨、多发肋骨、双侧肱骨可见成骨性骨质破坏。右侧肩胛骨局部骨质密度增高。脑质内未见异常强化灶,脑沟、脑池未见增宽,脑室大小、形态及位置未见异常,中线结构无移位。右侧眼眶内侧壁局限性向筛窦侧塌陷,同侧内直肌略增粗。	1.结合临床,左肺癌化疗后,较前(2014-10-13)好转;右侧锁骨上、左肺门及纵隔淋巴结肿大,较前好转;多发骨转移,变化不著;考虑左肺癌性淋巴管炎2.左肺炎症,较前好转3.双肺类结节灶,建议观察4.双侧胸膜(含叶间胸膜)增厚5.左侧胸腔积液,较前增多6.肝囊肿,左肾囊肿7.胆囊炎8.气管及左主支气管内略高密度,考虑分泌物,请结合临床9.颅脑CT扫描未见异常改变10.右侧眼眶内侧壁局限性塌陷,请结合临床。</t>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>左肺上叶可见一不规则软组织密度灶，大小约1.6CM×2.0CM，边缘毛糙，可见毛刺及胸膜凹陷征，增强扫描病变呈较显著、均匀强化。左下肺门区及内前基底段区见团片状、条片状软组织密度影，边缘毛糙，增强扫描可见强化；左肺下叶部分支气管略变窄。右肺上叶(4-26)、下叶(4-39)及左肺下叶(4-28)见类结节灶，边缘模糊。双肺内示索条状密度增高影。双肺上叶小叶间隔增厚，以左侧为著。双侧胸膜(含叶间胸膜)略厚。气管及左主支气管腔内示斑片、斑点状略高密度影。左侧胸腔内示带状液体密度影。右侧锁骨上区、纵隔内2R、3A、4R/L、7区、8区及左肺门可见多发肿大淋巴结，部分融合，大者短径约1.4CM，增强扫描可见强化。左锁上及右侧内乳区示短径不足0.5CM的小淋巴结。左侧膈肌升高，扫描野内肝内及左肾见小囊状无明显强化低密度灶，直径不足0.5CM，边界清。胆囊壁增厚。胸骨、多发椎骨、多发肋骨、双侧肱骨可见成骨性骨质破坏。右侧肩胛骨局部骨质密度增高。脑质内未见异常强化灶，脑沟、脑池未见增宽，脑室大小、形态及位置未见异常，中线结构无移位。右侧眼眶内侧壁局限性向筛窦侧塌陷，同侧内直肌略增粗。	1.结合临床，左肺癌化疗后，较前(2014-10-13)好转；右侧锁骨上、左肺门及纵隔淋巴结肿大，较前好转；多发骨转移，变化不著；考虑左肺癌性淋巴管炎2.左肺炎症，较前好转3.双肺类结节灶，建议观察4.双侧胸膜(含叶间胸膜)增厚5.左侧胸腔积液，较前增多6.肝囊肿，左肾囊肿7.胆囊炎8.气管及左主支气管内略高密度，考虑分泌物，请结合临床9.颅脑CT扫描未见异常改变10.右侧眼眶内侧壁局限性塌陷，请结合临床。</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>左肺门周围可见不规则软组织密度肿块影,约3.2CM×4.6CM,增强扫描呈明显不均匀强化,与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。右肺上叶近胸膜下示类磨玻璃密度灶。双侧胸膜及叶间胸膜上可见多发类结节灶,大者长径约0.6CM。纵隔内2R、4R、4L、5、6、7、8区示多发融合的淋巴结影,大者短径约2.0CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常,肝实质内可见数个囊性低密度灶,边界清,增强扫描无强化。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常,右肾上腺示一类结节灶,长径约3.6CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨密度略增高。	1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张、肺炎治疗后,较前(2016-10-27)变化不著;双侧胸膜多发结节灶,考虑转移,部分略缩小,部分变化不著;纵隔淋巴结转移,较前略增大;右肾上腺转移,变化不著2.肝囊肿;双肾囊肿;左肾低密度灶,胰腺低密度灶,变化不著,建议观察3.心包、左胸腔少量积液,略减少4.右肺类磨玻璃密度灶,建议观察5.部分椎骨密度略增高,较前密度增高,建议观察。</t>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>左肺门周围可见不规则软组织密度肿块影，约3.2CM×4.6CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。右肺上叶近胸膜下示类磨玻璃密度灶。双侧胸膜及叶间胸膜上可见多发类结节灶，大者长径约0.6CM。纵隔内2R、4R、4L、5、6、7、8区示多发融合的淋巴结影，大者短径约2.0CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常，肝实质内可见数个囊性低密度灶，边界清，增强扫描无强化。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常，右肾上腺示一类结节灶，长径约3.6CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨密度略增高。	1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张、肺炎治疗后，较前(2016-10-27)变化不著；双侧胸膜多发结节灶，考虑转移，部分略缩小，部分变化不著；纵隔淋巴结转移，较前略增大；右肾上腺转移，变化不著2.肝囊肿；双肾囊肿；左肾低密度灶，胰腺低密度灶，变化不著，建议观察3.心包、左胸腔少量积液，略减少4.右肺类磨玻璃密度灶，建议观察5.部分椎骨密度略增高，较前密度增高，建议观察。</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后改变,较前(2016-3-25)变化不著;肝转移,好转;考虑骨转移,较前密度增高2.右肺局限性纤维灶3.右肺小结节灶,考虑转移,部分显示欠清,部分变化不著4.考虑肝囊肿5.胆囊炎6.胰头部密度略减低,变化不著。右乳术后,术区结构紊乱,周围间隙模糊,皮下可见少许片絮状密度增高影,胸壁未见明显增厚。右侧腋窝结构紊乱,未见异常强化。左乳形态、密度未见异常,右侧腋窝见小淋巴结,短径不足0.5CM。左腋窝、双侧颈后三角区及左侧锁骨上示短径不足1.0CM淋巴结。双侧内乳区、肺门及纵隔未见增大淋巴结。右肺野内见数个小结节灶,大者长径约0.3CM(肺窗)。另右肺近前胸壁下示条片影。甲状腺右叶密度减低。肝内示低密度灶,边缘模糊,大者短径约1.0CM。另肝内示类囊性密度灶。胆囊壁增厚。胰头部密度略减低。腹腔、腹膜后未见肿大淋巴结。部分椎骨密度不均,以T10为著。	</t>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后改变，较前(2016-3-25)变化不著；肝转移，好转；考虑骨转移，较前密度增高2.右肺局限性纤维灶3.右肺小结节灶，考虑转移，部分显示欠清，部分变化不著4.考虑肝囊肿5.胆囊炎6.胰头部密度略减低，变化不著。右乳术后，术区结构紊乱，周围间隙模糊，皮下可见少许片絮状密度增高影，胸壁未见明显增厚。右侧腋窝结构紊乱，未见异常强化。左乳形态、密度未见异常，右侧腋窝见小淋巴结，短径不足0.5CM。左腋窝、双侧颈后三角区及左侧锁骨上示短径不足1.0CM淋巴结。双侧内乳区、肺门及纵隔未见增大淋巴结。右肺野内见数个小结节灶，大者长径约0.3CM(肺窗)。另右肺近前胸壁下示条片影。甲状腺右叶密度减低。肝内示低密度灶，边缘模糊，大者短径约1.0CM。另肝内示类囊性密度灶。胆囊壁增厚。胰头部密度略减低。腹腔、腹膜后未见肿大淋巴结。部分椎骨密度不均，以T10为著。	</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>1.右肺上叶后段周围型肺癌,纵隔淋巴结转移,与2014-01-07片比较明显增大,请结合临床;2.左肺尖及右肺下叶结节影,随诊;3.肝、脾及胰腺后方病灶,转移不除外,请结合相关检查。右肺上叶后段可见团块影,截面约2.87CM×3.78CM,CT值约32HU,增强有强化,三期CT值约43HU、45HU、47HU;病灶位于右肺门上区,腔静脉后及气管前可见团块影,截面约4.5CM×2.4CM,CT值约44HU,增强后不均匀强化,纵隔内见增大淋巴结。左肺尖见结节影,左肺下叶见结节影(47);各大血管边界清晰。主动脉,肺动脉主干及其左右分支内造影剂密度均匀。所示肝、脾内可见类圆形低密度灶;胰腺后方也见椭圆形软组织密度灶。</t>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>1.右肺上叶后段周围型肺癌，纵隔淋巴结转移，与2014-01-07片比较明显增大，请结合临床；2.左肺尖及右肺下叶结节影，随诊；3.肝、脾及胰腺后方病灶，转移不除外，请结合相关检查。右肺上叶后段可见团块影，截面约2.87CM×3.78CM，CT值约32HU，增强有强化，三期CT值约43HU、45HU、47HU；病灶位于右肺门上区，腔静脉后及气管前可见团块影，截面约4.5CM×2.4CM，CT值约44HU，增强后不均匀强化，纵隔内见增大淋巴结。左肺尖见结节影，左肺下叶见结节影(47)；各大血管边界清晰。主动脉，肺动脉主干及其左右分支内造影剂密度均匀。所示肝、脾内可见类圆形低密度灶；胰腺后方也见椭圆形软组织密度灶。</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>右肺上叶尖段支气管闭塞,前段及后段支气管管壁略厚,管腔狭窄,可见团块状稍高密度影,大小约6.5CM×6.5CM,可见浅分叶,边缘可见细短毛刺,CT值约20-35HU,右上支气管受压变窄,增强后扫描呈不均匀强化;右上肺动脉变窄,远端显示欠清,上腔静脉管腔狭窄,其内可疑充盈缺损;右肺中叶、下叶、左舌段可见索条灶,左肺下叶见片状高密度影;左肺下叶近斜裂(40)可见小结节影,径约0.4CM。双肺见多发局限性透亮影。纵隔内可见增大的淋巴结,部分融合,短径约2.6CM;右侧锁骨上淋巴结增大,大者短径约1.2CM。两胸腔无积液征象,右侧胸膜局限性增厚。心包内可见条形液体密度影,大血管未见异常。双侧腋窝内多发稍大淋巴结影,大者短径约0.7CM。1.右肺上叶团块影,考虑中央型肺癌,较前CT片(2016-08-12CT)略减小,纵隔、右侧锁骨上淋巴结转移;右上肺动脉变窄;上腔静脉管腔狭窄,瘤栓形成,较前相仿;请结合临床;2.肺气肿;双肺索条灶;左肺下叶炎症,较前相仿;3.心包积液;4.左侧斜裂小结节,较前相仿。</t>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>右肺上叶尖段支气管闭塞，前段及后段支气管管壁略厚，管腔狭窄，可见团块状稍高密度影，大小约6.5CM×6.5CM，可见浅分叶，边缘可见细短毛刺，CT值约20-35HU，右上支气管受压变窄，增强后扫描呈不均匀强化；右上肺动脉变窄，远端显示欠清，上腔静脉管腔狭窄，其内可疑充盈缺损；右肺中叶、下叶、左舌段可见索条灶，左肺下叶见片状高密度影；左肺下叶近斜裂(40)可见小结节影，径约0.4CM。双肺见多发局限性透亮影。纵隔内可见增大的淋巴结，部分融合，短径约2.6CM；右侧锁骨上淋巴结增大，大者短径约1.2CM。两胸腔无积液征象，右侧胸膜局限性增厚。心包内可见条形液体密度影，大血管未见异常。双侧腋窝内多发稍大淋巴结影，大者短径约0.7CM。1.右肺上叶团块影，考虑中央型肺癌，较前CT片(2016-08-12CT)略减小，纵隔、右侧锁骨上淋巴结转移；右上肺动脉变窄；上腔静脉管腔狭窄，瘤栓形成，较前相仿；请结合临床；2.肺气肿；双肺索条灶；左肺下叶炎症，较前相仿；3.心包积液；4.左侧斜裂小结节，较前相仿。</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>右乳术后,术区未见增厚及异常强化征象;右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结,短径不足0.5CM。左侧锁骨上示短径不足0.5CM小淋巴结。右肺上叶示团片状密度增高影,密度较均。左肺下叶示类圆形低密度影,内示斑点状致密影,边界欠清。左肺上叶胸膜下示小类结节灶。余肺内示斑片影及索条影,右肺为著。右肺门及纵隔内示大者短径约0.8CM淋巴结。肝实质内示多发低密度灶,边缘欠清,部分融合,大者长径约3.6CM,部分内示斑点斑片状致密影。胆胰脾双肾上腺未见明显异常。左肾示囊性密度灶,未见强化。余双肾内示斑片状低密度影。腹腔及腹膜后未见明显增大淋巴结。左侧半卵圆中心区局部密度偏低,未见明确强化灶。脑室系统未见明显异常。中线结构无移位。右侧部分肋骨及部分椎骨示略高密度影。	1.结合临床,右乳癌术后;右肺转移治疗后,较前(2016-12-19)基本变化不著;原左肺结节灶,较前变化不著;脑转移,较前基本消失不清2.纵隔增大淋巴结,变化不好租;右肺门淋巴结稍大;左侧锁骨上淋巴结,变化不著3.肝转移治疗后,较前基本变化不著4.左肾囊肿5.右肺少许炎症、纤维灶,基本变化不著;左肺小类结节灶,变化不著6.右侧部分肋骨及部分椎骨略高密度影,变化不著。</t>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>右乳术后，术区未见增厚及异常强化征象；右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结，短径不足0.5CM。左侧锁骨上示短径不足0.5CM小淋巴结。右肺上叶示团片状密度增高影，密度较均。左肺下叶示类圆形低密度影，内示斑点状致密影，边界欠清。左肺上叶胸膜下示小类结节灶。余肺内示斑片影及索条影，右肺为著。右肺门及纵隔内示大者短径约0.8CM淋巴结。肝实质内示多发低密度灶，边缘欠清，部分融合，大者长径约3.6CM，部分内示斑点斑片状致密影。胆胰脾双肾上腺未见明显异常。左肾示囊性密度灶，未见强化。余双肾内示斑片状低密度影。腹腔及腹膜后未见明显增大淋巴结。左侧半卵圆中心区局部密度偏低，未见明确强化灶。脑室系统未见明显异常。中线结构无移位。右侧部分肋骨及部分椎骨示略高密度影。	1.结合临床，右乳癌术后；右肺转移治疗后，较前(2016-12-19)基本变化不著；原左肺结节灶，较前变化不著；脑转移，较前基本消失不清2.纵隔增大淋巴结，变化不好租；右肺门淋巴结稍大；左侧锁骨上淋巴结，变化不著3.肝转移治疗后，较前基本变化不著4.左肾囊肿5.右肺少许炎症、纤维灶，基本变化不著；左肺小类结节灶，变化不著6.右侧部分肋骨及部分椎骨略高密度影，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>右肺下叶后基底段见一高密度团块影,大小约2.3CM×3.0CM,CT值约24HU,呈分叶状改变,与邻近胸膜关系紧密。双肺散在多发小结节状稍高密度影。两肺门区未见异常。纵隔内见多发小淋巴结。心脏大血管未见异常。第11胸椎椎体可见类圆形低密度影,骨质破坏。所示肝内低密度病变。与2014-04-22胸部CT比较:1.右肺下叶周围型肺癌,双肺转移瘤,较前片缩小;胸椎转移,未见明显变化;2.右侧胸腔积液,较前减少;3.所示肝内低密度病变,较前新发,详查。</t>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>右肺下叶后基底段见一高密度团块影，大小约2.3CM×3.0CM，CT值约24HU，呈分叶状改变，与邻近胸膜关系紧密。双肺散在多发小结节状稍高密度影。两肺门区未见异常。纵隔内见多发小淋巴结。心脏大血管未见异常。第11胸椎椎体可见类圆形低密度影，骨质破坏。所示肝内低密度病变。与2014-04-22胸部CT比较：1.右肺下叶周围型肺癌，双肺转移瘤，较前片缩小；胸椎转移，未见明显变化；2.右侧胸腔积液，较前减少；3.所示肝内低密度病变，较前新发，详查。</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>右肺下叶周围型肺癌,双肺及纵隔淋巴结多发转移。右肺下叶后基底段团块影,大小约4.02CM×5.92CM,CT值约38HU,远端支气管截断;双肺多发粟粒影、结节影;双肺纹理增强,双侧支气管未见确切狭窄征象。两肺门大小、形态未见明显异常。纵隔及右侧锁骨上多发肿大淋巴结,大小约3.92CM,心脏、血管未见异常。双侧胸膜未见增厚,未见双侧胸腔积液征象。</t>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>右肺下叶周围型肺癌，双肺及纵隔淋巴结多发转移。右肺下叶后基底段团块影，大小约4.02CM×5.92CM，CT值约38HU，远端支气管截断；双肺多发粟粒影、结节影；双肺纹理增强，双侧支气管未见确切狭窄征象。两肺门大小、形态未见明显异常。纵隔及右侧锁骨上多发肿大淋巴结，大小约3.92CM，心脏、血管未见异常。双侧胸膜未见增厚，未见双侧胸腔积液征象。</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>小脑可见一约1.7CM×2.9CM的类卵圆形略长T1略长T2信号结节,边缘不整且压水像、DWI为高信号,增强后扫呈不均匀强化且周围伴有斑片状长T2信号的水肿带,四脑室受压狭窄变形;上述病灶左后可见一约0.4CM的强化灶。双侧大脑半球可见散在斑点状等T1略长T2信号影,压水像为高信号,DWI为等信号,增强后扫描无强化。脑室系统无扩大。中线结构居中。颈椎椎体边缘呈棘样突起且以前缘为著,但未见明显骨质破坏区。椎间盘C3/4、C4/5、C5/6向后突,相应硬膜囊受压狭窄变形,椎间隙略变窄。颈髓平扫未见异常信号区。	1.结合肺癌病史,小脑转移。2.脑多发小缺血灶。3.颈椎骨质增生,椎间盘C3/4、C4/5、C5/6突出。</t>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>小脑可见一约1.7CM×2.9CM的类卵圆形略长T1略长T2信号结节，边缘不整且压水像、DWI为高信号，增强后扫呈不均匀强化且周围伴有斑片状长T2信号的水肿带，四脑室受压狭窄变形；上述病灶左后可见一约0.4CM的强化灶。双侧大脑半球可见散在斑点状等T1略长T2信号影，压水像为高信号，DWI为等信号，增强后扫描无强化。脑室系统无扩大。中线结构居中。颈椎椎体边缘呈棘样突起且以前缘为著，但未见明显骨质破坏区。椎间盘C3/4、C4/5、C5/6向后突，相应硬膜囊受压狭窄变形，椎间隙略变窄。颈髓平扫未见异常信号区。	1.结合肺癌病史，小脑转移。2.脑多发小缺血灶。3.颈椎骨质增生，椎间盘C3/4、C4/5、C5/6突出。</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>右肺下叶切除术后,右下肺门区见软组织肿块影,截面约3.5CM×4.3CM。双肺内见多发结节灶,大者短径约2.3CM。双肺近纵隔周围见多发斑片状密度增高影,其内可见支气管充气征。右侧胸腔见少量液性密度影,右侧胸膜增厚。右锁上、右肺门、纵隔内2R、4R、7区见多发增大淋巴结,部分融合成团,大者短径约2.6CM。心包腔内见少量液性密度影。肝脏密度减低。腹腔内见多发肿大淋巴结,大者短径约2.4CM。脾实质内见一低密度灶,边缘模糊。左前下胸壁软组织内示梭形脂肪样密度影,边界清。骨窗示:左侧肩胛骨局部骨质结节状稀疏。	1.结合病史,右肺癌术后复发,较前(2016-10-05)片增大;右肺门、纵隔、右锁上淋巴结转移,基本稳定;双肺转移,较前进展;腹腔淋巴结肿大,考虑转移,部分略示增大,部分变化不著2.双肺炎症,变化不著;右侧少量胸腔积液,基本变化不著,心包积液,变化不著;右侧胸膜增厚,变化不著3.左胸壁脂肪瘤,变化不著4.脾实质内低密度灶,变化不著,建议观察5.脂肪肝6.左侧肩胛骨局部骨质稀疏,变化不著。</t>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>右肺下叶切除术后，右下肺门区见软组织肿块影，截面约3.5CM×4.3CM。双肺内见多发结节灶，大者短径约2.3CM。双肺近纵隔周围见多发斑片状密度增高影，其内可见支气管充气征。右侧胸腔见少量液性密度影，右侧胸膜增厚。右锁上、右肺门、纵隔内2R、4R、7区见多发增大淋巴结，部分融合成团，大者短径约2.6CM。心包腔内见少量液性密度影。肝脏密度减低。腹腔内见多发肿大淋巴结，大者短径约2.4CM。脾实质内见一低密度灶，边缘模糊。左前下胸壁软组织内示梭形脂肪样密度影，边界清。骨窗示：左侧肩胛骨局部骨质结节状稀疏。	1.结合病史，右肺癌术后复发，较前(2016-10-05)片增大；右肺门、纵隔、右锁上淋巴结转移，基本稳定；双肺转移，较前进展；腹腔淋巴结肿大，考虑转移，部分略示增大，部分变化不著2.双肺炎症，变化不著；右侧少量胸腔积液，基本变化不著，心包积液，变化不著；右侧胸膜增厚，变化不著3.左胸壁脂肪瘤，变化不著4.脾实质内低密度灶，变化不著，建议观察5.脂肪肝6.左侧肩胛骨局部骨质稀疏，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>左乳术后缺如,胸肌尚存,左侧胸大小肌之间见一软组织肿块影,边缘模糊,直径约2.8CM,增强后示中度不均质强化。另于前胸壁皮肤见一突起的软组织密度灶,长径约4.0CM,增强后示中度强化。双锁上、左肺门、纵隔内右上气管旁、血管前间隙、主肺动脉窗区、腔静脉后方、气管隆突下示肿大淋巴结,大者短径约1.0CM。双侧肺野内见多发结节灶,边缘清晰,大者直径约1.1CM,增强后示强化。鼻咽、口咽、喉咽形态可,各壁未见明显增厚及强化。双颈动脉鞘未见肿大淋巴结。骨窗示:多发胸椎、肋骨、腰椎L5椎体上缘可见高密度骨质破坏区,骶骨未见明显异常	结合临床,左乳癌术后,术区复发并前胸壁转移,较前14.5.9略示缩小;左颈部、双锁上、左肺门、纵隔淋巴结肿大,考虑转移,部分缩小;双肺转移,略示好转;伴多发骨转移。</t>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>左乳术后缺如，胸肌尚存，左侧胸大小肌之间见一软组织肿块影，边缘模糊，直径约2.8CM，增强后示中度不均质强化。另于前胸壁皮肤见一突起的软组织密度灶，长径约4.0CM，增强后示中度强化。双锁上、左肺门、纵隔内右上气管旁、血管前间隙、主肺动脉窗区、腔静脉后方、气管隆突下示肿大淋巴结，大者短径约1.0CM。双侧肺野内见多发结节灶，边缘清晰，大者直径约1.1CM，增强后示强化。鼻咽、口咽、喉咽形态可，各壁未见明显增厚及强化。双颈动脉鞘未见肿大淋巴结。骨窗示：多发胸椎、肋骨、腰椎L5椎体上缘可见高密度骨质破坏区，骶骨未见明显异常	结合临床，左乳癌术后，术区复发并前胸壁转移，较前14.5.9略示缩小；左颈部、双锁上、左肺门、纵隔淋巴结肿大，考虑转移，部分缩小；双肺转移，略示好转；伴多发骨转移。</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>右乳术后,右胸壁(4-22)见一直径不足0.5CM小类结节。右腋窝结构紊乱,未见肿大淋巴结。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一类结节灶,边界模糊。双侧内乳区、肺门、纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块,大者直径约4.2CM,边缘模糊,轻度强化。胆囊充盈可,壁示增厚。胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。胸骨及胸椎局部密度稍高。	1.结合临床,右乳癌术后,右胸壁类结节灶,较前2017-1-10强化减低;肝转移,大部分变化不著,部分增大,部分略缩小;右肺结节灶,变化不著2.左肺纤维灶,变化不著3.胆囊炎4.部分骨质密度稍高,变化不著。</t>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>右乳术后，右胸壁(4-22)见一直径不足0.5CM小类结节。右腋窝结构紊乱，未见肿大淋巴结。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一类结节灶，边界模糊。双侧内乳区、肺门、纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块，大者直径约4.2CM，边缘模糊，轻度强化。胆囊充盈可，壁示增厚。胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。胸骨及胸椎局部密度稍高。	1.结合临床，右乳癌术后，右胸壁类结节灶，较前2017-1-10强化减低；肝转移，大部分变化不著，部分增大，部分略缩小；右肺结节灶，变化不著2.左肺纤维灶，变化不著3.胆囊炎4.部分骨质密度稍高，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.右肺下叶癌并右侧胸膜(含叶间胸膜)转移较前2016-05-24变化不著;右肺门、纵隔小淋巴结,较前变化不著;多发骨质异常,较前变化不著2.上腹部扫描未见明显异常。右肺下叶背段可见不规则软组织密度肿块,截面大小约1.3CM×0.9CM,边缘浅分叶,周围可见多发长短毛刺,胸膜可见牵拉凹陷,增强后呈较显著不均质强化。左侧肺野较清晰。右侧胸膜(含叶间胸膜)可见不均匀增厚,可见多发结节灶,增强后呈较显著强化。左锁上、右肺门、纵隔内2R、4R、7区可见多发略肿大淋巴结,大者短径约0.5CM。右侧胸腔内见少量液性密度影。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。骨窗示:右侧第三、六、七肋骨示溶骨性骨质破坏。	</t>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.右肺下叶癌并右侧胸膜(含叶间胸膜)转移较前2016-05-24变化不著；右肺门、纵隔小淋巴结，较前变化不著；多发骨质异常，较前变化不著2.上腹部扫描未见明显异常。右肺下叶背段可见不规则软组织密度肿块，截面大小约1.3CM×0.9CM，边缘浅分叶，周围可见多发长短毛刺，胸膜可见牵拉凹陷，增强后呈较显著不均质强化。左侧肺野较清晰。右侧胸膜(含叶间胸膜)可见不均匀增厚，可见多发结节灶，增强后呈较显著强化。左锁上、右肺门、纵隔内2R、4R、7区可见多发略肿大淋巴结，大者短径约0.5CM。右侧胸腔内见少量液性密度影。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。骨窗示：右侧第三、六、七肋骨示溶骨性骨质破坏。	</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,左乳癌术后;卵巢转移术后,术区片状低密度影,较前2015-8-24范围略缩小2.网膜、肠系膜及盆腹膜转移治疗后,较前局部减轻3.脂肪肝;肝囊肿;肝内低密度灶,变化不著4.右肾囊肿5.宫颈体积增大,变化不著6.胸腰骶椎、肋骨、髋骨骨质密度增高,考虑转移,较前大部分变化不著,部分密度增高7.腹腔少量积液,较前减少。左乳术后缺如,术区结构紊乱,周围脂肪间隙模糊,部分胸肌尚存,术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱。右乳未见明确异常。左侧锁骨上间隙较模糊。左肺门示短径约0.6CM淋巴结。右侧腋窝、双侧内乳区、右肺门及纵隔未见明确肿大淋巴结。左肺示少许斑片影。右肺未见明确异常密度灶。肝脏密度减低,内见囊性密度灶,边界较清,直径约2.0CM。另肝内示斑片状低密度灶,强化不著,边界欠清。胆囊、胰腺、脾、双侧肾上腺及左肾未见明确异常。右肾见短径不足0.5CM的小低密度灶。腹腔内肝胃韧带区、腹膜后腹主动脉周围见小淋巴结,大者短径约0.6CM。网膜及肠系膜、盆腹膜示增厚,局部呈斑片状及结节状改变,部分与邻近肠管分界不清,增强呈不均匀强化。腹腔内可见液性密度影。卵巢术后,术区结构紊乱,周围间隙模糊,可见片状低密度影,与周围结构分界不清。宫颈体积增大,密度欠均匀。膀胱充盈可,壁略增厚。盆腔内未见明确肿大淋巴结。多发胸腰骶椎椎体及附件、双侧部分肋骨、双侧髋骨示骨质密度增高,局部可见结节状高密度影。双侧肱骨、股骨及左侧肩胛骨密度欠均。	</t>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，左乳癌术后；卵巢转移术后，术区片状低密度影，较前2015-8-24范围略缩小2.网膜、肠系膜及盆腹膜转移治疗后，较前局部减轻3.脂肪肝；肝囊肿；肝内低密度灶，变化不著4.右肾囊肿5.宫颈体积增大，变化不著6.胸腰骶椎、肋骨、髋骨骨质密度增高，考虑转移，较前大部分变化不著，部分密度增高7.腹腔少量积液，较前减少。左乳术后缺如，术区结构紊乱，周围脂肪间隙模糊，部分胸肌尚存，术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱。右乳未见明确异常。左侧锁骨上间隙较模糊。左肺门示短径约0.6CM淋巴结。右侧腋窝、双侧内乳区、右肺门及纵隔未见明确肿大淋巴结。左肺示少许斑片影。右肺未见明确异常密度灶。肝脏密度减低，内见囊性密度灶，边界较清，直径约2.0CM。另肝内示斑片状低密度灶，强化不著，边界欠清。胆囊、胰腺、脾、双侧肾上腺及左肾未见明确异常。右肾见短径不足0.5CM的小低密度灶。腹腔内肝胃韧带区、腹膜后腹主动脉周围见小淋巴结，大者短径约0.6CM。网膜及肠系膜、盆腹膜示增厚，局部呈斑片状及结节状改变，部分与邻近肠管分界不清，增强呈不均匀强化。腹腔内可见液性密度影。卵巢术后，术区结构紊乱，周围间隙模糊，可见片状低密度影，与周围结构分界不清。宫颈体积增大，密度欠均匀。膀胱充盈可，壁略增厚。盆腔内未见明确肿大淋巴结。多发胸腰骶椎椎体及附件、双侧部分肋骨、双侧髋骨示骨质密度增高，局部可见结节状高密度影。双侧肱骨、股骨及左侧肩胛骨密度欠均。	</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后,肝转移2.胆囊炎。右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内未见肿大淋巴结。双肺野清晰。肝脏实质内可见数个低密度结节灶,大者直径约0.9CM,边缘模糊,轻度强化。胆囊充盈可,壁示增厚。胰、脾及扫描野内双肾未见异常。腹膜后未见肿大淋巴结。	</t>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后，肝转移2.胆囊炎。右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内未见肿大淋巴结。双肺野清晰。肝脏实质内可见数个低密度结节灶，大者直径约0.9CM，边缘模糊，轻度强化。胆囊充盈可，壁示增厚。胰、脾及扫描野内双肾未见异常。腹膜后未见肿大淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后;肝转移,较前2016-09-01进展;右肺结节灶,较前缩小2.左肺纤维灶3.胆囊炎。右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱,未见肿大淋巴结。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一类结节灶,边界模糊。双侧内乳区、肺门、纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块,大者直径约4.0CM,边缘模糊,轻度强化。胆囊充盈可,壁示增厚。胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。	</t>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后；肝转移，较前2016-09-01进展；右肺结节灶，较前缩小2.左肺纤维灶3.胆囊炎。右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱，未见肿大淋巴结。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一类结节灶，边界模糊。双侧内乳区、肺门、纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块，大者直径约4.0CM，边缘模糊，轻度强化。胆囊充盈可，壁示增厚。胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺下叶可见条索状密度增高影,余肺野清晰。纵隔内未见肿大淋巴结。双肺野清晰。肝脏实质内可见多发低密度肿块,大者直径约2.7CM,边缘模糊,轻度强化。胆囊充盈可,壁示增厚。胰、脾及扫描野内双肾未见异常。腹膜后未见肿大淋巴结。	1.结合临床,右乳癌术后,肝转移,较前2015-2-25进展2.左肺下叶纤维灶3.胆囊炎。</t>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺下叶可见条索状密度增高影，余肺野清晰。纵隔内未见肿大淋巴结。双肺野清晰。肝脏实质内可见多发低密度肿块，大者直径约2.7CM，边缘模糊，轻度强化。胆囊充盈可，壁示增厚。胰、脾及扫描野内双肾未见异常。腹膜后未见肿大淋巴结。	1.结合临床，右乳癌术后，肝转移，较前2015-2-25进展2.左肺下叶纤维灶3.胆囊炎。</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后2.左肺门、纵隔淋巴结转移,较前(2015-10-27)变化不著3.双肺炎症及纤维灶,变化不著;双侧胸膜略增厚,变化不著,双侧胸腔积液增多4.双肺小结节灶,变化不著5.肝囊肿、钙化灶6.右肾囊肿7.右肾上腺结节灶,考虑腺瘤,变化不著8.甲状腺低密度灶,变化不著。右乳术后,前胸壁软组织略增厚,未见明显异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺门、纵隔内主肺动脉窗区可见肿大淋巴结,直径约2.0CM。右肺门淋巴结略增大,短径约0.8CM。左肺上叶支气管受压狭窄,远端肺野近纵隔旁可见带状密度增高影,另双肺内见斑片状密度增高影,右肺下叶为著。余双肺散在小结节灶,大者直径约0.4CM。双侧胸膜略增厚,双侧胸腔内可见液性密度影。甲状腺示斑片状低密度灶。肝内见囊性密度灶及斑片状致密影。胆囊壁增厚。右肾示小囊性密度灶。右肾上腺可见结节灶,直径约0.8CM,密度较低,强化不明显。骨窗示多发胸椎椎体、肋骨骨质略示稀疏。	</t>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后2.左肺门、纵隔淋巴结转移，较前(2015-10-27)变化不著3.双肺炎症及纤维灶，变化不著；双侧胸膜略增厚，变化不著，双侧胸腔积液增多4.双肺小结节灶，变化不著5.肝囊肿、钙化灶6.右肾囊肿7.右肾上腺结节灶，考虑腺瘤，变化不著8.甲状腺低密度灶，变化不著。右乳术后，前胸壁软组织略增厚，未见明显异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺门、纵隔内主肺动脉窗区可见肿大淋巴结，直径约2.0CM。右肺门淋巴结略增大，短径约0.8CM。左肺上叶支气管受压狭窄，远端肺野近纵隔旁可见带状密度增高影，另双肺内见斑片状密度增高影，右肺下叶为著。余双肺散在小结节灶，大者直径约0.4CM。双侧胸膜略增厚，双侧胸腔内可见液性密度影。甲状腺示斑片状低密度灶。肝内见囊性密度灶及斑片状致密影。胆囊壁增厚。右肾示小囊性密度灶。右肾上腺可见结节灶，直径约0.8CM，密度较低，强化不明显。骨窗示多发胸椎椎体、肋骨骨质略示稀疏。	</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>右肺下叶见团块影,径约为3.5CM,CT值约为38HU,增强后CT值约为53HU、48HU及66HU,边缘可见毛刺影及胸膜凹陷;右肺另见多发大小不等界清结节影。右肺下叶条片状实变,内见含气支气管影,增强后明显强化。左肺小结节(37、33),纵隔内见数个增大的淋巴结,大者短径约为1.9CM。心脏大血管形态自然。右侧胸腔内见弧形积液征象,增强后右胸膜见结节状强化。1.上述征象考虑右肺下叶周围型肺癌可能大,并双侧肺多发转移灶可能,纵隔多发淋巴结转移,右侧胸膜转移及右侧胸腔积液征象,请结合临床详查除外其他可能;2.右肺下叶部分实变,请随诊。</t>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>右肺下叶见团块影，径约为3.5CM，CT值约为38HU，增强后CT值约为53HU、48HU及66HU，边缘可见毛刺影及胸膜凹陷；右肺另见多发大小不等界清结节影。右肺下叶条片状实变，内见含气支气管影，增强后明显强化。左肺小结节(37、33)，纵隔内见数个增大的淋巴结，大者短径约为1.9CM。心脏大血管形态自然。右侧胸腔内见弧形积液征象，增强后右胸膜见结节状强化。1.上述征象考虑右肺下叶周围型肺癌可能大，并双侧肺多发转移灶可能，纵隔多发淋巴结转移，右侧胸膜转移及右侧胸腔积液征象，请结合临床详查除外其他可能；2.右肺下叶部分实变，请随诊。</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>1.前上纵隔胸腺癌,双肺多发转移、纵隔淋巴结转移,双侧胸腔积液、胸骨骨质转移性骨破坏;2.双肺下叶炎症。前纵隔内可见软组织密度影,边界欠清,最大截面约2.1CM×4.6CM,CT值约57HU,相邻胸骨可见多发骨质破坏区;两肺纹理增强,双肺可见多发大小不等类圆形高密度影,大者径约1.1CM;双肺下叶可见斑片状高密度影,边界模糊;双肺门区未见异常,所示气管支气管影通畅;纵隔内可见多发增大的淋巴结,大者位于主动脉弓旁,径约1.25CM;双侧胸腔可见弧形液体密度影,心脏不大。</t>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>1.前上纵隔胸腺癌，双肺多发转移、纵隔淋巴结转移，双侧胸腔积液、胸骨骨质转移性骨破坏；2.双肺下叶炎症。前纵隔内可见软组织密度影，边界欠清，最大截面约2.1CM×4.6CM，CT值约57HU，相邻胸骨可见多发骨质破坏区；两肺纹理增强，双肺可见多发大小不等类圆形高密度影，大者径约1.1CM；双肺下叶可见斑片状高密度影，边界模糊；双肺门区未见异常，所示气管支气管影通畅；纵隔内可见多发增大的淋巴结，大者位于主动脉弓旁，径约1.25CM；双侧胸腔可见弧形液体密度影，心脏不大。</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>右肺下叶可见团块影,与右肺门影分界不清,边界欠清,CT值约为29HU,其内密度不均,大小约为8.9CM×4.8CM,邻近肺组织可见模糊影,右肺下叶内基底段支气管不通。双肺可见多发的大小不等的小结节影,大者径长约1.9CM;右肺斜裂增厚、右肺中叶条片状的高密度影。纵隔内可见多发肿大的淋巴结。两胸腔积液征象,右侧显著。心包积液。甲状腺明显肿大。右侧胸壁下可见结节影,径约1.1CM。左侧第6前肋局部密度增高。1.考虑右肺下叶周围型肺癌可能,双肺多发转移,右胸膜转移,较2015-01-20CT进展,请结合临床;2.双胸腔积液,右胸腔引流术后改变;心包积液;3.甲状腺大;4.左侧第6前肋局部密度增高,较前相仿;请结合临床。</t>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>右肺下叶可见团块影，与右肺门影分界不清，边界欠清，CT值约为29HU，其内密度不均，大小约为8.9CM×4.8CM，邻近肺组织可见模糊影，右肺下叶内基底段支气管不通。双肺可见多发的大小不等的小结节影，大者径长约1.9CM；右肺斜裂增厚、右肺中叶条片状的高密度影。纵隔内可见多发肿大的淋巴结。两胸腔积液征象，右侧显著。心包积液。甲状腺明显肿大。右侧胸壁下可见结节影，径约1.1CM。左侧第6前肋局部密度增高。1.考虑右肺下叶周围型肺癌可能，双肺多发转移，右胸膜转移，较2015-01-20CT进展，请结合临床；2.双胸腔积液，右胸腔引流术后改变；心包积液；3.甲状腺大；4.左侧第6前肋局部密度增高，较前相仿；请结合临床。</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张,较前(2016-12-12)变化不著;肺炎治疗后,较前进展;双侧胸膜多发结节灶,考虑转移,部分略缩小,部分变化不著;纵隔淋巴结转移,较前略缩小;右肾上腺转移,变化不著2.肝囊肿;双肾囊肿;左肾低密度灶,胰腺低密度灶,变化不著,建议观察3.心包、左胸腔少量积液,略减少4.部分椎骨及肋骨密度略增高,较前变化不著。左肺门周围可见不规则软组织密度肿块影,约3.0CM×4.3CM,增强扫描呈明显不均匀强化,与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。双肺内见多发斑片状密度增高影。双侧胸膜及叶间胸膜上可见多发类结节灶,大者长径约0.6CM。纵隔内2R、4R、4L、5、6、7、8区示多发融合的淋巴结影,大者短径约1.4CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常,肝实质内可见数个囊性低密度灶,边界清,增强扫描无强化。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常,右肾上腺示一类结节灶,长径约3.6CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨、肋骨密度略增高。	</t>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张，较前(2016-12-12)变化不著；肺炎治疗后，较前进展；双侧胸膜多发结节灶，考虑转移，部分略缩小，部分变化不著；纵隔淋巴结转移，较前略缩小；右肾上腺转移，变化不著2.肝囊肿；双肾囊肿；左肾低密度灶，胰腺低密度灶，变化不著，建议观察3.心包、左胸腔少量积液，略减少4.部分椎骨及肋骨密度略增高，较前变化不著。左肺门周围可见不规则软组织密度肿块影，约3.0CM×4.3CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。双肺内见多发斑片状密度增高影。双侧胸膜及叶间胸膜上可见多发类结节灶，大者长径约0.6CM。纵隔内2R、4R、4L、5、6、7、8区示多发融合的淋巴结影，大者短径约1.4CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常，肝实质内可见数个囊性低密度灶，边界清，增强扫描无强化。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常，右肾上腺示一类结节灶，长径约3.6CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨、肋骨密度略增高。	</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>空腹6H以上,静脉注射显像剂,平静休息60MMIN后行CT和PET全身断层显像,PET图像经衰减校正、迭代法重建后行多层面、多幅显像,并与CT图像进行融合。影像清晰。PET/CT示右侧乳腺术后,术区及对侧乳腺未见异常放射性摄取升高;双侧卵巢示放射性浓聚块状影,最高SUV13.6,肿块融合成团,长径达9.9CM;腹腔网膜内、盆腔髂血管旁示结节状放射性摄取升高,最高SUV6.0,大者长径约为1.7CM;膈肌旁示肿大淋巴结,短径约为1.0CM,呈轻度放射性摄取,最高SUV2.0;肝内、肝脾包膜及肠系膜内示多发结节状放射性摄取升高,最高SUV6.6,大者长径约为2.4CM;腹腔内示少量液性密度影,胆囊内示高密度结节。脑部正常显影。左侧上颌窦粘膜示增厚,咽部示对称性放射性摄取升高,甲状腺体积饱满,呈对称性放射性摄取升高,最高SUV3.6;右肺中叶内示小片状放射性摄取升高,最高SUV2.4,余双肺示小结节,未见异常放射性摄取;脾不大。双肾及双侧输尿管显影正常。腹部可见数个形态不一、条管状、浓淡不一的正常肠影。全身骨骼未见异常浓聚影。1.右乳癌术后;考虑卵巢癌并腹盆腔淋巴结转移、肝转移、腹膜转移并腹腔少量积液。2.左侧上颌窦炎;考虑咽炎、甲状腺炎、右肺局限性炎症;双肺结节及膈肌旁淋巴结肿大,建议观察。3.胆囊结石。</t>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>空腹6H以上，静脉注射显像剂，平静休息60MMIN后行CT和PET全身断层显像，PET图像经衰减校正、迭代法重建后行多层面、多幅显像，并与CT图像进行融合。影像清晰。PET/CT示右侧乳腺术后，术区及对侧乳腺未见异常放射性摄取升高；双侧卵巢示放射性浓聚块状影，最高SUV13.6，肿块融合成团，长径达9.9CM；腹腔网膜内、盆腔髂血管旁示结节状放射性摄取升高，最高SUV6.0，大者长径约为1.7CM；膈肌旁示肿大淋巴结，短径约为1.0CM，呈轻度放射性摄取，最高SUV2.0；肝内、肝脾包膜及肠系膜内示多发结节状放射性摄取升高，最高SUV6.6，大者长径约为2.4CM；腹腔内示少量液性密度影，胆囊内示高密度结节。脑部正常显影。左侧上颌窦粘膜示增厚，咽部示对称性放射性摄取升高，甲状腺体积饱满，呈对称性放射性摄取升高，最高SUV3.6；右肺中叶内示小片状放射性摄取升高，最高SUV2.4，余双肺示小结节，未见异常放射性摄取；脾不大。双肾及双侧输尿管显影正常。腹部可见数个形态不一、条管状、浓淡不一的正常肠影。全身骨骼未见异常浓聚影。1.右乳癌术后；考虑卵巢癌并腹盆腔淋巴结转移、肝转移、腹膜转移并腹腔少量积液。2.左侧上颌窦炎；考虑咽炎、甲状腺炎、右肺局限性炎症；双肺结节及膈肌旁淋巴结肿大，建议观察。3.胆囊结石。</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,考虑左肺癌;左肺门淋巴结转移,较前(2016-08-08)示增大2.右肺钙化灶3.肝内多发低密度灶,部分为囊肿,部分建议观察,变化不著4.右肾囊肿5.部分肋骨骨质异常,不除外转移,较前变化不著。左肺上叶见一不规则软组织密度肿块影,边缘分叶、毛糙,上叶支气管部分示截断,病变向内与左肺门肿大淋巴结分界不清,截面积约3.6CM×3.2CM;增强扫描呈不均匀强化。右肺野内见结节状致密影。左侧胸壁见高密度影,局部伪影较大,周围结构显示不清。左肺门见肿大淋巴结,短径约1.5CM。纵隔内见多发小淋巴结,大者短径约0.5CM。双侧胸膜示不均匀增厚并强化,双侧胸腔内见少量液性密度影。肝实质内见多发低密度灶,大部分边界较清,少许边缘模糊,大者直径约0.5CM。胆囊充盈可,壁增厚。右肾见囊性密度灶,边界清。腹腔及腹膜后未见明确肿大淋巴结。左侧第10、8肋骨示骨质膨胀,骨皮质欠连续,局部骨质密度增高或减低。	</t>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，考虑左肺癌；左肺门淋巴结转移，较前(2016-08-08)示增大2.右肺钙化灶3.肝内多发低密度灶，部分为囊肿，部分建议观察，变化不著4.右肾囊肿5.部分肋骨骨质异常，不除外转移，较前变化不著。左肺上叶见一不规则软组织密度肿块影，边缘分叶、毛糙，上叶支气管部分示截断，病变向内与左肺门肿大淋巴结分界不清，截面积约3.6CM×3.2CM；增强扫描呈不均匀强化。右肺野内见结节状致密影。左侧胸壁见高密度影，局部伪影较大，周围结构显示不清。左肺门见肿大淋巴结，短径约1.5CM。纵隔内见多发小淋巴结，大者短径约0.5CM。双侧胸膜示不均匀增厚并强化，双侧胸腔内见少量液性密度影。肝实质内见多发低密度灶，大部分边界较清，少许边缘模糊，大者直径约0.5CM。胆囊充盈可，壁增厚。右肾见囊性密度灶，边界清。腹腔及腹膜后未见明确肿大淋巴结。左侧第10、8肋骨示骨质膨胀，骨皮质欠连续，局部骨质密度增高或减低。	</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,直肠癌术后;双肺转移瘤,较前2015-9-17部分增大,部分变化不著2.双肾低密度灶,较前无明显变化,建议继续观察或结合MR检查3.肝内钙化灶4.双侧胸膜略增厚,变化不著5.右侧甲状腺低密度灶,建议观察。双肺近胸膜下示多个结节灶,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约2.4CM,内示斑点状致密影及小空泡影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。右侧甲状腺见低密度灶,边缘较清晰。肝内见点状钙化灶。胆囊充盈可,壁增厚。双肾见多发低密度灶,边界较清,部分密度略高。胰腺、脾及肾上腺形态、大小、密度未见异常。肠系膜区及腹膜后示短径不足0.5CM小淋巴结。直肠术后,吻合口未见增厚及异常强化。膀胱、前列腺及双侧精囊腺未见异常。盆腔内未见肿大淋巴结及积液。	</t>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，直肠癌术后；双肺转移瘤，较前2015-9-17部分增大，部分变化不著2.双肾低密度灶，较前无明显变化，建议继续观察或结合MR检查3.肝内钙化灶4.双侧胸膜略增厚，变化不著5.右侧甲状腺低密度灶，建议观察。双肺近胸膜下示多个结节灶，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约2.4CM，内示斑点状致密影及小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。右侧甲状腺见低密度灶，边缘较清晰。肝内见点状钙化灶。胆囊充盈可，壁增厚。双肾见多发低密度灶，边界较清，部分密度略高。胰腺、脾及肾上腺形态、大小、密度未见异常。肠系膜区及腹膜后示短径不足0.5CM小淋巴结。直肠术后，吻合口未见增厚及异常强化。膀胱、前列腺及双侧精囊腺未见异常。盆腔内未见肿大淋巴结及积液。	</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右肺癌治疗后,较前片2015-1-4略示缩小;双肺多发类结节灶,部分较前好转;右肺门、纵隔淋巴结转移,变化不著。2.右肺下叶炎症,右肺下叶小叶间隔增厚,变化不著。3.右侧少量胸腔积液,较前减少;右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根示密度增高影。。右肺下叶见不规则斑片状软组织影,边缘毛糙,大小不易测量,增强后中度强化;其远端肺野见斑片状及索条状密度增高影。另右肺下叶小叶间隔增厚。余双肺野可见多个类结节灶,部分位于胸膜下,边缘模糊,大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结,大者短径约1.1CM,部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。扫描野内肝内见一斑点状钙化灶。T12右侧椎弓根示斑片状密度增高影。	</t>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右肺癌治疗后，较前片2015-1-4略示缩小；双肺多发类结节灶，部分较前好转；右肺门、纵隔淋巴结转移，变化不著。2.右肺下叶炎症，右肺下叶小叶间隔增厚，变化不著。3.右侧少量胸腔积液，较前减少；右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根示密度增高影。。右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。另右肺下叶小叶间隔增厚。余双肺野可见多个类结节灶，部分位于胸膜下，边缘模糊，大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径约1.1CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。扫描野内肝内见一斑点状钙化灶。T12右侧椎弓根示斑片状密度增高影。	</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,左侧乳腺癌术后,局部胸壁类结节灶,建议观察;左侧内乳淋巴结转移,较前(2015-7-23)好转2.纵隔、右侧腋窝淋巴结肿大,考虑转移,较前部分缩小,部分变化不著3.右侧心膈角淋巴结肿大,较前增大,转移不除外4.脂肪肝;肝囊肿5.左肺上叶胸膜下慢性炎症及纤维变,变化不著。左侧乳腺术后,局部胸壁结构紊乱,见(2-17)类结节灶。右侧乳腺形态、大小、密度未见异常。左侧腋窝结构紊乱,未见增大淋巴结。左侧内乳区见短径约1.1CM淋巴结。右侧内乳区见短径不足0.5CM小淋巴结。右侧腋窝见多发增大淋巴结,大者短径约0.6CM。纵隔内血管前间隙3A、气管前间隙4R、弓旁6区见多发增大淋巴结,大者短径约1.2CM。右侧心膈角见短径约0.8CM淋巴结。左肺上叶胸膜下见少许条索状影。双侧胸腔内未见液性密度影。扫描野内肝脏密度减低,右叶见直径约0.8CM囊性密度灶,边缘清晰。	</t>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，左侧乳腺癌术后，局部胸壁类结节灶，建议观察；左侧内乳淋巴结转移，较前(2015-7-23)好转2.纵隔、右侧腋窝淋巴结肿大，考虑转移，较前部分缩小，部分变化不著3.右侧心膈角淋巴结肿大，较前增大，转移不除外4.脂肪肝；肝囊肿5.左肺上叶胸膜下慢性炎症及纤维变，变化不著。左侧乳腺术后，局部胸壁结构紊乱，见(2-17)类结节灶。右侧乳腺形态、大小、密度未见异常。左侧腋窝结构紊乱，未见增大淋巴结。左侧内乳区见短径约1.1CM淋巴结。右侧内乳区见短径不足0.5CM小淋巴结。右侧腋窝见多发增大淋巴结，大者短径约0.6CM。纵隔内血管前间隙3A、气管前间隙4R、弓旁6区见多发增大淋巴结，大者短径约1.2CM。右侧心膈角见短径约0.8CM淋巴结。左肺上叶胸膜下见少许条索状影。双侧胸腔内未见液性密度影。扫描野内肝脏密度减低，右叶见直径约0.8CM囊性密度灶，边缘清晰。	</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合病史,右肺上叶癌治疗后,病变较2015-07-23片略增大2.双侧肾上腺结节灶,考虑转移,左侧较前略增大3.双肺纤维灶4.心包少量积液5.左肾囊肿6.颅脑扫描未见异常。右肺上叶纵隔旁见一团片状软组织密度影,大小约1.8CM×2.2CM(肺窗),边缘毛糙,与纵隔胸膜关系密切,增强后病变呈中等强化。另于双肺内见少许条索状密度增高影。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。心包腔内示少量液性密度影。肝脏未见异常密度灶。双侧肾上腺增大,见软组织密度结节灶,大者位于左侧,约1.8CM×2.9CM,可见强化。胆胰脾及右肾未见异常。左肾示囊性密度灶,直径约0.8CM,边界清,无强化。脑实质均质,未见异常密度灶。脑室系统未见扩张。中线结构居中。	</t>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合病史，右肺上叶癌治疗后，病变较2015-07-23片略增大2.双侧肾上腺结节灶，考虑转移，左侧较前略增大3.双肺纤维灶4.心包少量积液5.左肾囊肿6.颅脑扫描未见异常。右肺上叶纵隔旁见一团片状软组织密度影，大小约1.8CM×2.2CM(肺窗)，边缘毛糙，与纵隔胸膜关系密切，增强后病变呈中等强化。另于双肺内见少许条索状密度增高影。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。心包腔内示少量液性密度影。肝脏未见异常密度灶。双侧肾上腺增大，见软组织密度结节灶，大者位于左侧，约1.8CM×2.9CM，可见强化。胆胰脾及右肾未见异常。左肾示囊性密度灶，直径约0.8CM，边界清，无强化。脑实质均质，未见异常密度灶。脑室系统未见扩张。中线结构居中。	</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后2.左腋窝小淋巴结;纵隔淋巴结略增大3.脂肪肝;肝囊肿;脾内低密度灶,考虑囊肿4.胆囊结石5.考虑左侧肱骨头转移。右乳术后缺如,术区未见异常增厚及强化。左乳未见异常。左腋窝示数个小淋巴结,大者短径约0.5CM。右锁骨上区脂肪间隙略示模糊;上纵隔气管右旁及腔静脉后气管前示略大淋巴结,短径约0.7CM。扫描野内肝脏密度减低。胆囊可见结节状致密影。肝及脾内均示低密度灶,大者直径约1.3CM,边界清,强化不著。双肺野清晰。左侧肱骨头可见骨质破坏。	</t>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后2.左腋窝小淋巴结；纵隔淋巴结略增大3.脂肪肝；肝囊肿；脾内低密度灶，考虑囊肿4.胆囊结石5.考虑左侧肱骨头转移。右乳术后缺如，术区未见异常增厚及强化。左乳未见异常。左腋窝示数个小淋巴结，大者短径约0.5CM。右锁骨上区脂肪间隙略示模糊；上纵隔气管右旁及腔静脉后气管前示略大淋巴结，短径约0.7CM。扫描野内肝脏密度减低。胆囊可见结节状致密影。肝及脾内均示低密度灶，大者直径约1.3CM，边界清，强化不著。双肺野清晰。左侧肱骨头可见骨质破坏。	</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右肺下叶肺癌术后改变;右肺门、纵隔淋巴结转移部分较前进展,部分变化不著2.右肺炎症纤维灶较前进展3.甲状腺体积增大并低密度灶,考虑为结节性甲状腺肿,变化不著4.双肺气肿,双肺炎症,较前加重5.左肺结节灶,考虑转移。右肺下叶部分术后,局部术区可见包裹性及部分游离性液体密度影,邻近胸膜可见增厚。双肺野可见斑片状及条索状密度增高影,边缘模糊。左肺野可见多发结节灶,部分靠近胸膜,大者直径约0.6CM。另于双肺野内见多发泡状过度透光区。纵隔内3A、4R、4L、6、7区及右肺门示多发肿大淋巴结,大者短径约2.5CM。胸廓骨质未见破坏。甲状腺右侧叶体积增大,向下凸入右上纵隔,其内密度不均,可见低密度区,周围散在点状致密灶,左侧叶内亦可见低密度灶,均边界清晰。	</t>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右肺下叶肺癌术后改变；右肺门、纵隔淋巴结转移部分较前进展，部分变化不著2.右肺炎症纤维灶较前进展3.甲状腺体积增大并低密度灶，考虑为结节性甲状腺肿，变化不著4.双肺气肿，双肺炎症，较前加重5.左肺结节灶，考虑转移。右肺下叶部分术后，局部术区可见包裹性及部分游离性液体密度影，邻近胸膜可见增厚。双肺野可见斑片状及条索状密度增高影，边缘模糊。左肺野可见多发结节灶，部分靠近胸膜，大者直径约0.6CM。另于双肺野内见多发泡状过度透光区。纵隔内3A、4R、4L、6、7区及右肺门示多发肿大淋巴结，大者短径约2.5CM。胸廓骨质未见破坏。甲状腺右侧叶体积增大，向下凸入右上纵隔，其内密度不均，可见低密度区，周围散在点状致密灶，左侧叶内亦可见低密度灶，均边界清晰。	</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右肺癌并阻塞性炎症,较前片(2014-11-6)好转2.原左肺下叶结节灶,变化不著;双肺多发结节灶,转移可能性大3.肝囊肿4.部分胸椎体及肋骨骨质密度增高,变化不著,转移可能性大,请结合临床5.右肾低密度灶,建议观察。右肺中叶支气管开口处见一不规则软组织密度肿块影,边缘模糊,病变大小不易测量,增强后可见轻度强化。病变远端示片状肺不张影。双肺见多发结节灶,大者直径不足0.5CM。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶,大者直径不足0.5CM。右肾见直径约0.5CM低密度结节灶,未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分胸椎骨质密度增高,右侧第3肋局限性骨质密度增高。	</t>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右肺癌并阻塞性炎症，较前片(2014-11-6)好转2.原左肺下叶结节灶，变化不著；双肺多发结节灶，转移可能性大3.肝囊肿4.部分胸椎体及肋骨骨质密度增高，变化不著，转移可能性大，请结合临床5.右肾低密度灶，建议观察。右肺中叶支气管开口处见一不规则软组织密度肿块影，边缘模糊，病变大小不易测量，增强后可见轻度强化。病变远端示片状肺不张影。双肺见多发结节灶，大者直径不足0.5CM。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶，大者直径不足0.5CM。右肾见直径约0.5CM低密度结节灶，未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分胸椎骨质密度增高，右侧第3肋局限性骨质密度增高。	</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t xml:space="preserve">结合临床,左乳癌术后,术区复发并前胸壁转移,较前(2014-9-26)部分好转,部分变化不著2.左锁上、左肺门、纵隔小淋巴结,变化不著;左颈部淋巴结稍大3.双肺转移,较前大部分变化不著,部分增大4.多发骨转移,较前大部分变化不著,部分密度增高5.肝内低密度灶,较前似缩小,建议观察6.左肾未见显示,请结合临床。左乳术后缺如,胸肌尚存,左侧胸大小肌之间见一软组织肿块影,边缘模糊,直径约1.7CM,增强后示中度不均质强化。另于前胸壁皮肤局部增厚呈软组织密度影,增强后示中度强化。左锁上、左肺门、纵隔内右上气管旁、主肺动脉窗区、腔静脉后方、气管隆突下、左侧颈后三角区小淋巴结,大者短径不足1.0CM。双肺见小结节灶,大者直径约0.6CM。肝左外叶内见一低密度灶,边缘略示模糊,大者直径不足0.5CM。胆囊充盈可,壁不厚。胰脾、双侧肾上腺及右肾未见异常。扫描野内左肾未见显示。腹腔及腹膜后未见明显肿大淋巴结。骨窗示:胸骨、部分胸腰椎椎体、肋骨见骨质破坏区。	</t>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">结合临床，左乳癌术后，术区复发并前胸壁转移，较前(2014-9-26)部分好转，部分变化不著2.左锁上、左肺门、纵隔小淋巴结，变化不著；左颈部淋巴结稍大3.双肺转移，较前大部分变化不著，部分增大4.多发骨转移，较前大部分变化不著，部分密度增高5.肝内低密度灶，较前似缩小，建议观察6.左肾未见显示，请结合临床。左乳术后缺如，胸肌尚存，左侧胸大小肌之间见一软组织肿块影，边缘模糊，直径约1.7CM，增强后示中度不均质强化。另于前胸壁皮肤局部增厚呈软组织密度影，增强后示中度强化。左锁上、左肺门、纵隔内右上气管旁、主肺动脉窗区、腔静脉后方、气管隆突下、左侧颈后三角区小淋巴结，大者短径不足1.0CM。双肺见小结节灶，大者直径约0.6CM。肝左外叶内见一低密度灶，边缘略示模糊，大者直径不足0.5CM。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及右肾未见异常。扫描野内左肾未见显示。腹腔及腹膜后未见明显肿大淋巴结。骨窗示：胸骨、部分胸腰椎椎体、肋骨见骨质破坏区。	</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1、结合临床,右乳癌,右侧腋窝淋巴结肿大,考虑转移2.双肺下叶炎症;2、肝内低密度灶,建议定期复查3、颅脑扫描未见异常。右乳外上象限示一软组织肿块影,呈浅分叶状,与周围腺体分界欠清,最大截面约4.1CM×2.8CM,增强扫描边缘明显强化,肿块与胸大肌见脂肪间隙清晰,右侧腋窝见多枚肿大淋巴结,较大者短径约1.3CM。右乳皮肤局部略示增厚。左乳未见明显异常。双侧内乳区未见明显增大淋巴结。双肺纹理清晰,两肺下叶外基底段见斑片状、索条状高密度。纵隔居中,内未见确切肿大淋巴结,心影大小形态尚可,双侧胸膜无增厚,胸腔无积液,胸壁未见异常。扫及肝右前叶下段见类圆形低密度,截面大小约0.4CM×0.5CM,增强扫描未见强化。双侧大脑半球对侧,灰白质分界清楚,脑实质内未见确切异常密度灶,增强扫描未见强化,脑室系统未见扩大、脑沟、裂、池未见增宽,中线结构未见移位。	</t>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1、结合临床，右乳癌，右侧腋窝淋巴结肿大，考虑转移2.双肺下叶炎症；2、肝内低密度灶，建议定期复查3、颅脑扫描未见异常。右乳外上象限示一软组织肿块影，呈浅分叶状，与周围腺体分界欠清，最大截面约4.1CM×2.8CM，增强扫描边缘明显强化，肿块与胸大肌见脂肪间隙清晰，右侧腋窝见多枚肿大淋巴结，较大者短径约1.3CM。右乳皮肤局部略示增厚。左乳未见明显异常。双侧内乳区未见明显增大淋巴结。双肺纹理清晰，两肺下叶外基底段见斑片状、索条状高密度。纵隔居中，内未见确切肿大淋巴结，心影大小形态尚可，双侧胸膜无增厚，胸腔无积液，胸壁未见异常。扫及肝右前叶下段见类圆形低密度，截面大小约0.4CM×0.5CM，增强扫描未见强化。双侧大脑半球对侧，灰白质分界清楚，脑实质内未见确切异常密度灶，增强扫描未见强化，脑室系统未见扩大、脑沟、裂、池未见增宽，中线结构未见移位。	</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移,肿块较2014-04-02CT缩小,空洞形成;2.右肺下叶炎症,请随诊;3.所示多发骨转移征象,右侧第10后肋病理性骨折,较前胸骨柄内病灶较前范围增大。右肺下叶背段(30)见椭圆形肿块影,径约1.9CM,边缘不规整,可见多发毛刺影,并见血管影进入,牵拉邻近胸膜,内空洞形成,CT值约8HU。右肺下叶见斑片影。右肺门区及纵隔内可见多发肿大淋巴结影,大者短径约1.65CM。两胸腔无积液征象。心脏大血管未见异常。双侧第10后肋、胸骨柄及胸骨体内可见高密度影,胸2附件骨质可见溶骨性破坏区。</t>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移，肿块较2014-04-02CT缩小，空洞形成；2.右肺下叶炎症，请随诊；3.所示多发骨转移征象，右侧第10后肋病理性骨折，较前胸骨柄内病灶较前范围增大。右肺下叶背段(30)见椭圆形肿块影，径约1.9CM，边缘不规整，可见多发毛刺影，并见血管影进入，牵拉邻近胸膜，内空洞形成，CT值约8HU。右肺下叶见斑片影。右肺门区及纵隔内可见多发肿大淋巴结影，大者短径约1.65CM。两胸腔无积液征象。心脏大血管未见异常。双侧第10后肋、胸骨柄及胸骨体内可见高密度影，胸2附件骨质可见溶骨性破坏区。</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>右肺下叶基底段见软组织肿块影,边缘模糊,有分叶,左肺下叶支气管示截断,病变与远端膨胀不全肺组织分界不清,大小不易测量,增强后可见不均匀强化;邻近叶间胸膜可见增厚。右肺野内见多个结节灶,大者直径约0.5CM,大部分与胸膜关系密切,增强后可见强化。左肺上叶胸膜下见直径约0.2CM小结节灶。左肺见少许索条状及斑片状密度增高影。右侧胸膜示增厚并可见强化。右侧胸腔见液性密度影。左锁上伪影较大,间隙模糊。纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结,大者短径约0.9CM。肝实质内见多发囊性密度灶,大者直径约3.0CM。另肝内动脉期见一略强化结节灶,延迟略呈等密度灶。胆囊充盈可,壁不厚。胰、脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见低密度灶,短径约1.1CM,增强局部似见强化。腹主动脉周围示淋巴结,大者短径约0.5CM。	1.结合临床,右肺下叶癌治疗后,较前(2014-12-08)病变示变化不著,周围肺不张示范围增大;右侧胸膜增厚,考虑转移,变化不著;右侧胸腔积液,较前增多;右肺转移,变化不著2.左肺上叶类结节灶,变化不著,建议观察;左肺炎症3.纵隔、腹膜后小或稍大淋巴结,较前变化不著4.肝囊肿5.右肾低密度灶,较前缩小,建议进一步检查6.肝内强化灶,较前变化不著,考虑血管瘤。</t>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>右肺下叶基底段见软组织肿块影，边缘模糊，有分叶，左肺下叶支气管示截断，病变与远端膨胀不全肺组织分界不清，大小不易测量，增强后可见不均匀强化；邻近叶间胸膜可见增厚。右肺野内见多个结节灶，大者直径约0.5CM，大部分与胸膜关系密切，增强后可见强化。左肺上叶胸膜下见直径约0.2CM小结节灶。左肺见少许索条状及斑片状密度增高影。右侧胸膜示增厚并可见强化。右侧胸腔见液性密度影。左锁上伪影较大，间隙模糊。纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结，大者短径约0.9CM。肝实质内见多发囊性密度灶，大者直径约3.0CM。另肝内动脉期见一略强化结节灶，延迟略呈等密度灶。胆囊充盈可，壁不厚。胰、脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见低密度灶，短径约1.1CM，增强局部似见强化。腹主动脉周围示淋巴结，大者短径约0.5CM。	1.结合临床，右肺下叶癌治疗后，较前(2014-12-08)病变示变化不著，周围肺不张示范围增大；右侧胸膜增厚，考虑转移，变化不著；右侧胸腔积液，较前增多；右肺转移，变化不著2.左肺上叶类结节灶，变化不著，建议观察；左肺炎症3.纵隔、腹膜后小或稍大淋巴结，较前变化不著4.肝囊肿5.右肾低密度灶，较前缩小，建议进一步检查6.肝内强化灶，较前变化不著，考虑血管瘤。</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后;部分椎体密度增高,考虑转移,较前片(2016,08,23)变化不明显2.肝囊肿3.左肺类结节,变化不明显;右肺少许纤维灶4.肝内强化灶,考虑血管瘤。肝脏大小形态可,实质内示低密度影,边界清晰,增强扫描未见强化,直径不足0.5CM。另肝左叶动脉期见一长径约0.7CM强化结节,延迟呈等密度。胆囊不大,壁不厚。胰腺、双侧肾脏、双侧肾上腺及脾未见异常。腹腔及腹膜后未见肿大淋巴结。右乳术后,术区结构紊乱,胸肌存在,壁未见增厚及异常强化。右侧腋窝结构紊乱。左侧腋窝、双侧内乳区、肺门及纵隔未见增大淋巴结。左肺见小类结节,直径不足0.5CM。右肺见少许索条影。双侧胸膜未见增厚。双侧胸腔未见积液征象。椎体局部密度增高。	</t>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后；部分椎体密度增高，考虑转移，较前片(2016，08，23)变化不明显2.肝囊肿3.左肺类结节，变化不明显；右肺少许纤维灶4.肝内强化灶，考虑血管瘤。肝脏大小形态可，实质内示低密度影，边界清晰，增强扫描未见强化，直径不足0.5CM。另肝左叶动脉期见一长径约0.7CM强化结节，延迟呈等密度。胆囊不大，壁不厚。胰腺、双侧肾脏、双侧肾上腺及脾未见异常。腹腔及腹膜后未见肿大淋巴结。右乳术后，术区结构紊乱，胸肌存在，壁未见增厚及异常强化。右侧腋窝结构紊乱。左侧腋窝、双侧内乳区、肺门及纵隔未见增大淋巴结。左肺见小类结节，直径不足0.5CM。右肺见少许索条影。双侧胸膜未见增厚。双侧胸腔未见积液征象。椎体局部密度增高。	</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌并双肺转移、肝转移治疗后,较前(2015-05-13)明显好转;双侧腋窝、纵隔多发小淋巴结,变化不著;右侧内乳区淋巴结肿大,变化不著2.左肺胸膜局限性增厚,局部钙化,变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影,约4.7CM×3.1CM,边缘浅分叶,局部与周围腺体及乳头区皮肤分界不清,胸肌间脂肪间隙模糊,增强扫描见显著不均匀强化,其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结,大者短径约0.6CM。右侧内乳区见增大淋巴结,短径约0.5CM。纵隔内左侧下肺静脉旁见短径约0.6CM的淋巴结影。双肺野散在分布大小不等结节灶,大者直径约1.7CM,边缘清晰,局部与胸膜及纵隔关系密切,增强扫描可见强化。左肺胸膜增厚,局部呈结节样;局部见多发钙化灶并致局部肋骨欠规则。扫描野肝实质内见多个低密度灶,大者直径约1.3CM,边缘尚清晰,增强扫描边缘强化显著,部分呈牛眼征。	</t>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌并双肺转移、肝转移治疗后，较前(2015-05-13)明显好转；双侧腋窝、纵隔多发小淋巴结，变化不著；右侧内乳区淋巴结肿大，变化不著2.左肺胸膜局限性增厚，局部钙化，变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影，约4.7CM×3.1CM，边缘浅分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结，大者短径约0.6CM。右侧内乳区见增大淋巴结，短径约0.5CM。纵隔内左侧下肺静脉旁见短径约0.6CM的淋巴结影。双肺野散在分布大小不等结节灶，大者直径约1.7CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左肺胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。扫描野肝实质内见多个低密度灶，大者直径约1.3CM，边缘尚清晰，增强扫描边缘强化显著，部分呈牛眼征。	</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>右乳腺体内、皮肤区、右胸壁、右腋窝及扫描野内右颈根部可见多发软组织密度灶,边缘毛糙,增强后呈不均质明显强化,部分相互融合,右腋窝者局部可见溃疡形成。右侧胸壁及右上臂软组织肿胀。左乳未见异常。左侧腋窝、双侧内乳区、气管右旁可见增大淋巴结,大者短径不足1.0CM。双肺内可见散在类圆形结节灶,边界较清晰,大者直径约0.6CM。甲状腺体积增大,局部可见低密度灶及钙化灶。右侧胸腔示少许液性密度影,双侧胸膜略增厚。扫描野内肝脏实质密度减低。胆囊充盈可,壁略厚。右侧锁骨呈内固定术后改变。右侧部分肋骨密度欠均。	1.右乳癌侵及皮肤及胸壁并右侧胸壁转移、右腋窝及右颈根部淋巴结转移治疗后,较前(2016-5-20)部分好转,部分变化不著;双肺转移,较前好转2.左侧腋窝、双侧内乳区、纵隔增大淋巴结,部分缩小,部分变化不著3.甲状腺增大伴低密度灶及钙化灶,考虑变化不著4.脂肪肝5.右侧胸腔少量积液6.右侧锁骨术后改变。</t>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>右乳腺体内、皮肤区、右胸壁、右腋窝及扫描野内右颈根部可见多发软组织密度灶，边缘毛糙，增强后呈不均质明显强化，部分相互融合，右腋窝者局部可见溃疡形成。右侧胸壁及右上臂软组织肿胀。左乳未见异常。左侧腋窝、双侧内乳区、气管右旁可见增大淋巴结，大者短径不足1.0CM。双肺内可见散在类圆形结节灶，边界较清晰，大者直径约0.6CM。甲状腺体积增大，局部可见低密度灶及钙化灶。右侧胸腔示少许液性密度影，双侧胸膜略增厚。扫描野内肝脏实质密度减低。胆囊充盈可，壁略厚。右侧锁骨呈内固定术后改变。右侧部分肋骨密度欠均。	1.右乳癌侵及皮肤及胸壁并右侧胸壁转移、右腋窝及右颈根部淋巴结转移治疗后，较前(2016-5-20)部分好转，部分变化不著；双肺转移，较前好转2.左侧腋窝、双侧内乳区、纵隔增大淋巴结，部分缩小，部分变化不著3.甲状腺增大伴低密度灶及钙化灶，考虑变化不著4.脂肪肝5.右侧胸腔少量积液6.右侧锁骨术后改变。</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>右肺下叶基底段见软组织肿块影,边缘模糊,有分叶,肿块最大截面约1.8CM×3.4CM,增强后可见显著强化;邻近胸膜可见增厚。右肺内、右侧肋胸膜、叶间胸膜及斜裂胸膜示多发结节灶,大者直径约0.3CM,增强后可见强化。左侧肺野清晰,未见异常。左锁上、纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结,短径约0.8CM。肝实质内见多发囊性密度灶,大者直径约3.0CM。胆囊充盈可,壁不厚。胰脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见囊性密度灶,短径约2.0CM。肝总动脉旁及腹主动脉周围示增大淋巴结,大者短径约0.5CM。	1.结合临床,右肺下叶癌并右侧胸膜转移较前(2014-7-4)变化不著2.右肺结节灶,考虑转移,较前变化不著3.左锁上、纵隔、腹腔淋巴结肿大,较前变化不著;腹膜后小淋巴结4.肝囊肿5.右肾囊肿。</t>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>右肺下叶基底段见软组织肿块影，边缘模糊，有分叶，肿块最大截面约1.8CM×3.4CM，增强后可见显著强化；邻近胸膜可见增厚。右肺内、右侧肋胸膜、叶间胸膜及斜裂胸膜示多发结节灶，大者直径约0.3CM，增强后可见强化。左侧肺野清晰，未见异常。左锁上、纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结，短径约0.8CM。肝实质内见多发囊性密度灶，大者直径约3.0CM。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见囊性密度灶，短径约2.0CM。肝总动脉旁及腹主动脉周围示增大淋巴结，大者短径约0.5CM。	1.结合临床，右肺下叶癌并右侧胸膜转移较前(2014-7-4)变化不著2.右肺结节灶，考虑转移，较前变化不著3.左锁上、纵隔、腹腔淋巴结肿大，较前变化不著；腹膜后小淋巴结4.肝囊肿5.右肾囊肿。</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>右肺上叶支气管壁示增厚,周围见不规则软组织肿块,增强后呈不均匀强化;右肺中叶支气管局部狭窄,远端见不张肺组织。双肺支气管血管束增粗,小叶间隔增厚,以右肺为著。双肺见多发结节灶,部分边缘毛糙,大者长径约1.4CM。双侧叶间胸膜增厚,局部呈类结节状。双侧肺门及纵隔、右侧锁骨上见大者短径约1.2CM肿大淋巴结。另右肺门及纵隔见钙化灶。左侧颈内静脉局部见低密度充盈缺损。肝内见多发强化灶,大者长径约1.2CM。另肝内见小低密度灶,强化不著。肝内见斑点状钙化灶。双侧肾上腺见类结节灶,可见强化。双肾见低密度灶,边缘不清,似强化。双肾见囊性结节。胆囊内见结节状高密度影。腹腔及腹膜后见短径约0.6CM小或稍大淋巴结。双侧肩胛骨、胸骨、右侧锁骨、多发肋骨及椎骨示多发骨质破坏。	1.结合临床,右肺癌并双肺、肝,双侧肾上腺转移,双肺门及纵隔、右侧锁骨上淋巴结转移;较前片(2016-9-22)示好转;骨转移,考虑较前进展;腹腔淋巴结稍大,变化不著;双侧叶间胸膜增厚,转移可能性大,略好转2.双肾低密度灶,略好转;双肾囊肿3.肝低密度灶,囊肿可能,变化不著;肝内钙化灶4.左颈内静脉栓子形成5.胆囊结石。</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>右肺上叶支气管壁示增厚，周围见不规则软组织肿块，增强后呈不均匀强化；右肺中叶支气管局部狭窄，远端见不张肺组织。双肺支气管血管束增粗，小叶间隔增厚，以右肺为著。双肺见多发结节灶，部分边缘毛糙，大者长径约1.4CM。双侧叶间胸膜增厚，局部呈类结节状。双侧肺门及纵隔、右侧锁骨上见大者短径约1.2CM肿大淋巴结。另右肺门及纵隔见钙化灶。左侧颈内静脉局部见低密度充盈缺损。肝内见多发强化灶，大者长径约1.2CM。另肝内见小低密度灶，强化不著。肝内见斑点状钙化灶。双侧肾上腺见类结节灶，可见强化。双肾见低密度灶，边缘不清，似强化。双肾见囊性结节。胆囊内见结节状高密度影。腹腔及腹膜后见短径约0.6CM小或稍大淋巴结。双侧肩胛骨、胸骨、右侧锁骨、多发肋骨及椎骨示多发骨质破坏。	1.结合临床，右肺癌并双肺、肝，双侧肾上腺转移，双肺门及纵隔、右侧锁骨上淋巴结转移；较前片(2016-9-22)示好转；骨转移，考虑较前进展；腹腔淋巴结稍大，变化不著；双侧叶间胸膜增厚，转移可能性大，略好转2.双肾低密度灶，略好转；双肾囊肿3.肝低密度灶，囊肿可能，变化不著；肝内钙化灶4.左颈内静脉栓子形成5.胆囊结石。</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>1、右肺下叶周围型肺癌并远端阻塞性肺炎,较2013-05-28CT未见显著变化,周边粟粒灶,左肺上叶前段结节,左肺下叶背段斜裂处结节,较前进展;右肺门、纵隔淋巴结稍大,较前相仿;2、肝内多发低密度灶;3、胸椎成骨性转移。右肺上叶可见索条影;右肺下叶可见肿块影,大小为6.73CM×5.87CM,CT值约为46HU,增强时其内密度不均,呈明显强化;边缘不规整,可见毛刺及分叶,邻近胸膜粘连;病灶周边见小粟粒灶。左肺上叶前段可见结节灶,径约1.30CM。左肺下叶背段近斜裂处见小结节影,径约0.41CM;右肺门、纵隔淋巴结增大,大者短径1.70CM。心脏大血管未见异常。胸3椎体内可见片状高密度影。肝内可见多发低密度影。</t>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>1、右肺下叶周围型肺癌并远端阻塞性肺炎，较2013-05-28CT未见显著变化，周边粟粒灶，左肺上叶前段结节，左肺下叶背段斜裂处结节，较前进展；右肺门、纵隔淋巴结稍大，较前相仿；2、肝内多发低密度灶；3、胸椎成骨性转移。右肺上叶可见索条影；右肺下叶可见肿块影，大小为6.73CM×5.87CM，CT值约为46HU，增强时其内密度不均，呈明显强化；边缘不规整，可见毛刺及分叶，邻近胸膜粘连；病灶周边见小粟粒灶。左肺上叶前段可见结节灶，径约1.30CM。左肺下叶背段近斜裂处见小结节影，径约0.41CM；右肺门、纵隔淋巴结增大，大者短径1.70CM。心脏大血管未见异常。胸3椎体内可见片状高密度影。肝内可见多发低密度影。</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>右肺下叶见不规则斑片状软组织影,边缘毛糙,大小不易测量,增强后中度强化;其远端肺野见斑片状及索条状密度增高影。余双肺可见小类结节灶,边缘模糊,大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结,大者短径约1.1CM,部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝内见一斑点状钙化灶。胆囊充盈可,壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶,大者短径约0.6CM。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。T12右侧椎弓根示斑片状密度增高影。	1.结合临床,右肺癌治疗后,较前片2015-8-25变化不著;双肺类结节灶治疗后,变化不著;右肺门、纵隔淋巴结转移治疗后,较前变化不著。2.右肺下叶炎症、纤维灶,变化不著。3.右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影,变化不著。6.颅脑CT扫描未见明显异常。</t>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。余双肺可见小类结节灶，边缘模糊，大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径约1.1CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝内见一斑点状钙化灶。胆囊充盈可，壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶，大者短径约0.6CM。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。T12右侧椎弓根示斑片状密度增高影。	1.结合临床，右肺癌治疗后，较前片2015-8-25变化不著；双肺类结节灶治疗后，变化不著；右肺门、纵隔淋巴结转移治疗后，较前变化不著。2.右肺下叶炎症、纤维灶，变化不著。3.右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影，变化不著。6.颅脑CT扫描未见明显异常。</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>左肺下叶后基底段及左肺上叶下舌段见团块影,大者大小约2.93CM×4.13CM,CT值约23HU,边界较清,边缘可见胸膜牵拉,增强扫描均匀强化,三期CT值分别约36、47、55HU。左肺可见多发实性结节,大者径约0.84CM。两肺纹理清晰。两肺门区未见异常。所示气管支气管影正常。纵隔内见稍大淋巴结,短径约1.18CM。两胸腔无积液征象,左侧胸壁可见胸膜增厚影。心脏大血管未见异常。1.左肺下叶后基底段占位,多考虑周围型肺癌、左肺多发转移;纵隔内多发稍大淋巴结;2.左侧胸膜增厚。</t>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>左肺下叶后基底段及左肺上叶下舌段见团块影，大者大小约2.93CM×4.13CM，CT值约23HU，边界较清，边缘可见胸膜牵拉，增强扫描均匀强化，三期CT值分别约36、47、55HU。左肺可见多发实性结节，大者径约0.84CM。两肺纹理清晰。两肺门区未见异常。所示气管支气管影正常。纵隔内见稍大淋巴结，短径约1.18CM。两胸腔无积液征象，左侧胸壁可见胸膜增厚影。心脏大血管未见异常。1.左肺下叶后基底段占位，多考虑周围型肺癌、左肺多发转移；纵隔内多发稍大淋巴结；2.左侧胸膜增厚。</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右侧中心型肺癌并阻塞性不张治疗后,右肺中下叶不张并右肺下动脉、肺静脉及左心房栓子形成;右肺门淋巴结肿大,较前(2015-12-1)增大;右侧胸膜增厚,考虑转移,较前明显;骨转移,变化不著;脑转移,基本变化不著2.心包积液,变化不著;右侧胸腔积液3.右侧乳腺术后改变4.肝内钙化灶5.鼻旁窦炎。右肺中下叶体积缩小、密度不均匀性增厚,支气管显示不清,部分血管变细,右肺下动脉、肺静脉及左心房示充盈缺损影。右肺支气管血管束增粗,余双肺内示索条影。右侧胸膜增厚并可见强化。右侧胸腔及心包内示液性密度影。右侧乳腺术后缺如,术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区未见明显肿大淋巴结。右肺门示增大淋巴结,与周围结构分界不清。双锁上见增大淋巴结,大者短径约0.9CM。纵隔内4R、4L、5区、7区见多发小淋巴结,大者短径约0.5CM。肝内示颗粒状钙化密度影。胆囊、胰腺、脾、扫描野内双肾及肾上腺未见明显异常。腹腔、腹膜后未见肿大淋巴结。左侧大脑内示结节、肿块影,大者截面约2.9CM×3.4CM,其内呈囊性密度灶,增强扫描呈边缘环形强化;周围示片状无强化的低密度水肿带,邻近侧脑室局部略示受压。中线结构无移位。双侧上颌窦及筛窦内示液体密度影。骨窗:胸骨、部分椎骨骨质密度不均匀增高。	</t>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右侧中心型肺癌并阻塞性不张治疗后，右肺中下叶不张并右肺下动脉、肺静脉及左心房栓子形成；右肺门淋巴结肿大，较前(2015-12-1)增大；右侧胸膜增厚，考虑转移，较前明显；骨转移，变化不著；脑转移，基本变化不著2.心包积液，变化不著；右侧胸腔积液3.右侧乳腺术后改变4.肝内钙化灶5.鼻旁窦炎。右肺中下叶体积缩小、密度不均匀性增厚，支气管显示不清，部分血管变细，右肺下动脉、肺静脉及左心房示充盈缺损影。右肺支气管血管束增粗，余双肺内示索条影。右侧胸膜增厚并可见强化。右侧胸腔及心包内示液性密度影。右侧乳腺术后缺如，术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区未见明显肿大淋巴结。右肺门示增大淋巴结，与周围结构分界不清。双锁上见增大淋巴结，大者短径约0.9CM。纵隔内4R、4L、5区、7区见多发小淋巴结，大者短径约0.5CM。肝内示颗粒状钙化密度影。胆囊、胰腺、脾、扫描野内双肾及肾上腺未见明显异常。腹腔、腹膜后未见肿大淋巴结。左侧大脑内示结节、肿块影，大者截面约2.9CM×3.4CM，其内呈囊性密度灶，增强扫描呈边缘环形强化；周围示片状无强化的低密度水肿带，邻近侧脑室局部略示受压。中线结构无移位。双侧上颌窦及筛窦内示液体密度影。骨窗：胸骨、部分椎骨骨质密度不均匀增高。	</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>左乳术后缺如,胸肌尚存,左侧胸大小肌之间见一软组织肿块影,边缘模糊,直径约1.7CM,增强后示中度不均质强化。另于前胸壁皮肤局部增厚呈软组织密度影,增强后示中度强化。左锁上、左肺门、纵隔内右上气管旁、主肺动脉窗区、腔静脉后方、气管隆突下小淋巴结,大者短径不足1.0CM。双肺见小结节灶(图6-19、26、27、35),直径不足0.5CM,增强后示强化。肝左外叶内见一低密度灶,边缘略示模糊,大者直径不足0.5CM。胆囊充盈可,壁不厚。胰脾、双侧肾上腺及右肾未见异常。左肾缺如。腹腔及腹膜后未见明显肿大淋巴结。骨窗示:胸骨、部分胸腰椎椎体、肋骨见骨质破坏区,骶骨未见明显异常。	结合临床,左乳癌术后,术区复发并前胸壁转移2.左锁上、左肺门、纵隔淋巴结肿大3.双肺转移4.多发骨转移。</t>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>左乳术后缺如，胸肌尚存，左侧胸大小肌之间见一软组织肿块影，边缘模糊，直径约1.7CM，增强后示中度不均质强化。另于前胸壁皮肤局部增厚呈软组织密度影，增强后示中度强化。左锁上、左肺门、纵隔内右上气管旁、主肺动脉窗区、腔静脉后方、气管隆突下小淋巴结，大者短径不足1.0CM。双肺见小结节灶(图6-19、26、27、35)，直径不足0.5CM，增强后示强化。肝左外叶内见一低密度灶，边缘略示模糊，大者直径不足0.5CM。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及右肾未见异常。左肾缺如。腹腔及腹膜后未见明显肿大淋巴结。骨窗示：胸骨、部分胸腰椎椎体、肋骨见骨质破坏区，骶骨未见明显异常。	结合临床，左乳癌术后，术区复发并前胸壁转移2.左锁上、左肺门、纵隔淋巴结肿大3.双肺转移4.多发骨转移。</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>右肺下叶背段可见软组织密度结节灶,大小约1.6CM×2.6CM,边缘毛糙,紧贴纵隔胸膜;增强后结节呈较明显强化。右侧胸膜示不规则增厚。右侧胸腔内可见少许液性密度影。右侧下叶示局限性实变。纵隔内未见肿大淋巴结。肝脏大小形态可,实质均质。胆囊充盈可,壁不厚。胰腺、脾及双肾大小形态密度未见异常。腹腔、腹膜后未见肿大淋巴结。腹腔内未见积液征象。膀胱充盈可,壁不厚。子宫及附件区未见异常。盆腔内未见肿大淋巴结。	1.结合临床,右肺癌并右侧胸膜转移,右侧胸腔积液伴右肺局限性实变2.腹盆部扫描未见异常。</t>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>右肺下叶背段可见软组织密度结节灶，大小约1.6CM×2.6CM，边缘毛糙，紧贴纵隔胸膜；增强后结节呈较明显强化。右侧胸膜示不规则增厚。右侧胸腔内可见少许液性密度影。右侧下叶示局限性实变。纵隔内未见肿大淋巴结。肝脏大小形态可，实质均质。胆囊充盈可，壁不厚。胰腺、脾及双肾大小形态密度未见异常。腹腔、腹膜后未见肿大淋巴结。腹腔内未见积液征象。膀胱充盈可，壁不厚。子宫及附件区未见异常。盆腔内未见肿大淋巴结。	1.结合临床，右肺癌并右侧胸膜转移，右侧胸腔积液伴右肺局限性实变2.腹盆部扫描未见异常。</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>右肺下叶背段见不规则软组织影,大小约6.0CM×4.8CM,边缘见分叶征,其内密度不均匀,可见空洞形成,与邻近胸膜关系明确,右肺上叶(3-17、20)及左肺下叶(3-37)结节影,大者直径约0.4CM。纵隔内4R、4L、7及双肺门示多发结节灶,大者短径约1.2CM。胸廓骨质未见破坏。右侧甲状腺体积增大,向下凸入右上纵隔,其内密度边界,可见低密度区,周围散在点状致密灶。右侧基底节区近外囊处示一结节灶低密度灶,边界较清,长径约0.9CM,余脑实质内未见异常密度影,脑沟、脑池未见增宽或狭窄,脑室大小、形态,位置正常,中线结构居中。增强:脑实质未见异常强化,脑沟、脑池、脑室内未见异常。	1.右肺下叶肺癌累及胸膜并右肺门、纵隔淋巴结转移2.右肺小结节灶,不除外转移3.甲状腺体积增大并密度不均匀,考虑为结节性甲状腺肿4.右侧基底节区腔隙性脑梗塞5.双肺气肿。</t>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>右肺下叶背段见不规则软组织影，大小约6.0CM×4.8CM，边缘见分叶征，其内密度不均匀，可见空洞形成，与邻近胸膜关系明确，右肺上叶(3-17、20)及左肺下叶(3-37)结节影，大者直径约0.4CM。纵隔内4R、4L、7及双肺门示多发结节灶，大者短径约1.2CM。胸廓骨质未见破坏。右侧甲状腺体积增大，向下凸入右上纵隔，其内密度边界，可见低密度区，周围散在点状致密灶。右侧基底节区近外囊处示一结节灶低密度灶，边界较清，长径约0.9CM，余脑实质内未见异常密度影，脑沟、脑池未见增宽或狭窄，脑室大小、形态，位置正常，中线结构居中。增强：脑实质未见异常强化，脑沟、脑池、脑室内未见异常。	1.右肺下叶肺癌累及胸膜并右肺门、纵隔淋巴结转移2.右肺小结节灶，不除外转移3.甲状腺体积增大并密度不均匀，考虑为结节性甲状腺肿4.右侧基底节区腔隙性脑梗塞5.双肺气肿。</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.右肺癌,较前2014-8-18变化不著2.纵隔淋巴结转移,变化不著3.右侧叶间胸膜结节,考虑转移,变化不著4.右肺内小结节,变化不著5.右肺门淋巴结肿大6.左肺下叶钙化结节灶;左肺尖类结节灶,可能为纤维灶7.甲状腺右侧叶体积增大,考虑结节性甲状腺肿8.T3椎体骨质密度不均,较前变化不著。右肺上叶见一软组织密度结节灶,大小约2.6CM×1.8CM,其边缘浅分叶,并见细毛刺,外缘见胸膜凹陷征;增强后病变呈中等不均匀强化。左肺下叶见一长径约0.4CM钙化结节灶(图4-32),边缘清晰。右肺内见少许小结节,边缘清晰,直径不足0.5CM。右侧水平裂及斜裂见多发小结节灶,边缘清晰,直径不足1.0CM。左肺尖(4-14)示一类结节灶,边界清,密度略高,直径约0.2CM。右肺门区见短径约0.9CM淋巴结。纵隔内4R见增大淋巴结,大者短径约1.9CM。甲状腺右侧叶体积增大,其内见钙化结节灶。双侧胸腔未见液性密度影。骨窗示:T3椎体局部骨质密度不均。	</t>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.右肺癌，较前2014-8-18变化不著2.纵隔淋巴结转移，变化不著3.右侧叶间胸膜结节，考虑转移，变化不著4.右肺内小结节，变化不著5.右肺门淋巴结肿大6.左肺下叶钙化结节灶；左肺尖类结节灶，可能为纤维灶7.甲状腺右侧叶体积增大，考虑结节性甲状腺肿8.T3椎体骨质密度不均，较前变化不著。右肺上叶见一软组织密度结节灶，大小约2.6CM×1.8CM，其边缘浅分叶，并见细毛刺，外缘见胸膜凹陷征；增强后病变呈中等不均匀强化。左肺下叶见一长径约0.4CM钙化结节灶(图4-32)，边缘清晰。右肺内见少许小结节，边缘清晰，直径不足0.5CM。右侧水平裂及斜裂见多发小结节灶，边缘清晰，直径不足1.0CM。左肺尖(4-14)示一类结节灶，边界清，密度略高，直径约0.2CM。右肺门区见短径约0.9CM淋巴结。纵隔内4R见增大淋巴结，大者短径约1.9CM。甲状腺右侧叶体积增大，其内见钙化结节灶。双侧胸腔未见液性密度影。骨窗示：T3椎体局部骨质密度不均。	</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后改变,较前(2016-3-25)变化不著;肝转移;考虑骨转移2.右肺局限性纤维灶3.右肺小结节灶部分变化不著,部分增大,考虑转移4.考虑肝囊肿5.胆囊炎6.胰头部密度略减低,建议观察7.右肾囊肿。右乳术后,术区结构紊乱,周围间隙模糊,皮下可见少许片絮状密度增高影,胸壁未见明显增厚。右侧腋窝结构紊乱,未见异常强化。左乳形态、密度未见异常,右侧腋窝见小淋巴结,短径不足0.5CM。左腋窝、双侧颈后三角区及左侧锁骨上示短径不足1.0CM淋巴结。双侧内乳区、肺门及纵隔未见增大淋巴结。右肺野内见数个小结节灶,大者长径约0.6CM(肺窗)。另右肺近前胸壁下示条片影。甲状腺右叶密度减低。肝内示多发低密度灶,边缘模糊。另肝内示类囊性密度灶。胆囊壁增厚。胰头部密度略减低。右肾示囊性密度灶。腹腔、腹膜后未见肿大淋巴结。部分椎骨密度不均,以T10为著。	</t>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后改变，较前(2016-3-25)变化不著；肝转移；考虑骨转移2.右肺局限性纤维灶3.右肺小结节灶部分变化不著，部分增大，考虑转移4.考虑肝囊肿5.胆囊炎6.胰头部密度略减低，建议观察7.右肾囊肿。右乳术后，术区结构紊乱，周围间隙模糊，皮下可见少许片絮状密度增高影，胸壁未见明显增厚。右侧腋窝结构紊乱，未见异常强化。左乳形态、密度未见异常，右侧腋窝见小淋巴结，短径不足0.5CM。左腋窝、双侧颈后三角区及左侧锁骨上示短径不足1.0CM淋巴结。双侧内乳区、肺门及纵隔未见增大淋巴结。右肺野内见数个小结节灶，大者长径约0.6CM(肺窗)。另右肺近前胸壁下示条片影。甲状腺右叶密度减低。肝内示多发低密度灶，边缘模糊。另肝内示类囊性密度灶。胆囊壁增厚。胰头部密度略减低。右肾示囊性密度灶。腹腔、腹膜后未见肿大淋巴结。部分椎骨密度不均，以T10为著。	</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>与2013-10-28前片对比:1.左肺下叶中央型肺癌并阻塞性肺炎与阻塞性肺不张,左下肺动静脉受侵,纵隔及左肺门淋巴结转移,较前进展;2.双肺下叶多发类圆形小结节,考虑转移瘤,较前相仿;3.双肺弥漫性间质纤维化,较前进展;4.双侧胸膜增厚,左侧胸腔积液,较前新发。左肺下叶背段可见肿块影,边界模糊,径约8.46CM×8.21CM,平扫CT值约24-42HU,增强实性部分轻度强化,囊性低密度部分不强化,CT值约为14-54HU,22-66HU,16-44HU;左肺下叶部分支气管截断,左侧肺门可见增大淋巴结,左下肺动静脉受侵,侵及胸膜;双肺下叶及胸膜下多发类圆形小结节影,大者径约1.37CM×1.59CM;双肺小叶间隔增厚,近胸膜处多发囊状无肺纹理透亮区,纵膈内可见增大淋巴结,大者径约1.87CM×1.40CM。左侧胸腔可见弧形低密度影,双侧胸膜增厚心脏大血管未见异常。</t>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>与2013-10-28前片对比：1.左肺下叶中央型肺癌并阻塞性肺炎与阻塞性肺不张，左下肺动静脉受侵，纵隔及左肺门淋巴结转移，较前进展；2.双肺下叶多发类圆形小结节，考虑转移瘤，较前相仿；3.双肺弥漫性间质纤维化，较前进展；4.双侧胸膜增厚，左侧胸腔积液，较前新发。左肺下叶背段可见肿块影，边界模糊，径约8.46CM×8.21CM，平扫CT值约24-42HU，增强实性部分轻度强化，囊性低密度部分不强化，CT值约为14-54HU，22-66HU，16-44HU；左肺下叶部分支气管截断，左侧肺门可见增大淋巴结，左下肺动静脉受侵，侵及胸膜；双肺下叶及胸膜下多发类圆形小结节影，大者径约1.37CM×1.59CM；双肺小叶间隔增厚，近胸膜处多发囊状无肺纹理透亮区，纵膈内可见增大淋巴结，大者径约1.87CM×1.40CM。左侧胸腔可见弧形低密度影，双侧胸膜增厚心脏大血管未见异常。</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.考虑右乳癌;右侧腋窝淋巴结肿大,考虑转移2.甲状腺低密度灶,考虑良性,建议观察3.上腹部扫描未见异常。右乳外上象限见一软组织密度结节灶,长径约3.3CM,边缘毛刺,与正常腺体分界不清,同侧皮肤显示增厚,增强扫描病变呈较显著强化。右侧腋窝见多发肿大淋巴结,大者短径约0.9CM,增强扫描可见强化。左乳未见异常。左侧腋窝及双侧内乳区未见肿大淋巴结。双侧肺野清晰。纵隔及双肺门未见肿大淋巴结。双锁上见大者短径不足0.5CM小淋巴结。扫描野内甲状腺右叶见一低密度灶,直径约1.1CM,边界较清,增强扫描强化不著。肝脏形态、大小正常,实质密度均质。胆囊充盈可,壁不厚。胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。	</t>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.考虑右乳癌；右侧腋窝淋巴结肿大，考虑转移2.甲状腺低密度灶，考虑良性，建议观察3.上腹部扫描未见异常。右乳外上象限见一软组织密度结节灶，长径约3.3CM，边缘毛刺，与正常腺体分界不清，同侧皮肤显示增厚，增强扫描病变呈较显著强化。右侧腋窝见多发肿大淋巴结，大者短径约0.9CM，增强扫描可见强化。左乳未见异常。左侧腋窝及双侧内乳区未见肿大淋巴结。双侧肺野清晰。纵隔及双肺门未见肿大淋巴结。双锁上见大者短径不足0.5CM小淋巴结。扫描野内甲状腺右叶见一低密度灶，直径约1.1CM，边界较清，增强扫描强化不著。肝脏形态、大小正常，实质密度均质。胆囊充盈可，壁不厚。胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合病史,左乳癌并左腋窝、左颈部淋巴结清扫术后改变,肝、骨多发转移伴FDG高代谢2.左前胸壁FDG略高代谢,为放疗后改变3.双肺多发小结节,未见异常代谢,较自带既往CT片(2015-2-11)变化不著,考虑陈旧结节;左肺纤维炎性变伴FDG高代谢;双肺门及纵隔炎性淋巴结伴FDG略高代谢4.胆囊小结石或钙化。静脉注射示踪剂FDG后60MMIN行PET/CT显像。PET/CT图像示左乳术后缺如,左前胸壁呈轻度斑片状放射性摄取,最高SUV2.0。左肺尖及左肺上叶近前胸膜下示斑片状实变影及纤维索条影,伴斑片状放射性摄取增高,以左肺尖为著,最高SUV6.0;双肺胸膜下示数个小结节,大者长径约0.5CM,均未见异常放射性摄取。双肺门及纵隔示放射性摄取略增高的淋巴结,最高SUV4.2。脑实质内未见明显异常。左颈部淋巴结清扫术后,术区结构紊乱,未见异常放射性摄取。鼻咽、口咽、下咽及喉部未见明显异常放射性浓聚灶。甲状腺两叶不大,形态可,腺实质内未见异常放射性浓聚灶。肝内示多发大小不一的圆形结节伴异常放射性摄取增高,大者长径约1.4CM,最高SUV12.8。胆囊大小正常,近胆囊壁局部示点状高密度影。肝门结构正常。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。胃充盈好,胃壁显影如常。腹部可见条索状肠影。腹腔、腹膜后未见明显肿大或放射性摄取异常增高的淋巴结。腹水征阴性。膀胱内示放射性尿液充填。子宫形态尚可,局部无异常放射性浓聚。两侧附件区未见异常放射性摄取。两侧腹股沟无异常淋巴结显示。L3、L4、骶骨椎体或附件示数个放射性浓聚灶,最高SUV5.4,局部骨质密度未见明显异常。	</t>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合病史，左乳癌并左腋窝、左颈部淋巴结清扫术后改变，肝、骨多发转移伴FDG高代谢2.左前胸壁FDG略高代谢，为放疗后改变3.双肺多发小结节，未见异常代谢，较自带既往CT片(2015-2-11)变化不著，考虑陈旧结节；左肺纤维炎性变伴FDG高代谢；双肺门及纵隔炎性淋巴结伴FDG略高代谢4.胆囊小结石或钙化。静脉注射示踪剂FDG后60MMIN行PET/CT显像。PET/CT图像示左乳术后缺如，左前胸壁呈轻度斑片状放射性摄取，最高SUV2.0。左肺尖及左肺上叶近前胸膜下示斑片状实变影及纤维索条影，伴斑片状放射性摄取增高，以左肺尖为著，最高SUV6.0；双肺胸膜下示数个小结节，大者长径约0.5CM，均未见异常放射性摄取。双肺门及纵隔示放射性摄取略增高的淋巴结，最高SUV4.2。脑实质内未见明显异常。左颈部淋巴结清扫术后，术区结构紊乱，未见异常放射性摄取。鼻咽、口咽、下咽及喉部未见明显异常放射性浓聚灶。甲状腺两叶不大，形态可，腺实质内未见异常放射性浓聚灶。肝内示多发大小不一的圆形结节伴异常放射性摄取增高，大者长径约1.4CM，最高SUV12.8。胆囊大小正常，近胆囊壁局部示点状高密度影。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。胃充盈好，胃壁显影如常。腹部可见条索状肠影。腹腔、腹膜后未见明显肿大或放射性摄取异常增高的淋巴结。腹水征阴性。膀胱内示放射性尿液充填。子宫形态尚可，局部无异常放射性浓聚。两侧附件区未见异常放射性摄取。两侧腹股沟无异常淋巴结显示。L3、L4、骶骨椎体或附件示数个放射性浓聚灶，最高SUV5.4，局部骨质密度未见明显异常。	</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>1、右肺上叶中心型肺癌,纵隔内及右肺门多发淋巴结转移;2、右肺下叶基底段小结节,考虑陈旧灶,请随诊;3、左肺术后改变。右肺上叶可见类圆形软组织肿块影,边缘不规整,病灶边缘可见毛刺,大小约9.22CM×6.44CM,CT值约35HU;增强扫描可见不规则强化,三期CT值约45HU,73HU,78HU,中心可见片状条状低密度影。右肺上叶支气管可见阻塞狭窄征象。右肺下叶外基底段可见结节状密度增高影,边界欠清,长径约0.52CM;左肺体积变小,左肺可见多个条索状密度增高影,边界不清;双肺纹理增强,两肺门大小、形态未见明显异常。纵隔内及右侧肺门可见多个肿大淋巴结影,心影不大,大血管管壁可见钙化。左侧胸膜可见明显增厚,未见胸腔积液征象。左侧第4肋形态欠规整。</t>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>1、右肺上叶中心型肺癌，纵隔内及右肺门多发淋巴结转移；2、右肺下叶基底段小结节，考虑陈旧灶，请随诊；3、左肺术后改变。右肺上叶可见类圆形软组织肿块影，边缘不规整，病灶边缘可见毛刺，大小约9.22CM×6.44CM，CT值约35HU；增强扫描可见不规则强化，三期CT值约45HU，73HU，78HU，中心可见片状条状低密度影。右肺上叶支气管可见阻塞狭窄征象。右肺下叶外基底段可见结节状密度增高影，边界欠清，长径约0.52CM；左肺体积变小，左肺可见多个条索状密度增高影，边界不清；双肺纹理增强，两肺门大小、形态未见明显异常。纵隔内及右侧肺门可见多个肿大淋巴结影，心影不大，大血管管壁可见钙化。左侧胸膜可见明显增厚，未见胸腔积液征象。左侧第4肋形态欠规整。</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>1.结合临床,左乳癌术后;骨转移2.肝右后叶片状密度增高影,考虑动静脉瘘形成3.胆囊结石4.左侧肾上腺结节灶,转移待排,建议密切观察5.脂肪肝以上均较前(2014-10-13)片变化不著左乳术后,术区结构紊乱,肌肉,密度欠均质,术区未见异常强化灶。左侧腋窝结构紊乱。右乳未见异常。双侧内乳区、双侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰,未见结节及异常强化灶。肝脏密度减低;肝右后叶内见片状密度增高影,其强化方式与同层腹主动脉相似。胆囊充盈可,其内见点状致密影。胰、脾、右侧肾上腺及扫描范围内双肾未见异常。左侧肾上腺见软组织结节灶,短径约1.3CM,增强后轻度强化。骨窗示胸骨及T12胸椎示混合性骨质破坏。</t>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>1.结合临床，左乳癌术后；骨转移2.肝右后叶片状密度增高影，考虑动静脉瘘形成3.胆囊结石4.左侧肾上腺结节灶，转移待排，建议密切观察5.脂肪肝以上均较前(2014-10-13)片变化不著左乳术后，术区结构紊乱，肌肉，密度欠均质，术区未见异常强化灶。左侧腋窝结构紊乱。右乳未见异常。双侧内乳区、双侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰，未见结节及异常强化灶。肝脏密度减低；肝右后叶内见片状密度增高影，其强化方式与同层腹主动脉相似。胆囊充盈可，其内见点状致密影。胰、脾、右侧肾上腺及扫描范围内双肾未见异常。左侧肾上腺见软组织结节灶，短径约1.3CM，增强后轻度强化。骨窗示胸骨及T12胸椎示混合性骨质破坏。</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>1.结合临床,右乳癌术后复发并右侧锁骨上、腋窝、胸肌后方、内乳区淋巴结转移2.左侧锁骨上区密度增高影,建议观察3.肝内低密度灶,转移不除外,肝内强化灶,不典型血管瘤不除外,建议MRI检查定性4.左肾囊肿5.小脑蚓部环状密度增高影,建议MRI检查定性6.胸椎局限性骨质稀疏,建议骨扫描定性右乳术后,术区可见多发软组织肿块影,部分隆起于表面,大者约1.4CM×2.4CM,增强扫描中等不均匀性强化。左乳未见异常。双肺清晰。右侧锁骨后方、右侧腋窝、胸肌后方、右侧内乳区可见软组织肿块影,大者短径约2.7CM,边界不清,轻度强化,部分与胸膜及肋软骨关系密切,局部肋软骨骨质略示稀疏。左侧锁骨上区可见片状密度增高影,边缘可见多发结节状钙化灶,增强扫描无明显强化。肝内似可见多发略低密度灶,边缘模糊。肝左右叶交界区似可见一结节状强化灶(9-46),直径约0.6CM。左肾可见囊性密度灶。腹腔腹膜后未见肿大淋巴结。小脑蚓部可见一环状密度增高影(12-17),直径约0.4CM。余脑实质未见显著异常。中线结构居中。骨窗部分胸椎椎体及附件骨质局限性稀疏。</t>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>1.结合临床，右乳癌术后复发并右侧锁骨上、腋窝、胸肌后方、内乳区淋巴结转移2.左侧锁骨上区密度增高影，建议观察3.肝内低密度灶，转移不除外，肝内强化灶，不典型血管瘤不除外，建议MRI检查定性4.左肾囊肿5.小脑蚓部环状密度增高影，建议MRI检查定性6.胸椎局限性骨质稀疏，建议骨扫描定性右乳术后，术区可见多发软组织肿块影，部分隆起于表面，大者约1.4CM×2.4CM，增强扫描中等不均匀性强化。左乳未见异常。双肺清晰。右侧锁骨后方、右侧腋窝、胸肌后方、右侧内乳区可见软组织肿块影，大者短径约2.7CM，边界不清，轻度强化，部分与胸膜及肋软骨关系密切，局部肋软骨骨质略示稀疏。左侧锁骨上区可见片状密度增高影，边缘可见多发结节状钙化灶，增强扫描无明显强化。肝内似可见多发略低密度灶，边缘模糊。肝左右叶交界区似可见一结节状强化灶(9-46)，直径约0.6CM。左肾可见囊性密度灶。腹腔腹膜后未见肿大淋巴结。小脑蚓部可见一环状密度增高影(12-17)，直径约0.4CM。余脑实质未见显著异常。中线结构居中。骨窗部分胸椎椎体及附件骨质局限性稀疏。</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>右肺上叶尖段可见分叶状肿块,最大横断面径约3.6CM×2.7CM,其内密度尚均匀,CT值54HU,增强扫描可见不均匀强化,三期CT值为54、67、75HU,部分区域强化不明显,周围可见毛刺及血管集束,右肺上叶前段可见索条灶,右肺中叶内侧段及左肺舌叶可见结节影,余双肺支气管血管束增粗,胸膜下可见网格影及胸膜下线、间隔旁肺气肿。两肺门区未见异常。所示气管支气管通畅。纵隔内可见增大的淋巴结。两胸腔无积液征象。冠脉可见钙化灶。双侧胸膜增厚。右侧第2、3胸椎椎体及附件、第2肋骨质破坏并软组织肿块形成,右侧第8、9肋、下位胸椎骨骨质破坏,右侧第3-6肋骨陈旧骨折。1.右肺上叶尖段周围型肺癌,纵隔淋巴结转移,多个胸椎与多发肋骨转移;2.右肺上叶前段索条灶;右肺中叶及左肺上叶多发结节,随诊;3.双肺间质纤维化;双侧胸膜肥厚;4.胆囊结石。</t>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>右肺上叶尖段可见分叶状肿块，最大横断面径约3.6CM×2.7CM，其内密度尚均匀，CT值54HU，增强扫描可见不均匀强化，三期CT值为54、67、75HU，部分区域强化不明显，周围可见毛刺及血管集束，右肺上叶前段可见索条灶，右肺中叶内侧段及左肺舌叶可见结节影，余双肺支气管血管束增粗，胸膜下可见网格影及胸膜下线、间隔旁肺气肿。两肺门区未见异常。所示气管支气管通畅。纵隔内可见增大的淋巴结。两胸腔无积液征象。冠脉可见钙化灶。双侧胸膜增厚。右侧第2、3胸椎椎体及附件、第2肋骨质破坏并软组织肿块形成，右侧第8、9肋、下位胸椎骨骨质破坏，右侧第3-6肋骨陈旧骨折。1.右肺上叶尖段周围型肺癌，纵隔淋巴结转移，多个胸椎与多发肋骨转移；2.右肺上叶前段索条灶；右肺中叶及左肺上叶多发结节，随诊；3.双肺间质纤维化；双侧胸膜肥厚；4.胆囊结石。</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌,较前(2015-06-23)片基本变化不著;双肺转移,较前部分缩小,部分变化不著,部分略增大;肝转移,较前好转;双侧腋窝、纵隔多发小淋巴结,变化不著;右侧内乳区饱满,变化不著;脑多发转移2.左肺胸膜局限性增厚,局部钙化,变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影,约4.6CM×3.2CM,边缘浅分叶,局部与周围腺体及乳头区皮肤分界不清,胸肌间脂肪间隙模糊,增强扫描见显著不均匀强化,其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结,大者短径约0.6CM。右侧内乳区显示饱满。纵隔内左侧下肺静脉旁及下段食管旁见小淋巴结影。双肺野散在分布大小不等结节灶,大者直径约1.7CM,边缘清晰,局部与胸膜及纵隔关系密切,增强扫描可见强化。左肺胸膜增厚,局部呈结节样;局部见多发钙化灶并致局部肋骨欠规则。扫描野肝实质内见多个低密度灶,大者直径约0.8CM,边缘尚清晰,增强扫描边缘强化显著。脑实质内示多发结节灶,大者直径约0.7CM,增强扫描可见环形强化。脑室池无扩张。脑沟回无增宽。中线结构居中。	</t>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌，较前(2015-06-23)片基本变化不著；双肺转移，较前部分缩小，部分变化不著，部分略增大；肝转移，较前好转；双侧腋窝、纵隔多发小淋巴结，变化不著；右侧内乳区饱满，变化不著；脑多发转移2.左肺胸膜局限性增厚，局部钙化，变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影，约4.6CM×3.2CM，边缘浅分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结，大者短径约0.6CM。右侧内乳区显示饱满。纵隔内左侧下肺静脉旁及下段食管旁见小淋巴结影。双肺野散在分布大小不等结节灶，大者直径约1.7CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左肺胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。扫描野肝实质内见多个低密度灶，大者直径约0.8CM，边缘尚清晰，增强扫描边缘强化显著。脑实质内示多发结节灶，大者直径约0.7CM，增强扫描可见环形强化。脑室池无扩张。脑沟回无增宽。中线结构居中。	</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>1.结合临床,左乳癌治疗后改变,胸肌局部强化灶,较前(2017-1-6)增大;左腋窝及左锁骨上小淋巴结;肝转移治疗后,变化不著;骨转移,变化不著2.右乳钙化灶;右腋窝略增大淋巴结,变化不著3.双肺纤维灶4.甲状腺低密度灶左乳结构紊乱,强化欠均质,局部见可见片状较低密度灶,边缘清晰,左腋窝结构紊乱并可见片状影,左腋窝(5-21)及左侧锁骨上示大者短径约0.5CM小淋巴结。左侧胸肌局部见结节状强化灶,边缘模糊。右乳可见数个大小不一的钙化灶,右腋窝内可见数个结节灶,大者短径约0.6CM。双肺内示少许索条影。纵隔内未见明显肿大淋巴结。甲状腺内示低密度灶。肝内S4段示一低密度灶,边缘有强化,直径约0.6CM。余肝内示小类囊性密度灶。胆囊胰脾双肾未见异常。腹腔及腹膜后未见肿大淋巴结。胸骨、部分椎骨及左第五后肋显示骨质破坏。</t>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>1.结合临床，左乳癌治疗后改变，胸肌局部强化灶，较前(2017-1-6)增大；左腋窝及左锁骨上小淋巴结；肝转移治疗后，变化不著；骨转移，变化不著2.右乳钙化灶；右腋窝略增大淋巴结，变化不著3.双肺纤维灶4.甲状腺低密度灶左乳结构紊乱，强化欠均质，局部见可见片状较低密度灶，边缘清晰，左腋窝结构紊乱并可见片状影，左腋窝(5-21)及左侧锁骨上示大者短径约0.5CM小淋巴结。左侧胸肌局部见结节状强化灶，边缘模糊。右乳可见数个大小不一的钙化灶，右腋窝内可见数个结节灶，大者短径约0.6CM。双肺内示少许索条影。纵隔内未见明显肿大淋巴结。甲状腺内示低密度灶。肝内S4段示一低密度灶，边缘有强化，直径约0.6CM。余肝内示小类囊性密度灶。胆囊胰脾双肾未见异常。腹腔及腹膜后未见肿大淋巴结。胸骨、部分椎骨及左第五后肋显示骨质破坏。</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>1.纵隔右侧占位,合并淋巴结转移,考虑侵袭性胸腺瘤;支气管炎征象;右侧胸腔积液;较前2015-07-08CT新发;2.左肺下叶磨玻璃灶,较前相仿,请结合临床;双肺多发粟粒灶,部分钙化,较前相仿;3.下位胸椎体内高密度影,较前相仿。双肺血管支气管束增强、模糊。双肺见多个斑点状粟粒影,部分呈致密影。左肺下叶内基底段(H101)见一磨玻璃影,大小为1.40CM×1.2CM,其内见血管影穿行。纵隔右侧见不规则软组织密度影,大小约5.8CM×3.8CM,平扫CT值约34HU,三期增强值分别是50、42、65HU.右肺叶间裂增厚。纵隔、腋窝内见明显增大的淋巴结,较大者短径约1.8CM。右侧胸腔积液征象。心脏不大,部分大血管壁见钙化。下位胸椎体内高密度影。</t>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>1.纵隔右侧占位，合并淋巴结转移，考虑侵袭性胸腺瘤；支气管炎征象；右侧胸腔积液；较前2015-07-08CT新发；2.左肺下叶磨玻璃灶，较前相仿，请结合临床；双肺多发粟粒灶，部分钙化，较前相仿；3.下位胸椎体内高密度影，较前相仿。双肺血管支气管束增强、模糊。双肺见多个斑点状粟粒影，部分呈致密影。左肺下叶内基底段(H101)见一磨玻璃影，大小为1.40CM×1.2CM，其内见血管影穿行。纵隔右侧见不规则软组织密度影，大小约5.8CM×3.8CM，平扫CT值约34HU，三期增强值分别是50、42、65HU.右肺叶间裂增厚。纵隔、腋窝内见明显增大的淋巴结，较大者短径约1.8CM。右侧胸腔积液征象。心脏不大，部分大血管壁见钙化。下位胸椎体内高密度影。</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>右乳癌术后,术区结构紊乱,局部增强前后未见明显占位性病灶。肝左右叶可见多发大小不等病灶,T1WI呈略低信号,T2WI及压脂像呈略高信号,DWI呈高信号,增强扫描病灶呈不均匀强化,大者约0.7CM位于左外叶。肝实质内及双肾实质内可见散在囊性结节,边界清楚,无强化,大者约1.0CM位于左肾。胆囊不大。脾、胰腺增强前后未见异常信号区。腹膜后未见明显肿大淋巴结。所扫部分椎体可见斑片状骨质破坏区,呈长T1短T2信号,压脂像及DWI为高信号,不均匀强化。余未见异常。	1.结合病史,右乳癌术后,肝(多发)及椎体转移,较本院(2016-01-11)MR片示肝转移明显好转。2.肝及双肾囊肿。</t>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>右乳癌术后，术区结构紊乱，局部增强前后未见明显占位性病灶。肝左右叶可见多发大小不等病灶，T1WI呈略低信号，T2WI及压脂像呈略高信号，DWI呈高信号，增强扫描病灶呈不均匀强化，大者约0.7CM位于左外叶。肝实质内及双肾实质内可见散在囊性结节，边界清楚，无强化，大者约1.0CM位于左肾。胆囊不大。脾、胰腺增强前后未见异常信号区。腹膜后未见明显肿大淋巴结。所扫部分椎体可见斑片状骨质破坏区，呈长T1短T2信号，压脂像及DWI为高信号，不均匀强化。余未见异常。	1.结合病史，右乳癌术后，肝(多发)及椎体转移，较本院(2016-01-11)MR片示肝转移明显好转。2.肝及双肾囊肿。</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>右乳术后,前胸壁软组织略增厚,未见明显异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺门、纵隔内主肺动脉窗区可见肿大淋巴结,直径约1.8CM。右肺门淋巴结略增大,短径约0.8CM。左肺上叶支气管受压狭窄,远端肺野近纵隔旁可见带状密度增高影,另双肺内见斑片状密度增高影,右肺下叶为著。余双肺散在小结节灶,大者直径约0.4CM。双侧胸膜略增厚。甲状腺示斑片状低密度灶。扫描野内肝左叶示小类圆形低密度灶(3-45),强化不著,边缘欠清晰。余肝内见囊性密度灶及斑片状致密影。右肾示小囊性密度灶。右肾上腺可见结节灶,直径约0.8CM,密度较低,强化不明显。	1.结合临床,右乳癌术后2.左肺门、纵隔淋巴结转移,较前(2015-6-3)变化不著3.双肺炎症,局部示好转;双侧胸膜略增厚4.双肺小结节灶,变化不著5.肝左叶低密度灶,建议观察;肝囊肿、钙化灶6.右肾囊肿7.右肾上腺结节灶,考虑腺瘤,变化不著8.甲状腺低密度灶。</t>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>右乳术后，前胸壁软组织略增厚，未见明显异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺门、纵隔内主肺动脉窗区可见肿大淋巴结，直径约1.8CM。右肺门淋巴结略增大，短径约0.8CM。左肺上叶支气管受压狭窄，远端肺野近纵隔旁可见带状密度增高影，另双肺内见斑片状密度增高影，右肺下叶为著。余双肺散在小结节灶，大者直径约0.4CM。双侧胸膜略增厚。甲状腺示斑片状低密度灶。扫描野内肝左叶示小类圆形低密度灶(3-45)，强化不著，边缘欠清晰。余肝内见囊性密度灶及斑片状致密影。右肾示小囊性密度灶。右肾上腺可见结节灶，直径约0.8CM，密度较低，强化不明显。	1.结合临床，右乳癌术后2.左肺门、纵隔淋巴结转移，较前(2015-6-3)变化不著3.双肺炎症，局部示好转；双侧胸膜略增厚4.双肺小结节灶，变化不著5.肝左叶低密度灶，建议观察；肝囊肿、钙化灶6.右肾囊肿7.右肾上腺结节灶，考虑腺瘤，变化不著8.甲状腺低密度灶。</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌并双肺转移、肝转移、纵隔淋巴结转移较前病灶示缩小;右侧内乳区饱满,变化不著;原脑转移瘤显示不清2.左肺胸膜局限性增厚,局部钙化,变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影,约6.8CM×5.3CM,边缘分叶,局部与周围腺体及乳头区皮肤分界不清,胸肌间脂肪间隙模糊,增强扫描见显著不均匀强化,其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结,大者短径约0.6CM。右侧内乳区显示饱满。纵隔内心包右旁、气管隆突下及左侧下肺静脉旁及下段食管旁见肿大淋巴结影,大者短径约1.0CM。双肺野散在分布大小不等结节灶,大者直径约1.3CM,边缘清晰,局部与胸膜及纵隔关系密切,增强扫描可见强化。左肺胸膜增厚,局部呈结节样;局部见多发钙化灶并致局部肋骨欠规则。肝实质内见多个低密度灶,大者直径约0.3CM,边缘尚清晰,增强扫描边缘强化显著。胆囊充盈可,壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内未见异常密度影,脑沟、脑池未见增宽或狭窄,脑室大小、形态,位置正常,中线结构居中。增强:脑实质未见异常强化,脑沟、脑池、脑室内未见异常。	</t>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌并双肺转移、肝转移、纵隔淋巴结转移较前病灶示缩小；右侧内乳区饱满，变化不著；原脑转移瘤显示不清2.左肺胸膜局限性增厚，局部钙化，变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影，约6.8CM×5.3CM，边缘分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结，大者短径约0.6CM。右侧内乳区显示饱满。纵隔内心包右旁、气管隆突下及左侧下肺静脉旁及下段食管旁见肿大淋巴结影，大者短径约1.0CM。双肺野散在分布大小不等结节灶，大者直径约1.3CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左肺胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。肝实质内见多个低密度灶，大者直径约0.3CM，边缘尚清晰，增强扫描边缘强化显著。胆囊充盈可，壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内未见异常密度影，脑沟、脑池未见增宽或狭窄，脑室大小、形态，位置正常，中线结构居中。增强：脑实质未见异常强化，脑沟、脑池、脑室内未见异常。	</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合乳癌术后病史,考虑胸椎T12转移;2.胸椎T8、T11结节灶,考虑脂肪岛;3.椎间盘T11/12、L2/3、L3/4、L4/5突出;4.骶管囊肿。胸腰椎椎体曲度略变直。胸椎T12椎体右后示斑片状略短、略长T1略长T2信号,压脂像呈低、略高信号,增强扫描呈轻度强化。胸椎T8、T11椎体示类圆形短T1长T2信号,压脂像呈低信号,增强扫描无强化。椎间盘T11/12、L2/3、L3/4、L4/5向后突出,压迫硬膜囊。所扫脊髓及马尾区增强前后未见明显异常信号。平骶椎S2水平骶管内可见一约1.0CM×1.7CM的囊性结节,边界清楚,无强化。	</t>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合乳癌术后病史，考虑胸椎T12转移；2.胸椎T8、T11结节灶，考虑脂肪岛；3.椎间盘T11/12、L2/3、L3/4、L4/5突出；4.骶管囊肿。胸腰椎椎体曲度略变直。胸椎T12椎体右后示斑片状略短、略长T1略长T2信号，压脂像呈低、略高信号，增强扫描呈轻度强化。胸椎T8、T11椎体示类圆形短T1长T2信号，压脂像呈低信号，增强扫描无强化。椎间盘T11/12、L2/3、L3/4、L4/5向后突出，压迫硬膜囊。所扫脊髓及马尾区增强前后未见明显异常信号。平骶椎S2水平骶管内可见一约1.0CM×1.7CM的囊性结节，边界清楚，无强化。	</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>右肺下叶(25)见类圆形肿块影,CT值约26HU,边界较清,大小约2.7CM×2.1CM,分叶,边缘可见毛刺,邻近胸膜凹陷。左肺叶(S27、35)见高密度小结节影,边界清晰,径约0.56CM;右肺上叶(36、41、45)、中叶(29、32、33)左肺下叶外侧底段(S28)可见多发粟粒影;两肺门区未见异常。前上纵隔可见结节影,径约0.9CM,CT值约30HU。纵隔稍大淋巴结影。两胸腔无积液征象。心脏未见异常,主动脉、冠状动脉管壁钙化。第3胸椎右侧横突内可见类圆形高密度影。第8胸椎骨质不规整,其内可见斑片状高密度影。所示肝内密度减低,小于同层脾密度。1.右肺下叶周围型肺癌,较(2015-11-10)相仿;2.左肺叶小结节、左肺下叶粟粒灶,部分病灶较前略增大;3.前上纵隔结节,较前相仿;4.第3胸椎右侧横突高密度灶,较前相仿;第8胸椎骨质破坏,较前骨质破坏明显,考虑转移;5.脂肪肝。</t>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>右肺下叶(25)见类圆形肿块影，CT值约26HU，边界较清，大小约2.7CM×2.1CM，分叶，边缘可见毛刺，邻近胸膜凹陷。左肺叶(S27、35)见高密度小结节影，边界清晰，径约0.56CM；右肺上叶(36、41、45)、中叶(29、32、33)左肺下叶外侧底段(S28)可见多发粟粒影；两肺门区未见异常。前上纵隔可见结节影，径约0.9CM，CT值约30HU。纵隔稍大淋巴结影。两胸腔无积液征象。心脏未见异常，主动脉、冠状动脉管壁钙化。第3胸椎右侧横突内可见类圆形高密度影。第8胸椎骨质不规整，其内可见斑片状高密度影。所示肝内密度减低，小于同层脾密度。1.右肺下叶周围型肺癌，较(2015-11-10)相仿；2.左肺叶小结节、左肺下叶粟粒灶，部分病灶较前略增大；3.前上纵隔结节，较前相仿；4.第3胸椎右侧横突高密度灶，较前相仿；第8胸椎骨质破坏，较前骨质破坏明显，考虑转移；5.脂肪肝。</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.左肺下叶癌,较前2016-10-11范围基本变化不著,内可见气体影,请结合临床;左肺门、纵隔淋巴结转移,左肺门者略饱满、密度局部减低,余大部分略缩小2.双肺炎症,略增多;双肺气肿3.左锁上淋巴结略大,变化不著4.左侧肾上腺结节灶,转移不除外5.肝右叶强化欠均,右肾低密度灶,请结合其他检查或观察。左肺下叶可见一不规则肿块,截面约7.2CM×7.0CM,边缘分叶,与胸膜关系密切,周围示斑片及絮状密度增高影,增强扫描病变呈较显著不均匀强化,其内见低密度区及斑片状气体影。双肺野见较多片状高密度影。余双肺多发泡状过度透光灶。左肺门及纵隔多发增大淋巴结,大者短径约3.2CM,部分融合。左锁上淋巴结略大,短径约0.6CM。扫描野内左侧肾上腺示小结节灶。肝右后叶强化欠均。右肾上极示斑片状低密度灶,边界欠清。	</t>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.左肺下叶癌，较前2016-10-11范围基本变化不著，内可见气体影，请结合临床；左肺门、纵隔淋巴结转移，左肺门者略饱满、密度局部减低，余大部分略缩小2.双肺炎症，略增多；双肺气肿3.左锁上淋巴结略大，变化不著4.左侧肾上腺结节灶，转移不除外5.肝右叶强化欠均，右肾低密度灶，请结合其他检查或观察。左肺下叶可见一不规则肿块，截面约7.2CM×7.0CM，边缘分叶，与胸膜关系密切，周围示斑片及絮状密度增高影，增强扫描病变呈较显著不均匀强化，其内见低密度区及斑片状气体影。双肺野见较多片状高密度影。余双肺多发泡状过度透光灶。左肺门及纵隔多发增大淋巴结，大者短径约3.2CM，部分融合。左锁上淋巴结略大，短径约0.6CM。扫描野内左侧肾上腺示小结节灶。肝右后叶强化欠均。右肾上极示斑片状低密度灶，边界欠清。	</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>会诊*******(2016-7-21)右肺尖段示不规则结节灶,边界清晰,大小约为1.0CM×0.9CM,增强扫描呈中度强化。右肺门及纵隔多发淋巴结肿大,部分融合成团,大者短径约为4.5CM,包绕挤压邻近组织。肝脏大小形态可,肝左叶示低密度影,边界清晰,增强扫描未见强化。胆囊不大,壁略厚。胰腺、双肾、双侧肾上腺及脾未见异常。腹腔及腹膜后未见肿大淋巴结。	1.考虑右肺上叶癌并纵隔及右肺门淋巴结转移;2.肝囊肿、胆囊炎。</t>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>会诊*******(2016-7-21)右肺尖段示不规则结节灶，边界清晰，大小约为1.0CM×0.9CM，增强扫描呈中度强化。右肺门及纵隔多发淋巴结肿大，部分融合成团，大者短径约为4.5CM，包绕挤压邻近组织。肝脏大小形态可，肝左叶示低密度影，边界清晰，增强扫描未见强化。胆囊不大，壁略厚。胰腺、双肾、双侧肾上腺及脾未见异常。腹腔及腹膜后未见肿大淋巴结。	1.考虑右肺上叶癌并纵隔及右肺门淋巴结转移；2.肝囊肿、胆囊炎。</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>左肺门周围可见不规则软组织密度肿块影,约5.9CM×7.2CM,增强扫描呈明显不均匀强化,与其远端不张的肺组织分界不清,向内与肺门淋巴结分界不清,与纵隔内软组织及心包分界不清,余双肺野内未见异常密度影,双侧胸膜及叶间胸膜上可见多发类结节灶,大者约1.0CM。纵隔内2R、4R、4L、5、6、7、8区示多发肿大融合的淋巴结影,大者短径约1.8CM。心包内可见少量液性密度影。左胸腔内可见弧形液性密度影。肝脏大小形态未见异常,肝实质内可见数个囊性低密度灶,边界清,增强扫描无强化。胆囊、胰腺、脾、双肾、左肾上腺未见异常,右肾上腺示一类结节灶,长径约3.3CM。腹腔腹膜后未见肿大淋巴结影。	1.左肺中心型肺癌累及肺门、纵隔及心包,阻塞性肺不张、肺炎;双侧胸膜多发结节灶,考虑转移;纵隔淋巴结转移;右肾上腺转移;2.肝囊肿;3.心包、左胸腔少量积液。</t>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>左肺门周围可见不规则软组织密度肿块影，约5.9CM×7.2CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织分界不清，向内与肺门淋巴结分界不清，与纵隔内软组织及心包分界不清，余双肺野内未见异常密度影，双侧胸膜及叶间胸膜上可见多发类结节灶，大者约1.0CM。纵隔内2R、4R、4L、5、6、7、8区示多发肿大融合的淋巴结影，大者短径约1.8CM。心包内可见少量液性密度影。左胸腔内可见弧形液性密度影。肝脏大小形态未见异常，肝实质内可见数个囊性低密度灶，边界清，增强扫描无强化。胆囊、胰腺、脾、双肾、左肾上腺未见异常，右肾上腺示一类结节灶，长径约3.3CM。腹腔腹膜后未见肿大淋巴结影。	1.左肺中心型肺癌累及肺门、纵隔及心包，阻塞性肺不张、肺炎；双侧胸膜多发结节灶，考虑转移；纵隔淋巴结转移；右肾上腺转移；2.肝囊肿；3.心包、左胸腔少量积液。</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,左乳癌术后,左上臂肿物、左侧内乳区及左侧胸膜结节高代谢,考虑转移。2.双肺下叶炎症;双侧胸膜略增厚,双侧胸腔积液。3.肺气肿;肺大泡。4.甲状腺钙化灶。5.肝囊肿。6.前列腺增生。静脉注射示踪剂FDG后60MMIN行体部全身FDGPET/CT显像。PET/CT图像示左乳术后缺如,术区部分胸肌保留,左上臂内侧近左腋窝处见软组织密度影,边缘见小条状金属异物,肿物呈不均匀放射性摄取增高,最高SUV4.8,左侧内乳区见小淋巴结,短径约为0.7CM,放射性摄取增高,最高SUV2.9。右乳及右腋窝未见异常放射性摄取。左侧胸膜见结节状增厚,轻度放射性摄取,最高SUV2.1。双侧胸膜略增厚,双侧胸腔示少量弧形液性密度影。双肺上叶胸膜下见囊泡状过度透气影,部分肺大泡。双肺下叶见斑片状磨玻璃密度影。冠状动脉走行区见条形钙化影。脑部未见异常放射性摄取。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。腹部胃充盈好,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝左叶小囊性密度影,直径约为0.7CM,肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影,肠壁未见确切增厚,考虑肠蠕动所致。腹膜后未见明显肿大淋巴结。腹水征阴性。腹壁软组织未见明显异常影像。盆腔内膀胱放射性浓聚如常,膀胱壁无增厚。两侧腹股沟无异常淋巴结显示。前列腺略增大,放射性分布大致正常。视野内中轴骨放射性分布略欠均匀。	</t>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，左乳癌术后，左上臂肿物、左侧内乳区及左侧胸膜结节高代谢，考虑转移。2.双肺下叶炎症；双侧胸膜略增厚，双侧胸腔积液。3.肺气肿；肺大泡。4.甲状腺钙化灶。5.肝囊肿。6.前列腺增生。静脉注射示踪剂FDG后60MMIN行体部全身FDGPET/CT显像。PET/CT图像示左乳术后缺如，术区部分胸肌保留，左上臂内侧近左腋窝处见软组织密度影，边缘见小条状金属异物，肿物呈不均匀放射性摄取增高，最高SUV4.8，左侧内乳区见小淋巴结，短径约为0.7CM，放射性摄取增高，最高SUV2.9。右乳及右腋窝未见异常放射性摄取。左侧胸膜见结节状增厚，轻度放射性摄取，最高SUV2.1。双侧胸膜略增厚，双侧胸腔示少量弧形液性密度影。双肺上叶胸膜下见囊泡状过度透气影，部分肺大泡。双肺下叶见斑片状磨玻璃密度影。冠状动脉走行区见条形钙化影。脑部未见异常放射性摄取。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。腹部胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝左叶小囊性密度影，直径约为0.7CM，肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影，肠壁未见确切增厚，考虑肠蠕动所致。腹膜后未见明显肿大淋巴结。腹水征阴性。腹壁软组织未见明显异常影像。盆腔内膀胱放射性浓聚如常，膀胱壁无增厚。两侧腹股沟无异常淋巴结显示。前列腺略增大，放射性分布大致正常。视野内中轴骨放射性分布略欠均匀。	</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>左乳术后缺如,部分胸肌存在,术区未见明显增厚及异常强化;左侧腋窝术后,结构紊乱。右乳腺体结构紊乱,右侧腋窝未见明确异常。双肺门、纵隔内、右锁上、右侧内乳区可见多发肿大淋巴结,大者短径约2.3CM,可见较显著强化。右侧胸膜呈弥漫性增厚,局部呈结节状及线状,增强后呈较显著强化。左侧叶间胸膜局部可见结节灶。右肺上叶可见结节灶,边界清晰,直径约0.2CM。双侧肺野内可见斑片状及条索状密度增高影,局部小叶间隔增厚。双侧胸腔内可见液性密度影,右侧为著,局部呈包裹状。部分胸椎椎体、右侧第四、五前肋示成骨性骨质改变。心包腔内可见液性密度影。肝脏实质内可见多发低密度肿块及结节灶,边缘模糊,轻度强化。双肾实质内可见散在多发低密度灶,边缘模糊,轻度强化。胆囊壁略增厚。胰、脾、双侧肾上腺未见异常。腹腔及腹膜后可见多发肿大淋巴结,大者短径约1.5CM。大网膜及肠系膜局部略增厚。	1.左乳癌术后,肝脏多发转移;双肾低密度灶,考虑转移;双肺门、纵隔、右侧内乳区、腹腔及腹膜后多发淋巴结转移;右侧胸膜转移;多发骨转移。2.右锁上淋巴结肿大。3.左侧叶间胸膜增厚伴结节灶,转移待排,4.右肺上叶结节灶。5.双肺炎症,局部不除外伴有癌性淋巴管炎。6.双侧胸腔积液;心包积液。7.胆囊炎。8.大网膜及肠系膜局部增厚。</t>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>左乳术后缺如，部分胸肌存在，术区未见明显增厚及异常强化；左侧腋窝术后，结构紊乱。右乳腺体结构紊乱，右侧腋窝未见明确异常。双肺门、纵隔内、右锁上、右侧内乳区可见多发肿大淋巴结，大者短径约2.3CM，可见较显著强化。右侧胸膜呈弥漫性增厚，局部呈结节状及线状，增强后呈较显著强化。左侧叶间胸膜局部可见结节灶。右肺上叶可见结节灶，边界清晰，直径约0.2CM。双侧肺野内可见斑片状及条索状密度增高影，局部小叶间隔增厚。双侧胸腔内可见液性密度影，右侧为著，局部呈包裹状。部分胸椎椎体、右侧第四、五前肋示成骨性骨质改变。心包腔内可见液性密度影。肝脏实质内可见多发低密度肿块及结节灶，边缘模糊，轻度强化。双肾实质内可见散在多发低密度灶，边缘模糊，轻度强化。胆囊壁略增厚。胰、脾、双侧肾上腺未见异常。腹腔及腹膜后可见多发肿大淋巴结，大者短径约1.5CM。大网膜及肠系膜局部略增厚。	1.左乳癌术后，肝脏多发转移；双肾低密度灶，考虑转移；双肺门、纵隔、右侧内乳区、腹腔及腹膜后多发淋巴结转移；右侧胸膜转移；多发骨转移。2.右锁上淋巴结肿大。3.左侧叶间胸膜增厚伴结节灶，转移待排，4.右肺上叶结节灶。5.双肺炎症，局部不除外伴有癌性淋巴管炎。6.双侧胸腔积液；心包积液。7.胆囊炎。8.大网膜及肠系膜局部增厚。</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>1.左肺上叶舌段中心型肺癌,伴远端阻塞性炎症、纵隔及双肺门淋巴结转移,与2011-10-20CT比较病灶略增大,周围炎症略吸收,请结合临床;2.支气管炎征象,轻度肺气肿,肺大泡;3.双肺多发钙化灶;4.右侧胸腔及心包轻度积液;5.肝脏多发稍低密度影,请结合临床。左肺上叶舌段不规则形软组织密度影,边界清楚且呈分叶状改变,大小约:8.59CM×3.52CM,CT值约:40HU,左肺上叶舌段支气管狭窄、截断,远端片状高密度影,边界模糊;右肺尖小结节,径约:0.52CM;双肺多发囊状低密度影,以左肺上叶胸膜下为著;双肺纹理稍增多,边缘欠清。双肺多发钙化灶;两肺门及纵隔内见多发增大的淋巴结,较大者约3.70CM。心脏不大;心包及右侧胸腔可见少许水样密度影。肝脏似可见多发稍低密度影。</t>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>1.左肺上叶舌段中心型肺癌，伴远端阻塞性炎症、纵隔及双肺门淋巴结转移，与2011-10-20CT比较病灶略增大，周围炎症略吸收，请结合临床；2.支气管炎征象，轻度肺气肿，肺大泡；3.双肺多发钙化灶；4.右侧胸腔及心包轻度积液；5.肝脏多发稍低密度影，请结合临床。左肺上叶舌段不规则形软组织密度影，边界清楚且呈分叶状改变，大小约：8.59CM×3.52CM，CT值约：40HU，左肺上叶舌段支气管狭窄、截断，远端片状高密度影，边界模糊；右肺尖小结节，径约：0.52CM；双肺多发囊状低密度影，以左肺上叶胸膜下为著；双肺纹理稍增多，边缘欠清。双肺多发钙化灶；两肺门及纵隔内见多发增大的淋巴结，较大者约3.70CM。心脏不大；心包及右侧胸腔可见少许水样密度影。肝脏似可见多发稍低密度影。</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>右肺下叶可见团块影,与右肺门影分界不清,边界欠清,CT值约为30HU,其内密度不均,大小约为6.3CM×3.9CM,邻近肺组织可见模糊影,右肺下叶内基底段支气管不通;双肺可见多发的大小不等的小结节影,大者径长约2.0CM;右肺斜裂增厚、右肺中叶条片状高密度影。纵隔内可见多发肿大的淋巴结。右侧胸腔、心包内见液性密度影。甲状腺明显肿大。左侧第6前肋局部密度增高。1.考虑右肺下叶肺癌,并双肺、右胸膜多发转移;2.右侧胸腔积液;心包积液;3.甲状腺大;4.左侧第6前肋局部密度增高。以上征象均较2015.04.30CT片相仿。</t>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>右肺下叶可见团块影，与右肺门影分界不清，边界欠清，CT值约为30HU，其内密度不均，大小约为6.3CM×3.9CM，邻近肺组织可见模糊影，右肺下叶内基底段支气管不通；双肺可见多发的大小不等的小结节影，大者径长约2.0CM；右肺斜裂增厚、右肺中叶条片状高密度影。纵隔内可见多发肿大的淋巴结。右侧胸腔、心包内见液性密度影。甲状腺明显肿大。左侧第6前肋局部密度增高。1.考虑右肺下叶肺癌，并双肺、右胸膜多发转移；2.右侧胸腔积液；心包积液；3.甲状腺大；4.左侧第6前肋局部密度增高。以上征象均较2015.04.30CT片相仿。</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>直肠术后,术区示高密度吻合器影,壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低,内示小囊性密度灶。双肾内示低密度灶,边缘模糊,另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约4.4CM(纵隔窗),内示空洞影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚,胸腔未见积液征象。甲状腺右叶见低密度灶,边缘较清晰。	1.结合临床,直肠癌术后;双肺转移,较前(2017-1-18)部分增大,部分变化不著2.双肾低密度灶,基本变化不著,建议观察;双肾囊肿3.双侧胸膜略增厚,变化不著4.甲状腺低密度灶,变化不著5.脂肪肝;考虑肝囊肿,变化不著。</t>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>直肠术后，术区示高密度吻合器影，壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低，内示小囊性密度灶。双肾内示低密度灶，边缘模糊，另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约4.4CM(纵隔窗)，内示空洞影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚，胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	1.结合临床，直肠癌术后；双肺转移，较前(2017-1-18)部分增大，部分变化不著2.双肾低密度灶，基本变化不著，建议观察；双肾囊肿3.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著5.脂肪肝；考虑肝囊肿，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右肺癌治疗后,较前片2015-12-10变化不著;双肺类结节灶治疗后,变化不著;右肺门、纵隔淋巴结转移治疗后,较前变化不著。2.右肺下叶炎症、纤维灶,变化不著。3.右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影,变化不著。右肺下叶见不规则斑片状软组织影,边缘毛糙,大小不易测量,增强后中度强化;其远端肺野见斑片状及索条状密度增高影。余双肺可见小类结节灶,边缘模糊,大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结,大者短径约1.0CM,部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝内见一斑点状钙化灶。胆囊充盈可,壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶,大者短径约0.6CM。T12右侧椎弓根示斑片状密度增高影。	</t>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右肺癌治疗后，较前片2015-12-10变化不著；双肺类结节灶治疗后，变化不著；右肺门、纵隔淋巴结转移治疗后，较前变化不著。2.右肺下叶炎症、纤维灶，变化不著。3.右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影，变化不著。右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。余双肺可见小类结节灶，边缘模糊，大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径约1.0CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝内见一斑点状钙化灶。胆囊充盈可，壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶，大者短径约0.6CM。T12右侧椎弓根示斑片状密度增高影。	</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.肝囊肿。2.双肾上腺体积增大,不除外转移,建议观察3.结合临床,右肺癌,纵隔内多发淋巴结转移4.颈部扫描未见异常.。肝脏大小形态未见异常,肝实质内可见多发囊性低密度灶,边界清,增强扫描无强化。胆囊、胰腺、脾、双肾未见异常,双肾上腺体积略示增大,以左侧为著,长径约1.8CM,形态不规则。腹腔腹膜后未见肿大淋巴结影。所扫右肺中叶近肺门处示不规则软组织密度影,远侧肺组织示实变征象,周围多发多发条索状及斑片状密度增高影,与周围组织关系密切,增强扫描示中度强化。各咽壁不厚,双侧颈部未见肿大淋巴结影。腮腺及双侧甲状腺未见异常。所扫上纵隔内可见多发肿大融合的淋巴结。	</t>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.肝囊肿。2.双肾上腺体积增大，不除外转移，建议观察3.结合临床，右肺癌，纵隔内多发淋巴结转移4.颈部扫描未见异常.。肝脏大小形态未见异常，肝实质内可见多发囊性低密度灶，边界清，增强扫描无强化。胆囊、胰腺、脾、双肾未见异常，双肾上腺体积略示增大，以左侧为著，长径约1.8CM，形态不规则。腹腔腹膜后未见肿大淋巴结影。所扫右肺中叶近肺门处示不规则软组织密度影，远侧肺组织示实变征象，周围多发多发条索状及斑片状密度增高影，与周围组织关系密切，增强扫描示中度强化。各咽壁不厚，双侧颈部未见肿大淋巴结影。腮腺及双侧甲状腺未见异常。所扫上纵隔内可见多发肿大融合的淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.右肺下叶肺癌累及胸膜治疗后,较前(2015-04-20)基本变化不著;右肺门、纵隔淋巴结转移,部分较前略缩小,部分变化不著2.右肺小类结节灶,较前变化不著3.甲状腺体积增大并低密度灶,考虑为结节性甲状腺肿,变化不著4.双肺炎症5.双肺气肿6.肝左叶强化灶,考虑血管瘤,建议结合腹部检查。右肺下叶背段见不规则软组织影,大小约5.2CM×4.0CM,边缘见分叶征,其内密度不均匀,可见空洞形成,与邻近胸膜关系明确,增强扫描呈中度不均匀强化。右肺上叶(5-20、23)见小类结节影,大者直径约0.4CM,边缘模糊。双肺胸膜下见斑片状及片絮状密度增高影,以双肺下叶为著。另于双肺野内见多发泡状过度透光区。纵隔内3A、4R、4L、7区及右肺门示多发结节灶,大者短径约0.8CM。胸廓骨质未见破坏。甲状腺右侧叶体积增大,向下凸入右上纵隔,其内密度不均,可见低密度区,周围散在点状致密灶,左侧叶内亦可见低密度灶。肝左叶见一动脉期强化结节灶,边界尚清,直径约1.5CM,延迟期未见明确显示。胆囊充盈可,壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常,腹腔及腹膜后未见明确肿大淋巴结。	</t>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.右肺下叶肺癌累及胸膜治疗后，较前(2015-04-20)基本变化不著；右肺门、纵隔淋巴结转移，部分较前略缩小，部分变化不著2.右肺小类结节灶，较前变化不著3.甲状腺体积增大并低密度灶，考虑为结节性甲状腺肿，变化不著4.双肺炎症5.双肺气肿6.肝左叶强化灶，考虑血管瘤，建议结合腹部检查。右肺下叶背段见不规则软组织影，大小约5.2CM×4.0CM，边缘见分叶征，其内密度不均匀，可见空洞形成，与邻近胸膜关系明确，增强扫描呈中度不均匀强化。右肺上叶(5-20、23)见小类结节影，大者直径约0.4CM，边缘模糊。双肺胸膜下见斑片状及片絮状密度增高影，以双肺下叶为著。另于双肺野内见多发泡状过度透光区。纵隔内3A、4R、4L、7区及右肺门示多发结节灶，大者短径约0.8CM。胸廓骨质未见破坏。甲状腺右侧叶体积增大，向下凸入右上纵隔，其内密度不均，可见低密度区，周围散在点状致密灶，左侧叶内亦可见低密度灶。肝左叶见一动脉期强化结节灶，边界尚清，直径约1.5CM，延迟期未见明确显示。胆囊充盈可，壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常，腹腔及腹膜后未见明确肿大淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>1.双肺间质性改变;右侧少量胸腔积液,较2016-11-17增多;双肺粟粒灶,随诊;2.右肺中叶索条灶,慢性炎症可能,较前略吸收;3.右侧乳腺肿物,考虑为恶性病变,较前稍变小;右侧腋窝淋巴结肿大;4.右侧第7后肋、第4、9胸椎骨质破坏,转移瘤可能性大,较前进展,请结合临床;5.双侧多发肋骨骨折。双肺纹理增强,紊乱。右肺中叶可见高密度索条影,边缘模糊不清。右肺上叶(43、39、37)、左肺上叶(23)粟粒灶。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。右胸腔少量积液征象。心脏大血管未见异常。所示右侧乳腺见较大肿物,密度不均,大小为4.66CM×3.53CM,CT值约44HU。右侧第7后肋、第4、9胸椎骨质破坏,边缘模糊。双侧多根肋骨骨质连续性中断。</t>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>1.双肺间质性改变；右侧少量胸腔积液，较2016-11-17增多；双肺粟粒灶，随诊；2.右肺中叶索条灶，慢性炎症可能，较前略吸收；3.右侧乳腺肿物，考虑为恶性病变，较前稍变小；右侧腋窝淋巴结肿大；4.右侧第7后肋、第4、9胸椎骨质破坏，转移瘤可能性大，较前进展，请结合临床；5.双侧多发肋骨骨折。双肺纹理增强，紊乱。右肺中叶可见高密度索条影，边缘模糊不清。右肺上叶(43、39、37)、左肺上叶(23)粟粒灶。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。右胸腔少量积液征象。心脏大血管未见异常。所示右侧乳腺见较大肿物，密度不均，大小为4.66CM×3.53CM，CT值约44HU。右侧第7后肋、第4、9胸椎骨质破坏，边缘模糊。双侧多根肋骨骨质连续性中断。</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>1.右肺中央型肺癌,伴右肺上叶阻塞性肺炎、淋巴结多发转移;较2012-02-01CT新发,邻近右上肺动脉分支受压;右肺下叶炎症,较前新发;2.左肺下叶肺隔离症伴炎症,较前相仿;3.左肺上叶代偿性肺气肿表现,较前相仿;4.肝右叶后下段低密度灶,请结合其它检查。右上叶支气管截断,肺门处可见团块影,界清,其内密度不均,见斑片状稍低密度灶,大小约3.2CM×2.8CM,平扫CT值约33HU,增强扫描呈轻度不均匀强化,三期CT值分别为:66HU、51HU、63HU,邻近右上肺动脉分支受压、略移位;右肺上叶病变远端支气管腔增粗、管腔内密度增高,肺内散在片状高密度影;右肺下叶胸膜下见少许斑片状模糊影;左肺下叶前内基底段、外基底段可见斑片模糊影,增强后,病灶内可见一异常血管起自于胸主动脉,最粗径约0.94CM,左肺上叶透过度明显增强。纵隔内可见多发肿大淋巴结,大者短径约1.9CM,增强呈轻度不均匀强化。两胸腔无积液征象。心脏形态可。肝右叶后下段低密度灶。</t>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>1.右肺中央型肺癌，伴右肺上叶阻塞性肺炎、淋巴结多发转移；较2012-02-01CT新发，邻近右上肺动脉分支受压；右肺下叶炎症，较前新发；2.左肺下叶肺隔离症伴炎症，较前相仿；3.左肺上叶代偿性肺气肿表现，较前相仿；4.肝右叶后下段低密度灶，请结合其它检查。右上叶支气管截断，肺门处可见团块影，界清，其内密度不均，见斑片状稍低密度灶，大小约3.2CM×2.8CM，平扫CT值约33HU，增强扫描呈轻度不均匀强化，三期CT值分别为：66HU、51HU、63HU，邻近右上肺动脉分支受压、略移位；右肺上叶病变远端支气管腔增粗、管腔内密度增高，肺内散在片状高密度影；右肺下叶胸膜下见少许斑片状模糊影；左肺下叶前内基底段、外基底段可见斑片模糊影，增强后，病灶内可见一异常血管起自于胸主动脉，最粗径约0.94CM，左肺上叶透过度明显增强。纵隔内可见多发肿大淋巴结，大者短径约1.9CM，增强呈轻度不均匀强化。两胸腔无积液征象。心脏形态可。肝右叶后下段低密度灶。</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>右肺上叶可见一类圆形结节影,呈浅分叶,密度尚均匀,CT值约为34HU,增强后呈明显均匀强化,动脉期及静脉期CT值分别约为78HU及76HU;病灶边缘不光滑,可见细短毛刺,可见胸膜牵拉;病灶大小约为2.0CM×1.5CM。右肺中叶、左肺上叶及双肺下叶可见多发大小不等小结节影,大者位于右肺下叶,大小约为1.2CM×1.0CM,边缘可见毛刺。双肺上叶可见斑块状、条状高密度影及囊性透光影;双肺下叶可见斑片状密度增高影,边缘模糊。所示气管支气管未见异常扩张;双肺门区未见异常。纵隔内可见多个小淋巴结影,以隆突下最大,短径约为0.8CM;双侧胸腔未见积液征象;主动脉管壁可见多发斑点状钙化影。所示肝脏内可见多发低密度影。1.右肺上叶结节影,考虑为周围型肺癌可能性大,请结合临床;左侧胸膜稍厚;2.右肺中叶、左肺上叶及双肺下叶多发小结节影,考虑为转移瘤,请随诊;3.双肺上叶陈旧病灶,多发肺大泡;双肺下叶炎性病变,请随诊;4.肝脏多发低密度影,请结合腹部检查。</t>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>右肺上叶可见一类圆形结节影，呈浅分叶，密度尚均匀，CT值约为34HU，增强后呈明显均匀强化，动脉期及静脉期CT值分别约为78HU及76HU；病灶边缘不光滑，可见细短毛刺，可见胸膜牵拉；病灶大小约为2.0CM×1.5CM。右肺中叶、左肺上叶及双肺下叶可见多发大小不等小结节影，大者位于右肺下叶，大小约为1.2CM×1.0CM，边缘可见毛刺。双肺上叶可见斑块状、条状高密度影及囊性透光影；双肺下叶可见斑片状密度增高影，边缘模糊。所示气管支气管未见异常扩张；双肺门区未见异常。纵隔内可见多个小淋巴结影，以隆突下最大，短径约为0.8CM；双侧胸腔未见积液征象；主动脉管壁可见多发斑点状钙化影。所示肝脏内可见多发低密度影。1.右肺上叶结节影，考虑为周围型肺癌可能性大，请结合临床；左侧胸膜稍厚；2.右肺中叶、左肺上叶及双肺下叶多发小结节影，考虑为转移瘤，请随诊；3.双肺上叶陈旧病灶，多发肺大泡；双肺下叶炎性病变，请随诊；4.肝脏多发低密度影，请结合腹部检查。</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>右侧乳腺乳头后方见较多不规则软组织密度肿块影,最大截面约9.2CM×6.6CM,边缘分叶,尚清晰,局部与周围腺体及皮肤分界不清,胸肌间脂肪间隙模糊,增强扫描见显著不均匀强化。左乳腺体致密,未见异常密度灶。双侧腋窝见肿大或稍大淋巴结,大者短径约1.1CM,增强扫描显著强化。双侧内乳区未见肿大淋巴结。双肺野散在分布大小不等结节灶,大者直径约2.2CM,边缘清晰,局部与胸膜及纵隔关系密切,增强扫描可见强化。左肺门见肿大淋巴结,短径约0.9CM,增强扫描可见强化。左肺胸膜略增厚,局部呈结节样;局部见多发钙化灶并致局部肋骨欠规则。扫描野肝实质内见多个低密度灶,大者直径约1.9CM,边缘清晰,增强扫描边缘强化显著,部分见牛眼征。	1.结合临床,考虑右乳癌;双侧腋窝、左肺门淋巴结肿大或稍大;双肺转移,肝转移2.左肺胸膜局限性增厚,局部钙化,考虑胸膜斑,请结合临床。</t>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>右侧乳腺乳头后方见较多不规则软组织密度肿块影，最大截面约9.2CM×6.6CM，边缘分叶，尚清晰，局部与周围腺体及皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化。左乳腺体致密，未见异常密度灶。双侧腋窝见肿大或稍大淋巴结，大者短径约1.1CM，增强扫描显著强化。双侧内乳区未见肿大淋巴结。双肺野散在分布大小不等结节灶，大者直径约2.2CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左肺门见肿大淋巴结，短径约0.9CM，增强扫描可见强化。左肺胸膜略增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。扫描野肝实质内见多个低密度灶，大者直径约1.9CM，边缘清晰，增强扫描边缘强化显著，部分见牛眼征。	1.结合临床，考虑右乳癌；双侧腋窝、左肺门淋巴结肿大或稍大；双肺转移，肝转移2.左肺胸膜局限性增厚，局部钙化，考虑胸膜斑，请结合临床。</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右肺癌并阻塞性炎症及肺不张并累及中间支气管治疗后,较前(2016-9-29)好转2.右肺门及纵隔淋巴结转移,较前好转3.左肺上叶斑片状影及类结节灶,首先考虑炎性病变,变化不著4.胸椎局部密度增高,建议观察。右肺门区见软组织密度影,边缘模糊,增强呈不均匀强化,右肺上叶支气管示显著狭窄,病变周围见多发斑片状及条索状密度增高影,右肺中间支气管示管壁增厚并强化。左肺上叶见斑片状及类结节状密度增高影。右肺门、纵隔见大者短径约1.0CM肿大淋巴结。右侧胸膜局部增厚。左颈后皮下见一软组织结节,边缘较清晰,密度不均。扫描野内左侧肾上腺见一长径约1.0CM结节灶。T12椎体可见高密度影。	</t>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右肺癌并阻塞性炎症及肺不张并累及中间支气管治疗后，较前(2016-9-29)好转2.右肺门及纵隔淋巴结转移，较前好转3.左肺上叶斑片状影及类结节灶，首先考虑炎性病变，变化不著4.胸椎局部密度增高，建议观察。右肺门区见软组织密度影，边缘模糊，增强呈不均匀强化，右肺上叶支气管示显著狭窄，病变周围见多发斑片状及条索状密度增高影，右肺中间支气管示管壁增厚并强化。左肺上叶见斑片状及类结节状密度增高影。右肺门、纵隔见大者短径约1.0CM肿大淋巴结。右侧胸膜局部增厚。左颈后皮下见一软组织结节，边缘较清晰，密度不均。扫描野内左侧肾上腺见一长径约1.0CM结节灶。T12椎体可见高密度影。	</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,卵巢癌术后;左乳术后改变2.右侧胸膜转移,较前(2016-01-18)加重;右侧胸腔积液基本变化不著;右肺部分膨胀不全;双肺结节灶,考虑转移,较前部分略示增大,部分变化不著3.右肺门及纵隔淋巴结肿大,部分变化不著,部分略示饱满;右侧锁骨上淋巴结肿大,较前变化不著;右侧腋窝小淋巴结,变化不著4.右肺炎症或纤维灶,变化不著5.少量盆腔积液。左乳术后,部分胸肌尚存,术区胸壁略肿胀,皮肤略增厚。右乳未见异常。右侧腋窝见短径约0.5CM的小淋巴结。内乳区示短径不足0.5CM淋巴结。左侧腋窝及左侧内乳区未见肿大淋巴结。右锁上见小淋巴结,短径不足0.5CM。右肺门、纵隔内右上气管旁、腔静脉后间隙、主肺动脉窗区、血管前间隙、隆突下可见肿大淋巴结,大者短径约1.0MM。右侧胸膜增厚(含肋胸膜、纵隔胸膜及叶间胸膜、膈胸膜),局部呈结节状、带状。右侧胸腔可见游离性及包裹性液体密度影。右肺见条索状密度增高影,右肺部分实变;另于双肺野内见多发类圆形结节灶,边界较清,大者截面约2.4CM×1.6CM。膈上见数个结节灶,轻度强化。子宫术后缺如,残端未见异常增厚及强化。膀胱充盈欠佳,壁不厚。肠系膜区示少量液体密度影。盆腔未见明显肿大淋巴结。	</t>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，卵巢癌术后；左乳术后改变2.右侧胸膜转移，较前(2016-01-18)加重；右侧胸腔积液基本变化不著；右肺部分膨胀不全；双肺结节灶，考虑转移，较前部分略示增大，部分变化不著3.右肺门及纵隔淋巴结肿大，部分变化不著，部分略示饱满；右侧锁骨上淋巴结肿大，较前变化不著；右侧腋窝小淋巴结，变化不著4.右肺炎症或纤维灶，变化不著5.少量盆腔积液。左乳术后，部分胸肌尚存，术区胸壁略肿胀，皮肤略增厚。右乳未见异常。右侧腋窝见短径约0.5CM的小淋巴结。内乳区示短径不足0.5CM淋巴结。左侧腋窝及左侧内乳区未见肿大淋巴结。右锁上见小淋巴结，短径不足0.5CM。右肺门、纵隔内右上气管旁、腔静脉后间隙、主肺动脉窗区、血管前间隙、隆突下可见肿大淋巴结，大者短径约1.0MM。右侧胸膜增厚(含肋胸膜、纵隔胸膜及叶间胸膜、膈胸膜)，局部呈结节状、带状。右侧胸腔可见游离性及包裹性液体密度影。右肺见条索状密度增高影，右肺部分实变；另于双肺野内见多发类圆形结节灶，边界较清，大者截面约2.4CM×1.6CM。膈上见数个结节灶，轻度强化。子宫术后缺如，残端未见异常增厚及强化。膀胱充盈欠佳，壁不厚。肠系膜区示少量液体密度影。盆腔未见明显肿大淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右肺癌累及纵隔及上腔静脉治疗后,较前(2016-12-1)变化不著。2.脑多发转移。3.甲状腺钙化灶。4.纵隔内淋巴结肿大,变化不著。5.考虑右肺炎症,变化不著。6.上腹部未见明显异常。右肺上叶支气管周围可见小斑片状软组织密度影,与邻近纵隔内4R区肿大淋巴结及上腔静脉分界不清,增强扫描呈不均匀强化,纵隔内3A、2R区示数个结节灶,大者短径约0.7CM。所扫双侧甲状腺内可见数个钙化灶。肝脏、胆囊、胰腺、脾、双肾、肾上腺未见异常,腹腔腹膜后未见肿大淋巴结影。脑实质示多发强化结节灶,大者截面约2.5CM×2.1CM,周围可见低密度水肿带。右侧上颌窦内示囊性密度灶。	</t>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右肺癌累及纵隔及上腔静脉治疗后，较前(2016-12-1)变化不著。2.脑多发转移。3.甲状腺钙化灶。4.纵隔内淋巴结肿大，变化不著。5.考虑右肺炎症，变化不著。6.上腹部未见明显异常。右肺上叶支气管周围可见小斑片状软组织密度影，与邻近纵隔内4R区肿大淋巴结及上腔静脉分界不清，增强扫描呈不均匀强化，纵隔内3A、2R区示数个结节灶，大者短径约0.7CM。所扫双侧甲状腺内可见数个钙化灶。肝脏、胆囊、胰腺、脾、双肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。脑实质示多发强化结节灶，大者截面约2.5CM×2.1CM，周围可见低密度水肿带。右侧上颌窦内示囊性密度灶。	</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后,肺转移微波消融术后改变,其旁结节灶,考虑转移,较前2016-1-6进展;右肺上叶炎症,变化不著2.纵隔淋巴结肿大,较前缩小3.肝转移介入术后改变4.左肾囊肿。右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结,短径不足0.5CM。右肺上叶可见团片状密度增高影,未见异常强化征象,其前方示一强化结节灶,短径约0.6CM。左侧肺野较清晰。纵隔内气管前腔静脉后见肿大淋巴结,短径约1.3CM。肝实质内示多发结节灶,部分其内示高密度碘油影沉积,大者短径约1.5CM。胆胰脾双肾上腺右肾形态、密度未见明显异常。左肾示囊性密度灶。腹腔及腹膜后未见明显增大淋巴结。	</t>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后，肺转移微波消融术后改变，其旁结节灶，考虑转移，较前2016-1-6进展；右肺上叶炎症，变化不著2.纵隔淋巴结肿大，较前缩小3.肝转移介入术后改变4.左肾囊肿。右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结，短径不足0.5CM。右肺上叶可见团片状密度增高影，未见异常强化征象，其前方示一强化结节灶，短径约0.6CM。左侧肺野较清晰。纵隔内气管前腔静脉后见肿大淋巴结，短径约1.3CM。肝实质内示多发结节灶，部分其内示高密度碘油影沉积，大者短径约1.5CM。胆胰脾双肾上腺右肾形态、密度未见明显异常。左肾示囊性密度灶。腹腔及腹膜后未见明显增大淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>左乳内示多发结节灶灶,边缘略分叶,毛刺,其与周围腺体分界欠清,增强扫描呈较明显强化,大者最大截面约2.2CM×1.1CM。左锁上、左腋窝示增大淋巴结,大者短径约0.9。右乳未见明显异常。右腋窝及双侧内乳区未见明显增大淋巴结。双肺野清,未见明显异常密度灶。纵隔及双肺门未见明显增大淋巴结。鼻咽、口咽、喉咽壁未见明显增厚。左颈下深示稍大淋巴结,大者短径约0.5CM。扫描范围内诸骨质未见明显破坏。	1.结合临床,左乳癌2.左腋窝及左锁上淋巴结肿大,考虑转移可能性大;左颈部淋巴结肿大。</t>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>左乳内示多发结节灶灶，边缘略分叶，毛刺，其与周围腺体分界欠清，增强扫描呈较明显强化，大者最大截面约2.2CM×1.1CM。左锁上、左腋窝示增大淋巴结，大者短径约0.9。右乳未见明显异常。右腋窝及双侧内乳区未见明显增大淋巴结。双肺野清，未见明显异常密度灶。纵隔及双肺门未见明显增大淋巴结。鼻咽、口咽、喉咽壁未见明显增厚。左颈下深示稍大淋巴结，大者短径约0.5CM。扫描范围内诸骨质未见明显破坏。	1.结合临床，左乳癌2.左腋窝及左锁上淋巴结肿大，考虑转移可能性大；左颈部淋巴结肿大。</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右肺上叶癌侵及脏层胸膜治疗后,较前(2016-07-20)基本变化不著;骨转移,变化不著2.右乳腺体局部密度增高,变化不著。右肺上叶尖段可见软组织密度影,最大截面约0.9CM×1.1CM(纵隔窗),边缘浅分叶可见细毛刺,内缘有长毛刺与纵隔相连,增强扫描呈中等不均匀性强化;余双肺野较清晰,未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。所扫甲状腺内示低密度灶。肝脏形态、大小可,实质密度均质。肝内外胆管未见扩张。胆囊充盈可,壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示:双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏,以成骨性为主,部分肋骨形态欠规则,略呈膨胀性改变。	</t>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右肺上叶癌侵及脏层胸膜治疗后，较前(2016-07-20)基本变化不著；骨转移，变化不著2.右乳腺体局部密度增高，变化不著。右肺上叶尖段可见软组织密度影，最大截面约0.9CM×1.1CM(纵隔窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。所扫甲状腺内示低密度灶。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示：双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏，以成骨性为主，部分肋骨形态欠规则，略呈膨胀性改变。	</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>左肺下叶背段可见团块影,较大截面大小约为4.6CM×3.3CM,平扫CT值约为43HU,边界尚清,浅分叶状,周围可见斑片状稍高密度影。双肺另见弥漫多发大小不等结节影。两肺门区未见异常。纵隔内未见淋巴结增大。心脏大血管未见异常。部分肋骨、胸椎及附件形态欠规整,可见骨质破坏区及软组织肿块。1.左肺下叶背段周围型肺癌,较前2015-12-7变小,伴双肺多发转移瘤;2.部分肋骨、胸椎及附件形态欠规整,转移不除外,部分较前新发,请结合临床。</t>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>左肺下叶背段可见团块影，较大截面大小约为4.6CM×3.3CM，平扫CT值约为43HU，边界尚清，浅分叶状，周围可见斑片状稍高密度影。双肺另见弥漫多发大小不等结节影。两肺门区未见异常。纵隔内未见淋巴结增大。心脏大血管未见异常。部分肋骨、胸椎及附件形态欠规整，可见骨质破坏区及软组织肿块。1.左肺下叶背段周围型肺癌，较前2015-12-7变小，伴双肺多发转移瘤；2.部分肋骨、胸椎及附件形态欠规整，转移不除外，部分较前新发，请结合临床。</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>左乳术后缺如,部分胸肌存在,术区皮肤及软组织略增厚,增强后不均匀强化;左侧腋窝术后,见多发淋巴结,大者短径约0.6CM。右乳及右侧腋窝未见明确异常。左侧内乳区见短径不足0.5CM小淋巴结。左肺上叶胸膜下可见类结节灶,直径约0.2CM。左肺可见斑片状影。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺未见异常。腹膜后见短径不足0.5CM小淋巴结。部分椎体密度减低。1.左乳癌术后复发并左腋窝多发淋巴结转移,较前(2017-2-15)变化不著;左侧内乳区小淋巴结较前变化不著。2.左肺类结节灶,较前变化不著。3.腹膜后小淋巴结较前变化不著。4.椎体部分密度减低变化不著。</t>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>左乳术后缺如，部分胸肌存在，术区皮肤及软组织略增厚，增强后不均匀强化；左侧腋窝术后，见多发淋巴结，大者短径约0.6CM。右乳及右侧腋窝未见明确异常。左侧内乳区见短径不足0.5CM小淋巴结。左肺上叶胸膜下可见类结节灶，直径约0.2CM。左肺可见斑片状影。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺未见异常。腹膜后见短径不足0.5CM小淋巴结。部分椎体密度减低。1.左乳癌术后复发并左腋窝多发淋巴结转移，较前(2017-2-15)变化不著；左侧内乳区小淋巴结较前变化不著。2.左肺类结节灶，较前变化不著。3.腹膜后小淋巴结较前变化不著。4.椎体部分密度减低变化不著。</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>双肺近胸膜下示多个结节灶及肿块,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约3.0CM(纵隔窗),内示小空泡影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶,边缘较清晰。	1.结合临床,直肠癌术后,双肺转移瘤,较前变化不著2.双侧胸膜略增厚,变化不著4.甲状腺低密度灶,变化不著。</t>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.0CM(纵隔窗)，内示小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	1.结合临床，直肠癌术后，双肺转移瘤，较前变化不著2.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>双侧胸廓不对称,右侧胸廓塌陷,右肺体积减小,右肺下叶见团块状高密度影,形态不规则,边界不清楚,大小约4.1CM×5.4CM,CT值约37HU,右侧主支气管及各叶支气管受压变窄;右侧胸膜弥漫性增厚,右肺间隔结节样增厚;右侧胸腔可见包裹性积液;右侧腋窝、纵隔淋巴结增大,大者短径约1.39CM。左肺下叶外基底段(S35)可见粟粒影。心影大小正常范围。右侧第2、4、7、8肋骨、胸3椎体骨质密度不均匀增高,形态不规整。右侧乳腺外上象限内见一结节影,径约0.98CM,边界清晰,其内见点状钙化。1.右下肺中心型肺癌,较前片(2013-9-9)进展,并右肺间质性改变,考虑淋巴道转移,右侧胸膜转移,右侧胸腔包裹性积液;右侧腋窝及纵隔淋巴结转移;右侧多个肋骨、胸3椎体成骨性转移;请结合临床;2.右乳钙化结节,较前相仿;3.左肺下叶外基底段粟粒灶,较前相仿。</t>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>双侧胸廓不对称，右侧胸廓塌陷，右肺体积减小，右肺下叶见团块状高密度影，形态不规则，边界不清楚，大小约4.1CM×5.4CM，CT值约37HU，右侧主支气管及各叶支气管受压变窄；右侧胸膜弥漫性增厚，右肺间隔结节样增厚；右侧胸腔可见包裹性积液；右侧腋窝、纵隔淋巴结增大，大者短径约1.39CM。左肺下叶外基底段(S35)可见粟粒影。心影大小正常范围。右侧第2、4、7、8肋骨、胸3椎体骨质密度不均匀增高，形态不规整。右侧乳腺外上象限内见一结节影，径约0.98CM，边界清晰，其内见点状钙化。1.右下肺中心型肺癌，较前片(2013-9-9)进展，并右肺间质性改变，考虑淋巴道转移，右侧胸膜转移，右侧胸腔包裹性积液；右侧腋窝及纵隔淋巴结转移；右侧多个肋骨、胸3椎体成骨性转移；请结合临床；2.右乳钙化结节，较前相仿；3.左肺下叶外基底段粟粒灶，较前相仿。</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>左乳呈少量腺体型。其外上象限不规则肿块影,大小约4.0CM×4.5CM,其密度增高、不均匀,边缘毛糙、不整。乳头无凹陷,皮肤无增厚。腋窝可见一直径约1.2CM肿大淋巴结影。	左乳癌并同侧腋窝淋巴结转移。</t>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>左乳呈少量腺体型。其外上象限不规则肿块影，大小约4.0CM×4.5CM，其密度增高、不均匀，边缘毛糙、不整。乳头无凹陷，皮肤无增厚。腋窝可见一直径约1.2CM肿大淋巴结影。	左乳癌并同侧腋窝淋巴结转移。</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>右肺门支气管开口纹理粗乱伴胸膜增厚,周围可见纤维条索影,下叶近纵隔旁并可见斑片状高密度影,边缘模糊。双肺见散在少许类结节及片絮影,左肺大者直径约0.5CM(肺窗5-32)。左侧锁骨上及双肺门见小淋巴结。右侧胸腔示少量液性密度影。肝、胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常,腹膜后腹主动脉周围可见多发结节灶,大者短径约1.0CM。颅骨完整连续,脑实质密度均匀,脑池、脑室、脑沟大小、位置、形态未见异常,中线结构居中。	1.结合临床,右肺癌治疗后,局限性纤维炎性变,局部高密度斑片影较前(2016-10-12)变化不著;双肺散在类结节及片絮影,较前变化不著;腹膜后淋巴结肿大,考虑转移。2.颅脑扫描未见异常。3.右侧少量胸腔积液。</t>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>右肺门支气管开口纹理粗乱伴胸膜增厚，周围可见纤维条索影，下叶近纵隔旁并可见斑片状高密度影，边缘模糊。双肺见散在少许类结节及片絮影，左肺大者直径约0.5CM(肺窗5-32)。左侧锁骨上及双肺门见小淋巴结。右侧胸腔示少量液性密度影。肝、胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常，腹膜后腹主动脉周围可见多发结节灶，大者短径约1.0CM。颅骨完整连续，脑实质密度均匀，脑池、脑室、脑沟大小、位置、形态未见异常，中线结构居中。	1.结合临床，右肺癌治疗后，局限性纤维炎性变，局部高密度斑片影较前(2016-10-12)变化不著；双肺散在类结节及片絮影，较前变化不著；腹膜后淋巴结肿大，考虑转移。2.颅脑扫描未见异常。3.右侧少量胸腔积液。</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.右肺癌并右肺癌性淋巴管炎,双肺门、纵隔、双侧锁骨上淋巴结转移;双侧腋窝、腹腔及腹膜后淋巴结肿大,转移不除外;骨转移2.肝内低密度灶,转移不除外,建议观察;肝囊肿2.左肺类结节灶,建议观察3.右侧肩胛下肌低密度灶,建议观察。右肺下叶见一截面约2.9CM×3.6CM软组织肿块,形态不规则,边缘分叶、毛糙伴毛刺,与邻近胸膜关系密切。右肺支气管血管束显著增粗,周围见斑片状软组织密度影,与邻近肺门及纵隔肿大淋巴结分界不清,下叶背段支气管截断,余支气管尚通畅。右肺小叶间隔增厚。双侧肺门、纵隔、双侧锁骨上、双侧腋窝见多发肿大淋巴结,大者短径约2.6CM。腹腔内小弯侧及肠系膜区、腹膜后见大者短径约0.7CM稍大或小淋巴结。右侧胸膜增厚。左肺下叶见一直径不足0.5CM小类结节灶。右侧肩胛下肌见类圆形低密度,未见强化(6-16)。肝内见大者长径约1.0CM囊性结节灶。肝右叶(6-63、62)见一大者长径约0.6CM低密度结节灶,边缘欠清晰。胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。部分椎体(3-62、71)示骨质破坏,周围软组织增厚。	</t>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.右肺癌并右肺癌性淋巴管炎，双肺门、纵隔、双侧锁骨上淋巴结转移；双侧腋窝、腹腔及腹膜后淋巴结肿大，转移不除外；骨转移2.肝内低密度灶，转移不除外，建议观察；肝囊肿2.左肺类结节灶，建议观察3.右侧肩胛下肌低密度灶，建议观察。右肺下叶见一截面约2.9CM×3.6CM软组织肿块，形态不规则，边缘分叶、毛糙伴毛刺，与邻近胸膜关系密切。右肺支气管血管束显著增粗，周围见斑片状软组织密度影，与邻近肺门及纵隔肿大淋巴结分界不清，下叶背段支气管截断，余支气管尚通畅。右肺小叶间隔增厚。双侧肺门、纵隔、双侧锁骨上、双侧腋窝见多发肿大淋巴结，大者短径约2.6CM。腹腔内小弯侧及肠系膜区、腹膜后见大者短径约0.7CM稍大或小淋巴结。右侧胸膜增厚。左肺下叶见一直径不足0.5CM小类结节灶。右侧肩胛下肌见类圆形低密度，未见强化(6-16)。肝内见大者长径约1.0CM囊性结节灶。肝右叶(6-63、62)见一大者长径约0.6CM低密度结节灶，边缘欠清晰。胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。部分椎体(3-62、71)示骨质破坏，周围软组织增厚。	</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>右乳外下象限原片2016-03-09所示强化结节灶现仅剩条索影,其内似见一直径不足0.5CM的结节状强化。余双乳腺体强化欠均质,内示小斑片状强化灶。右侧腋窝示大者短径约0.6CM淋巴结,强化较著。左侧锁骨上示短径不足0.5CM淋巴结。左侧腋窝见数个小淋巴结,部分淋巴结内可见脂肪密度影。纵隔及双肺门未见肿大淋巴结。右肺尖区示小类结节灶,密度较淡,余双肺内示索条影。	1.右乳癌并右腋窝淋巴结转移,较前2016-03-09明显好转。2.右肺类结节灶,较前略好转,考虑炎性可能大;3.双肺纤维灶,变化不著。</t>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>右乳外下象限原片2016-03-09所示强化结节灶现仅剩条索影，其内似见一直径不足0.5CM的结节状强化。余双乳腺体强化欠均质，内示小斑片状强化灶。右侧腋窝示大者短径约0.6CM淋巴结，强化较著。左侧锁骨上示短径不足0.5CM淋巴结。左侧腋窝见数个小淋巴结，部分淋巴结内可见脂肪密度影。纵隔及双肺门未见肿大淋巴结。右肺尖区示小类结节灶，密度较淡，余双肺内示索条影。	1.右乳癌并右腋窝淋巴结转移，较前2016-03-09明显好转。2.右肺类结节灶，较前略好转，考虑炎性可能大；3.双肺纤维灶，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>双乳术后缺如,术区结构紊乱,部分胸壁组织尚存,双侧腋窝清扫术后,双乳术区、左侧颈前、左侧胸部及左侧肩部皮下见多发结节灶及肿块影,大者约3.0CM×2.3CM,增强扫描呈较显著不均匀强化。双肺见多发结节灶及肿块影,大者位于左肺门,直径约3.0CM,包绕邻近上叶支气管及左下肺动脉致其狭窄,并与邻近不张肺组织及纵隔内肿大淋巴结分界不清,增强扫描呈不均匀强化。纵隔内右侧气管食管沟区、血管前间隙、右上气管旁、气管隆突下及双肺门见多发肿大淋巴结,大者短径约1.9CM,增强扫描呈不均匀强化。左侧胸腔内及心包腔内见液性密度影。扫描野内甲状腺双侧叶密度欠均质。脑实质内密度均质,未见异常密度影。脑沟、脑池未见增宽,脑室大小、形态,位置正常,中线结构居中。骨窗示:T5椎体骨质密度不均,可见多发骨质密度减低区。	1.结合临床,双侧乳腺癌术后局部复发并多发皮下转移,双肺转移,纵隔淋巴结转移,T5椎体破坏,考虑转移2.左侧胸腔中量积液;少量心包积液3.颅脑扫描未见异常。</t>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>双乳术后缺如，术区结构紊乱，部分胸壁组织尚存，双侧腋窝清扫术后，双乳术区、左侧颈前、左侧胸部及左侧肩部皮下见多发结节灶及肿块影，大者约3.0CM×2.3CM，增强扫描呈较显著不均匀强化。双肺见多发结节灶及肿块影，大者位于左肺门，直径约3.0CM，包绕邻近上叶支气管及左下肺动脉致其狭窄，并与邻近不张肺组织及纵隔内肿大淋巴结分界不清，增强扫描呈不均匀强化。纵隔内右侧气管食管沟区、血管前间隙、右上气管旁、气管隆突下及双肺门见多发肿大淋巴结，大者短径约1.9CM，增强扫描呈不均匀强化。左侧胸腔内及心包腔内见液性密度影。扫描野内甲状腺双侧叶密度欠均质。脑实质内密度均质，未见异常密度影。脑沟、脑池未见增宽，脑室大小、形态，位置正常，中线结构居中。骨窗示：T5椎体骨质密度不均，可见多发骨质密度减低区。	1.结合临床，双侧乳腺癌术后局部复发并多发皮下转移，双肺转移，纵隔淋巴结转移，T5椎体破坏，考虑转移2.左侧胸腔中量积液；少量心包积液3.颅脑扫描未见异常。</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>1、左肺门占位,考虑中央型肺癌伴阻塞性肺炎,左下肺动脉及静脉受累可能大;纵隔及左肺门淋巴结转移,与2015-10-14相比,肿块较前相仿,炎症较前进展;淋巴结较前稍增大;2、右肺多发粟粒灶,磨玻璃结节,与前相比,右肺下叶磨玻璃结节较前新发,右肺下叶一粟粒灶(32)较前新发,请结合临床,随诊;3、右肺炎症,较前新发;4、右肺下叶前基底段钙化灶;双侧胸膜增厚;5、左侧胸腔积液;心包少量积液,胸腔积液较前稍减少。左肺体积减小,左肺门区可见软组织团块影,边界不清,最大截面大小为4.0CM×4.2CM,密度不均,平扫CT值约为40HU,左肺下叶支气管闭塞,左肺上叶支气管局部不均匀变窄,左肺下叶明显膨胀不全,所示左肺透亮度减低,并见条索影。双肺可见多发斑片状高密度影,边缘模糊。右肺部分近胸膜处肺组织小叶间隔增厚,略呈网格状改变,右肺下叶前基底段可见小致密影,右肺另见散在粟粒影。右肺下叶可见(30)可见磨玻璃密度结节影,界清,径约0.6CM。纵隔及左肺门淋巴结肿大,大者短径为1.0CM,左侧胸膜增厚。左侧胸腔积液征象,左肺动脉显示不清,心包内少量液性密度影。</t>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>1、左肺门占位，考虑中央型肺癌伴阻塞性肺炎，左下肺动脉及静脉受累可能大；纵隔及左肺门淋巴结转移，与2015-10-14相比，肿块较前相仿，炎症较前进展；淋巴结较前稍增大；2、右肺多发粟粒灶，磨玻璃结节，与前相比，右肺下叶磨玻璃结节较前新发，右肺下叶一粟粒灶(32)较前新发，请结合临床，随诊；3、右肺炎症，较前新发；4、右肺下叶前基底段钙化灶；双侧胸膜增厚；5、左侧胸腔积液；心包少量积液，胸腔积液较前稍减少。左肺体积减小，左肺门区可见软组织团块影，边界不清，最大截面大小为4.0CM×4.2CM，密度不均，平扫CT值约为40HU，左肺下叶支气管闭塞，左肺上叶支气管局部不均匀变窄，左肺下叶明显膨胀不全，所示左肺透亮度减低，并见条索影。双肺可见多发斑片状高密度影，边缘模糊。右肺部分近胸膜处肺组织小叶间隔增厚，略呈网格状改变，右肺下叶前基底段可见小致密影，右肺另见散在粟粒影。右肺下叶可见(30)可见磨玻璃密度结节影，界清，径约0.6CM。纵隔及左肺门淋巴结肿大，大者短径为1.0CM，左侧胸膜增厚。左侧胸腔积液征象，左肺动脉显示不清，心包内少量液性密度影。</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>右肺下叶背段(37)可见粟粒影。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。两胸腔未见积液征象。主动脉壁及冠脉壁见弧形高密度影。右乳体积明显增大,内见多发团块影,边界尚清,大者大小约6.6CM×6.0CM,CT值约11HU;右侧胸大肌形态改变,边缘毛糙;左乳内见斑点状致密影。右侧锁骨上区、下区及双侧腋窝可见多发肿大淋巴结影,大者短径约1.7CM。1.右肺下叶粟粒灶,较前相仿;2.右侧乳腺癌,肿块较前明显增大;右侧锁骨上区、下区及双侧腋窝多发淋巴结转移;右侧胸大肌形态改变,考虑受侵;3.左乳内钙化灶,详查。</t>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>右肺下叶背段(37)可见粟粒影。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。两胸腔未见积液征象。主动脉壁及冠脉壁见弧形高密度影。右乳体积明显增大，内见多发团块影，边界尚清，大者大小约6.6CM×6.0CM，CT值约11HU；右侧胸大肌形态改变，边缘毛糙；左乳内见斑点状致密影。右侧锁骨上区、下区及双侧腋窝可见多发肿大淋巴结影，大者短径约1.7CM。1.右肺下叶粟粒灶，较前相仿；2.右侧乳腺癌，肿块较前明显增大；右侧锁骨上区、下区及双侧腋窝多发淋巴结转移；右侧胸大肌形态改变，考虑受侵；3.左乳内钙化灶，详查。</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>右肺下叶可见软组织密度肿块影,大小约为5.1CM×4.0CM,CT值约为10-36HU;双肺可见多个小结节影与粟粒影;右肺上叶可见致密钙化灶;右胸腔积液征象;心脏大血管未见异常。左侧肩胛骨可见骨质破坏,双侧多个肋骨、胸椎密度不均匀。1.右肺下叶恶性肿物,双肺多个小结节与粟粒灶,右侧胸腔少量积液;2.左侧肩胛骨骨质破坏,双侧多个肋骨、胸椎密度不均匀,均为骨转移改变;3.右肺上叶钙化灶。</t>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>右肺下叶可见软组织密度肿块影，大小约为5.1CM×4.0CM，CT值约为10-36HU；双肺可见多个小结节影与粟粒影；右肺上叶可见致密钙化灶；右胸腔积液征象；心脏大血管未见异常。左侧肩胛骨可见骨质破坏，双侧多个肋骨、胸椎密度不均匀。1.右肺下叶恶性肿物，双肺多个小结节与粟粒灶，右侧胸腔少量积液；2.左侧肩胛骨骨质破坏，双侧多个肋骨、胸椎密度不均匀，均为骨转移改变；3.右肺上叶钙化灶。</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t xml:space="preserve">对比之前PET/CT(2016-12-09):1.结合病史,右乳癌术后,双肺多发转移,左腋窝、纵隔、腹腔及腹膜后多发淋巴结转移治疗后,与前PET/CT相比,病灶明显缩小,代谢降低,现未见明显异常代谢,病情明显好转。2.右肺慢性炎症及局限性纤维变。3.右侧少量胸腔积液。4.考虑子宫肌瘤;子宫局部高代谢灶,建议B超检查。5.双侧扁桃体炎症;双颈部炎性淋巴结。注射示踪剂后60MMIN显像,见大脑形态如常,皮层各叶放射性分布均匀。中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。双侧扁桃体结节状放射性浓聚,最高SUV7.2。鼻咽、下咽及喉部未见异常放射性浓聚。双侧颈中深示轻度放射性摄取增高淋巴结,大者短径约1.0CM,最高SUV2.8。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。右乳术后缺如,右腋窝结构紊乱,右侧胸壁未见显著增厚及明显异常放射性摄取。双侧内乳区淋巴结未见显著增大及明显异常放射性摄取。原PET/CT(2016-12-09)所示双肺多发结节灶,现显著缩小,放射性摄取降低,现未见明显异常放射性摄取。余右肺前胸膜下示斑片状密度增高影,内可见支气管充气征象,可见轻度放射性摄取,最高SUV1.8,右侧胸腔内见少量液性密度影。原PET/CT(2016-12-09)所示左侧腋窝、纵隔内4R、7区、左肺门、门腔静脉间、腹膜后大血管周围多发放射性摄取增高淋巴结,现显著缩小,放射性摄取降低,现未见明显异常放射性摄取。胃壁未示显著增厚及明显异常放射性摄取。肝内未见明显异常放射性摄取。胆囊大小正常,密度均匀。胰腺形态放射性分布尚好,胰管不扩张。脾轻度显影,放射性分布欠均匀。两侧肾脏显影可,肾实质密度均匀。两侧肾上腺显影大致正常。腹水征阴性。盆腔内膀胱放射性浓聚如常。双侧腹股沟淋巴结未见显著增大及明显异常放射性摄取。子宫局部结节状突出,局部结节状放射性摄取增高,摄取灶长径约1.6CM,最高SUV5.4。两侧附件区未见异常放射性摄取。脊柱诸椎体放射性分布欠均匀。	</t>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">对比之前PET/CT(2016-12-09)：1.结合病史，右乳癌术后，双肺多发转移，左腋窝、纵隔、腹腔及腹膜后多发淋巴结转移治疗后，与前PET/CT相比，病灶明显缩小，代谢降低，现未见明显异常代谢，病情明显好转。2.右肺慢性炎症及局限性纤维变。3.右侧少量胸腔积液。4.考虑子宫肌瘤；子宫局部高代谢灶，建议B超检查。5.双侧扁桃体炎症；双颈部炎性淋巴结。注射示踪剂后60MMIN显像，见大脑形态如常，皮层各叶放射性分布均匀。中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。双侧扁桃体结节状放射性浓聚，最高SUV7.2。鼻咽、下咽及喉部未见异常放射性浓聚。双侧颈中深示轻度放射性摄取增高淋巴结，大者短径约1.0CM，最高SUV2.8。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。右乳术后缺如，右腋窝结构紊乱，右侧胸壁未见显著增厚及明显异常放射性摄取。双侧内乳区淋巴结未见显著增大及明显异常放射性摄取。原PET/CT(2016-12-09)所示双肺多发结节灶，现显著缩小，放射性摄取降低，现未见明显异常放射性摄取。余右肺前胸膜下示斑片状密度增高影，内可见支气管充气征象，可见轻度放射性摄取，最高SUV1.8，右侧胸腔内见少量液性密度影。原PET/CT(2016-12-09)所示左侧腋窝、纵隔内4R、7区、左肺门、门腔静脉间、腹膜后大血管周围多发放射性摄取增高淋巴结，现显著缩小，放射性摄取降低，现未见明显异常放射性摄取。胃壁未示显著增厚及明显异常放射性摄取。肝内未见明显异常放射性摄取。胆囊大小正常，密度均匀。胰腺形态放射性分布尚好，胰管不扩张。脾轻度显影，放射性分布欠均匀。两侧肾脏显影可，肾实质密度均匀。两侧肾上腺显影大致正常。腹水征阴性。盆腔内膀胱放射性浓聚如常。双侧腹股沟淋巴结未见显著增大及明显异常放射性摄取。子宫局部结节状突出，局部结节状放射性摄取增高，摄取灶长径约1.6CM，最高SUV5.4。两侧附件区未见异常放射性摄取。脊柱诸椎体放射性分布欠均匀。	</t>
         </is>
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>左乳术后,术区结构紊乱,未见结节及结节灶。左侧腋窝结构紊乱。右乳未见异常。左侧内乳见增大淋巴结,短径约0.8CM。左侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰,未见结节及异常强化灶。肝实质内见多发低密度结节及肿块,大者直径约3.7CM。胆囊充盈可,壁不厚。胰脾、双侧肾上腺及双肾未见异常。腹腔及腹膜后未见明显肿大淋巴结。	1.结合临床,左乳癌术后改变,左侧内乳淋巴结肿大2.肝转移,较前片2014-4-2进展。</t>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>左乳术后，术区结构紊乱，未见结节及结节灶。左侧腋窝结构紊乱。右乳未见异常。左侧内乳见增大淋巴结，短径约0.8CM。左侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰，未见结节及异常强化灶。肝实质内见多发低密度结节及肿块，大者直径约3.7CM。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及双肾未见异常。腹腔及腹膜后未见明显肿大淋巴结。	1.结合临床，左乳癌术后改变，左侧内乳淋巴结肿大2.肝转移，较前片2014-4-2进展。</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>1.右乳癌术后改变;右侧胸膜多发结节灶,考虑为胸膜转移;多发骨质破坏,考虑为骨转移;左锁骨上淋巴结转移2.上腹扫描未见异常右乳术后缺如,术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及內乳区未见肿大淋巴结。右侧胸膜(包括叶间胸膜、膈胸膜)示多发类结节灶,直径约0.5CM,边界欠清,右肺中叶示一结节灶,直径约0.5CM,密度较淡,余双肺野清晰,气管及各级支气管通畅,未见异常密度灶。双肺门及纵隔未见肿大淋巴结。双侧胸腔未见积液征象。扫描野内肝实质密度轻度减低。胸骨、T3、T7、T9、T12椎体呈不规则骨质改变。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上区示多个淋巴结,大者短径约1.2CM。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。肝脏大小形态未见异常,肝实质未见异常密度影。胆囊、胰腺、脾、双肾、肾上腺未见异常,腹腔腹膜后未见肿大淋巴结影。</t>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>1.右乳癌术后改变；右侧胸膜多发结节灶，考虑为胸膜转移；多发骨质破坏，考虑为骨转移；左锁骨上淋巴结转移2.上腹扫描未见异常右乳术后缺如，术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及內乳区未见肿大淋巴结。右侧胸膜(包括叶间胸膜、膈胸膜)示多发类结节灶，直径约0.5CM，边界欠清，右肺中叶示一结节灶，直径约0.5CM，密度较淡，余双肺野清晰，气管及各级支气管通畅，未见异常密度灶。双肺门及纵隔未见肿大淋巴结。双侧胸腔未见积液征象。扫描野内肝实质密度轻度减低。胸骨、T3、T7、T9、T12椎体呈不规则骨质改变。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上区示多个淋巴结，大者短径约1.2CM。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。肝脏大小形态未见异常，肝实质未见异常密度影。胆囊、胰腺、脾、双肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,肝癌伴肝内转移治疗后,较前片2014-8-12变化不著2.双肺尖多发类结节灶,较前变化不著;右肺下叶结节灶,部分较前略增大,不除外转移;右侧叶间胸膜结节灶,较前变化不著3.肝囊肿4.双肺上叶气肿5.双肺上叶纤维灶6.左侧肾上腺饱满,变化不著。肝脏体积增大,形态欠规则,实质内见多发混杂密度结节及肿块影,边界欠清,部分可见假包膜形成,大者截面积约12.8CM×10.0CM,部分其内示高密度碘油影沉积;增强扫描呈中度不均匀强化,大者其内可见低密度坏死区,延迟后病灶部分可见廓清。另肝内可见散在囊性密度灶,未见强化。门脉主干及左支显示尚可,门脉右前支示受压显著变窄,右后支显示欠清。胆囊充盈可,壁不厚。胰腺、脾、双肾及右侧肾上腺未见明确异常。左侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。双肺尖见多发类结节灶,直径不足0.5CM。另右肺下叶示类结节灶(5-46),大者短径约0.2CM。双肺上叶见多发泡状过度透亮区及条索状密度增高影。双肺门及纵隔未见明确肿大淋巴结。右侧叶间胸膜增厚局部示类结节灶。	</t>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，肝癌伴肝内转移治疗后，较前片2014-8-12变化不著2.双肺尖多发类结节灶，较前变化不著；右肺下叶结节灶，部分较前略增大，不除外转移；右侧叶间胸膜结节灶，较前变化不著3.肝囊肿4.双肺上叶气肿5.双肺上叶纤维灶6.左侧肾上腺饱满，变化不著。肝脏体积增大，形态欠规则，实质内见多发混杂密度结节及肿块影，边界欠清，部分可见假包膜形成，大者截面积约12.8CM×10.0CM，部分其内示高密度碘油影沉积；增强扫描呈中度不均匀强化，大者其内可见低密度坏死区，延迟后病灶部分可见廓清。另肝内可见散在囊性密度灶，未见强化。门脉主干及左支显示尚可，门脉右前支示受压显著变窄，右后支显示欠清。胆囊充盈可，壁不厚。胰腺、脾、双肾及右侧肾上腺未见明确异常。左侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。双肺尖见多发类结节灶，直径不足0.5CM。另右肺下叶示类结节灶(5-46)，大者短径约0.2CM。双肺上叶见多发泡状过度透亮区及条索状密度增高影。双肺门及纵隔未见明确肿大淋巴结。右侧叶间胸膜增厚局部示类结节灶。	</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>双肺可见多发的大小不等的小结节影。右肺中叶、下叶、左肺上叶舌段可见片状的高密度影。右肺下叶可见团块影,CT值约为36HU,长径约为4.45CM。两肺纹理清晰。所示气管支气管影正常。两肺门、纵隔内可见多发肿大的淋巴结。两胸腔积液征象。心包积液。甲状腺明显肿大。右侧第四肋根部可见密度增高影。1.右肺下叶病变,考虑周围肺癌,双肺多发转移瘤,双肺门、纵隔淋巴结转移;2.双胸腔积液,心包积液;3.右肺中叶、下叶、左肺上叶舌段炎症;4.右侧第四肋根部密度增高影,请结合临床。</t>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>双肺可见多发的大小不等的小结节影。右肺中叶、下叶、左肺上叶舌段可见片状的高密度影。右肺下叶可见团块影，CT值约为36HU，长径约为4.45CM。两肺纹理清晰。所示气管支气管影正常。两肺门、纵隔内可见多发肿大的淋巴结。两胸腔积液征象。心包积液。甲状腺明显肿大。右侧第四肋根部可见密度增高影。1.右肺下叶病变，考虑周围肺癌，双肺多发转移瘤，双肺门、纵隔淋巴结转移；2.双胸腔积液，心包积液；3.右肺中叶、下叶、左肺上叶舌段炎症；4.右侧第四肋根部密度增高影，请结合临床。</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>右肺上叶尖段可见软组织肿块影,最大截面约1.2CM×1.6CM,边缘浅分叶可见细毛刺,内缘有长毛刺与纵隔相连,增强扫描呈中等不均匀性强化;右肺野可见一类结节灶(3-37)、左肺上叶(3-29),大者直径约0.3CM。双侧锁骨上区、右肺门、纵隔内右侧气管食管沟、气管右前、腔静脉后、血管前、主肺动脉窗区及隆突下可见肿大淋巴结,大者短径约1.2CM。肝脏形态、大小可,实质密度均质。肝内外胆管未见扩张。胆囊充盈可,壁不厚。胰、脾、扫描野内双肾形态大小密度未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。骨窗示锁骨、肋骨、椎体可见多发骨质破坏。	1.结合临床,右肺上叶癌侵及脏层胸膜并双侧锁骨上区、右肺门及纵隔淋巴结转移,骨转移2.双侧肾上腺饱满,建议观察。</t>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>右肺上叶尖段可见软组织肿块影，最大截面约1.2CM×1.6CM，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；右肺野可见一类结节灶(3-37)、左肺上叶(3-29)，大者直径约0.3CM。双侧锁骨上区、右肺门、纵隔内右侧气管食管沟、气管右前、腔静脉后、血管前、主肺动脉窗区及隆突下可见肿大淋巴结，大者短径约1.2CM。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾形态大小密度未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。骨窗示锁骨、肋骨、椎体可见多发骨质破坏。	1.结合临床，右肺上叶癌侵及脏层胸膜并双侧锁骨上区、右肺门及纵隔淋巴结转移，骨转移2.双侧肾上腺饱满，建议观察。</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>右肺中叶支气管开口处见一不规则软组织密度肿块影,边缘模糊,病变大小不易测量,增强后可见轻度强化。病变远端示片状肺不张影。双肺见多发结节灶,大者直径约0.5CM。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶,大者直径不足0.5CM。右肾见直径约0.5CM低密度结节灶,未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分胸椎骨质密度增高,右侧第3肋局限性骨质密度增高。	1.结合临床,右肺癌并阻塞性炎症,较前片(2015-10-22)示进展2.双肺多发结节灶,考虑转移,较前部分略增大,部分变化不著3.肝囊肿4.部分胸椎体及肋骨骨质密度增高,考虑转移,较前变化不著5.右肾低密度灶,变化不著。</t>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>右肺中叶支气管开口处见一不规则软组织密度肿块影，边缘模糊，病变大小不易测量，增强后可见轻度强化。病变远端示片状肺不张影。双肺见多发结节灶，大者直径约0.5CM。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶，大者直径不足0.5CM。右肾见直径约0.5CM低密度结节灶，未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分胸椎骨质密度增高，右侧第3肋局限性骨质密度增高。	1.结合临床，右肺癌并阻塞性炎症，较前片(2015-10-22)示进展2.双肺多发结节灶，考虑转移，较前部分略增大，部分变化不著3.肝囊肿4.部分胸椎体及肋骨骨质密度增高，考虑转移，较前变化不著5.右肾低密度灶，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张、肺炎治疗后,较前(2016-9-12)缩小;双侧胸膜多发结节灶,考虑转移,部分略缩小,部分变化不著;纵隔淋巴结转移,略缩小;右肾上腺转移,变化不著2.肝囊肿;双肾囊肿;左肾低密度灶,胰腺低密度灶,建议观察3.心包、左胸腔少量积液,略减少4.右肺类磨玻璃密度灶,建议观察5.部分椎骨密度略增高,请结合其他检查或观察。左肺门周围可见不规则软组织密度肿块影,约3.7CM×4.3CM,增强扫描呈明显不均匀强化,与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。右肺上叶近胸膜下示类磨玻璃密度灶。双侧胸膜及叶间胸膜上可见多发类结节灶,大者长径约0.6CM。纵隔内2R、4R、4L、5、6、7、8区示多发融合的淋巴结影,大者短径约1.8CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常,肝实质内可见数个囊性低密度灶,边界清,增强扫描无强化。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常,右肾上腺示一类结节灶,长径约3.3CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨密度略增高。	</t>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张、肺炎治疗后，较前(2016-9-12)缩小；双侧胸膜多发结节灶，考虑转移，部分略缩小，部分变化不著；纵隔淋巴结转移，略缩小；右肾上腺转移，变化不著2.肝囊肿；双肾囊肿；左肾低密度灶，胰腺低密度灶，建议观察3.心包、左胸腔少量积液，略减少4.右肺类磨玻璃密度灶，建议观察5.部分椎骨密度略增高，请结合其他检查或观察。左肺门周围可见不规则软组织密度肿块影，约3.7CM×4.3CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。右肺上叶近胸膜下示类磨玻璃密度灶。双侧胸膜及叶间胸膜上可见多发类结节灶，大者长径约0.6CM。纵隔内2R、4R、4L、5、6、7、8区示多发融合的淋巴结影，大者短径约1.8CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常，肝实质内可见数个囊性低密度灶，边界清，增强扫描无强化。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常，右肾上腺示一类结节灶，长径约3.3CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨密度略增高。	</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>右肺下叶切除术后,右下肺门区见斑片状软组织密度影,边缘欠清,范围约2.5CM×2.6CM,增强扫描可见轻度强化。右肺下叶见索条影。左肺清晰,未见结节及肿块。余气管及段以上支气管管腔通畅。右侧胸腔见少量液性密度影。右肺门、纵隔内2R、3A、4R、6、7区见多发增大淋巴结,部分融合成团,大者大小约为5.0CM×3.7CM,位于4R区。扫描野内肝脏密度普遍性降低,肝右叶见一类圆形强化结节灶,边界清,直径约0.7CM。门腔间隙示增大淋巴结,短径约0.8CM。左前下胸壁软组织内示梭形脂肪样密度影,边界清。骨窗示:左侧肩胛骨局部骨质结节状稀疏。	1.结合病史,右肺癌术后,右下肺门区小片状软组织密度影,较前(2015-06-08)增大,复发可能大,请结合支气管镜检查;右肺门、纵隔多发淋巴结转移,较前进展2.右肺纤维灶,右侧少量胸腔积液,变化不著。3.脂肪肝;肝血管瘤,变化不著。4.左胸壁脂肪瘤,变化不著。5.左侧肩胛骨局部骨质稀疏,建议进一步检查。</t>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>右肺下叶切除术后，右下肺门区见斑片状软组织密度影，边缘欠清，范围约2.5CM×2.6CM，增强扫描可见轻度强化。右肺下叶见索条影。左肺清晰，未见结节及肿块。余气管及段以上支气管管腔通畅。右侧胸腔见少量液性密度影。右肺门、纵隔内2R、3A、4R、6、7区见多发增大淋巴结，部分融合成团，大者大小约为5.0CM×3.7CM，位于4R区。扫描野内肝脏密度普遍性降低，肝右叶见一类圆形强化结节灶，边界清，直径约0.7CM。门腔间隙示增大淋巴结，短径约0.8CM。左前下胸壁软组织内示梭形脂肪样密度影，边界清。骨窗示：左侧肩胛骨局部骨质结节状稀疏。	1.结合病史，右肺癌术后，右下肺门区小片状软组织密度影，较前(2015-06-08)增大，复发可能大，请结合支气管镜检查；右肺门、纵隔多发淋巴结转移，较前进展2.右肺纤维灶，右侧少量胸腔积液，变化不著。3.脂肪肝；肝血管瘤，变化不著。4.左胸壁脂肪瘤，变化不著。5.左侧肩胛骨局部骨质稀疏，建议进一步检查。</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>右乳腺体内可见多发软组织密度结节灶,大者直径约4.5CM,边缘毛糙,增强后呈明显强化,部分相互融合,与乳腺皮肤多发结节灶分界欠清,并相互融合,增强后呈较显著强化。右侧腋窝可见融合成团的肿大淋巴结,边缘分叶,局部可见溃疡形成,增强后呈较显著不均质强化。右侧胸肌内亦可见多发结节灶,边缘模糊,可见较显著强化。右侧胸壁显示水肿。双肺内可见散在类圆形结节灶,边界较清晰,大者直径约0.8CM。左乳未见异常。纵隔内未见肿大淋巴结。右锁上、左侧腋窝、双侧内乳区、气管右旁可见肿大淋巴结,大者短径约1.3CM,边缘较模糊。双侧甲状腺体积增大,局部可见低密度灶及散在钙化灶。右侧锁骨呈内固定术后改变,余扫描野内骨质未见明显破坏。肝脏实质密度减低。胆囊充盈可,壁不厚。胰、脾、双侧肾上腺及左肾未见异常。右肾内可见囊性密度灶,未见强化。腹腔及腹膜后未见肿大淋巴结。脑实质均质,未见异常密度灶。脑室系统未见扩张。中线结构居中。	1.右乳癌并侵及皮肤及胸壁,右腋窝淋巴结转移,右侧胸壁转移,双肺转移2.右锁上、左侧腋窝、双侧内乳区、纵隔淋巴结略肿大3.甲状腺增大伴低密度灶及钙化灶,请结合其他检查4.脂肪肝5.右肾囊肿6.右侧锁骨内固定术后改变7.颅脑扫描未见异常。</t>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>右乳腺体内可见多发软组织密度结节灶，大者直径约4.5CM，边缘毛糙，增强后呈明显强化，部分相互融合，与乳腺皮肤多发结节灶分界欠清，并相互融合，增强后呈较显著强化。右侧腋窝可见融合成团的肿大淋巴结，边缘分叶，局部可见溃疡形成，增强后呈较显著不均质强化。右侧胸肌内亦可见多发结节灶，边缘模糊，可见较显著强化。右侧胸壁显示水肿。双肺内可见散在类圆形结节灶，边界较清晰，大者直径约0.8CM。左乳未见异常。纵隔内未见肿大淋巴结。右锁上、左侧腋窝、双侧内乳区、气管右旁可见肿大淋巴结，大者短径约1.3CM，边缘较模糊。双侧甲状腺体积增大，局部可见低密度灶及散在钙化灶。右侧锁骨呈内固定术后改变，余扫描野内骨质未见明显破坏。肝脏实质密度减低。胆囊充盈可，壁不厚。胰、脾、双侧肾上腺及左肾未见异常。右肾内可见囊性密度灶，未见强化。腹腔及腹膜后未见肿大淋巴结。脑实质均质，未见异常密度灶。脑室系统未见扩张。中线结构居中。	1.右乳癌并侵及皮肤及胸壁，右腋窝淋巴结转移，右侧胸壁转移，双肺转移2.右锁上、左侧腋窝、双侧内乳区、纵隔淋巴结略肿大3.甲状腺增大伴低密度灶及钙化灶，请结合其他检查4.脂肪肝5.右肾囊肿6.右侧锁骨内固定术后改变7.颅脑扫描未见异常。</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,左侧乳腺癌术后,左侧内乳淋巴结转移2.纵隔、右侧腋窝淋巴结肿大,考虑转移3.右侧心膈角淋巴结肿大,请结合临床或观察4.脂肪肝;肝囊肿5.左肺上叶胸膜下慢性炎症及纤维变6.颅脑扫描未见异常。左侧乳腺术后,局部胸壁未见显著增厚。右侧乳腺形态、大小、密度未见异常。左侧腋窝结构紊乱,未见增大淋巴结。左侧内乳区见短径约1.3CM淋巴结(图3-25)。右侧腋窝见多发增大淋巴结,大者短径约1.0CM。纵隔内血管前间隙3A、气管前间隙4R、弓旁6区见多发增大淋巴结,大者短径约1.2CM。右侧心膈角见短径约0.5CM淋巴结。左肺上叶胸膜下见少许条索状影。双侧胸腔内未见液性密度影。扫描野内肝脏密度减低,右叶见直径约0.8CM囊性密度灶,边缘清晰。脑实质内未见异常密度影,脑沟、脑池未见增宽,脑室大小、形态,位置正常,中线结构居中。各颅骨骨质形态未见异常改变。	</t>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，左侧乳腺癌术后，左侧内乳淋巴结转移2.纵隔、右侧腋窝淋巴结肿大，考虑转移3.右侧心膈角淋巴结肿大，请结合临床或观察4.脂肪肝；肝囊肿5.左肺上叶胸膜下慢性炎症及纤维变6.颅脑扫描未见异常。左侧乳腺术后，局部胸壁未见显著增厚。右侧乳腺形态、大小、密度未见异常。左侧腋窝结构紊乱，未见增大淋巴结。左侧内乳区见短径约1.3CM淋巴结(图3-25)。右侧腋窝见多发增大淋巴结，大者短径约1.0CM。纵隔内血管前间隙3A、气管前间隙4R、弓旁6区见多发增大淋巴结，大者短径约1.2CM。右侧心膈角见短径约0.5CM淋巴结。左肺上叶胸膜下见少许条索状影。双侧胸腔内未见液性密度影。扫描野内肝脏密度减低，右叶见直径约0.8CM囊性密度灶，边缘清晰。脑实质内未见异常密度影，脑沟、脑池未见增宽，脑室大小、形态，位置正常，中线结构居中。各颅骨骨质形态未见异常改变。	</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>左侧乳腺可见弥漫分布的结节样、小片状异常信号区,表现为T1WI等信号,T2WI略高信号,压脂序列高信号,DWI序列高信号,注射对比剂GD-DTPA后呈环形强化,动态增强曲线呈平台型,大者约9MM×11MM,部分病变与胸壁间可见条索相连,左乳皮肤增厚,乳头凹陷。右侧乳腺可见数个强化小结节。所扫左侧腋窝结构紊乱,可见数个大小不等淋巴结,大者直径约6MM。所扫右侧腋窝可见多个小淋巴结。余未见异常。	1.结合临床,左乳癌并左腋窝淋巴结转移,较本院(2014-11-27)MR片好转。2.右乳多发结节灶,考虑良性病变(BI-RADSIII级),较前变化不著。</t>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>左侧乳腺可见弥漫分布的结节样、小片状异常信号区，表现为T1WI等信号，T2WI略高信号，压脂序列高信号，DWI序列高信号，注射对比剂GD-DTPA后呈环形强化，动态增强曲线呈平台型，大者约9MM×11MM，部分病变与胸壁间可见条索相连，左乳皮肤增厚，乳头凹陷。右侧乳腺可见数个强化小结节。所扫左侧腋窝结构紊乱，可见数个大小不等淋巴结，大者直径约6MM。所扫右侧腋窝可见多个小淋巴结。余未见异常。	1.结合临床，左乳癌并左腋窝淋巴结转移，较本院(2014-11-27)MR片好转。2.右乳多发结节灶，考虑良性病变(BI-RADSIII级)，较前变化不著。</t>
         </is>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右肺上叶癌侵及脏层胸膜并双侧锁骨上区、右肺门及纵隔淋巴结转移,较前(2016-02-18)略好转;骨转移2.双侧肾上腺饱满,变化不著3.子宫未见显示,建议结合临床。右肺上叶尖段可见软组织肿块影,最大截面约1.0CM×1.4CM(肺窗),边缘浅分叶可见细毛刺,内缘有长毛刺与纵隔相连,增强扫描呈中等不均匀性强化;余双肺野较清晰,未见明确异常密度灶。双侧锁骨上区、右肺门、纵隔内右侧气管食管沟、气管右前、腔静脉后、主肺动脉窗区及隆突下可见肿大淋巴结,大者短径不足1.0CM。肝脏形态、大小可,实质密度均质。肝内外胆管未见扩张。胆囊充盈可,壁不厚。胰、脾、扫描野内双肾形态大小密度未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。膀胱充盈可,壁不厚。子宫未见显示。盆腔内未见明确肿大淋巴结。骨窗示双侧锁骨、左侧肱骨、双侧肩胛骨、胸骨、双侧多发肋骨、多发胸腰骶椎椎体、双侧髂骨、耻骨及坐骨、双侧股骨可见多发骨质破坏。	</t>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右肺上叶癌侵及脏层胸膜并双侧锁骨上区、右肺门及纵隔淋巴结转移，较前(2016-02-18)略好转；骨转移2.双侧肾上腺饱满，变化不著3.子宫未见显示，建议结合临床。右肺上叶尖段可见软组织肿块影，最大截面约1.0CM×1.4CM(肺窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。双侧锁骨上区、右肺门、纵隔内右侧气管食管沟、气管右前、腔静脉后、主肺动脉窗区及隆突下可见肿大淋巴结，大者短径不足1.0CM。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾形态大小密度未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。膀胱充盈可，壁不厚。子宫未见显示。盆腔内未见明确肿大淋巴结。骨窗示双侧锁骨、左侧肱骨、双侧肩胛骨、胸骨、双侧多发肋骨、多发胸腰骶椎椎体、双侧髂骨、耻骨及坐骨、双侧股骨可见多发骨质破坏。	</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>右肺上叶尖段支气管闭塞,前段及后段支气管管壁略厚,管腔狭窄,可见团块状稍高密度影,大小约7.7CM×5.5CM,可见浅分叶,边缘可见细短毛刺,CT值约22HU,右上支气管受压变窄,增强后扫描呈不均匀强化,三期CT值分别为69HU、49HU、43HU,右上肺动脉变窄,远端显示欠清,上腔静脉管腔狭窄,其内可疑充盈缺损;右肺中叶、下叶、左舌段可见索条灶,左肺下叶见片状高密度影;左肺下叶近斜裂(37)可见小结节影,径约0.4CM。双肺见多发局限性透亮影。纵隔内可见增大的淋巴结,部分融合,短径约2.6CM;右侧锁骨上淋巴结增大,大者短径约1.12CM。两胸腔无积液征象,右侧胸膜局限性增厚。心包内可见条形液体密度影,大血管未见异常。双侧腋窝内多发稍大淋巴结影,大者短径约0.7CM。1.右肺上叶团块影,考虑中央型肺癌,纵隔、右侧锁骨上淋巴结转移;右上肺动脉变窄;上腔静脉管腔狭窄,可疑瘤栓;较前CT片(2012-07-02)明显增大,请结合临床;2.肺气肿;双肺索条灶;左肺下叶炎症;3.心包积液;4.左侧斜裂小结节,较前相仿,请随诊。</t>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>右肺上叶尖段支气管闭塞，前段及后段支气管管壁略厚，管腔狭窄，可见团块状稍高密度影，大小约7.7CM×5.5CM，可见浅分叶，边缘可见细短毛刺，CT值约22HU，右上支气管受压变窄，增强后扫描呈不均匀强化，三期CT值分别为69HU、49HU、43HU，右上肺动脉变窄，远端显示欠清，上腔静脉管腔狭窄，其内可疑充盈缺损；右肺中叶、下叶、左舌段可见索条灶，左肺下叶见片状高密度影；左肺下叶近斜裂(37)可见小结节影，径约0.4CM。双肺见多发局限性透亮影。纵隔内可见增大的淋巴结，部分融合，短径约2.6CM；右侧锁骨上淋巴结增大，大者短径约1.12CM。两胸腔无积液征象，右侧胸膜局限性增厚。心包内可见条形液体密度影，大血管未见异常。双侧腋窝内多发稍大淋巴结影，大者短径约0.7CM。1.右肺上叶团块影，考虑中央型肺癌，纵隔、右侧锁骨上淋巴结转移；右上肺动脉变窄；上腔静脉管腔狭窄，可疑瘤栓；较前CT片(2012-07-02)明显增大，请结合临床；2.肺气肿；双肺索条灶；左肺下叶炎症；3.心包积液；4.左侧斜裂小结节，较前相仿，请随诊。</t>
         </is>
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>右肺上叶可见软组织密度肿块影,大小约3.3CM×4.7CM,分叶状,边缘毛糙,增强后呈明显强化。右肺内(图5-19、46、49)可见结节灶,大者直径约0.3CM。纵隔内未见肿大淋巴结。肝脏实质内可见囊性密度灶,大者直径约0.5CM。胆、胰、脾及双肾未见异常。腹膜后未见肿大淋巴结。	1.右肺癌并右肺转移2.肝囊肿。</t>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>右肺上叶可见软组织密度肿块影，大小约3.3CM×4.7CM，分叶状，边缘毛糙，增强后呈明显强化。右肺内(图5-19、46、49)可见结节灶，大者直径约0.3CM。纵隔内未见肿大淋巴结。肝脏实质内可见囊性密度灶，大者直径约0.5CM。胆、胰、脾及双肾未见异常。腹膜后未见肿大淋巴结。	1.右肺癌并右肺转移2.肝囊肿。</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>左肺上叶近纵隔旁见团片状软组织影,最大截面大小约为5.78CM×3.56CM,CT值约35HU;右肺上叶后段可见一结节,径约0.5CM;双肺纵隔旁及胸膜下见多个条索状及斑片状高密度影。腔静脉间隙、主动脉弓旁、气管隆突上纵隔及左肺门多发结节状软组织影,密度欠均匀,见小斑片状高密度影,部分融合。双侧胸膜略增厚。心影不大,大血管壁可见钙化影,心包增厚。1.左肺上叶肺癌并左肺门及纵隔淋巴结转移,较前片2013-05-31部分进展;2.右肺上叶小结节,与前相仿;3.双肺纵隔旁及胸膜下放射性肺炎,较前好转;4.双侧胸膜略厚,心包增厚。</t>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>左肺上叶近纵隔旁见团片状软组织影，最大截面大小约为5.78CM×3.56CM，CT值约35HU；右肺上叶后段可见一结节，径约0.5CM；双肺纵隔旁及胸膜下见多个条索状及斑片状高密度影。腔静脉间隙、主动脉弓旁、气管隆突上纵隔及左肺门多发结节状软组织影，密度欠均匀，见小斑片状高密度影，部分融合。双侧胸膜略增厚。心影不大，大血管壁可见钙化影，心包增厚。1.左肺上叶肺癌并左肺门及纵隔淋巴结转移，较前片2013-05-31部分进展；2.右肺上叶小结节，与前相仿；3.双肺纵隔旁及胸膜下放射性肺炎，较前好转；4.双侧胸膜略厚，心包增厚。</t>
         </is>
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>左肺下叶术后缺如,左肺门见高密度吻合器影,残余左肺见索条影,左侧胸膜不均匀增厚,可见强化;左侧膈上淋巴结肿大。左侧胸膜腔内见少量液性密度影,呈包裹性改变。右肺上叶后段胸膜下小结节灶,大小约0.4CM×0.3CM。肝实质密度均匀,肝内胆管略示扩张。胆囊胰脾右肾未见异常。左肾见小囊肿。左侧胸膜示多发结节样增厚伴强化。左侧胸腔见液性密度影。腹腔及腹膜后未见明显肿大淋巴结。	1.左肺癌术后,左侧胸膜及淋巴结转移,少量胸腔积液2.左肺炎症及纤维灶3.肝内胆管扩张4.左肾小囊肿。</t>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>左肺下叶术后缺如，左肺门见高密度吻合器影，残余左肺见索条影，左侧胸膜不均匀增厚，可见强化；左侧膈上淋巴结肿大。左侧胸膜腔内见少量液性密度影，呈包裹性改变。右肺上叶后段胸膜下小结节灶，大小约0.4CM×0.3CM。肝实质密度均匀，肝内胆管略示扩张。胆囊胰脾右肾未见异常。左肾见小囊肿。左侧胸膜示多发结节样增厚伴强化。左侧胸腔见液性密度影。腹腔及腹膜后未见明显肿大淋巴结。	1.左肺癌术后，左侧胸膜及淋巴结转移，少量胸腔积液2.左肺炎症及纤维灶3.肝内胆管扩张4.左肾小囊肿。</t>
         </is>
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>左乳术后缺如,胸肌尚存,左侧胸壁见软组织影,边缘模糊,大者短径约1.8CM,示明显不均质强化,邻近前胸壁皮肤局部增厚呈软组织密度影,明显强化。双锁上、左肺门、纵隔、左侧颈后三角区、膈上见肿大淋巴结,边界尚清,大者短径约1.2CM。双肺见结节灶,大者直径约1.0CM,双肺纹理增强并见斑片模糊略高密度影。下颈背部皮下见一长径约1.3CM的强化灶。肝内见多发低密度灶,边缘轻度强化,大者长径约3.2CM。胆囊充盈可,壁不厚。胰脾、双侧肾上腺及右肾未见异常。扫描野内左肾未见显示。腹腔及腹膜后见稍大,边界不清。骨窗示:胸骨、部分胸腰椎椎体、肋骨见骨质破坏区。	1.结合临床,左乳癌术后,术区复发,较前片(2016.03.01)略示好转;左锁上、颈部、左肺门、纵隔及膈上淋巴结转移,总体较前略示好转;双肺转移,较前略示好转;多发肝转移,较前进展。2.多发骨转移,较前变化不著。颈背部结节,不除外转移,较前变化不著。腹腔略大淋巴结,较前变化不著。3.双肺炎症。</t>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>左乳术后缺如，胸肌尚存，左侧胸壁见软组织影，边缘模糊，大者短径约1.8CM，示明显不均质强化，邻近前胸壁皮肤局部增厚呈软组织密度影，明显强化。双锁上、左肺门、纵隔、左侧颈后三角区、膈上见肿大淋巴结，边界尚清，大者短径约1.2CM。双肺见结节灶，大者直径约1.0CM，双肺纹理增强并见斑片模糊略高密度影。下颈背部皮下见一长径约1.3CM的强化灶。肝内见多发低密度灶，边缘轻度强化，大者长径约3.2CM。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及右肾未见异常。扫描野内左肾未见显示。腹腔及腹膜后见稍大，边界不清。骨窗示：胸骨、部分胸腰椎椎体、肋骨见骨质破坏区。	1.结合临床，左乳癌术后，术区复发，较前片(2016.03.01)略示好转；左锁上、颈部、左肺门、纵隔及膈上淋巴结转移，总体较前略示好转；双肺转移，较前略示好转；多发肝转移，较前进展。2.多发骨转移，较前变化不著。颈背部结节，不除外转移，较前变化不著。腹腔略大淋巴结，较前变化不著。3.双肺炎症。</t>
         </is>
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>左肺门周围可见不规则软组织密度肿块影,约4.2CM×4.9CM,增强扫描呈明显不均匀强化,与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。双肺内见多发斑片状密度增高影。左肺上叶示一结节灶,直径约0.9CM,双侧胸膜及叶间胸膜上可见多发类结节灶。纵隔内2R、4R、4L、5、6、7、8区示多发融合的淋巴结影,大者短径约1.2CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常,肝实质内可见数个囊性低密度灶,边界清,增强扫描无强化。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常,右肾上腺示一类结节灶,长径约3.6CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨、肋骨密度略增高。	1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张,较前(2016-1-10)略好转;肺炎治疗后,较前变化不著;左肺上叶结节灶较前略增大,考虑转移;双侧胸膜多发结节灶,考虑转移,变化不著;纵隔淋巴结转移,较前略缩小;右肾上腺转移,变化不著2.肝囊肿;双肾囊肿;左肾低密度灶,胰腺低密度灶,变化不著3.心包、左胸腔少量积液,略减少4.部分椎骨及肋骨密度略增高,考虑转移,较前变化不著。</t>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>左肺门周围可见不规则软组织密度肿块影，约4.2CM×4.9CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。双肺内见多发斑片状密度增高影。左肺上叶示一结节灶，直径约0.9CM，双侧胸膜及叶间胸膜上可见多发类结节灶。纵隔内2R、4R、4L、5、6、7、8区示多发融合的淋巴结影，大者短径约1.2CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常，肝实质内可见数个囊性低密度灶，边界清，增强扫描无强化。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常，右肾上腺示一类结节灶，长径约3.6CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨、肋骨密度略增高。	1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张，较前(2016-1-10)略好转；肺炎治疗后，较前变化不著；左肺上叶结节灶较前略增大，考虑转移；双侧胸膜多发结节灶，考虑转移，变化不著；纵隔淋巴结转移，较前略缩小；右肾上腺转移，变化不著2.肝囊肿；双肾囊肿；左肾低密度灶，胰腺低密度灶，变化不著3.心包、左胸腔少量积液，略减少4.部分椎骨及肋骨密度略增高，考虑转移，较前变化不著。</t>
         </is>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>右肺中叶支气管开口处见一不规则低密度影,边缘模糊,大小不易测量,增强后可见轻度强化,远端示片状肺不张影。双肺见多发结节灶,部分边界欠清。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶,大者直径不足1.0CM。右肾见直径约0.5CM低密度灶,未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分椎骨示成骨性破坏。右侧第3肋局限性骨质密度增高。	1.结合临床,右肺癌并阻塞性肺不张治疗后,较前(2016-1-6)局部范围略缩小;双肺多发结节灶,考虑转移,部分增大,部分变化不著;骨转移,部分变化不著,部分密度略增高2.肝囊肿3.右肾低密度灶,变化不著4.部分肋骨密度增高,变化不著。</t>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>右肺中叶支气管开口处见一不规则低密度影，边缘模糊，大小不易测量，增强后可见轻度强化，远端示片状肺不张影。双肺见多发结节灶，部分边界欠清。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶，大者直径不足1.0CM。右肾见直径约0.5CM低密度灶，未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分椎骨示成骨性破坏。右侧第3肋局限性骨质密度增高。	1.结合临床，右肺癌并阻塞性肺不张治疗后，较前(2016-1-6)局部范围略缩小；双肺多发结节灶，考虑转移，部分增大，部分变化不著；骨转移，部分变化不著，部分密度略增高2.肝囊肿3.右肾低密度灶，变化不著4.部分肋骨密度增高，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>右肺上叶后段周围型肺癌,纵隔淋巴结转移。右肺上叶后段可见团块影,截面约2.50CM×2.12CM,CT值约32HU,增强有强化,三期CT值约53HU、68HU、47HU;病灶位于右肺门上区,腔静脉后及气管前可见团块影,截面约3.15CM×1.82CM,CT值约44HU。各大血管边界清晰。主动脉,肺动脉主干及其左右分支内造影剂密度均匀。</t>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>右肺上叶后段周围型肺癌，纵隔淋巴结转移。右肺上叶后段可见团块影，截面约2.50CM×2.12CM，CT值约32HU，增强有强化，三期CT值约53HU、68HU、47HU；病灶位于右肺门上区，腔静脉后及气管前可见团块影，截面约3.15CM×1.82CM，CT值约44HU。各大血管边界清晰。主动脉，肺动脉主干及其左右分支内造影剂密度均匀。</t>
         </is>
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>右乳术后,术区壁未见增厚及异常强化。纵隔内右上气管、血管前间隙、隆突下、食管旁见小或增大淋巴结,大者短径约0.6CM。双锁骨上及左侧腋窝示小淋巴结,大者短径不足0.5CM。右侧腋窝未见增大淋巴结。双肺见多发结节、类结节灶及小斑片影,部分与邻近胸膜分界不清,大者直径约0.8CM。余双肺内示条片密度增高影,局部牵拉邻近胸膜。双侧胸膜略增厚,左侧胸膜见少许斑点状钙化灶。双侧胸腔未见积液征象。肝脏体积缩小,左叶为著,肝内见多发结节灶,融合成团,大小不易测量,增强后呈不均匀强化。门脉左支充盈欠佳。腹腔内贲门旁、肝胃韧带区、肝十二指肠韧带区、腹膜后腹主动脉旁见多发小或增大淋巴结,大者短径约0.6CM,部分与胰腺分界欠清。膈上后组见短径不足0.5CM小淋巴结。胆囊充盈可,壁增厚并见强化。左肾示囊性低密度灶,大者长径约0.7CM,部分边界欠清。脾内示小斑片状低密度区。双侧肾上腺及右肾未见异常。腹腔内示液性密度影。大网膜、腹膜、肠系膜略增厚。胸骨、右侧肱骨、锁骨、肋骨、胸腰椎示多发溶骨性、成骨性骨质破坏,局部周围示软组织影,部分肋骨骨质欠连续。	1.结合临床,右乳癌术后;纵隔淋巴结肿大,较前(2015-08-17)变化不著;腹腔及腹膜后淋巴结肿大,变化不著;双肺转移,部分增大,部分变化不著;原肝转移,较前考虑变化不著;多发骨转移,基本变化不著2.胆囊炎;考虑左肾囊肿,变化不著;脾内低密度灶,变化不著3.腹膜、网膜、肠系膜略增厚;少量腹水,略减少4.门脉左支充盈欠佳,变化不著5.考虑双肺炎症,较前好转;双侧胸膜略增厚并左侧胸膜钙化灶,变化不著。</t>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>右乳术后，术区壁未见增厚及异常强化。纵隔内右上气管、血管前间隙、隆突下、食管旁见小或增大淋巴结，大者短径约0.6CM。双锁骨上及左侧腋窝示小淋巴结，大者短径不足0.5CM。右侧腋窝未见增大淋巴结。双肺见多发结节、类结节灶及小斑片影，部分与邻近胸膜分界不清，大者直径约0.8CM。余双肺内示条片密度增高影，局部牵拉邻近胸膜。双侧胸膜略增厚，左侧胸膜见少许斑点状钙化灶。双侧胸腔未见积液征象。肝脏体积缩小，左叶为著，肝内见多发结节灶，融合成团，大小不易测量，增强后呈不均匀强化。门脉左支充盈欠佳。腹腔内贲门旁、肝胃韧带区、肝十二指肠韧带区、腹膜后腹主动脉旁见多发小或增大淋巴结，大者短径约0.6CM，部分与胰腺分界欠清。膈上后组见短径不足0.5CM小淋巴结。胆囊充盈可，壁增厚并见强化。左肾示囊性低密度灶，大者长径约0.7CM，部分边界欠清。脾内示小斑片状低密度区。双侧肾上腺及右肾未见异常。腹腔内示液性密度影。大网膜、腹膜、肠系膜略增厚。胸骨、右侧肱骨、锁骨、肋骨、胸腰椎示多发溶骨性、成骨性骨质破坏，局部周围示软组织影，部分肋骨骨质欠连续。	1.结合临床，右乳癌术后；纵隔淋巴结肿大，较前(2015-08-17)变化不著；腹腔及腹膜后淋巴结肿大，变化不著；双肺转移，部分增大，部分变化不著；原肝转移，较前考虑变化不著；多发骨转移，基本变化不著2.胆囊炎；考虑左肾囊肿，变化不著；脾内低密度灶，变化不著3.腹膜、网膜、肠系膜略增厚；少量腹水，略减少4.门脉左支充盈欠佳，变化不著5.考虑双肺炎症，较前好转；双侧胸膜略增厚并左侧胸膜钙化灶，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>1.右下肺中心型肺癌,较前片(2013-9-9)进展,并右肺间质性改变,考虑淋巴道转移,右侧胸膜转移,右侧胸腔包裹性积液;右侧腋窝及纵隔淋巴结转移;右侧多个肋骨、胸3椎体成骨性转移;请结合临床;2.右乳钙化结节,较前相仿;3.左肺下叶外基底段粟粒灶,较前相仿。双侧胸廓不对称,右侧胸廓塌陷,右肺体积减小,右肺下叶见团块状高密度影,形态不规则,边界不清楚,大小约4.1CM×5.4CM,CT值约37HU,右侧主支气管及各叶支气管受压变窄;右侧胸膜弥漫性增厚,右肺间隔结节样增厚;右侧胸腔可见包裹性积液;右侧腋窝、纵隔淋巴结增大,大者短径约1.39CM。左肺下叶外基底段(S35)可见粟粒影。心影大小正常范围。右侧第2、4、7、8肋骨、胸3椎体骨质密度不均匀增高,形态不规整。右侧乳腺外上象限内见一结节影,径约0.98CM,边界清晰,其内见点状钙化。</t>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>1.右下肺中心型肺癌，较前片(2013-9-9)进展，并右肺间质性改变，考虑淋巴道转移，右侧胸膜转移，右侧胸腔包裹性积液；右侧腋窝及纵隔淋巴结转移；右侧多个肋骨、胸3椎体成骨性转移；请结合临床；2.右乳钙化结节，较前相仿；3.左肺下叶外基底段粟粒灶，较前相仿。双侧胸廓不对称，右侧胸廓塌陷，右肺体积减小，右肺下叶见团块状高密度影，形态不规则，边界不清楚，大小约4.1CM×5.4CM，CT值约37HU，右侧主支气管及各叶支气管受压变窄；右侧胸膜弥漫性增厚，右肺间隔结节样增厚；右侧胸腔可见包裹性积液；右侧腋窝、纵隔淋巴结增大，大者短径约1.39CM。左肺下叶外基底段(S35)可见粟粒影。心影大小正常范围。右侧第2、4、7、8肋骨、胸3椎体骨质密度不均匀增高，形态不规整。右侧乳腺外上象限内见一结节影，径约0.98CM，边界清晰，其内见点状钙化。</t>
         </is>
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>左乳外上象限及上份示大者截面约2.4CM×1.8CM不均质显著强化软组织密度灶,边缘分叶、毛糙。余双乳腺体强化欠均。左腋窝示大者短径约1.1CM淋巴结。右腋窝、双侧内乳区、肺门及纵隔内未见肿大淋巴结。右肺内示类结节灶、索条影。甲状腺内示低密度灶。扫描野内肝内示多发低密度灶,增强扫描边缘示斑片状明显强化。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。	1.考虑左乳癌并左腋窝淋巴结转移。2.右肺类结节灶、纤维灶。3.甲状腺低密度灶。4.考虑肝多发血管瘤,请结合其他检查。5.颅脑CT扫描未见明显异常。</t>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>左乳外上象限及上份示大者截面约2.4CM×1.8CM不均质显著强化软组织密度灶，边缘分叶、毛糙。余双乳腺体强化欠均。左腋窝示大者短径约1.1CM淋巴结。右腋窝、双侧内乳区、肺门及纵隔内未见肿大淋巴结。右肺内示类结节灶、索条影。甲状腺内示低密度灶。扫描野内肝内示多发低密度灶，增强扫描边缘示斑片状明显强化。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。	1.考虑左乳癌并左腋窝淋巴结转移。2.右肺类结节灶、纤维灶。3.甲状腺低密度灶。4.考虑肝多发血管瘤，请结合其他检查。5.颅脑CT扫描未见明显异常。</t>
         </is>
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>1.结合临床,左乳癌术后改变;右肺结节灶,建议观察;胸骨骨质密度增高,考虑转移,建议观察2.左肺下叶炎症3.脂肪肝4.颅脑扫描未见明显异常左乳术后缺如,胸肌尚存,术区未见明显增厚及强化。右肺内见结节灶,大者直径约1.3CM。左肺下叶胸膜下见斑片状密度增高影。纵隔内未见肿大淋巴结影。胸膜无增厚,胸腔内未见积液征象。扫描野内肝脏实质密度均匀性减低,大小形态可,未见异常密度灶。脑实质密度正常,未见明显异常密度灶及强化灶。脑室、池无扩张,中线结构居中,颅骨诸骨质未见破坏。胸骨骨质密度增高。</t>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>1.结合临床，左乳癌术后改变；右肺结节灶，建议观察；胸骨骨质密度增高，考虑转移，建议观察2.左肺下叶炎症3.脂肪肝4.颅脑扫描未见明显异常左乳术后缺如，胸肌尚存，术区未见明显增厚及强化。右肺内见结节灶，大者直径约1.3CM。左肺下叶胸膜下见斑片状密度增高影。纵隔内未见肿大淋巴结影。胸膜无增厚，胸腔内未见积液征象。扫描野内肝脏实质密度均匀性减低，大小形态可，未见异常密度灶。脑实质密度正常，未见明显异常密度灶及强化灶。脑室、池无扩张，中线结构居中，颅骨诸骨质未见破坏。胸骨骨质密度增高。</t>
         </is>
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,直肠癌术后,双肺转移瘤,较前2016-01-28部分缩小,部分变化不著2.双肾低密度灶,变化不著3.双侧胸膜略增厚,变化不著4.甲状腺低密度灶,变化不著5.双肾囊肿。双肺近胸膜下示多个结节灶及肿块,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约3.0CM(纵隔窗),内示小空泡影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶,边缘较清晰。肝脏实质密度均质。胆囊充盈可,壁不厚。胰、脾及双侧肾上腺未见异常。双肾见斑片状低密度灶,边界欠清。双肾内可见散在小囊性密度灶,边界清晰,未见强化。腹腔及腹膜后未见明显肿大淋巴结。直肠保肛术后,术区可见金属吻合钉影,周围肠壁未见明显增厚及异常强化。膀胱充盈可,壁不厚。前列腺及精囊腺未见异常。盆腔内未见积液及肿大淋巴结。	</t>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，直肠癌术后，双肺转移瘤，较前2016-01-28部分缩小，部分变化不著2.双肾低密度灶，变化不著3.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著5.双肾囊肿。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.0CM(纵隔窗)，内示小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。肝脏实质密度均质。胆囊充盈可，壁不厚。胰、脾及双侧肾上腺未见异常。双肾见斑片状低密度灶，边界欠清。双肾内可见散在小囊性密度灶，边界清晰，未见强化。腹腔及腹膜后未见明显肿大淋巴结。直肠保肛术后，术区可见金属吻合钉影，周围肠壁未见明显增厚及异常强化。膀胱充盈可，壁不厚。前列腺及精囊腺未见异常。盆腔内未见积液及肿大淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>右下肺门区可见软组织密度肿块影,边缘模糊,与周围膨胀不全肺组织分界不清,右肺下叶内侧及后基底段支气管示阻塞,病变大小不易测量,增强扫描呈中度不均匀强化。病变远端见片絮状及条索状密度增高影。右肺野内(图4-33)及右肺胸膜下见数个类结节灶,边界尚清,大者直径约0.3CM。左肺野较清晰,未见明确异常密度灶。右侧胸膜示条状增厚并强化。右侧胸腔内示液性密度影。心包腔内见少量液性密度影。右肺门、纵隔内4R、4L、5区、7区见多发肿大淋巴结,大者短径约0.9CM。另于左锁上及右侧心膈角区见小淋巴结,短径约0.5CM。脑实质内见多发结节灶,边界欠清,增强扫描呈边缘环形强化,大者直径约4.5CM,周围见片状低密度水肿区。双侧上颌窦内示液性密度影。骨窗示:右侧胸锁关节示成骨性骨质改变,约右侧第5后肋示骨质密度不均匀。	1.结合临床,右肺癌并右肺膨胀不全,肿瘤大小不易与前片比较;右肺门、纵隔淋巴结转移,较前2014-7-4略示好转;脑转移治疗后,较前好转2.右侧胸膜增厚,考虑转移3.右侧胸锁关节骨转移4.右侧第5后肋骨质密度不均,建议观察5.右肺类结节灶,建议观察6.右侧胸腔积液,较前增多7.心包腔少量积液8.双侧上颌窦炎症。</t>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>右下肺门区可见软组织密度肿块影，边缘模糊，与周围膨胀不全肺组织分界不清，右肺下叶内侧及后基底段支气管示阻塞，病变大小不易测量，增强扫描呈中度不均匀强化。病变远端见片絮状及条索状密度增高影。右肺野内(图4-33)及右肺胸膜下见数个类结节灶，边界尚清，大者直径约0.3CM。左肺野较清晰，未见明确异常密度灶。右侧胸膜示条状增厚并强化。右侧胸腔内示液性密度影。心包腔内见少量液性密度影。右肺门、纵隔内4R、4L、5区、7区见多发肿大淋巴结，大者短径约0.9CM。另于左锁上及右侧心膈角区见小淋巴结，短径约0.5CM。脑实质内见多发结节灶，边界欠清，增强扫描呈边缘环形强化，大者直径约4.5CM，周围见片状低密度水肿区。双侧上颌窦内示液性密度影。骨窗示：右侧胸锁关节示成骨性骨质改变，约右侧第5后肋示骨质密度不均匀。	1.结合临床，右肺癌并右肺膨胀不全，肿瘤大小不易与前片比较；右肺门、纵隔淋巴结转移，较前2014-7-4略示好转；脑转移治疗后，较前好转2.右侧胸膜增厚，考虑转移3.右侧胸锁关节骨转移4.右侧第5后肋骨质密度不均，建议观察5.右肺类结节灶，建议观察6.右侧胸腔积液，较前增多7.心包腔少量积液8.双侧上颌窦炎症。</t>
         </is>
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>右乳术后,前胸壁近胸骨旁软组织增厚,并见较显著强化。右侧腋窝结构紊乱。右侧内乳区、纵隔内右上气管旁、右侧锁骨上见稍大或增大淋巴结,部分融合,大者短径约1.3CM,增强后部分强化较显著。右肺见少许索条影。双侧胸腔未见积液征象。肝内见多发低密度结节灶,边缘欠清晰或模糊,大者长径约1.5CM,增强后部分边缘似见强化。扫描野内右肾见直径不足0.5CM小囊性低密度结节灶,边缘清晰,未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔及腹膜后未见增大淋巴结。鼻咽、口咽、喉及下咽未见异常。左侧上颌窦粘膜略增厚。双侧颈动脉鞘区见短径不足0.5CM小淋巴结。双侧甲状腺大小密度形态可。1.结合临床,右乳癌术后,右侧胸壁复发;右侧锁骨上淋巴结转移;右侧内乳区淋巴结肿大,考虑转移2.右肺纤维灶3.肝内低密度灶,部分转移可能性大,建议观察或MRI检查4.右肾囊肿5.左侧上颌窦炎</t>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>右乳术后，前胸壁近胸骨旁软组织增厚，并见较显著强化。右侧腋窝结构紊乱。右侧内乳区、纵隔内右上气管旁、右侧锁骨上见稍大或增大淋巴结，部分融合，大者短径约1.3CM，增强后部分强化较显著。右肺见少许索条影。双侧胸腔未见积液征象。肝内见多发低密度结节灶，边缘欠清晰或模糊，大者长径约1.5CM，增强后部分边缘似见强化。扫描野内右肾见直径不足0.5CM小囊性低密度结节灶，边缘清晰，未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔及腹膜后未见增大淋巴结。鼻咽、口咽、喉及下咽未见异常。左侧上颌窦粘膜略增厚。双侧颈动脉鞘区见短径不足0.5CM小淋巴结。双侧甲状腺大小密度形态可。1.结合临床，右乳癌术后，右侧胸壁复发；右侧锁骨上淋巴结转移；右侧内乳区淋巴结肿大，考虑转移2.右肺纤维灶3.肝内低密度灶，部分转移可能性大，建议观察或MRI检查4.右肾囊肿5.左侧上颌窦炎</t>
         </is>
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>右肺下叶支气管局部狭窄截断,周围示软组织密度肿块影,最大截面约2.9CM×3.2CM,与远端少许实变不张肺组织和肺门区肿大淋巴结分界不清;增强后呈明显强化。左肺野较清晰。右侧胸膜(含叶间胸膜)增厚呈条状及类结节状,并可见强化。心包内示少量液体密度影。右侧乳腺术后缺如,术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区未见明显肿大淋巴结。左锁上见肿大淋巴结,短径约0.9CM。纵隔内4R、4L、5区、7区见多发小淋巴结,大者短径约0.5CM。所扫肝右叶示颗粒状钙化密度影。左侧大脑内示多发结节、肿块影,大者截面约2.9CM×3.4CM,其内呈囊性密度灶,增强扫描呈边缘环形强化;周围示片状无强化的低密度水肿带,邻近侧脑室局部略示受压。中线结构尚居中。左侧上颌窦内示液体密度影。骨窗:胸骨柄右侧、胸骨下段、多发胸椎椎体局部骨质密度不均匀增高。	1.结合临床,右侧中心型肺癌并阻塞性不张治疗后,较前(2015-3-31)明显好转;右肺门淋巴结肿大,较前好转;右侧胸膜(包括叶裂)增厚,较前好转,考虑转移;骨转移,变化不著;脑转移,较前略缩小2.心包积液较前减少3.右侧乳腺术后改变5.肝内钙化灶6.左上颌窦炎症。</t>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>右肺下叶支气管局部狭窄截断，周围示软组织密度肿块影，最大截面约2.9CM×3.2CM，与远端少许实变不张肺组织和肺门区肿大淋巴结分界不清；增强后呈明显强化。左肺野较清晰。右侧胸膜(含叶间胸膜)增厚呈条状及类结节状，并可见强化。心包内示少量液体密度影。右侧乳腺术后缺如，术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区未见明显肿大淋巴结。左锁上见肿大淋巴结，短径约0.9CM。纵隔内4R、4L、5区、7区见多发小淋巴结，大者短径约0.5CM。所扫肝右叶示颗粒状钙化密度影。左侧大脑内示多发结节、肿块影，大者截面约2.9CM×3.4CM，其内呈囊性密度灶，增强扫描呈边缘环形强化；周围示片状无强化的低密度水肿带，邻近侧脑室局部略示受压。中线结构尚居中。左侧上颌窦内示液体密度影。骨窗：胸骨柄右侧、胸骨下段、多发胸椎椎体局部骨质密度不均匀增高。	1.结合临床，右侧中心型肺癌并阻塞性不张治疗后，较前(2015-3-31)明显好转；右肺门淋巴结肿大，较前好转；右侧胸膜(包括叶裂)增厚，较前好转，考虑转移；骨转移，变化不著；脑转移，较前略缩小2.心包积液较前减少3.右侧乳腺术后改变5.肝内钙化灶6.左上颌窦炎症。</t>
         </is>
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后改变,双肺转移,较前(2015-1-6)变化不著;肝转移,部分较前进展,部分较前好转;多发骨转移较前变化不著2.右侧腋窝囊性密度灶较前变化不著3.左肺炎症,较前加重,右肺纤维灶4.左侧胸腔积液。右乳术后缺如,部分胸肌尚存,术区未见异常强化灶。右侧腋窝结构紊乱,局部示一囊性密度灶,直径约2.4CM,可见环形强化。左乳及左侧腋窝未见异常。双肺野示多发结节灶,边缘较清,大者直径约0.3CM。右肺上叶及左肺下叶可见斑片状条索状密度增高影。双肺门及纵隔未见增大淋巴结。左侧胸腔内可见液性密度影。肝实质内示数个低密度灶,边缘较模糊,可见轻度强化,大者直径约2.1CM。胆囊充盈可,壁不厚。胰、脾、双肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。。部分胸腰椎及附件、部分肋骨可见成骨性骨质破坏。	</t>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后改变，双肺转移，较前(2015-1-6)变化不著；肝转移，部分较前进展，部分较前好转；多发骨转移较前变化不著2.右侧腋窝囊性密度灶较前变化不著3.左肺炎症，较前加重，右肺纤维灶4.左侧胸腔积液。右乳术后缺如，部分胸肌尚存，术区未见异常强化灶。右侧腋窝结构紊乱，局部示一囊性密度灶，直径约2.4CM，可见环形强化。左乳及左侧腋窝未见异常。双肺野示多发结节灶，边缘较清，大者直径约0.3CM。右肺上叶及左肺下叶可见斑片状条索状密度增高影。双肺门及纵隔未见增大淋巴结。左侧胸腔内可见液性密度影。肝实质内示数个低密度灶，边缘较模糊，可见轻度强化，大者直径约2.1CM。胆囊充盈可，壁不厚。胰、脾、双肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。。部分胸腰椎及附件、部分肋骨可见成骨性骨质破坏。	</t>
         </is>
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳术后复发侵及纵隔,骨转移2.颅脑扫描未见明确异常。右乳术后缺如,部分胸肌尚存,胸骨右旁可见软组织肿块影,最大截面约2.3CM×5.0CM,显著强化,向后累及前纵隔,其内胸骨示稀疏破坏。右侧腋窝呈术后状态,未见肿大淋巴结。左乳及左侧腋窝未见明确异常。双侧肺野清晰,肺纹理走形自然,气管及各级支气管通畅。双侧内乳区、纵隔及双肺门未见明确肿大淋巴结。脑实质密度正常,未见明显异常密度灶。脑室、池无扩张,脑沟、裂无增深,中线结构居中,颅骨诸骨质未见破坏。骨窗示部分胸椎椎体可见溶骨性破坏。	</t>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳术后复发侵及纵隔，骨转移2.颅脑扫描未见明确异常。右乳术后缺如，部分胸肌尚存，胸骨右旁可见软组织肿块影，最大截面约2.3CM×5.0CM，显著强化，向后累及前纵隔，其内胸骨示稀疏破坏。右侧腋窝呈术后状态，未见肿大淋巴结。左乳及左侧腋窝未见明确异常。双侧肺野清晰，肺纹理走形自然，气管及各级支气管通畅。双侧内乳区、纵隔及双肺门未见明确肿大淋巴结。脑实质密度正常，未见明显异常密度灶。脑室、池无扩张，脑沟、裂无增深，中线结构居中，颅骨诸骨质未见破坏。骨窗示部分胸椎椎体可见溶骨性破坏。	</t>
         </is>
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>右乳癌术后,术区结构紊乱,局部增强前后未见明显占位性病灶。肝左右叶可见多发大小不等病灶,T1WI呈略低信号,T2WI及压脂像呈略高信号,DWI呈高信号,增强扫描病灶呈不均匀强化。肝实质内及双肾实质内可见散在囊性结节,边界清楚,无强化,大者约1.0CM位于左肾。胆囊不大。脾、胰腺增强前后未见异常信号区。腹膜后未见明显肿大淋巴结。所扫部分椎体可见斑片状骨质破坏区,呈长T1短T2信号,压脂像及DWI为高信号,不均匀强化。双侧大、小脑半球及脑干大小、形态及灰白质位置正常,脑实质增强后扫描未见明显异常信号改变。脑室、脑池、脑沟未见明显异常。中线结构无移位。左上颌窦可见一囊性结节,边界清楚。余未见异常。	1.结合病史,右乳癌术后,肝(多发)及椎体转移。2.肝及双肾囊肿。3.颅脑MR扫描未见异常。4.左上颌窦囊肿。</t>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>右乳癌术后，术区结构紊乱，局部增强前后未见明显占位性病灶。肝左右叶可见多发大小不等病灶，T1WI呈略低信号，T2WI及压脂像呈略高信号，DWI呈高信号，增强扫描病灶呈不均匀强化。肝实质内及双肾实质内可见散在囊性结节，边界清楚，无强化，大者约1.0CM位于左肾。胆囊不大。脾、胰腺增强前后未见异常信号区。腹膜后未见明显肿大淋巴结。所扫部分椎体可见斑片状骨质破坏区，呈长T1短T2信号，压脂像及DWI为高信号，不均匀强化。双侧大、小脑半球及脑干大小、形态及灰白质位置正常，脑实质增强后扫描未见明显异常信号改变。脑室、脑池、脑沟未见明显异常。中线结构无移位。左上颌窦可见一囊性结节，边界清楚。余未见异常。	1.结合病史，右乳癌术后，肝(多发)及椎体转移。2.肝及双肾囊肿。3.颅脑MR扫描未见异常。4.左上颌窦囊肿。</t>
         </is>
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>1.左乳癌术后,肝脏多发转移瘤,较前2015-5-13变化不著;肝左叶胆管扩张2.右侧心膈角区淋巴结稍大3.左肺上叶含气囊肿4.双肾小囊肿左乳术后缺如,部分胸肌存在,术区未见明显增厚及异常强化;左侧腋窝术后,结构紊乱。右乳及右侧腋窝未见明确异常。左肺上叶可见类圆形过度充气区,边界清晰,余双侧肺野清晰,肺纹理正常,肺内未见实质性病变影。双侧各叶、段支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。右侧心膈角区淋巴结稍大,短径约0.5CM。肝脏实质内可见多发低密度肿块及结节灶,大者直径约10.1CM,边界欠清,其内可见大片状低密度坏死区。肝左叶胆管轻度扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺形态、大小、密度未见异常。双肾实质内可见散在小囊性密度灶,大者直径约0.3CM,边界清晰,未见强化。腹腔及腹膜后未见增大淋巴结。</t>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>1.左乳癌术后，肝脏多发转移瘤，较前2015-5-13变化不著；肝左叶胆管扩张2.右侧心膈角区淋巴结稍大3.左肺上叶含气囊肿4.双肾小囊肿左乳术后缺如，部分胸肌存在，术区未见明显增厚及异常强化；左侧腋窝术后，结构紊乱。右乳及右侧腋窝未见明确异常。左肺上叶可见类圆形过度充气区，边界清晰，余双侧肺野清晰，肺纹理正常，肺内未见实质性病变影。双侧各叶、段支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。右侧心膈角区淋巴结稍大，短径约0.5CM。肝脏实质内可见多发低密度肿块及结节灶，大者直径约10.1CM，边界欠清，其内可见大片状低密度坏死区。肝左叶胆管轻度扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺形态、大小、密度未见异常。双肾实质内可见散在小囊性密度灶，大者直径约0.3CM，边界清晰，未见强化。腹腔及腹膜后未见增大淋巴结。</t>
         </is>
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>右肺下叶见不规则软组织肿块,截面约6.1CM×3.1CM,边缘毛糙,增强后呈中等到显著不均匀强化;其远端肺野见多发斑片状及索条状密度增高影,局部支气管示扩张,局部小叶间隔增厚。右肺门及纵隔内2R、4R、4L、6、7、8R区见多发增大或小淋巴结,大者短径约1.3CM,部分增强后强化显著。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝、胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。	1.结合临床,右肺癌;纵隔淋巴结转移;右肺门淋巴结肿大,考虑转移2.右肺下叶炎症3.右肺下叶小叶间隔增厚,建议观察4.上腹部扫描未见异常。</t>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>右肺下叶见不规则软组织肿块，截面约6.1CM×3.1CM，边缘毛糙，增强后呈中等到显著不均匀强化；其远端肺野见多发斑片状及索条状密度增高影，局部支气管示扩张，局部小叶间隔增厚。右肺门及纵隔内2R、4R、4L、6、7、8R区见多发增大或小淋巴结，大者短径约1.3CM，部分增强后强化显著。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝、胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。	1.结合临床，右肺癌；纵隔淋巴结转移；右肺门淋巴结肿大，考虑转移2.右肺下叶炎症3.右肺下叶小叶间隔增厚，建议观察4.上腹部扫描未见异常。</t>
         </is>
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右肺癌治疗后,较前(2014-12-12)变化不著;右侧胸膜转移较前变化不著,右侧胸腔积液伴右肺局限性实变,进展2.左侧叶间胸膜结节灶,转移不除外,较前变化不著,建议观察3.肝内多发强化灶,考虑血管瘤4.少量腹水5.部分肠腔扩张,肠壁增厚,请结合临床。右侧胸腔内可见大量液性密度影,右肺中下叶萎缩实变,右肺下叶背段脊柱旁可见软组织密度结节灶,大小约1.7CM×1.0CM,边缘毛糙,局部与邻近胸膜关系密切,并可见胸膜牵拉征;增强后结节呈中度不均匀强化。右侧胸膜(含叶间胸膜及纵隔胸膜)示不规则增厚,局部呈条状及结节状,增强扫描可见强化。左侧叶间胸膜见多发结节灶。双肺门及纵隔内间隙模糊,未见肿大淋巴结。肝脏大小、形态可,动脉期实质内见数个强化结节灶,边界较清,强化较显著,门脉及延迟期部分显示不清。另于肝右叶见一低密度灶(图2-55),边界清,直径约0.8CM,动脉期中心可见强化,门脉及延迟显示欠清。胆囊充盈可,壁不厚。胰腺、脾及双肾未见明确异常。腹腔、腹膜后未见明确肿大淋巴结。腹腔内部分肠道明显扩张,肠壁增厚并分层,腹腔内可见少量液性密度影。	</t>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右肺癌治疗后，较前(2014-12-12)变化不著；右侧胸膜转移较前变化不著，右侧胸腔积液伴右肺局限性实变，进展2.左侧叶间胸膜结节灶，转移不除外，较前变化不著，建议观察3.肝内多发强化灶，考虑血管瘤4.少量腹水5.部分肠腔扩张，肠壁增厚，请结合临床。右侧胸腔内可见大量液性密度影，右肺中下叶萎缩实变，右肺下叶背段脊柱旁可见软组织密度结节灶，大小约1.7CM×1.0CM，边缘毛糙，局部与邻近胸膜关系密切，并可见胸膜牵拉征；增强后结节呈中度不均匀强化。右侧胸膜(含叶间胸膜及纵隔胸膜)示不规则增厚，局部呈条状及结节状，增强扫描可见强化。左侧叶间胸膜见多发结节灶。双肺门及纵隔内间隙模糊，未见肿大淋巴结。肝脏大小、形态可，动脉期实质内见数个强化结节灶，边界较清，强化较显著，门脉及延迟期部分显示不清。另于肝右叶见一低密度灶(图2-55)，边界清，直径约0.8CM，动脉期中心可见强化，门脉及延迟显示欠清。胆囊充盈可，壁不厚。胰腺、脾及双肾未见明确异常。腹腔、腹膜后未见明确肿大淋巴结。腹腔内部分肠道明显扩张，肠壁增厚并分层，腹腔内可见少量液性密度影。	</t>
         </is>
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>右侧乳腺术后,术区结构紊乱,部分胸肌尚存,右侧胸壁近胸骨旁软组织增厚,相邻胸骨骨质破坏。扫描野内右侧颈后三角区、右侧内乳区及纵隔内见多发增大淋巴结,部分边界欠清。左侧乳腺未见异常。左侧腋窝见直径不足1.0CM淋巴结。双肺野见数个结节灶,大者直径不足1.0CM。甲状腺内示低密度灶,直径约0.7CM,边界欠清。部分肋骨及椎骨骨质密度不均,左侧部分肋骨骨质欠连续。	1.结合临床,右侧乳腺癌术后,右侧胸壁复发并累及胸骨治疗后,较前(2017-1-9)变化不著;右侧颈部、右侧内乳区、纵隔淋巴结转移治疗后,淋巴结显示不清2.左侧腋窝淋巴结稍大,略缩小3.双肺结节灶,变化不著4.部分肋骨及椎骨骨质密度不均,基本变化不著5.甲状腺低密度灶,变化不著。</t>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>右侧乳腺术后，术区结构紊乱，部分胸肌尚存，右侧胸壁近胸骨旁软组织增厚，相邻胸骨骨质破坏。扫描野内右侧颈后三角区、右侧内乳区及纵隔内见多发增大淋巴结，部分边界欠清。左侧乳腺未见异常。左侧腋窝见直径不足1.0CM淋巴结。双肺野见数个结节灶，大者直径不足1.0CM。甲状腺内示低密度灶，直径约0.7CM，边界欠清。部分肋骨及椎骨骨质密度不均，左侧部分肋骨骨质欠连续。	1.结合临床，右侧乳腺癌术后，右侧胸壁复发并累及胸骨治疗后，较前(2017-1-9)变化不著；右侧颈部、右侧内乳区、纵隔淋巴结转移治疗后，淋巴结显示不清2.左侧腋窝淋巴结稍大，略缩小3.双肺结节灶，变化不著4.部分肋骨及椎骨骨质密度不均，基本变化不著5.甲状腺低密度灶，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后2.右肺占位,考虑右肺癌3.右肺门及纵隔淋巴结肿大,考虑转移;右锁上淋巴结肿大4.右侧胸膜增厚并结节灶,考虑转移5.左侧胸腔少量积液6.胆囊炎7.甲状腺左侧叶低密度灶,建议观察。右肺尖见不规则软组织密度影,其边缘可见小空洞影,边缘分叶、模糊,并可见胸膜牵拉征,截面积约3.6CM×2.5CM;增强扫描呈较显著不均匀强化。右肺上叶及中叶见少许条索状密度增高影。左肺野较清晰。右肺门、纵隔内2R、3A、4R、7区见多发肿大淋巴结,大者短径约1.7CM,增强扫描呈不均匀强化。右锁上见稍大淋巴结,短径约0.5CM。右侧胸膜局部增厚呈结节状(图8-26),直径约0.6CM,呈较显著不均匀强化。甲状腺左侧叶见小低密度灶,边界尚清,直径约0.5CM。右乳术后缺如,术区结构紊乱,周围间隙模糊,未见明确异常强化。左乳及左侧腋窝未见明确异常。左侧胸腔内见少量液性密度影。胆囊壁增厚。	</t>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后2.右肺占位，考虑右肺癌3.右肺门及纵隔淋巴结肿大，考虑转移；右锁上淋巴结肿大4.右侧胸膜增厚并结节灶，考虑转移5.左侧胸腔少量积液6.胆囊炎7.甲状腺左侧叶低密度灶，建议观察。右肺尖见不规则软组织密度影，其边缘可见小空洞影，边缘分叶、模糊，并可见胸膜牵拉征，截面积约3.6CM×2.5CM；增强扫描呈较显著不均匀强化。右肺上叶及中叶见少许条索状密度增高影。左肺野较清晰。右肺门、纵隔内2R、3A、4R、7区见多发肿大淋巴结，大者短径约1.7CM，增强扫描呈不均匀强化。右锁上见稍大淋巴结，短径约0.5CM。右侧胸膜局部增厚呈结节状(图8-26)，直径约0.6CM，呈较显著不均匀强化。甲状腺左侧叶见小低密度灶，边界尚清，直径约0.5CM。右乳术后缺如，术区结构紊乱，周围间隙模糊，未见明确异常强化。左乳及左侧腋窝未见明确异常。左侧胸腔内见少量液性密度影。胆囊壁增厚。	</t>
         </is>
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>右肺上叶后段近胸膜处示软组织结节灶,增强扫描明显强化,截面约2.1CM×1.7CM。双肺内示泡状过度透光区。纵隔内气管右旁、腔静脉后间隙、隆突下、右肺门示增大淋巴结,大者短径约2.1CM。右侧胸膜增厚呈结节及肿块状,明显强化。右侧胸腔示液体密度影。肝实质内示数个囊性密度灶,大者短径约0.5CM。胆胰脾双肾上腺双肾形态、密度未见明显异常。腹腔及腹膜后未见明显增大淋巴结。鼻咽、口咽、喉咽壁未见明显增厚。右颈部示稍大淋巴结,大者短径约0.4CM。	1.结合临床,右肺癌并右肺门、纵隔淋巴结转移;右侧胸膜转移2.肝囊肿3.颈部扫描未见明显异常。</t>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>右肺上叶后段近胸膜处示软组织结节灶，增强扫描明显强化，截面约2.1CM×1.7CM。双肺内示泡状过度透光区。纵隔内气管右旁、腔静脉后间隙、隆突下、右肺门示增大淋巴结，大者短径约2.1CM。右侧胸膜增厚呈结节及肿块状，明显强化。右侧胸腔示液体密度影。肝实质内示数个囊性密度灶，大者短径约0.5CM。胆胰脾双肾上腺双肾形态、密度未见明显异常。腹腔及腹膜后未见明显增大淋巴结。鼻咽、口咽、喉咽壁未见明显增厚。右颈部示稍大淋巴结，大者短径约0.4CM。	1.结合临床，右肺癌并右肺门、纵隔淋巴结转移；右侧胸膜转移2.肝囊肿3.颈部扫描未见明显异常。</t>
         </is>
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>右肺下叶背段(S29)见椭圆形肿块影,约1.58CM×1.17CM,边缘不规整,可见多发毛刺影,并见血管影进入,牵拉邻近胸膜,CT值约6HU。右肺下叶见斑片影。右肺门区及纵隔内可见多发肿大淋巴结影,大者短径约2.07CM,双侧胸腔未见积液征象。心脏大血管未见异常。双侧第10后肋、胸骨柄及胸骨体内可见高密度影,胸2椎体内可见结节状高密度影,胸2附件骨质可见溶骨性破坏区。1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移,肿块较2014-05-20CT缩小;2.右肺下叶炎症,较前相仿;3.所示多发骨转移征象,右侧第10后肋病理性骨折,胸2椎体内及胸骨柄内病灶较前范围增大,密度增高。</t>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>右肺下叶背段(S29)见椭圆形肿块影，约1.58CM×1.17CM，边缘不规整，可见多发毛刺影，并见血管影进入，牵拉邻近胸膜，CT值约6HU。右肺下叶见斑片影。右肺门区及纵隔内可见多发肿大淋巴结影，大者短径约2.07CM，双侧胸腔未见积液征象。心脏大血管未见异常。双侧第10后肋、胸骨柄及胸骨体内可见高密度影，胸2椎体内可见结节状高密度影，胸2附件骨质可见溶骨性破坏区。1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移，肿块较2014-05-20CT缩小；2.右肺下叶炎症，较前相仿；3.所示多发骨转移征象，右侧第10后肋病理性骨折，胸2椎体内及胸骨柄内病灶较前范围增大，密度增高。</t>
         </is>
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后,肝转移,较前2016-2-16片增大;右肺结节灶,转移待排2.左肺纤维灶3.胆囊炎。右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一结节灶,直径约0.6CM,边界清。纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块,大者直径约3.5CM,边缘模糊,轻度强化。胆囊充盈可,壁示增厚。胰、脾及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。	</t>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后，肝转移，较前2016-2-16片增大；右肺结节灶，转移待排2.左肺纤维灶3.胆囊炎。右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一结节灶，直径约0.6CM，边界清。纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块，大者直径约3.5CM，边缘模糊，轻度强化。胆囊充盈可，壁示增厚。胰、脾及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.右肺下叶中心型肺癌累及肺门、纵隔并阻塞性肺不张、肺炎;右肺门、纵隔淋巴结转移,上述病变较前2016-11-1好转。2.肝、右肾囊肿。3.双颈部小淋巴结。4.双侧胸膜略增厚。5.右肺上叶钙化灶。6.双肺气肿。右肺下叶支气管周围可见一不规则软组织密度肿块影,约4.4CM×4.8CM,增强扫描呈明显不均匀强化,与其远端不张的肺组织分界不清,远端可见斑片状密度增高影,向内与肺门淋巴结分界不清,与纵隔内软组织及心包、大血管分界不清,余双肺野内散在囊泡状过度透光灶,右肺上叶示一钙化结节灶。右肺门、纵隔内示多发肿大融合的淋巴结影,大者短径约3.4CM。左侧胸膜略示增厚。肝实质内见点状钙化灶及小囊肿。异常密度影。右肾见囊肿。胆囊、胰腺、脾、左肾、肾上腺未见异常,腹腔腹膜后未见肿大淋巴结影。各咽壁不厚,双侧颈部示数个结节灶,大者短径约0.8CM。腮腺及双侧甲状腺未见异常。	</t>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.右肺下叶中心型肺癌累及肺门、纵隔并阻塞性肺不张、肺炎；右肺门、纵隔淋巴结转移，上述病变较前2016-11-1好转。2.肝、右肾囊肿。3.双颈部小淋巴结。4.双侧胸膜略增厚。5.右肺上叶钙化灶。6.双肺气肿。右肺下叶支气管周围可见一不规则软组织密度肿块影，约4.4CM×4.8CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织分界不清，远端可见斑片状密度增高影，向内与肺门淋巴结分界不清，与纵隔内软组织及心包、大血管分界不清，余双肺野内散在囊泡状过度透光灶，右肺上叶示一钙化结节灶。右肺门、纵隔内示多发肿大融合的淋巴结影，大者短径约3.4CM。左侧胸膜略示增厚。肝实质内见点状钙化灶及小囊肿。异常密度影。右肾见囊肿。胆囊、胰腺、脾、左肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。各咽壁不厚，双侧颈部示数个结节灶，大者短径约0.8CM。腮腺及双侧甲状腺未见异常。	</t>
         </is>
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>右侧乳腺术后,术区胸壁部分胸肌尚存,右侧胸壁近胸骨旁软组织增厚,相邻胸骨骨质破坏。扫描野内右侧颈后三角区、右侧内乳区及纵隔内见多发增大淋巴结,部分边界欠清。左侧乳腺未见异常。左侧腋窝见直径不足1.0CM淋巴结。双肺野见数个结节灶,大者直径不足1.0CM。甲状腺内示低密度灶,边界欠清。部分肋骨及椎骨骨质密度不均,左侧部分肋骨骨质欠连续。	1.结合临床,右侧乳腺癌术后,右侧胸壁复发并累及胸骨、右侧颈部、右侧内乳区、纵隔淋巴结转移治疗后,较前(2016-9-7)好转2.左侧腋窝淋巴结稍大,略缩小3.双肺结节灶,不除外转移,较前好转4.部分肋骨及椎骨骨质密度不均,基本变化不著,请结合骨扫描5.甲状腺低密度灶。</t>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>右侧乳腺术后，术区胸壁部分胸肌尚存，右侧胸壁近胸骨旁软组织增厚，相邻胸骨骨质破坏。扫描野内右侧颈后三角区、右侧内乳区及纵隔内见多发增大淋巴结，部分边界欠清。左侧乳腺未见异常。左侧腋窝见直径不足1.0CM淋巴结。双肺野见数个结节灶，大者直径不足1.0CM。甲状腺内示低密度灶，边界欠清。部分肋骨及椎骨骨质密度不均，左侧部分肋骨骨质欠连续。	1.结合临床，右侧乳腺癌术后，右侧胸壁复发并累及胸骨、右侧颈部、右侧内乳区、纵隔淋巴结转移治疗后，较前(2016-9-7)好转2.左侧腋窝淋巴结稍大，略缩小3.双肺结节灶，不除外转移，较前好转4.部分肋骨及椎骨骨质密度不均，基本变化不著，请结合骨扫描5.甲状腺低密度灶。</t>
         </is>
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>右肺下叶可见团块影,边界尚清,CT值约为38HU,约为4.45CM×4.71CM。双肺可见多发的大小不等的小结节影。右肺中叶、下叶、左肺上叶舌段可见片状的高密度影。两肺门、纵隔内可见多发肿大的淋巴结。两胸腔积液征象,右侧显著。心包积液。甲状腺明显肿大。右侧胸壁下可见结节影,径约0.86CM。1.右肺下叶病变,考虑周围肺癌,双肺多发转移瘤,双肺门、纵隔淋巴结转移,较2014-12-09相仿,右肺下叶斜裂处团块影较前增大;2.双胸腔积液,较前稍有吸收;心包积液;3.右肺中叶、下叶、左肺上叶舌段炎症;4.右侧胸壁下结节影,请结合临床。</t>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>右肺下叶可见团块影，边界尚清，CT值约为38HU，约为4.45CM×4.71CM。双肺可见多发的大小不等的小结节影。右肺中叶、下叶、左肺上叶舌段可见片状的高密度影。两肺门、纵隔内可见多发肿大的淋巴结。两胸腔积液征象，右侧显著。心包积液。甲状腺明显肿大。右侧胸壁下可见结节影，径约0.86CM。1.右肺下叶病变，考虑周围肺癌，双肺多发转移瘤，双肺门、纵隔淋巴结转移，较2014-12-09相仿，右肺下叶斜裂处团块影较前增大；2.双胸腔积液，较前稍有吸收；心包积液；3.右肺中叶、下叶、左肺上叶舌段炎症；4.右侧胸壁下结节影，请结合临床。</t>
         </is>
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,左肺癌治疗后;左侧胸膜转移及叶裂转移2.左肺慢性炎症及纤维灶3.左侧心包及心膈角区结节影4.肝囊肿以上均较前(2016-11-22)片变化不著。左肺上叶纵隔旁示一不规则软组织密度结节灶,与纵隔内主肺动脉窗区肿大淋巴结分界不清。左肺野内见斑片索条状密度增高影,左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧心包及左侧心膈角区可见多发结节影,大者直径不足1.0CM。肝脏大小形态未见异常,肝实质内可见一小低密度灶,边界清。胆囊充盈欠佳,壁增厚。胰腺、脾、双肾、肾上腺未见异常,腹腔腹膜后未见肿大淋巴结影。	</t>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，左肺癌治疗后；左侧胸膜转移及叶裂转移2.左肺慢性炎症及纤维灶3.左侧心包及心膈角区结节影4.肝囊肿以上均较前(2016-11-22)片变化不著。左肺上叶纵隔旁示一不规则软组织密度结节灶，与纵隔内主肺动脉窗区肿大淋巴结分界不清。左肺野内见斑片索条状密度增高影，左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧心包及左侧心膈角区可见多发结节影，大者直径不足1.0CM。肝脏大小形态未见异常，肝实质内可见一小低密度灶，边界清。胆囊充盈欠佳，壁增厚。胰腺、脾、双肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。	</t>
         </is>
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>左肺下叶见团块状高密度影,边界不规则,可见细小毛刺及分叶,周围可见淡片影。病变最大截面大小约为1.70CM×1.05CM,右肺下叶内侧底段见一小结节影,直径约为0.33CM。肺门区未见明显异常。气管支气管影正常。纵隔内未见增大的淋巴结。双胸腔无积液征象。心脏不大,大血管壁钙化。所示部分下位胸椎内见结节样稍高密度影。胸7椎体及附件骨质溶骨性破坏改变。肝脏密度减低,CT值约27HU。与2011-10-10日原片对照:1.左肺下叶肺癌,较前减小;2.右肺下叶小结节、部分下位胸椎内高密度影,较前无明显变化;3.胸7椎体及附件骨质破坏,考虑为骨转移,对比原片破坏范围增大;4.脂肪肝。</t>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>左肺下叶见团块状高密度影，边界不规则，可见细小毛刺及分叶，周围可见淡片影。病变最大截面大小约为1.70CM×1.05CM，右肺下叶内侧底段见一小结节影，直径约为0.33CM。肺门区未见明显异常。气管支气管影正常。纵隔内未见增大的淋巴结。双胸腔无积液征象。心脏不大，大血管壁钙化。所示部分下位胸椎内见结节样稍高密度影。胸7椎体及附件骨质溶骨性破坏改变。肝脏密度减低，CT值约27HU。与2011-10-10日原片对照：1.左肺下叶肺癌，较前减小；2.右肺下叶小结节、部分下位胸椎内高密度影，较前无明显变化；3.胸7椎体及附件骨质破坏，考虑为骨转移，对比原片破坏范围增大；4.脂肪肝。</t>
         </is>
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.右乳癌并右侧腋窝淋巴结转移2.右肺类结节,建议观察3.上腹部扫描未见异常。右乳外下见一截面约4.1CM×5.2CM软组织肿块,不均匀强化,边缘模糊,周围脂肪间隙密度增高。右侧腋窝见短径约2.1CM肿大淋巴结。右肺中叶见一直径不足0.5CM小类结节灶。双侧肺门及纵隔未见增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝、胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。	</t>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.右乳癌并右侧腋窝淋巴结转移2.右肺类结节，建议观察3.上腹部扫描未见异常。右乳外下见一截面约4.1CM×5.2CM软组织肿块，不均匀强化，边缘模糊，周围脂肪间隙密度增高。右侧腋窝见短径约2.1CM肿大淋巴结。右肺中叶见一直径不足0.5CM小类结节灶。双侧肺门及纵隔未见增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝、胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.右肺癌,较前2014-7-7好转;双肺门淋巴结略增大,变化不著;右侧斜裂胸膜类结节灶,考虑转移,变化不著2.右肺上叶炎症,较前进展3.双肺类结节灶,建议观察4.右侧胸腔少量积液。右肺门支气管开口处示一软组织密度肿块,约1.5CM×1.9CM,密度不均,边缘分叶毛糙,增强呈较均匀强化。双肺野内散在磨玻璃影及类结节灶,以上叶为著。右侧斜裂胸膜可见结节灶,大者直径约0.3CM。双肺门示增大淋巴结,大者直径约0.6CM。右侧胸腔示少量液性密度影。	</t>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.右肺癌，较前2014-7-7好转；双肺门淋巴结略增大，变化不著；右侧斜裂胸膜类结节灶，考虑转移，变化不著2.右肺上叶炎症，较前进展3.双肺类结节灶，建议观察4.右侧胸腔少量积液。右肺门支气管开口处示一软组织密度肿块，约1.5CM×1.9CM，密度不均，边缘分叶毛糙，增强呈较均匀强化。双肺野内散在磨玻璃影及类结节灶，以上叶为著。右侧斜裂胸膜可见结节灶，大者直径约0.3CM。双肺门示增大淋巴结，大者直径约0.6CM。右侧胸腔示少量液性密度影。	</t>
         </is>
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.右肺占位,考虑肺癌并阻塞性肺炎伴纵隔及右肺门淋巴结转移;右肺中叶结节灶,考虑转移2.甲状腺低密度灶,考虑结节性甲状腺肿3.肝囊肿4.子宫、附件术后改变。右肺水平裂旁见一软组织密度结节灶,大小约2.7CM×2.2CM,边缘毛刺、浅分叶,局部牵拉邻近肋胸膜凹陷,病变周围肺野内见少许条索及斑片影,增强扫描病变呈轻度不均匀强化。右肺中叶见一直径约0.8CM结节灶,强化方式同前。右肺下叶见片状密度增高影。左侧肺野清晰。纵隔内气管隆突下及右肺门见肿大淋巴结,大者短径约1.0CM,增强扫描呈不均匀强化。扫描野内甲状腺右侧叶上极见一低密度灶,直径约2.1CM,边界较清晰,增强扫描可见强化,甲状腺被膜完整。心包内见弧形液性密度影。肝实质内见多发囊性密度灶,大者直径约1.8CM,边界清,无强化。胆囊充盈欠佳,壁略厚。胰、脾、双侧肾上腺及双肾未见异常。腹腔及腹膜后未见增大淋巴结。子宫及双附件未见显示。膀胱充盈良好,壁不厚。盆腔内及双侧腹股沟区未见肿大淋巴结。	</t>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.右肺占位，考虑肺癌并阻塞性肺炎伴纵隔及右肺门淋巴结转移；右肺中叶结节灶，考虑转移2.甲状腺低密度灶，考虑结节性甲状腺肿3.肝囊肿4.子宫、附件术后改变。右肺水平裂旁见一软组织密度结节灶，大小约2.7CM×2.2CM，边缘毛刺、浅分叶，局部牵拉邻近肋胸膜凹陷，病变周围肺野内见少许条索及斑片影，增强扫描病变呈轻度不均匀强化。右肺中叶见一直径约0.8CM结节灶，强化方式同前。右肺下叶见片状密度增高影。左侧肺野清晰。纵隔内气管隆突下及右肺门见肿大淋巴结，大者短径约1.0CM，增强扫描呈不均匀强化。扫描野内甲状腺右侧叶上极见一低密度灶，直径约2.1CM，边界较清晰，增强扫描可见强化，甲状腺被膜完整。心包内见弧形液性密度影。肝实质内见多发囊性密度灶，大者直径约1.8CM，边界清，无强化。胆囊充盈欠佳，壁略厚。胰、脾、双侧肾上腺及双肾未见异常。腹腔及腹膜后未见增大淋巴结。子宫及双附件未见显示。膀胱充盈良好，壁不厚。盆腔内及双侧腹股沟区未见肿大淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.考虑右乳癌并右腋窝淋巴结转移,请结合其他检查。2.右肺类结节灶,建议观察;双肺纤维灶。右乳外下象限示长径约1.1CM不均质强化结节灶,边界欠清,向局部前达皮下。余双乳腺体强化欠均质,内示小斑片状强化灶。右侧腋窝示大者短径约1.9CM淋巴结,强化较著。左侧锁骨上示短径不足0.5CM淋巴结。左侧腋窝、纵隔及双肺门未见肿大淋巴结。右肺尖区示小类结节灶,余双肺内示索条影。	</t>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.考虑右乳癌并右腋窝淋巴结转移，请结合其他检查。2.右肺类结节灶，建议观察；双肺纤维灶。右乳外下象限示长径约1.1CM不均质强化结节灶，边界欠清，向局部前达皮下。余双乳腺体强化欠均质，内示小斑片状强化灶。右侧腋窝示大者短径约1.9CM淋巴结，强化较著。左侧锁骨上示短径不足0.5CM淋巴结。左侧腋窝、纵隔及双肺门未见肿大淋巴结。右肺尖区示小类结节灶，余双肺内示索条影。	</t>
         </is>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>小脑、右额叶、右枕顶叶、左顶叶见散在数个、大小不等的结节样异常信号,部分病灶周围伴有小片状或斑片状长T2信号的水肿带,病灶表现为T1WI略低或低、高信号,T2WI及压水像为高或混杂高信号,DWI序列为低、高或高信号,增强扫描呈结节样或不均匀强化,大者约0.8CM×1.8CM位于右枕顶叶。左顶叶可见点状异常信号影,平扫各序列均为低信号,无强化。中线结构居中。右上颌窦内可见一囊性结节,边界清楚。余未见异常。	1.结合右肺癌病史,脑多发转移瘤。2.考虑左顶叶钙化灶。3.右上颌窦囊肿。</t>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>小脑、右额叶、右枕顶叶、左顶叶见散在数个、大小不等的结节样异常信号，部分病灶周围伴有小片状或斑片状长T2信号的水肿带，病灶表现为T1WI略低或低、高信号，T2WI及压水像为高或混杂高信号，DWI序列为低、高或高信号，增强扫描呈结节样或不均匀强化，大者约0.8CM×1.8CM位于右枕顶叶。左顶叶可见点状异常信号影，平扫各序列均为低信号，无强化。中线结构居中。右上颌窦内可见一囊性结节，边界清楚。余未见异常。	1.结合右肺癌病史，脑多发转移瘤。2.考虑左顶叶钙化灶。3.右上颌窦囊肿。</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>右乳外上象限可见一不规则软组织密度肿块,边缘明显分叶,周围可见条索影,肿块截面大小约1.0CM×1.4CM,增强后可见病变显著强化。余右侧乳腺内可见显著强化小结节灶。右侧腋窝可见小淋巴结,大者短径约0.5CM。左乳及左侧腋窝未见异常。右侧内乳区略饱满。右肺上叶及左肺下叶可见散在类结节灶,边界较清,大者直径约0.3CM;余双肺野清晰,肺纹理走形自然,气管及各级支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶,边界清晰,未见强化。腹腔内肝胃韧带区见多发增大淋巴结,大者短径约0.8CM。腹膜后未见增大淋巴结。脑实质密度均质,未见明确异常密度灶。脑室、池未见扩张,中线结构居中。骨窗示:扫描野内右侧髂骨、多发胸腰骶椎椎体、左侧锁骨、右侧肩胛骨、部分肋骨呈成骨性及溶骨性骨质破坏,局部呈膨胀性改变。	1.右乳癌并右侧腋窝转移,较前(2015-08-13)好转;多发骨转移,较前密度增高2.双肺类结节灶,纤维灶可能,建议观察3.右肾囊肿4.腹腔内淋巴结肿大5.颅脑扫描未见明确异常。</t>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>右乳外上象限可见一不规则软组织密度肿块，边缘明显分叶，周围可见条索影，肿块截面大小约1.0CM×1.4CM，增强后可见病变显著强化。余右侧乳腺内可见显著强化小结节灶。右侧腋窝可见小淋巴结，大者短径约0.5CM。左乳及左侧腋窝未见异常。右侧内乳区略饱满。右肺上叶及左肺下叶可见散在类结节灶，边界较清，大者直径约0.3CM；余双肺野清晰，肺纹理走形自然，气管及各级支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶，边界清晰，未见强化。腹腔内肝胃韧带区见多发增大淋巴结，大者短径约0.8CM。腹膜后未见增大淋巴结。脑实质密度均质，未见明确异常密度灶。脑室、池未见扩张，中线结构居中。骨窗示：扫描野内右侧髂骨、多发胸腰骶椎椎体、左侧锁骨、右侧肩胛骨、部分肋骨呈成骨性及溶骨性骨质破坏，局部呈膨胀性改变。	1.右乳癌并右侧腋窝转移，较前(2015-08-13)好转；多发骨转移，较前密度增高2.双肺类结节灶，纤维灶可能，建议观察3.右肾囊肿4.腹腔内淋巴结肿大5.颅脑扫描未见明确异常。</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>右乳示多发软组织密度结节及肿块,部分融合,大者截面约3.7CM×2.0CM,边缘分叶,与皮肤关系密切,增强扫描可见较显著不均匀强化。右腋窝示强化小淋巴结,大者短径约0.5CM。左乳未见异常。左腋窝及锁上未见明显肿大淋巴结。纵隔内4R/L及7区示多个略增大淋巴结,大者短径约0.7CM。双侧胸腔示少量液体密度影,左侧较著,左侧胸膜略厚。肝内示多发低密度结节及肿块,大者截面约3.8CM×4.6CM,边缘模糊,增强扫描可见不均匀强化。胆胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。多发胸腰椎、肋骨、左侧肩胛骨及胸骨示骨质破坏。1.右乳癌,肝转移,多发骨转移,病灶较前示缩小2.右腋窝小淋巴结;纵隔淋巴结略大,变化不著3.左侧胸膜略厚,双侧胸腔少量积液</t>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>右乳示多发软组织密度结节及肿块，部分融合，大者截面约3.7CM×2.0CM，边缘分叶，与皮肤关系密切，增强扫描可见较显著不均匀强化。右腋窝示强化小淋巴结，大者短径约0.5CM。左乳未见异常。左腋窝及锁上未见明显肿大淋巴结。纵隔内4R/L及7区示多个略增大淋巴结，大者短径约0.7CM。双侧胸腔示少量液体密度影，左侧较著，左侧胸膜略厚。肝内示多发低密度结节及肿块，大者截面约3.8CM×4.6CM，边缘模糊，增强扫描可见不均匀强化。胆胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。多发胸腰椎、肋骨、左侧肩胛骨及胸骨示骨质破坏。1.右乳癌，肝转移，多发骨转移，病灶较前示缩小2.右腋窝小淋巴结；纵隔淋巴结略大，变化不著3.左侧胸膜略厚，双侧胸腔少量积液</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合肺癌病史,左额叶、左顶叶转移。2.脑多发小缺血灶。左额叶近颅顶处可见一0.9CM×1.1CM×1.4CM的类卵圆形结节,有分叶,周围伴有斑片状长T2信号的水肿带,结节表现为T1加权像略低信号,T2加权像略高信号,压水像及DWI为高信号,不均匀强化。左顶叶可见一点状强化灶。双额叶可见散在小点状等T1略长T2信号影,压水像为高信号,无强化。脑室系统无扩大。中线结构居中。余未见异常。	</t>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合肺癌病史，左额叶、左顶叶转移。2.脑多发小缺血灶。左额叶近颅顶处可见一0.9CM×1.1CM×1.4CM的类卵圆形结节，有分叶，周围伴有斑片状长T2信号的水肿带，结节表现为T1加权像略低信号，T2加权像略高信号，压水像及DWI为高信号，不均匀强化。左顶叶可见一点状强化灶。双额叶可见散在小点状等T1略长T2信号影，压水像为高信号，无强化。脑室系统无扩大。中线结构居中。余未见异常。	</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>1.左肺下叶肺癌伴双肺多发转移瘤,较前2016-02-19CT减小,右侧胸水较前略减少;2.左侧肩胛骨、部分肋骨、胸椎及附件转移,较前略好转,请结合临床。左肺下叶可见团块影,较大截面大小约3.5CM×2.5CM,CT值约为52HU,边界尚清,浅分叶状,周围可见斑片状稍高密度影。双肺另见散在多发大小不等结节影。两肺门区未见异常。纵隔内未见淋巴结增大。右侧胸腔内可见弧形积液影。心脏大血管未见异常。左侧肩胛骨、双侧部分肋骨、胸椎及附件形态欠规整,可见骨质破坏区。</t>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>1.左肺下叶肺癌伴双肺多发转移瘤，较前2016-02-19CT减小，右侧胸水较前略减少；2.左侧肩胛骨、部分肋骨、胸椎及附件转移，较前略好转，请结合临床。左肺下叶可见团块影，较大截面大小约3.5CM×2.5CM，CT值约为52HU，边界尚清，浅分叶状，周围可见斑片状稍高密度影。双肺另见散在多发大小不等结节影。两肺门区未见异常。纵隔内未见淋巴结增大。右侧胸腔内可见弧形积液影。心脏大血管未见异常。左侧肩胛骨、双侧部分肋骨、胸椎及附件形态欠规整，可见骨质破坏区。</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>右侧小脑半球及双侧大脑半球见散在大小不等的略长T1略长T2结节样影,压水像及DWI为高信号,增强扫描可见结节样强化,大者大小约0.6CM×0.8CM位于左侧颞叶。双侧大脑半球及小脑蚓部见结节状、斑片状等T1略长T2信号影,压水像及DWI为高信号,无强化。双侧大脑半球可见散在点片状等T1略长T2信号影且以侧脑室周围为著,压水像为高信号,DWI为等信号,增强后扫描无强化。脑室系统无扩大。中线结构居中。双侧上颌窦、筛窦粘膜增厚。余未见异常。	1.结合肺癌病史,脑多发转移瘤,较本院(2016-09-14)MR片进展。2.考虑脑多发急性梗塞灶,建议结合临床。3.脑多发缺血灶。4.双上颌窦、筛窦炎。</t>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>右侧小脑半球及双侧大脑半球见散在大小不等的略长T1略长T2结节样影，压水像及DWI为高信号，增强扫描可见结节样强化，大者大小约0.6CM×0.8CM位于左侧颞叶。双侧大脑半球及小脑蚓部见结节状、斑片状等T1略长T2信号影，压水像及DWI为高信号，无强化。双侧大脑半球可见散在点片状等T1略长T2信号影且以侧脑室周围为著，压水像为高信号，DWI为等信号，增强后扫描无强化。脑室系统无扩大。中线结构居中。双侧上颌窦、筛窦粘膜增厚。余未见异常。	1.结合肺癌病史，脑多发转移瘤，较本院(2016-09-14)MR片进展。2.考虑脑多发急性梗塞灶，建议结合临床。3.脑多发缺血灶。4.双上颌窦、筛窦炎。</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合病史,右乳癌术后,肝(多发)及椎体转移,较本院(2016-05-12)MR片示肝转移好转,椎体转移变化不著。2.肝及双肾囊肿。右乳癌术后,术区结构紊乱,局部增强前后未见明显占位性病灶。肝左右叶可见多发大小不等病灶,T1WI呈略低信号,T2WI及压脂像呈略高信号,DWI呈高信号,增强扫描病灶呈不均匀强化,大者约0.6CM位于左外叶。肝实质内及双肾实质内可见散在囊性结节,边界清楚,无强化,大者约1.0CM位于左肾。胆囊不大。脾、胰腺增强前后未见异常信号区。腹膜后未见明显肿大淋巴结。所扫部分椎体可见斑片状骨质破坏区,呈长T1短T2信号,压脂像及DWI为高信号,不均匀强化。余未见异常。	</t>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合病史，右乳癌术后，肝(多发)及椎体转移，较本院(2016-05-12)MR片示肝转移好转，椎体转移变化不著。2.肝及双肾囊肿。右乳癌术后，术区结构紊乱，局部增强前后未见明显占位性病灶。肝左右叶可见多发大小不等病灶，T1WI呈略低信号，T2WI及压脂像呈略高信号，DWI呈高信号，增强扫描病灶呈不均匀强化，大者约0.6CM位于左外叶。肝实质内及双肾实质内可见散在囊性结节，边界清楚，无强化，大者约1.0CM位于左肾。胆囊不大。脾、胰腺增强前后未见异常信号区。腹膜后未见明显肿大淋巴结。所扫部分椎体可见斑片状骨质破坏区，呈长T1短T2信号，压脂像及DWI为高信号，不均匀强化。余未见异常。	</t>
         </is>
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>1.右肺门肿块,考虑肺癌可能;2.双肺多发病变,纵隔淋巴结肿大,随诊;3.支气管炎,肺气肿;双侧胸膜增厚;4.心包增厚;5.部分椎体及肋骨、胸骨转移;以上对比2012.08.06前片,未见明显变化,请结合临床。双肺纹理稀疏,可见多发含气透亮影。右肺尖可见斑片状高密度影,边缘可见细毛刺,大小约为3.15CM×1.34CM,CT值约47HU;右肺上叶支气管狭窄,右肺门区见肿块影。左肺上叶舌段及左肺下叶內基底段可见片状高密度影。双肺可见多发小结节影。右肺下叶外基底段可见一点状钙化影。纵隔内可见多发增大的淋巴结,大者短径约1.06;双胸腔无积液征象,双侧胸膜增厚。心脏不大,部分大血管见钙化斑。心包增厚。部分椎体及肋骨、胸骨可见多发斑片状致密影。</t>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>1.右肺门肿块，考虑肺癌可能；2.双肺多发病变，纵隔淋巴结肿大，随诊；3.支气管炎，肺气肿；双侧胸膜增厚；4.心包增厚；5.部分椎体及肋骨、胸骨转移；以上对比2012.08.06前片，未见明显变化，请结合临床。双肺纹理稀疏，可见多发含气透亮影。右肺尖可见斑片状高密度影，边缘可见细毛刺，大小约为3.15CM×1.34CM，CT值约47HU；右肺上叶支气管狭窄，右肺门区见肿块影。左肺上叶舌段及左肺下叶內基底段可见片状高密度影。双肺可见多发小结节影。右肺下叶外基底段可见一点状钙化影。纵隔内可见多发增大的淋巴结，大者短径约1.06；双胸腔无积液征象，双侧胸膜增厚。心脏不大，部分大血管见钙化斑。心包增厚。部分椎体及肋骨、胸骨可见多发斑片状致密影。</t>
         </is>
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,双侧乳腺癌术后改变;左肺上叶、右肺下叶结节灶伴FDG高代谢,考虑恶性病变,建议进一步检查;左锁上、纵隔淋巴结转移伴FDG高代谢。2.双肺肺大泡。3.扁桃体炎症。4.子宫肌瘤;子宫腔内FDG高代谢,考虑子宫内膜摄取。5.T6-T9椎体术后改变。空腹6HR以上,静脉注射显像剂,平静休息60MMIN后行CT和PET全身断层显像,PET图像经衰减校正、迭代法重建后行多层面、多幅显像,并与CT图像进行融合。影像清晰。PET-CT示左乳术后缺如,术区未见异常放射性摄取,右乳未见异常放射性摄取;左锁上肿大淋巴结,直径约为1.7CM,呈结节状放射性摄取增高,最高SUV3.5,左肺上叶支气管前尖段开口处示局限性放射性摄取增高,最高SUV3.3,远端示条状密度增高影;右肺下叶斜裂胸膜处示软组织结节,与斜裂胸膜关系密切,截面约为1.8CM×1.5CM,边缘毛刺,呈结节状放射性浓聚,最高SUV5.4,其外侧斜裂胸膜亦示一结节灶,长径约为1.0CM,未见异常放射性摄取;左肺上叶、右肺下叶各示一肺大泡影;纵隔气管前腔静脉后示放射性摄取增高淋巴结,直径约为1.0CM,最高SUV4.1;子宫表面示直径约为2.0CM的结节样凸起,子宫腔内示小片状放射性摄取;扁桃体示放射性摄取增高,最高SUV5.9。T6-T9椎体示金属固定器影。脑部正常显影。肝脏形态、大小及放射性分布正常,脾不大。胃显影正常。双肾及双输尿管正常显影。腹部内见数个形态不一、条管状、浓淡不一的正常肠影。余无特殊。	</t>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，双侧乳腺癌术后改变；左肺上叶、右肺下叶结节灶伴FDG高代谢，考虑恶性病变，建议进一步检查；左锁上、纵隔淋巴结转移伴FDG高代谢。2.双肺肺大泡。3.扁桃体炎症。4.子宫肌瘤；子宫腔内FDG高代谢，考虑子宫内膜摄取。5.T6-T9椎体术后改变。空腹6HR以上，静脉注射显像剂，平静休息60MMIN后行CT和PET全身断层显像，PET图像经衰减校正、迭代法重建后行多层面、多幅显像，并与CT图像进行融合。影像清晰。PET-CT示左乳术后缺如，术区未见异常放射性摄取，右乳未见异常放射性摄取；左锁上肿大淋巴结，直径约为1.7CM，呈结节状放射性摄取增高，最高SUV3.5，左肺上叶支气管前尖段开口处示局限性放射性摄取增高，最高SUV3.3，远端示条状密度增高影；右肺下叶斜裂胸膜处示软组织结节，与斜裂胸膜关系密切，截面约为1.8CM×1.5CM，边缘毛刺，呈结节状放射性浓聚，最高SUV5.4，其外侧斜裂胸膜亦示一结节灶，长径约为1.0CM，未见异常放射性摄取；左肺上叶、右肺下叶各示一肺大泡影；纵隔气管前腔静脉后示放射性摄取增高淋巴结，直径约为1.0CM，最高SUV4.1；子宫表面示直径约为2.0CM的结节样凸起，子宫腔内示小片状放射性摄取；扁桃体示放射性摄取增高，最高SUV5.9。T6-T9椎体示金属固定器影。脑部正常显影。肝脏形态、大小及放射性分布正常，脾不大。胃显影正常。双肾及双输尿管正常显影。腹部内见数个形态不一、条管状、浓淡不一的正常肠影。余无特殊。	</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>双肺透过度欠均,左下肺可见一肿块影,边界不规则,最大层面3.72CM×2.13CM,CT值约32HU;左肺下叶基底段部分支气管略窄;双肺多发小结节影。纵隔、左肺门可见多发稍大的淋巴结,大者短径约0.78CM。两胸腔无积液征象。心脏大血管未见异常。第3胸椎左侧横突、第4、5、7、8、10胸椎椎体内可见结节状高密度影,第11胸椎椎体骨质密度不均匀减低,左侧第4、5、7后肋骨质密度增高。甲状腺左叶见类圆形低密度影,边界欠清,大小约为0.85CM,CT值约为28HU。肝右叶多发低密度灶,右侧肾上腺区可见软组织密度影。左侧肾上腺内支似见结节影。1.左下肺周围型肺癌,双肺多发小转移灶,对比2012-06-04片,病变未见明显进展;2.纵隔、左肺门多发增大淋巴结,对比前片变化不大;3.胸椎、左侧肋骨、胸骨及右侧锁骨多发转移;4.甲状腺占位,腹部改变,请详查。</t>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>双肺透过度欠均，左下肺可见一肿块影，边界不规则，最大层面3.72CM×2.13CM，CT值约32HU；左肺下叶基底段部分支气管略窄；双肺多发小结节影。纵隔、左肺门可见多发稍大的淋巴结，大者短径约0.78CM。两胸腔无积液征象。心脏大血管未见异常。第3胸椎左侧横突、第4、5、7、8、10胸椎椎体内可见结节状高密度影，第11胸椎椎体骨质密度不均匀减低，左侧第4、5、7后肋骨质密度增高。甲状腺左叶见类圆形低密度影，边界欠清，大小约为0.85CM，CT值约为28HU。肝右叶多发低密度灶，右侧肾上腺区可见软组织密度影。左侧肾上腺内支似见结节影。1.左下肺周围型肺癌，双肺多发小转移灶，对比2012-06-04片，病变未见明显进展；2.纵隔、左肺门多发增大淋巴结，对比前片变化不大；3.胸椎、左侧肋骨、胸骨及右侧锁骨多发转移；4.甲状腺占位，腹部改变，请详查。</t>
         </is>
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>左肺叶间胸膜下见一结节灶,直径约1.0CM,边清。右肺上叶及中叶见少许斑片条索状密度增高影,部分内见钙化灶。右肺中叶胸膜下见结节灶,部分内见钙化灶,大者直径约0.4CM。双侧胸膜未见增厚,双侧胸腔未见积液征象。双肺门、纵隔未见肿大淋巴结。直肠术后,吻合口壁未见增厚及异常强化征象。膀胱充盈可,壁不厚。子宫及附件区未见异常。盆腔内未见肿大淋巴结。盆腔内未见积液征象。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。	1.结合临床,直肠癌术后2.左肺叶间胸膜下结节灶,较前(2015-6-1)略增大,转移不能除外,建议密切观察3.右肺结节灶及钙化,较前变化不著4.上腹部扫描未见异常。</t>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>左肺叶间胸膜下见一结节灶，直径约1.0CM，边清。右肺上叶及中叶见少许斑片条索状密度增高影，部分内见钙化灶。右肺中叶胸膜下见结节灶，部分内见钙化灶，大者直径约0.4CM。双侧胸膜未见增厚，双侧胸腔未见积液征象。双肺门、纵隔未见肿大淋巴结。直肠术后，吻合口壁未见增厚及异常强化征象。膀胱充盈可，壁不厚。子宫及附件区未见异常。盆腔内未见肿大淋巴结。盆腔内未见积液征象。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。	1.结合临床，直肠癌术后2.左肺叶间胸膜下结节灶，较前(2015-6-1)略增大，转移不能除外，建议密切观察3.右肺结节灶及钙化，较前变化不著4.上腹部扫描未见异常。</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>右肺上叶后段近胸膜处示软组织结节灶,形态不规则,截面约2.4CM×2.2CM。双肺内示泡状过度透光区。纵隔内气管右旁、腔静脉后间隙、隆突下、右肺门示增大淋巴结,大者短径约1.4CM。右侧胸膜增厚呈结节及肿块状。右侧胸腔示液体密度影。	1.结合临床,右肺癌,较前(2014-11-14)略似饱满;右肺门并纵隔淋巴结转移,较前部分进展,部分变化不著;右侧胸膜转移,较前部分好转,部分变化不著;右侧胸腔积液,较前略减少。</t>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>右肺上叶后段近胸膜处示软组织结节灶，形态不规则，截面约2.4CM×2.2CM。双肺内示泡状过度透光区。纵隔内气管右旁、腔静脉后间隙、隆突下、右肺门示增大淋巴结，大者短径约1.4CM。右侧胸膜增厚呈结节及肿块状。右侧胸腔示液体密度影。	1.结合临床，右肺癌，较前(2014-11-14)略似饱满；右肺门并纵隔淋巴结转移，较前部分进展，部分变化不著；右侧胸膜转移，较前部分好转，部分变化不著；右侧胸腔积液，较前略减少。</t>
         </is>
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,左肺癌并阻塞性肺不张;纵隔淋巴结转移;右肺门淋巴结稍大2.双肺炎症及纤维灶、气肿;双肺类结节灶,建议观察3.肝内钙化灶4.肝内低密度灶,多为囊肿,部分考虑为囊肿,建议观察;双肾囊肿。左肺下叶背段支气管截断,断端见软组织密度灶,远端见不张肺组织,内见扩张支气管及其内粘液栓,二者分界不清,增强后前者中等不均匀强化,侵及左下肺门,与左下肺动脉及其分支、降主动脉关系密切。右肺及纵隔见大者短径约0.8CM中等淋巴结。左侧锁骨上见短径不足0.5CM小淋巴结。双肺见少许斑片索条影及少许泡状过度透光区。左肺上叶(5-13、15)见大者长径约0.8CM类结节灶。右肺(5-17、27)见直径不足0.5CM小类结节灶。肝内见斑点状钙化灶及低密度结节灶,后者大者长径约2.0CM,大部分边缘清晰,部分欠清,均未见强化。胆、胰、脾、双侧肾上腺未见异常。双肾见囊性结节灶。腹腔及腹膜后未见肿大淋巴结。	</t>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，左肺癌并阻塞性肺不张；纵隔淋巴结转移；右肺门淋巴结稍大2.双肺炎症及纤维灶、气肿；双肺类结节灶，建议观察3.肝内钙化灶4.肝内低密度灶，多为囊肿，部分考虑为囊肿，建议观察；双肾囊肿。左肺下叶背段支气管截断，断端见软组织密度灶，远端见不张肺组织，内见扩张支气管及其内粘液栓，二者分界不清，增强后前者中等不均匀强化，侵及左下肺门，与左下肺动脉及其分支、降主动脉关系密切。右肺及纵隔见大者短径约0.8CM中等淋巴结。左侧锁骨上见短径不足0.5CM小淋巴结。双肺见少许斑片索条影及少许泡状过度透光区。左肺上叶(5-13、15)见大者长径约0.8CM类结节灶。右肺(5-17、27)见直径不足0.5CM小类结节灶。肝内见斑点状钙化灶及低密度结节灶，后者大者长径约2.0CM，大部分边缘清晰，部分欠清，均未见强化。胆、胰、脾、双侧肾上腺未见异常。双肾见囊性结节灶。腹腔及腹膜后未见肿大淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>左肺上叶近纵隔旁见软组织肿块影,边缘有毛刺,直径约2.5CM,增强后可见强化。右肺下叶见少许条索影,余肺野清晰,未见异常。肝实质内见多发囊肿。胆囊胰脾双肾未见异常。腹腔及腹膜后未见明显肿大淋巴结。前列腺形态大小正常,边缘光整,与周围组织间隙清晰,实质内密度均匀。精囊腺形态大小密度正常。膀胱充盈好,壁不厚。盆腔内未见肿大淋巴结。左侧臀部肌群内见软组织肿块,邻近左侧髂骨骨质破坏,肿块最大截面约4.4CM×5.1CM。L4椎体骨质密度减低。	1.结合临床,考虑左肺癌并左侧臀部肌肉转移累伴左髂骨骨质破坏;L4椎体密度减低,建议观察2.肝囊肿。</t>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>左肺上叶近纵隔旁见软组织肿块影，边缘有毛刺，直径约2.5CM，增强后可见强化。右肺下叶见少许条索影，余肺野清晰，未见异常。肝实质内见多发囊肿。胆囊胰脾双肾未见异常。腹腔及腹膜后未见明显肿大淋巴结。前列腺形态大小正常，边缘光整，与周围组织间隙清晰，实质内密度均匀。精囊腺形态大小密度正常。膀胱充盈好，壁不厚。盆腔内未见肿大淋巴结。左侧臀部肌群内见软组织肿块，邻近左侧髂骨骨质破坏，肿块最大截面约4.4CM×5.1CM。L4椎体骨质密度减低。	1.结合临床，考虑左肺癌并左侧臀部肌肉转移累伴左髂骨骨质破坏；L4椎体密度减低，建议观察2.肝囊肿。</t>
         </is>
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>肝脏体积增大,形态欠规则,实质内见多发混杂密度结节及肿块影,边界欠清,部分可见假包膜形成,大者截面积约13.1CM×10.0CM,部分其内示高密度碘油影沉积;增强扫描其内可见不均匀强化。肝左内叶近膈顶处病灶大小约12.5CM×7.3CM,邻近下腔静脉受压变窄。余肝内见数个动脉期较显著强化灶,门脉期和延迟期廓清迅速,部分呈融合状,边界不清。肝内另见小囊性密度灶,大者长径不足0.5CM,界清,无强化。门脉主干及左支显示尚可,门脉右支示受压显示欠清。胆囊充盈可,壁略厚。胰腺、脾、双肾及右侧肾上腺未见明确异常。左侧肾上腺略示饱满。腹腔及腹膜后未见确切增大淋巴结。双肺内示多发大小不一的结节灶,大者长径约1.3CM。双肺内胸膜下见多发泡状过度透亮区及条索状密度增高影,局部肺大泡形成。双肺门及纵隔未见确切增大淋巴结。纵隔内冠状动脉见条形钙化。右侧叶间胸膜增厚局部示类结节灶。双侧胸腔未见液性密度影。	1.结合病史,肝癌伴肝内转移治疗后,部分较2015-1-5片进展;双肺多发转移,较前进展2.双肺局限性肺气肿,肺大泡;双肺纤维灶3.右侧叶间胸膜结节灶,较前变化不著4.肝小囊肿5.左侧肾上腺饱满,较前变化不著。</t>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>肝脏体积增大，形态欠规则，实质内见多发混杂密度结节及肿块影，边界欠清，部分可见假包膜形成，大者截面积约13.1CM×10.0CM，部分其内示高密度碘油影沉积；增强扫描其内可见不均匀强化。肝左内叶近膈顶处病灶大小约12.5CM×7.3CM，邻近下腔静脉受压变窄。余肝内见数个动脉期较显著强化灶，门脉期和延迟期廓清迅速，部分呈融合状，边界不清。肝内另见小囊性密度灶，大者长径不足0.5CM，界清，无强化。门脉主干及左支显示尚可，门脉右支示受压显示欠清。胆囊充盈可，壁略厚。胰腺、脾、双肾及右侧肾上腺未见明确异常。左侧肾上腺略示饱满。腹腔及腹膜后未见确切增大淋巴结。双肺内示多发大小不一的结节灶，大者长径约1.3CM。双肺内胸膜下见多发泡状过度透亮区及条索状密度增高影，局部肺大泡形成。双肺门及纵隔未见确切增大淋巴结。纵隔内冠状动脉见条形钙化。右侧叶间胸膜增厚局部示类结节灶。双侧胸腔未见液性密度影。	1.结合病史，肝癌伴肝内转移治疗后，部分较2015-1-5片进展；双肺多发转移，较前进展2.双肺局限性肺气肿，肺大泡；双肺纤维灶3.右侧叶间胸膜结节灶，较前变化不著4.肝小囊肿5.左侧肾上腺饱满，较前变化不著。</t>
         </is>
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>小脑、双颞叶、双顶叶及左额叶见多发结节样异常信号影,表现为T1WI低信号,T2WI及压水序列高信号,DWI序列呈等、高信号,增强扫描呈结节样或环形强化,大者约1.9CM×2.4CM×1.5CM位于左顶叶,部分病灶周围脑实质内见小片状或片状长T2水肿带。左侧侧脑室后角略受压变形。中线结构居中。左乳突可见小片状长T2信号影。余未见异常。	1.结合右肺癌病史,符合脑多发转移瘤MR表现,较本院(2014-11-12)MR片示进展。2.左乳突炎症。</t>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>小脑、双颞叶、双顶叶及左额叶见多发结节样异常信号影，表现为T1WI低信号，T2WI及压水序列高信号，DWI序列呈等、高信号，增强扫描呈结节样或环形强化，大者约1.9CM×2.4CM×1.5CM位于左顶叶，部分病灶周围脑实质内见小片状或片状长T2水肿带。左侧侧脑室后角略受压变形。中线结构居中。左乳突可见小片状长T2信号影。余未见异常。	1.结合右肺癌病史，符合脑多发转移瘤MR表现，较本院(2014-11-12)MR片示进展。2.左乳突炎症。</t>
         </is>
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>右肺下叶支气管周围可见一不规则软组织密度肿块影,约2.2CM×2.1CM,与其远端斑片状密度增高影,向内与肺门淋巴结分界不清。双肺野内散在囊泡状过度透光灶,右肺上叶示一钙化结节灶。右肺门、纵隔内示多发肿大融合的淋巴结影,大者短径约1.3CM。左侧胸膜略示增厚。颈部未见明显异常。肝胆胰脾双肾上腺双肾形态、密度未见明显异常。腹腔及腹膜后未见明显增大淋巴结。	1.右肺下叶肺癌并阻塞性肺不张、肺炎;右肺门、纵隔淋巴结转移,上述病变较前2017-1-9示好转。2.双侧胸膜略增厚。3.右肺上叶钙化灶。4.双肺气肿。5.颈部及上腹部未见明显异常。</t>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>右肺下叶支气管周围可见一不规则软组织密度肿块影，约2.2CM×2.1CM，与其远端斑片状密度增高影，向内与肺门淋巴结分界不清。双肺野内散在囊泡状过度透光灶，右肺上叶示一钙化结节灶。右肺门、纵隔内示多发肿大融合的淋巴结影，大者短径约1.3CM。左侧胸膜略示增厚。颈部未见明显异常。肝胆胰脾双肾上腺双肾形态、密度未见明显异常。腹腔及腹膜后未见明显增大淋巴结。	1.右肺下叶肺癌并阻塞性肺不张、肺炎；右肺门、纵隔淋巴结转移，上述病变较前2017-1-9示好转。2.双侧胸膜略增厚。3.右肺上叶钙化灶。4.双肺气肿。5.颈部及上腹部未见明显异常。</t>
         </is>
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>左肺门周围可见不规则软组织密度肿块影,约4.7CM×3.8CM,增强扫描呈明显不均匀强化,与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。双肺内见多发斑片状密度增高影。左肺上叶示一结节灶,直径约0.9CM,双侧胸膜及叶间胸膜上可见多发类结节灶。纵隔内示多发融合的淋巴结影,大者短径约1.2CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常,肝实质内可见数个低密度灶,部分边界清,部分边缘显示模糊。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常,右肾上腺示一类结节灶,长径约3.9CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨、肋骨密度略增高。	1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张,较前(2017-2-14)进展;肺炎治疗后,较前变化不著;左肺上叶结节灶较前变化不著,考虑转移;双侧胸膜多发结节灶,考虑转移,部分较前增大;纵隔淋巴结转移,较前增大;右肾上腺转移,较前增大2.肝内低密度灶,部分考虑囊肿,部分建议观察;双肾囊肿;左肾低密度灶,较前增大;胰腺低密度灶,变化不著3.心包、左胸腔少量积液,较前变化不著4.部分椎骨及肋骨密度略增高,考虑转移,较前变化不著。</t>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>左肺门周围可见不规则软组织密度肿块影，约4.7CM×3.8CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。双肺内见多发斑片状密度增高影。左肺上叶示一结节灶，直径约0.9CM，双侧胸膜及叶间胸膜上可见多发类结节灶。纵隔内示多发融合的淋巴结影，大者短径约1.2CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常，肝实质内可见数个低密度灶，部分边界清，部分边缘显示模糊。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常，右肾上腺示一类结节灶，长径约3.9CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨、肋骨密度略增高。	1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张，较前(2017-2-14)进展；肺炎治疗后，较前变化不著；左肺上叶结节灶较前变化不著，考虑转移；双侧胸膜多发结节灶，考虑转移，部分较前增大；纵隔淋巴结转移，较前增大；右肾上腺转移，较前增大2.肝内低密度灶，部分考虑囊肿，部分建议观察；双肾囊肿；左肾低密度灶，较前增大；胰腺低密度灶，变化不著3.心包、左胸腔少量积液，较前变化不著4.部分椎骨及肋骨密度略增高，考虑转移，较前变化不著。</t>
         </is>
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>右乳术后缺如,部分胸肌存在,术区胸壁及皮肤局部略增厚;右侧腋窝术后,结构紊乱。左乳未见明确异常。右侧内乳区、左侧腋窝可见小淋巴结,大者短径不足0.5CM。右肺中叶见一结节灶,长径约1.4CM。右肺中叶可见类圆形囊状过度充气区及条片影。双肺门及纵隔内未见肿大淋巴结。右侧胸膜略增厚。扫描野内肝实质密度减低。脾内示颗粒状致密影。胆囊腔内密度略增高。右侧部分肋骨密度增高。	1.右乳癌术后改变,术区胸壁及皮肤局部略增厚,较前(2016-05-19)基本变化不著2.考虑右肺转移,略饱满;右肺中叶含气囊肿、纤维灶,变化不著3.脂肪肝;脾内钙化灶4.右侧部分肋骨密度增高,变化不著。</t>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>右乳术后缺如，部分胸肌存在，术区胸壁及皮肤局部略增厚；右侧腋窝术后，结构紊乱。左乳未见明确异常。右侧内乳区、左侧腋窝可见小淋巴结，大者短径不足0.5CM。右肺中叶见一结节灶，长径约1.4CM。右肺中叶可见类圆形囊状过度充气区及条片影。双肺门及纵隔内未见肿大淋巴结。右侧胸膜略增厚。扫描野内肝实质密度减低。脾内示颗粒状致密影。胆囊腔内密度略增高。右侧部分肋骨密度增高。	1.右乳癌术后改变，术区胸壁及皮肤局部略增厚，较前(2016-05-19)基本变化不著2.考虑右肺转移，略饱满；右肺中叶含气囊肿、纤维灶，变化不著3.脂肪肝；脾内钙化灶4.右侧部分肋骨密度增高，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>右肺中叶可见团块影,边缘不规则,长径约为2.8CM,平扫CT值为44HU,双肺可见多发结节影,较大者径约0.6CM;所示气管支气管影正常。右肺门增大,可见多个小淋巴结,纵隔内见增大淋巴结影,径约1.1CM。前上纵隔胸腺区见囊性密度灶,大小约为1.39CM×4.28CM,CT值约为11HU。两胸腔无积液征象。心脏大血管未见异常。与2012.12.11CT片对比:1.右肺中叶周围型肺癌,较前片病灶缩小;2.双肺多发转移瘤,部分较前变小;3.右侧肺门增大,纵隔淋巴结增大,与前片相仿;4.前上纵隔囊性灶,较前大致相同。</t>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>右肺中叶可见团块影，边缘不规则，长径约为2.8CM，平扫CT值为44HU，双肺可见多发结节影，较大者径约0.6CM；所示气管支气管影正常。右肺门增大，可见多个小淋巴结，纵隔内见增大淋巴结影，径约1.1CM。前上纵隔胸腺区见囊性密度灶，大小约为1.39CM×4.28CM，CT值约为11HU。两胸腔无积液征象。心脏大血管未见异常。与2012.12.11CT片对比：1.右肺中叶周围型肺癌，较前片病灶缩小；2.双肺多发转移瘤，部分较前变小；3.右侧肺门增大，纵隔淋巴结增大，与前片相仿；4.前上纵隔囊性灶，较前大致相同。</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>右肺门区见不规则软组织密度肿块影,增强扫描可见不均匀强化,远端与不张实变的肺组织分界不清,大小不易测量;右侧胸腔见大量液体密度影,右肺全肺不张,右侧胸膜增厚并可见强化。左肺野清晰。纵隔、膈上前组及中组可见肿大淋巴结,大者短径约1.0CM。右侧锁骨上见小淋巴结,大者短径约0.5CM。右侧胸腔内可见引流管影.肝实质内平扫未见明显异常,增强扫描可见多发异常强化区,肝左叶可见团片状强化,肝尾状叶及右叶病灶可见结节样向心性充填样强化。另肝右叶近包膜下(6-70)见一类圆形低密度灶,直径约1.0CM,边缘略模糊。双侧肾上腺及双肾未见明显异常。腹腔腹膜后未见肿大淋巴结。脑实质内未见异常密度影,脑沟、脑池未见增宽或狭窄,脑室大小、形态,位置正常,中线结构居中。T9椎体内可见一类圆形骨质稀疏区。	1.结合临床,右肺癌,右肺全肺不张,较前2016-8-16不易比较;纵隔、膈上淋巴结转移,右侧锁骨上淋巴结肿大,较前变化不著。2.右侧胸腔大量积液,右侧胸腔引流术后改变;右侧胸膜转移,变化不著。3.肝脏血管瘤(多发)。4.肝右叶低密度灶,较前变化不著,建议观察。5.颅脑扫描未见明显异常。6.T9椎体内骨质稀疏,考虑转移,较前略增大。</t>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>右肺门区见不规则软组织密度肿块影，增强扫描可见不均匀强化，远端与不张实变的肺组织分界不清，大小不易测量；右侧胸腔见大量液体密度影，右肺全肺不张，右侧胸膜增厚并可见强化。左肺野清晰。纵隔、膈上前组及中组可见肿大淋巴结，大者短径约1.0CM。右侧锁骨上见小淋巴结，大者短径约0.5CM。右侧胸腔内可见引流管影.肝实质内平扫未见明显异常，增强扫描可见多发异常强化区，肝左叶可见团片状强化，肝尾状叶及右叶病灶可见结节样向心性充填样强化。另肝右叶近包膜下(6-70)见一类圆形低密度灶，直径约1.0CM，边缘略模糊。双侧肾上腺及双肾未见明显异常。腹腔腹膜后未见肿大淋巴结。脑实质内未见异常密度影，脑沟、脑池未见增宽或狭窄，脑室大小、形态，位置正常，中线结构居中。T9椎体内可见一类圆形骨质稀疏区。	1.结合临床，右肺癌，右肺全肺不张，较前2016-8-16不易比较；纵隔、膈上淋巴结转移，右侧锁骨上淋巴结肿大，较前变化不著。2.右侧胸腔大量积液，右侧胸腔引流术后改变；右侧胸膜转移，变化不著。3.肝脏血管瘤(多发)。4.肝右叶低密度灶，较前变化不著，建议观察。5.颅脑扫描未见明显异常。6.T9椎体内骨质稀疏，考虑转移，较前略增大。</t>
         </is>
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>右肺中叶可见一软组织密度灶,边缘毛糙,呈分叶状,大小约10.8CM×9.5CM,向内与心包关系密切,向外与胸膜分界不清,增强后示边缘显著强化,内部不均匀强化,右肺中叶少许肺组织实变。右肺尖示类结节灶,外缘胸膜牵拉。纵隔及右侧肺门可见多发性结节灶,位于右肺门者与肿块分界欠清,余大者短径约1.0CM。双侧肺野内可见多发性过度透光区。余肺野未见明显异常。心包内示少量液体密度影。右侧胸腔示液体密度影。胸廓骨未见明显异常。肝大小、形态、位置可,实质可见多发性低密度灶,大者长径约0.8CM,边界清,未见强化,肝脏密度弥漫性减低。胆囊充盈不良,壁略厚。胰、脾、双侧肾上腺及扫描区内双侧肾脏未见明显异常。腹腔及腹膜后未见明显肿大的淋巴结。	1.右肺CA治疗后,较前片(2017-2-4)示进展;纵隔及右肺门淋巴结肿大,考虑转移,部分变化不著,部分与肿块分界欠清部分略缩小。2.左侧胸腔积液,心包少量积液3.肺大泡;右肺尖类结节灶,变化不著4.脂肪肝,肝囊肿。5.胆囊炎。</t>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>右肺中叶可见一软组织密度灶，边缘毛糙，呈分叶状，大小约10.8CM×9.5CM，向内与心包关系密切，向外与胸膜分界不清，增强后示边缘显著强化，内部不均匀强化，右肺中叶少许肺组织实变。右肺尖示类结节灶，外缘胸膜牵拉。纵隔及右侧肺门可见多发性结节灶，位于右肺门者与肿块分界欠清，余大者短径约1.0CM。双侧肺野内可见多发性过度透光区。余肺野未见明显异常。心包内示少量液体密度影。右侧胸腔示液体密度影。胸廓骨未见明显异常。肝大小、形态、位置可，实质可见多发性低密度灶，大者长径约0.8CM，边界清，未见强化，肝脏密度弥漫性减低。胆囊充盈不良，壁略厚。胰、脾、双侧肾上腺及扫描区内双侧肾脏未见明显异常。腹腔及腹膜后未见明显肿大的淋巴结。	1.右肺CA治疗后，较前片(2017-2-4)示进展；纵隔及右肺门淋巴结肿大，考虑转移，部分变化不著，部分与肿块分界欠清部分略缩小。2.左侧胸腔积液，心包少量积液3.肺大泡；右肺尖类结节灶，变化不著4.脂肪肝，肝囊肿。5.胆囊炎。</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后,右胸壁类强化结节,建议观察;肝转移,较前2016-11-15部分饱满,部分变化不著;右肺结节灶,变化不著2.左肺纤维灶,变化不著3.胆囊炎4.部分骨质密度稍高,建议观察或ECT检查。右乳术后,术区未见增厚及异常强化征象。右胸壁(5-22)见一直径不足0.5CM小类结节,强化显著。右腋窝结构紊乱,未见肿大淋巴结。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一类结节灶,边界模糊。双侧内乳区、肺门、纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块,大者直径约4.2CM,边缘模糊,轻度强化。胆囊充盈可,壁示增厚。胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。胸骨及胸椎局部密度稍高。	</t>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后，右胸壁类强化结节，建议观察；肝转移，较前2016-11-15部分饱满，部分变化不著；右肺结节灶，变化不著2.左肺纤维灶，变化不著3.胆囊炎4.部分骨质密度稍高，建议观察或ECT检查。右乳术后，术区未见增厚及异常强化征象。右胸壁(5-22)见一直径不足0.5CM小类结节，强化显著。右腋窝结构紊乱，未见肿大淋巴结。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一类结节灶，边界模糊。双侧内乳区、肺门、纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块，大者直径约4.2CM，边缘模糊，轻度强化。胆囊充盈可，壁示增厚。胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。胸骨及胸椎局部密度稍高。	</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,左乳癌术后改变;左侧胸肌深面转移;左侧内乳淋巴结肿大,较前(2014-8-18)变化不著2.肝转移,较前明显进展3.颅脑扫描未见异常。左乳术后,术区结构紊乱,未见结节及肿块。左侧腋窝结构紊乱。左侧胸肌深面可见软组织密度结节灶,大者大小约1.6CM×2.4CM。右乳未见异常。左侧内乳见增大淋巴结,短径约0.8CM。左侧腋窝、双侧肺门及纵隔未见增大淋巴结。右侧水平裂区(3-25)见一类结节灶,直径约0.2CM。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝实质内见多发低密度结节及肿块,边缘略模糊,其密度不均。胆囊充盈可,壁不厚。胰脾、双侧肾上腺及双肾未见异常。腹腔内肝总动脉见短径约0.6CM小淋巴结。腹膜后未见增大淋巴结。脑实质均质,未见异常密度灶。脑室系统未见扩张。中线结构居中。	</t>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，左乳癌术后改变；左侧胸肌深面转移；左侧内乳淋巴结肿大，较前(2014-8-18)变化不著2.肝转移，较前明显进展3.颅脑扫描未见异常。左乳术后，术区结构紊乱，未见结节及肿块。左侧腋窝结构紊乱。左侧胸肌深面可见软组织密度结节灶，大者大小约1.6CM×2.4CM。右乳未见异常。左侧内乳见增大淋巴结，短径约0.8CM。左侧腋窝、双侧肺门及纵隔未见增大淋巴结。右侧水平裂区(3-25)见一类结节灶，直径约0.2CM。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝实质内见多发低密度结节及肿块，边缘略模糊，其密度不均。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及双肾未见异常。腹腔内肝总动脉见短径约0.6CM小淋巴结。腹膜后未见增大淋巴结。脑实质均质，未见异常密度灶。脑室系统未见扩张。中线结构居中。	</t>
         </is>
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>左乳术后,术区皮肤略增厚,皮下脂肪层密度增高,未见结节及异常强化灶。左侧腋窝结构紊乱,见少许斑片状低密度,未见异常强化,考虑为术后改变。右侧胸膜下、双侧斜裂胸膜见多发结节灶,大者长径约0.6CM。右肺下叶见少许索条影。左侧内乳区见短径不足0.5CM小淋巴结。双侧肺门及纵隔未见增大淋巴结。左侧甲状腺见小低密度灶,直径不足0.5CM。第1腰椎体局限骨质密度减低。第5胸椎压缩变扁,其后缘见软组织肿块并侵及邻近椎管,其上下椎体骨质亦局限性破坏。脑实质密度均匀,未见结节及异常强化灶。大枕大池。中线结构居中。	1.结合临床,左乳癌术后;右肺胸膜下及双侧斜裂区结节灶,考虑转移,请结合临床;多发骨转移并软组织肿块形成并侵及邻近椎管2.左侧内乳区小淋巴结3.右肺下叶纤维灶4.大枕大池5.左侧甲状腺低密度灶。</t>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>左乳术后，术区皮肤略增厚，皮下脂肪层密度增高，未见结节及异常强化灶。左侧腋窝结构紊乱，见少许斑片状低密度，未见异常强化，考虑为术后改变。右侧胸膜下、双侧斜裂胸膜见多发结节灶，大者长径约0.6CM。右肺下叶见少许索条影。左侧内乳区见短径不足0.5CM小淋巴结。双侧肺门及纵隔未见增大淋巴结。左侧甲状腺见小低密度灶，直径不足0.5CM。第1腰椎体局限骨质密度减低。第5胸椎压缩变扁，其后缘见软组织肿块并侵及邻近椎管，其上下椎体骨质亦局限性破坏。脑实质密度均匀，未见结节及异常强化灶。大枕大池。中线结构居中。	1.结合临床，左乳癌术后；右肺胸膜下及双侧斜裂区结节灶，考虑转移，请结合临床；多发骨转移并软组织肿块形成并侵及邻近椎管2.左侧内乳区小淋巴结3.右肺下叶纤维灶4.大枕大池5.左侧甲状腺低密度灶。</t>
         </is>
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后;右肺转移治疗后,较前(2017-1-20)基本变化不著;原左肺结节灶,较前变化不著;脑转移,较前基本消失不清2.纵隔增大淋巴结,变化不著;右肺门淋巴结稍大;左侧锁骨上淋巴结,变化不著3.肝转移治疗后,较前略进展4.左肾囊肿5.右肺少许炎症、纤维灶,基本变化不著;左肺小类结节灶,变化不著6.右侧部分肋骨及部分椎骨略高密度影,变化不著。右乳术后,术区未见增厚及异常强化征象;右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结,短径不足0.5CM。左侧锁骨上示短径约0.7CM淋巴结。右肺上叶示团片状密度增高影,密度较均,病变周围见多发小结节灶及斑片状密度增高影。左肺下叶示类圆形低密度影,内示斑点状致密影,边界欠清。左肺上叶胸膜下示小类结节灶。余肺内示斑片影及索条影,右肺为著。右肺门、纵隔及右侧心隔角区示大者短径约0.8CM淋巴结。肝实质内示多发低密度灶,边缘欠清,部分融合,大者长径约5.0CM,部分内示斑点斑片状致密影。胆胰脾双肾上腺未见明显异常。左肾示囊性密度灶,未见强化。余双肾内示斑片状低密度影。腹膜后见增大淋巴结,直径不足1.0CM。左侧半卵圆中心区局部密度偏低,未见明确强化灶。脑室系统未见明显异常。中线结构无移位。右侧部分肋骨及部分椎骨示略高密度影。	</t>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后；右肺转移治疗后，较前(2017-1-20)基本变化不著；原左肺结节灶，较前变化不著；脑转移，较前基本消失不清2.纵隔增大淋巴结，变化不著；右肺门淋巴结稍大；左侧锁骨上淋巴结，变化不著3.肝转移治疗后，较前略进展4.左肾囊肿5.右肺少许炎症、纤维灶，基本变化不著；左肺小类结节灶，变化不著6.右侧部分肋骨及部分椎骨略高密度影，变化不著。右乳术后，术区未见增厚及异常强化征象；右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结，短径不足0.5CM。左侧锁骨上示短径约0.7CM淋巴结。右肺上叶示团片状密度增高影，密度较均，病变周围见多发小结节灶及斑片状密度增高影。左肺下叶示类圆形低密度影，内示斑点状致密影，边界欠清。左肺上叶胸膜下示小类结节灶。余肺内示斑片影及索条影，右肺为著。右肺门、纵隔及右侧心隔角区示大者短径约0.8CM淋巴结。肝实质内示多发低密度灶，边缘欠清，部分融合，大者长径约5.0CM，部分内示斑点斑片状致密影。胆胰脾双肾上腺未见明显异常。左肾示囊性密度灶，未见强化。余双肾内示斑片状低密度影。腹膜后见增大淋巴结，直径不足1.0CM。左侧半卵圆中心区局部密度偏低，未见明确强化灶。脑室系统未见明显异常。中线结构无移位。右侧部分肋骨及部分椎骨示略高密度影。	</t>
         </is>
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>1.考虑左肺下叶中心型肺癌并左肺下叶阻塞性肺不张,较2015-3-23片肿瘤增大,左肺门及纵隔内淋巴结转移较前相仿,左侧胸腔积液较前新发;2.双肺多发磨玻璃密度结节,较前相仿,转移不除外;3.右肺尖陈旧性病灶;4.肺气肿。左肺下叶可见一肿块影,与胸膜分界不清,最大截面大小约为7.0CM×8.3CM,其内密度不均,可见低密度影及点状致密影,CT值约为22HU-53HU,病灶邻近部分支气管变窄、左肺下叶支气管走形截断。右肺尖可见结节影,径约1.35CM,邻近胸膜凹陷,其内可见条样致密影。双肺可见多个散在高密度及磨玻璃样密度结节,大者径约0.8CM。双肺密度不均匀减低,可见多个小圆形低密度影。左肺门、纵隔内可见多发肿大淋巴结影,大者短径约为1.9CM。左侧胸腔可见弧形液体密度影。主动脉、冠状动脉走行区可见弧形致密影。所示诸骨未见骨质密度明显异常改变或骨质破坏征象。</t>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>1.考虑左肺下叶中心型肺癌并左肺下叶阻塞性肺不张，较2015-3-23片肿瘤增大，左肺门及纵隔内淋巴结转移较前相仿，左侧胸腔积液较前新发；2.双肺多发磨玻璃密度结节，较前相仿，转移不除外；3.右肺尖陈旧性病灶；4.肺气肿。左肺下叶可见一肿块影，与胸膜分界不清，最大截面大小约为7.0CM×8.3CM，其内密度不均，可见低密度影及点状致密影，CT值约为22HU-53HU，病灶邻近部分支气管变窄、左肺下叶支气管走形截断。右肺尖可见结节影，径约1.35CM，邻近胸膜凹陷，其内可见条样致密影。双肺可见多个散在高密度及磨玻璃样密度结节，大者径约0.8CM。双肺密度不均匀减低，可见多个小圆形低密度影。左肺门、纵隔内可见多发肿大淋巴结影，大者短径约为1.9CM。左侧胸腔可见弧形液体密度影。主动脉、冠状动脉走行区可见弧形致密影。所示诸骨未见骨质密度明显异常改变或骨质破坏征象。</t>
         </is>
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右肺癌治疗后,右肺癌性淋巴管炎及炎症,较前(2014-09-18)变化不著;右肺结节灶,较前增大2.右侧胸膜略增厚,变化不著3.冠状动脉钙化4.约第一腰椎骨质破坏,骨转移不能除外,较前(2014-07-16)片变化不著。右肺下叶局部小叶间隔增厚呈网格状,周围见斑片索条状密度增高影;其内可见一类圆形结节灶(图4-41),直径约0.6CM,边界清晰。左肺野清晰,未见结节及异常强化灶。冠状动脉左、右支见条状致密影。右侧胸膜(含右侧叶间胸膜)局限性增厚。双侧胸腔未见积液征象。纵隔内未见明显肿大淋巴结。扫描野内约第一腰椎可见骨质破坏。	</t>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右肺癌治疗后，右肺癌性淋巴管炎及炎症，较前(2014-09-18)变化不著；右肺结节灶，较前增大2.右侧胸膜略增厚，变化不著3.冠状动脉钙化4.约第一腰椎骨质破坏，骨转移不能除外，较前(2014-07-16)片变化不著。右肺下叶局部小叶间隔增厚呈网格状，周围见斑片索条状密度增高影；其内可见一类圆形结节灶(图4-41)，直径约0.6CM，边界清晰。左肺野清晰，未见结节及异常强化灶。冠状动脉左、右支见条状致密影。右侧胸膜(含右侧叶间胸膜)局限性增厚。双侧胸腔未见积液征象。纵隔内未见明显肿大淋巴结。扫描野内约第一腰椎可见骨质破坏。	</t>
         </is>
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右肺下叶癌并右侧胸膜转移较前(2014-8-20)变化不著2.右肺结节灶,考虑转移,较前变化不著;左肺上叶类结节灶,建议观察;左肺炎症3.左锁上、纵隔、腹腔及腹膜后小或稍大淋巴结,较前变化不著4.肝囊肿5.右肾囊肿6.肝内强化灶,建议观察7.右侧腮腺区结节灶,请结合临床8.双侧副鼻窦炎。右肺下叶基底段见软组织肿块影,边缘模糊,有分叶,肿块最大截面约2.0CM×3.4CM,增强后可见显著强化;邻近胸膜可见增厚。右肺内、右侧肋胸膜、叶间胸膜示多发结节灶,大者直径约0.3CM,增强后可见强化。左肺上叶胸膜下见直径约0.2CM小结节灶。左肺见多发索条状及斑片状密度增高影。左锁上、纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结,短径约0.8CM。肝实质内见多发囊性密度灶,大者直径约3.0CM。另肝内(2-49)动脉期见一强化结节灶,长径约0.8CM,延迟呈等密度。胆囊充盈可,壁不厚。胰、脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见囊性密度灶,短径约2.0CM。肝总动脉旁及腹主动脉周围示增大淋巴结,大者短径约0.5CM。右侧腮腺区见一强化结节灶,直径约0.4CM。双侧上颌窦粘膜略增厚。鼻咽、口咽、喉及下咽未见异常。双侧甲状腺形态、大小、密度未见异常。双侧颈部未见增大淋巴结。	</t>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右肺下叶癌并右侧胸膜转移较前(2014-8-20)变化不著2.右肺结节灶，考虑转移，较前变化不著；左肺上叶类结节灶，建议观察；左肺炎症3.左锁上、纵隔、腹腔及腹膜后小或稍大淋巴结，较前变化不著4.肝囊肿5.右肾囊肿6.肝内强化灶，建议观察7.右侧腮腺区结节灶，请结合临床8.双侧副鼻窦炎。右肺下叶基底段见软组织肿块影，边缘模糊，有分叶，肿块最大截面约2.0CM×3.4CM，增强后可见显著强化；邻近胸膜可见增厚。右肺内、右侧肋胸膜、叶间胸膜示多发结节灶，大者直径约0.3CM，增强后可见强化。左肺上叶胸膜下见直径约0.2CM小结节灶。左肺见多发索条状及斑片状密度增高影。左锁上、纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结，短径约0.8CM。肝实质内见多发囊性密度灶，大者直径约3.0CM。另肝内(2-49)动脉期见一强化结节灶，长径约0.8CM，延迟呈等密度。胆囊充盈可，壁不厚。胰、脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见囊性密度灶，短径约2.0CM。肝总动脉旁及腹主动脉周围示增大淋巴结，大者短径约0.5CM。右侧腮腺区见一强化结节灶，直径约0.4CM。双侧上颌窦粘膜略增厚。鼻咽、口咽、喉及下咽未见异常。双侧甲状腺形态、大小、密度未见异常。双侧颈部未见增大淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>1.结合临床,左乳癌术后,多发骨转移2.肝右后叶片状密度增高影,考虑动静脉瘘形成3.胆囊结石4.左侧肾上腺结节灶,请结合前片,转移待排,建议密切观察左乳术后,术区结构紊乱,术区未见结节及异常强化灶。左侧腋窝结构紊乱。右乳未见异常。双侧内乳区、双侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰,未见结节及异常强化灶。肝右后叶内见片状密度增高影,其强化方式与同层腹主动脉相似。胆囊充盈可,其内见点状致密影。胰、脾、右侧肾上腺及扫描范围内双肾未见异常。左侧肾上腺见软组织结节灶,短径约1.3CM,增强后轻度强化。骨窗示胸骨、右侧肋骨及T12胸椎椎体示混合性骨质破坏。</t>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>1.结合临床，左乳癌术后，多发骨转移2.肝右后叶片状密度增高影，考虑动静脉瘘形成3.胆囊结石4.左侧肾上腺结节灶，请结合前片，转移待排，建议密切观察左乳术后，术区结构紊乱，术区未见结节及异常强化灶。左侧腋窝结构紊乱。右乳未见异常。双侧内乳区、双侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰，未见结节及异常强化灶。肝右后叶内见片状密度增高影，其强化方式与同层腹主动脉相似。胆囊充盈可，其内见点状致密影。胰、脾、右侧肾上腺及扫描范围内双肾未见异常。左侧肾上腺见软组织结节灶，短径约1.3CM，增强后轻度强化。骨窗示胸骨、右侧肋骨及T12胸椎椎体示混合性骨质破坏。</t>
         </is>
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合乳癌病史,右顶叶转移瘤,较本院(2016-05-25)MR片好转;腰椎L1~3转移。2.腰椎退行性变。右顶叶上矢状窦右旁见一类圆形异常信号,表现为T1WI等信号,T2WI略高信号,压水像及DWI为等信号,增强扫描可见明显强化,大小约0.3CM×0.5CM,于冠状位可见结节与脑膜关系密切,周围未见明显水肿带。余脑实质增强前后未见异常信号。脑室系统无扩张。中线结构居中。腰椎生理弯曲略变直,部分椎体前缘见棘样突起,腰椎L1、L2椎体后下缘及L3椎体后缘可见斑片状长T1短T2信号,压脂序列呈高信号,边缘模糊,增强后扫描呈轻度强化。所扫腰骶椎椎管内未见异常占位性病灶。	</t>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合乳癌病史，右顶叶转移瘤，较本院(2016-05-25)MR片好转；腰椎L1~3转移。2.腰椎退行性变。右顶叶上矢状窦右旁见一类圆形异常信号，表现为T1WI等信号，T2WI略高信号，压水像及DWI为等信号，增强扫描可见明显强化，大小约0.3CM×0.5CM，于冠状位可见结节与脑膜关系密切，周围未见明显水肿带。余脑实质增强前后未见异常信号。脑室系统无扩张。中线结构居中。腰椎生理弯曲略变直，部分椎体前缘见棘样突起，腰椎L1、L2椎体后下缘及L3椎体后缘可见斑片状长T1短T2信号，压脂序列呈高信号，边缘模糊，增强后扫描呈轻度强化。所扫腰骶椎椎管内未见异常占位性病灶。	</t>
         </is>
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结,大者直径约0.5CM。左肺野示数个结节灶,大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶,直径约0.9CM。胆、胰、脾及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示溶骨性及混合性骨质破坏。1.结合临床,右乳癌术后,纵隔、双肺门淋巴结转移,左肺转移,较前2015-12-16变化不著;左肾上腺转移,较前略示好转;骨转移,较前成骨性成分增多,考虑略好转2.双肺炎症,变化不著3.心包积液4.肝囊肿</t>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结，大者直径约0.5CM。左肺野示数个结节灶，大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶，直径约0.9CM。胆、胰、脾及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示溶骨性及混合性骨质破坏。1.结合临床，右乳癌术后，纵隔、双肺门淋巴结转移，左肺转移，较前2015-12-16变化不著；左肾上腺转移，较前略示好转；骨转移，较前成骨性成分增多，考虑略好转2.双肺炎症，变化不著3.心包积液4.肝囊肿</t>
         </is>
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>左上肺门处可见肿块影,分叶状,大小为3.18CM×3.19CM,形状不规则,边缘清,与肺动脉分界不清,CT值为42HU,增强扫描三期CT值分别为62、66、66HU,均匀轻度强化,包绕左肺动脉,左肺上动脉未见显示,纵隔及左肺门可见多发肿大淋巴结,大者短径为0.93CM。左侧胸膜牵拉凹陷。两胸腔无积液征象。心脏大血管未见异常。左上肺门中央型肺癌,阻塞左上肺动脉,纵隔及左肺门淋巴结转移不除外,较2015-09-29CT左上肺门旁病变略减小,余较前相仿。</t>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>左上肺门处可见肿块影，分叶状，大小为3.18CM×3.19CM，形状不规则，边缘清，与肺动脉分界不清，CT值为42HU，增强扫描三期CT值分别为62、66、66HU，均匀轻度强化，包绕左肺动脉，左肺上动脉未见显示，纵隔及左肺门可见多发肿大淋巴结，大者短径为0.93CM。左侧胸膜牵拉凹陷。两胸腔无积液征象。心脏大血管未见异常。左上肺门中央型肺癌，阻塞左上肺动脉，纵隔及左肺门淋巴结转移不除外，较2015-09-29CT左上肺门旁病变略减小，余较前相仿。</t>
         </is>
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,直肠癌术后,双肺转移瘤,较前2015-08-06变化不著。2.双肾低密度灶,较前无明显变化,建议继续观察或结合MR检查。3.双侧胸膜略增厚,变化不著。双肺近胸膜下示多个结节灶,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约2.1CM,内示斑点状致密影及小空泡影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。肝脏实质密度均匀,未见明显异常密度灶。肝内外胆管未见扩张。胆囊充盈可,壁增厚。双肾见多发低密度灶,边界较清,右侧部分密度略高。胰腺、脾及肾上腺形态、大小、密度未见异常。肠系膜区及腹膜后示短径不足0.5CM小淋巴结。直肠术后,吻合口未见增厚及异常强化。膀胱、前列腺及双侧精囊腺未见异常。盆腔内未见肿大淋巴结及积液。	</t>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，直肠癌术后，双肺转移瘤，较前2015-08-06变化不著。2.双肾低密度灶，较前无明显变化，建议继续观察或结合MR检查。3.双侧胸膜略增厚，变化不著。双肺近胸膜下示多个结节灶，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约2.1CM，内示斑点状致密影及小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。肝脏实质密度均匀，未见明显异常密度灶。肝内外胆管未见扩张。胆囊充盈可，壁增厚。双肾见多发低密度灶，边界较清，右侧部分密度略高。胰腺、脾及肾上腺形态、大小、密度未见异常。肠系膜区及腹膜后示短径不足0.5CM小淋巴结。直肠术后，吻合口未见增厚及异常强化。膀胱、前列腺及双侧精囊腺未见异常。盆腔内未见肿大淋巴结及积液。	</t>
         </is>
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>左乳内示多发结节灶,边缘毛糙,与周围腺体分界欠清,增强扫描呈不均质较明显强化,大者最大截面约1.8CM×1.2CM,部分内示斑片状致密影,左乳皮肤增厚,皮下脂肪略模糊。右乳内见斑点状致密影。左腋窝示增大淋巴结,大者短径约0.7CM,边缘毛糙,与同侧胸大肌分界不清。右腋窝未见明显增大淋巴结。双肺内见多发小类结节灶及磨玻璃样密度增高影,以左肺下叶为著,部分边缘欠清。纵隔内主动脉弓旁及左肺门见增大淋巴结,短径约0.6CM。双侧胸腔未见积液征象。扫描野内肝脏示小囊性低密度灶,直径不足0.4CM。鼻咽、口咽、喉咽壁未见明显增厚。甲状腺右叶内示斑片状密度灶。双侧颈深上组、中组、下组、左锁骨上、颌下及左侧颈后三角区示增大淋巴结,大者短径约0.9CM。扫描范围内诸骨质未见明显破坏。	1.结合临床,左乳癌治疗后,较前(2014-10-20)略好转2.左腋窝淋巴结肿大,考虑转移可能性大,较前好转;双侧颈部、左锁骨上淋巴结肿大,部分好转、部分略增大3.右乳钙化灶4.双肺类结节灶,建议观察5.考虑肝囊肿6.甲状腺右叶低密度灶,请结合其它检查。</t>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>左乳内示多发结节灶，边缘毛糙，与周围腺体分界欠清，增强扫描呈不均质较明显强化，大者最大截面约1.8CM×1.2CM，部分内示斑片状致密影，左乳皮肤增厚，皮下脂肪略模糊。右乳内见斑点状致密影。左腋窝示增大淋巴结，大者短径约0.7CM，边缘毛糙，与同侧胸大肌分界不清。右腋窝未见明显增大淋巴结。双肺内见多发小类结节灶及磨玻璃样密度增高影，以左肺下叶为著，部分边缘欠清。纵隔内主动脉弓旁及左肺门见增大淋巴结，短径约0.6CM。双侧胸腔未见积液征象。扫描野内肝脏示小囊性低密度灶，直径不足0.4CM。鼻咽、口咽、喉咽壁未见明显增厚。甲状腺右叶内示斑片状密度灶。双侧颈深上组、中组、下组、左锁骨上、颌下及左侧颈后三角区示增大淋巴结，大者短径约0.9CM。扫描范围内诸骨质未见明显破坏。	1.结合临床，左乳癌治疗后，较前(2014-10-20)略好转2.左腋窝淋巴结肿大，考虑转移可能性大，较前好转；双侧颈部、左锁骨上淋巴结肿大，部分好转、部分略增大3.右乳钙化灶4.双肺类结节灶，建议观察5.考虑肝囊肿6.甲状腺右叶低密度灶，请结合其它检查。</t>
         </is>
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>右乳术后,术区未见结节及异常强化灶。右侧腋窝结构紊乱。双侧内乳区、双侧肺门及纵隔未见增大淋巴结。双肺见多发结节及类结节灶,大者长径约1.5CM,边缘较清晰,增强后可见强化。双肺见少许索条影。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝内见一囊性低密度结节灶,长径约2.1CM,边缘清晰,未见强化。胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔未见增大淋巴结。腹膜后腹主动脉旁见短径不足0.5CM小淋巴结。扫描野内右肺中叶见一长径约1.4CM结节灶,边缘较清晰右侧锁骨头局限性骨质密度增高。	1.结合临床,右乳癌术后;双肺结节及类结节灶,右肺者考虑转移,左肺者转移可能性大,均较前(2014-8-29)变化不著2.双肺纤维灶或炎症3.肝内低密度灶,首先考虑囊肿,较前(2014-9-3)变化不著4.右侧锁骨头局限性骨质密度增高,变化不著。</t>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>右乳术后，术区未见结节及异常强化灶。右侧腋窝结构紊乱。双侧内乳区、双侧肺门及纵隔未见增大淋巴结。双肺见多发结节及类结节灶，大者长径约1.5CM，边缘较清晰，增强后可见强化。双肺见少许索条影。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝内见一囊性低密度结节灶，长径约2.1CM，边缘清晰，未见强化。胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔未见增大淋巴结。腹膜后腹主动脉旁见短径不足0.5CM小淋巴结。扫描野内右肺中叶见一长径约1.4CM结节灶，边缘较清晰右侧锁骨头局限性骨质密度增高。	1.结合临床，右乳癌术后；双肺结节及类结节灶，右肺者考虑转移，左肺者转移可能性大，均较前(2014-8-29)变化不著2.双肺纤维灶或炎症3.肝内低密度灶，首先考虑囊肿，较前(2014-9-3)变化不著4.右侧锁骨头局限性骨质密度增高，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>左上肺门区可见不规则软组织密度肿块,边缘分叶,左肺上叶支气管显示截断,周围肺野内可见絮状及条索状密度增高影,增强后肿块呈较显著不均匀强化。双侧胸膜局部示不均匀增厚,局部呈类结节灶,局部可见钙化灶。双侧肺门区及纵隔内可见多发肿大淋巴结,部分融合成团,大者短径约2.5CM,部分与支气管左侧壁关系密切,增强后可见不均质强化。肝脏实质内可见弥漫多发结节灶,大者直径约1.5CM,边缘模糊,轻度强化。胆囊壁增厚并强化。胰、脾、双肾及右肾上腺未见异常。左侧肾上腺可见软组织密度结节灶,直径约1.4CM,可见较显著强化。肝胃韧带区、腹主动脉周围可见多发肿大淋巴结,大者短径约1.5CM。	1.左肺中心型肺癌并左肺下叶阻塞性炎症,左肺门、纵隔多发淋巴结转移,肝脏多发转移2.左侧肾上腺结节,考虑转移可能性大3.右肺门、腹腔及腹膜后淋巴结肿大4.双侧叶间胸膜增厚伴散在多发结节,转移待排5.胆囊炎。</t>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>左上肺门区可见不规则软组织密度肿块，边缘分叶，左肺上叶支气管显示截断，周围肺野内可见絮状及条索状密度增高影，增强后肿块呈较显著不均匀强化。双侧胸膜局部示不均匀增厚，局部呈类结节灶，局部可见钙化灶。双侧肺门区及纵隔内可见多发肿大淋巴结，部分融合成团，大者短径约2.5CM，部分与支气管左侧壁关系密切，增强后可见不均质强化。肝脏实质内可见弥漫多发结节灶，大者直径约1.5CM，边缘模糊，轻度强化。胆囊壁增厚并强化。胰、脾、双肾及右肾上腺未见异常。左侧肾上腺可见软组织密度结节灶，直径约1.4CM，可见较显著强化。肝胃韧带区、腹主动脉周围可见多发肿大淋巴结，大者短径约1.5CM。	1.左肺中心型肺癌并左肺下叶阻塞性炎症，左肺门、纵隔多发淋巴结转移，肝脏多发转移2.左侧肾上腺结节，考虑转移可能性大3.右肺门、腹腔及腹膜后淋巴结肿大4.双侧叶间胸膜增厚伴散在多发结节，转移待排5.胆囊炎。</t>
         </is>
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>右乳术后缺如,部分胸肌存在,术区胸壁及皮肤局部略增厚;右侧腋窝术后,结构紊乱。左乳未见明确异常。右侧内乳区、左侧腋窝可见小淋巴结,大者短径不足0.5CM。右肺中叶见一结节灶,长径约1.2CM。右肺中叶可见类圆形囊状过度充气区及条片影。双肺门及纵隔内未见肿大淋巴结。右侧胸膜略增厚。扫描野内肝实质密度减低。脾内示颗粒状致密影。胆囊腔内密度略增高。右侧部分肋骨密度增高。	1.右乳癌术后改变,术区胸壁及皮肤局部略增厚,较前(2016-2-26)基本变化不著2.考虑右肺转移,略增大;右肺中叶含气囊肿、纤维灶,变化不著3.脂肪肝;脾内钙化灶4.右侧部分肋骨密度增高,变化不著。</t>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>右乳术后缺如，部分胸肌存在，术区胸壁及皮肤局部略增厚；右侧腋窝术后，结构紊乱。左乳未见明确异常。右侧内乳区、左侧腋窝可见小淋巴结，大者短径不足0.5CM。右肺中叶见一结节灶，长径约1.2CM。右肺中叶可见类圆形囊状过度充气区及条片影。双肺门及纵隔内未见肿大淋巴结。右侧胸膜略增厚。扫描野内肝实质密度减低。脾内示颗粒状致密影。胆囊腔内密度略增高。右侧部分肋骨密度增高。	1.右乳癌术后改变，术区胸壁及皮肤局部略增厚，较前(2016-2-26)基本变化不著2.考虑右肺转移，略增大；右肺中叶含气囊肿、纤维灶，变化不著3.脂肪肝；脾内钙化灶4.右侧部分肋骨密度增高，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,左乳癌术后;右乳部分术后改变2.双肺结节灶,结合病史,首先考虑转移瘤3.双肺含气囊肿4.左侧锁骨上区及纵隔略大淋巴结5.结合临床,胸椎术后改变6.上腹部扫描未见明显异常。左乳术后缺如,术区未见异常增厚及强化灶。左腋窝结构略示紊乱。右乳部分术后,未见异常密度灶。右腋窝、内乳区未见明显肿大淋巴结。左侧锁骨上区及纵隔内气管隆突前可见略大或小淋巴结,大者短径约0.6CM。双肺野可见多个结节灶,大者与右侧叶间胸膜关系密切,截面约1.0CM×0.7CM,边缘毛糙,增强扫描可见较显著强化。左肺上叶及右肺下叶各示一囊性密度灶,大者位于右侧,长径约2.7CM,边界清。肝脏未见异常占位灶。胆囊胰脾肾上腺及所扫双肾未见异常。腹腔及腹膜后未见肿大淋巴结。所扫胸椎可见高密度固定器影。	</t>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，左乳癌术后；右乳部分术后改变2.双肺结节灶，结合病史，首先考虑转移瘤3.双肺含气囊肿4.左侧锁骨上区及纵隔略大淋巴结5.结合临床，胸椎术后改变6.上腹部扫描未见明显异常。左乳术后缺如，术区未见异常增厚及强化灶。左腋窝结构略示紊乱。右乳部分术后，未见异常密度灶。右腋窝、内乳区未见明显肿大淋巴结。左侧锁骨上区及纵隔内气管隆突前可见略大或小淋巴结，大者短径约0.6CM。双肺野可见多个结节灶，大者与右侧叶间胸膜关系密切，截面约1.0CM×0.7CM，边缘毛糙，增强扫描可见较显著强化。左肺上叶及右肺下叶各示一囊性密度灶，大者位于右侧，长径约2.7CM，边界清。肝脏未见异常占位灶。胆囊胰脾肾上腺及所扫双肾未见异常。腹腔及腹膜后未见肿大淋巴结。所扫胸椎可见高密度固定器影。	</t>
         </is>
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后2.右颈部淋巴结肿大,左肾多发低密度灶,以上转移均不除外,建议密切观察或结合临床3.双肺炎症4.脂肪肝5.右肾低密度灶,建议观察6.颅脑扫描未见异常。右乳术后,术区结构紊乱,胸肌存在,壁未见增厚及异常强化。右侧腋窝结构紊乱。左侧腋窝、双侧内乳区、肺门及纵隔未见增大淋巴结。双肺见多发索条及小斑片影。双侧胸膜未见增厚。双侧胸腔未见积液征象。右侧颈后三角区见一短径约0.9CM肿大淋巴结。肝实质密度显著均匀性减低。胆、胰、脾、双侧肾上腺未见异常。右肾见一直径不足0.5CM小低密度灶,边缘清晰。左肾见多发低密度结节及斑片影,边缘不清。腹腔及腹膜后未见增大淋巴结。脑实质密度均匀,未见结节及异常强化灶。脑室脑池未见扩张。中线结构居中。	</t>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后2.右颈部淋巴结肿大，左肾多发低密度灶，以上转移均不除外，建议密切观察或结合临床3.双肺炎症4.脂肪肝5.右肾低密度灶，建议观察6.颅脑扫描未见异常。右乳术后，术区结构紊乱，胸肌存在，壁未见增厚及异常强化。右侧腋窝结构紊乱。左侧腋窝、双侧内乳区、肺门及纵隔未见增大淋巴结。双肺见多发索条及小斑片影。双侧胸膜未见增厚。双侧胸腔未见积液征象。右侧颈后三角区见一短径约0.9CM肿大淋巴结。肝实质密度显著均匀性减低。胆、胰、脾、双侧肾上腺未见异常。右肾见一直径不足0.5CM小低密度灶，边缘清晰。左肾见多发低密度结节及斑片影，边缘不清。腹腔及腹膜后未见增大淋巴结。脑实质密度均匀，未见结节及异常强化灶。脑室脑池未见扩张。中线结构居中。	</t>
         </is>
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>左乳术后缺如,左侧胸壁及胸肌复发术后,术区胸壁胸肌尚存,局部皮肤略增厚,轻度强化。左侧腋窝间隙模糊,可见斑片状高密度影,边缘毛糙。右乳未见异常。右腋窝、内乳及纵隔未见明显肿大淋巴结。右肺示数个结节及类结节灶,大者长径约1.1CM,可见强化,局部略呈空洞状。左肺示少许斑片及条索影。扫描野内甲状腺内示数个低密度灶,直径不足0.5CM,边界清。	1.结合临床,左乳癌术后,术区胸壁复发术后,术区皮肤增厚,较前2016-06-20好转,请结合临床;右肺结节及类结节灶,转移待排,较前变化不著2.甲状腺低密度灶,考虑良性病变,较前变化不著3.左肺纤维灶。</t>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>左乳术后缺如，左侧胸壁及胸肌复发术后，术区胸壁胸肌尚存，局部皮肤略增厚，轻度强化。左侧腋窝间隙模糊，可见斑片状高密度影，边缘毛糙。右乳未见异常。右腋窝、内乳及纵隔未见明显肿大淋巴结。右肺示数个结节及类结节灶，大者长径约1.1CM，可见强化，局部略呈空洞状。左肺示少许斑片及条索影。扫描野内甲状腺内示数个低密度灶，直径不足0.5CM，边界清。	1.结合临床，左乳癌术后，术区胸壁复发术后，术区皮肤增厚，较前2016-06-20好转，请结合临床；右肺结节及类结节灶，转移待排，较前变化不著2.甲状腺低密度灶，考虑良性病变，较前变化不著3.左肺纤维灶。</t>
         </is>
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>右肺上叶术后,上叶支气管截断,术区结构紊乱,未见异常强化。术区胸膜示增厚。双肺野内散在分部粟粒状密度增高影。纵隔内气管右旁、腔静脉后气管前间隙间隙模糊,考虑手术所致。肝脏形态、大小可,实质密度均质,肝右叶包膜下示一囊性低密度灶,边界欠清,直径约0.4CM。双肾内散在多个结节状低密度灶,大者直径约3.7CM,边界不清,有强化,位于左肾。胆囊充盈可,壁不厚。左肾上腺可见一结节灶,约1.8CM×2.4CM,明显强化。胰、脾形态大小密度未见明确异常。腹腔内及腹膜后未见明显增大淋巴结。	1.结合临床,右肺上叶癌术后改变;双肺粟粒状转移;双肾占位,考虑为转移;左肾上腺占位,考虑为转移瘤2.肝内低密度灶,建议观察。</t>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>右肺上叶术后，上叶支气管截断，术区结构紊乱，未见异常强化。术区胸膜示增厚。双肺野内散在分部粟粒状密度增高影。纵隔内气管右旁、腔静脉后气管前间隙间隙模糊，考虑手术所致。肝脏形态、大小可，实质密度均质，肝右叶包膜下示一囊性低密度灶，边界欠清，直径约0.4CM。双肾内散在多个结节状低密度灶，大者直径约3.7CM，边界不清，有强化，位于左肾。胆囊充盈可，壁不厚。左肾上腺可见一结节灶，约1.8CM×2.4CM，明显强化。胰、脾形态大小密度未见明确异常。腹腔内及腹膜后未见明显增大淋巴结。	1.结合临床，右肺上叶癌术后改变；双肺粟粒状转移；双肾占位，考虑为转移；左肾上腺占位，考虑为转移瘤2.肝内低密度灶，建议观察。</t>
         </is>
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后,纵隔淋巴结转移较前2016-5-17好转,双肺转移较前好转,肝转移较前好转,骨转移较前范围略示增大2.双侧胸膜增厚。右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内2R、4R及7区见肿大淋巴结,大者直径约0.7CM。双肺野示多发结节灶,大者直径约0.5CM。双侧胸膜略示增厚。肝脏实质内可见多发低密度结节灶,大者直径约1.4CM,边缘模糊,轻度强化。胆囊充盈可,壁不厚。胰腺、脾及双肾、肾上腺未见异常。腹腔腹膜后未见肿大淋巴结。腹腔内未见积液征象。多个胸腰椎示溶骨性骨质破坏。	</t>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后，纵隔淋巴结转移较前2016-5-17好转，双肺转移较前好转，肝转移较前好转，骨转移较前范围略示增大2.双侧胸膜增厚。右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内2R、4R及7区见肿大淋巴结，大者直径约0.7CM。双肺野示多发结节灶，大者直径约0.5CM。双侧胸膜略示增厚。肝脏实质内可见多发低密度结节灶，大者直径约1.4CM，边缘模糊，轻度强化。胆囊充盈可，壁不厚。胰腺、脾及双肾、肾上腺未见异常。腹腔腹膜后未见肿大淋巴结。腹腔内未见积液征象。多个胸腰椎示溶骨性骨质破坏。	</t>
         </is>
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>右肺门区见不规则软组织密度肿块影,增强扫描可见不均匀强化,远端与不张实变的肺组织分界不清,大小不易测量;右侧胸腔见大量液体密度影,右肺全肺不张,右侧胸膜增厚并可见强化。纵隔、膈上前组及中组可见肿大淋巴结,大者短径约1.0CM。右侧锁骨上见小淋巴结,大者短径约0.5CM。左肺野清晰。右侧胸腔内可见引流管影.肝实质内平扫未见明显异常.增强扫描可见多发异常强化区,肝右叶可见团片状强化,肝尾状叶病灶可见结节样向心性充填样强化.另肝右叶近包膜下(5-17)见一类圆形低密度灶,直径约1.0CM,边缘略模糊.双侧肾上腺未见明显异常。腹腔腹膜后未见肿大淋巴结。脑实质内未见异常密度影,脑沟、脑池未见增宽或狭窄,脑室大小、形态,位置正常,中线结构居中。T9椎体内可见一类圆形骨质稀疏区。	1.结合临床,右肺癌,右肺全肺不张;纵隔、膈上淋巴结转移;右侧锁骨上淋巴结肿大2.右侧胸腔大量积液,右侧胸腔引流术后改变;右侧胸膜增厚,转移可能大,建议观察3.考虑肝血管瘤(多发)4.肝右叶低密度灶,请结合MR扫描,除外转移5.颅脑扫描未见明显异常6.T9椎体内骨质稀疏,不除外转移,建议进一步检查。</t>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>右肺门区见不规则软组织密度肿块影，增强扫描可见不均匀强化，远端与不张实变的肺组织分界不清，大小不易测量；右侧胸腔见大量液体密度影，右肺全肺不张，右侧胸膜增厚并可见强化。纵隔、膈上前组及中组可见肿大淋巴结，大者短径约1.0CM。右侧锁骨上见小淋巴结，大者短径约0.5CM。左肺野清晰。右侧胸腔内可见引流管影.肝实质内平扫未见明显异常.增强扫描可见多发异常强化区，肝右叶可见团片状强化，肝尾状叶病灶可见结节样向心性充填样强化.另肝右叶近包膜下(5-17)见一类圆形低密度灶，直径约1.0CM，边缘略模糊.双侧肾上腺未见明显异常。腹腔腹膜后未见肿大淋巴结。脑实质内未见异常密度影，脑沟、脑池未见增宽或狭窄，脑室大小、形态，位置正常，中线结构居中。T9椎体内可见一类圆形骨质稀疏区。	1.结合临床，右肺癌，右肺全肺不张；纵隔、膈上淋巴结转移；右侧锁骨上淋巴结肿大2.右侧胸腔大量积液，右侧胸腔引流术后改变；右侧胸膜增厚，转移可能大，建议观察3.考虑肝血管瘤(多发)4.肝右叶低密度灶，请结合MR扫描，除外转移5.颅脑扫描未见明显异常6.T9椎体内骨质稀疏，不除外转移，建议进一步检查。</t>
         </is>
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>左乳腺体强化不均,内示斑片状、团片状强化灶,以外侧份为著,边缘毛糙,左乳皮肤增厚,乳头未见内陷,左胸壁软组织略肿胀。右乳未见明显异常。左侧腋窝示多发结节灶,强化较著,大者短径约1.5CM,边缘毛糙。左侧锁骨上、右腋窝、胸肌间及纵隔内主动脉弓旁、左肺门示大者短径约0.8CM淋巴结。左肺下叶背段示一截面约2.2CM×1.7CM软组织密度影,边缘毛糙、浅分叶,增强扫描呈较均质显著强化,内缘与纵隔及肺门结构分界欠清。甲状腺内示斑片状低密度灶。肝内示长径约0.7CM略低密度灶(4-40)。胆囊充盈可,壁略增厚。右肾示小囊性密度灶。胰腺、脾、双侧肾上腺及扫描野内左肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。骨窗示:部分椎骨示成骨性改变。双侧锁骨及左侧部分肋骨密度增高。颅骨密度略减低。	1.结合临床,左乳癌并左腋窝淋巴结转移。2.考虑骨转移。3.左侧锁骨上、右腋窝、胸肌间、纵隔及左肺门淋巴结增大。4.左肺占位,请结合前片或活检。5.甲状腺低密度灶。6.肝内低密度灶,伪影?建议观察。7.胆囊炎,右肾囊肿。8.颅脑CT扫描颅内结构未见明显异常。9.双侧锁骨及左侧部分肋骨密度增高,颅骨密度略减低,请结合其他检查或观察。</t>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>左乳腺体强化不均，内示斑片状、团片状强化灶，以外侧份为著，边缘毛糙，左乳皮肤增厚，乳头未见内陷，左胸壁软组织略肿胀。右乳未见明显异常。左侧腋窝示多发结节灶，强化较著，大者短径约1.5CM，边缘毛糙。左侧锁骨上、右腋窝、胸肌间及纵隔内主动脉弓旁、左肺门示大者短径约0.8CM淋巴结。左肺下叶背段示一截面约2.2CM×1.7CM软组织密度影，边缘毛糙、浅分叶，增强扫描呈较均质显著强化，内缘与纵隔及肺门结构分界欠清。甲状腺内示斑片状低密度灶。肝内示长径约0.7CM略低密度灶(4-40)。胆囊充盈可，壁略增厚。右肾示小囊性密度灶。胰腺、脾、双侧肾上腺及扫描野内左肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。骨窗示：部分椎骨示成骨性改变。双侧锁骨及左侧部分肋骨密度增高。颅骨密度略减低。	1.结合临床，左乳癌并左腋窝淋巴结转移。2.考虑骨转移。3.左侧锁骨上、右腋窝、胸肌间、纵隔及左肺门淋巴结增大。4.左肺占位，请结合前片或活检。5.甲状腺低密度灶。6.肝内低密度灶，伪影?建议观察。7.胆囊炎，右肾囊肿。8.颅脑CT扫描颅内结构未见明显异常。9.双侧锁骨及左侧部分肋骨密度增高，颅骨密度略减低，请结合其他检查或观察。</t>
         </is>
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>右侧乳腺乳头上方见不规则软组织密度肿块影,约7.8CM×6.2CM,边缘分叶,局部与周围腺体及乳头区皮肤分界不清,胸肌间脂肪间隙模糊,增强扫描见显著不均匀强化,其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结,大者短径约0.6CM。右侧内乳区显示饱满。纵隔内心包右旁、气管隆突下及左侧下肺静脉旁及下段食管旁见肿大淋巴结影,大者短径约1.1CM。双肺野散在分布大小不等结节灶,大者直径约1.9CM,边缘清晰,局部与胸膜及纵隔关系密切,增强扫描可见强化。左肺胸膜增厚,局部呈结节样;局部见多发钙化灶并致局部肋骨欠规则。肝实质内见多个低密度灶,大者直径约0.5CM,边缘尚清晰,增强扫描边缘强化显著。胆囊充盈可,壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内未见异常密度影,脑沟、脑池未见增宽或狭窄,脑室大小、形态,位置正常,中线结构居中。增强:脑实质未见异常强化,脑沟、脑池、脑室内未见异常。	1.结合临床,右乳癌,较前(2015-12-8)片变化不著;双肺转移,较前减小;肝转移,较前变化不著;纵隔淋巴结转移较前好转;右侧内乳区饱满,变化不著;原脑转移瘤显示不清2.左肺胸膜局限性增厚,局部钙化,变化不著。</t>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>右侧乳腺乳头上方见不规则软组织密度肿块影，约7.8CM×6.2CM，边缘分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结，大者短径约0.6CM。右侧内乳区显示饱满。纵隔内心包右旁、气管隆突下及左侧下肺静脉旁及下段食管旁见肿大淋巴结影，大者短径约1.1CM。双肺野散在分布大小不等结节灶，大者直径约1.9CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左肺胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。肝实质内见多个低密度灶，大者直径约0.5CM，边缘尚清晰，增强扫描边缘强化显著。胆囊充盈可，壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内未见异常密度影，脑沟、脑池未见增宽或狭窄，脑室大小、形态，位置正常，中线结构居中。增强：脑实质未见异常强化，脑沟、脑池、脑室内未见异常。	1.结合临床，右乳癌，较前(2015-12-8)片变化不著；双肺转移，较前减小；肝转移，较前变化不著；纵隔淋巴结转移较前好转；右侧内乳区饱满，变化不著；原脑转移瘤显示不清2.左肺胸膜局限性增厚，局部钙化，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,双侧乳腺癌术后改变,右侧皮肤增厚并强化,请结合其他检查2.双肺结节灶,不除外转移,较前2015-08-06变化不著,建议进一步检查3.肝内低密度灶,较前变化不著;左肾小囊肿4.T12椎体血管瘤。左乳术后缺如,术区未见异常强化灶;右侧乳腺术后,术区胸肌尚存,间隙模糊,皮肤略增厚,可见强化。左侧腋窝结构紊乱,可见短径约0.5CM的小淋巴结。双肺门及纵隔未见明确肿大淋巴结。双肺野内见多发结节灶,部分呈磨玻璃密度,边界较清,大者直径约0.5CM。肝脏大小、形态可,肝右叶实质内见一低密度灶,边界欠清,直径约0.5CM。左肾上极见囊性无强化小结节灶。左侧肾上腺饱满,密度未见明显异常。胆囊充盈可,壁略厚。腹腔及腹膜后未见明确肿大淋巴结。T12椎体内示低密度影,边界较清晰,其内可见粗颗粒状高密度影。	</t>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，双侧乳腺癌术后改变，右侧皮肤增厚并强化，请结合其他检查2.双肺结节灶，不除外转移，较前2015-08-06变化不著，建议进一步检查3.肝内低密度灶，较前变化不著；左肾小囊肿4.T12椎体血管瘤。左乳术后缺如，术区未见异常强化灶；右侧乳腺术后，术区胸肌尚存，间隙模糊，皮肤略增厚，可见强化。左侧腋窝结构紊乱，可见短径约0.5CM的小淋巴结。双肺门及纵隔未见明确肿大淋巴结。双肺野内见多发结节灶，部分呈磨玻璃密度，边界较清，大者直径约0.5CM。肝脏大小、形态可，肝右叶实质内见一低密度灶，边界欠清，直径约0.5CM。左肾上极见囊性无强化小结节灶。左侧肾上腺饱满，密度未见明显异常。胆囊充盈可，壁略厚。腹腔及腹膜后未见明确肿大淋巴结。T12椎体内示低密度影，边界较清晰，其内可见粗颗粒状高密度影。	</t>
         </is>
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>右肺上叶尖段可见软组织密度影,最大截面约0.9CM×1.1CM(纵隔窗),边缘浅分叶可见细毛刺,内缘有长毛刺与纵隔相连,增强扫描呈中等不均匀性强化;余双肺野较清晰,未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。肝脏形态、大小可,实质密度均质。肝内外胆管未见扩张。胆囊充盈可,壁略厚。胰、脾、扫描野内双肾未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。骨窗示:双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏,以成骨性为主,部分肋骨形态欠规则,略呈膨胀性改变。	1.结合临床,右肺上叶癌侵及脏层胸膜治疗后,较前(2016-5-23)略缩小;骨转移,变化不著2.双侧肾上腺饱满,变化不著。</t>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>右肺上叶尖段可见软组织密度影，最大截面约0.9CM×1.1CM(纵隔窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁略厚。胰、脾、扫描野内双肾未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。骨窗示：双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏，以成骨性为主，部分肋骨形态欠规则，略呈膨胀性改变。	1.结合临床，右肺上叶癌侵及脏层胸膜治疗后，较前(2016-5-23)略缩小；骨转移，变化不著2.双侧肾上腺饱满，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>右肺上叶尖段可见软组织密度影,最大截面约0.9CM×1.1CM(纵隔窗),边缘浅分叶可见细毛刺,内缘有长毛刺与纵隔相连,增强扫描呈中等不均匀性强化;余双肺野较清晰,未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。肝脏形态、大小可,实质密度均质。肝内外胆管未见扩张。胆囊充盈可,壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示:双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏,以成骨性为主,部分肋骨形态欠规则,略呈膨胀性改变。	1.结合临床,右肺上叶癌侵及脏层胸膜治疗后,较前(2016-8-18)基本变化不著;多发骨转移,变化不著2.右乳腺体局部密度增高,变化不著。</t>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>右肺上叶尖段可见软组织密度影，最大截面约0.9CM×1.1CM(纵隔窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示：双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏，以成骨性为主，部分肋骨形态欠规则，略呈膨胀性改变。	1.结合临床，右肺上叶癌侵及脏层胸膜治疗后，较前(2016-8-18)基本变化不著；多发骨转移，变化不著2.右乳腺体局部密度增高，变化不著。</t>
         </is>
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>肝脏轮廓光滑,体积正常,肝裂无增宽,肝左外叶可见类圆形稍低密度影,边界欠清,长径约0.95CM,平扫CT值约36HU,增强扫描呈边缘环形强化。肝右下叶见结节样致密影。胆囊形态饱满,壁厚,未见异常密度影。左肾可见类圆形低密度影,界清,径约0.6CM,平扫CT值约31HU,增强扫描未见强化。脾脏、胰腺、右肾形态大小正常范围,未见异常密度影。所示食管下段管壁增厚,管腔狭窄;胃小弯侧见迂曲血管影;肝门区、胃小弯侧、腹膜后较多发小淋巴结影,大者短径约0.9CM。1.肝左叶稍低密度灶,考虑转移瘤,较2016-08-26CT新显示;肝右下叶钙化灶;2.胆囊炎征象;3.左肾稍低密度灶,请结合临床;3.食管癌并肝门区、胃小弯侧、腹膜后淋巴结转移,部分较前略减小。</t>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>肝脏轮廓光滑，体积正常，肝裂无增宽，肝左外叶可见类圆形稍低密度影，边界欠清，长径约0.95CM，平扫CT值约36HU，增强扫描呈边缘环形强化。肝右下叶见结节样致密影。胆囊形态饱满，壁厚，未见异常密度影。左肾可见类圆形低密度影，界清，径约0.6CM，平扫CT值约31HU，增强扫描未见强化。脾脏、胰腺、右肾形态大小正常范围，未见异常密度影。所示食管下段管壁增厚，管腔狭窄；胃小弯侧见迂曲血管影；肝门区、胃小弯侧、腹膜后较多发小淋巴结影，大者短径约0.9CM。1.肝左叶稍低密度灶，考虑转移瘤，较2016-08-26CT新显示；肝右下叶钙化灶；2.胆囊炎征象；3.左肾稍低密度灶，请结合临床；3.食管癌并肝门区、胃小弯侧、腹膜后淋巴结转移，部分较前略减小。</t>
         </is>
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右肺癌并双肺、肝、骨转移,双侧肾上腺转移,双肺门及纵隔、右侧锁骨上淋巴结转移,腹腔淋巴结稍大;双侧叶间胸膜增厚,转移可能性大2.双肾低密度灶,转移可能,建议观察;双肾囊肿3.肝低密度灶,囊肿可能,建议观察;肝内钙化灶4.左颈内静脉栓子形成5.胆囊结石。右肺上叶支气管壁示增厚,周围见不规则软组织肿块,增强后呈不均匀强化;右肺中叶支气管局部狭窄,远端见不张肺组织。双肺支气管血管束增粗,小叶间隔增厚,以右肺为著。双肺见多发结节灶,部分边缘毛糙,大者长径约1.8CM。双侧叶间胸膜增厚,局部呈类结节状。双侧肺门及纵隔、右侧锁骨上见大者短径约1.3CM肿大淋巴结。另右肺门及纵隔见钙化灶。左侧颈内静脉局部见低密度充盈缺损。肝内见多发强化灶,大者长径约1.2CM。另肝内见小低密度灶,强化不著。肝内见斑点状钙化灶。双侧肾上腺见软组织结节,大者长径约2.0CM,可见强化。双肾见低密度灶,边缘不清,似强化。双肾见囊性结节。胆囊内见结节状高密度影。腹腔及腹膜后见短径约0.6CM小或稍大淋巴结。双侧肩胛骨、胸骨、右侧锁骨、多发肋骨及椎骨示多发骨质破坏。	</t>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右肺癌并双肺、肝、骨转移，双侧肾上腺转移，双肺门及纵隔、右侧锁骨上淋巴结转移，腹腔淋巴结稍大；双侧叶间胸膜增厚，转移可能性大2.双肾低密度灶，转移可能，建议观察；双肾囊肿3.肝低密度灶，囊肿可能，建议观察；肝内钙化灶4.左颈内静脉栓子形成5.胆囊结石。右肺上叶支气管壁示增厚，周围见不规则软组织肿块，增强后呈不均匀强化；右肺中叶支气管局部狭窄，远端见不张肺组织。双肺支气管血管束增粗，小叶间隔增厚，以右肺为著。双肺见多发结节灶，部分边缘毛糙，大者长径约1.8CM。双侧叶间胸膜增厚，局部呈类结节状。双侧肺门及纵隔、右侧锁骨上见大者短径约1.3CM肿大淋巴结。另右肺门及纵隔见钙化灶。左侧颈内静脉局部见低密度充盈缺损。肝内见多发强化灶，大者长径约1.2CM。另肝内见小低密度灶，强化不著。肝内见斑点状钙化灶。双侧肾上腺见软组织结节，大者长径约2.0CM，可见强化。双肾见低密度灶，边缘不清，似强化。双肾见囊性结节。胆囊内见结节状高密度影。腹腔及腹膜后见短径约0.6CM小或稍大淋巴结。双侧肩胛骨、胸骨、右侧锁骨、多发肋骨及椎骨示多发骨质破坏。	</t>
         </is>
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后2.右肺癌,较前(2016-11-30)进展3.右内乳、右肺门及纵隔淋巴结肿大,考虑转移,部分略饱满;4.右侧胸膜增厚并结节灶,变化不著;双肺多发结节灶,考虑转移5.胆囊炎6.甲状腺左侧叶低密度灶,变化不著7.左侧上颌窦炎8.右侧肾上腺外侧支结节灶,建议观察。右乳术后缺如,术区结构紊乱,周围间隙模糊,未见明确异常强化。左乳及左侧腋窝未见明确异常。右肺尖见不规则软组织密度影,其边缘分叶、模糊,并可见胸膜牵拉征,肿块最大截面约2.3CM×3.4CM;增强扫描呈较显著不均匀强化。右肺上叶及中叶见少许条索状密度增高影。双肺野内见粟粒状结节影。右肺门、右侧内乳、纵隔内2R、3A、4R、7区见多发增大淋巴结,大者短径约1.2CM,增强扫描呈不均匀强化。右侧胸膜局部增厚呈结节状,直径约0.6CM,呈较显著不均匀强化。胆囊充盈好,壁略厚。肝脏密度减低。右侧肾上腺外侧支可见结节影。胰腺、脾、左侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。甲状腺左侧叶见小低密度灶,边缘模糊,直径约0.5CM。左侧上颌窦粘膜增厚。双侧颈后三角区见大者短径约0.5CM小淋巴结。	</t>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后2.右肺癌，较前(2016-11-30)进展3.右内乳、右肺门及纵隔淋巴结肿大，考虑转移，部分略饱满；4.右侧胸膜增厚并结节灶，变化不著；双肺多发结节灶，考虑转移5.胆囊炎6.甲状腺左侧叶低密度灶，变化不著7.左侧上颌窦炎8.右侧肾上腺外侧支结节灶，建议观察。右乳术后缺如，术区结构紊乱，周围间隙模糊，未见明确异常强化。左乳及左侧腋窝未见明确异常。右肺尖见不规则软组织密度影，其边缘分叶、模糊，并可见胸膜牵拉征，肿块最大截面约2.3CM×3.4CM；增强扫描呈较显著不均匀强化。右肺上叶及中叶见少许条索状密度增高影。双肺野内见粟粒状结节影。右肺门、右侧内乳、纵隔内2R、3A、4R、7区见多发增大淋巴结，大者短径约1.2CM，增强扫描呈不均匀强化。右侧胸膜局部增厚呈结节状，直径约0.6CM，呈较显著不均匀强化。胆囊充盈好，壁略厚。肝脏密度减低。右侧肾上腺外侧支可见结节影。胰腺、脾、左侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。甲状腺左侧叶见小低密度灶，边缘模糊，直径约0.5CM。左侧上颌窦粘膜增厚。双侧颈后三角区见大者短径约0.5CM小淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>肝内胆管扩张,胆总管明显增粗,其内可见结节样致密影,大者直径约2.7CM,十二指肠降段肠壁明显增厚,CT值约38HU,增强CT扫描:三期CT值分别为77HU、102HU、80HU,邻近脂肪间隙模糊;肝脏、脾脏、胰腺形态大小正常,内未见异常密度影。双肾多发小圆形未强化结节影;胆囊未见异常。膀胱充盈良好,其内未见异常密度影,双侧输尿管不扩张。子宫未见确切显示;腹膜后未见异常增大的淋巴结影。腹腔内肠管未见异常扩张。右侧肾上腺可见肿块影,大小约4.7CM×3.6CM,CT值约31HU,增强CT扫描:三期CT值分别为100HU、106HU、104HU。盆腔少量液体密度影。1.十二指肠降部占位,考虑恶性肿瘤(间质瘤可能),随诊;2.胆总管结石,并胆系扩张;3.右侧肾上腺占位,考虑恶性,转移可能,嗜铬细胞瘤待除外,请结合临床;4.盆腔少量积液。</t>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>肝内胆管扩张，胆总管明显增粗，其内可见结节样致密影，大者直径约2.7CM，十二指肠降段肠壁明显增厚，CT值约38HU，增强CT扫描：三期CT值分别为77HU、102HU、80HU，邻近脂肪间隙模糊；肝脏、脾脏、胰腺形态大小正常，内未见异常密度影。双肾多发小圆形未强化结节影；胆囊未见异常。膀胱充盈良好，其内未见异常密度影，双侧输尿管不扩张。子宫未见确切显示；腹膜后未见异常增大的淋巴结影。腹腔内肠管未见异常扩张。右侧肾上腺可见肿块影，大小约4.7CM×3.6CM，CT值约31HU，增强CT扫描：三期CT值分别为100HU、106HU、104HU。盆腔少量液体密度影。1.十二指肠降部占位，考虑恶性肿瘤(间质瘤可能)，随诊；2.胆总管结石，并胆系扩张；3.右侧肾上腺占位，考虑恶性，转移可能，嗜铬细胞瘤待除外，请结合临床；4.盆腔少量积液。</t>
         </is>
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后;部分椎体密度增高,考虑转移2.考虑肝囊肿、左肾囊肿3.左肺类结节,右肺少许纤维灶4.肝内强化灶,考虑血管瘤以上较前(2017-2-7)基本变化不著。右乳术后,术区结构紊乱,术区胸壁及皮肤略增厚,局部密度欠均。右侧腋窝结构紊乱。左侧腋窝、双侧内乳区、肺门及纵隔未见增大淋巴结。左肺见小类结节,直径不足0.5CM。右肺见少许索条影。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝脏大小形态可,实质内示低密度影,边界清晰,增强扫描未见强化,直径不足0.5CM。另肝左叶动脉期见一长径约0.7CM强化结节,延迟呈等密度。胆囊不大,壁局部略厚。左肾示小类囊性密度灶。胰腺、右肾、双侧肾上腺及脾未见异常。腹腔及腹膜后未见肿大淋巴结。椎体局部密度增高。	</t>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后；部分椎体密度增高，考虑转移2.考虑肝囊肿、左肾囊肿3.左肺类结节，右肺少许纤维灶4.肝内强化灶，考虑血管瘤以上较前(2017-2-7)基本变化不著。右乳术后，术区结构紊乱，术区胸壁及皮肤略增厚，局部密度欠均。右侧腋窝结构紊乱。左侧腋窝、双侧内乳区、肺门及纵隔未见增大淋巴结。左肺见小类结节，直径不足0.5CM。右肺见少许索条影。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝脏大小形态可，实质内示低密度影，边界清晰，增强扫描未见强化，直径不足0.5CM。另肝左叶动脉期见一长径约0.7CM强化结节，延迟呈等密度。胆囊不大，壁局部略厚。左肾示小类囊性密度灶。胰腺、右肾、双侧肾上腺及脾未见异常。腹腔及腹膜后未见肿大淋巴结。椎体局部密度增高。	</t>
         </is>
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右侧中心型肺癌并阻塞性肺不张治疗后,不张较前(2014-09-24)减少,考虑好转;右肺门及纵隔淋巴结转移,部分变化不著,部分略好转;右胸膜转移,较前好转;骨转移,变化不著;脑转移,较前大小变化不著,部分密度减低,考虑略好转2.右侧胸腔积液,较前减少;心包积液,变化不著3.右肺结节,较前好转4.右侧乳腺术后改变5.肝内钙化灶6.左上颌窦炎症。右肺下叶支气管局部狭窄截断,周围示软组织密度肿块影,其与右肺门肿大淋巴结、不张肺组织分界不清,整体大小约3.8CM×1.8CM,增强后呈不均匀明显强化;邻近右肺野示少许斑片及条索影,牵拉胸膜;余右肺野略示小结节影,不足0.5CM。左肺野较清晰。右侧气管食管沟、腔静脉后、主肺动脉窗区、主动脉弓旁、隆突下、右侧心膈角区及右肺门示增大淋巴结,大者短径约0.5CM。右侧胸膜增厚,略呈小结节状;右侧胸腔内示弧形液体密度影。心包内示少量液体密度影。右侧乳腺术后缺如,术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区及锁骨上区未见明显肿大淋巴结。所扫肝右叶示颗粒状钙化密度影。左侧大脑内示多发结节、肿块影,大者截面约4.0CM×3.0CM,密度不均匀,周围示大片无强化的低密度水肿带,邻近侧脑室局部略示受压变形,增强后病灶呈环形明显强化。中线结构略尚居中。左侧上颌窦内示液体密度影。骨窗:胸骨柄右侧、胸骨下段局部骨质密度不均匀增高。	</t>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右侧中心型肺癌并阻塞性肺不张治疗后，不张较前(2014-09-24)减少，考虑好转；右肺门及纵隔淋巴结转移，部分变化不著，部分略好转；右胸膜转移，较前好转；骨转移，变化不著；脑转移，较前大小变化不著，部分密度减低，考虑略好转2.右侧胸腔积液，较前减少；心包积液，变化不著3.右肺结节，较前好转4.右侧乳腺术后改变5.肝内钙化灶6.左上颌窦炎症。右肺下叶支气管局部狭窄截断，周围示软组织密度肿块影，其与右肺门肿大淋巴结、不张肺组织分界不清，整体大小约3.8CM×1.8CM，增强后呈不均匀明显强化；邻近右肺野示少许斑片及条索影，牵拉胸膜；余右肺野略示小结节影，不足0.5CM。左肺野较清晰。右侧气管食管沟、腔静脉后、主肺动脉窗区、主动脉弓旁、隆突下、右侧心膈角区及右肺门示增大淋巴结，大者短径约0.5CM。右侧胸膜增厚，略呈小结节状；右侧胸腔内示弧形液体密度影。心包内示少量液体密度影。右侧乳腺术后缺如，术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区及锁骨上区未见明显肿大淋巴结。所扫肝右叶示颗粒状钙化密度影。左侧大脑内示多发结节、肿块影，大者截面约4.0CM×3.0CM，密度不均匀，周围示大片无强化的低密度水肿带，邻近侧脑室局部略示受压变形，增强后病灶呈环形明显强化。中线结构略尚居中。左侧上颌窦内示液体密度影。骨窗：胸骨柄右侧、胸骨下段局部骨质密度不均匀增高。	</t>
         </is>
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>1.左肺中央型肺癌伴双肺转移、左侧第4-6肋骨转移,左肺下叶不张;2.左侧胸腔积液。左肺下叶基底段可见一软组织肿块影,边界清楚,密度欠均匀,最大层面6.07CM×6.58CM,CT值约47HU。左肺下叶基底段支气管截断。左肺下叶不张。左肺内可见多发团块影,右肺中叶可见一小结节影。纵隔左移,纵隔内可见多发稍大的淋巴结,大者长径约1.88CM。左侧胸腔内可见弧形液性密度影,CT值约66HU。心脏大血管未见异常。左侧第4-6后肋骨质不规整,并可见骨质破坏影。</t>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>1.左肺中央型肺癌伴双肺转移、左侧第4-6肋骨转移，左肺下叶不张；2.左侧胸腔积液。左肺下叶基底段可见一软组织肿块影，边界清楚，密度欠均匀，最大层面6.07CM×6.58CM，CT值约47HU。左肺下叶基底段支气管截断。左肺下叶不张。左肺内可见多发团块影，右肺中叶可见一小结节影。纵隔左移，纵隔内可见多发稍大的淋巴结，大者长径约1.88CM。左侧胸腔内可见弧形液性密度影，CT值约66HU。心脏大血管未见异常。左侧第4-6后肋骨质不规整，并可见骨质破坏影。</t>
         </is>
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右乳癌术后;右肺转移治疗后,较前(2016-9-13)基本变化不著;原左肺结节灶,考虑转移,较前缩小;脑转移,较前基本消失不清2.纵隔增大淋巴结,部分略缩小;右肺门淋巴结稍大;左侧锁骨上淋巴结,较前缩小3.肝转移治疗后,较前增大,请结合临床4.左肾囊肿5.右肺少许炎症、纤维灶,基本变化不著;左肺小类结节灶,变化不著6.右侧部分肋骨及部分椎骨略高密度影,变化不著7.双侧胸腔及心包少量积液。右乳术后,术区未见增厚及异常强化征象;右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结,短径不足0.5CM。左侧锁骨上示短径不足0.5CM小淋巴结。右肺上叶示团片状密度增高影,密度较均。左肺下叶示类圆形低密度影,内示斑点状致密影,边界欠清。左肺上叶胸膜下示小类结节灶。余肺内示斑片影及索条影,右肺为著。右肺门及纵隔内示大者短径约0.8CM淋巴结。双侧胸腔及心包见少许液性密度影。肝实质内示多发低密度灶,边缘欠清,部分融合,大者长径约3.4CM,部分内示斑点斑片状致密影。胆胰脾双肾上腺未见明显异常。左肾示囊性密度灶,未见强化。余双肾内示斑片状低密度影。腹腔及腹膜后未见明显增大淋巴结。左侧半卵圆中心区局部密度偏低,未见明确强化灶。脑室系统未见明显异常。中线结构无移位。右侧部分肋骨及部分椎骨示略高密度影。	</t>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右乳癌术后；右肺转移治疗后，较前(2016-9-13)基本变化不著；原左肺结节灶，考虑转移，较前缩小；脑转移，较前基本消失不清2.纵隔增大淋巴结，部分略缩小；右肺门淋巴结稍大；左侧锁骨上淋巴结，较前缩小3.肝转移治疗后，较前增大，请结合临床4.左肾囊肿5.右肺少许炎症、纤维灶，基本变化不著；左肺小类结节灶，变化不著6.右侧部分肋骨及部分椎骨略高密度影，变化不著7.双侧胸腔及心包少量积液。右乳术后，术区未见增厚及异常强化征象；右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结，短径不足0.5CM。左侧锁骨上示短径不足0.5CM小淋巴结。右肺上叶示团片状密度增高影，密度较均。左肺下叶示类圆形低密度影，内示斑点状致密影，边界欠清。左肺上叶胸膜下示小类结节灶。余肺内示斑片影及索条影，右肺为著。右肺门及纵隔内示大者短径约0.8CM淋巴结。双侧胸腔及心包见少许液性密度影。肝实质内示多发低密度灶，边缘欠清，部分融合，大者长径约3.4CM，部分内示斑点斑片状致密影。胆胰脾双肾上腺未见明显异常。左肾示囊性密度灶，未见强化。余双肾内示斑片状低密度影。腹腔及腹膜后未见明显增大淋巴结。左侧半卵圆中心区局部密度偏低，未见明确强化灶。脑室系统未见明显异常。中线结构无移位。右侧部分肋骨及部分椎骨示略高密度影。	</t>
         </is>
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右肺癌并阻塞性炎症,较前片(2015-3-9)基本变化不著2.双肺多发结节灶,考虑转移,较前部分略增大,部分变化不著3.肝囊肿4.部分胸椎体及肋骨骨质密度增高,变化不著,部分较前范围加大,密度增高,考虑骨转移5.右肾低密度灶,变化不著,建议观察。右肺中叶支气管开口处见一不规则软组织密度肿块影,边缘模糊,病变大小不易测量,增强后可见轻度强化。病变远端示片状肺不张影。双肺见多发结节灶,大者直径约0.5CM。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶,大者直径不足0.5CM。右肾见直径约0.5CM低密度结节灶,未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分胸椎骨质密度增高,右侧第3肋局限性骨质密度增高。	</t>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右肺癌并阻塞性炎症，较前片(2015-3-9)基本变化不著2.双肺多发结节灶，考虑转移，较前部分略增大，部分变化不著3.肝囊肿4.部分胸椎体及肋骨骨质密度增高，变化不著，部分较前范围加大，密度增高，考虑骨转移5.右肾低密度灶，变化不著，建议观察。右肺中叶支气管开口处见一不规则软组织密度肿块影，边缘模糊，病变大小不易测量，增强后可见轻度强化。病变远端示片状肺不张影。双肺见多发结节灶，大者直径约0.5CM。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶，大者直径不足0.5CM。右肾见直径约0.5CM低密度结节灶，未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分胸椎骨质密度增高，右侧第3肋局限性骨质密度增高。	</t>
         </is>
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>结肠脾曲肠壁增厚,管腔狭窄,浆膜面模糊,近端结肠扩张,内见气液平面。肝内见类圆形水样密度影,大者直径约为2.4CM;肝左内叶可见类圆形低密度影,径约0.8CM,CT值约34HU。脾脏、胰腺、两肾形态大小正常,内未见异常密度影。胆囊未见明显异常。膀胱充盈良好,其内未见异常密度影,双侧输尿管不扩张。前列腺可见片状钙化影。腹膜后未见异常增大的淋巴结影。1、结肠脾曲占位,较前(2013-09-11)新发,考虑结肠癌;结肠梗阻;2、肝内低密度灶,较前新发,考虑转移瘤;肝囊肿;3、前列腺钙化灶。</t>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>结肠脾曲肠壁增厚，管腔狭窄，浆膜面模糊，近端结肠扩张，内见气液平面。肝内见类圆形水样密度影，大者直径约为2.4CM；肝左内叶可见类圆形低密度影，径约0.8CM，CT值约34HU。脾脏、胰腺、两肾形态大小正常，内未见异常密度影。胆囊未见明显异常。膀胱充盈良好，其内未见异常密度影，双侧输尿管不扩张。前列腺可见片状钙化影。腹膜后未见异常增大的淋巴结影。1、结肠脾曲占位，较前(2013-09-11)新发，考虑结肠癌；结肠梗阻；2、肝内低密度灶，较前新发，考虑转移瘤；肝囊肿；3、前列腺钙化灶。</t>
         </is>
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,直肠癌术后,双肺转移瘤,较前2016-6-9变化不著2.双侧胸膜略增厚,变化不著4.甲状腺低密度灶,变化不著。双肺近胸膜下示多个结节灶及肿块,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约3.0CM(纵隔窗),内示小空泡影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶,边缘较清晰。	</t>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，直肠癌术后，双肺转移瘤，较前2016-6-9变化不著2.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.0CM(纵隔窗)，内示小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	</t>
         </is>
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,肝癌介入治疗后;部分病灶仍具活性2.双肺多发结节及类结节灶,转移瘤不能除外,建议密切观察3.肝脏囊肿4.双肺上叶气肿5.双肺上叶纤维灶。肝脏体积增大,形态欠规则,实质内见多发混杂密度结节及肿块影,边界欠清,部分可见假包膜形成,大者截面积约12.8CM×10.0CM;增强扫描呈中度不均匀强化,其内可见低密度坏死区,延迟后病灶部分可见廓清。肝实质内散在斑片状及结节状高密度碘油沉积影。另肝内可见散在囊性密度灶,未见强化。门脉主干及左支显示尚可,门脉右前支示受压显著变窄,右后支显示欠清。胆囊充盈可,壁不厚。胰腺、脾、双肾及双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。双侧肺野内见多发结节及类结节灶,部分与叶间胸膜关系密切,大者直径约0.4CM。双肺上叶见多发泡状过度透亮区及条索状密度增高影。双肺门及纵隔未见明确肿大淋巴结。	</t>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，肝癌介入治疗后；部分病灶仍具活性2.双肺多发结节及类结节灶，转移瘤不能除外，建议密切观察3.肝脏囊肿4.双肺上叶气肿5.双肺上叶纤维灶。肝脏体积增大，形态欠规则，实质内见多发混杂密度结节及肿块影，边界欠清，部分可见假包膜形成，大者截面积约12.8CM×10.0CM；增强扫描呈中度不均匀强化，其内可见低密度坏死区，延迟后病灶部分可见廓清。肝实质内散在斑片状及结节状高密度碘油沉积影。另肝内可见散在囊性密度灶，未见强化。门脉主干及左支显示尚可，门脉右前支示受压显著变窄，右后支显示欠清。胆囊充盈可，壁不厚。胰腺、脾、双肾及双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。双侧肺野内见多发结节及类结节灶，部分与叶间胸膜关系密切，大者直径约0.4CM。双肺上叶见多发泡状过度透亮区及条索状密度增高影。双肺门及纵隔未见明确肿大淋巴结。	</t>
         </is>
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>右肺下叶前基底段可见一不规则形肿块影,可见分叶,边缘不光滑,可见毛刺,周围可见血管集束征;平扫时CT值约为40HU,增强后呈明显不均匀强化,动脉期、静脉期及平衡期CT值分别约为101HU、78HU及71HU;病灶大小约为3.5CM×2.8CM;远端肺野内可见斑点状高密度影。右肺下叶可见囊状透光影,界清。所示气管支气管未见异常扩张;双肺门区未见异常。纵隔内可见增大淋巴结影,大者短径约为1.5CM;双侧胸腔未见积液征象;心脏及胸腔大血管未见异常密度影。所示甲状腺密度不均匀。1.右肺下叶前基底段肿块影,考虑为周围型肺癌,远端合并少许肺炎;2.支气管炎征象,右肺下叶单发肺大泡;3.右肺门、纵隔淋巴结转移;4.甲状腺密度不均匀,请结合临床。5.右下肺小结节,请随诊。</t>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>右肺下叶前基底段可见一不规则形肿块影，可见分叶，边缘不光滑，可见毛刺，周围可见血管集束征；平扫时CT值约为40HU，增强后呈明显不均匀强化，动脉期、静脉期及平衡期CT值分别约为101HU、78HU及71HU；病灶大小约为3.5CM×2.8CM；远端肺野内可见斑点状高密度影。右肺下叶可见囊状透光影，界清。所示气管支气管未见异常扩张；双肺门区未见异常。纵隔内可见增大淋巴结影，大者短径约为1.5CM；双侧胸腔未见积液征象；心脏及胸腔大血管未见异常密度影。所示甲状腺密度不均匀。1.右肺下叶前基底段肿块影，考虑为周围型肺癌，远端合并少许肺炎；2.支气管炎征象，右肺下叶单发肺大泡；3.右肺门、纵隔淋巴结转移；4.甲状腺密度不均匀，请结合临床。5.右下肺小结节，请随诊。</t>
         </is>
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>1.左侧肺门区占位,首先考虑恶性肿瘤,双肺多发结节灶,考虑为转移瘤,请结合临床;2.右肺下叶钙化灶;3.双侧胸腔少量积液;腹腔积液;4.心脏改变,请结合临床;5.双侧甲状腺钙化,请结合临床。双肺透过度不均,所示双肺支气管血管束增强、紊乱,管壁增厚,管腔变窄;左侧肺门区可见团块状高密度影,可见分叶征,边缘不光整,密度尚均匀,其内支气管截断,邻近支气管受压,较大层面大小约7.26CM×3.94CM,CT值约58HU。左肺下叶(44)、左肺上叶(30、20)、右肺上叶(25)可见多发磨玻璃密度影及结节影,界清,大者长径约1.36CM;右肺下叶背段(30)可见结节状致密影。右侧肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。双侧胸腔可见少量液体密度影。心影增大,主动脉壁及冠脉走形区可见条片状致密影。所示腹腔内可见大片状液体密度影。所示甲状腺双侧叶钙化影。</t>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>1.左侧肺门区占位，首先考虑恶性肿瘤，双肺多发结节灶，考虑为转移瘤，请结合临床；2.右肺下叶钙化灶；3.双侧胸腔少量积液；腹腔积液；4.心脏改变，请结合临床；5.双侧甲状腺钙化，请结合临床。双肺透过度不均，所示双肺支气管血管束增强、紊乱，管壁增厚，管腔变窄；左侧肺门区可见团块状高密度影，可见分叶征，边缘不光整，密度尚均匀，其内支气管截断，邻近支气管受压，较大层面大小约7.26CM×3.94CM，CT值约58HU。左肺下叶(44)、左肺上叶(30、20)、右肺上叶(25)可见多发磨玻璃密度影及结节影，界清，大者长径约1.36CM；右肺下叶背段(30)可见结节状致密影。右侧肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。双侧胸腔可见少量液体密度影。心影增大，主动脉壁及冠脉走形区可见条片状致密影。所示腹腔内可见大片状液体密度影。所示甲状腺双侧叶钙化影。</t>
         </is>
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>左肺上叶纵隔旁示一不规则软组织密度结节灶,与纵隔内主肺动脉窗区肿大淋巴结分界不清,与左肺上叶支气管及左肺动脉关系密切。左肺野内见斑片索条状密度增高影,左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧胸腔内可见少许液性密度影及引流管影。左侧心包及左侧心膈角区可见多发结节影,大者长径约1.0CM。	1.结合临床,左肺癌治疗后,较前(2015-11-9)片变化不著,左侧胸膜转移及叶裂转移2.左肺慢性炎症及纤维灶3.左侧少量胸腔积液4.左侧心包及心膈角区结节影,较前增大,考虑转移。</t>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>左肺上叶纵隔旁示一不规则软组织密度结节灶，与纵隔内主肺动脉窗区肿大淋巴结分界不清，与左肺上叶支气管及左肺动脉关系密切。左肺野内见斑片索条状密度增高影，左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧胸腔内可见少许液性密度影及引流管影。左侧心包及左侧心膈角区可见多发结节影，大者长径约1.0CM。	1.结合临床，左肺癌治疗后，较前(2015-11-9)片变化不著，左侧胸膜转移及叶裂转移2.左肺慢性炎症及纤维灶3.左侧少量胸腔积液4.左侧心包及心膈角区结节影，较前增大，考虑转移。</t>
         </is>
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,左肺癌并阻塞性肺不张,较前变化不著2.纵隔淋巴结肿大,考虑转移,较前略缩小3.双肺炎症,较前进展;右肺下叶膨胀不全;右侧胸腔积液4.肝转移,较前略好转5.脾内多发低密度灶,考虑脾梗死6.胆囊炎;胆囊结石6.双肾囊肿7.腹腔及腹膜后多发淋巴结肿大,考虑转移8.腹腔积液,较前增多9.网膜及肠系膜增厚。左肺上叶舌段支气管示截断,其开口区见不规则软组织密度肿块影,边缘模糊,与膨胀不全肺组织分界不清,截面积约2.6CM×2.2CM;增强扫描呈不均匀强化。双肺野透光度减低,双肺野内见条索状密度增高影。纵隔内见肿大淋巴结,大者短径约0.8CM。右侧胸腔内见液性密度影,右肺下叶见弧形膨胀不全肺组织影。肝实质内见多发低密度结节灶及肿块影,部分相互融合,呈斑片状影,增强扫描部分病变呈环形强化,部分病变强化不显著。门脉右前支及右后支局部显示不清。胆囊壁增厚,腔内可见片状高密度影。脾实质内见多发斑片状低密度影,未见强化。双肾见低密度灶。腹腔见液性密度影。腹腔及腹膜后见多发肿大淋巴结,大者短径约1.0CM。网膜及肠系膜示增厚。	</t>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，左肺癌并阻塞性肺不张，较前变化不著2.纵隔淋巴结肿大，考虑转移，较前略缩小3.双肺炎症，较前进展；右肺下叶膨胀不全；右侧胸腔积液4.肝转移，较前略好转5.脾内多发低密度灶，考虑脾梗死6.胆囊炎；胆囊结石6.双肾囊肿7.腹腔及腹膜后多发淋巴结肿大，考虑转移8.腹腔积液，较前增多9.网膜及肠系膜增厚。左肺上叶舌段支气管示截断，其开口区见不规则软组织密度肿块影，边缘模糊，与膨胀不全肺组织分界不清，截面积约2.6CM×2.2CM；增强扫描呈不均匀强化。双肺野透光度减低，双肺野内见条索状密度增高影。纵隔内见肿大淋巴结，大者短径约0.8CM。右侧胸腔内见液性密度影，右肺下叶见弧形膨胀不全肺组织影。肝实质内见多发低密度结节灶及肿块影，部分相互融合，呈斑片状影，增强扫描部分病变呈环形强化，部分病变强化不显著。门脉右前支及右后支局部显示不清。胆囊壁增厚，腔内可见片状高密度影。脾实质内见多发斑片状低密度影，未见强化。双肾见低密度灶。腹腔见液性密度影。腹腔及腹膜后见多发肿大淋巴结，大者短径约1.0CM。网膜及肠系膜示增厚。	</t>
         </is>
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合乳癌病史,脑多发转移瘤。2.左上颌窦炎。脑干、双侧大脑及小脑半球见多发大小不等的结节样异常信号,表现为T1WI低、略低信号,T2WI略高、高信号,压水序列高信号,DWI序列低、高信号,增强扫描呈结节样、环形或不均匀强化,大者约1.6CM×2.1CM,部分病变周围脑白质见小片状或片状长T2信号水肿带,四脑室及双侧侧脑室略受压变形。中线结构居中。左上颌窦可见小片状长T2信号区。余未见异常。	</t>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合乳癌病史，脑多发转移瘤。2.左上颌窦炎。脑干、双侧大脑及小脑半球见多发大小不等的结节样异常信号，表现为T1WI低、略低信号，T2WI略高、高信号，压水序列高信号，DWI序列低、高信号，增强扫描呈结节样、环形或不均匀强化，大者约1.6CM×2.1CM，部分病变周围脑白质见小片状或片状长T2信号水肿带，四脑室及双侧侧脑室略受压变形。中线结构居中。左上颌窦可见小片状长T2信号区。余未见异常。	</t>
         </is>
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>右下肺门区可见一直径4.1CM大小的肿块,密度均匀,CT值为15HU,增强后约46、40HU;下叶支气管管腔消失,其周围结构被肿块侵犯。右肺下叶可见斑片影,边界模糊不清。隆突下淋巴结明显增大,短径约2.3。双侧胸腔未见积液征象。1.右下肺中央型肺癌合并阻塞性炎症,纵膈淋巴结转移;2.肺气肿。</t>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>右下肺门区可见一直径4.1CM大小的肿块，密度均匀，CT值为15HU，增强后约46、40HU；下叶支气管管腔消失，其周围结构被肿块侵犯。右肺下叶可见斑片影，边界模糊不清。隆突下淋巴结明显增大，短径约2.3。双侧胸腔未见积液征象。1.右下肺中央型肺癌合并阻塞性炎症，纵膈淋巴结转移；2.肺气肿。</t>
         </is>
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,左乳癌术后,左颈部术后2.右肺门及纵隔淋巴结肿大,转移可能性大,请结合前片;肝多发转移3.双肺炎症及纤维灶,双肺类结节,请结合前片4.部分椎体密度稍高,建议观察。左乳术后,术区结构紊乱,胸肌存在,壁未见增厚及异常强化。左颈根部术后,结构紊乱。左侧腋窝结构紊乱。右肺门及纵隔见大者短径约1.1CM肿大淋巴结。左肺门见短径不足0.5CM小淋巴结。双肺见斑片索条影及类结节,边缘不清。扫描野内肝内见大者长径约4.3CM不均匀强化灶。胸腰椎局部密度稍高。	</t>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，左乳癌术后，左颈部术后2.右肺门及纵隔淋巴结肿大，转移可能性大，请结合前片；肝多发转移3.双肺炎症及纤维灶，双肺类结节，请结合前片4.部分椎体密度稍高，建议观察。左乳术后，术区结构紊乱，胸肌存在，壁未见增厚及异常强化。左颈根部术后，结构紊乱。左侧腋窝结构紊乱。右肺门及纵隔见大者短径约1.1CM肿大淋巴结。左肺门见短径不足0.5CM小淋巴结。双肺见斑片索条影及类结节，边缘不清。扫描野内肝内见大者长径约4.3CM不均匀强化灶。胸腰椎局部密度稍高。	</t>
         </is>
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右肺上叶癌侵及脏层胸膜治疗后,较前(2016-10-10)基本变化不著;多发骨转移,变化不著2.右乳腺体局部密度增高,变化不著。右肺上叶尖段可见软组织密度影,最大截面约0.9CM×1.0CM(纵隔窗),边缘浅分叶可见细毛刺,内缘有长毛刺与纵隔相连,增强扫描呈中等不均匀性强化;余双肺野较清晰,未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。肝脏形态、大小可,实质密度均质。肝内外胆管未见扩张。胆囊充盈可,壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示:双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏,以成骨性为主,部分肋骨形态欠规则,略呈膨胀性改变。	</t>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右肺上叶癌侵及脏层胸膜治疗后，较前(2016-10-10)基本变化不著；多发骨转移，变化不著2.右乳腺体局部密度增高，变化不著。右肺上叶尖段可见软组织密度影，最大截面约0.9CM×1.0CM(纵隔窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示：双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏，以成骨性为主，部分肋骨形态欠规则，略呈膨胀性改变。	</t>
         </is>
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.右肺下叶中心型肺癌累及肺门、纵隔并阻塞性肺不张、肺炎;右肺门、纵隔淋巴结转移。2.腹部扫描未见异常。3.双颈部小淋巴结。4.双侧胸膜略增厚。5.右肺上叶钙化灶。6.双肺气肿。右肺下叶支气管周围可见一不规则软组织密度肿块影,约8.0CM×6.8CM,增强扫描呈明显不均匀强化,与其远端不张的肺组织分界不清,远端可见斑片状密度增高影,向内与肺门淋巴结分界不清,与纵隔内软组织及心包、大血管分界不清,余双肺野内散在囊泡状过度透光灶,右肺上叶示一钙化结节灶。右肺门、纵隔内示多发肿大融合的淋巴结影,大者短径约5.4CM。左侧胸膜略示增厚。肝脏大小形态未见异常,肝实质未见异常密度影。胆囊、胰腺、脾、双肾、肾上腺未见异常,腹腔腹膜后未见肿大淋巴结影。各咽壁不厚,双侧颈部II、III区示数个结节灶,大者短径约0.8CM。腮腺及双侧甲状腺未见异常。	</t>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.右肺下叶中心型肺癌累及肺门、纵隔并阻塞性肺不张、肺炎；右肺门、纵隔淋巴结转移。2.腹部扫描未见异常。3.双颈部小淋巴结。4.双侧胸膜略增厚。5.右肺上叶钙化灶。6.双肺气肿。右肺下叶支气管周围可见一不规则软组织密度肿块影，约8.0CM×6.8CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织分界不清，远端可见斑片状密度增高影，向内与肺门淋巴结分界不清，与纵隔内软组织及心包、大血管分界不清，余双肺野内散在囊泡状过度透光灶，右肺上叶示一钙化结节灶。右肺门、纵隔内示多发肿大融合的淋巴结影，大者短径约5.4CM。左侧胸膜略示增厚。肝脏大小形态未见异常，肝实质未见异常密度影。胆囊、胰腺、脾、双肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。各咽壁不厚，双侧颈部II、III区示数个结节灶，大者短径约0.8CM。腮腺及双侧甲状腺未见异常。	</t>
         </is>
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t xml:space="preserve">结合临床,右肺癌伴纵隔淋巴结转移,左肾上腺转移右小脑结节灶,考虑转移右额顶部低密度区,必要时进一步检查。右肺上叶前、后段支气管狭窄,后段支气管旁可见软组织密度结节,最大横截面约2.1CM×2.5CM,密度不均,边缘毛糙,增强可见不均匀强化;病灶远端肺野可见少许斑片状影。双下肺可见少量索条。纵隔内腔静脉后间隙、气管隆突下可见增大淋巴结,大者短径1.5CM,不均匀强化。肝实质均质,未见异常密度灶。胆、胰腺、脾及所扫双肾未见异常。左肾上腺区可见一软组织密度肿块,最大横截面约2CM×4CM,不均匀强化。腹腔腹膜后未见明确增大淋巴结。右小脑可见一强化灶,直径约1.5CM,周围可见少许低密度水肿带。右侧额顶部可见片状低密度区,未见明确强化灶。脑室形态可,中线结构居中	</t>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t xml:space="preserve">结合临床，右肺癌伴纵隔淋巴结转移，左肾上腺转移右小脑结节灶，考虑转移右额顶部低密度区，必要时进一步检查。右肺上叶前、后段支气管狭窄，后段支气管旁可见软组织密度结节，最大横截面约2.1CM×2.5CM，密度不均，边缘毛糙，增强可见不均匀强化；病灶远端肺野可见少许斑片状影。双下肺可见少量索条。纵隔内腔静脉后间隙、气管隆突下可见增大淋巴结，大者短径1.5CM，不均匀强化。肝实质均质，未见异常密度灶。胆、胰腺、脾及所扫双肾未见异常。左肾上腺区可见一软组织密度肿块，最大横截面约2CM×4CM，不均匀强化。腹腔腹膜后未见明确增大淋巴结。右小脑可见一强化灶，直径约1.5CM，周围可见少许低密度水肿带。右侧额顶部可见片状低密度区，未见明确强化灶。脑室形态可，中线结构居中	</t>
         </is>
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,左肺癌并阻塞性肺不张及炎症,较前2015-11-18好转2.左肺门、纵隔淋巴结转移,右肺门淋巴结肿大,不除外转移,较前好转3.左侧第4肋陈旧性骨折。左肺下叶示软组织肿块影,部分支气管狭窄,远端见少许实变肺组织及斑片状密度增高影,增强扫描病变呈较明显强化,直径约1.6CM。余双侧肺野内可见多发囊泡状过度充气区。纵隔内气管周围、腔静脉后气管前间隙、主肺动脉窗区、隆突下、双肺门示多发增大淋巴结,大者短径约2.6CM。左侧第4肋示陈旧性骨折线形成。	</t>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，左肺癌并阻塞性肺不张及炎症，较前2015-11-18好转2.左肺门、纵隔淋巴结转移，右肺门淋巴结肿大，不除外转移，较前好转3.左侧第4肋陈旧性骨折。左肺下叶示软组织肿块影，部分支气管狭窄，远端见少许实变肺组织及斑片状密度增高影，增强扫描病变呈较明显强化，直径约1.6CM。余双侧肺野内可见多发囊泡状过度充气区。纵隔内气管周围、腔静脉后气管前间隙、主肺动脉窗区、隆突下、双肺门示多发增大淋巴结，大者短径约2.6CM。左侧第4肋示陈旧性骨折线形成。	</t>
         </is>
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>右肺下叶支气管开口处示一不规则软组织密度肿块,截面约3.8CM×3.3CM,边缘分叶,周围示斑片状密度增高影及少许膨胀不全肺组织,与叶间裂关系密切,增强扫描病变呈较显著不均匀强化;病变与右肺门肿大淋巴结分界不清,右肺动静脉局部包绕其中。余双肺示多发斑片条索影及泡状过度透光灶。右肺门及纵隔示多发肿大淋巴结,部分融合,大者短径约1.5CM,可见强化。右侧胸膜略厚;右侧胸腔示少量液体密度影。所扫肝左叶示低密度灶,直径约0.3CM,边缘略模糊,强化不著。双肾示小囊肿。所扫甲状腺内示多发低密度灶及钙化影。部分胸椎骨质密度增高。	1.右肺癌伴阻塞性肺炎、肺不张,右肺门及纵隔淋巴结转移2.双肺炎症及纤维灶、双肺气肿3.右侧胸膜略厚;右侧胸腔少量积液4.肝内低密度灶,考虑小囊肿可能大,建议观察;双肾囊肿5.甲状腺低密度灶、钙化灶,建议观察或进一步检查6.部分胸椎骨质密度增高,观察。</t>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>右肺下叶支气管开口处示一不规则软组织密度肿块，截面约3.8CM×3.3CM，边缘分叶，周围示斑片状密度增高影及少许膨胀不全肺组织，与叶间裂关系密切，增强扫描病变呈较显著不均匀强化；病变与右肺门肿大淋巴结分界不清，右肺动静脉局部包绕其中。余双肺示多发斑片条索影及泡状过度透光灶。右肺门及纵隔示多发肿大淋巴结，部分融合，大者短径约1.5CM，可见强化。右侧胸膜略厚；右侧胸腔示少量液体密度影。所扫肝左叶示低密度灶，直径约0.3CM，边缘略模糊，强化不著。双肾示小囊肿。所扫甲状腺内示多发低密度灶及钙化影。部分胸椎骨质密度增高。	1.右肺癌伴阻塞性肺炎、肺不张，右肺门及纵隔淋巴结转移2.双肺炎症及纤维灶、双肺气肿3.右侧胸膜略厚；右侧胸腔少量积液4.肝内低密度灶，考虑小囊肿可能大，建议观察；双肾囊肿5.甲状腺低密度灶、钙化灶，建议观察或进一步检查6.部分胸椎骨质密度增高，观察。</t>
         </is>
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>1.结合临床,右乳癌术后,纵隔、双肺门淋巴结转移,左肺转移,左肾上腺转移,骨转移2.双肺炎症3.心包积液4.肝囊肿右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内血管前间隙、腔静脉后、弓旁、主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结,大者直径约1.3CM。左肺野示数个结节灶,大者直径约1.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶,直径约1.4CM。胆、胰、脾及扫描野内双肾未见异常。腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示溶骨性骨质破坏。</t>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>1.结合临床，右乳癌术后，纵隔、双肺门淋巴结转移，左肺转移，左肾上腺转移，骨转移2.双肺炎症3.心包积液4.肝囊肿右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内血管前间隙、腔静脉后、弓旁、主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结，大者直径约1.3CM。左肺野示数个结节灶，大者直径约1.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶，直径约1.4CM。胆、胰、脾及扫描野内双肾未见异常。腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示溶骨性骨质破坏。</t>
         </is>
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>右乳外下象限见一等T1等T2结节影,压脂序列为略高信号,DWI为高信号,大小约1.2CM×1.0CM,边缘毛糙,与邻近皮肤相贴致其略凹陷;增强扫描病灶呈显著强化,时间-信号强度曲线为流出型。左乳增强前后未见明显占位性病灶。右侧腋窝见短径约1.7CM肿大淋巴结。左侧腋窝见大者短径不足0.5CM小淋巴结。右侧侧脑室前角右旁见一约0.3CM×0.6CM的结节状异常信号影,表现为T2WI高信号,压水序列为中心低、边缘高信号,DWI为低信号,增强扫描无强化。余脑实质增强后扫描未见异常信号灶。脑室、池、脑沟裂未见异常。中线结构居中,未见移位。双侧桥小脑角区未见占位性病变。	1.结合病史,考虑右乳癌并同侧腋窝淋巴转移(BI-RADS5级)。2.右侧侧脑室前角右旁梗死灶。</t>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>右乳外下象限见一等T1等T2结节影，压脂序列为略高信号，DWI为高信号，大小约1.2CM×1.0CM，边缘毛糙，与邻近皮肤相贴致其略凹陷；增强扫描病灶呈显著强化，时间-信号强度曲线为流出型。左乳增强前后未见明显占位性病灶。右侧腋窝见短径约1.7CM肿大淋巴结。左侧腋窝见大者短径不足0.5CM小淋巴结。右侧侧脑室前角右旁见一约0.3CM×0.6CM的结节状异常信号影，表现为T2WI高信号，压水序列为中心低、边缘高信号，DWI为低信号，增强扫描无强化。余脑实质增强后扫描未见异常信号灶。脑室、池、脑沟裂未见异常。中线结构居中，未见移位。双侧桥小脑角区未见占位性病变。	1.结合病史，考虑右乳癌并同侧腋窝淋巴转移(BI-RADS5级)。2.右侧侧脑室前角右旁梗死灶。</t>
         </is>
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>左肺上叶示一不规则软组织密度灶,大小约2.1CM×2.9CM,边缘分叶,可见强化。左侧胸膜及叶间胸膜示多发结节灶,可见强化。左侧胸腔示液体密度影。左肺门、纵隔内示数个肿大淋巴结,大者短径约1.0CM。前纵隔胸腺区示类囊性密度灶,直径约2.0CM,边界清,无强化。左侧第七后肋呈溶骨性骨质破坏,局部形成软组织密度肿块。	1.左肺上叶癌,左侧胸膜转移,左肺门、纵隔淋巴结转移,骨转移2.左侧胸腔积液3.前纵隔占位,不除外胸腺囊肿,建议观察。</t>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>左肺上叶示一不规则软组织密度灶，大小约2.1CM×2.9CM，边缘分叶，可见强化。左侧胸膜及叶间胸膜示多发结节灶，可见强化。左侧胸腔示液体密度影。左肺门、纵隔内示数个肿大淋巴结，大者短径约1.0CM。前纵隔胸腺区示类囊性密度灶，直径约2.0CM，边界清，无强化。左侧第七后肋呈溶骨性骨质破坏，局部形成软组织密度肿块。	1.左肺上叶癌，左侧胸膜转移，左肺门、纵隔淋巴结转移，骨转移2.左侧胸腔积液3.前纵隔占位，不除外胸腺囊肿，建议观察。</t>
         </is>
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>右肺门支气管开口处示一软组织密度肿块,约1.9CM×2.9CM,密度不均,边缘分叶毛糙,增强呈较均匀强化。双肺野内散在磨玻璃影及类结节灶,以上叶为著。双肺门示增大淋巴结,大者直径约0.8CM。双侧胸腔未见积液征象。右侧斜裂胸膜示类结节灶。肝、胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。	1.右肺癌,双肺门淋巴结略增大;右侧斜裂胸膜类结节灶,考虑转移2.右肺上叶纤维灶及磨玻璃灶,建议观察3.上腹扫描未见异常。</t>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>右肺门支气管开口处示一软组织密度肿块，约1.9CM×2.9CM，密度不均，边缘分叶毛糙，增强呈较均匀强化。双肺野内散在磨玻璃影及类结节灶，以上叶为著。双肺门示增大淋巴结，大者直径约0.8CM。双侧胸腔未见积液征象。右侧斜裂胸膜示类结节灶。肝、胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。	1.右肺癌，双肺门淋巴结略增大；右侧斜裂胸膜类结节灶，考虑转移2.右肺上叶纤维灶及磨玻璃灶，建议观察3.上腹扫描未见异常。</t>
         </is>
       </c>
     </row>
     <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,左乳癌术后改变;考虑多发骨转移2.肝转移。左乳术后,术区见高密度银夹影,未见结节及异常强化灶。右腋窝示小淋巴结,短径约0.3CM。双侧内乳区、左侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰,肺纹理分布自然,气管及各级支气管通畅。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝实质内示多发低密度灶,边缘模糊,大者直径约1.1CM。胆、胰、脾、双肾及双侧肾上腺未见异常。腹腔及腹膜后未见增大淋巴结。骨窗:部分腰椎、胸椎见多发骨质破坏。	</t>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，左乳癌术后改变；考虑多发骨转移2.肝转移。左乳术后，术区见高密度银夹影，未见结节及异常强化灶。右腋窝示小淋巴结，短径约0.3CM。双侧内乳区、左侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰，肺纹理分布自然，气管及各级支气管通畅。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝实质内示多发低密度灶，边缘模糊，大者直径约1.1CM。胆、胰、脾、双肾及双侧肾上腺未见异常。腹腔及腹膜后未见增大淋巴结。骨窗：部分腰椎、胸椎见多发骨质破坏。	</t>
         </is>
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.结合临床,右肺癌并右肺下叶炎症,较前片2016-09-20基本变化不著;右肺类结节,变化不著;右肺门、纵隔淋巴结转移治疗后,较前变化不著。2.右侧胸膜略增厚,变化不著3.肝内钙化灶。4.T12右侧椎弓根密度增高影,变化不著。5.颅脑扫描未见明显异常。6.心脏体积增大;冠脉钙化。右肺下叶见不规则斑片状软组织影,边缘毛糙,大小不易测量,增强后中度强化;其远端肺野见斑片状及索条状密度增高影。右肺见小类结节灶,边缘模糊,直径不足0.5CM。左肺野清晰。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结,大者短径不足1.0CM,部分增强后强化显著。右侧胸膜略增厚。心脏体积增大,冠脉可见钙化。肝内强化不均质,肝右叶见一斑点状钙化灶。胆胰脾肾上腺及双肾未见异常。肝胃韧带区见短径不足0.5CM小淋巴结。脑实质密度均匀。T12右侧椎弓根示斑片状密度增高影。	</t>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.结合临床，右肺癌并右肺下叶炎症，较前片2016-09-20基本变化不著；右肺类结节，变化不著；右肺门、纵隔淋巴结转移治疗后，较前变化不著。2.右侧胸膜略增厚，变化不著3.肝内钙化灶。4.T12右侧椎弓根密度增高影，变化不著。5.颅脑扫描未见明显异常。6.心脏体积增大；冠脉钙化。右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。右肺见小类结节灶，边缘模糊，直径不足0.5CM。左肺野清晰。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径不足1.0CM，部分增强后强化显著。右侧胸膜略增厚。心脏体积增大，冠脉可见钙化。肝内强化不均质，肝右叶见一斑点状钙化灶。胆胰脾肾上腺及双肾未见异常。肝胃韧带区见短径不足0.5CM小淋巴结。脑实质密度均匀。T12右侧椎弓根示斑片状密度增高影。	</t>
         </is>
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>左乳术后,术区结构紊乱,未见结节及肿块。左侧腋窝结构紊乱。右乳未见异常。左侧内乳见增大淋巴结,短径约0.8CM。左侧腋窝、双侧肺门及纵隔未见增大淋巴结。右侧水平裂区(3-21)见一类结节灶,直径约0.2CM。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝实质内见多发低密度结节及肿块,大者直径约3.8CM,边缘略模糊,其密度不均。胆囊充盈可,壁不厚。胰脾、双侧肾上腺及双肾未见异常。腹腔内肝总动脉见短径约0.6CM小淋巴结。腹膜后未见增大淋巴结。	1.结合临床,左乳癌术后改变;左侧内乳淋巴结肿大,较前(2014-7-4)变化不著2.肝转移,较前大部分变化不著,部分略增大。</t>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>左乳术后，术区结构紊乱，未见结节及肿块。左侧腋窝结构紊乱。右乳未见异常。左侧内乳见增大淋巴结，短径约0.8CM。左侧腋窝、双侧肺门及纵隔未见增大淋巴结。右侧水平裂区(3-21)见一类结节灶，直径约0.2CM。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝实质内见多发低密度结节及肿块，大者直径约3.8CM，边缘略模糊，其密度不均。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及双肾未见异常。腹腔内肝总动脉见短径约0.6CM小淋巴结。腹膜后未见增大淋巴结。	1.结合临床，左乳癌术后改变；左侧内乳淋巴结肿大，较前(2014-7-4)变化不著2.肝转移，较前大部分变化不著，部分略增大。</t>
         </is>
       </c>
     </row>

--- a/data/task2_no_val_cleaned.xlsx
+++ b/data/task2_no_val_cleaned.xlsx
@@ -29,1204 +29,1204 @@
     <t>转移部位</t>
   </si>
   <si>
-    <t>1.结合临床，右乳癌术后，纵隔、双肺门淋巴结转移，左肺转移，左肾上腺转移，均较前(2015-11-5)示好转；骨转移，变化不著2.双肺炎症，变化不著3.心包积液4.肝囊肿右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结，大者直径约0.7CM。左肺野示数个结节灶，大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶，直径约0.9CM。胆、胰、脾及扫描野内双肾未见异常。腹膜后未见肿大淋巴结。部分部分胸腰椎及肋骨示溶骨性骨质破坏。</t>
-  </si>
-  <si>
-    <t>1.右肺下叶占位，恶性；右侧肺门和纵隔多发肿大淋巴结，考虑转移；右侧胸腔少量积液征象；2.右肺少许炎症可能。3.双侧肺(52、49、40、37、19)小结节，请随诊。右肺下叶(18)见肿块影，边界尚清，大小约为，6.2CM×5.0CM，其内密度欠均匀，CT值约为21-37HU，增强扫描病灶周围呈明显强化，中央可见不强化坏死区，右肺下叶部分支气管截断，右侧肺门和纵隔内见异常增大的淋巴结影，增强扫描呈明显环形强化。右肺叶见斑片模糊影。两肺纹理增强。右侧胸腔少量积液征象。主动脉、冠状动脉壁钙化。</t>
-  </si>
-  <si>
-    <t>右肺下叶外侧基底段示一软组织密度结节灶，截面约2.7CM×3.2CM，密度不均，边缘毛糙，其远侧可见粗大条索影与后胸膜相连，增强扫描示轻度强化。余两肺野清晰，肺门及纵隔内未见确切肿大淋巴结影。胸腔内无积液征象。脑实质内示数个低密度结节灶，大者直径约1.2CM，位于左额叶，增强扫描示边缘轻度强化，病灶周围脑组织无水肿征象。中线结构居中。脑室池无扩张移位。骨质未见明显异常。	1.右肺占位，考虑右肺癌较前2016-8-9增大。2.脑转移，较前2016-8-9变化不著。</t>
-  </si>
-  <si>
-    <t>右肺中叶近肺门处示不规则软组织密度影，远侧肺组织示实变征象，周围多发多发条索状及斑片状密度增高影，与周围组织关系密切，增强扫描示中度强化。右肺中叶外侧段见一磨玻璃密度结节；另右肺中叶示一类圆形结节灶(图3-38)，直径约0.5CM，边界清。余双肺野内散在囊泡状过度透光灶。右肺门及纵隔示多发肿大淋巴结，部分融合成团，大者位于右肺门，与肺门区病变分界不清。右侧胸腔示少量液体密度影。肝脏示低密度影，边界清晰，增强扫描未见强化，余肝实质未见异常密度影。胆囊、胰腺、脾、双肾、未见异常，右侧肾上腺外支见一结节灶，直径约0.8CM，边缘光滑，密度均匀。腹腔腹膜后未见肿大淋巴结影。	1.右肺癌，较前(2016-12-21)片不易比较；右肺炎症及肺不张较前加重；右肺门及纵隔淋巴结转移，部分不易比较，考虑变化不著。2.双肺气肿。3.右肺磨玻璃结节(考虑良性)，变化不著；右肺中叶新发结节灶，建议密切观察除外转移。4.肝囊肿。5.右肾上腺小结节，考虑腺瘤可能性大，变化不著。6.右侧胸腔少量积液。</t>
-  </si>
-  <si>
-    <t>右侧乳腺术后，术区胸壁部分胸肌尚存，右侧胸壁近胸骨旁软组织增厚，相邻胸骨骨质破坏。扫描野内右侧颈后三角区、右侧内乳区及纵隔内见多发增大淋巴结，部分边界欠清。左侧乳腺未见异常。左侧腋窝见直径不足1.0CM淋巴结。双肺野见数个结节灶，大者直径不足1.0CM。甲状腺内示低密度灶，边界欠清。部分肋骨及椎骨骨质密度不均，左侧部分肋骨骨质欠连续。	1.结合临床，右侧乳腺癌术后，右侧胸壁复发并累及胸骨治疗后，较前(2016-11-8)略好转；右侧颈部、右侧内乳区、纵隔淋巴结转移治疗后，部分缩小，部分变化不著2.左侧腋窝淋巴结稍大，略缩小3.双肺结节灶，不除外转移，变化不著4.部分肋骨及椎骨骨质密度不均，基本变化不著5.甲状腺低密度灶，变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后2.右肺占位，考虑肺癌，较前(2016-8-29)基本变化不著3.右肺门及纵隔淋巴结肿大，考虑转移，变化不著；右锁上淋巴结稍大，变化不著4.右侧胸膜增厚并结节灶，变化不著；左肺类结节灶，建议观察5.胆囊炎6.甲状腺左侧叶低密度灶，变化不著7.左侧上颌窦炎。右乳术后缺如，术区结构紊乱，周围间隙模糊，未见明确异常强化。左乳及左侧腋窝未见明确异常。右肺尖见不规则软组织密度影，其边缘可见小空洞影，边缘分叶、模糊，并可见胸膜牵拉征，截面积约3.5CM×2.2CM；增强扫描呈较显著不均匀强化。右肺上叶及中叶见少许条索状密度增高影。左肺上叶示小类结节灶。右肺门、纵隔内2R、3A、4R、7区见多发增大淋巴结，大者短径约1.4CM，增强扫描呈不均匀强化。右锁上见稍大淋巴结，短径约0.5CM。右侧胸膜局部增厚呈结节状，直径约0.6CM，呈较显著不均匀强化。胆囊充盈好，壁略厚。肝脏、胰腺、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。甲状腺左侧叶见小低密度灶，边界尚清，直径约0.5CM。左侧上颌窦粘膜增厚。双侧颈后三角区见大者短径约0.5CM小淋巴结。	</t>
-  </si>
-  <si>
-    <t>1.左肺门肿块，考虑中央型肺癌伴远端阻塞性肺不张可能性大，左锁骨区、纵隔、左肺门淋巴转移、左肺动脉受侵可能，请结合临床详查；2.右肺下叶少许炎症；3.双侧胸腔少量积液征象。4.右侧肾上腺结节，转移?。左肺门团块状密度增高影，大小约4.5CM×4.9CM，CT值：53HU；增强后病灶明显强化，三期CT值分别75HU、68HU、61HU。左侧支气管腔变窄、截断，其远端肺组织不张。右肺下叶少许淡片状密度增高影。左锁骨区、纵隔、左肺门淋巴结增大，呈融合趋势。左肺动脉与病灶界限不清，模糊。两胸腔少量积液征象。心脏不大，所示骨质未见明显异常。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，直肠癌术后，双肺转移瘤，较前2016-03-15部分缩小，部分略饱满，部分变化不著2.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.0CM(纵隔窗)，内示小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左乳癌术后；卵巢转移术后，术区片状低密度影，较前2015-10-9变化不著2.网膜、肠系膜及盆腹膜转移治疗后，较前好转3.脂肪肝；肝囊肿；肝内低密度灶，变化不著4.右肾囊肿5.宫颈体积增大，变化不著6.胸腰骶椎、肋骨、髋骨骨质密度增高，考虑转移，较前变化不著7.腹腔少量积液，较前变化不著。左乳术后缺如，术区结构紊乱，周围脂肪间隙模糊，部分胸肌尚存，术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱。右乳未见明确异常。左侧锁骨上间隙较模糊。左肺门示短径约0.6CM淋巴结。右侧腋窝、双侧内乳区、右肺门及纵隔未见明确肿大淋巴结。左肺示少许斑片影。右肺未见明确异常密度灶。肝脏密度减低，内见囊性密度灶，边界较清，直径约2.0CM。另肝内示斑片状低密度灶，强化不著，边界欠清。胆囊、胰腺、脾、双侧肾上腺及左肾未见明确异常。右肾见短径不足0.5CM的小低密度灶。腹腔内肝胃韧带区、腹膜后腹主动脉周围见小淋巴结，大者短径约0.6CM。网膜及肠系膜、盆腹膜示增厚，局部呈斑片状及结节状改变，部分与邻近肠管分界不清，增强呈不均匀强化。腹腔内可见液性密度影。卵巢术后，术区结构紊乱，周围间隙模糊，可见片状低密度影，与周围结构分界不清。宫颈体积增大，密度欠均匀。膀胱充盈可，壁略增厚。盆腔内未见明确肿大淋巴结。多发胸腰骶椎椎体及附件、双侧部分肋骨、双侧髋骨示骨质密度增高，局部可见结节状高密度影。双侧肱骨、股骨及左侧肩胛骨密度欠均。	</t>
-  </si>
-  <si>
-    <t>左肺癌并左肺多发、左胸膜、叶间裂及心包转移，较2011-02-21片进展，请结合临床。左下肺见不规则形软组织密度影，部分病灶相互融合，最大截面约7.30CM×5.50CM，CT值约49HU，左肺下叶支气管变窄，远端截断，左肺内可见多发大小不等类圆形高密度影；纵隔内可见稍增大的淋巴结影；左侧胸膜及叶间裂明显增厚，可见条形及结节样软组织密度影，左侧心隔角区可见多发结节影。</t>
-  </si>
-  <si>
-    <t>双乳呈脂肪型。左乳外上象限可见结节样密度增高影，大小约1.5CM×1.7CM影，其密度中等，边缘分叶，模糊，未见恶性钙化征象。同侧乳头无凹陷。皮肤无增厚。右乳未见异常。左侧腋窝见肿大淋巴结影，直径约2.0CM。右腋下示稍大淋巴结影，内可见脂肪密度影。	1.\T结合临床，左乳CA并作出腋窝淋巴结转移(BI-RADS5)2.\T右乳未见异常。</t>
-  </si>
-  <si>
-    <t>右乳术后，腋窝、双侧内乳区、双肺门及纵隔未见明确肿大淋巴结。右肺下叶、左肺下叶见两个类磨玻璃密度影，边界尚清，大者直径约0.4CM。左侧叶间胸膜见一类结节灶，直径约0.3CM。扫描野内胆囊内见一小结节灶，直径约0.3CM。扫描野内骨质未见明显破坏。	1.结合临床，右乳癌并右侧腋窝淋巴结转移术后状态。2.双肺类磨玻璃密度灶，较前变化不著3.左侧叶间胸膜类结节灶，变化不著4.胆囊内结节灶，考虑息肉可能性大，较前变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，卵巢癌并腹膜网膜转移，腹盆腔积液；盆腔小淋巴结3.右乳结节及类结节，乳癌可能，请结合临床4.双肺少许炎症及纤维灶。右乳内上象限见一长径约1.1CM结节灶，边缘不清，密度不均，增强后呈中等不均匀强化；另其内侧局部结构紊乱，呈一类结节状改变，长径约1.0CM，强化较显著，边缘毛糙。双肺见少许斑片索条影。双侧肺门及纵隔、内乳区及腋窝未见肿大淋巴结。双侧附件区见囊实性结节，大者截面3.3CM×2.1CM，增强后实性成分可见中等强化，边缘不清。宫腔见液性密度影，宫颈见小囊性结节，未见强化。盆腔见短径不足0.5CM小淋巴结。腹膜、网膜及肠系膜增厚，增强后可见强化；腹盆腔见液性密度影。膀胱充盈良好，壁未见增厚。	</t>
-  </si>
-  <si>
-    <t>右肺上叶尖段可见软组织密度影，最大截面约0.9CM×1.0CM(纵隔窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。肝脏形态、大小可，左叶局限性灌注不均。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示：双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏，以成骨性为主，部分肋骨形态欠规则，略呈膨胀性改变。	1.结合临床，右肺上叶癌侵及脏层胸膜治疗后，较前(2016-12-12)基本变化不著；多发骨转移，变化不著2.右乳腺体局部密度增高，变化不著；肝左叶低密度影，变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺上叶癌侵及脏层胸膜并双侧锁骨上区、右肺门及纵隔淋巴结转移，骨转移，较前变化不著2.双肺微小结节及双侧肾上腺饱满，变化不著。右肺上叶尖段可见软组织肿块影，最大截面约1.2CM×1.6CM，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；右肺野可见一类结节灶、左肺上叶，大者直径约0.3CM。双侧锁骨上区、右肺门、纵隔内右侧气管食管沟、气管右前、腔静脉后、血管前、主肺动脉窗区及隆突下可见肿大淋巴结，大者短径约1.2CM。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾形态大小密度未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。骨窗示锁骨、肋骨、椎体可见多发骨质破坏。	</t>
-  </si>
-  <si>
-    <t>右肺下叶支气管局部狭窄截断，周围示软组织密度肿块影，其与右肺门肿大淋巴结、远端不张肺组织分界不清，大小不易测量，增强后呈不均匀明显强化；邻近右肺野示不规则形斑片影，牵拉胸膜；余右肺野散在数个结节灶，大者长径约1.0CM，部分局部牵拉胸膜。气管及余各支气管通畅。右侧气管食管沟、腔静脉后、主肺动脉窗区、主动脉弓旁、隆突下、右侧心膈角区及右肺门示增大淋巴结，大者短径约0.6CM。右侧胸膜增厚，局部呈小结节状，大者直径约0.3CM；右侧胸腔内示弧形液体密度影。心包内示少量液体密度影。右侧乳腺术后缺如，术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区及锁骨上区未见明显肿大淋巴结。肝右叶示颗粒状钙化密度影。胆囊充盈可，壁稍厚并可见强化。胰腺、脾、双肾上腺及扫描范围内双肾未见确切异常。腹腔及腹膜后未见明显肿大淋巴结。左侧大脑内示多发结节、肿块影，大者截面约4.2CM×3.1CM，密度不均匀，周围示大片无强化的低密度水肿带，邻近侧脑室局部略示受压变形，增强后病灶呈环形明显强化。中线结构略右偏。双侧上颌窦内示液体密度影。骨窗：胸骨柄右侧、胸骨下段及右侧第12肋局部骨质密度不均匀增高。	1.结合临床，右侧中心型肺癌并阻塞性肺不张较前2014-8-18变化不著，右肺门及纵隔淋巴结转移，右胸膜转移，骨转移，较前变化不著；脑转移较前略好转2.右侧胸腔积液、心包积液3.右肺结节，建议观察4.右侧乳腺术后改变5.肝内钙化灶6.胆囊炎7.双上颌窦炎。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌较前(2016-3-9)变化不著；双肺转移较前大部分变化不著，少部分较前增大，少部分缩小；肝转移、纵隔淋巴结转移较前变化不著；右侧内乳区饱满，变化不著；原脑转移瘤显示不清2.左胸膜局限性增厚，局部钙化，变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影，约6.8CM×5.3CM，边缘分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结，大者短径约0.6CM。右侧内乳区显示饱满。纵隔内心包右旁、气管隆突下及左侧下肺静脉旁及下段食管旁见肿大淋巴结影，大者短径约1.0CM。双肺野散在分布大小不等结节灶，大者直径约1.5CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。肝实质内见多个低密度灶，大者直径约0.3CM，边缘尚清晰，增强扫描边缘强化显著。胆囊充盈可，壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内未见异常密度影，脑沟、脑池未见增宽或狭窄，脑室大小、形态，位置正常，中线结构居中。增强：脑实质未见异常强化，脑沟、脑池、脑室内未见异常。	</t>
-  </si>
-  <si>
-    <t>左乳外上象限可见一软组织肿块影，最大截面约1.1CM×1.6CM，边缘浅分叶毛糙，增强扫描持续性强化，余左乳可见多发结节状片状强化灶。右乳未见异常。左侧腋窝、胸肌后方可见多发稍淋巴结，大者短径约0.6CM。双肺野清晰，肺内未见实质性病变。双肺门及纵隔内未见肿大淋巴结。脑实质密度均质，其内未见异常密度灶，增强扫描未见异常强化。诸脑室池未见扩张，中线结构居中。	1.左乳占位，考虑乳腺癌并左侧腋窝、胸肌后方淋巴结转移2.颅脑扫描未见异常。</t>
-  </si>
-  <si>
-    <t>右肺下叶可见不规则软组织密度影，与右肺门分界不清，边缘毛糙，分叶状，长径约为1.6CM×1.5CM，右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影，部分边缘毛糙；纵隔内未见增大淋巴结影。心包内见少许液性密度影。甲状腺增大。1.考虑右肺下叶肺癌，并双肺、右胸膜多发转移；较前CT(2016-01-05)右肺下叶肿块影略小，余较前片相仿。2.心包积液；3.甲状腺大；请结合临床。</t>
-  </si>
-  <si>
-    <t>右乳术后缺如，部分胸肌尚存，术区未见异常强化灶。右侧腋窝结构紊乱，局部示一囊性密度灶，直径约2.4CM，可见环形强化。左乳及左侧腋窝未见异常。双肺野示多发结节灶，边缘较清，大者直径约0.3CM。右肺上叶及左肺下叶可见条索状密度增高影。双肺门及纵隔未见增大淋巴结。肝实质内示数个低密度灶，边缘较模糊，可见轻度强化，大者直径约0.8CM。胆囊充盈可，壁不厚。胰、脾、双肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。膀胱充盈可，壁不厚。子宫及双侧附件未见异常。子宫及直肠陷窝区可见少量液性密度影。盆腔内未见肿大淋巴结。鼻咽、口咽及喉形态可，诸壁不厚。甲状腺形态大小密度可。双颈部肌间隙清晰，未见肿大淋巴结。骨窗示：部分胸腰椎及附件、部分肋骨、骶椎、右侧髂骨、双侧坐骨可见成骨性骨质破坏。	1.结合临床，右乳癌术后改变，双肺转移，较前2014-4-15略好转；肝转移，部分较前好转，部分变化不著；多发骨转移2.右侧腋窝囊性密度灶，较前变化不著3.部分胸腰椎及附件骨质密度增高，请结合其他检查4.盆腔少量积液5.颈部扫描未见异常。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.左肺下叶癌，左肺门、纵隔淋巴结转移，较前2016-07-15范围基本变化不著，肿块内囊性坏死区较前增多，考虑略好转，请结合临床；淋巴结较前部分略增大，大部分变化不著2.双肺炎症，较前进展；双肺气肿3.左锁上淋巴结略大4.原片所示肝内低密度灶显示不清，建议观察5.左肾小囊肿。左肺下叶可见一不规则肿块，截面约7.2CM×7.0CM，边缘分叶，与胸膜关系密切，周围示斑片及絮状密度增高影，增强扫描病变呈较显著不均匀强化，其内见较多低密度坏死囊变区。双肺野见较多片状高密度影。余双肺多发泡状过度透光灶。左肺门及纵隔多发肿大淋巴结，大者短径约3.6CM。左锁上淋巴结略大，短径约0.6CM。肝实质密度均匀，未见异常密度灶。胆囊充盈可，壁略厚。胰脾肾上腺及右肾未见异常。左肾见囊性小结节灶。腹腔腹膜后未见明显肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t>1.结合临床，左乳癌术后，术区小片影，较前(2016-4-5)范围略缩小；宫颈转移治疗后，变化不著；骨转移，较前胸椎周围软组织密度增厚，余基本变化不著2.左肺下叶类结节灶，变化不著；左肺纤维灶3.考虑子宫肌瘤，变化不著4.双侧附件略饱满，变化不著5.双侧腋窝、左锁上、腹腔、腹膜后及盆腔小淋巴结，较前基本变化不著6.双侧坐骨局限性骨质密度减低，右侧部分肋骨骨折，均变化不著左乳外侧局部结构紊乱，局部可见小斑片状强化影。左肺下叶见索条影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝、胸肌间及左锁上见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。左侧肾上腺饱满，肝、胆、胰、脾、右侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见大者短径约0.5CM小淋巴结。宫颈体积稍大，强化不均。宫体体积不规则增大，见多发软组织密度灶，增强后呈不均匀强化。双侧附件饱满。膀胱充盈良好，壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎骨及胸骨密度不均，部分周围示软组织密度影，以胸椎周围为著，与邻近结构分界不清。双侧坐骨局限性骨质密度减低。右侧部分肋骨骨质中断。</t>
-  </si>
-  <si>
-    <t>肝脏大小形态可，实质内示低密度影，边界清晰，增强扫描未见强化，直径不足0.5CM。另肝左叶(2-51)动脉期见一长径约0.7CM强化结节，延迟呈等密度。胆囊不大，壁不厚。胰腺、双侧肾脏、双侧肾上腺及脾未见异常。腹腔及腹膜后未见肿大淋巴结。右乳术后，术区结构紊乱，胸肌存在，壁未见增厚及异常强化。右侧腋窝结构紊乱。左侧腋窝、双侧内乳区、肺门及纵隔未见增大淋巴结。左肺见小类结节，直径不足0.5CM。右肺见少许索条影。双侧胸膜未见增厚。双侧胸腔未见积液征象。鼻咽、口咽、喉及下咽未见异常。双颈见大者短径约0.9CM稍大淋巴结。双侧颈部未见增大淋巴结。椎体(4-51、6-36)局部密度增高。	1.结合临床，右乳癌术后；部分椎体密度增高，考虑转移，请结合ECT2.肝囊肿3.左肺类结节，建议观察；右肺少许纤维灶4.肝内强化灶，考虑血管瘤，建议观察5.双颈部淋巴结稍大。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳内上象限结节灶，考虑右乳癌并右腋窝淋巴结转移2.颅脑扫描未见明确异常。右乳内上象限可见一不规则软组织密度灶，截面大小约1.3CM×1.2CM，边缘模糊可见浅分叶，并可见少许毛刺；增强后肿块呈较显著强化。右侧腋窝可见肿大淋巴结，大者短径约1.0CM，可见较显著强化。左乳未见异常。左腋窝及双侧内乳区未见明显肿大淋巴结。双侧肺野较清晰，肺野内未见实性占位。双肺门及纵隔内未见明显肿大淋巴结。双侧胸腔未见积液。扫描野内骨质未见明显破坏征象。脑实质密度正常，未见明显异常密度灶。脑室、池无扩张，脑沟、裂无增深，中线结构居中。颅骨诸骨质未见破坏。	</t>
-  </si>
-  <si>
-    <t>结合病史，右乳癌累及右侧乳头、右腋窝淋巴结转移治疗后，较前(2014-06-19)MR片示好转。右乳头后方见一不规则异常信号影，边缘分叶、毛糙，局部累及右乳头致其凹陷，邻近皮肤略示增厚，表现为T1WI低信号，T2WI高信号，T2压脂序列高信号，DWI呈高信号，增强扫描可见显著强化，大小约1.5CM×1.7CM×2.0CM，时间-信号强度曲线为平台型。左乳增强前后未见异常。所扫双侧腋窝未见明显肿大淋巴结。余未见异常。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌治疗后，较前片2016-03-03略饱满；双肺类结节灶治疗后，变化不著；右肺门、纵隔淋巴结转移治疗后，较前变化不著。2.右肺下叶炎症、纤维灶，变化不著。3.右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影，变化不著。6.颅脑扫描未见明确异常。右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。余双肺可见小类结节灶，边缘模糊，大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径不足1.0CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝实质密度欠均匀，其内见一斑点状钙化灶。胆囊充盈可，壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶，大者短径约0.6CM。T12右侧椎弓根示斑片状密度增高影。脑实质密度均质，未见明确异常密度灶。脑室、池未见扩张，中线结构居中。	</t>
-  </si>
-  <si>
-    <t>左肺下叶支气管截断，局部可见软组织密度影，与远端不张肺组织及肺门、纵隔淋巴结分界不清。余双侧肺野内可见小结节灶及多发囊泡状过度充气区。纵隔内气管周围、腔静脉后气管前间隙、主肺动脉窗区、隆突下、双肺门示多发增大淋巴结，部分融合成团，与周围结构分界不清，大小不易测量。心包及左侧胸腔示液性密度影。扫描野左肾上腺可见软组织密度影，长径约5.2CM，轻度强化。肝内示多发小斑片状低密度影，强化不著，边界不清。左肾示片状低密度灶。左侧第4肋形态欠规则。	1.结合临床，左肺癌并阻塞性肺不张，较前(2016-2-14)进展；双肺门、纵隔淋巴结转移，较前增大；左肾上腺转移，较前增大2.双肺结节灶，建议观察；双肺气肿3.心包及左侧胸腔少量积液4.肝及左肾低密度灶，建议观察5.左侧第4肋骨折，变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后，右侧胸壁局部斑片形轻度代谢，考虑术后改变。2.肝转移瘤治疗后仅肝左外叶病灶略高代谢。多发骨转移治疗后呈成骨性改变，未见确切异常代谢；原肺转移治疗后病变消失。3.双侧锁骨上小淋巴结，未见高代谢；纵隔7区略高代谢淋巴结，余纵隔淋巴结未见异常代谢；右上臂局部未见异常代谢；请结合既往影像学资料。4.肝内钙化灶。5.子宫肌瘤。6.左侧上颌窦粘膜囊肿。静脉注射示踪剂FDG后60MMIN行PET/CT显像。PET/CT图像示右侧乳腺癌术后缺如，右侧胸壁局部脂肪密度增高，局部斑片状轻度放射性摄取增高，最高SUV2.3，余右侧胸壁未见显著增厚及明显异常放射性摄取。右侧腋窝脂肪密度增高，结构略紊乱，未见明显确切异常放射性摄取增高的淋巴结。左侧腋窝淋巴结未见显著增大及明显异常放射性摄取。右上臂皮下局部脂肪组织轻度斑片状放射性摄取增高，最高SUV1.2，考虑术后改变，余右上臂软组织未见明显异常放射性摄取。部分胸骨、右侧肩胛骨、左侧第7肋骨、右侧第8肋骨、T2、T5、T6、T7、T9椎体、双侧髂骨、部分骶骨、右侧髋臼、左侧股骨上段多发骨质局部密度增高，未见明显确切异常放射性摄取。肝左叶示一结节灶，长径约1.1CM，轻度放射性摄取增高，最高SUV4.1，延迟扫描为2.6。视野内多发胸腰椎、骨盆诸骨、双侧肱骨上段、双侧股骨上段多发骨髓轻度放射性摄取增高，最高SUV3.2，考虑反应性改变。双肺示少许斑片影或条索影，双肺未见明显异常放射性摄取结节灶。双肺门淋巴结未见明显肿大及明显异常放射性摄取。纵隔7区示放射性摄取略增高的淋巴结，短径约0.6CM，最高SUV2.9。气管居中。右侧胸膜局部增厚。大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深。小脑显影如常，两侧小脑对称。左侧上颌窦示类圆形囊性密度灶，边缘清晰。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。左侧上颌窦内见1.0CM囊性密度灶。双侧锁骨上区示小淋巴结，大者短径约0.7CM，未见明显异常放射性摄取。胃壁未示显著增厚，局部环形放射性摄取增高，最高SUV4.4。余肝内未见确切异常放射性摄取增高灶。肝右叶示结节状钙化，长径约0.9CM，边缘清晰。胆囊大小正常，密度均匀。胰腺形态放射性分布尚好。脾轻度显影，放射性分布欠均匀。两侧肾脏显影可，肾实质密度均匀。两侧肾上腺显影大致正常。腹部见条索状肠影。盆腔内膀胱放射性浓聚如常。两侧腹股沟无异常淋巴结显示。子宫体积增大，局部向前凸出形成较大结节，无异常放射性浓聚。两侧附件区未见异常放射性摄取。	</t>
-  </si>
-  <si>
-    <t>左乳术后，术区胸肌存在，壁未见增厚及异常强化。左侧腋窝结构紊乱。右乳未见异常。右腋窝及前纵隔胸腺区、隆突下示数个增大淋巴结，大者位于右侧，短径约0.8CM。余纵隔内见数个小淋巴结，直径不足0.5CM。双侧内乳区、双侧腋窝、双侧肺门未见增大淋巴结。双肺散在小结节灶，大者直径约1.1CM，部分为磨玻璃密度。双肺见少许索条或斑片状密度增高影，部分位于胸膜下。双侧胸膜轻度增厚。双侧胸腔未见积液征象。肝内见小囊性低密度结节灶，大者直径不足1.0CM。胆胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。脑实质未见异常。右侧上颌窦内示液体密度影。骨窗示：T10椎体前缘可见斑片状高密度影。	1.结合临床，左乳癌术后；右腋窝淋巴结肿大，不除外转移；纵隔淋巴结肿大；右肺结节灶，考虑转移；余双肺野类结节影，较前(2015-08-04)片变化不著2.双肺炎症及纤维灶，变化不著3.双侧胸膜轻度增厚4.肝内低密度灶，考虑囊，变化不著5.T10椎体前缘成骨性骨质改变，变化不著。</t>
-  </si>
-  <si>
-    <t>右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。右肺见小类结节灶，边缘模糊，直径不足0.5CM。左肺野清晰。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径不足1.0CM，部分增强后强化显著。右侧胸膜略增厚。肝内强化不均质，肝右叶见一斑点状钙化灶。胆胰脾肾上腺及双肾未见异常。肝胃韧带区见短径不足0.5CM小淋巴结。脑实质密度均匀。T12右侧椎弓根示斑片状密度增高影。	1.结合临床，右肺癌并右肺下叶炎症，较前片2016-6-21基本变化不著；右肺类结节，变化不著；右肺门、纵隔淋巴结转移治疗后，较前变化不著。2.右侧胸膜略增厚，变化不著3.肝内钙化灶。4.T12右侧椎弓根密度增高影，变化不著。5.颅脑扫描未见明显异常。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.左肺上叶癌，左侧胸膜转移，左肺门、纵隔淋巴结转移，骨转移：较前(2016-8-25)均好转2.左侧胸腔积液，较前减少3.前纵隔占位，不除外胸腺囊肿，变化不著；另胸壁后心包前低密度灶，请结合临床。左肺上叶示一不规则软组织密度灶，大小约1.3CM×1.8CM，边缘分叶，可见强化。左侧胸膜及叶间胸膜示多发结节灶，可见强化。左侧胸腔示液体密度影。左肺门、纵隔内示数个肿大淋巴结，大者短径约0.9CM。前纵隔胸腺区示类囊性密度灶，短径约2.0CM，边界清，无强化。另胸壁后心包前见团片状低密度影。左侧第七后肋呈溶骨性骨质破坏，局部形成软组织密度肿块。	</t>
-  </si>
-  <si>
-    <t>右乳术后缺如，术区胸壁未见明显增厚。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门未见肿大淋巴结。左侧内乳区、纵隔内及右侧心膈角区见略肿大淋巴结，大者短径约0.8CM。右肺中叶见一结节灶(图4-25)，直径约0.3CM，密度较低。右侧胸膜显示不均匀增厚。肝实质密度不均匀性减低，实质内可见散在多发低密度灶，边缘较模糊，大者直径约1.7CM，轻度强化。另肝内可见结节状钙化灶。胆囊未见显示。双肾门朝向前方。胰腺、脾、双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。鼻咽、口咽及喉形态可，诸壁不厚。双侧副鼻窦充气良好。甲状腺双侧叶形态大小密度可。双颈部肌间隙清晰，未见明显肿大淋巴结。胸骨、右侧部分肋骨及部分胸椎示成骨性骨质破坏。1.结合临床，右乳癌术后改变，肝脏多发转移；多发骨转移；左侧内乳区、纵隔及右侧心膈角区淋巴结肿大2.右肺中叶结节灶，较前2016-2-24变化不著3.右侧胸膜增厚，建议观察4.肝内钙化灶5.胆囊未见显示，请结合临床6.颈部扫描未见明显异常</t>
-  </si>
-  <si>
-    <t>直肠术后，术区示高密度吻合器影，壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低，内示小囊性密度灶。双肾内示低密度灶，边缘模糊，另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.7CM(纵隔窗)，内示空洞影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	1.结合临床，直肠癌术后；双肺转移，较前(2016-10-24)片基本稳定2.双肾低密度灶，基本变化不著，建议观察；双肾囊肿3.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著5.脂肪肝；考虑肝囊肿。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左乳术后；右乳近皮下扁平占位，考虑乳癌累及皮肤，建议进一步检查2.双肺结节灶，考虑转移，建议结合前片3.肝内低密度灶，建议进一步检查4.右侧内乳区小淋巴结5.颈部扫描未见明确异常6.T12椎体血管瘤。左乳术后缺如，术区结构紊乱，周围脂肪间隙模糊，部分胸肌尚存，术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱，可见短径约0.5CM的小淋巴结。右乳近皮下见一较扁平结节灶，边缘模糊，与邻近增厚皮肤分界不清，长径约2.5CM；增强扫描呈不均匀强化。右乳局部皮肤示凹陷。右侧内乳区见短径不足0.5CM的小淋巴结。双肺门及纵隔未见明确肿大淋巴结。双肺野内见多发结节灶，部分呈磨玻璃密度，边界较清，大者直径约0.5CM。肝脏大小、形态可，肝右叶实质内见一低密度灶，边界欠清，直径约0.5CM。胆囊充盈可，壁略厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。T12椎体内示低密度影，边界较清晰，其内可见粗颗粒状高密度影。扫描野内鼻咽、口咽、喉形态可，壁不厚。双颈部未见明确肿大淋巴结。甲状腺双侧叶未见明确异常密度灶。	</t>
-  </si>
-  <si>
-    <t>左肺术后，术区结构紊乱，可见片状密度增高影。右肺下叶近胸膜下可见多发结节灶，大者直径约0.7CM。右肺上叶及中叶见少许斑片条索状密度增高影，部分内见钙化灶。右肺中叶胸膜下见结节灶，部分内见钙化灶，大者直径约0.4CM。双侧胸膜未见增厚，双侧胸腔未见积液征象。双肺门、纵隔未见肿大淋巴结。直肠术后，吻合口壁未见增厚及异常强化征象。膀胱充盈可，壁不厚。子宫及附件区未见异常。盆腔内未见肿大淋巴结。盆腔内未见积液征象。肝脏形态、大小可，胆囊窝周围可见片状略低密度区，边界不清，余肝实质密度减低。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。	1.结合临床，直肠癌术后2.左肺术后改变，右肺新发结节灶，考虑转移3.右肺结节灶及钙化，较前变化不著4.肝近胆囊窝区低密度区，不除外不均质性脂肪肝，建议观察；脂肪肝。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合右乳癌术后病史，左顶叶转移。2.右上颌窦囊肿。左侧顶叶见一类圆形异常信号影，表现为T1WI中心低、边缘略高信号，T2WI及压水序列为中心高、边缘等信号，DWI为中心低、边缘高信号，增强扫描呈较显著不均匀强化，大小约1.0CM×0.8CM，周围可见斑片状长T2信号影。余脑实质内增强扫描未见异常信号及强化征象。脑室、池、脑沟裂未见异常。中线结构居中，未见移位。右上颌窦可见一长T1长T2信号结节，边界清楚。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合病史，右肺癌术后复发并右肺门、纵隔、右锁上淋巴结转移；双肺转移；腹腔淋巴结肿大，考虑转移，大部变化不著，部分略饱满2.双肺炎症，变化不著；右侧少量胸腔积液，基本变化不著，心包积液；右侧胸膜增厚，变化不著3.左胸壁脂肪瘤，变化不著4.脾实质内低密度灶，变化不著，建议观察5.脂肪肝6.左侧肩胛骨局部骨质稀疏，变化不著。右肺下叶切除术后，右下肺门区见软组织肿块影，截面约2.0CM×4.3CM。双肺内见多发结节灶，大者短径约0.7CM。双肺近纵隔周围见多发斑片状密度增高影，其内可见支气管充气征。右侧胸腔见少量液性密度影，右侧胸膜增厚。右锁上、右肺门、纵隔内2R、4R、7区见多发增大淋巴结，部分融合成团，大者短径约2.5CM。心包腔内见少量液性密度影。肝脏密度减低。腹腔内见多发肿大淋巴结，大者短径约2.0CM。脾实质内见一低密度灶，边缘模糊。左前下胸壁软组织内示梭形脂肪样密度影，边界清。骨窗示：左侧肩胛骨局部骨质结节状稀疏。	</t>
-  </si>
-  <si>
-    <t>右肺上叶术后，术区可见金属吻合钉，右肺野内见多发条索状密度增高影。双肺野内见数个类结节灶(图3-31、41、57、32)，大者直径约0.6CM。双肺内多发过度透光囊泡影，纵隔内可见多发肿大淋巴结影，大者短径不足1.0CM。左肺上叶见一磨玻璃密度灶(图3-25)，直径约0.5CM。右侧胸腔内见液性密度影，右侧胸膜增厚。肝内见数个低密度灶，边界尚清，大者直径约2.1CM，增强扫描动脉期边缘结节状强化，延迟后造影剂向心性充填。另于肝实质内见多发低密度灶，部分边界较清，部分边缘模糊，大者直径约1.0CM。胆囊充盈可，壁增厚并强化。腹腔及腹膜后未见明确肿大淋巴结。部分椎体及其附件可见高密度影，骨质密度增高。	1.结合临床，右肺癌术后改变，右肺炎症及纤维灶；纵隔淋巴结肿大；双肺气肿2.双肺多发结节灶，建议结合前片定性，不除外转移3.右侧胸腔少量积液；右侧胸膜增厚4.肝血管瘤5.肝内多发低密度灶，部分为囊肿，部分建议进一步检查6.胆囊炎7.部分椎体及附件骨质密度增高，建议进一步检查8.左肺上叶膜玻璃密度灶，建议观察。</t>
-  </si>
-  <si>
-    <t>右肺上叶尖段可见一不规则软组织密度影，截面约为1.1CM×0.9CM，病变边缘毛刺，呈分叶状，向内侵及纵隔并与纵隔肿大淋巴结分界欠清，增强后呈不均匀强化。双锁上、纵隔内血管前间隙、气管周围、腔静脉后气管间隙、主肺动脉窗区、隆突下、双肺门可见多发肿大淋巴结，大者短径约为1.1CM。双肺野可见多个大小不一的散在类结节灶，大者直径约为0.5CM。双侧胸腔内未见液性密度影。心包内示少许液体密度影。肝右后叶示一低密度灶(4-60)，边缘模糊，直径约0.3CM。余肝实质内示多个囊性密度影，长径不足0.5CM，肝左内叶实质内可见一长径约为1.2CM的低密度灶，边缘尚清，增强后强化明显，延迟扫描仍有强化。胆囊充盈可，壁略示增厚，内示结节状高密度影。脾、胰腺、双侧肾上腺、双肾未见明显异常。腹膜后腹主动脉周围示多个肿大淋巴结影，大者短径约为0.5CM。骨窗示：L1椎体内示低密度灶，余部分胸腰椎椎体局部骨质密度不均匀，可见类圆形高密度影。	1.结合临床，右肺上叶癌并双肺转移，较前(2014-11-6)好转；双锁上、纵隔、双肺门、腹膜后淋巴结转移，较前好转；肝内低密度灶，较前变化不著2.肝左叶低密度灶，考虑血管瘤，变化不著4.胆囊炎，胆囊结石5.肝囊肿6.少量心包节积液7.L1椎体骨质异常，变化不著；部分胸腰椎骨质密度局部增高；较前变化不著。</t>
-  </si>
-  <si>
-    <t>右肺下叶肺门旁可见一肿块影，最大层面2.70CM×3.75CM，CT值约37HU，增强后三期CT值分别为：50HU、68HU、51HU。右下肺支气管受压变窄，右肺下叶可见斑片状阴影，其内可见支气管充气征，并可见血管影注入。最大层面5.51CM×7.59CM，CT值约37HU，增强后三期CT值分别是：56HU、68HU、84HU。左肺下叶后底段及外底段可见淡片影。双肺可见多发囊状薄壁透亮影，双上肺为著。两肺门区未见异常。纵隔内可见增大的淋巴结，最大层面1.35CM×2.27CM，部分淋巴结钙化。两胸腔无积液征象。心脏大血管未见异常。片示左肾囊肿。肝内多发不强化低密度影。1.右下肺中央型肺癌并下叶阻塞性肺炎，纵隔淋巴结转移；2.左肺下叶后底段及外底段炎症；3.肺气肿、肺大泡；4.片示左肾囊肿，肝囊肿。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合乳癌术后病史，颈胸腰骶椎多发转移。2.腰骶椎退行性变，椎间盘L5/S1膨出。3.胸腰椎T10、L2椎体异常信号，考虑脂肪岛。4.考虑子宫肌瘤。所扫颈胸腰骶椎C7~T3、T7、T10、L1、L3~5及S1椎体及部分附件可见结节状、斑片状或整个椎体骨质信号异常，表现为T1WI、T2WI低信号，压脂序列为高信号。腰骶椎曲度略变直，部分椎体前缘见棘样突起，L3椎体前下缘见片状异常信号影，另胸腰椎T10、L2椎体见结节状T1WI、T2WI高信号影，压脂序列为低信号。椎间盘L5/S1向后膨，相应硬膜囊受压略变形，椎间隙略变窄。扫描野内子宫体积增大，其内见一较大肿块影，截面约3.9CM×3.2CM，表现为T1WI等信号，T2WI、压脂序列为低信号，边界清晰。	</t>
-  </si>
-  <si>
-    <t>1.右下中心型肺癌，右肺及右侧胸膜多个结节考虑转移，较前CT(201.-03-01)病变进展，右侧胸腔积液，较前增多；纵隔淋巴结增大；2.右侧第2、8肋骨成骨性转移，较前相仿；3.右乳钙化结节，详查；4.脂肪肝。双侧胸廓不对称，右侧胸廓塌陷，右肺体积减小，右肺下叶见高密度肿块影，形态不规则，边界不清楚，大小约1.89CM×3.6CM，CT值约29HU；右肺野及右胸膜可见高密度结节影，大小不一；右侧胸腔及右侧叶间裂见液性密度影，部分形成包裹，右侧胸腔可见弧形液性密度影，右侧胸膜不均匀增厚，邻近肺组织部分受压膨胀不全。右肺门区增大的淋巴结。心影略增大，右侧心膈角区多发结节，右侧第2、8肋骨骨质密度不均匀增高，形态不规整，其内可见骨质破坏。右侧乳腺内见一结节影，径约0.9CM，边界清晰，其内见点状钙化。肝实质密度明显减低。</t>
-  </si>
-  <si>
-    <t>右乳上象限局部(图2-35)皮肤增厚，邻近腺体密实。右侧腋窝见增大淋巴结，短径约1.4CM。右肺内见多发大小不一的软组织密度结节，以右上肺为著，大者长径约1.1CM，部分病灶边缘模糊。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。鼻咽、口咽、下咽及喉未见明显异常。甲状腺右侧叶示低密度灶，长径约1.2CM，边界较清晰。左锁上、左颈根部、左颈后三角区示多发淋巴结，大者短径约0.6CM，局部脂肪间隙密度增高。肝脏形态、大小可，密度均质，未见结节及肿块。胆囊不大，壁不厚。胰腺、脾、双肾上腺及扫描野内双肾未见明显异常。腹腔及腹膜后未见确切增大淋巴结。	1.结合病史，右乳癌治疗后改变，请结合前片2.右腋窝淋巴结肿大，考虑转移，请结合前片3.右肺多发结节，考虑转移，请结合前片4.左锁上、左颈根部、左颈后三角区多发淋巴结肿大，请结合前片及临床5.甲状腺右侧叶低密度灶6.上腹部扫描未见明显异常。</t>
-  </si>
-  <si>
-    <t>双肺纹理增强、紊乱，局部支气管壁增厚，边缘模糊。双肺透过度增高，可见多发小圆形透亮影；左肺上叶钙化灶。右肺门略增大，可见少许软组织密度影包绕右肺门区支气管血管束，平扫CT值约43HU，增强扫描呈轻中度强化。支气管管壁增厚，管腔略变窄。主动脉肺窗内见增大的淋巴结，边界模糊，短径约2.5CM，增强扫描呈环形强化，内部有无强化区。所示胆囊体积明显增大，其内可见结节状致密影，径约1.29CM。所示脾脏前端可见小圆形等密度影，增强扫描呈均匀强化。与2015-03-03CT相比：1.右肺中央型肺癌，较前肿块减小，显示欠清，纵隔淋巴结转移，较前相仿；2.慢性支气管炎、肺气肿改变；3.胆囊结石，副脾，均较前相仿，请结合腹部检查。</t>
-  </si>
-  <si>
-    <t>1.右乳癌，肝转移，较前略缩小；多发骨转移，较前骨质密度增高2.纵隔淋巴结略大，变化不著3.双侧胸膜略厚，双侧胸腔及心包积液，较前进展4.双肺炎症5.右侧侧脑室旁片状低密度区，考虑梗塞，建议MR检查右乳示多发软组织密度结节及肿块，部分融合，大者截面约1.4CM×1.9CM，边缘分叶，与皮肤关系密切，增强扫描可见较显著不均匀强化。左乳未见异常。左腋窝及锁上未见明显肿大淋巴结。纵隔内4R/L及7区示多个略增大淋巴结，大者短径约0.7CM。双肺纵隔旁见斑片状密度增高影。双侧胸腔、心包示液体密度影，以右侧为著，双侧胸膜略厚。肝内示多发低密度结节及肿块，大者截面约3.3CM×2.6CM，边缘模糊，增强扫描可见不均匀强化。胆胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。多发胸腰椎、肋骨、双侧肩胛骨及胸骨示骨质破坏。右侧侧脑室旁见片状低密度区，边缘模糊，增强后未见强化，余脑实质未见异常。</t>
-  </si>
-  <si>
-    <t>双肺多发粟粒灶及小结节，右肺下叶可见高密度团块影，呈分叶状，右肺下叶部分支气管闭塞，其内密度均匀，大小约为6.5CM×7.1CM，平扫CT值约为42HU。两肺门区未见异常。所示肺内血管支气管束影稍增多。纵隔内见多发小淋巴结影。右侧胸腔积液征象。部分大血管管壁及冠脉走行区可见致密影。所示左肾上腺结合部可见软组织小结节影。1、右肺下叶肺癌，建议能谱增强详查；2、双肺多发小结节及粟粒灶，转移可能性大；3、右侧胸腔积液；4、所示左肾上腺结合部软组织小结节影，随诊。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后2.左腋窝小淋巴结；纵隔淋巴结略增大3.脂肪肝；肝囊肿；脾内低密度灶，考虑囊肿4.胆囊结石5.考虑多发骨转移，较前进展6.考虑子宫肌瘤。右乳术后缺如，术区未见异常增厚及强化。左乳未见异常。左腋窝示数个小淋巴结，大者短径约0.5CM。右锁骨上区脂肪间隙略示模糊；上纵隔气管右旁及腔静脉后气管前示略大淋巴结，短径约0.7CM。肝脏密度减低。胆囊可见结节状致密影。肝及脾内均示低密度灶，大者直径约1.3CM，边界清，强化不著。双肺野清晰。子宫区见软组织肿块影，边缘清晰，密度均匀，大者直径约3.3CM。盆腔充盈可，壁不厚。盆腔内未见明显肿大淋巴结。左侧肱骨头、左侧部分肋骨、胸腰椎椎体及右侧股骨可见骨质破坏。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，双肺癌术后，左肺门区片状影，考虑复发，较前(2014-9-03)变化不著；纵隔淋巴结转移，大部分较前变化不著，部分为新发；左锁上淋巴结较前变化不著；左肺小叶间隔增厚；双肺转移，较前显著；脾内低密度灶，考虑转移，较前增大2.右肺纤维灶及钙化灶3.左肺炎症，较前明显4.左侧腋窝区皮下类结节灶，较前变化不著5.左侧胸腔少量积液。双肺部分术后，术区结构紊乱，周围脂肪间隙模糊，左肺门区可见金属吻合钉影，并可见片状软组织密度影，截面约5.0CM×4.0CM，包埋左肺动脉残端，增强扫描呈中度不均匀强化，向下延续与左下肺静脉关系密切。右肺可见结节状致密影。左肺野可见多发斑片状密度增高影；右肺下叶胸膜下可见斑片状密度增高影，其内可见线状高密度影。左肺野小叶间隔增厚；双肺野示多发类圆形结节灶，大者直径约0.7CM。右侧胸膜示增厚，局部可见钙化。纵隔内气管食管沟2R/L、7/8区见肿大淋巴结，短径约1.2CM，并可见强化，与肿块分界不清。另于左锁上、纵隔内2R、5区见小淋巴结，大者短径约0.6CM。左侧腋窝皮下可见类结节灶，直径约0.3CM，边缘清晰，增强扫描未见强化。左侧胸腔内示少量液体密度影。肝脏实质密度均匀，大小、形态可。胆囊充盈可，壁不厚。脾实质内示一类圆形低密度灶，直径约1.8CM，边缘模糊，轻度强化.胰、脾、双肾上腺及双肾未见异常，腹腔及腹膜后未见肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t>右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。另右肺下叶小叶间隔增厚。余双肺野可见小类结节灶，边缘模糊，大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径约1.1CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝内见一斑点状钙化灶。胆囊充盈可，壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶，大者短径约0.6CM。T12右侧椎弓根示斑片状密度增高影。	1.结合临床，右肺癌治疗后，较前片2015-3-12示缩小；双肺类结节灶治疗后，部分显示不清，部分变化不著；右肺门、纵隔淋巴结转移治疗后，部分略示缩小，部分变化不著。2.右肺下叶炎症，右肺下叶小叶间隔增厚，变化不著。3.右侧少量胸腔积液，变化不著；右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影，变化不著。</t>
-  </si>
-  <si>
-    <t>左肺上叶见一空洞性病变，边缘分叶、毛糙，上叶支气管部分示截断，截面积约2.1CM×2.0CM；增强扫描呈轻度强化。右肺野内见结节状致密影。双肺内示散在斑片状密度增高影。左侧胸壁见高密度影，局部伪影较大，周围结构显示不清。左肺门及纵隔内血管前间隙见肿大淋巴结，大者短径约0.9CM。双侧胸膜示不均匀增厚并强化，双侧胸腔内见液性密度影。肝实质内见多发低密度灶，大部分边界较清，少许边缘模糊，大者直径约0.5CM。胆囊充盈可，壁增厚。右肾见囊性密度灶，边界清。腹腔及腹膜后未见明确肿大淋巴结。左侧第10、8肋骨示骨质膨胀，骨皮质欠连续，局部骨质密度增高或减低。	1.结合临床，左肺癌并左肺门淋巴结转移治疗后，较前(2016-12-19)考虑基本变化不著；纵隔淋巴结肿大，较前略增大2.双肺炎症及部分膨胀不全，部分较前好转，右肺钙化灶3.肝内多发低密度灶，部分为囊肿，部分建议观察，变化不著4.右肾囊肿5.部分肋骨骨质异常，考虑转移，较前变化不著6.双侧胸腔积液，右侧略减少，左侧变化不著。</t>
-  </si>
-  <si>
-    <t>右侧小脑半球、右侧颞叶、顶叶及左额叶、顶叶、颞叶见多发结节样异常信号影，表现为T1WI低信号，T2WI及压水序列高信号，DWI序列呈等、高信号，增强扫描呈结节样或环形强化，大着直径约1.6CM位于左顶叶，部分病灶周围脑实质内见长T2水肿带。脑室、脑池未见扩张，中线结构居中。余未见异常。	结合右肺癌病史，符合脑多发转移瘤MR表现。</t>
-  </si>
-  <si>
-    <t>右顶叶上矢状窦右旁见一类圆形异常信号，表现为T1WI等信号，T2WI略高信号，压水像及DWI为等信号，增强扫描可见明显强化，大小约0.3CM×0.3CM，于冠状位可见结节与脑膜关系密切，周围未见明显水肿带。余脑实质增强前后未见异常信号。脑室系统无扩张。中线结构居中。腰椎生理弯曲略变直，部分椎体前缘见棘样突起，腰椎L1~3椎体可见结节状或斑片状长T1短T2信号，压脂序列呈低、高信号，边缘模糊。所扫腰骶椎椎管内未见异常占位性病灶。	1.结合乳癌病史，右顶叶转移瘤，较本院(2016-07-26)MR片好转；腰椎L1~3转移，较前进展。2.腰椎退行性变。</t>
-  </si>
-  <si>
-    <t>1.右肺下叶不规则结节；2.双肺散在炎症，右肺为著，右肺间质纤维化；3.双肺上叶陈旧性病变；4.两侧肩胛骨、锁骨、左侧肱骨头、胸骨、部分胸椎及双侧多发肋骨多发转移；5.降主动脉管壁钙化。双肺纹理增强，右肺小叶间隔增厚、紊乱；双肺内见多发斑片状模糊高密度影，以右肺为著。右肺下叶后基底段可见一结节样高密度影，病变大小约为1.2CM×0.9CM，CT值约为22HU。双肺上叶见结节状及索条状高密度影。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。双侧胸膜增厚；两胸腔无积液征象。心脏不大，降主动脉管壁见钙化影。两侧肩胛骨、锁骨、左侧肱骨头、胸骨、部分胸椎及双侧多发肋骨见斑片状高密度影。</t>
-  </si>
-  <si>
-    <t>左肺上叶可见一不规则软组织密度灶，约2.6CM×3.7CM，增强扫描呈明显不均匀强化，其边缘呈浅分叶，双肺野内散在多发结节灶，大者直径约0.6CM，纵隔内4R、7区示多发肿大淋巴结，大者短径约1.0CM。T6椎体右侧椎弓根及右侧第6后肋可见局限性骨质密度增高影。	1.左肺上叶癌累及胸膜并双肺多发转移2.纵隔淋巴结肿大3.T6椎体右侧椎弓根及右侧第6后肋局限性骨质密度增高，请结合其他检查。</t>
-  </si>
-  <si>
-    <t>右乳术后，术区壁未见增厚及异常强化。纵隔内右上气管、血管前间隙、隆突下、食管旁见增大淋巴结，大者短径约0.8CM。双锁骨上及左侧腋窝示小淋巴结，大者短径不足0.5CM。右侧腋窝未见增大淋巴结。双肺见多发小斑片影及类结节灶，大者长径约1.0CM，部分与邻近胸膜分界不清。余双肺内示条片密度增高影，局部牵拉邻近胸膜。双侧胸膜略增厚，左侧胸膜见少许斑点状钙化灶。双侧胸腔未见积液征象。肝脏体积略缩小，内见多发结节灶，融合成团，大小不易测量，增强后呈不均匀强化。门脉左支充盈欠佳。腹腔内贲门旁、肝胃韧带区、肝十二指肠韧带区、腹膜后腹主动脉旁见多发增大淋巴结，大者短径约0.8CM，部分与胰腺分界欠清。膈上后组见短径不足0.5CM小淋巴结。胆囊充盈不良，壁增厚并见强化。左肾示囊性低密度灶，大者长径约0.7CM，部分边界欠清。脾、双侧肾上腺及右肾未见异常。腹腔内示液性密度影。大网膜、腹膜、肠系膜略增厚。胸骨、右侧肱骨、肋骨、胸腰椎示多发溶骨性骨质破坏，局部形成软组织肿块。	1.结合临床，右乳癌术后；纵隔淋巴结肿大，较前(2015-2-24)好转，腹腔及腹膜后淋巴结肿大，部分好转，部分变化不著；双肺转移，较前好转；肝多发转移，大部分较前缩小，部分变化不著；骨多发转移伴局部软组织肿块形成，较前部分成骨性成分增多，部分软组织肿块减小，余变化不著。2.胆囊炎；考虑左肾囊肿。3.腹膜、网膜、肠系膜略增厚，少量腹水，变化不著。4.门脉左支充盈欠佳，请结合其他检查。5.考虑双肺炎症，双侧胸膜略增厚并左侧胸膜钙化灶。</t>
-  </si>
-  <si>
-    <t>左侧乳腺可见弥漫分布的结节样、小片状异常信号区，表现为T1WI等信号，T2WI略高信号，压脂序列高信号，DWI序列高信号，注射对比剂GD-DTPA后呈环形强化，动态增强曲线呈平台型，大者约19MM×10MM，部分病变与胸壁间可见条索相连，左乳皮肤增厚，乳头凹陷。右侧乳腺可见数个强化小结节。所扫左侧腋窝结构紊乱，可见数个大小不等淋巴结，大者直径约10MM。所扫右侧腋窝可见多个小淋巴结。余未见异常。	1.结合临床，左乳癌并左腋窝淋巴结转移，较本院(2014-09-04)MR片好转。2.右乳多发结节灶，考虑良性病变(BI-RADSIII级)，建议观察。</t>
-  </si>
-  <si>
-    <t>左上中央型肺癌，纵隔及左肺门淋巴结转移不除外，较2015-11-17CT病变稍增大，请结合临床。左上肺门处可见肿块影，分叶状，大小为4.4CM×2.8CM，形状不规则，边缘清，与肺动脉分界不清，CT值为34HU，增强扫描三期CT值分别为73、61、63HU，均匀中度强化，包绕左肺动脉，左肺上叶舌段支气管稍狭窄，纵隔及左肺门可见多发肿大淋巴结，大者短径为1.2CM。两胸腔无积液征象。心脏大血管未见异常。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合乳癌病史，左小脑半球转移瘤，及左枕骨转移灶；2.双上颌窦炎。左侧小脑半球示一结节灶，截面约3.2CM×2.6CM，边缘较清，呈等T1等T2信号，T2-FLAIR呈等高混杂信号，增强扫描呈明显不均匀强化；病变周围示片状长T2水肿带；第四脑室受压右移，中线结构局部右移。左枕骨示斑片状等T1等T2信号，T2-FLAIR呈低信号，增强扫描呈明显不均匀强化。扫描野内双侧上颌窦内示液性信号影。	</t>
-  </si>
-  <si>
-    <t>1.结合临床，右乳癌术后改变，术区胸壁强化欠均质，请结合其他检查；骨转移，较前(2015-10-14)变化不著；左锁骨上淋巴结转移治疗后，较前好转2.右肺中叶结节灶，变化不著；左肺尖区类结节灶，建议观察3.脂肪肝，肝内钙化灶；肝内低密度灶，考虑囊肿，建议观察4.胆囊结石右乳术后缺如，术区胸壁局部强化欠均质(如5-20)。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧锁骨上、左侧内乳区见小淋巴结，短径不足0.5CM。右肺中叶见一结节灶(图3-29)，直径约0.3CM，密度较低。左肺尖区示类结节灶。膈上示稍大淋巴结。肝实质密度不均匀性减低，肝内见斑点状钙化灶及囊性密度灶。胆囊充盈可，壁未见增厚，内示泥沙样略高密度影。双肾门朝向前方。胰腺、脾、双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。胸骨及部分胸椎示骨质破坏。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右乳癌术后改变；多发骨转移，较前2016-9-12变化不著2.左肺钙化灶3.右肾囊肿4.腹腔内淋巴结肿大，较前略饱满4.右侧上颌窦炎症5.颅脑扫描未见明显异常。右乳术后缺如，术区皮肤略增厚，可见强化。右侧腋窝斑片状密度增高影，考虑为淋巴结清扫术后改变。左乳及左侧腋窝未见异常。左肺下叶见散小结节灶，直径约0.3CM。双肺门及纵隔内未见肿大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶，边界清晰，未见强化。腹腔内肝胃韧带区见稍大淋巴结，短径约0.8CM。腹膜后未见增大淋巴结。骨窗示：扫描野内多发胸腰骶椎体、胸骨、左侧锁骨、右侧肩胛骨、部分肋骨、左侧肱骨、双侧髂骨、双侧耻骨、坐骨、右侧股骨呈成骨性及溶骨性骨质破坏，局部呈膨胀性改变。脑实质密度正常，未见明显异常密度灶及强化灶。脑室、池无扩张，中线结构居中，颅骨诸骨质未见破坏。右侧上颌窦内见液性密度影。	</t>
-  </si>
-  <si>
-    <t>右肺上叶纵隔旁见一团片状软组织密度影，大小约1.2CM×1.0CM(肺窗)，边缘毛糙，与纵隔胸膜关系密切，增强后病变呈中等强化。另于双肺内见少许斑片状密度增高影。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。心包腔内示少量液性密度影。扫描野双侧肾上腺增大，见软组织密度结节灶，大者约1.3CM×1.7CM，可见强化。脑实质均质，未见异常密度灶。脑室系统未见扩张。中线结构居中。	1.结合病史，右肺上叶癌治疗后，较2015-1-30好转2.双侧肾上腺结节灶，考虑转移，左侧者较前增大3.双肺纤维灶，较前变化不著4.心包少量积液5.颅脑扫描未见异常。</t>
-  </si>
-  <si>
-    <t>左乳外侧见团块状影，边缘不清，内见弥漫细小多形性钙化，增强后呈较显著不均匀强化；同侧乳晕区皮肤略增厚，乳头凹陷。左侧腋窝见大者短径约0.6CM肿大淋巴结，强化较显著。双肺野清晰。扫描野内肝内见大者直径约0.6CM低密度结节，边缘清晰或欠清晰，未见强化。	1.左乳癌并左侧腋窝淋巴结转移2.肝内低密度灶，部分为囊肿，部分囊肿可能，建议观察。</t>
-  </si>
-  <si>
-    <t>右肺上叶尖段可见软组织肿块影，最大截面约0.8CM×1.6CM(肺窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。纵隔、双肺门未见明确肿大淋巴结。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾形态大小密度未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。骨窗示双侧锁骨、左侧肱骨、双侧肩胛骨、胸骨、双侧多发肋骨、多发胸腰骶椎椎体可见多发骨质破坏。	1.结合临床，右肺上叶癌侵及脏层胸膜较前(2016-3-22)变化不著；骨转移较前变化不著2.双侧肾上腺饱满，变化不著。</t>
-  </si>
-  <si>
-    <t>右肺下叶背段脊柱旁可见软组织密度结节灶，大小约1.7CM×1.0CM，边缘毛糙，局部与邻近胸膜关系密切，并可见胸膜牵拉征；增强后结节呈中度不均匀强化。右肺下叶见斑片状及条索状密度增高影。右侧胸膜(含叶间胸膜及纵隔胸膜)示不规则增厚，局部呈条状及结节状，增强扫描可见强化。左侧叶间胸膜见多发结节灶。右侧胸腔内可见少量液性密度影，边缘可见膨胀不全肺组织影。双肺门及纵隔内未见肿大淋巴结。肝脏大小、形态可，动脉期实质内见数个强化结节灶，边界较清，强化较显著，门脉及延迟期部分显示不清。另于肝右叶见一低密度灶(图2-55)，边界清，直径约0.8CM，动脉期中心可见强化，门脉及延迟显示欠清。胆囊充盈可，壁不厚。胰腺、脾及双肾未见明确异常。腹腔、腹膜后未见明确肿大淋巴结。腹腔内未见积液征象。	1.结合临床，右肺癌治疗后，较前(2014-11-12)好转；右侧胸膜转移较前变化不著，右侧胸腔积液伴右肺局限性实变，变化不著2.左侧叶间胸膜结节灶，转移不除外，建议观察3.肝内多发强化灶，考虑血管瘤。</t>
-  </si>
-  <si>
-    <t>左乳术后缺如，术区结构紊乱，周围脂肪间隙模糊，部分胸肌尚存，术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱。右乳未见明确异常。左侧锁骨上间隙较模糊。左肺门示短径约0.6CM淋巴结。右侧腋窝、双侧内乳区、右肺门及纵隔未见明确肿大淋巴结。左肺示少许斑片影。右肺未见明确异常密度灶。肝脏密度减低，内见囊性密度灶，边界较清，直径约2.0CM。另肝内示斑片状低密度灶，强化不著，边界欠清。胆囊、胰腺、脾、双侧肾上腺及左肾未见明确异常。右肾见短径不足0.5CM的小低密度灶。腹腔内肝胃韧带区、腹膜后腹主动脉周围见小淋巴结，大者短径约0.6CM。网膜及肠系膜、盆腹膜示增厚，局部呈斑片状及结节状改变，部分与邻近肠管分界不清，增强呈不均匀强化。卵巢术后，术区结构紊乱，周围间隙模糊，可见片状低密度影，与周围结构分界不清。宫颈体积增大，密度欠均匀。膀胱充盈可，壁略增厚。盆腔内未见明确肿大淋巴结。多发胸腰骶椎椎体及附件、双侧部分肋骨、双侧髋骨示骨质密度增高，局部可见结节状高密度影。双侧肱骨、股骨及左侧肩胛骨密度欠均。	1.结合临床，左乳癌术后；卵巢转移术后，术区片状低密度影，较前变化不著2.网膜、肠系膜及盆腹膜转移治疗后，较前变化不著3.脂肪肝；肝囊肿；肝内低密度灶，变化不著4.右肾囊肿5.宫颈体积增大，变化不著6.胸腰骶椎、肋骨、髋骨骨质密度增高，考虑转移，较前变化不著。</t>
-  </si>
-  <si>
-    <t>右肺上叶后段近胸膜处示软组织结节灶，增强扫描明显强化，形态不规则，截面约2.1CM×1.9CM。双肺内示泡状过度透光区。纵隔内气管右旁、腔静脉后间隙、隆突下、右肺门示增大淋巴结，大者短径约1.3CM。右侧胸膜增厚呈结节及肿块状，明显强化。右侧胸腔示液体密度影。肝实质内示数个囊性密度灶，大者短径约0.5CM。胆、胰、脾、双肾上腺、双肾形态、密度未见明显异常。腹腔及腹膜后未见明显增大淋巴结。	1.结合临床，右肺癌，较前(2014-10-7)略似饱满，建议观察；右肺门并纵隔淋巴结转移，较前部分好转，部分变化不著；右侧胸膜转移，较前部分好转，部分变化不著；右侧胸腔积液，较前变化不著2.肝囊肿。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后2.左肺门、纵隔淋巴结转移，较前(2015-9-9)略示进展3.双肺炎症，较前加重；双侧胸膜略增厚，较前进展，双侧胸腔积液4.双肺小结节灶，变化不著5.肝囊肿、钙化灶6.右肾囊肿7.右肾上腺结节灶，考虑腺瘤，变化不著8.甲状腺低密度灶，变化不著。右乳术后，前胸壁软组织略增厚，未见明显异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺门、纵隔内主肺动脉窗区可见肿大淋巴结，直径约1.8CM。右肺门淋巴结略增大，短径约0.8CM。左肺上叶支气管受压狭窄，远端肺野近纵隔旁可见带状密度增高影，另双肺内见斑片状密度增高影，右肺下叶为著。余双肺散在小结节灶，大者直径约0.4CM。双侧胸膜略增厚，双侧胸腔内可见较多液性密度影。甲状腺示斑片状低密度灶。肝内见囊性密度灶及斑片状致密影。胆囊壁增厚。右肾示小囊性密度灶。右肾上腺可见结节灶，直径约0.8CM，密度较低，强化不明显。骨窗示多发胸椎椎体、肋骨骨质略示稀疏。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左肺癌治疗后；左侧胸膜转移及叶裂转移2.左肺慢性炎症及纤维灶3.左侧心包及心膈角区结节影4.肝囊肿以上均较前(2016-08-29)片变化不著。左肺上叶纵隔旁示一不规则软组织密度结节灶，与纵隔内主肺动脉窗区肿大淋巴结分界不清。左肺野内见斑片索条状密度增高影，左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧心包及左侧心膈角区可见多发结节影，大者直径不足1.0CM。肝脏大小形态未见异常，肝实质内可见一小低密度灶，边界清。胆囊、胰腺、脾、双肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌，较前(2016-1-28)进展；阻塞性肺炎，略减轻；纵隔及右肺门淋巴结转移，较前进展；右肺中叶转移结节，，较前增大2.甲状腺低密度灶，考虑结节性甲状腺肿，变化不著3.肝囊肿4.右肺炎症，较前局部好转；双肺气肿5.右侧胸腔积液，较前减少；心包腔积液，略增多6.胆囊炎；胆囊内结节影，考虑小息肉，变化不著7.部分椎体密度不均，较前局部加重，转移可能性大，请结合ECT。右肺水平裂旁见一软组织密度肿块，大小约4.5CM×3.4CM，边缘毛刺、浅分叶，局部牵拉邻近肋胸膜凹陷，病变周围肺野内见少许条索及斑片影，增强扫描病变呈轻度不均匀强化。右肺中叶见一直径约1.8CM结节灶，与上述病变分界不清。右肺野内见多发斑片状及条索状密度增高影。双肺野内见多发囊泡状过度透光区。纵隔及右肺门见肿大淋巴结，大者短径约1.7CM，增强扫描呈不均匀强化。扫描野内甲状腺右侧叶上极见一低密度灶，直径约1.9CM，边界较清晰，增强扫描可见强化，甲状腺被膜完整。心包内及右侧胸腔内见弧形液性密度影。肝实质内见多发囊性密度灶，大者直径约1.8CM，边界清，无强化。胆囊充盈可，壁略厚，其内见结节状高密度影，直径不足0.5CM。胰、双侧肾上腺及双肾未见异常。脾内见一直径不足0.5CM小低密度结节。腹腔及腹膜后未见增大淋巴结。部分椎体密度不均。	</t>
-  </si>
-  <si>
-    <t>1.结合临床，右乳癌术后，纵隔、双肺门淋巴结转移，左肺转移，较前2016-1-26变化不著；左肾上腺转移，较前变化不著；骨转移，较前变化不著2.双肺炎症，部分加重3.心包积液4.肝囊肿右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结，大者直径约0.5CM。左肺野示数个结节灶，大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶，直径约0.9CM。胆、胰、脾及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示溶骨性及混合性骨质破坏。</t>
-  </si>
-  <si>
-    <t>直肠术后，术区示高密度吻合器影，壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低，内示小囊性密度灶。双肾内示低密度灶，边缘模糊，另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.7CM(纵隔窗)，内示空洞影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚，胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	1.结合临床，直肠癌术后；双肺转移，较前(2016-12-8)部分增大，部分变化不著2.双肾低密度灶，基本变化不著，建议观察；双肾囊肿3.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著5.脂肪肝；考虑肝囊肿，变化不著。</t>
-  </si>
-  <si>
-    <t>左乳术后，术区结构紊乱，未见结节及肿块。左侧腋窝结构紊乱。左侧胸肌深面可见软组织密度灶，大者大小约1.3CM×2.0CM，明显不均匀强化。右乳未见异常。左侧内乳区、左侧锁骨上、膈上前组、中组见增大淋巴结，大者短径约0.4CM。双侧肺门及纵隔未见肿大淋巴结。双肺野尚清晰。甲状腺内示低密度灶。扫描野内肝实质内见多发低密度结节及肿块，边缘略模糊，其密度不均。脑组织密度均质，各脑室池系统及中线结构未见异常。部分椎骨及肋骨示溶骨性破坏。	1.结合临床，左乳癌术后改变；左侧胸肌深面转移，较前(2016-7-5)好转；左侧内乳淋巴结肿大；肝转移，较前好转；左侧锁骨上、膈上淋巴结肿大，较前好转；骨转移变化不著2.甲状腺低密度灶，较前变化不著3.颅脑扫描未见异常。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合病史，肝癌伴肝内转移治疗后，部分较2014-10-07片变化不著；肝左内叶近膈顶处病灶较前增大，邻近下腔静脉受压；肝内多发强化结节，部分较前增大2.双肺多发转移，较前进展3.双肺局限性肺气肿，肺大泡；双肺纤维灶4.右侧叶间胸膜结节灶，较前变化不著5.肝小囊肿6.左侧肾上腺饱满，较前变化不著。肝脏体积增大，形态欠规则，实质内见多发混杂密度结节及肿块影，边界欠清，部分可见假包膜形成，大者截面积约12.0CM×11.2CM，部分其内示高密度碘油影沉积；增强扫描呈中度不均匀强化，大者其内可见低密度坏死区，延迟后病灶部分可见廓清。肝左内叶近膈顶处病灶大小约6.5CM×5.3CM，邻近下腔静脉受压变窄。余肝内见数个动脉期较显著强化灶，门脉期和延迟期廓清迅速，大者长径约4.5CM。肝内另见小囊性密度灶，大者长径不足0.5CM，界清，无强化。门脉主干及左支显示尚可，门脉右前支示受压显著变窄，右后支显示欠清。胆囊充盈不佳，壁略厚伴强化。胰腺、脾、双肾及右侧肾上腺未见明确异常。左侧肾上腺略示饱满。腹腔及腹膜后未见确切增大淋巴结。双肺内示多发大小不一的结节灶，大者长径约0.9CM。双肺内胸膜下见多发泡状过度透亮区及条索状密度增高影，局部肺大泡形成。双肺门及纵隔未见确切增大淋巴结。纵隔内冠状动脉见条形钙化。右侧叶间胸膜增厚局部示类结节灶。双侧胸腔未见液性密度影。	</t>
-  </si>
-  <si>
-    <t>右侧乳腺术后，术区胸壁部分胸肌尚存，右侧胸壁近胸骨旁见一较大软组织密度肿块，大小约7.2CM×4.5CM，越过胸壁想胸腔内侵及，相邻胸骨骨质破坏，增强扫描可见明显强化。右侧内乳区及纵隔内见多发肿大淋巴结。左侧乳腺未见异常。左侧腋窝见直径约0.6CM的小淋巴结。双肺野见数个结节灶，大者直径约1.0CM。部分肋骨骨质密度不均。扫描野内右侧颈后三角区见多发肿大淋巴结。	1.结合临床，右侧乳腺癌术后，右侧胸壁复发并累及胸骨；右侧颈部、右侧内乳区、纵隔淋巴结转移2.左侧腋窝淋巴结稍大，建议观察3.双肺结节灶，不除外转移，请结合前片或密切随访4.部分肋骨骨质密度不均，请结合骨扫描除外转移。</t>
-  </si>
-  <si>
-    <t>右乳术后，术区未见增厚及异常强化征象；右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结，短径不足0.5CM。右肺上叶可见团片状密度增高影。另于右肺上叶及中叶见少许条索状密度增高影。左肺下叶见一结节灶，呈磨玻璃密度，直径约0.8CM。左侧肺野较清晰。纵隔内气管前腔静脉后见肿大淋巴结，短径约0.8CM。肝实质内示多发结节灶，边缘欠清，大者直径不足1.0CM。胆胰脾双肾上腺右肾形态、密度未见明显异常。左肾示囊性密度灶，未见强化。腹腔及腹膜后未见明显增大淋巴结。	1.结合临床，右乳癌术后，肺转移微波消融术后改变，范围较前(2016-06-09)基本变化不著；左肺结节灶，考虑转移2.纵隔淋巴结肿大，较前变化不著3.肝内多发低密度灶，考虑转移，基本变化不著4.左肾囊肿。</t>
-  </si>
-  <si>
-    <t>右侧乳腺乳头后方见较多不规则软组织密度肿块影，最大截面约4.7CM×6.7CM，边缘分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见稍大淋巴结，大者短径约0.6CM。右侧内乳区见增大淋巴结，短径约0.5CM。纵隔内左侧下肺静脉旁见短径约0.6CM的淋巴结影。双肺野散在分布大小不等结节灶，大者直径约1.6CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左肺胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。扫描野肝实质内见多个低密度灶，大者直径约1.5CM，边缘清晰，增强扫描边缘强化显著，部分见牛眼征。	1.结合临床，右乳癌治疗后，较前(2015-03-27)好转；双侧腋窝、纵隔淋巴结肿大，较前缩小；右侧内乳区淋巴结肿大；双肺转移，部分较前缩小，部分变化不著；肝转移，较前略缩小2.左肺胸膜局限性增厚，局部钙化，变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌治疗后，较前片2014-10-14变化不著；右肺门、纵隔淋巴结转移，较前变化不著2.右肺下叶炎症，较前略显著；右肺下叶小叶间隔增厚，较前基本变化不著3.双肺多发类结节灶，建议密切观察以除外转移4.右侧少量胸腔积液，较前略减少5.肝内钙化灶6.颅脑扫描未见明显异常。右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。另右肺下叶小叶间隔增厚。余双肺野可见多个类结节灶，部分位于胸膜下，边缘模糊，大者直径约0.5CM。右肺门及纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径约1.1CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。扫描野内肝内见一斑点状钙化灶。脑实质密度均匀。脑室、池无扩张。脑沟、回无增宽。中线结构居中。	</t>
-  </si>
-  <si>
-    <t>直肠术后，术区示高密度吻合器影，壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低，内示小囊性密度灶。双肾内示低密度灶，边缘模糊，另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.6CM(纵隔窗)，内示空洞影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	1.结合临床，直肠癌术后；双肺转移，较前(2016-9-8)部分缩小，部分略饱满，余变化不著2.双肾低密度灶，部分变化不著，部分略缩小，建议观察；双肾囊肿3.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著5.脂肪肝；考虑肝囊肿。</t>
-  </si>
-  <si>
-    <t>1.右肺下叶肺癌，并双肺、右胸膜多发转移；2.右侧胸腔积液，心包积液；3.甲状腺饱满；以上征象较前CT(2015-11-13)相仿。右肺下叶可见不规则稍低密度影，与右肺门分界不清，边缘毛糙，CT值约为38HU，其内密度不均，长径约为1.99CM×1.5CM，邻近肺组织可见模糊影，右肺下叶内基底段支气管截断，右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影，边缘毛糙，大者径约为0.6CM；纵隔内未见增大淋巴结影。右侧胸腔、心包内见少许液性密度影。甲状腺明显肿大。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺上叶癌侵及脏层胸膜治疗后，较前(2017-2-3)基本变化不著；多发骨转移，变化不著2.右乳腺体局部密度增高，变化不著；肝左叶低密度影，变化不著。右肺上叶尖段可见软组织密度影，最大截面约0.9CM×1.0CM(纵隔窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。肝脏形态、大小可，左叶局限性灌注不均。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示：双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏，以成骨性为主，部分肋骨形态欠规则，略呈膨胀性改变。	</t>
-  </si>
-  <si>
-    <t>左肺上叶近纵隔旁见团片状软组织影，最大截面大小约为4.02CM×6.56CM，肿块与纵隔分界不清，平扫CT值约35HU，左肺上叶支气管截断，左主支气管不规则变窄，管腔内可见结节状软组织密度影。右肺上叶后段可见一结节，径约0.5CM；左肺上叶可见大片状影，边缘模糊。右肺下叶可见多发结节状影，大者直径约为0.85CM。双肺纵隔旁及胸膜下见多个条索状及斑片状高密度影。腔静脉间隙、主动脉弓旁、气管隆突上纵隔及左肺门多发结节状软组织影，密度欠均匀，见小斑片状高密度影，部分融合。左侧胸腔少量液体密度影。主动脉壁可见条状钙化。1.左肺上叶肺癌并左肺上叶阻塞性炎症，并左肺门及纵隔淋巴结转移，较前片2013-06-24进展，左主支气管受侵；右肺下叶多发结节，较前新发，密切随诊除外转移可能；2.右肺上叶小结节，与前相仿；3.双肺纵隔旁及胸膜下斑片影，较前未见明显变化；4.左侧胸腔积液。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，考虑左乳癌治疗后较前2016-4-13好转；左侧腋窝软组织影，考虑转移，较前好转；骨转移较前变化不著；考虑双肺转移较前好转2.左侧锁骨上间隙模糊，较前好转。左乳偏外侧象限见多发结节灶，部分边缘模糊、毛糙，大者直径约0.9CM；增强扫描呈较显著不均匀强化。左侧腋窝见软组织密度影，边缘较毛糙，截面积约1.4CM×1.2CM；增强扫描呈不均匀强化。左锁上间隙较模糊，纵隔内左肾见小囊性密度灶。胰腺、脾、双侧肾上腺及右肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。双肺野内见多发结节灶，部分边缘模糊，形态欠规则，大者直径约0.5CM。所扫肝脏大小、形态可，实质密度均质。膀胱壁不厚。子宫及双附件未见明确异常。盆腔内未见明确肿大淋巴结。右侧多发肋骨、左侧髂骨、左侧耻骨及坐骨示溶骨性骨质破坏。	</t>
-  </si>
-  <si>
-    <t>左肺门增大，见肿块影，大小约为4.0CM×4.2CM，CT值约29HU，左肺支气管受压变窄，增强扫描三期CT值约49HU、63HU、65HU。左肺下叶见斑片灶。胸膜未见增厚改变。两胸腔无积液征象。纵隔淋巴结增大，大者短径约2.9CM。右锁骨上淋巴结增大，大者短径约1.9CM。左肺动脉局部显示不清。左室心肌增厚。考虑左肺中央型肺癌伴纵隔及右锁骨上淋巴结转移，左肺动脉受累，左肺下叶阻塞性肺炎或肺不张。</t>
-  </si>
-  <si>
-    <t>右乳示多发软组织密度结节及肿块，部分融合，大者截面约3.7CM×3.2CM，边缘分叶，与皮肤关系密切，增强扫描可见较显著不均匀强化。右腋窝示强化小淋巴结，大者短径约0.5CM。左乳未见异常。左腋窝及锁上未见明显肿大淋巴结。纵隔内4R/L及7区示多个略增大淋巴结，大者短径约0.7CM。双侧胸腔示少量液体密度影，左侧较著，左肺下叶部分受压膨胀不全。余双肺示少许条索影。左侧胸膜略厚。肝内示多发低密度结节及肿块，大者截面约5.8CM×5.1CM，边缘模糊，增强扫描可见不均匀强化。胆胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。脑实质密度均匀。多发胸腰椎、肋骨、左侧肩胛骨及胸骨示骨质破坏。1.右乳癌，肝转移，多发骨转移2.右腋窝小淋巴结；纵隔淋巴结略大3.左侧胸膜略厚，双侧胸腔少量积液并左肺部分不张4.双肺纤维灶5.颅脑扫描未见明显异常</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌并阻塞性肺不张治疗后，较前(2016-5-26)变化不明显；双肺多发转移，进展；骨转移，变化不明显2.肝囊肿3.右肾低密度灶，变化不著4.部分肋骨密度增高，变化不著。右肺中叶支气管开口处见一不规则低密度影，边缘模糊，大小不易测量，增强后可见轻度强化，远端示片状肺不张影。双肺见多发结节灶，部分边界欠清。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶，大者直径不足1.0CM。右肾见直径约0.5CM低密度灶，未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分椎骨示成骨性破坏。右侧第3肋局限性骨质密度增高。	</t>
-  </si>
-  <si>
-    <t>右肺下叶肿块，边缘毛刺，邻近胸膜牵拉，大小约为2.54CM×3.0CM，CT值约46HU。双肺内可见多发结节样及粟粒样密度影，大者径约1.1CM。右肺下叶斑片状高密度影，边界模糊。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。右侧胸腔少量积液征象。心脏大血管未见异常。部分上位胸椎骨密度增高。右乳腺钙化灶。甲状腺右叶增大，密度不均匀。1.右肺下叶后基底段团块灶，考虑恶性占位性病变，周围型肺癌可能性大，伴双肺多发转移，较前2016-09-22CT片略增大；2.右肺下叶炎症，请结合临床；3.部分胸椎骨及邻近肋骨密度增高，较前相仿；4.甲状腺右叶病变，请结合相关检查。5.右侧胸腔少量积液征象。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌治疗后；多发骨转移2.双肺结节及类结节灶，建议密切观察3.双肺气肿。右乳治疗后，腺体结构紊乱，皮肤局部增厚。余双乳腺体结构亦示紊乱。双侧腋窝见短径不足0.5CM小淋巴结。胸廓诸骨示较广泛性成骨性改变。双肺见结节及类结节灶，直径不足0.5CM。双肺见斑片状过度透光区。	</t>
-  </si>
-  <si>
-    <t>1.左肺癌术后改变，左肺上野近胸膜处较大结节灶，转移瘤待除外，请与前片比较；2.双肺多发结节灶(部分钙化)，考虑为陈旧性病变，双侧胸膜增厚；3.慢性支气管炎、伴右肺中叶及左肺上叶舌段少许感染；4.纵隔及肺门多发增大淋巴结，转移待除外，请与前片比较或详查；5.食道各段增粗、扩张，请结合临床。左肺上叶体积变小，左肺上野近叶间胸膜处可见较大结节影，边界尚清，大小约2.36CM，CT值约33HU。另见双肺边缘处可见多个大小不等结节影，部分钙化，右肺中叶及左肺上叶舌段见片状高密度影。局部肺野透光度增加。所示气管支气管影未见狭窄。纵隔内及双侧肺门可见多发增大的淋巴结，较大者短径约1.04CM。双侧胸膜增厚，食管各段增粗、扩张。心脏大血管未见异常。</t>
-  </si>
-  <si>
-    <t>右肺下叶背段可见不规则软组织密度肿块，截面大小约1.3CM×0.9CM，边缘浅分叶，周围可见多发长短毛刺，胸膜可见牵拉凹陷，增强后呈较显著不均质强化。左侧肺野较清晰。右侧胸膜(含叶间胸膜)可见不均匀增厚，可见多发结节灶，增强后呈较显著强化。右肺门、纵隔内2R、3A、7区可见多发略肿大淋巴结，大者短径约0.5CM。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。骨窗示：右侧第三、六、七肋骨示溶骨性骨质破坏。	1.右肺下叶癌并右侧胸膜(含叶间胸膜)转移较前2016-3-29变化不著；右肺门、纵隔淋巴结肿大，考虑转移，较前变化不著；多发骨转移较前变化不著2.上腹部扫描未见明显异常。</t>
-  </si>
-  <si>
-    <t>注射示踪剂后60MMIN显像，见大脑形态如常，皮层各叶放射性分布均匀。中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。双颈部见多发淋巴结，未见明显异常放射性摄取。右乳术后缺如，右腋窝结构紊乱，术区软组织呈斑片状及条形摄取，最高SUV2.7，双肺示多发结节灶，大者约为0.7CM，部分轻度放射性摄取，右肺前胸膜下示斑片状密度增高影，内可见支气管充气征象，可见轻度放射性摄取，最高SUV2.0，右侧胸腔内见少量液性密度影。左侧腋窝、纵隔内4R、7区、左肺门、门腔静脉间、腹膜后大血管周围见多发摄取增高淋巴结，最高SUV5.8，大者短径约1.3CM。腹部胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹膜后未见明显肿大淋巴结。腹水征阴性。腹壁软组织未见明显异常影像。盆腔内膀胱放射性浓聚如常，膀胱壁无增厚。两侧腹股沟无异常淋巴结显示。子宫形态尚可，局部无异常放射性浓聚。两侧附件区未见异常放射性摄取。脊柱诸椎体未见明显异常放射性摄取影。	1.结合病史，右乳癌术后放疗后，术区软组织略高代谢，考虑为治疗后改变；双肺多发转移，左腋窝、纵隔、腹腔及腹膜后多发淋巴结转移；2.右肺慢性炎症及局限性纤维变。3.右侧少量胸腔积液。</t>
-  </si>
-  <si>
-    <t>右乳术后，前胸壁软组织略增厚，未见明显异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺门、纵隔内主肺动脉窗区可见肿大淋巴结，直径约1.7CM。右肺门淋巴结略增大，短径约0.8CM。左肺上叶支气管受压狭窄，远端肺野近纵隔旁可见带状密度增高影，另双肺内见斑片状密度增高影，右肺下叶为著。余双肺散在小结节灶，大者直径约0.4CM。双侧胸膜略增厚。甲状腺示斑片状低密度灶。肝内见囊性密度灶及斑片状致密影。胆囊壁增厚。右肾示小囊性密度灶。右肾上腺可见结节灶，直径约0.8CM，密度较低，强化不明显。	1.结合临床，右乳癌术后2.左肺门、纵隔淋巴结转移，较前(2015-6-30)变化不著3.双肺炎症，较前好转；双侧胸膜略增厚4.双肺小结节灶，变化不著5.肝囊肿、钙化灶6.右肾囊肿7.右肾上腺结节灶，考虑腺瘤，变化不著8.甲状腺低密度灶，变化不著。</t>
-  </si>
-  <si>
-    <t>1.左肺术后改变；2.左残肺肿块，考虑复发可能，与2014-06-06CT片对比，病灶范围增大；3.双肺多发粟粒灶及结节，考虑多发转移，较前病灶数目增多，范围增大；4.气管前肿大淋巴结，较前略增大；5.心包略增厚；6.胸12椎体内高密度灶，随诊。左肺体积减小，部分肺组织及支气管缺如，纵隔左偏；左残肺近纵隔旁见肿块影及线样致密影，边缘呈分叶征，其内可见截断支气管影，肿块最大截面约为4.43CM×5.58CM，CT值约为36HU，邻近胸膜增厚。双肺多发小粟粒影及磨玻璃密度结节影，边缘模糊，大者最大径约为0.57CM。气管前腔静脉后可见一肿大淋巴结，最大截面约为2.06CM×1.16CM。两胸腔无积液征象。主动脉及冠状动脉走形区可见条形钙化影，心包略增厚。所示胸12椎体内可见结节样致密影。</t>
-  </si>
-  <si>
-    <t>脑干、双侧大脑及小脑半球见多发大小不等的结节样异常信号，表现为T1WI低、略低信号，T2WI略高、高信号，压水序列高信号，DWI序列低、高信号，增强扫描呈结节样、环形或不均匀强化，大者约1.3CM×2.1CM，部分病变周围脑白质见小片状或片状长T2信号水肿带，四脑室及双侧侧脑室略受压变形。中线结构居中。左上颌窦可见小片状长T2信号区。余未见异常。	1.结合乳癌病史，脑多发转移瘤，较本院(2015-11-04)MR片略示好转。2.左上颌窦炎。</t>
-  </si>
-  <si>
-    <t>左肺上叶见一空洞性病变，边缘分叶、毛糙，上叶支气管部分示截断，截面积约2.3CM×2.0CM；增强扫描呈轻度强化。右肺野内见结节状致密影。双肺内示斑片状密度增高影。左侧胸壁见高密度影，局部伪影较大，周围结构显示不清。左肺门见肿大淋巴结，短径约0.6CM。纵隔内见多发小淋巴结，大者短径约0.5CM。双侧胸膜示不均匀增厚并强化，双侧胸腔内见液性密度影。肝实质内见多发低密度灶，大部分边界较清，少许边缘模糊，大者直径约0.5CM。胆囊充盈可，壁增厚。右肾见囊性密度灶，边界清。腹腔及腹膜后未见明确肿大淋巴结。左侧第10、8肋骨示骨质膨胀，骨皮质欠连续，局部骨质密度增高或减低。	1.结合临床，左肺癌并左肺门淋巴结转移治疗后，较前(2016-09-18)示好转2.双肺炎症及部分膨胀不全，右肺钙化灶3.肝内多发低密度灶，部分为囊肿，部分建议观察，变化不著4.右肾囊肿5.部分肋骨骨质异常，不除外转移，较前变化不著6.双侧胸腔积液，右侧减少，左侧增多。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左肺癌术后，左侧胸膜及淋巴结转移，少量胸腔积液。会诊*********CT(2016-09-12)左肺下叶术后缺如，左肺门见高密度吻合器影，残余左肺见索条影，左侧胸膜见多发结节灶，较大者位于下舌段近纵隔处，大小约2.5CM×1.5CM，呈均匀强化；左侧膈淋巴结肿大。左侧胸膜腔内见少量液性密度影，呈包裹性改变。右肺上叶后段胸膜下小结节灶，大小约0.4CM×0.3CM。	</t>
-  </si>
-  <si>
-    <t>左肺上叶见一不规则软组织密度肿块影，边缘分叶、毛糙，上叶支气管部分示截断，病变向内与左肺门肿大淋巴结分界不清，截面积约2.6CM×2.1CM；增强扫描呈不均匀强化。右肺野内见结节状致密影。左侧胸壁见高密度影，局部伪影较大，周围结构显示不清。左肺门见肿大淋巴结，短径约1.0CM。肝实质内见多发低密度灶，大部分边界较清，少许边缘模糊，大者直径约0.5CM。胆囊充盈可，其内可见点状致密影。右肾见囊性密度灶，边界清。腹腔及腹膜后未见明确肿大淋巴结。左侧第10、8肋骨示骨质膨胀，骨皮质欠连续，局部骨质密度增高或减低。	1.结合临床，考虑左肺癌；左肺门淋巴结转移2.右肺钙化灶3.肝内多发低密度灶，部分为囊肿，部分建议观察4.右肾囊肿5.胆囊结石6.部分肋骨骨质异常，建议进一步检查，不除外转移。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后2.右肺占位，考虑右肺癌，较前(2016-05-12)略好转3.右肺门及纵隔淋巴结肿大，考虑转移，较前略好转；右锁上淋巴结稍大，变化不著4.右侧胸膜增厚并结节灶，考虑转移，变化不著5.胆囊炎7.甲状腺左侧叶低密度灶，变化不著。右肺尖见不规则软组织密度影，其边缘可见小空洞影，边缘分叶、模糊，并可见胸膜牵拉征，截面积约3.5CM×2.2CM；增强扫描呈较显著不均匀强化。右肺上叶及中叶见少许条索状密度增高影。左肺野较清晰。右肺门、纵隔内2R、3A、4R、7区见多发肿大淋巴结，大者短径约1.5CM，增强扫描呈不均匀强化。右锁上见稍大淋巴结，短径约0.5CM。右侧胸膜局部增厚呈结节状(图7-26)，直径约0.6CM，呈较显著不均匀强化。右乳术后缺如，术区结构紊乱，周围间隙模糊，未见明确异常强化。左乳及左侧腋窝未见明确异常。肝脏大小、形态正常，实质密度均质。胆囊充盈好，壁不厚。以、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。甲状腺左侧叶见小低密度灶，边界尚清，直径约0.5CM。鼻咽、口咽及喉未见异常。双侧颈后三角区见大者短径约0.5CM小淋巴结。	</t>
-  </si>
-  <si>
-    <t>脑干、双侧小脑及大脑实质内见多发大小不等结节灶，表现为T1WI等或略低、略高信号，T2WI为等或略高信号，压水序列为高信号，DWI为低或中心低、边缘略高信号，增强扫描呈不均匀强化或环形强化，大者直径约1.1CM。另双侧大脑脑白质区见多发斑点状长T1、略长T2、T2FLAIR高信号及DWI等信号，边缘模糊，增强扫描无强化。右颞叶、右额叶及右侧基底节区见点状、小结节状略长T1长T2信号影、压水序列及DWI高信号，增强扫描无强化。脑室系统及脑沟、裂、池未见异常，中线结构无移位。	1.结合肺癌病史，脑多发转移。2.脑多发小缺血灶。3.右颞叶、右额叶及右基底节区异常信号，考虑急性腔隙性脑梗塞。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后改变，双肺转移，较前(2015-11-17)变化不著；肝转移，较前进展；多发骨转移；左乳结节灶，不除外转移，建议观察2.右侧腋窝囊性密度灶，较前略示饱满3.左肺炎症，较前好转，右肺纤维灶。右乳术后缺如，部分胸肌尚存，术区未见异常强化灶。右侧腋窝结构紊乱，局部示一囊性密度灶，直径约2.4CM，可见环形强化。左乳外下象限内见一强化结节灶，边缘略示模糊，直径约0.9CM。左侧腋窝未见异常。双肺野示多发结节灶，边缘较清，大者直径约0.3CM。右肺上叶及左肺下叶可见斑片状条索状密度增高影。双肺门及纵隔未见增大淋巴结。肝实质内示数个低密度灶，边缘较模糊，可见轻度强化，大者直径约3.6CM。胆囊充盈可，壁不厚。胰、脾、双肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。膀胱充盈可，壁不厚。子宫及附件区未见异常。盆腔内未见肿大淋巴结。盆腔内可见少许液性密度影。部分胸腰椎及附件、部分肋骨、髂骨、坐骨、骶骨可见成骨性骨质破坏。	</t>
-  </si>
-  <si>
-    <t>左乳术后缺如，左侧胸壁及胸肌可见数个结节及类结节灶，大者直径约0.7CM，边缘模糊，可见强化。右乳未见异常。双腋窝、内乳及纵隔未见明显肿大淋巴结。右肺示数个结节及类结节灶，大者长径约1.1CM，可见强化，局部略呈空洞状。左肺示少许斑片及条索影。扫描野内甲状腺内示数个低密度灶，直径不足0.5CM，边界清。脑实质密度均匀。	1.结合临床，左乳癌术后，术区胸壁及胸肌结节灶，复发或转移可能大；右肺结节及类结节灶，转移待排，请结合前片2.甲状腺低密度灶，考虑良性病变，建议观察3.左肺纤维灶4.颅脑扫描未见明显异常。</t>
-  </si>
-  <si>
-    <t>1.右肺中央型肺癌伴远端肺组织阻塞性肺炎；纵隔淋巴结肿大，考虑转移可能；2.肺气肿；3.左肺上叶磨玻璃结节，随诊；4.左肺上叶肺大泡；5.主动脉及冠状动脉内钙化；6.肝内及右肾多发囊肿；7.左侧肾上腺占位，不除外转移可能。右肺门增大，右肺上叶可见团块状高密度影，大小约5.88CM×5.89CM，平扫CT值约29HU，增强扫描强化不均匀，三期CT值约58HU、56HU、44HU，右肺上叶支气管狭窄，远端肺组织内可见片状稍高密度模糊影；双肺上叶透过度不均匀增高；左肺上叶尖段(216)可见小结节状磨玻璃密度影，边界较清；左肺上叶舌段可见类圆形薄壁透亮影，径约0.68CM。纵隔内可见肿大淋巴结影，径约1.83CM。两胸腔未见积液征象。心脏形态大小正常，其内未见异常密度影；主动脉及冠状动脉走行区可见条状钙化密度影；肝内及右肾可见多发类圆形低密度影，边界清楚，增强扫描未见强化。左侧肾上腺可见结节状低密度影，径约1.4CM，平扫CT值约6HU，增强扫描三期CT值约85HU、66HU、38HU，</t>
-  </si>
-  <si>
-    <t>1.右肺下叶后基底段团块灶，考虑恶性占位性病变，周围型肺癌可能性大，伴双肺多发转移，较前2016-05-112CT相仿；2.部分胸椎骨密度增高，较前相仿。右肺下叶肿块，边缘毛刺，邻近胸膜牵拉，大小约为2.44CM×1.8CM，CT值约10HU，增强扫描扫描示病灶三期CT值分别约为38HU、60HU、46HU。双肺内可见多发结节样及粟粒样密度影，大者径约0.75CM。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。部分上位胸椎骨密度增高。右乳腺钙化灶。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左肺癌并阻塞性肺不张及炎症2.左肺门、纵隔淋巴结转移，右肺门淋巴结肿大，不除外转移3.左侧第4肋陈旧性骨折。左肺下叶示软组织肿块影，部分支气管狭窄，远端见少许实变肺组织及斑片状密度增高影，增强扫描病变呈较明显强化，直径约2.8CM。余肺野清。纵隔内气管周围、腔静脉后气管前间隙、主肺动脉窗区、隆突下、双肺门示多发增大淋巴结，大者短径约3.5CM。左侧第4肋示陈旧性骨折线形成。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，直肠癌术后，双肺转移瘤，较前2016-7-21示进展2.双肾低密度灶，较前(2016-3-15)部分变化不著，部分略示饱满，建议观察除外转移；双肾囊肿3.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著5.脂肪肝。直肠术后，术区示高密度吻合器影，壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低。双肾内示低密度灶，边缘模糊，另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.6CM(纵隔窗)，内示小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左肺癌并纵隔淋巴结转移，较前(2016-11-23)进展2.左侧胸膜增厚3.甲状腺左侧叶低密度灶，建议进一步检查4.上腹部CT扫描未见明显异常。左肺上叶纵隔旁示不规则软组织密度影，截面积约4.7CM×3.5CM，邻近支气管部分狭窄，远端肺内示斑片影及条片影；病变与纵隔内肿大淋巴结分界不清，并与心包分界不清，左侧胸膜及叶间胸膜略增厚。右肺野较清晰。纵隔内左肺动脉旁见肿大淋巴结，短径约1.8CM。扫描野内甲状腺左侧叶见低密度灶，边缘模糊。肝胆胰脾双肾上腺扫描野内双肾形态、密度未见明显异常。腹腔及腹膜后未见明显增大淋巴结。	</t>
-  </si>
-  <si>
-    <t>1.左侧胸膜恶性肿瘤，双肺、胸3椎体及纵隔淋巴结转移，对比2012.5.11片胸膜病变进展；2.右肺上叶肺大泡。左肺肋胸膜、膈胸膜、斜裂胸膜广泛明显增厚，最厚约3.25CM，CT值约38HU。两肺纹理增强，双肺野内见多发大小不等密度增高影，部分呈磨玻璃密度改变，大者约0.94CM×1.64CM；右肺上叶尖段见囊状透过度增高区。两肺门区未见异常。所示气管支气管影正常。纵隔内见多发小淋巴结影，大者短径0.84CM。两胸腔无积液征象。主动脉管壁见钙化影。胸3椎体见结节样致密影。</t>
-  </si>
-  <si>
-    <t>1.考虑左肺上叶中心型肺癌(较2013.2.20CT对比明显增大)并阻塞性肺不张，纵膈内多发淋巴结转移；2.心包积液较前新增；3.双侧胸腔积液，较前新增。左肺门区见团块状软组织密度影，最大截面约为7.73CM×7.39CM，CT值约45HU，左肺上叶上舌段支气管变窄，前段、尖后段、下舌段支气管均未见显示。右肺门未见明显异常。纵隔见多个肿大淋巴结影。心包可见大量积液。双侧胸腔可见弧形影。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右下肺门占位，首先考虑原发性肺癌，并右侧胸膜转移，多发脑转移2.右肺门、纵隔及左锁上淋巴结肿大3.心包腔少量积液4.双侧上颌窦炎症。右侧乳腺术后缺如，术区未见异常强化灶。右下肺门区可见不规则软组织密度肿块，截面约4.3CM×3.4CM，边缘模糊，密度不均质，其内可见散在钙化灶，肿块包绕血管生长，肿块与斜裂胸膜关系密切；增强后病变呈较显著不均质强化。左侧肺野较清晰。右肺门区、纵隔内2R、5区、7区、右侧心膈角区及左锁上可见多发肿大淋巴结，大者短径约1.0CM。心包腔内可见少量液性密度影。双侧脑实质内可见多发结节及肿块影，大者截面3.7CM×3.1CM，其内可见低密度坏死区，增强后可见较显著不均质强化，部分病变周围可见少许低密度水肿带。双侧脑室未见扩张，中线结构略向右侧移位。扫描野双侧上颌窦内可见液性密度影。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后；右侧内乳区、纵隔、腹腔及腹膜后淋巴结肿大，考虑转移；双肺多发转移，肝多发转移，骨多发转移伴软组织肿块形成，并局部侵及椎管2.胆囊炎3.腹膜、网膜、肠系膜略增厚，少量腹水4.左侧胸膜钙化灶。右乳术后，术区壁未见增厚及异常强化。右侧内乳区、纵隔内右上气管、血管前间隙、隆突下、食管旁见增大淋巴结，大者短径约0.8CM。双侧腋窝未见增大淋巴结。双肺见多发结节灶，大者长径约2.0CM。左侧胸膜见少许斑点状钙化灶。双侧胸腔未见积液征象。肝内见多发结节灶，融合成团，大小不易测量，增强后呈不均匀强化。门脉及下腔静脉主干及分支未见明确充盈缺损。腹腔内贲门旁、肝胃韧带区、肝十二指肠韧带区、腹膜后腹主动脉旁见多发增大淋巴结，大者短径约1.2CM，部分与胰腺分界不清。膈上后组见短径不足0.5CM小淋巴结。胆囊充盈不良，壁增厚并见强化。脾、双侧肾上腺及双肾未见异常。肝周及右侧结肠旁沟、小网膜囊腔见少许液性密度影。大网膜、腹膜、肠系膜略增厚。胸骨、右侧肱骨、肋骨、胸腰椎示多发溶骨性骨质破坏，局部形成软组织肿块，局部突向椎管内。	</t>
-  </si>
-  <si>
-    <t>左肺下叶近肺门区示一不规则低密度肿块，大小约3.9CM×4.5CM，左肺下叶支气管截断，远端可见实变不张肺组织，其内密度不均，可见片状低密度影，增强扫描病变呈较显著不均匀强化，左下肺静脉包绕其中；左侧叶间胸膜显示欠清。右肺中叶示一小结节灶，直径约0.4CM，密度较高，边界清。余双肺野示少许条索影。双锁上、纵隔及左肺门示多发肿大淋巴结，部分融合，大者短径约4.3CM，与肺动脉关系密切。左侧胸腔及心包示少量液体密度影。肝内胆管略有扩张。胆胰脾右肾上腺未见异常。左肾上腺略示饱满。双肾均可见囊性密度灶。腹腔腹膜后未见明显肿大淋巴结。脑实质密度均匀。	1.结合临床，左肺下叶癌伴阻塞性肺不张；左肺门、纵隔及双侧锁上淋巴结转移2.右肺小结节灶，建议观察3.双肺少许纤维灶4.左侧胸腔少量积液；心包积液5.左肾上腺略饱满，建议观察6.双肾囊肿7.颅脑扫描未见明显异常。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌并双肺转移，双锁上、纵隔、双肺门、腹膜后淋巴结转移2.肝内低密度灶，不除外肝转移，建议定期复查3.肝囊肿；肝左内叶低密度灶，考虑血管瘤4.胆囊结石5.L1椎体骨质异常，建议定期复查。右肺上叶尖段可见一不规则软组织密度影，截面约为2.8CM×2.1CM，病变边缘毛刺，呈分叶状，向内侵及纵隔并与纵隔肿大淋巴结分界欠清，增强后呈不均匀强化。双锁上、纵隔内血管前间隙、气管周围、腔静脉后气管间隙、主肺动脉窗区、隆突下、双肺门可见多发肿大淋巴结，大者短径约为1.6CM。双肺野可见多个大小不一的散在类结节灶，大者长径约为0.7CM。双侧胸腔内未见液性密度影。肝右后叶示一低密度灶(5-23)，边缘模糊，直径约0.5CM。余肝实质内示多个囊性密度影，长径不足0.5CM，肝左内叶实质内可见一长径约为1.2CM的低密度灶，边缘尚清，增强后强化明显，延迟扫描仍有强化。胆囊充盈可，壁略示增厚，内示点状高密度影。脾、胰腺、双侧肾上腺、双肾未见明显异常。腹膜后腹主动脉周围示多个肿大淋巴结影，大者短径约为1.1CM。骨窗示：L1椎体局部示低密度灶。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.左乳术后改变2.右侧胸膜增厚，考虑转移，较前(2015-6-15)变化不著；右侧胸腔积液变化不著；右肺结节灶，考虑转移较前变化不著3.纵隔淋巴结肿大，变化不著。4.右肺炎症或纤维灶。5.肝周结节灶较前变化不著6.结合临床，卵巢癌术后改变。左乳术后，部分胸肌尚存，术区胸壁略肿胀，皮肤略增厚，右乳未见异常。右侧内乳区示短径不足0.5CM淋巴结。双侧腋窝及左侧内乳区未见肿大淋巴结。纵隔内腔静脉后间隙、肺动脉窗区、隆突下可见肿大淋巴结，大者短径约0.8CM。右侧胸膜增厚，局部呈结节状、带状，右侧胸腔可见游离性及包裹性液体密度影，部分其内可见高密度引流管影。右肺见条索状密度增高影及多发结节灶。左肺野较清晰。扫描野内肝周示结节灶，短径约1.1CM，与肝脏分界欠清。盆腔内子宫、附件术后缺如，术区残端未见异常。膀胱充盈好，壁不厚。直肠未见异常。盆腔内未见肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t>右肺上叶纵隔旁见一团片状软组织密度影，大小约1.8CM×1.9CM(肺窗)，边缘毛糙，与纵隔胸膜关系密切，增强后病变呈中等强化。另于双肺内见少许斑片状密度增高影。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。心包腔内示少量液性密度影。肝脏未见异常密度灶。双侧肾上腺增大，见软组织密度结节灶，大者位于左侧，约1.8CM×2.2CM，可见强化。胆胰脾及右肾未见异常。左肾示囊性密度灶，直径约0.8CM，边界清，无强化。脑实质均质，未见异常密度灶。脑室系统未见扩张。中线结构居中。	1.结合病史，右肺上叶癌治疗后，病变较2015-04-07片增大2.双侧肾上腺结节灶，考虑转移，左侧者较前增大3.双肺纤维灶，较前变化不著4.心包少量积液5.左肾囊肿6.颅脑扫描未见异常。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右肺癌2.纵隔淋巴结转移3.右侧叶间胸膜结节，考虑转移4.右肺内小结节，不除外转移，建议观察5.右肺门淋巴结肿大6.左肺下叶钙化结节灶；左肺尖类结节灶，建议观察7.甲状腺右侧叶体积增大，考虑结节性甲状腺肿8.肝内低密度灶，考虑囊肿9.左肾囊肿10.颅脑扫描未见明确异常11.T3椎体骨质密度不均，请结合骨扫描。右肺上叶见一软组织密度结节灶，大小约2.5CM×2.0CM，其边缘浅分叶，并见细毛刺，外缘见胸膜凹陷征；增强后病变呈中等不均匀强化。左肺下叶见一长径约0.4CM钙化结节灶(图5-30)，边缘清晰。右肺内见少许小结节，边缘清晰，直径不足0.5CM。右侧水平裂及斜裂见多发小结节灶，边缘清晰，直径不足1.0CM。左肺尖(5-12)示一类结节灶，边界清，密度略高，直径约0.2CM。右肺门区见短径约0.9CM淋巴结。纵隔内4R见增大淋巴结，大者短径约1.9CM。甲状腺右侧叶体积增大，其内见钙化结节灶。双侧胸腔未见液性密度影。肝实质内见小低密度灶，边界欠清，大者直径不足1.0CM，未见明确强化。胆囊充盈可，壁不厚。左肾实质内见囊性密度灶，直径约1.2CM。胰腺、脾、右肾及双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。脑实质密度均质。脑室、池未见扩张。中线结构居中。骨窗示：T3椎体骨质密度不均。	</t>
-  </si>
-  <si>
-    <t>右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。右肺见小类结节灶，边缘模糊，直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径不足1.0CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。扫描野内肝内见一斑点状钙化灶。肝胃韧带区见短径不足0.5CM小淋巴结。T12右侧椎弓根示斑片状密度增高影。	1.结合临床，右肺癌并右肺下叶炎症，较前片2016-6-2略好转；右肺类结节，变化不著；右肺门、纵隔淋巴结转移治疗后，较前变化不著。2.右侧胸膜略增厚，变化不著3.肝内钙化灶。4.T12右侧椎弓根密度增高影，变化不著。</t>
-  </si>
-  <si>
-    <t>右乳腺体内、皮肤区、右胸壁、右腋窝及扫描野内右颈根部可见多发软组织密度灶，边缘毛糙，增强后呈不均质明显强化，部分相互融合，右腋窝者局部可见溃疡形成。右侧胸壁及右上臂软组织肿胀。左乳未见异常。左侧腋窝、气管右旁可见增大淋巴结，大者短径不足1.0CM。双肺内可见散在类圆形结节灶，边界较清晰，大者直径约0.6CM。双肺见斑片索条影。甲状腺体积增大，局部可见低密度灶及钙化灶。双侧胸膜略增厚。扫描野内肝脏实质密度减低。右肾见囊性结节。右侧锁骨呈内固定术后改变。右侧部分肋骨密度欠均。脑实质密度均匀，未见结节及异常强化灶。脑室脑池未见扩张。中线结构居中。	1.右乳癌侵及皮肤及胸壁并右侧胸壁转移、右腋窝及右颈根部淋巴结转移治疗后，较前(2016-7-27)部分好转，部分进展；双肺转移，较前基本变化不著；双肺炎症2.左侧腋窝、纵隔小淋巴结，变化不著3.甲状腺增大伴低密度灶及钙化灶，考虑变化不著4.脂肪肝5.右侧锁骨术后改变6.颅脑扫描未见异常。</t>
-  </si>
-  <si>
-    <t>左乳术后缺如，左侧胸壁及胸肌复发术后，术区胸壁部分胸肌尚存，局部皮肤略增厚，轻度强化。左侧腋窝间隙模糊。右乳未见异常。右腋窝、内乳及纵隔未见明显肿大淋巴结。右肺示数个结节及类结节灶，大者长径约1.1CM，可见强化，局部略呈空洞状。左肺示少许斑片及条索影。扫描野内甲状腺内示数个低密度灶，直径不足0.5CM，边界清。右肾示囊性密度灶。肝脏、胆囊、胰腺、脾、双侧肾上腺及扫描野内左肾未见明显异常。腹腔及腹膜后未见肿大淋巴结。扫描野内骨质未见明显破坏征象。	1.结合临床，左乳癌术后，术区胸壁复发术后，术区皮肤略增厚，较前2016-8-22基本变化不著；右肺结节及类结节灶，转移待排，变化不著2.甲状腺低密度灶，变化不著3.左肺纤维灶4.右肾囊肿。</t>
-  </si>
-  <si>
-    <t>左乳术后，术区结构紊乱，未见结节及肿块。左侧腋窝结构紊乱。左侧胸肌深面可见软组织密度灶，大者大小约1.6CM×2.4CM。右乳未见异常。左侧内乳区、左侧锁骨上、膈上前组、中组及扫描野内腹腔内见增大淋巴结，大者短径约1.3CM。双侧肺门及纵隔未见肿大淋巴结。右侧水平裂区(3-26)及左肺胸膜下示小类结节灶。甲状腺内示低密度灶。心腔内密度减低。扫描野内肝实质内见多发低密度结节及肿块，边缘略模糊，其密度不均。部分椎骨及肋骨示溶骨性破坏。	1.结合临床，左乳癌术后改变；左侧胸肌深面转移，较前(2016-4-8)考虑变化不著；左侧内乳淋巴结肿大，变化不著；肝转移，较前增多、部分密度增高，余部分增大，部分略缩小；左侧锁骨上、膈上及腹腔淋巴结肿大；骨转移2.右侧水平裂区及左肺类结节灶，变化不著3.甲状腺低密度灶4.提示贫血。</t>
-  </si>
-  <si>
-    <t>右肺下叶胸膜下可见一不规则软组织密度灶，大小约2.2CM×1.6CM，边缘毛糙、浅分叶，与胸膜关系密切，增强扫描呈较显著强化。左肺可见类结节影(图3-25、27等)，直径约0.3CM，边缘较清。左肺下叶可见一类结节影(图3-33)，边缘模糊。右侧胸膜(含叶间胸膜)增厚，可见多发结节灶，增强扫描可见强化。右侧胸腔内示弧形液体密度影。右肺门及纵隔内右上气管前、气管隆突周围可见多发增大淋巴结，大者短径约0.8CM。左肾上腺略示饱满。	1.结合临床，右肺癌并右侧胸膜(含叶间胸膜)转移；右肺门、纵隔淋巴结肿大，转移可能大；左肺小结节灶，考虑转移2.左肾上腺略示饱满，转移待排3.右侧少量胸腔积液4.左肺下叶类结节影，建议观察。</t>
-  </si>
-  <si>
-    <t>腰骶椎曲度略变直，部分椎体前缘见棘样突起，L3椎体前下缘见片状异常信号影，表现为T1WI、T2WI低信号，压脂序列为高信号。另L2椎体见T1WI、T2WI高信号影，压脂序列为低信号。椎间盘L5/S1向后膨，相应硬膜囊受压略变形，椎间隙略变窄。扫描野内子宫体积增大，其内见一较大肿块影，截面约3.9CM×3.2CM，表现为T1WI等信号，T2WI、压脂序列为低信号，边界清晰。	1.结合乳癌术后病史，腰椎L3转移。2.腰骶椎退行性变，椎间盘L5/S1膨出。3.腰椎L2椎体异常信号，考虑脂肪岛。4.考虑子宫肌瘤。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左乳癌术后，术区复发，较前(2016.6.16)变化不著；左锁上、颈部、左肺门、纵隔及膈上淋巴结转移治疗后，基本变化不著；双肺转移，部分缩小，部分变化不著；多发肝转移，部分增大，部分变化不著；多发骨转移，部分略明显，部分变化不著。2.颈背部结节，不除外转移，变化不著。3.腹腔略大淋巴结，变化不著。4.双肺炎症，略减轻。5.左肩部脂肪瘤。6.左肾未见显示。左乳术后缺如，胸肌尚存，左侧胸壁见软组织影，边缘模糊，大者短径约1.5CM，示明显不均质强化，邻近前胸壁皮肤局部增厚呈软组织密度影，明显强化。双锁上、左肺门、纵隔、左侧颈后三角区、膈上见增大淋巴结，边界尚清，大者短径约1.0CM。双肺见结节灶，大者长径约0.8CM，双肺纹理增强并见斑片模糊略高密度影。甲状腺形态饱满，密度不均。下颈背部皮下见一长径约1.0CM的强化灶。左肩部皮下示脂肪样密度影。肝内见多发低密度灶，边缘轻度强化，大者长径约3.8CM。胆囊、胰脾、双侧肾上腺及扫描野内右肾未见异常。扫描野内左肾未见显示。腹腔及腹膜后见稍大淋巴结，边界不清。骨窗示：胸骨、肩胛骨、多发椎骨、肋骨、右肱骨见骨质破坏区。	</t>
-  </si>
-  <si>
-    <t>左肺门区略增大，左肺上叶支气管狭窄；左肺上叶尖后段支气管腔轻度狭窄。左肺上叶尖后段(51)见一结节影，约为1.46CM，可见毛刺及浅分叶，邻近血管增粗、僵直。左肺上叶可见多发斑片模糊高密度影。左肺上叶胸膜下见多发纤维索条影。双上肺尖见局部胸膜轻度增厚。右肺尖、右肺下叶可见多发散在粟粒影。右肺下叶近斜裂(34)见一结节影，约为0.3CM×0.2CM，并见索条影相连。右肺门区未见异常。纵隔内见多发淋巴结，较大者短径2.4CM，界清。两胸腔无积液征象。1.左肺门占位可能大；左肺上叶尖后段结节，较前CT(2015-07-17)明显增大，纵隔淋巴结较前增大，考虑肺癌；左肺上叶阻塞性肺炎，较前新发；2.右肺下叶外基底段钙化灶；右肺下叶多发炎症；3.右肺下叶近斜裂结节，较前相仿；4.右肺下叶多发粟粒灶，较前新发，不除外转移，随诊。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左肺癌治疗后，较前(2016-4-26)片变化不著，左侧胸膜转移及叶裂转移较前变化不著2.左肺慢性炎症及纤维灶3.左侧心包及心膈角区结节影，较前缩小4.肝囊肿。左肺上叶纵隔旁示一不规则软组织密度结节灶，与纵隔内主肺动脉窗区肿大淋巴结分界不清。左肺野内见斑片索条状密度增高影，左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧心包及左侧心膈角区可见多发结节影，大者直径不足1.0CM。肝脏大小形态未见异常，肝实质内可见一小低密度灶，边界清。胆囊、胰腺、脾、双肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.左肺上叶癌，左侧胸膜转移，左肺门、纵隔淋巴结转移，较前(2016-9-28)均好转；骨转移，较前变化不著2.左侧胸腔积液，较前减少。左肺上叶示一不规则软组织密度灶，大小约1.3CM×1.7CM，边缘分叶，可见强化。左侧胸膜及叶间胸膜示多发结节灶，可见强化。左侧胸腔示液体密度影。左肺门、纵隔内示数个肿大淋巴结，大者短径约0.6CM。左侧第七后肋呈溶骨性骨质破坏，局部形成软组织密度肿块。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左肺癌并阻塞性肺不张，较前(2015-12-14)略示缩小；纵隔淋巴结转移较前变化不著；右肺门淋巴结稍大较前变化不著2.双肺炎症及纤维灶、气肿；双肺类结节灶，较前变化不著3.肝内钙化灶4.肝内低密度灶，考虑囊肿；双肾囊肿。左肺下叶背段支气管截断，断端见软组织密度灶，远端见不张肺组织，内见扩张支气管及其内粘液栓，二者分界不清，增强后前者中等不均匀强化，侵及左下肺门，与左下肺动脉及其分支、降主动脉关系密切。右肺及纵隔见大者短径约0.8CM中等淋巴结。左侧锁骨上见短径不足0.5CM小淋巴结。双肺见少许斑片索条影及少许泡状过度透光区。左肺上叶(5-14、17)见大者长径约0.8CM类结节灶。右肺(5-18、29)见直径不足0.5CM小类结节灶。肝内见斑点状钙化灶及低密度结节灶，后者大者长径约2.0CM，大部分边缘清晰，部分欠清，均未见强化。胆、胰、脾、双侧肾上腺未见异常。双肾见囊性结节灶。腹腔及腹膜后未见肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t>1、左肺下叶团块灶，考虑周围型肺癌并少许阻塞性炎症，请结合临床；2、右肺下叶结节灶，请随诊；3、支气管炎，右肺中叶索条灶；4、甲状腺低密度灶，请结合临床；5、左侧肾上腺结节，转移不除外，随诊。左肺下叶见团块影，最大截面积约3.77CM×3.50CM，CT值约22HU，可见浅分叶及胸膜牵拉征，增强扫描三期CT值约51HU、79HU、71HU，周围可见淡片影。右肺下叶后基底段见结节影，径约0.49CM。双肺纹理增强、模糊。右肺中叶见索条影。双侧肺门未见异常。纵隔未见异常增大淋巴结。双侧胸腔未见积液征象。心及大血管未见异常。甲状腺左叶见低密度影，增强扫描未见强化。所示左侧肾上腺可见结节影，增强后可见轻度强化。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌并右肺下叶炎症，较前片2016-12-15基本稳定；右肺类结节，变化不著；右肺门、纵隔淋巴结转移治疗后，较前变化不著。2.右侧胸膜略增厚，变化不著3.肝内钙化灶。4.T12右侧椎弓根密度增高影，变化不著。5.心脏体积增大；冠脉钙化。6.右侧胸腔积液，其内夹层高密度影，考虑出血可能大，请结合临床。右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。右肺见小类结节灶，边缘模糊，直径不足0.5CM。左肺野清晰。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径不足1.0CM，部分增强后强化显著。右侧胸膜略增厚。心脏体积增大，冠脉可见钙化。右侧胸腔示液体密度影，其内夹层部分高密度影，平扫示CT值约56HU，增强扫描强化不著。肝内强化不均质，肝右叶见一斑点状钙化灶。T12右侧椎弓根示斑片状密度增高影。	</t>
-  </si>
-  <si>
-    <t>右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。余双肺可见小类结节灶，边缘模糊，大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径约1.1CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝内见一斑点状钙化灶。胆囊充盈可，壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶，大者短径约0.6CM。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。双侧上颌窦及筛窦内示密度增高影。T12右侧椎弓根示斑片状密度增高影。	1.结合临床，右肺癌治疗后，较前片2015-7-1变化不著；双肺类结节灶治疗后，变化不著；右肺门、纵隔淋巴结转移治疗后，大部分变化不著，部分略缩小。2.右肺下叶炎症、纤维灶，变化不著。3.右侧少量胸腔积液，变化不著；右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影，变化不著。6.颅脑CT扫描颅内结构未见明显异常。7.鼻旁窦炎。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后，肝转移，较前2016-07-20基本变化不著；右肺结节灶，考虑转移，较前缩小2.左肺纤维灶3.胆囊炎。右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一结节灶，直径约0.6CM，边界清。纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块，大者直径约3.5CM，边缘模糊，轻度强化。胆囊充盈可，壁示增厚。胰、脾及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.乳腺癌术后右肺、肝脏及纵隔多发淋巴结转移。2.右肺炎症；左肺下叶结节灶，考虑炎症；3.左肾囊肿；4.颅脑CT扫描未见明显异常；5.右侧上颌窦囊肿。会诊*******(2016-11-21)右侧乳腺癌术后缺如，术区未见异常密度灶。右肺上叶示不规则软组织密度影，大小约为2.3CM×2.6CM，可见分叶，与邻近胸膜关系密切，周围多发类结节灶及条索状、片状密度增高影，增强扫描可见强化。左肺下叶示结节灶，大小约为1.6CM×2.0CM，边界欠清晰，内示点状致密影，可见引流支气管，以宽基底与胸膜相连，增强扫描可见轻度强化。纵隔内示多发肿大淋巴结。肝脏体积略饱满，形态欠规则。肝内多发低密度影，最大截面约为3.8CM×4.0CM，部分内示点状致密影，增强扫描强化不著。胆囊体积略大，壁不厚。右肾、胰腺、脾及双侧肾上腺未见明显异常。左肾大小形态可，内示低密度影，边界清晰，未见强化。腹腔及腹膜后未见明显肿大淋巴结。脑实质均质。脑室系统未见扩张，中线结构居中。右侧上颌窦示囊性密度增高影，增强扫描强化不著。所扫颈腰椎未见明显骨质破坏征象。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，双侧乳腺癌术后改变，右侧皮肤增厚并强化，较前2016-010-20片基本变化不著2.双肺结节灶，不除外转移，较前变化不著，建议观察3.肝内低密度灶，较前变化不著；左肾小囊肿4.T12椎体血管瘤5.胆囊炎。左乳术后缺如，术区未见异常强化灶；右侧乳腺术后，术区胸肌尚存，间隙模糊，皮肤略增厚，可见强化。左侧腋窝结构紊乱，可见短径约0.5CM的小淋巴结。双肺门及纵隔未见明确肿大淋巴结。双肺野内见多发结节灶，部分呈磨玻璃密度，边界较清，大者直径约0.5CM。肝脏大小、形态可，肝右叶实质内见一低密度灶，边界欠清，直径约0.5CM。左肾上极见囊性无强化小结节灶。左侧肾上腺饱满，密度未见明显异常。胆囊充盈可，壁厚。腹腔及腹膜后未见明确肿大淋巴结。T12椎体内示低密度影，边界较清晰，其内可见粗颗粒状高密度影。	</t>
-  </si>
-  <si>
-    <t>1.胃窦壁厚，较前相仿，考虑胃癌，胃周及腹膜后多发淋巴结转移；2.肝包膜下钙化灶；脾多发钙化灶；3.胆囊颈结石，胆囊炎；4.左肾囊肿；5.腹盆腔积液，较前略增多。肝右叶包膜下见点状致密影。胆囊不大，壁厚，胆囊颈部见结节状稍高密度影，最大截面大小约0.4CM×0.7CM。脾不大，脾内及脾包膜下见多发点状及结节状致密影。胰腺大小形态未见明显异常。胃窦部胃壁可见结节状增厚，CT值约38HU；胃周及腹膜后可见多发小淋巴结，较大者短径约0.9CM。双肾大小正常，左肾见多发低密度灶，CT值约4HU。膀胱充盈尚可，其内未见明显异常密度灶。子宫及附件未见明显异常。腹腔肠管未见明显扩张。腹盆腔内见少量液体密度影。所示双侧腹股沟区多发淋巴结影。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.左肺上叶癌，较前2017-2-24略饱满；左侧胸膜转移，变化不著；左肺门、纵隔淋巴结转移，部分略缩小，部分变化不著；骨转移，变化不著2.左侧胸腔积液，较前减少。左肺上叶示一不规则软组织密度灶，大小约1.3CM×1.8CM，边缘分叶，可见强化。左侧胸膜及叶间胸膜示多发结节灶，可见强化。左侧胸腔示液体密度影。右肺胸膜下示小类结节灶。左肺门、纵隔内示数个增大淋巴结，大者短径约0.6CM。部分椎骨及肋骨示高密度灶，左侧第七后肋示骨质破坏。左乳内示小类结节灶。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左乳癌术后，术区复发，较前片(2016.05.13)变化不著；左锁上、颈部、左肺门、纵隔及膈上淋巴结转移，较前部分变化不著，部分略示好转；双肺转移，较前变化不著；多发肝转移，较前大部变化不著，部分略好转。2.多发骨转移，较前变化不著。颈背部结节，不除外转移，较前变化不著。腹腔略大淋巴结，较前变化不著。3.双肺炎症。左乳术后缺如，胸肌尚存，左侧胸壁见软组织影，边缘模糊，大者短径约1.5CM，示明显不均质强化，邻近前胸壁皮肤局部增厚呈软组织密度影，明显强化。双锁上、左肺门、纵隔、左侧颈后三角区、膈上见肿大淋巴结，边界尚清，大者短径约1.0CM。双肺见结节灶，大者直径约1.0CM，双肺纹理增强并见斑片模糊略高密度影。下颈背部皮下见一长径约1.0CM的强化灶。肝内见多发低密度灶，边缘轻度强化，大者长径约3.2CM。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及右肾未见异常。扫描野内左肾未见显示。腹腔及腹膜后见稍大，边界不清。骨窗示：胸骨、部分胸腰椎椎体、肋骨见骨质破坏区。	</t>
-  </si>
-  <si>
-    <t>所示右侧乳腺组织缺如，右乳腺区及右肺上叶近纵隔区见类圆形及团片状肿块影，最大径约6.0CM，CT值37HU，边界不清，周边见片状模糊影，右内乳动脉区、纵隔及颈部见多发肿大淋巴结，部分似见融合。双肺内见多发大小不一类圆形高密度影，大者径约1.91CM。左室增大，大血管管壁未见钙化。双侧胸腔未见液体密度影。胸骨骨质欠规整，内可见结节状高密度影。所示层面肝脏见多发片状低密度影。对比2012-09-05胸部CT：1.右乳腺癌术后复发改变，右内乳淋巴结、纵隔及两侧颈部多发淋巴结转移，双肺多发转移，胸骨转移，右侧胸壁软组织转移，较前片病变明显进展，右肺上叶近纵隔区转移灶较前范围区域明显变大，请结合临床；2.左心室大；4.肝脏病变，结合腹部CT详查。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左肺癌并阻塞性肺不张，较前(2016-1-27)进展；纵隔淋巴结转移较前变化不著；右肺门淋巴结稍大较前变化不著2.双肺炎症及纤维灶、气肿；双肺类结节灶，较前变化不著3.肝内钙化灶4.肝内低密度灶，考虑囊肿；双肾囊肿。左肺下叶背段支气管截断，断端见软组织密度灶，远端见不张肺组织，内见扩张支气管及其内粘液栓，二者分界不清，增强后前者中等不均匀强化，侵及左下肺门，与左下肺动脉及其分支、降主动脉关系密切。右肺及纵隔见大者短径约0.8CM中等淋巴结。左侧锁骨上见短径不足0.5CM小淋巴结。双肺见少许斑片索条影及少许泡状过度透光区。左肺上叶(5-12、15)见大者长径约0.8CM类结节灶。右肺(5-17、27)见直径不足0.5CM小类结节灶。肝内见斑点状钙化灶及低密度结节灶，后者大者长径约2.0CM，大部分边缘清晰，部分欠清，均未见强化。胆、胰、脾、双侧肾上腺未见异常。双肾见囊性结节灶。腹腔及腹膜后未见肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t>子宫及双侧附件术后，阴道残端未见显著增厚。膀胱充盈好，充盈高密度影，壁无增厚。盆腔内肠间隙可见少量液性密度影。盆腔内未见显著增大淋巴结。肝实质密度均匀，未见异常密度灶。肝包膜下可见低密度影，强化不著。网膜区可见结节灶，边缘模糊，短径约1.0CM，密度较低，强化不著。肠系膜区可见结节影(图4-38)，边缘模糊，直径约0.8CM，可见较显著强化。胆囊充盈可，壁增厚。胰脾及双侧肾上腺未见异常。双肾实质示低密度灶，大者直径约0.4CM，边界尚清。心膈角区(图4-1、12)可见强化淋巴结，大者短径约1.6CM。余腹腔腹膜后未见确切肿大淋巴结。肠间隙可见少量液体密度影。右肺野见少许高密度条索影，左肺野清晰。右侧胸膜呈结节状增厚并强化。双肺门及纵隔未见明显肿大淋巴结。左乳外上象限可见一强化结节灶，直径约1.5CM，边缘略示毛糙。右侧胸腔内示少量液体密度影。	1.结合临床，卵巢癌术后；心膈角区淋巴结转移；右侧胸膜转移；右侧肠系膜区强化结节灶，考虑转移；肝包膜下及网膜区低密度灶，请结合前片；左乳强化灶，首先考虑转移瘤2.少量腹水、盆腔积液；右侧胸腔少量积液3.胆囊炎4.双肾低密度灶，囊肿可能大，建议观察5.右肺纤维灶。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌较前(2016-4-27)进展；双肺转移较前进展；肝转移变化不著；左肺门及纵隔淋巴结转移较前进展；右侧内乳区饱满，变化不著；脑转移瘤较前明显进展；脑膜异常强化，不除外转移，建议MRI；脑室系统较前示变窄2.左胸膜局限性增厚，局部钙化，变化不著3.颈部小淋巴结。右侧乳腺乳头上方见不规则软组织密度肿块影，约9.4CM×7.9CM，边缘分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发肿大或小淋巴结，大者短径约0.9CM。右侧内乳区显示饱满。左肺门及纵隔内见肿大淋巴结影，大者短径约1.5CM。双肺野散在分布大小不等结节灶，大者直径约1.7CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。双侧颈动脉鞘区可见多发小淋巴结，短径不足1.0CM。肝实质内见多个低密度灶，大者直径约0.3CM，边缘尚清晰，增强扫描边缘强化显著。胆囊充盈可，壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内可见多发结节状斑片状强化灶，周围可见低密度水肿带，部分脑膜示异常强化。脑室系统略示变窄。	</t>
-  </si>
-  <si>
-    <t>右肺下叶支气管开口区可见不规则软组织密度肿块，下叶支气管截断，远端可见不张肺组织实变影，病变与之分界不清，大小不易测量；增强后病变呈较显著不均质强化，不张肺组织内可见粘液栓影。病变与右下肺静脉关系密切，分界欠清。余双侧肺野内可见散在类结节灶，密度较淡，大者直径约0.3CM。双侧肺野内可见絮状及条索状密度增高影。双肺门、纵隔内2R、5区、6区、7区、8R、9L及右锁上可见多发肿大淋巴结，大者短径约1.1CM。右侧胸腔内可见少量弧形液性密度影；右侧胸膜显示增厚，局部呈类结节状。肝脏形态、大小可，肝左叶可见一类圆形低密度灶，直径约0.3CM，边界较清。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶，直径约0.5CM，边界清晰，未见强化。双侧肾上腺饱满，左侧肾上腺可见软组织密度结节灶，截面大小约1.9CM×1.4CM，可见不均质强化。腹腔及腹膜后未见增大淋巴结。骨窗示：左侧第八肋骨呈溶骨性骨质破坏。	1.右肺下叶占位，考虑右肺癌并右肺下叶阻塞性肺不张2.双肺门及纵隔、右锁上淋巴结肿大3.双肺多发类结节灶，建议密切观察以除外转移4.右侧胸膜增厚；右侧胸腔少量积液5.双侧炎症6.左侧第八肋骨骨质破坏，考虑转移7.左侧肾上腺结节灶，考虑转移8.肝左叶低密度灶，建议观察9.右肾囊肿。</t>
-  </si>
-  <si>
-    <t>左乳外上象限可见较大不规则软组织密度肿块，边缘分叶，截面约4.6CM×2.9CM，其内可见粗大砂砾状钙化灶，肿块与周围腺体分界欠清，增强后病变呈较显著不均质强化。左侧乳腺皮肤不均匀增厚，增强后呈轻度不均匀强化。左侧腋窝可见多发肿大淋巴结，大者短径约1.4CM。左肺下叶叶间胸膜下可见软组织密度灶，截面约2.0CM×1.8CM，边缘浅分叶，增强后呈中度不均质强化。双侧叶间胸膜可见散在多发类结节灶，边界较清，大者直径约0.2CM。双肺门及纵隔内未见明显肿大淋巴结。扫描野内骨质未见明显破坏征象。	1.左乳癌并左腋窝淋巴结转移2.左肺下叶占位，不除外原发性肺癌3.双侧叶间胸膜多发结节灶，转移不能除外。</t>
-  </si>
-  <si>
-    <t>左肺下叶背段可见团块影，较大截面大小约为5.71CM×3.91CM，平扫CT值约为39HU，边界尚清，浅分叶状，周围可见斑片状稍高密度影。双肺另见弥漫多发大小不等结节影。两肺门区未见异常。纵隔内未见淋巴结增大。两侧胸腔内可见弧形液体密度影。心脏大血管未见异常。右侧部分肋骨形态欠规整。第11胸椎右侧附件区骨质破坏，并见软组织肿块。1.左肺下叶背段周围型肺癌，较前略大，伴双肺多发转移瘤，第11胸椎右侧附件区骨转移；2.右侧部分肋骨陈旧性骨折改变；3.第11胸椎右侧附件区骨质破坏，并见软组织肿块，较前相仿；4.双侧胸腔积液，较前片2015-11-19新发。</t>
-  </si>
-  <si>
-    <t>右乳外上象限可见一不规则软组织密度肿块，边缘明显分叶，周围可见条索影，肿块截面大小约2.4CM×2.3CM，增强后可见病变显著强化。余右侧乳腺内可见显著强化结节灶。右侧腋窝可见肿大淋巴结，大者短径约0.9CM，可见显著强化。左乳及左侧腋窝未见异常。右侧内乳区略饱满。右肺上叶及左肺下叶可见散在类结节灶，边界较清，大者直径约0.3CM；余双肺野清晰，肺纹理走形自然，气管及各级支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶，边界清晰，未见强化。腹腔及腹膜后未见增大淋巴结。骨窗示：多发胸腰椎椎体、部分肋骨呈溶骨性骨质破坏，局部呈膨胀性改变。	1.右乳癌并右侧腋窝转移，多发骨转移2.双肺类结节灶，纤维灶可能，建议观察3.右肾囊肿。</t>
-  </si>
-  <si>
-    <t>左肺下叶可见一不规则肿块，截面约7.2CM×7.0CM，边缘分叶，与胸膜关系密切，周围示斑片及絮状密度增高影，增强扫描病变呈较显著不均匀强化。余双肺多发泡状过度透光灶。左肺门及纵隔多发肿大淋巴结，大者短径约3.6CM。左锁上淋巴结略大，短径约0.6CM。肝右叶略示一低密度灶，直径约1.2CM，边缘模糊，增强扫描略强化，延迟扫描呈等密度。胆囊充盈可，壁略厚。胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。	1.左肺下叶癌，左肺门、纵隔淋巴结转移2.左肺炎症；双肺气肿3.左锁上淋巴结略大4.肝内低密度灶，建议进一步检查。</t>
-  </si>
-  <si>
-    <t>右肺中叶近肺门处示不规则软组织密度影，远侧肺组织示实变征象，周围多发多发条索状及斑片状密度增高影，与周围组织关系密切，增强扫描示中度强化。右肺中叶外侧段见一磨玻璃密度结节。余双肺野内散在囊泡状过度透光灶。右肺门及纵隔示多发肿大淋巴结，部分融合成团，大者短径约为1.2CM。肝脏示低密度影，边界清晰，增强扫描未见强化，余肝实质未见异常密度影。胆囊、胰腺、脾、双肾、未见异常，右侧肾上腺外支见一结节灶，直径约0.8CM，边缘光滑，密度均匀。腹腔腹膜后未见肿大淋巴结影。	1.右肺癌并阻塞性肺炎，肺不张，右肺门及纵隔淋巴结转移；较前片(2016，07，27)变化不明显。2.双肺气肿。3.右肺磨玻璃结节(考虑良性)。4.肝囊肿。5.右肾上腺小结节，考虑腺瘤可能性大。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合病史，右肺癌术后复发，较前(2017-1-11)增大；右肺门、纵隔、右锁上淋巴结转移，较前部分增大，部分变化不著；双颈部及左侧锁骨上淋巴结转移；双肺转移，较前进展；腹腔淋巴结肿大，考虑转移，较前进展2.双肺炎症，局部略加重；右侧少量胸腔积液，基本变化不著，心包积液，略增多；右侧胸膜增厚，变化不著3.左胸壁脂肪瘤，变化不著4.肝左叶低密度灶，请结合临床5.左侧肩胛骨局部骨质稀疏，变化不著。右肺下叶切除术后，右下肺门区见软组织肿块影，截面约5.5CM×5.3CM。双肺内见多发结节灶，大者短径约3.0CM。双肺近纵隔周围见多发斑片状密度增高影。右侧胸腔见少量液性密度影，右侧胸膜增厚。双颈部、双锁上、右肺门、纵隔、腹腔见多发增大淋巴结，部分融合成团。心包腔内见少量液性密度影。肝左叶见低密度结节。左前下胸壁软组织内示梭形脂肪样密度影，边界清。骨窗示：左侧肩胛骨局部骨质结节状稀疏。	</t>
-  </si>
-  <si>
-    <t>左上肺门处可见肿块影，分叶状，大小为3.95CM×3.19CM，形状不规则，边缘清，与肺动脉分界不清，CT值为35HU，增强扫描三期CT值分别为52、62、54HU，均匀轻度强化，包绕左肺动脉，左肺上动脉未见显示，纵隔及左肺门可见多发肿大淋巴结，大者短径为1.00CM。左侧胸膜牵拉凹陷。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常左上肺门中央型肺癌，阻塞左上肺动脉，纵隔及左肺门淋巴结转移，较2015-08-05CT左上肺门旁病变减小，纵隔及左肺门淋巴结减小。</t>
-  </si>
-  <si>
-    <t>会诊*******(东院区)(2016-08-17与2016-5-29对比)左侧乳腺术后，术区胸壁未见增厚，左侧部分肋骨骨质密度不均，左前第6肋骨质离断，断端骨质密度增高。右侧乳腺外侧见一椭圆形结节灶，可见强化，长径约1.3CM，其内可见斑点状钙化影。右侧腋窝见强化的淋巴结，大者直径约1.2CM。右肺上叶见片状软组织密度影，边缘毛糙，其内可见小条状金属影，与邻近胸膜关系密切。左肺野近胸壁后方见斑片状高密度影。右侧胸膜及叶间胸膜处见数个小结节灶。左肺下叶近胸膜处见一直径约0.3CM的小结节灶，有条索影与胸膜相连。扫描野所示肝内示囊性密度影。	1.结合临床，左侧乳腺癌术后，左前第6肋骨折，变化不著；2.右侧乳腺强化结节灶，较前(2016-5-29)进展；右侧腋窝淋巴结肿大，较前进展；3.右肺转移灶治疗后改变，双肺炎症，较前(2016-5-29)较前进展；4.右侧胸膜结节灶转移，较前增大；5.左肺下叶结节灶，考虑肺内淋巴结可能大，变化不著；6.肝囊肿。</t>
-  </si>
-  <si>
-    <t>左肺上叶可见一不规则软组织密度灶，大小约1.7CM×2.4CM，边缘分叶、毛刺，牵拉远端胸膜致其略示凹陷，增强扫描病变呈较显著不均匀强化。左下肺门区可见团片状软组织密度影，截面约2.1CM×1.2CM，边缘毛糙，增强扫描可见强化；左肺下叶支气管狭窄。左肺野纹理增多，小叶间隔增厚，上叶为著。左肺上叶纵隔旁可见索条状密度增高影。余左肺野可见类结节状影(图5-17、24)，边缘模糊。左侧胸膜(含叶间胸膜)略示增厚。右肺野小叶间隔亦略厚。右侧胸膜(含叶间胸膜)略厚。左侧胸腔内示弧形液体密度影。右侧锁骨上区、纵隔内2R、3A、4R/L、7区、8区及左肺门可见多发肿大淋巴结，部分融合，大者短径约1.5CM，增强扫描可见强化。左锁上示短径不足0.5CM的小淋巴结。所扫肝内见小囊性密度灶。胆囊壁增厚。左肾示一小囊肿。另胸骨、多发胸椎、多发肋骨可见成骨性骨质破坏。右侧肩胛骨局部骨质密度增高；双侧肱骨头、左侧肩胛骨骨质密度略示稀疏。	1.结合临床，左肺癌并左肺门、纵隔淋巴结转移；右侧锁骨上区淋巴结肿大，转移待排；多发骨转移；考虑左肺癌性淋巴管炎2.右肺下叶间隔略示增厚，建议观察3.左肺炎症4.左肺类结节灶，不除外为炎性结节5.双侧胸膜(含叶间胸膜)增厚，左侧较著6.左侧胸腔积液7.肝脏小囊肿；左肾小囊肿8.胆囊炎。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合病史，右乳癌术后改变，术区胸壁强化欠均匀，建议观察；考虑骨转移并部分肋骨骨折2.左肺下叶类结节，较前2015-08-19基本变化不著3.右肺炎症。右乳术后缺如，术区结构紊乱，部分胸壁组织尚存，胸壁略增厚并强化欠均匀。右侧腋窝呈术后改变，未见异常密度灶。左乳未见异常。左侧腋窝见多发小淋巴结，大者短径约0.6CM，其内可见脂肪密度影。双侧内乳区、双肺门及纵隔未见确切肿大淋巴结。左肺下叶见一类结节灶，直径约0.4CM，密度较高。右肺胸膜下见斑片状及条索状密度增高影。右侧多发肋骨示溶骨性及成骨性骨质改变，部分骨皮质欠连续。	</t>
-  </si>
-  <si>
-    <t>1.右肺上叶肿块，首先考虑肺癌并右肺转移，纵隔淋巴结转移，请结合临床，详查；2.右侧大量胸腔积液，右肺下叶膨胀不全；3.一胸椎高密度灶，随诊。右肺上叶见肿块影，径约2.07CM，CT值约50HU，呈分叶状，边缘毛糙；右肺可见多发类圆形结节影，大者径约0.55CM；右侧胸腔可见弧形液性密度影，右肺下叶膨胀不全；纵隔内可见肿大淋巴结影，大者短径约1.05CM。心脏大血管未见异常。一胸椎见结节样高密度影。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后；纵隔淋巴结肿大治疗后，较前(2015-4-24)部分缩小，部分变化不著；腹腔及腹膜后淋巴结肿大治疗后，变化不著；双肺转移，大部分缩小，部分变化不著；肝多发转移，大部分密度减低，部分略缩小；多发骨转移，较前部分成骨性成分增多，余变化不著。2.胆囊炎；考虑左肾囊肿，变化不著；脾内低密度灶。3.腹膜、网膜、肠系膜略增厚，变化不著；少量腹水，略示减少。4.门脉左支充盈欠佳，变化不著。5.考虑双肺炎症，局部示好转；双侧胸膜略增厚并左侧胸膜钙化灶。右乳术后，术区壁未见增厚及异常强化。纵隔内右上气管、血管前间隙、隆突下、食管旁见小或增大淋巴结，大者短径约0.6CM。双锁骨上及左侧腋窝示小淋巴结，大者短径不足0.5CM。右侧腋窝未见增大淋巴结。双肺见多发小斑片影及类结节灶，部分与邻近胸膜分界不清。余双肺内示条片密度增高影，局部牵拉邻近胸膜。双侧胸膜略增厚，左侧胸膜见少许斑点状钙化灶。双侧胸腔未见积液征象。肝脏体积缩小，左叶为著，肝内见多发结节灶，融合成团，大小不易测量，增强后呈不均匀强化。门脉左支充盈欠佳。腹腔内贲门旁、肝胃韧带区、肝十二指肠韧带区、腹膜后腹主动脉旁见多发小或增大淋巴结，大者短径约0.8CM，部分与胰腺分界欠清。膈上后组见短径不足0.5CM小淋巴结。胆囊充盈可，壁增厚并见强化。左肾示囊性低密度灶，大者长径约0.7CM，部分边界欠清。脾内示小斑片状低密度区。双侧肾上腺及右肾未见异常。腹腔内示液性密度影。大网膜、腹膜、肠系膜略增厚。胸骨、右侧肱骨、锁骨、肋骨、胸腰椎示多发溶骨性、成骨性骨质破坏，局部周围示软组织影，部分肋骨骨质欠连续。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌，较前(2015-09-15)片增大；双肺转移，较前增大；肝转移，较前好转；纵隔淋巴结转移；右侧内乳区饱满，变化不著；脑多发转移，较前好转2.左肺胸膜局限性增厚，局部钙化，变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影，约7.6CM×6.2CM，边缘分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结，大者短径约0.6CM。右侧内乳区显示饱满。纵隔内心包右旁、气管隆突下及左侧下肺静脉旁及下段食管旁见肿大淋巴结影，大者短径约2.1CM。双肺野散在分布大小不等结节灶，大者直径约4.1CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左肺胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。肝实质内见多个低密度灶，大者直径约0.5CM，边缘尚清晰，增强扫描边缘强化显著。胆囊充盈可，壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内示多发结节灶，大者直径约0.4CM，增强扫描可见环形强化。脑室池无扩张。脑沟回无增宽。中线结构居中。	</t>
-  </si>
-  <si>
-    <t>左乳术后缺如，术区结构紊乱，周围脂肪间隙模糊，部分胸肌尚存，术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱。右乳未见明确异常。左肺门示短径约0.6CM淋巴结。右侧腋窝、双侧内乳区、右肺门及纵隔未见明确肿大淋巴结。左肺示少许斑片影。右肺未见明确异常密度灶。肝脏密度减低，内见囊性密度灶，边界较清，直径约2.0CM。另肝内示斑片状低密度灶，强化不著，边界欠清。胆囊、胰腺、脾、双侧肾上腺及左肾未见明确异常。右肾见短径不足0.5CM的小低密度灶。腹腔内肝胃韧带区、腹膜后腹主动脉周围见小淋巴结，大者短径约0.6CM。网膜及肠系膜、盆腹膜示增厚，局部呈斑片状及结节状改变，部分与邻近肠管分界不清，增强呈不均匀强化。腹腔内见液性密度影。卵巢术后，术区结构紊乱，周围间隙模糊，可见片状低密度影，与周围结构分界不清。宫颈体积增大，密度欠均匀。膀胱充盈可，壁略增厚。盆腔内未见明确肿大淋巴结。多发胸腰骶椎椎体及附件、双侧部分肋骨、骶骨、双侧髋骨示骨质密度增高，局部可见结节状高密度影。	1.结合临床，左乳癌术后；卵巢转移术后，术区片状低密度影，较前2016-6-13变化不著2.网膜、肠系膜及盆腹膜转移治疗后，腹水，较前进展3.脂肪肝；肝囊肿；肝内低密度灶，变化不著4.右肾囊肿5.宫颈体积增大，变化不著6.胸腰骶椎、肋骨、骶骨、髋骨骨质密度增高，考虑转移，较前变化不著。</t>
-  </si>
-  <si>
-    <t>右肺下叶外，后基底段见一高密度团块影，大小约5.01CM×4.97CM，CT值约38HU，呈分叶状改变，与邻近胸膜关系紧密。双肺散在多发小结节状稍高密度影。两肺门区未见异常。纵隔内见多发小淋巴结。右肺叶间裂增厚，右侧胸腔见弧形液体密度影。心脏大血管未见异常。第11胸椎椎体可见类圆形低密度影，骨质破坏。所示肝实质密度较同层脾脏密度减低，CT值约41HU。1.右肺下叶占位，考虑周围型肺癌伴双肺内转移，胸椎骨转移，随诊；2.右侧胸腔积液，右肺叶间裂包裹性积液；3.所示脂肪肝。</t>
-  </si>
-  <si>
-    <t>1.左肺下叶磨玻璃密度影，对比2011.5.17片密度略变实，考虑周围型肺(腺)癌；2.左肺上叶炎性病变，较前相仿；3.左侧肾上腺低密度灶，不除外转移，详查。左肺下叶后基底段可见一磨玻璃密度影，边界不清，最大层面大小约1.6CM×2.0CM，与胸膜相连，其内密度不均，周围见索条；左肺上叶可见条索影。双肺纹理增粗、紊乱，两肺门区未见异常。所示气管支气管影正常。纵隔内可见稍大淋巴结影。两胸腔无积液征象。动脉内壁、冠状走形区可见多发线样高密度影。左侧肾上腺可见一结节样低密度影，大小为1.8CM×2.0CM，CT值为-9HU。</t>
-  </si>
-  <si>
-    <t>右肺下叶支气管局部狭窄截断，周围示软组织密度肿块影，与周围不张实变的肺组织及右肺门肿大淋巴结分界不清，最大截面约3.7CM×2.9CM，增强后呈不均匀明显强化，病变周围支气管腔内见软组织密度影，延支气管分布。余右肺野略示小结节影，密度较淡，直径不足0.5CM。左肺野较清晰。右侧胸膜增厚。右侧胸腔及心包内示少量液体密度影。右侧乳腺术后缺如，术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区及锁骨上区未见明显肿大淋巴结。所扫肝右叶示颗粒状钙化密度影。左侧大脑内示多发结节、肿块影，大者截面约3.0CM×3.6CM，密度不均匀，周围示大片无强化的低密度水肿带，邻近侧脑室局部略示受压变形，增强后病灶呈环形明显强化。中线结构略尚居中。左侧上颌窦内示液体密度影。骨窗：胸骨柄右侧、胸骨下段局部骨质密度不均匀增高。	1.结合临床，右侧中心型肺癌并阻塞性肺不张治疗后，不张较前(2014-11-24)变化不著；右肺门淋巴结转移，变化不著；右胸膜转移；骨转移，变化不著；脑转移，较前大小变化不著2.右侧胸腔及心包积液，较前减少3.右肺结节，较前变化不著4.右侧乳腺术后改变5.肝内钙化灶6.左上颌窦炎症。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左乳癌术后；左侧内乳区淋巴结转移；肝脏多发转移；多发骨转移，不除外累及椎管；双肺结节灶，考虑转移2.肝内胆管轻度扩张3.肝囊肿4.双肾小囊肿5.甲状腺低密度灶。左乳术后缺如，术区未见异常增厚及强化灶。左腋窝结构略示紊乱。右乳未见异常。左侧内乳区可见肿大淋巴结，短径约1.0CM，增强扫描可见较显著强化。右腋窝、纵隔及双肺门未见肿大淋巴结。双侧胸腔未见积液征象。双肺野均可见小结节灶，大者直径约0.4CM，边缘略示模糊。扫描野内甲状腺内可见低密度灶，边界清晰。肝内示多发低密度结节及肿块影，部分融合，大者截面约6.5CM×3.4CM，边缘模糊，增强扫描可见不均匀强化。肝内胆管轻度扩张。另于肝内见类圆形囊性密度灶，大者直径约6.0CM，边界清，无强化，局部突出于肝实质之外。胆囊充盈可，壁不厚。胰、脾及肾上腺未见异常。双肾可见小的囊性密度灶，大者直径约0.5CM，边界清。腹腔内肝胃韧带区及腹膜后腹主动脉旁可见小淋巴结，大者短径约0.5CM。另多发胸椎、双侧部分肋骨可见成骨性及溶骨性骨质破坏，局部形成软组织密度影，椎管显示不清。	</t>
-  </si>
-  <si>
-    <t>1.右上中心型肺癌并阻塞性肺炎，纵隔淋巴结转移，较前(2016-09-02)相仿；2.右肺上叶结节，较前相仿，请随诊；3.左肺上叶舌段、右肺下叶炎症，较前片变小；4.双侧胸腔积液，较前片减少；5.双肺上叶肺气肿。右上肺门旁可见结节影，大小约3.8CM×2.3CM，平扫CT值约39HU，右肺上叶支气管受压、变窄，边缘可见细短毛刺；右肺上叶(44)可见不规则结节影，大小约1.4CM×0.9CM。双肺支气管血管束增强，左肺上叶舌段、右肺下叶斑片影。右肺门区饱满。所示气管支气管影通畅。双肺上叶见多发低密度囊腔。纵隔内可见增大的淋巴结，大者短径约1.9CM。两胸腔可见液性密度影。心脏大血管未见异常。</t>
-  </si>
-  <si>
-    <t>右肺下叶基底段见软组织肿块影，边缘模糊，有分叶，肿块最大截面约1.9CM×3.5CM，增强后可见显著强化；邻近胸膜可见增厚。右肺内、右侧肋胸膜、叶间胸膜及斜裂胸膜示多发结节灶，大者直径约0.3CM，增强后可见强化。左侧肺野清晰，未见异常。左锁上、纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结，短径约0.8CM。肝实质内见多发囊性密度灶，大者直径约3.0CM。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见囊性密度灶，短径约2.0CM。肝总动脉旁示增大淋巴结，短径约0.5CM。	1.结合临床，右肺下叶癌并右侧胸膜转移较前(2014-5-19)好转2.右肺结节灶，考虑转移，较前好转3.左锁上、纵隔、腹腔淋巴结肿大，较前缩小4.肝囊肿5.右肾囊肿。</t>
-  </si>
-  <si>
-    <t>右肺上叶纵隔旁见一团片状软组织密度影，大小约1.3CM×1.0CM(肺窗)，边缘毛糙，与纵隔胸膜关系密切，增强后病变呈中等强化。另于双肺内见少许斑片状密度增高影。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。心包腔内示少量液性密度影。肝脏形态、大小可，密度均质，未见确切结节及肿块。肝内外胆管未见扩张。胆囊充盈欠佳，壁略厚伴强化。胰腺、脾及扫描野内右肾未见明显异常。双侧肾上腺增大，见软组织密度结节灶，大者直径约1.3CM，可见强化。左肾实质内见囊性密度影，长径约0.8CM，界清，无强化。腹腔及腹膜后未见确切增大淋巴结。	1.结合病史，右肺上叶癌治疗后，较2015-1-4片变化不著2.双侧肾上腺结节灶，考虑转移，较前变化不著3.双肺纤维灶，较前变化不著4.心包少量积液5.胆囊炎6.左肾囊肿。</t>
-  </si>
-  <si>
-    <t>1.右肺上叶中心型肺癌并阻塞性肺炎、阻塞性肺不张；右侧大量胸腔积液，对比2012-08-31片明显进展；右侧第2肋骨转移；2.左肺下叶病灶为新发病灶，考虑转移瘤；3.慢性支气管炎、肺气肿征象；4.左肺尖陈旧性病变。两肺支气管血管束增多、变细；两肺透过度明显增加，肺野内弥漫囊状透光区；右肺门增大，右肺上叶支气管腔明显狭窄，壁明显增厚，呈团块状、范围约5.4CM×3.4CM，CT值约34HU，增强扫描可见病灶呈轻度不均匀强化，三期CT值分别为47HU、69HU、60HU，右侧胸腔内可见大量积液征象，右肺膨胀不全。左肺下叶内基底胸膜下可见小结节影，径约为0.5CM。左肺尖可见片状及结节影，其内可见钙化；纵隔内可见增大的淋巴结，增强扫描呈环影强化；心影增大。主动脉和冠脉钙化。</t>
-  </si>
-  <si>
-    <t>右肺下叶基底段见软组织肿块影，边缘模糊，有分叶，最大截面约4.0CM×3.0CM(纵隔窗)，增强后可见显著强化；邻近叶间胸膜可见增厚。右肺野内见多个结节灶，大者直径约0.5CM，部分与胸膜关系密切，增强后可见强化。左肺上叶胸膜下见直径约0.2CM小结节灶。左肺见多发索条状及斑片状密度增高影。右侧胸腔见液性密度影。左锁上、纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结，短径约0.9CM。肝实质内见多发囊性密度灶，大者直径约3.0CM。另肝内(2-52)动脉期见一强化结节灶，长径约0.8CM，延迟呈等密度。胆囊充盈可，壁不厚。胰、脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见囊性密度灶，短径约2.0CM。腹主动脉周围示淋巴结，大者短径约0.5CM。	1.结合临床，右肺下叶癌并右侧胸膜转移较前(2014-10-20)进展；右侧胸腔积液；右肺转移，较前进展2.左肺上叶类结节灶，变化不著，建议观察；左肺炎症3.左锁上、纵隔、腹膜后小或稍大淋巴结，较前变化不著4.肝囊肿5.右肾囊肿6.肝内强化灶，考虑血管瘤。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后改变，双肺转移，较前(2014-8-14)变化不著；肝转移较前进展；多发骨转移较前变化不著2.右侧腋窝囊性密度灶较前吸收。右乳术后缺如，部分胸肌尚存，术区未见异常强化灶。右侧腋窝结构紊乱，局部示一囊性密度灶，直径约2.4CM，可见环形强化。左乳及左侧腋窝未见异常。双肺野示多发结节灶，边缘较清，大者直径约0.3CM。右肺上叶及左肺下叶可见条索状密度增高影。双肺门及纵隔未见增大淋巴结。肝实质内示数个低密度灶，边缘较模糊，可见轻度强化，大者直径约2.5CM。胆囊充盈可，壁不厚。胰、脾、双肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。膀胱充盈可，壁不厚。子宫及双侧附件未见异常。盆腔内未见肿大淋巴结。部分胸腰椎及附件、部分肋骨、骶椎、右侧髂骨、双侧坐骨可见成骨性骨质破坏。	</t>
-  </si>
-  <si>
-    <t>静脉注射示踪剂FDG后60MMIN行PET/CT显像。PET/CT图像示右肺上叶尖段不规则软组织密度影，边缘分叶、毛刺，邻近胸膜示牵拉，截面约为2.7CM×2.5CM，放射性浓聚，最高SUV9.0。纵隔气管前腔静脉后(2R、4R)、血管前间隙(3A)、右肺门(10R)淋巴结肿大，大者短径约为1.3CM，放射性浓聚，最高SUV10.9；右锁上、右侧下肺静脉上方(9L)小淋巴结，大者短径约为0.5CM，轻度放射性摄取，最高SUV3.5。右前胸膜结节，轻度放射性摄取增高，短径约为0.7CM，最高SUV3.0。右乳腺术后，术区未见复发征象及异常放射性摄取。左乳腺及双腋窝未见异常放射性摄取。脑内未见确切异常密度灶，中线无移位。脑室无扩大。小脑显影如常，两侧小脑对称。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。左侧上颌窦粘膜增厚。腹部胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。腹壁软组织未见明显异常影像。盆腔内膀胱放射性浓聚如常，膀胱壁无增厚。两侧腹股沟无异常淋巴结显示。子宫形态尚可，子宫腔内液性密度影，放射性浓聚，最高SUV7.6，考虑为月经期子宫内膜增厚所致。两侧附件区未见异常放射性摄取。视野内轴心骨未见异常放射性浓聚。上、下肢关节带大致正常。视野内皮肤及软组织内未见异常放射性摄取。	1.右乳癌术后。2.右肺上叶原发性肺癌并纵隔、右肺门淋巴结转移；右锁上、纵隔9L区淋巴结，右前胸膜结节略高代谢，均考虑转移。3.左侧上颌窦炎症。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右乳癌术后改变；多发骨转移，较前2016-5-24部分密度增高，大部分变化不著2.左肺钙化灶3.右肾囊肿4.腹腔内淋巴结肿大，较前略饱满。右乳术后缺如，术区皮肤略增厚，可见强化。右侧腋窝斑片状密度增高影，内见少许液性密度影，考虑为淋巴结清扫术后改变。左乳及左侧腋窝未见异常。左肺下叶见散小结节灶，直径约0.3CM。双肺门及纵隔内未见肿大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶，边界清晰，未见强化。腹腔内肝胃韧带区见稍大淋巴结，短径约0.8CM。腹膜后未见增大淋巴结。骨窗示：扫描野内多发胸腰椎体、胸骨、左侧锁骨、右侧肩胛骨、部分肋骨呈成骨性及溶骨性骨质破坏，局部呈膨胀性改变。	</t>
-  </si>
-  <si>
-    <t>左肺上叶纵隔旁示一不规则软组织密度结节灶，与纵隔内主肺动脉窗区肿大淋巴结分界不清，与左肺上叶支气管及左肺动脉关系密切。左肺野内见斑片索条状密度增高影，左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧胸腔内可见少许液性密度影及引流管影。左侧心包及左侧心膈角区可见多发结节影，大者长径约1.0CM。肝脏大小形态未见异常，肝实质内可见一小低密度灶，边界清。胆囊、胰腺、脾、双肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。脑实质内未见异常密度影，脑沟、脑池未见增宽或狭窄，脑室大小、形态，位置正常，中线结构居中。增强：脑实质未见异常强化，脑沟、脑池、脑室内未见异常。	1.结合临床，左肺癌治疗后，较前(2016-3-30)片变化不著，左侧胸膜转移及叶裂转移较前变化不著2.左肺慢性炎症及纤维灶3.左侧少量胸腔积液较前变化不著4.左侧心包及心膈角区结节影，较前变化不著5.颅脑扫描未见异常6.肝囊肿。</t>
-  </si>
-  <si>
-    <t>左乳偏外侧象限见多发结节灶，部分边缘模糊、毛糙，大者职敬业1.7CM；增强扫描呈较显著不均匀强化。左侧腋窝见软组织密度影，边缘较毛糙，截面积约1.6CM×1.2CM；增强扫描呈较显著不均匀强化。左锁上间隙较模糊，可见片状低密度影，未见明确异常占位。纵隔内见小淋巴结影，大者短径约0.5CM。双肺野内见多发结节灶，部分边缘模糊，形态欠规则，大者直径约0.7CM。肝脏大小、形态可，实质密度均质。胆囊充盈欠佳，壁增厚并强化。左肾见小囊性密度灶。胰腺、脾、双侧肾上腺及右肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。膀胱壁不厚。子宫及双附件未见明确异常。盆腔内未见明确肿大淋巴结。右侧多发肋骨、左侧髂骨、左侧耻骨及坐骨示溶骨性骨质破坏。	1.结合临床，考虑左乳癌；左侧腋窝软组织影，考虑转移；骨转移；考虑双肺转移2.左侧锁骨上间隙模糊，建议结合临床3.胆囊炎4.左肾囊肿。</t>
-  </si>
-  <si>
-    <t>右颞叶、右侧小脑半球、右侧桥小脑结合臂见数个结节样异常信号，表现为T1WI等低信号、T2WI略高信号，压水序列高信号，增强扫描可见强化，大者直径约8MM，病变周围脑实质未见明显水肿带。脑室系统无扩张。中线结构居中。腰骶椎多个椎体及附件见多发结节样异常信号，表现为T1WI低信号，T2WI低信号，压脂序列高信号，增强扫描可见强化。多个椎体边缘见棘样骨质信号突起。椎体相对缘见斑片状异常信号，表现为T1WI高信号，T2WI高信号，压脂序列等信号，增强扫描无强化。所扫脊髓及椎管内未见异常信号。	结合乳腺癌术后病史，考虑脑多发转移瘤；腰骶椎多发转移瘤腰椎退行性变。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，直肠癌术后；考虑双肺转移，请结合前片。2.右侧精囊腺饱满、密度较低，请结合其他检查。3.考虑肝囊肿、双肾囊肿，右肾部分病变密度较高，请结合其他检查或观察。4.双侧胸膜略增厚。直肠术后，局部见金属吻合钉影，吻合口未见显著增厚及异常强化。膀胱充盈好，壁无增厚。右侧精囊腺略饱满，密度较低。左侧精囊腺及前列腺未见明显异常。左侧髂外血管旁示短径不足0.5CM淋巴结。双肺近胸膜下示多个结节灶，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约2.6CM，内示斑点状致密影及小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。肝脏实质内见斑片状低密度灶，边缘清晰，强化不著。肝内外胆管未见扩张。胆囊充盈可，壁增厚。双肾囊性密度灶，右侧部分密度略高。胰腺、脾及肾上腺形态、大小、密度未见异常。肠系膜区及腹膜后示短径不足0.5CM小淋巴结。	</t>
-  </si>
-  <si>
-    <t>右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见小淋巴结，大者直径约0.5CM。左肺野示数个结节灶，大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺饱满。胆、胰、脾及扫描野内右肾未见异常。左肾示直径约3.0CM的囊性密度灶。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示成骨性及混合性骨质破坏。1.结合临床，右乳癌术后，纵隔、双肺门淋巴结较前(2016-04-22)片变化不著，左肺转移，变化不著；左肾上腺转移，较前变化不著；骨转移，较前变化不著2.双肺炎症，基本变化不著3.心包少量积液，变化不著4.肝囊肿；左肾囊肿</t>
-  </si>
-  <si>
-    <t>右肺下叶后底段可见团块影，边界清晰，可见血管注入，最大层面3.47CM×2.57CM，CT值约48HU，增强后边缘略有强化，CT值57HU。气管隆突下见一增大淋巴结影，最大层面3.74CM×2.67CM，CT值在23-48HU之间，增强后环形强化，环形组织三期CT值分别是58HU、81HU、67HU。食管下段旁小淋巴结，环形强化。右肺上叶后段条带状阴影，最大层面1.68CM×0.73CM，CT值约10HU，增强22HU、33HU、41HU。两肺门区未见异常。所示气管支气管影正常。两胸腔无积液征象。心脏大血管未见异常。1.右肺下叶后底段占位，考虑恶性病变可能，气管隆突下增大淋巴结，转移性可能，请结合临床详查除外其他可能；2.右肺上叶后段条带状阴影，请结合临床详查。3.左上肺小絮状影，左下肺胸膜下小结节灶，请随诊。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，直肠癌术后，双肺转移瘤，较前2015-12-15部分增大，部分变化不著，部分考虑新发病灶2.双肾低密度灶，变化不著3.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著5.双肾囊肿。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.4CM(纵隔窗)，内示小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。肝脏实质密度均质。胆囊充盈可，壁不厚。胰、脾及双侧肾上腺未见异常。双肾见斑片状低密度灶，边界欠清。双肾内可见散在小囊性密度灶，边界清晰，未见强化。腹腔及腹膜后未见明显肿大淋巴结。直肠保肛术后，术区可见金属吻合钉影，周围肠壁未见明显增厚及异常强化。膀胱充盈可，壁不厚。前列腺及精囊腺未见异常。盆腔内未见积液及肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t>左肺上叶近纵隔旁见软组织肿块影，边缘有毛刺，截面约1.5CM×1.2CM，增强后可见强化。双肺下叶示类结节灶。右肺下叶见少许条索影，余肺野清晰，未见异常。前列腺形态大小正常，边缘光整，与周围组织间隙清晰，实质内密度均匀。精囊腺形态大小密度正常。膀胱充盈好，壁不厚。盆腔内未见肿大淋巴结。左侧臀部肌群内见软组织肿块，邻近左侧髂骨骨质破坏，肿块最大截面约4.0CM×5.3CM。L4椎体可见局限性骨质密度减低。	1.结合临床，左肺癌，较前(2017-2-2)饱满2.左侧臀部肌肉转移累伴左髂骨骨质破坏，治疗后较前进展；L4椎体低密度灶，较前变化不著。</t>
-  </si>
-  <si>
-    <t>右乳术后缺如，术区皮肤略增厚，可见强化。右侧腋窝可见囊性密度灶，未见强化，考虑为淋巴结清扫术后改变。左乳及左侧腋窝未见异常。右侧内乳区略饱满。右肺上叶及左肺下叶可见散在类结节灶，边界较清，大者直径约0.3CM；余双肺野清晰，肺纹理走形自然，气管及各级支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶，边界清晰，未见强化。腹腔内肝胃韧带区见多发增大淋巴结，大者短径约0.8CM。腹膜后未见增大淋巴结。脑实质密度均质，未见明确异常密度灶。脑室、池未见扩张，中线结构居中。右侧上颌窦内可见少量液性密度影。骨窗示：扫描野内多发胸腰椎体、左侧锁骨、右侧肩胛骨、部分肋骨呈成骨性及溶骨性骨质破坏，局部呈膨胀性改变。	1.右乳癌术后改变；多发骨转移，较前2016-1-19变化不著2.双肺类结节灶，纤维灶可能，较前变化不著3.右肾囊肿4.腹腔内淋巴结肿大，变化不著5.右侧上颌窦炎症6.颅脑扫描未见明确异常。</t>
-  </si>
-  <si>
-    <t>左肺上叶可见一不规则软组织密度灶，大小约1.6CM×2.0CM，边缘毛糙，可见毛刺及胸膜凹陷征，增强扫描病变呈较显著、均匀强化。左下肺门区及内前基底段区见团片状、条片状软组织密度影，边缘毛糙，增强扫描可见强化；左肺下叶部分支气管略变窄。右肺上叶(4-26)、下叶(4-39)及左肺下叶(4-28)见类结节灶，边缘模糊。双肺内示索条状密度增高影。双肺上叶小叶间隔增厚，以左侧为著。双侧胸膜(含叶间胸膜)略厚。气管及左主支气管腔内示斑片、斑点状略高密度影。左侧胸腔内示带状液体密度影。右侧锁骨上区、纵隔内2R、3A、4R/L、7区、8区及左肺门可见多发肿大淋巴结，部分融合，大者短径约1.4CM，增强扫描可见强化。左锁上及右侧内乳区示短径不足0.5CM的小淋巴结。左侧膈肌升高，扫描野内肝内及左肾见小囊状无明显强化低密度灶，直径不足0.5CM，边界清。胆囊壁增厚。胸骨、多发椎骨、多发肋骨、双侧肱骨可见成骨性骨质破坏。右侧肩胛骨局部骨质密度增高。脑质内未见异常强化灶，脑沟、脑池未见增宽，脑室大小、形态及位置未见异常，中线结构无移位。右侧眼眶内侧壁局限性向筛窦侧塌陷，同侧内直肌略增粗。	1.结合临床，左肺癌化疗后，较前(2014-10-13)好转；右侧锁骨上、左肺门及纵隔淋巴结肿大，较前好转；多发骨转移，变化不著；考虑左肺癌性淋巴管炎2.左肺炎症，较前好转3.双肺类结节灶，建议观察4.双侧胸膜(含叶间胸膜)增厚5.左侧胸腔积液，较前增多6.肝囊肿，左肾囊肿7.胆囊炎8.气管及左主支气管内略高密度，考虑分泌物，请结合临床9.颅脑CT扫描未见异常改变10.右侧眼眶内侧壁局限性塌陷，请结合临床。</t>
-  </si>
-  <si>
-    <t>左肺门周围可见不规则软组织密度肿块影，约3.2CM×4.6CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。右肺上叶近胸膜下示类磨玻璃密度灶。双侧胸膜及叶间胸膜上可见多发类结节灶，大者长径约0.6CM。纵隔内2R、4R、4L、5、6、7、8区示多发融合的淋巴结影，大者短径约2.0CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常，肝实质内可见数个囊性低密度灶，边界清，增强扫描无强化。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常，右肾上腺示一类结节灶，长径约3.6CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨密度略增高。	1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张、肺炎治疗后，较前(2016-10-27)变化不著；双侧胸膜多发结节灶，考虑转移，部分略缩小，部分变化不著；纵隔淋巴结转移，较前略增大；右肾上腺转移，变化不著2.肝囊肿；双肾囊肿；左肾低密度灶，胰腺低密度灶，变化不著，建议观察3.心包、左胸腔少量积液，略减少4.右肺类磨玻璃密度灶，建议观察5.部分椎骨密度略增高，较前密度增高，建议观察。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后改变，较前(2016-3-25)变化不著；肝转移，好转；考虑骨转移，较前密度增高2.右肺局限性纤维灶3.右肺小结节灶，考虑转移，部分显示欠清，部分变化不著4.考虑肝囊肿5.胆囊炎6.胰头部密度略减低，变化不著。右乳术后，术区结构紊乱，周围间隙模糊，皮下可见少许片絮状密度增高影，胸壁未见明显增厚。右侧腋窝结构紊乱，未见异常强化。左乳形态、密度未见异常，右侧腋窝见小淋巴结，短径不足0.5CM。左腋窝、双侧颈后三角区及左侧锁骨上示短径不足1.0CM淋巴结。双侧内乳区、肺门及纵隔未见增大淋巴结。右肺野内见数个小结节灶，大者长径约0.3CM(肺窗)。另右肺近前胸壁下示条片影。甲状腺右叶密度减低。肝内示低密度灶，边缘模糊，大者短径约1.0CM。另肝内示类囊性密度灶。胆囊壁增厚。胰头部密度略减低。腹腔、腹膜后未见肿大淋巴结。部分椎骨密度不均，以T10为著。	</t>
-  </si>
-  <si>
-    <t>1.右肺上叶后段周围型肺癌，纵隔淋巴结转移，与2014-01-07片比较明显增大，请结合临床；2.左肺尖及右肺下叶结节影，随诊；3.肝、脾及胰腺后方病灶，转移不除外，请结合相关检查。右肺上叶后段可见团块影，截面约2.87CM×3.78CM，CT值约32HU，增强有强化，三期CT值约43HU、45HU、47HU；病灶位于右肺门上区，腔静脉后及气管前可见团块影，截面约4.5CM×2.4CM，CT值约44HU，增强后不均匀强化，纵隔内见增大淋巴结。左肺尖见结节影，左肺下叶见结节影(47)；各大血管边界清晰。主动脉，肺动脉主干及其左右分支内造影剂密度均匀。所示肝、脾内可见类圆形低密度灶；胰腺后方也见椭圆形软组织密度灶。</t>
-  </si>
-  <si>
-    <t>右肺上叶尖段支气管闭塞，前段及后段支气管管壁略厚，管腔狭窄，可见团块状稍高密度影，大小约6.5CM×6.5CM，可见浅分叶，边缘可见细短毛刺，CT值约20-35HU，右上支气管受压变窄，增强后扫描呈不均匀强化；右上肺动脉变窄，远端显示欠清，上腔静脉管腔狭窄，其内可疑充盈缺损；右肺中叶、下叶、左舌段可见索条灶，左肺下叶见片状高密度影；左肺下叶近斜裂(40)可见小结节影，径约0.4CM。双肺见多发局限性透亮影。纵隔内可见增大的淋巴结，部分融合，短径约2.6CM；右侧锁骨上淋巴结增大，大者短径约1.2CM。两胸腔无积液征象，右侧胸膜局限性增厚。心包内可见条形液体密度影，大血管未见异常。双侧腋窝内多发稍大淋巴结影，大者短径约0.7CM。1.右肺上叶团块影，考虑中央型肺癌，较前CT片(2016-08-12CT)略减小，纵隔、右侧锁骨上淋巴结转移；右上肺动脉变窄；上腔静脉管腔狭窄，瘤栓形成，较前相仿；请结合临床；2.肺气肿；双肺索条灶；左肺下叶炎症，较前相仿；3.心包积液；4.左侧斜裂小结节，较前相仿。</t>
-  </si>
-  <si>
-    <t>右乳术后，术区未见增厚及异常强化征象；右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结，短径不足0.5CM。左侧锁骨上示短径不足0.5CM小淋巴结。右肺上叶示团片状密度增高影，密度较均。左肺下叶示类圆形低密度影，内示斑点状致密影，边界欠清。左肺上叶胸膜下示小类结节灶。余肺内示斑片影及索条影，右肺为著。右肺门及纵隔内示大者短径约0.8CM淋巴结。肝实质内示多发低密度灶，边缘欠清，部分融合，大者长径约3.6CM，部分内示斑点斑片状致密影。胆胰脾双肾上腺未见明显异常。左肾示囊性密度灶，未见强化。余双肾内示斑片状低密度影。腹腔及腹膜后未见明显增大淋巴结。左侧半卵圆中心区局部密度偏低，未见明确强化灶。脑室系统未见明显异常。中线结构无移位。右侧部分肋骨及部分椎骨示略高密度影。	1.结合临床，右乳癌术后；右肺转移治疗后，较前(2016-12-19)基本变化不著；原左肺结节灶，较前变化不著；脑转移，较前基本消失不清2.纵隔增大淋巴结，变化不好租；右肺门淋巴结稍大；左侧锁骨上淋巴结，变化不著3.肝转移治疗后，较前基本变化不著4.左肾囊肿5.右肺少许炎症、纤维灶，基本变化不著；左肺小类结节灶，变化不著6.右侧部分肋骨及部分椎骨略高密度影，变化不著。</t>
-  </si>
-  <si>
-    <t>右肺下叶后基底段见一高密度团块影，大小约2.3CM×3.0CM，CT值约24HU，呈分叶状改变，与邻近胸膜关系紧密。双肺散在多发小结节状稍高密度影。两肺门区未见异常。纵隔内见多发小淋巴结。心脏大血管未见异常。第11胸椎椎体可见类圆形低密度影，骨质破坏。所示肝内低密度病变。与2014-04-22胸部CT比较：1.右肺下叶周围型肺癌，双肺转移瘤，较前片缩小；胸椎转移，未见明显变化；2.右侧胸腔积液，较前减少；3.所示肝内低密度病变，较前新发，详查。</t>
-  </si>
-  <si>
-    <t>右肺下叶周围型肺癌，双肺及纵隔淋巴结多发转移。右肺下叶后基底段团块影，大小约4.02CM×5.92CM，CT值约38HU，远端支气管截断；双肺多发粟粒影、结节影；双肺纹理增强，双侧支气管未见确切狭窄征象。两肺门大小、形态未见明显异常。纵隔及右侧锁骨上多发肿大淋巴结，大小约3.92CM，心脏、血管未见异常。双侧胸膜未见增厚，未见双侧胸腔积液征象。</t>
-  </si>
-  <si>
-    <t>小脑可见一约1.7CM×2.9CM的类卵圆形略长T1略长T2信号结节，边缘不整且压水像、DWI为高信号，增强后扫呈不均匀强化且周围伴有斑片状长T2信号的水肿带，四脑室受压狭窄变形；上述病灶左后可见一约0.4CM的强化灶。双侧大脑半球可见散在斑点状等T1略长T2信号影，压水像为高信号，DWI为等信号，增强后扫描无强化。脑室系统无扩大。中线结构居中。颈椎椎体边缘呈棘样突起且以前缘为著，但未见明显骨质破坏区。椎间盘C3/4、C4/5、C5/6向后突，相应硬膜囊受压狭窄变形，椎间隙略变窄。颈髓平扫未见异常信号区。	1.结合肺癌病史，小脑转移。2.脑多发小缺血灶。3.颈椎骨质增生，椎间盘C3/4、C4/5、C5/6突出。</t>
-  </si>
-  <si>
-    <t>右肺下叶切除术后，右下肺门区见软组织肿块影，截面约3.5CM×4.3CM。双肺内见多发结节灶，大者短径约2.3CM。双肺近纵隔周围见多发斑片状密度增高影，其内可见支气管充气征。右侧胸腔见少量液性密度影，右侧胸膜增厚。右锁上、右肺门、纵隔内2R、4R、7区见多发增大淋巴结，部分融合成团，大者短径约2.6CM。心包腔内见少量液性密度影。肝脏密度减低。腹腔内见多发肿大淋巴结，大者短径约2.4CM。脾实质内见一低密度灶，边缘模糊。左前下胸壁软组织内示梭形脂肪样密度影，边界清。骨窗示：左侧肩胛骨局部骨质结节状稀疏。	1.结合病史，右肺癌术后复发，较前(2016-10-05)片增大；右肺门、纵隔、右锁上淋巴结转移，基本稳定；双肺转移，较前进展；腹腔淋巴结肿大，考虑转移，部分略示增大，部分变化不著2.双肺炎症，变化不著；右侧少量胸腔积液，基本变化不著，心包积液，变化不著；右侧胸膜增厚，变化不著3.左胸壁脂肪瘤，变化不著4.脾实质内低密度灶，变化不著，建议观察5.脂肪肝6.左侧肩胛骨局部骨质稀疏，变化不著。</t>
-  </si>
-  <si>
-    <t>左乳术后缺如，胸肌尚存，左侧胸大小肌之间见一软组织肿块影，边缘模糊，直径约2.8CM，增强后示中度不均质强化。另于前胸壁皮肤见一突起的软组织密度灶，长径约4.0CM，增强后示中度强化。双锁上、左肺门、纵隔内右上气管旁、血管前间隙、主肺动脉窗区、腔静脉后方、气管隆突下示肿大淋巴结，大者短径约1.0CM。双侧肺野内见多发结节灶，边缘清晰，大者直径约1.1CM，增强后示强化。鼻咽、口咽、喉咽形态可，各壁未见明显增厚及强化。双颈动脉鞘未见肿大淋巴结。骨窗示：多发胸椎、肋骨、腰椎L5椎体上缘可见高密度骨质破坏区，骶骨未见明显异常	结合临床，左乳癌术后，术区复发并前胸壁转移，较前14.5.9略示缩小；左颈部、双锁上、左肺门、纵隔淋巴结肿大，考虑转移，部分缩小；双肺转移，略示好转；伴多发骨转移。</t>
-  </si>
-  <si>
-    <t>右乳术后，右胸壁(4-22)见一直径不足0.5CM小类结节。右腋窝结构紊乱，未见肿大淋巴结。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一类结节灶，边界模糊。双侧内乳区、肺门、纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块，大者直径约4.2CM，边缘模糊，轻度强化。胆囊充盈可，壁示增厚。胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。胸骨及胸椎局部密度稍高。	1.结合临床，右乳癌术后，右胸壁类结节灶，较前2017-1-10强化减低；肝转移，大部分变化不著，部分增大，部分略缩小；右肺结节灶，变化不著2.左肺纤维灶，变化不著3.胆囊炎4.部分骨质密度稍高，变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右肺下叶癌并右侧胸膜(含叶间胸膜)转移较前2016-05-24变化不著；右肺门、纵隔小淋巴结，较前变化不著；多发骨质异常，较前变化不著2.上腹部扫描未见明显异常。右肺下叶背段可见不规则软组织密度肿块，截面大小约1.3CM×0.9CM，边缘浅分叶，周围可见多发长短毛刺，胸膜可见牵拉凹陷，增强后呈较显著不均质强化。左侧肺野较清晰。右侧胸膜(含叶间胸膜)可见不均匀增厚，可见多发结节灶，增强后呈较显著强化。左锁上、右肺门、纵隔内2R、4R、7区可见多发略肿大淋巴结，大者短径约0.5CM。右侧胸腔内见少量液性密度影。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。骨窗示：右侧第三、六、七肋骨示溶骨性骨质破坏。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左乳癌术后；卵巢转移术后，术区片状低密度影，较前2015-8-24范围略缩小2.网膜、肠系膜及盆腹膜转移治疗后，较前局部减轻3.脂肪肝；肝囊肿；肝内低密度灶，变化不著4.右肾囊肿5.宫颈体积增大，变化不著6.胸腰骶椎、肋骨、髋骨骨质密度增高，考虑转移，较前大部分变化不著，部分密度增高7.腹腔少量积液，较前减少。左乳术后缺如，术区结构紊乱，周围脂肪间隙模糊，部分胸肌尚存，术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱。右乳未见明确异常。左侧锁骨上间隙较模糊。左肺门示短径约0.6CM淋巴结。右侧腋窝、双侧内乳区、右肺门及纵隔未见明确肿大淋巴结。左肺示少许斑片影。右肺未见明确异常密度灶。肝脏密度减低，内见囊性密度灶，边界较清，直径约2.0CM。另肝内示斑片状低密度灶，强化不著，边界欠清。胆囊、胰腺、脾、双侧肾上腺及左肾未见明确异常。右肾见短径不足0.5CM的小低密度灶。腹腔内肝胃韧带区、腹膜后腹主动脉周围见小淋巴结，大者短径约0.6CM。网膜及肠系膜、盆腹膜示增厚，局部呈斑片状及结节状改变，部分与邻近肠管分界不清，增强呈不均匀强化。腹腔内可见液性密度影。卵巢术后，术区结构紊乱，周围间隙模糊，可见片状低密度影，与周围结构分界不清。宫颈体积增大，密度欠均匀。膀胱充盈可，壁略增厚。盆腔内未见明确肿大淋巴结。多发胸腰骶椎椎体及附件、双侧部分肋骨、双侧髋骨示骨质密度增高，局部可见结节状高密度影。双侧肱骨、股骨及左侧肩胛骨密度欠均。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后，肝转移2.胆囊炎。右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内未见肿大淋巴结。双肺野清晰。肝脏实质内可见数个低密度结节灶，大者直径约0.9CM，边缘模糊，轻度强化。胆囊充盈可，壁示增厚。胰、脾及扫描野内双肾未见异常。腹膜后未见肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后；肝转移，较前2016-09-01进展；右肺结节灶，较前缩小2.左肺纤维灶3.胆囊炎。右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱，未见肿大淋巴结。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一类结节灶，边界模糊。双侧内乳区、肺门、纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块，大者直径约4.0CM，边缘模糊，轻度强化。胆囊充盈可，壁示增厚。胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t>右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺下叶可见条索状密度增高影，余肺野清晰。纵隔内未见肿大淋巴结。双肺野清晰。肝脏实质内可见多发低密度肿块，大者直径约2.7CM，边缘模糊，轻度强化。胆囊充盈可，壁示增厚。胰、脾及扫描野内双肾未见异常。腹膜后未见肿大淋巴结。	1.结合临床，右乳癌术后，肝转移，较前2015-2-25进展2.左肺下叶纤维灶3.胆囊炎。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后2.左肺门、纵隔淋巴结转移，较前(2015-10-27)变化不著3.双肺炎症及纤维灶，变化不著；双侧胸膜略增厚，变化不著，双侧胸腔积液增多4.双肺小结节灶，变化不著5.肝囊肿、钙化灶6.右肾囊肿7.右肾上腺结节灶，考虑腺瘤，变化不著8.甲状腺低密度灶，变化不著。右乳术后，前胸壁软组织略增厚，未见明显异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺门、纵隔内主肺动脉窗区可见肿大淋巴结，直径约2.0CM。右肺门淋巴结略增大，短径约0.8CM。左肺上叶支气管受压狭窄，远端肺野近纵隔旁可见带状密度增高影，另双肺内见斑片状密度增高影，右肺下叶为著。余双肺散在小结节灶，大者直径约0.4CM。双侧胸膜略增厚，双侧胸腔内可见液性密度影。甲状腺示斑片状低密度灶。肝内见囊性密度灶及斑片状致密影。胆囊壁增厚。右肾示小囊性密度灶。右肾上腺可见结节灶，直径约0.8CM，密度较低，强化不明显。骨窗示多发胸椎椎体、肋骨骨质略示稀疏。	</t>
-  </si>
-  <si>
-    <t>右肺下叶见团块影，径约为3.5CM，CT值约为38HU，增强后CT值约为53HU、48HU及66HU，边缘可见毛刺影及胸膜凹陷；右肺另见多发大小不等界清结节影。右肺下叶条片状实变，内见含气支气管影，增强后明显强化。左肺小结节(37、33)，纵隔内见数个增大的淋巴结，大者短径约为1.9CM。心脏大血管形态自然。右侧胸腔内见弧形积液征象，增强后右胸膜见结节状强化。1.上述征象考虑右肺下叶周围型肺癌可能大，并双侧肺多发转移灶可能，纵隔多发淋巴结转移，右侧胸膜转移及右侧胸腔积液征象，请结合临床详查除外其他可能；2.右肺下叶部分实变，请随诊。</t>
-  </si>
-  <si>
-    <t>1.前上纵隔胸腺癌，双肺多发转移、纵隔淋巴结转移，双侧胸腔积液、胸骨骨质转移性骨破坏；2.双肺下叶炎症。前纵隔内可见软组织密度影，边界欠清，最大截面约2.1CM×4.6CM，CT值约57HU，相邻胸骨可见多发骨质破坏区；两肺纹理增强，双肺可见多发大小不等类圆形高密度影，大者径约1.1CM；双肺下叶可见斑片状高密度影，边界模糊；双肺门区未见异常，所示气管支气管影通畅；纵隔内可见多发增大的淋巴结，大者位于主动脉弓旁，径约1.25CM；双侧胸腔可见弧形液体密度影，心脏不大。</t>
-  </si>
-  <si>
-    <t>右肺下叶可见团块影，与右肺门影分界不清，边界欠清，CT值约为29HU，其内密度不均，大小约为8.9CM×4.8CM，邻近肺组织可见模糊影，右肺下叶内基底段支气管不通。双肺可见多发的大小不等的小结节影，大者径长约1.9CM；右肺斜裂增厚、右肺中叶条片状的高密度影。纵隔内可见多发肿大的淋巴结。两胸腔积液征象，右侧显著。心包积液。甲状腺明显肿大。右侧胸壁下可见结节影，径约1.1CM。左侧第6前肋局部密度增高。1.考虑右肺下叶周围型肺癌可能，双肺多发转移，右胸膜转移，较2015-01-20CT进展，请结合临床；2.双胸腔积液，右胸腔引流术后改变；心包积液；3.甲状腺大；4.左侧第6前肋局部密度增高，较前相仿；请结合临床。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张，较前(2016-12-12)变化不著；肺炎治疗后，较前进展；双侧胸膜多发结节灶，考虑转移，部分略缩小，部分变化不著；纵隔淋巴结转移，较前略缩小；右肾上腺转移，变化不著2.肝囊肿；双肾囊肿；左肾低密度灶，胰腺低密度灶，变化不著，建议观察3.心包、左胸腔少量积液，略减少4.部分椎骨及肋骨密度略增高，较前变化不著。左肺门周围可见不规则软组织密度肿块影，约3.0CM×4.3CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。双肺内见多发斑片状密度增高影。双侧胸膜及叶间胸膜上可见多发类结节灶，大者长径约0.6CM。纵隔内2R、4R、4L、5、6、7、8区示多发融合的淋巴结影，大者短径约1.4CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常，肝实质内可见数个囊性低密度灶，边界清，增强扫描无强化。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常，右肾上腺示一类结节灶，长径约3.6CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨、肋骨密度略增高。	</t>
-  </si>
-  <si>
-    <t>空腹6H以上，静脉注射显像剂，平静休息60MMIN后行CT和PET全身断层显像，PET图像经衰减校正、迭代法重建后行多层面、多幅显像，并与CT图像进行融合。影像清晰。PET/CT示右侧乳腺术后，术区及对侧乳腺未见异常放射性摄取升高；双侧卵巢示放射性浓聚块状影，最高SUV13.6，肿块融合成团，长径达9.9CM；腹腔网膜内、盆腔髂血管旁示结节状放射性摄取升高，最高SUV6.0，大者长径约为1.7CM；膈肌旁示肿大淋巴结，短径约为1.0CM，呈轻度放射性摄取，最高SUV2.0；肝内、肝脾包膜及肠系膜内示多发结节状放射性摄取升高，最高SUV6.6，大者长径约为2.4CM；腹腔内示少量液性密度影，胆囊内示高密度结节。脑部正常显影。左侧上颌窦粘膜示增厚，咽部示对称性放射性摄取升高，甲状腺体积饱满，呈对称性放射性摄取升高，最高SUV3.6；右肺中叶内示小片状放射性摄取升高，最高SUV2.4，余双肺示小结节，未见异常放射性摄取；脾不大。双肾及双侧输尿管显影正常。腹部可见数个形态不一、条管状、浓淡不一的正常肠影。全身骨骼未见异常浓聚影。1.右乳癌术后；考虑卵巢癌并腹盆腔淋巴结转移、肝转移、腹膜转移并腹腔少量积液。2.左侧上颌窦炎；考虑咽炎、甲状腺炎、右肺局限性炎症；双肺结节及膈肌旁淋巴结肿大，建议观察。3.胆囊结石。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，考虑左肺癌；左肺门淋巴结转移，较前(2016-08-08)示增大2.右肺钙化灶3.肝内多发低密度灶，部分为囊肿，部分建议观察，变化不著4.右肾囊肿5.部分肋骨骨质异常，不除外转移，较前变化不著。左肺上叶见一不规则软组织密度肿块影，边缘分叶、毛糙，上叶支气管部分示截断，病变向内与左肺门肿大淋巴结分界不清，截面积约3.6CM×3.2CM；增强扫描呈不均匀强化。右肺野内见结节状致密影。左侧胸壁见高密度影，局部伪影较大，周围结构显示不清。左肺门见肿大淋巴结，短径约1.5CM。纵隔内见多发小淋巴结，大者短径约0.5CM。双侧胸膜示不均匀增厚并强化，双侧胸腔内见少量液性密度影。肝实质内见多发低密度灶，大部分边界较清，少许边缘模糊，大者直径约0.5CM。胆囊充盈可，壁增厚。右肾见囊性密度灶，边界清。腹腔及腹膜后未见明确肿大淋巴结。左侧第10、8肋骨示骨质膨胀，骨皮质欠连续，局部骨质密度增高或减低。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，直肠癌术后；双肺转移瘤，较前2015-9-17部分增大，部分变化不著2.双肾低密度灶，较前无明显变化，建议继续观察或结合MR检查3.肝内钙化灶4.双侧胸膜略增厚，变化不著5.右侧甲状腺低密度灶，建议观察。双肺近胸膜下示多个结节灶，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约2.4CM，内示斑点状致密影及小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。右侧甲状腺见低密度灶，边缘较清晰。肝内见点状钙化灶。胆囊充盈可，壁增厚。双肾见多发低密度灶，边界较清，部分密度略高。胰腺、脾及肾上腺形态、大小、密度未见异常。肠系膜区及腹膜后示短径不足0.5CM小淋巴结。直肠术后，吻合口未见增厚及异常强化。膀胱、前列腺及双侧精囊腺未见异常。盆腔内未见肿大淋巴结及积液。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌治疗后，较前片2015-1-4略示缩小；双肺多发类结节灶，部分较前好转；右肺门、纵隔淋巴结转移，变化不著。2.右肺下叶炎症，右肺下叶小叶间隔增厚，变化不著。3.右侧少量胸腔积液，较前减少；右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根示密度增高影。。右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。另右肺下叶小叶间隔增厚。余双肺野可见多个类结节灶，部分位于胸膜下，边缘模糊，大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径约1.1CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。扫描野内肝内见一斑点状钙化灶。T12右侧椎弓根示斑片状密度增高影。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左侧乳腺癌术后，局部胸壁类结节灶，建议观察；左侧内乳淋巴结转移，较前(2015-7-23)好转2.纵隔、右侧腋窝淋巴结肿大，考虑转移，较前部分缩小，部分变化不著3.右侧心膈角淋巴结肿大，较前增大，转移不除外4.脂肪肝；肝囊肿5.左肺上叶胸膜下慢性炎症及纤维变，变化不著。左侧乳腺术后，局部胸壁结构紊乱，见(2-17)类结节灶。右侧乳腺形态、大小、密度未见异常。左侧腋窝结构紊乱，未见增大淋巴结。左侧内乳区见短径约1.1CM淋巴结。右侧内乳区见短径不足0.5CM小淋巴结。右侧腋窝见多发增大淋巴结，大者短径约0.6CM。纵隔内血管前间隙3A、气管前间隙4R、弓旁6区见多发增大淋巴结，大者短径约1.2CM。右侧心膈角见短径约0.8CM淋巴结。左肺上叶胸膜下见少许条索状影。双侧胸腔内未见液性密度影。扫描野内肝脏密度减低，右叶见直径约0.8CM囊性密度灶，边缘清晰。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合病史，右肺上叶癌治疗后，病变较2015-07-23片略增大2.双侧肾上腺结节灶，考虑转移，左侧较前略增大3.双肺纤维灶4.心包少量积液5.左肾囊肿6.颅脑扫描未见异常。右肺上叶纵隔旁见一团片状软组织密度影，大小约1.8CM×2.2CM(肺窗)，边缘毛糙，与纵隔胸膜关系密切，增强后病变呈中等强化。另于双肺内见少许条索状密度增高影。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。心包腔内示少量液性密度影。肝脏未见异常密度灶。双侧肾上腺增大，见软组织密度结节灶，大者位于左侧，约1.8CM×2.9CM，可见强化。胆胰脾及右肾未见异常。左肾示囊性密度灶，直径约0.8CM，边界清，无强化。脑实质均质，未见异常密度灶。脑室系统未见扩张。中线结构居中。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后2.左腋窝小淋巴结；纵隔淋巴结略增大3.脂肪肝；肝囊肿；脾内低密度灶，考虑囊肿4.胆囊结石5.考虑左侧肱骨头转移。右乳术后缺如，术区未见异常增厚及强化。左乳未见异常。左腋窝示数个小淋巴结，大者短径约0.5CM。右锁骨上区脂肪间隙略示模糊；上纵隔气管右旁及腔静脉后气管前示略大淋巴结，短径约0.7CM。扫描野内肝脏密度减低。胆囊可见结节状致密影。肝及脾内均示低密度灶，大者直径约1.3CM，边界清，强化不著。双肺野清晰。左侧肱骨头可见骨质破坏。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺下叶肺癌术后改变；右肺门、纵隔淋巴结转移部分较前进展，部分变化不著2.右肺炎症纤维灶较前进展3.甲状腺体积增大并低密度灶，考虑为结节性甲状腺肿，变化不著4.双肺气肿，双肺炎症，较前加重5.左肺结节灶，考虑转移。右肺下叶部分术后，局部术区可见包裹性及部分游离性液体密度影，邻近胸膜可见增厚。双肺野可见斑片状及条索状密度增高影，边缘模糊。左肺野可见多发结节灶，部分靠近胸膜，大者直径约0.6CM。另于双肺野内见多发泡状过度透光区。纵隔内3A、4R、4L、6、7区及右肺门示多发肿大淋巴结，大者短径约2.5CM。胸廓骨质未见破坏。甲状腺右侧叶体积增大，向下凸入右上纵隔，其内密度不均，可见低密度区，周围散在点状致密灶，左侧叶内亦可见低密度灶，均边界清晰。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌并阻塞性炎症，较前片(2014-11-6)好转2.原左肺下叶结节灶，变化不著；双肺多发结节灶，转移可能性大3.肝囊肿4.部分胸椎体及肋骨骨质密度增高，变化不著，转移可能性大，请结合临床5.右肾低密度灶，建议观察。右肺中叶支气管开口处见一不规则软组织密度肿块影，边缘模糊，病变大小不易测量，增强后可见轻度强化。病变远端示片状肺不张影。双肺见多发结节灶，大者直径不足0.5CM。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶，大者直径不足0.5CM。右肾见直径约0.5CM低密度结节灶，未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分胸椎骨质密度增高，右侧第3肋局限性骨质密度增高。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">结合临床，左乳癌术后，术区复发并前胸壁转移，较前(2014-9-26)部分好转，部分变化不著2.左锁上、左肺门、纵隔小淋巴结，变化不著；左颈部淋巴结稍大3.双肺转移，较前大部分变化不著，部分增大4.多发骨转移，较前大部分变化不著，部分密度增高5.肝内低密度灶，较前似缩小，建议观察6.左肾未见显示，请结合临床。左乳术后缺如，胸肌尚存，左侧胸大小肌之间见一软组织肿块影，边缘模糊，直径约1.7CM，增强后示中度不均质强化。另于前胸壁皮肤局部增厚呈软组织密度影，增强后示中度强化。左锁上、左肺门、纵隔内右上气管旁、主肺动脉窗区、腔静脉后方、气管隆突下、左侧颈后三角区小淋巴结，大者短径不足1.0CM。双肺见小结节灶，大者直径约0.6CM。肝左外叶内见一低密度灶，边缘略示模糊，大者直径不足0.5CM。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及右肾未见异常。扫描野内左肾未见显示。腹腔及腹膜后未见明显肿大淋巴结。骨窗示：胸骨、部分胸腰椎椎体、肋骨见骨质破坏区。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、结合临床，右乳癌，右侧腋窝淋巴结肿大，考虑转移2.双肺下叶炎症；2、肝内低密度灶，建议定期复查3、颅脑扫描未见异常。右乳外上象限示一软组织肿块影，呈浅分叶状，与周围腺体分界欠清，最大截面约4.1CM×2.8CM，增强扫描边缘明显强化，肿块与胸大肌见脂肪间隙清晰，右侧腋窝见多枚肿大淋巴结，较大者短径约1.3CM。右乳皮肤局部略示增厚。左乳未见明显异常。双侧内乳区未见明显增大淋巴结。双肺纹理清晰，两肺下叶外基底段见斑片状、索条状高密度。纵隔居中，内未见确切肿大淋巴结，心影大小形态尚可，双侧胸膜无增厚，胸腔无积液，胸壁未见异常。扫及肝右前叶下段见类圆形低密度，截面大小约0.4CM×0.5CM，增强扫描未见强化。双侧大脑半球对侧，灰白质分界清楚，脑实质内未见确切异常密度灶，增强扫描未见强化，脑室系统未见扩大、脑沟、裂、池未见增宽，中线结构未见移位。	</t>
-  </si>
-  <si>
-    <t>1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移，肿块较2014-04-02CT缩小，空洞形成；2.右肺下叶炎症，请随诊；3.所示多发骨转移征象，右侧第10后肋病理性骨折，较前胸骨柄内病灶较前范围增大。右肺下叶背段(30)见椭圆形肿块影，径约1.9CM，边缘不规整，可见多发毛刺影，并见血管影进入，牵拉邻近胸膜，内空洞形成，CT值约8HU。右肺下叶见斑片影。右肺门区及纵隔内可见多发肿大淋巴结影，大者短径约1.65CM。两胸腔无积液征象。心脏大血管未见异常。双侧第10后肋、胸骨柄及胸骨体内可见高密度影，胸2附件骨质可见溶骨性破坏区。</t>
-  </si>
-  <si>
-    <t>右肺下叶基底段见软组织肿块影，边缘模糊，有分叶，左肺下叶支气管示截断，病变与远端膨胀不全肺组织分界不清，大小不易测量，增强后可见不均匀强化；邻近叶间胸膜可见增厚。右肺野内见多个结节灶，大者直径约0.5CM，大部分与胸膜关系密切，增强后可见强化。左肺上叶胸膜下见直径约0.2CM小结节灶。左肺见少许索条状及斑片状密度增高影。右侧胸膜示增厚并可见强化。右侧胸腔见液性密度影。左锁上伪影较大，间隙模糊。纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结，大者短径约0.9CM。肝实质内见多发囊性密度灶，大者直径约3.0CM。另肝内动脉期见一略强化结节灶，延迟略呈等密度灶。胆囊充盈可，壁不厚。胰、脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见低密度灶，短径约1.1CM，增强局部似见强化。腹主动脉周围示淋巴结，大者短径约0.5CM。	1.结合临床，右肺下叶癌治疗后，较前(2014-12-08)病变示变化不著，周围肺不张示范围增大；右侧胸膜增厚，考虑转移，变化不著；右侧胸腔积液，较前增多；右肺转移，变化不著2.左肺上叶类结节灶，变化不著，建议观察；左肺炎症3.纵隔、腹膜后小或稍大淋巴结，较前变化不著4.肝囊肿5.右肾低密度灶，较前缩小，建议进一步检查6.肝内强化灶，较前变化不著，考虑血管瘤。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后；部分椎体密度增高，考虑转移，较前片(2016，08，23)变化不明显2.肝囊肿3.左肺类结节，变化不明显；右肺少许纤维灶4.肝内强化灶，考虑血管瘤。肝脏大小形态可，实质内示低密度影，边界清晰，增强扫描未见强化，直径不足0.5CM。另肝左叶动脉期见一长径约0.7CM强化结节，延迟呈等密度。胆囊不大，壁不厚。胰腺、双侧肾脏、双侧肾上腺及脾未见异常。腹腔及腹膜后未见肿大淋巴结。右乳术后，术区结构紊乱，胸肌存在，壁未见增厚及异常强化。右侧腋窝结构紊乱。左侧腋窝、双侧内乳区、肺门及纵隔未见增大淋巴结。左肺见小类结节，直径不足0.5CM。右肺见少许索条影。双侧胸膜未见增厚。双侧胸腔未见积液征象。椎体局部密度增高。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌并双肺转移、肝转移治疗后，较前(2015-05-13)明显好转；双侧腋窝、纵隔多发小淋巴结，变化不著；右侧内乳区淋巴结肿大，变化不著2.左肺胸膜局限性增厚，局部钙化，变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影，约4.7CM×3.1CM，边缘浅分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结，大者短径约0.6CM。右侧内乳区见增大淋巴结，短径约0.5CM。纵隔内左侧下肺静脉旁见短径约0.6CM的淋巴结影。双肺野散在分布大小不等结节灶，大者直径约1.7CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左肺胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。扫描野肝实质内见多个低密度灶，大者直径约1.3CM，边缘尚清晰，增强扫描边缘强化显著，部分呈牛眼征。	</t>
-  </si>
-  <si>
-    <t>右乳腺体内、皮肤区、右胸壁、右腋窝及扫描野内右颈根部可见多发软组织密度灶，边缘毛糙，增强后呈不均质明显强化，部分相互融合，右腋窝者局部可见溃疡形成。右侧胸壁及右上臂软组织肿胀。左乳未见异常。左侧腋窝、双侧内乳区、气管右旁可见增大淋巴结，大者短径不足1.0CM。双肺内可见散在类圆形结节灶，边界较清晰，大者直径约0.6CM。甲状腺体积增大，局部可见低密度灶及钙化灶。右侧胸腔示少许液性密度影，双侧胸膜略增厚。扫描野内肝脏实质密度减低。胆囊充盈可，壁略厚。右侧锁骨呈内固定术后改变。右侧部分肋骨密度欠均。	1.右乳癌侵及皮肤及胸壁并右侧胸壁转移、右腋窝及右颈根部淋巴结转移治疗后，较前(2016-5-20)部分好转，部分变化不著；双肺转移，较前好转2.左侧腋窝、双侧内乳区、纵隔增大淋巴结，部分缩小，部分变化不著3.甲状腺增大伴低密度灶及钙化灶，考虑变化不著4.脂肪肝5.右侧胸腔少量积液6.右侧锁骨术后改变。</t>
-  </si>
-  <si>
-    <t>右肺下叶基底段见软组织肿块影，边缘模糊，有分叶，肿块最大截面约1.8CM×3.4CM，增强后可见显著强化；邻近胸膜可见增厚。右肺内、右侧肋胸膜、叶间胸膜及斜裂胸膜示多发结节灶，大者直径约0.3CM，增强后可见强化。左侧肺野清晰，未见异常。左锁上、纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结，短径约0.8CM。肝实质内见多发囊性密度灶，大者直径约3.0CM。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见囊性密度灶，短径约2.0CM。肝总动脉旁及腹主动脉周围示增大淋巴结，大者短径约0.5CM。	1.结合临床，右肺下叶癌并右侧胸膜转移较前(2014-7-4)变化不著2.右肺结节灶，考虑转移，较前变化不著3.左锁上、纵隔、腹腔淋巴结肿大，较前变化不著；腹膜后小淋巴结4.肝囊肿5.右肾囊肿。</t>
-  </si>
-  <si>
-    <t>右肺上叶支气管壁示增厚，周围见不规则软组织肿块，增强后呈不均匀强化；右肺中叶支气管局部狭窄，远端见不张肺组织。双肺支气管血管束增粗，小叶间隔增厚，以右肺为著。双肺见多发结节灶，部分边缘毛糙，大者长径约1.4CM。双侧叶间胸膜增厚，局部呈类结节状。双侧肺门及纵隔、右侧锁骨上见大者短径约1.2CM肿大淋巴结。另右肺门及纵隔见钙化灶。左侧颈内静脉局部见低密度充盈缺损。肝内见多发强化灶，大者长径约1.2CM。另肝内见小低密度灶，强化不著。肝内见斑点状钙化灶。双侧肾上腺见类结节灶，可见强化。双肾见低密度灶，边缘不清，似强化。双肾见囊性结节。胆囊内见结节状高密度影。腹腔及腹膜后见短径约0.6CM小或稍大淋巴结。双侧肩胛骨、胸骨、右侧锁骨、多发肋骨及椎骨示多发骨质破坏。	1.结合临床，右肺癌并双肺、肝，双侧肾上腺转移，双肺门及纵隔、右侧锁骨上淋巴结转移；较前片(2016-9-22)示好转；骨转移，考虑较前进展；腹腔淋巴结稍大，变化不著；双侧叶间胸膜增厚，转移可能性大，略好转2.双肾低密度灶，略好转；双肾囊肿3.肝低密度灶，囊肿可能，变化不著；肝内钙化灶4.左颈内静脉栓子形成5.胆囊结石。</t>
-  </si>
-  <si>
-    <t>1、右肺下叶周围型肺癌并远端阻塞性肺炎，较2013-05-28CT未见显著变化，周边粟粒灶，左肺上叶前段结节，左肺下叶背段斜裂处结节，较前进展；右肺门、纵隔淋巴结稍大，较前相仿；2、肝内多发低密度灶；3、胸椎成骨性转移。右肺上叶可见索条影；右肺下叶可见肿块影，大小为6.73CM×5.87CM，CT值约为46HU，增强时其内密度不均，呈明显强化；边缘不规整，可见毛刺及分叶，邻近胸膜粘连；病灶周边见小粟粒灶。左肺上叶前段可见结节灶，径约1.30CM。左肺下叶背段近斜裂处见小结节影，径约0.41CM；右肺门、纵隔淋巴结增大，大者短径1.70CM。心脏大血管未见异常。胸3椎体内可见片状高密度影。肝内可见多发低密度影。</t>
-  </si>
-  <si>
-    <t>右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。余双肺可见小类结节灶，边缘模糊，大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径约1.1CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝内见一斑点状钙化灶。胆囊充盈可，壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶，大者短径约0.6CM。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。T12右侧椎弓根示斑片状密度增高影。	1.结合临床，右肺癌治疗后，较前片2015-8-25变化不著；双肺类结节灶治疗后，变化不著；右肺门、纵隔淋巴结转移治疗后，较前变化不著。2.右肺下叶炎症、纤维灶，变化不著。3.右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影，变化不著。6.颅脑CT扫描未见明显异常。</t>
-  </si>
-  <si>
-    <t>左肺下叶后基底段及左肺上叶下舌段见团块影，大者大小约2.93CM×4.13CM，CT值约23HU，边界较清，边缘可见胸膜牵拉，增强扫描均匀强化，三期CT值分别约36、47、55HU。左肺可见多发实性结节，大者径约0.84CM。两肺纹理清晰。两肺门区未见异常。所示气管支气管影正常。纵隔内见稍大淋巴结，短径约1.18CM。两胸腔无积液征象，左侧胸壁可见胸膜增厚影。心脏大血管未见异常。1.左肺下叶后基底段占位，多考虑周围型肺癌、左肺多发转移；纵隔内多发稍大淋巴结；2.左侧胸膜增厚。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右侧中心型肺癌并阻塞性不张治疗后，右肺中下叶不张并右肺下动脉、肺静脉及左心房栓子形成；右肺门淋巴结肿大，较前(2015-12-1)增大；右侧胸膜增厚，考虑转移，较前明显；骨转移，变化不著；脑转移，基本变化不著2.心包积液，变化不著；右侧胸腔积液3.右侧乳腺术后改变4.肝内钙化灶5.鼻旁窦炎。右肺中下叶体积缩小、密度不均匀性增厚，支气管显示不清，部分血管变细，右肺下动脉、肺静脉及左心房示充盈缺损影。右肺支气管血管束增粗，余双肺内示索条影。右侧胸膜增厚并可见强化。右侧胸腔及心包内示液性密度影。右侧乳腺术后缺如，术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区未见明显肿大淋巴结。右肺门示增大淋巴结，与周围结构分界不清。双锁上见增大淋巴结，大者短径约0.9CM。纵隔内4R、4L、5区、7区见多发小淋巴结，大者短径约0.5CM。肝内示颗粒状钙化密度影。胆囊、胰腺、脾、扫描野内双肾及肾上腺未见明显异常。腹腔、腹膜后未见肿大淋巴结。左侧大脑内示结节、肿块影，大者截面约2.9CM×3.4CM，其内呈囊性密度灶，增强扫描呈边缘环形强化；周围示片状无强化的低密度水肿带，邻近侧脑室局部略示受压。中线结构无移位。双侧上颌窦及筛窦内示液体密度影。骨窗：胸骨、部分椎骨骨质密度不均匀增高。	</t>
-  </si>
-  <si>
-    <t>左乳术后缺如，胸肌尚存，左侧胸大小肌之间见一软组织肿块影，边缘模糊，直径约1.7CM，增强后示中度不均质强化。另于前胸壁皮肤局部增厚呈软组织密度影，增强后示中度强化。左锁上、左肺门、纵隔内右上气管旁、主肺动脉窗区、腔静脉后方、气管隆突下小淋巴结，大者短径不足1.0CM。双肺见小结节灶(图6-19、26、27、35)，直径不足0.5CM，增强后示强化。肝左外叶内见一低密度灶，边缘略示模糊，大者直径不足0.5CM。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及右肾未见异常。左肾缺如。腹腔及腹膜后未见明显肿大淋巴结。骨窗示：胸骨、部分胸腰椎椎体、肋骨见骨质破坏区，骶骨未见明显异常。	结合临床，左乳癌术后，术区复发并前胸壁转移2.左锁上、左肺门、纵隔淋巴结肿大3.双肺转移4.多发骨转移。</t>
-  </si>
-  <si>
-    <t>右肺下叶背段可见软组织密度结节灶，大小约1.6CM×2.6CM，边缘毛糙，紧贴纵隔胸膜；增强后结节呈较明显强化。右侧胸膜示不规则增厚。右侧胸腔内可见少许液性密度影。右侧下叶示局限性实变。纵隔内未见肿大淋巴结。肝脏大小形态可，实质均质。胆囊充盈可，壁不厚。胰腺、脾及双肾大小形态密度未见异常。腹腔、腹膜后未见肿大淋巴结。腹腔内未见积液征象。膀胱充盈可，壁不厚。子宫及附件区未见异常。盆腔内未见肿大淋巴结。	1.结合临床，右肺癌并右侧胸膜转移，右侧胸腔积液伴右肺局限性实变2.腹盆部扫描未见异常。</t>
-  </si>
-  <si>
-    <t>右肺下叶背段见不规则软组织影，大小约6.0CM×4.8CM，边缘见分叶征，其内密度不均匀，可见空洞形成，与邻近胸膜关系明确，右肺上叶(3-17、20)及左肺下叶(3-37)结节影，大者直径约0.4CM。纵隔内4R、4L、7及双肺门示多发结节灶，大者短径约1.2CM。胸廓骨质未见破坏。右侧甲状腺体积增大，向下凸入右上纵隔，其内密度边界，可见低密度区，周围散在点状致密灶。右侧基底节区近外囊处示一结节灶低密度灶，边界较清，长径约0.9CM，余脑实质内未见异常密度影，脑沟、脑池未见增宽或狭窄，脑室大小、形态，位置正常，中线结构居中。增强：脑实质未见异常强化，脑沟、脑池、脑室内未见异常。	1.右肺下叶肺癌累及胸膜并右肺门、纵隔淋巴结转移2.右肺小结节灶，不除外转移3.甲状腺体积增大并密度不均匀，考虑为结节性甲状腺肿4.右侧基底节区腔隙性脑梗塞5.双肺气肿。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右肺癌，较前2014-8-18变化不著2.纵隔淋巴结转移，变化不著3.右侧叶间胸膜结节，考虑转移，变化不著4.右肺内小结节，变化不著5.右肺门淋巴结肿大6.左肺下叶钙化结节灶；左肺尖类结节灶，可能为纤维灶7.甲状腺右侧叶体积增大，考虑结节性甲状腺肿8.T3椎体骨质密度不均，较前变化不著。右肺上叶见一软组织密度结节灶，大小约2.6CM×1.8CM，其边缘浅分叶，并见细毛刺，外缘见胸膜凹陷征；增强后病变呈中等不均匀强化。左肺下叶见一长径约0.4CM钙化结节灶(图4-32)，边缘清晰。右肺内见少许小结节，边缘清晰，直径不足0.5CM。右侧水平裂及斜裂见多发小结节灶，边缘清晰，直径不足1.0CM。左肺尖(4-14)示一类结节灶，边界清，密度略高，直径约0.2CM。右肺门区见短径约0.9CM淋巴结。纵隔内4R见增大淋巴结，大者短径约1.9CM。甲状腺右侧叶体积增大，其内见钙化结节灶。双侧胸腔未见液性密度影。骨窗示：T3椎体局部骨质密度不均。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后改变，较前(2016-3-25)变化不著；肝转移；考虑骨转移2.右肺局限性纤维灶3.右肺小结节灶部分变化不著，部分增大，考虑转移4.考虑肝囊肿5.胆囊炎6.胰头部密度略减低，建议观察7.右肾囊肿。右乳术后，术区结构紊乱，周围间隙模糊，皮下可见少许片絮状密度增高影，胸壁未见明显增厚。右侧腋窝结构紊乱，未见异常强化。左乳形态、密度未见异常，右侧腋窝见小淋巴结，短径不足0.5CM。左腋窝、双侧颈后三角区及左侧锁骨上示短径不足1.0CM淋巴结。双侧内乳区、肺门及纵隔未见增大淋巴结。右肺野内见数个小结节灶，大者长径约0.6CM(肺窗)。另右肺近前胸壁下示条片影。甲状腺右叶密度减低。肝内示多发低密度灶，边缘模糊。另肝内示类囊性密度灶。胆囊壁增厚。胰头部密度略减低。右肾示囊性密度灶。腹腔、腹膜后未见肿大淋巴结。部分椎骨密度不均，以T10为著。	</t>
-  </si>
-  <si>
-    <t>与2013-10-28前片对比：1.左肺下叶中央型肺癌并阻塞性肺炎与阻塞性肺不张，左下肺动静脉受侵，纵隔及左肺门淋巴结转移，较前进展；2.双肺下叶多发类圆形小结节，考虑转移瘤，较前相仿；3.双肺弥漫性间质纤维化，较前进展；4.双侧胸膜增厚，左侧胸腔积液，较前新发。左肺下叶背段可见肿块影，边界模糊，径约8.46CM×8.21CM，平扫CT值约24-42HU，增强实性部分轻度强化，囊性低密度部分不强化，CT值约为14-54HU，22-66HU，16-44HU；左肺下叶部分支气管截断，左侧肺门可见增大淋巴结，左下肺动静脉受侵，侵及胸膜；双肺下叶及胸膜下多发类圆形小结节影，大者径约1.37CM×1.59CM；双肺小叶间隔增厚，近胸膜处多发囊状无肺纹理透亮区，纵膈内可见增大淋巴结，大者径约1.87CM×1.40CM。左侧胸腔可见弧形低密度影，双侧胸膜增厚心脏大血管未见异常。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.考虑右乳癌；右侧腋窝淋巴结肿大，考虑转移2.甲状腺低密度灶，考虑良性，建议观察3.上腹部扫描未见异常。右乳外上象限见一软组织密度结节灶，长径约3.3CM，边缘毛刺，与正常腺体分界不清，同侧皮肤显示增厚，增强扫描病变呈较显著强化。右侧腋窝见多发肿大淋巴结，大者短径约0.9CM，增强扫描可见强化。左乳未见异常。左侧腋窝及双侧内乳区未见肿大淋巴结。双侧肺野清晰。纵隔及双肺门未见肿大淋巴结。双锁上见大者短径不足0.5CM小淋巴结。扫描野内甲状腺右叶见一低密度灶，直径约1.1CM，边界较清，增强扫描强化不著。肝脏形态、大小正常，实质密度均质。胆囊充盈可，壁不厚。胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合病史，左乳癌并左腋窝、左颈部淋巴结清扫术后改变，肝、骨多发转移伴FDG高代谢2.左前胸壁FDG略高代谢，为放疗后改变3.双肺多发小结节，未见异常代谢，较自带既往CT片(2015-2-11)变化不著，考虑陈旧结节；左肺纤维炎性变伴FDG高代谢；双肺门及纵隔炎性淋巴结伴FDG略高代谢4.胆囊小结石或钙化。静脉注射示踪剂FDG后60MMIN行PET/CT显像。PET/CT图像示左乳术后缺如，左前胸壁呈轻度斑片状放射性摄取，最高SUV2.0。左肺尖及左肺上叶近前胸膜下示斑片状实变影及纤维索条影，伴斑片状放射性摄取增高，以左肺尖为著，最高SUV6.0；双肺胸膜下示数个小结节，大者长径约0.5CM，均未见异常放射性摄取。双肺门及纵隔示放射性摄取略增高的淋巴结，最高SUV4.2。脑实质内未见明显异常。左颈部淋巴结清扫术后，术区结构紊乱，未见异常放射性摄取。鼻咽、口咽、下咽及喉部未见明显异常放射性浓聚灶。甲状腺两叶不大，形态可，腺实质内未见异常放射性浓聚灶。肝内示多发大小不一的圆形结节伴异常放射性摄取增高，大者长径约1.4CM，最高SUV12.8。胆囊大小正常，近胆囊壁局部示点状高密度影。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。胃充盈好，胃壁显影如常。腹部可见条索状肠影。腹腔、腹膜后未见明显肿大或放射性摄取异常增高的淋巴结。腹水征阴性。膀胱内示放射性尿液充填。子宫形态尚可，局部无异常放射性浓聚。两侧附件区未见异常放射性摄取。两侧腹股沟无异常淋巴结显示。L3、L4、骶骨椎体或附件示数个放射性浓聚灶，最高SUV5.4，局部骨质密度未见明显异常。	</t>
-  </si>
-  <si>
-    <t>1、右肺上叶中心型肺癌，纵隔内及右肺门多发淋巴结转移；2、右肺下叶基底段小结节，考虑陈旧灶，请随诊；3、左肺术后改变。右肺上叶可见类圆形软组织肿块影，边缘不规整，病灶边缘可见毛刺，大小约9.22CM×6.44CM，CT值约35HU；增强扫描可见不规则强化，三期CT值约45HU，73HU，78HU，中心可见片状条状低密度影。右肺上叶支气管可见阻塞狭窄征象。右肺下叶外基底段可见结节状密度增高影，边界欠清，长径约0.52CM；左肺体积变小，左肺可见多个条索状密度增高影，边界不清；双肺纹理增强，两肺门大小、形态未见明显异常。纵隔内及右侧肺门可见多个肿大淋巴结影，心影不大，大血管管壁可见钙化。左侧胸膜可见明显增厚，未见胸腔积液征象。左侧第4肋形态欠规整。</t>
-  </si>
-  <si>
-    <t>1.结合临床，左乳癌术后；骨转移2.肝右后叶片状密度增高影，考虑动静脉瘘形成3.胆囊结石4.左侧肾上腺结节灶，转移待排，建议密切观察5.脂肪肝以上均较前(2014-10-13)片变化不著左乳术后，术区结构紊乱，肌肉，密度欠均质，术区未见异常强化灶。左侧腋窝结构紊乱。右乳未见异常。双侧内乳区、双侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰，未见结节及异常强化灶。肝脏密度减低；肝右后叶内见片状密度增高影，其强化方式与同层腹主动脉相似。胆囊充盈可，其内见点状致密影。胰、脾、右侧肾上腺及扫描范围内双肾未见异常。左侧肾上腺见软组织结节灶，短径约1.3CM，增强后轻度强化。骨窗示胸骨及T12胸椎示混合性骨质破坏。</t>
-  </si>
-  <si>
-    <t>1.结合临床，右乳癌术后复发并右侧锁骨上、腋窝、胸肌后方、内乳区淋巴结转移2.左侧锁骨上区密度增高影，建议观察3.肝内低密度灶，转移不除外，肝内强化灶，不典型血管瘤不除外，建议MRI检查定性4.左肾囊肿5.小脑蚓部环状密度增高影，建议MRI检查定性6.胸椎局限性骨质稀疏，建议骨扫描定性右乳术后，术区可见多发软组织肿块影，部分隆起于表面，大者约1.4CM×2.4CM，增强扫描中等不均匀性强化。左乳未见异常。双肺清晰。右侧锁骨后方、右侧腋窝、胸肌后方、右侧内乳区可见软组织肿块影，大者短径约2.7CM，边界不清，轻度强化，部分与胸膜及肋软骨关系密切，局部肋软骨骨质略示稀疏。左侧锁骨上区可见片状密度增高影，边缘可见多发结节状钙化灶，增强扫描无明显强化。肝内似可见多发略低密度灶，边缘模糊。肝左右叶交界区似可见一结节状强化灶(9-46)，直径约0.6CM。左肾可见囊性密度灶。腹腔腹膜后未见肿大淋巴结。小脑蚓部可见一环状密度增高影(12-17)，直径约0.4CM。余脑实质未见显著异常。中线结构居中。骨窗部分胸椎椎体及附件骨质局限性稀疏。</t>
-  </si>
-  <si>
-    <t>右肺上叶尖段可见分叶状肿块，最大横断面径约3.6CM×2.7CM，其内密度尚均匀，CT值54HU，增强扫描可见不均匀强化，三期CT值为54、67、75HU，部分区域强化不明显，周围可见毛刺及血管集束，右肺上叶前段可见索条灶，右肺中叶内侧段及左肺舌叶可见结节影，余双肺支气管血管束增粗，胸膜下可见网格影及胸膜下线、间隔旁肺气肿。两肺门区未见异常。所示气管支气管通畅。纵隔内可见增大的淋巴结。两胸腔无积液征象。冠脉可见钙化灶。双侧胸膜增厚。右侧第2、3胸椎椎体及附件、第2肋骨质破坏并软组织肿块形成，右侧第8、9肋、下位胸椎骨骨质破坏，右侧第3-6肋骨陈旧骨折。1.右肺上叶尖段周围型肺癌，纵隔淋巴结转移，多个胸椎与多发肋骨转移；2.右肺上叶前段索条灶；右肺中叶及左肺上叶多发结节，随诊；3.双肺间质纤维化；双侧胸膜肥厚；4.胆囊结石。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌，较前(2015-06-23)片基本变化不著；双肺转移，较前部分缩小，部分变化不著，部分略增大；肝转移，较前好转；双侧腋窝、纵隔多发小淋巴结，变化不著；右侧内乳区饱满，变化不著；脑多发转移2.左肺胸膜局限性增厚，局部钙化，变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影，约4.6CM×3.2CM，边缘浅分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结，大者短径约0.6CM。右侧内乳区显示饱满。纵隔内左侧下肺静脉旁及下段食管旁见小淋巴结影。双肺野散在分布大小不等结节灶，大者直径约1.7CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左肺胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。扫描野肝实质内见多个低密度灶，大者直径约0.8CM，边缘尚清晰，增强扫描边缘强化显著。脑实质内示多发结节灶，大者直径约0.7CM，增强扫描可见环形强化。脑室池无扩张。脑沟回无增宽。中线结构居中。	</t>
-  </si>
-  <si>
-    <t>1.结合临床，左乳癌治疗后改变，胸肌局部强化灶，较前(2017-1-6)增大；左腋窝及左锁骨上小淋巴结；肝转移治疗后，变化不著；骨转移，变化不著2.右乳钙化灶；右腋窝略增大淋巴结，变化不著3.双肺纤维灶4.甲状腺低密度灶左乳结构紊乱，强化欠均质，局部见可见片状较低密度灶，边缘清晰，左腋窝结构紊乱并可见片状影，左腋窝(5-21)及左侧锁骨上示大者短径约0.5CM小淋巴结。左侧胸肌局部见结节状强化灶，边缘模糊。右乳可见数个大小不一的钙化灶，右腋窝内可见数个结节灶，大者短径约0.6CM。双肺内示少许索条影。纵隔内未见明显肿大淋巴结。甲状腺内示低密度灶。肝内S4段示一低密度灶，边缘有强化，直径约0.6CM。余肝内示小类囊性密度灶。胆囊胰脾双肾未见异常。腹腔及腹膜后未见肿大淋巴结。胸骨、部分椎骨及左第五后肋显示骨质破坏。</t>
-  </si>
-  <si>
-    <t>1.纵隔右侧占位，合并淋巴结转移，考虑侵袭性胸腺瘤；支气管炎征象；右侧胸腔积液；较前2015-07-08CT新发；2.左肺下叶磨玻璃灶，较前相仿，请结合临床；双肺多发粟粒灶，部分钙化，较前相仿；3.下位胸椎体内高密度影，较前相仿。双肺血管支气管束增强、模糊。双肺见多个斑点状粟粒影，部分呈致密影。左肺下叶内基底段(H101)见一磨玻璃影，大小为1.40CM×1.2CM，其内见血管影穿行。纵隔右侧见不规则软组织密度影，大小约5.8CM×3.8CM，平扫CT值约34HU，三期增强值分别是50、42、65HU.右肺叶间裂增厚。纵隔、腋窝内见明显增大的淋巴结，较大者短径约1.8CM。右侧胸腔积液征象。心脏不大，部分大血管壁见钙化。下位胸椎体内高密度影。</t>
-  </si>
-  <si>
-    <t>右乳癌术后，术区结构紊乱，局部增强前后未见明显占位性病灶。肝左右叶可见多发大小不等病灶，T1WI呈略低信号，T2WI及压脂像呈略高信号，DWI呈高信号，增强扫描病灶呈不均匀强化，大者约0.7CM位于左外叶。肝实质内及双肾实质内可见散在囊性结节，边界清楚，无强化，大者约1.0CM位于左肾。胆囊不大。脾、胰腺增强前后未见异常信号区。腹膜后未见明显肿大淋巴结。所扫部分椎体可见斑片状骨质破坏区，呈长T1短T2信号，压脂像及DWI为高信号，不均匀强化。余未见异常。	1.结合病史，右乳癌术后，肝(多发)及椎体转移，较本院(2016-01-11)MR片示肝转移明显好转。2.肝及双肾囊肿。</t>
-  </si>
-  <si>
-    <t>右乳术后，前胸壁软组织略增厚，未见明显异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺门、纵隔内主肺动脉窗区可见肿大淋巴结，直径约1.8CM。右肺门淋巴结略增大，短径约0.8CM。左肺上叶支气管受压狭窄，远端肺野近纵隔旁可见带状密度增高影，另双肺内见斑片状密度增高影，右肺下叶为著。余双肺散在小结节灶，大者直径约0.4CM。双侧胸膜略增厚。甲状腺示斑片状低密度灶。扫描野内肝左叶示小类圆形低密度灶(3-45)，强化不著，边缘欠清晰。余肝内见囊性密度灶及斑片状致密影。右肾示小囊性密度灶。右肾上腺可见结节灶，直径约0.8CM，密度较低，强化不明显。	1.结合临床，右乳癌术后2.左肺门、纵隔淋巴结转移，较前(2015-6-3)变化不著3.双肺炎症，局部示好转；双侧胸膜略增厚4.双肺小结节灶，变化不著5.肝左叶低密度灶，建议观察；肝囊肿、钙化灶6.右肾囊肿7.右肾上腺结节灶，考虑腺瘤，变化不著8.甲状腺低密度灶。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌并双肺转移、肝转移、纵隔淋巴结转移较前病灶示缩小；右侧内乳区饱满，变化不著；原脑转移瘤显示不清2.左肺胸膜局限性增厚，局部钙化，变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影，约6.8CM×5.3CM，边缘分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结，大者短径约0.6CM。右侧内乳区显示饱满。纵隔内心包右旁、气管隆突下及左侧下肺静脉旁及下段食管旁见肿大淋巴结影，大者短径约1.0CM。双肺野散在分布大小不等结节灶，大者直径约1.3CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左肺胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。肝实质内见多个低密度灶，大者直径约0.3CM，边缘尚清晰，增强扫描边缘强化显著。胆囊充盈可，壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内未见异常密度影，脑沟、脑池未见增宽或狭窄，脑室大小、形态，位置正常，中线结构居中。增强：脑实质未见异常强化，脑沟、脑池、脑室内未见异常。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合乳癌术后病史，考虑胸椎T12转移；2.胸椎T8、T11结节灶，考虑脂肪岛；3.椎间盘T11/12、L2/3、L3/4、L4/5突出；4.骶管囊肿。胸腰椎椎体曲度略变直。胸椎T12椎体右后示斑片状略短、略长T1略长T2信号，压脂像呈低、略高信号，增强扫描呈轻度强化。胸椎T8、T11椎体示类圆形短T1长T2信号，压脂像呈低信号，增强扫描无强化。椎间盘T11/12、L2/3、L3/4、L4/5向后突出，压迫硬膜囊。所扫脊髓及马尾区增强前后未见明显异常信号。平骶椎S2水平骶管内可见一约1.0CM×1.7CM的囊性结节，边界清楚，无强化。	</t>
-  </si>
-  <si>
-    <t>右肺下叶(25)见类圆形肿块影，CT值约26HU，边界较清，大小约2.7CM×2.1CM，分叶，边缘可见毛刺，邻近胸膜凹陷。左肺叶(S27、35)见高密度小结节影，边界清晰，径约0.56CM；右肺上叶(36、41、45)、中叶(29、32、33)左肺下叶外侧底段(S28)可见多发粟粒影；两肺门区未见异常。前上纵隔可见结节影，径约0.9CM，CT值约30HU。纵隔稍大淋巴结影。两胸腔无积液征象。心脏未见异常，主动脉、冠状动脉管壁钙化。第3胸椎右侧横突内可见类圆形高密度影。第8胸椎骨质不规整，其内可见斑片状高密度影。所示肝内密度减低，小于同层脾密度。1.右肺下叶周围型肺癌，较(2015-11-10)相仿；2.左肺叶小结节、左肺下叶粟粒灶，部分病灶较前略增大；3.前上纵隔结节，较前相仿；4.第3胸椎右侧横突高密度灶，较前相仿；第8胸椎骨质破坏，较前骨质破坏明显，考虑转移；5.脂肪肝。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.左肺下叶癌，较前2016-10-11范围基本变化不著，内可见气体影，请结合临床；左肺门、纵隔淋巴结转移，左肺门者略饱满、密度局部减低，余大部分略缩小2.双肺炎症，略增多；双肺气肿3.左锁上淋巴结略大，变化不著4.左侧肾上腺结节灶，转移不除外5.肝右叶强化欠均，右肾低密度灶，请结合其他检查或观察。左肺下叶可见一不规则肿块，截面约7.2CM×7.0CM，边缘分叶，与胸膜关系密切，周围示斑片及絮状密度增高影，增强扫描病变呈较显著不均匀强化，其内见低密度区及斑片状气体影。双肺野见较多片状高密度影。余双肺多发泡状过度透光灶。左肺门及纵隔多发增大淋巴结，大者短径约3.2CM，部分融合。左锁上淋巴结略大，短径约0.6CM。扫描野内左侧肾上腺示小结节灶。肝右后叶强化欠均。右肾上极示斑片状低密度灶，边界欠清。	</t>
-  </si>
-  <si>
-    <t>会诊*******(2016-7-21)右肺尖段示不规则结节灶，边界清晰，大小约为1.0CM×0.9CM，增强扫描呈中度强化。右肺门及纵隔多发淋巴结肿大，部分融合成团，大者短径约为4.5CM，包绕挤压邻近组织。肝脏大小形态可，肝左叶示低密度影，边界清晰，增强扫描未见强化。胆囊不大，壁略厚。胰腺、双肾、双侧肾上腺及脾未见异常。腹腔及腹膜后未见肿大淋巴结。	1.考虑右肺上叶癌并纵隔及右肺门淋巴结转移；2.肝囊肿、胆囊炎。</t>
-  </si>
-  <si>
-    <t>左肺门周围可见不规则软组织密度肿块影，约5.9CM×7.2CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织分界不清，向内与肺门淋巴结分界不清，与纵隔内软组织及心包分界不清，余双肺野内未见异常密度影，双侧胸膜及叶间胸膜上可见多发类结节灶，大者约1.0CM。纵隔内2R、4R、4L、5、6、7、8区示多发肿大融合的淋巴结影，大者短径约1.8CM。心包内可见少量液性密度影。左胸腔内可见弧形液性密度影。肝脏大小形态未见异常，肝实质内可见数个囊性低密度灶，边界清，增强扫描无强化。胆囊、胰腺、脾、双肾、左肾上腺未见异常，右肾上腺示一类结节灶，长径约3.3CM。腹腔腹膜后未见肿大淋巴结影。	1.左肺中心型肺癌累及肺门、纵隔及心包，阻塞性肺不张、肺炎；双侧胸膜多发结节灶，考虑转移；纵隔淋巴结转移；右肾上腺转移；2.肝囊肿；3.心包、左胸腔少量积液。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左乳癌术后，左上臂肿物、左侧内乳区及左侧胸膜结节高代谢，考虑转移。2.双肺下叶炎症；双侧胸膜略增厚，双侧胸腔积液。3.肺气肿；肺大泡。4.甲状腺钙化灶。5.肝囊肿。6.前列腺增生。静脉注射示踪剂FDG后60MMIN行体部全身FDGPET/CT显像。PET/CT图像示左乳术后缺如，术区部分胸肌保留，左上臂内侧近左腋窝处见软组织密度影，边缘见小条状金属异物，肿物呈不均匀放射性摄取增高，最高SUV4.8，左侧内乳区见小淋巴结，短径约为0.7CM，放射性摄取增高，最高SUV2.9。右乳及右腋窝未见异常放射性摄取。左侧胸膜见结节状增厚，轻度放射性摄取，最高SUV2.1。双侧胸膜略增厚，双侧胸腔示少量弧形液性密度影。双肺上叶胸膜下见囊泡状过度透气影，部分肺大泡。双肺下叶见斑片状磨玻璃密度影。冠状动脉走行区见条形钙化影。脑部未见异常放射性摄取。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。腹部胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝左叶小囊性密度影，直径约为0.7CM，肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影，肠壁未见确切增厚，考虑肠蠕动所致。腹膜后未见明显肿大淋巴结。腹水征阴性。腹壁软组织未见明显异常影像。盆腔内膀胱放射性浓聚如常，膀胱壁无增厚。两侧腹股沟无异常淋巴结显示。前列腺略增大，放射性分布大致正常。视野内中轴骨放射性分布略欠均匀。	</t>
-  </si>
-  <si>
-    <t>左乳术后缺如，部分胸肌存在，术区未见明显增厚及异常强化；左侧腋窝术后，结构紊乱。右乳腺体结构紊乱，右侧腋窝未见明确异常。双肺门、纵隔内、右锁上、右侧内乳区可见多发肿大淋巴结，大者短径约2.3CM，可见较显著强化。右侧胸膜呈弥漫性增厚，局部呈结节状及线状，增强后呈较显著强化。左侧叶间胸膜局部可见结节灶。右肺上叶可见结节灶，边界清晰，直径约0.2CM。双侧肺野内可见斑片状及条索状密度增高影，局部小叶间隔增厚。双侧胸腔内可见液性密度影，右侧为著，局部呈包裹状。部分胸椎椎体、右侧第四、五前肋示成骨性骨质改变。心包腔内可见液性密度影。肝脏实质内可见多发低密度肿块及结节灶，边缘模糊，轻度强化。双肾实质内可见散在多发低密度灶，边缘模糊，轻度强化。胆囊壁略增厚。胰、脾、双侧肾上腺未见异常。腹腔及腹膜后可见多发肿大淋巴结，大者短径约1.5CM。大网膜及肠系膜局部略增厚。	1.左乳癌术后，肝脏多发转移；双肾低密度灶，考虑转移；双肺门、纵隔、右侧内乳区、腹腔及腹膜后多发淋巴结转移；右侧胸膜转移；多发骨转移。2.右锁上淋巴结肿大。3.左侧叶间胸膜增厚伴结节灶，转移待排，4.右肺上叶结节灶。5.双肺炎症，局部不除外伴有癌性淋巴管炎。6.双侧胸腔积液；心包积液。7.胆囊炎。8.大网膜及肠系膜局部增厚。</t>
-  </si>
-  <si>
-    <t>1.左肺上叶舌段中心型肺癌，伴远端阻塞性炎症、纵隔及双肺门淋巴结转移，与2011-10-20CT比较病灶略增大，周围炎症略吸收，请结合临床；2.支气管炎征象，轻度肺气肿，肺大泡；3.双肺多发钙化灶；4.右侧胸腔及心包轻度积液；5.肝脏多发稍低密度影，请结合临床。左肺上叶舌段不规则形软组织密度影，边界清楚且呈分叶状改变，大小约：8.59CM×3.52CM，CT值约：40HU，左肺上叶舌段支气管狭窄、截断，远端片状高密度影，边界模糊；右肺尖小结节，径约：0.52CM；双肺多发囊状低密度影，以左肺上叶胸膜下为著；双肺纹理稍增多，边缘欠清。双肺多发钙化灶；两肺门及纵隔内见多发增大的淋巴结，较大者约3.70CM。心脏不大；心包及右侧胸腔可见少许水样密度影。肝脏似可见多发稍低密度影。</t>
-  </si>
-  <si>
-    <t>右肺下叶可见团块影，与右肺门影分界不清，边界欠清，CT值约为30HU，其内密度不均，大小约为6.3CM×3.9CM，邻近肺组织可见模糊影，右肺下叶内基底段支气管不通；双肺可见多发的大小不等的小结节影，大者径长约2.0CM；右肺斜裂增厚、右肺中叶条片状高密度影。纵隔内可见多发肿大的淋巴结。右侧胸腔、心包内见液性密度影。甲状腺明显肿大。左侧第6前肋局部密度增高。1.考虑右肺下叶肺癌，并双肺、右胸膜多发转移；2.右侧胸腔积液；心包积液；3.甲状腺大；4.左侧第6前肋局部密度增高。以上征象均较2015.04.30CT片相仿。</t>
-  </si>
-  <si>
-    <t>直肠术后，术区示高密度吻合器影，壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低，内示小囊性密度灶。双肾内示低密度灶，边缘模糊，另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约4.4CM(纵隔窗)，内示空洞影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚，胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	1.结合临床，直肠癌术后；双肺转移，较前(2017-1-18)部分增大，部分变化不著2.双肾低密度灶，基本变化不著，建议观察；双肾囊肿3.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著5.脂肪肝；考虑肝囊肿，变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌治疗后，较前片2015-12-10变化不著；双肺类结节灶治疗后，变化不著；右肺门、纵隔淋巴结转移治疗后，较前变化不著。2.右肺下叶炎症、纤维灶，变化不著。3.右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影，变化不著。右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。余双肺可见小类结节灶，边缘模糊，大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径约1.0CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝内见一斑点状钙化灶。胆囊充盈可，壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶，大者短径约0.6CM。T12右侧椎弓根示斑片状密度增高影。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.肝囊肿。2.双肾上腺体积增大，不除外转移，建议观察3.结合临床，右肺癌，纵隔内多发淋巴结转移4.颈部扫描未见异常.。肝脏大小形态未见异常，肝实质内可见多发囊性低密度灶，边界清，增强扫描无强化。胆囊、胰腺、脾、双肾未见异常，双肾上腺体积略示增大，以左侧为著，长径约1.8CM，形态不规则。腹腔腹膜后未见肿大淋巴结影。所扫右肺中叶近肺门处示不规则软组织密度影，远侧肺组织示实变征象，周围多发多发条索状及斑片状密度增高影，与周围组织关系密切，增强扫描示中度强化。各咽壁不厚，双侧颈部未见肿大淋巴结影。腮腺及双侧甲状腺未见异常。所扫上纵隔内可见多发肿大融合的淋巴结。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右肺下叶肺癌累及胸膜治疗后，较前(2015-04-20)基本变化不著；右肺门、纵隔淋巴结转移，部分较前略缩小，部分变化不著2.右肺小类结节灶，较前变化不著3.甲状腺体积增大并低密度灶，考虑为结节性甲状腺肿，变化不著4.双肺炎症5.双肺气肿6.肝左叶强化灶，考虑血管瘤，建议结合腹部检查。右肺下叶背段见不规则软组织影，大小约5.2CM×4.0CM，边缘见分叶征，其内密度不均匀，可见空洞形成，与邻近胸膜关系明确，增强扫描呈中度不均匀强化。右肺上叶(5-20、23)见小类结节影，大者直径约0.4CM，边缘模糊。双肺胸膜下见斑片状及片絮状密度增高影，以双肺下叶为著。另于双肺野内见多发泡状过度透光区。纵隔内3A、4R、4L、7区及右肺门示多发结节灶，大者短径约0.8CM。胸廓骨质未见破坏。甲状腺右侧叶体积增大，向下凸入右上纵隔，其内密度不均，可见低密度区，周围散在点状致密灶，左侧叶内亦可见低密度灶。肝左叶见一动脉期强化结节灶，边界尚清，直径约1.5CM，延迟期未见明确显示。胆囊充盈可，壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常，腹腔及腹膜后未见明确肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t>1.双肺间质性改变；右侧少量胸腔积液，较2016-11-17增多；双肺粟粒灶，随诊；2.右肺中叶索条灶，慢性炎症可能，较前略吸收；3.右侧乳腺肿物，考虑为恶性病变，较前稍变小；右侧腋窝淋巴结肿大；4.右侧第7后肋、第4、9胸椎骨质破坏，转移瘤可能性大，较前进展，请结合临床；5.双侧多发肋骨骨折。双肺纹理增强，紊乱。右肺中叶可见高密度索条影，边缘模糊不清。右肺上叶(43、39、37)、左肺上叶(23)粟粒灶。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。右胸腔少量积液征象。心脏大血管未见异常。所示右侧乳腺见较大肿物，密度不均，大小为4.66CM×3.53CM，CT值约44HU。右侧第7后肋、第4、9胸椎骨质破坏，边缘模糊。双侧多根肋骨骨质连续性中断。</t>
-  </si>
-  <si>
-    <t>1.右肺中央型肺癌，伴右肺上叶阻塞性肺炎、淋巴结多发转移；较2012-02-01CT新发，邻近右上肺动脉分支受压；右肺下叶炎症，较前新发；2.左肺下叶肺隔离症伴炎症，较前相仿；3.左肺上叶代偿性肺气肿表现，较前相仿；4.肝右叶后下段低密度灶，请结合其它检查。右上叶支气管截断，肺门处可见团块影，界清，其内密度不均，见斑片状稍低密度灶，大小约3.2CM×2.8CM，平扫CT值约33HU，增强扫描呈轻度不均匀强化，三期CT值分别为：66HU、51HU、63HU，邻近右上肺动脉分支受压、略移位；右肺上叶病变远端支气管腔增粗、管腔内密度增高，肺内散在片状高密度影；右肺下叶胸膜下见少许斑片状模糊影；左肺下叶前内基底段、外基底段可见斑片模糊影，增强后，病灶内可见一异常血管起自于胸主动脉，最粗径约0.94CM，左肺上叶透过度明显增强。纵隔内可见多发肿大淋巴结，大者短径约1.9CM，增强呈轻度不均匀强化。两胸腔无积液征象。心脏形态可。肝右叶后下段低密度灶。</t>
-  </si>
-  <si>
-    <t>右肺上叶可见一类圆形结节影，呈浅分叶，密度尚均匀，CT值约为34HU，增强后呈明显均匀强化，动脉期及静脉期CT值分别约为78HU及76HU；病灶边缘不光滑，可见细短毛刺，可见胸膜牵拉；病灶大小约为2.0CM×1.5CM。右肺中叶、左肺上叶及双肺下叶可见多发大小不等小结节影，大者位于右肺下叶，大小约为1.2CM×1.0CM，边缘可见毛刺。双肺上叶可见斑块状、条状高密度影及囊性透光影；双肺下叶可见斑片状密度增高影，边缘模糊。所示气管支气管未见异常扩张；双肺门区未见异常。纵隔内可见多个小淋巴结影，以隆突下最大，短径约为0.8CM；双侧胸腔未见积液征象；主动脉管壁可见多发斑点状钙化影。所示肝脏内可见多发低密度影。1.右肺上叶结节影，考虑为周围型肺癌可能性大，请结合临床；左侧胸膜稍厚；2.右肺中叶、左肺上叶及双肺下叶多发小结节影，考虑为转移瘤，请随诊；3.双肺上叶陈旧病灶，多发肺大泡；双肺下叶炎性病变，请随诊；4.肝脏多发低密度影，请结合腹部检查。</t>
-  </si>
-  <si>
-    <t>右侧乳腺乳头后方见较多不规则软组织密度肿块影，最大截面约9.2CM×6.6CM，边缘分叶，尚清晰，局部与周围腺体及皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化。左乳腺体致密，未见异常密度灶。双侧腋窝见肿大或稍大淋巴结，大者短径约1.1CM，增强扫描显著强化。双侧内乳区未见肿大淋巴结。双肺野散在分布大小不等结节灶，大者直径约2.2CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左肺门见肿大淋巴结，短径约0.9CM，增强扫描可见强化。左肺胸膜略增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。扫描野肝实质内见多个低密度灶，大者直径约1.9CM，边缘清晰，增强扫描边缘强化显著，部分见牛眼征。	1.结合临床，考虑右乳癌；双侧腋窝、左肺门淋巴结肿大或稍大；双肺转移，肝转移2.左肺胸膜局限性增厚，局部钙化，考虑胸膜斑，请结合临床。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌并阻塞性炎症及肺不张并累及中间支气管治疗后，较前(2016-9-29)好转2.右肺门及纵隔淋巴结转移，较前好转3.左肺上叶斑片状影及类结节灶，首先考虑炎性病变，变化不著4.胸椎局部密度增高，建议观察。右肺门区见软组织密度影，边缘模糊，增强呈不均匀强化，右肺上叶支气管示显著狭窄，病变周围见多发斑片状及条索状密度增高影，右肺中间支气管示管壁增厚并强化。左肺上叶见斑片状及类结节状密度增高影。右肺门、纵隔见大者短径约1.0CM肿大淋巴结。右侧胸膜局部增厚。左颈后皮下见一软组织结节，边缘较清晰，密度不均。扫描野内左侧肾上腺见一长径约1.0CM结节灶。T12椎体可见高密度影。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，卵巢癌术后；左乳术后改变2.右侧胸膜转移，较前(2016-01-18)加重；右侧胸腔积液基本变化不著；右肺部分膨胀不全；双肺结节灶，考虑转移，较前部分略示增大，部分变化不著3.右肺门及纵隔淋巴结肿大，部分变化不著，部分略示饱满；右侧锁骨上淋巴结肿大，较前变化不著；右侧腋窝小淋巴结，变化不著4.右肺炎症或纤维灶，变化不著5.少量盆腔积液。左乳术后，部分胸肌尚存，术区胸壁略肿胀，皮肤略增厚。右乳未见异常。右侧腋窝见短径约0.5CM的小淋巴结。内乳区示短径不足0.5CM淋巴结。左侧腋窝及左侧内乳区未见肿大淋巴结。右锁上见小淋巴结，短径不足0.5CM。右肺门、纵隔内右上气管旁、腔静脉后间隙、主肺动脉窗区、血管前间隙、隆突下可见肿大淋巴结，大者短径约1.0MM。右侧胸膜增厚(含肋胸膜、纵隔胸膜及叶间胸膜、膈胸膜)，局部呈结节状、带状。右侧胸腔可见游离性及包裹性液体密度影。右肺见条索状密度增高影，右肺部分实变；另于双肺野内见多发类圆形结节灶，边界较清，大者截面约2.4CM×1.6CM。膈上见数个结节灶，轻度强化。子宫术后缺如，残端未见异常增厚及强化。膀胱充盈欠佳，壁不厚。肠系膜区示少量液体密度影。盆腔未见明显肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌累及纵隔及上腔静脉治疗后，较前(2016-12-1)变化不著。2.脑多发转移。3.甲状腺钙化灶。4.纵隔内淋巴结肿大，变化不著。5.考虑右肺炎症，变化不著。6.上腹部未见明显异常。右肺上叶支气管周围可见小斑片状软组织密度影，与邻近纵隔内4R区肿大淋巴结及上腔静脉分界不清，增强扫描呈不均匀强化，纵隔内3A、2R区示数个结节灶，大者短径约0.7CM。所扫双侧甲状腺内可见数个钙化灶。肝脏、胆囊、胰腺、脾、双肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。脑实质示多发强化结节灶，大者截面约2.5CM×2.1CM，周围可见低密度水肿带。右侧上颌窦内示囊性密度灶。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后，肺转移微波消融术后改变，其旁结节灶，考虑转移，较前2016-1-6进展；右肺上叶炎症，变化不著2.纵隔淋巴结肿大，较前缩小3.肝转移介入术后改变4.左肾囊肿。右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结，短径不足0.5CM。右肺上叶可见团片状密度增高影，未见异常强化征象，其前方示一强化结节灶，短径约0.6CM。左侧肺野较清晰。纵隔内气管前腔静脉后见肿大淋巴结，短径约1.3CM。肝实质内示多发结节灶，部分其内示高密度碘油影沉积，大者短径约1.5CM。胆胰脾双肾上腺右肾形态、密度未见明显异常。左肾示囊性密度灶。腹腔及腹膜后未见明显增大淋巴结。	</t>
-  </si>
-  <si>
-    <t>左乳内示多发结节灶灶，边缘略分叶，毛刺，其与周围腺体分界欠清，增强扫描呈较明显强化，大者最大截面约2.2CM×1.1CM。左锁上、左腋窝示增大淋巴结，大者短径约0.9。右乳未见明显异常。右腋窝及双侧内乳区未见明显增大淋巴结。双肺野清，未见明显异常密度灶。纵隔及双肺门未见明显增大淋巴结。鼻咽、口咽、喉咽壁未见明显增厚。左颈下深示稍大淋巴结，大者短径约0.5CM。扫描范围内诸骨质未见明显破坏。	1.结合临床，左乳癌2.左腋窝及左锁上淋巴结肿大，考虑转移可能性大；左颈部淋巴结肿大。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺上叶癌侵及脏层胸膜治疗后，较前(2016-07-20)基本变化不著；骨转移，变化不著2.右乳腺体局部密度增高，变化不著。右肺上叶尖段可见软组织密度影，最大截面约0.9CM×1.1CM(纵隔窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。所扫甲状腺内示低密度灶。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示：双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏，以成骨性为主，部分肋骨形态欠规则，略呈膨胀性改变。	</t>
-  </si>
-  <si>
-    <t>左肺下叶背段可见团块影，较大截面大小约为4.6CM×3.3CM，平扫CT值约为43HU，边界尚清，浅分叶状，周围可见斑片状稍高密度影。双肺另见弥漫多发大小不等结节影。两肺门区未见异常。纵隔内未见淋巴结增大。心脏大血管未见异常。部分肋骨、胸椎及附件形态欠规整，可见骨质破坏区及软组织肿块。1.左肺下叶背段周围型肺癌，较前2015-12-7变小，伴双肺多发转移瘤；2.部分肋骨、胸椎及附件形态欠规整，转移不除外，部分较前新发，请结合临床。</t>
-  </si>
-  <si>
-    <t>左乳术后缺如，部分胸肌存在，术区皮肤及软组织略增厚，增强后不均匀强化；左侧腋窝术后，见多发淋巴结，大者短径约0.6CM。右乳及右侧腋窝未见明确异常。左侧内乳区见短径不足0.5CM小淋巴结。左肺上叶胸膜下可见类结节灶，直径约0.2CM。左肺可见斑片状影。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺未见异常。腹膜后见短径不足0.5CM小淋巴结。部分椎体密度减低。1.左乳癌术后复发并左腋窝多发淋巴结转移，较前(2017-2-15)变化不著；左侧内乳区小淋巴结较前变化不著。2.左肺类结节灶，较前变化不著。3.腹膜后小淋巴结较前变化不著。4.椎体部分密度减低变化不著。</t>
-  </si>
-  <si>
-    <t>双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.0CM(纵隔窗)，内示小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	1.结合临床，直肠癌术后，双肺转移瘤，较前变化不著2.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著。</t>
-  </si>
-  <si>
-    <t>双侧胸廓不对称，右侧胸廓塌陷，右肺体积减小，右肺下叶见团块状高密度影，形态不规则，边界不清楚，大小约4.1CM×5.4CM，CT值约37HU，右侧主支气管及各叶支气管受压变窄；右侧胸膜弥漫性增厚，右肺间隔结节样增厚；右侧胸腔可见包裹性积液；右侧腋窝、纵隔淋巴结增大，大者短径约1.39CM。左肺下叶外基底段(S35)可见粟粒影。心影大小正常范围。右侧第2、4、7、8肋骨、胸3椎体骨质密度不均匀增高，形态不规整。右侧乳腺外上象限内见一结节影，径约0.98CM，边界清晰，其内见点状钙化。1.右下肺中心型肺癌，较前片(2013-9-9)进展，并右肺间质性改变，考虑淋巴道转移，右侧胸膜转移，右侧胸腔包裹性积液；右侧腋窝及纵隔淋巴结转移；右侧多个肋骨、胸3椎体成骨性转移；请结合临床；2.右乳钙化结节，较前相仿；3.左肺下叶外基底段粟粒灶，较前相仿。</t>
-  </si>
-  <si>
-    <t>左乳呈少量腺体型。其外上象限不规则肿块影，大小约4.0CM×4.5CM，其密度增高、不均匀，边缘毛糙、不整。乳头无凹陷，皮肤无增厚。腋窝可见一直径约1.2CM肿大淋巴结影。	左乳癌并同侧腋窝淋巴结转移。</t>
-  </si>
-  <si>
-    <t>右肺门支气管开口纹理粗乱伴胸膜增厚，周围可见纤维条索影，下叶近纵隔旁并可见斑片状高密度影，边缘模糊。双肺见散在少许类结节及片絮影，左肺大者直径约0.5CM(肺窗5-32)。左侧锁骨上及双肺门见小淋巴结。右侧胸腔示少量液性密度影。肝、胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常，腹膜后腹主动脉周围可见多发结节灶，大者短径约1.0CM。颅骨完整连续，脑实质密度均匀，脑池、脑室、脑沟大小、位置、形态未见异常，中线结构居中。	1.结合临床，右肺癌治疗后，局限性纤维炎性变，局部高密度斑片影较前(2016-10-12)变化不著；双肺散在类结节及片絮影，较前变化不著；腹膜后淋巴结肿大，考虑转移。2.颅脑扫描未见异常。3.右侧少量胸腔积液。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右肺癌并右肺癌性淋巴管炎，双肺门、纵隔、双侧锁骨上淋巴结转移；双侧腋窝、腹腔及腹膜后淋巴结肿大，转移不除外；骨转移2.肝内低密度灶，转移不除外，建议观察；肝囊肿2.左肺类结节灶，建议观察3.右侧肩胛下肌低密度灶，建议观察。右肺下叶见一截面约2.9CM×3.6CM软组织肿块，形态不规则，边缘分叶、毛糙伴毛刺，与邻近胸膜关系密切。右肺支气管血管束显著增粗，周围见斑片状软组织密度影，与邻近肺门及纵隔肿大淋巴结分界不清，下叶背段支气管截断，余支气管尚通畅。右肺小叶间隔增厚。双侧肺门、纵隔、双侧锁骨上、双侧腋窝见多发肿大淋巴结，大者短径约2.6CM。腹腔内小弯侧及肠系膜区、腹膜后见大者短径约0.7CM稍大或小淋巴结。右侧胸膜增厚。左肺下叶见一直径不足0.5CM小类结节灶。右侧肩胛下肌见类圆形低密度，未见强化(6-16)。肝内见大者长径约1.0CM囊性结节灶。肝右叶(6-63、62)见一大者长径约0.6CM低密度结节灶，边缘欠清晰。胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。部分椎体(3-62、71)示骨质破坏，周围软组织增厚。	</t>
-  </si>
-  <si>
-    <t>右乳外下象限原片2016-03-09所示强化结节灶现仅剩条索影，其内似见一直径不足0.5CM的结节状强化。余双乳腺体强化欠均质，内示小斑片状强化灶。右侧腋窝示大者短径约0.6CM淋巴结，强化较著。左侧锁骨上示短径不足0.5CM淋巴结。左侧腋窝见数个小淋巴结，部分淋巴结内可见脂肪密度影。纵隔及双肺门未见肿大淋巴结。右肺尖区示小类结节灶，密度较淡，余双肺内示索条影。	1.右乳癌并右腋窝淋巴结转移，较前2016-03-09明显好转。2.右肺类结节灶，较前略好转，考虑炎性可能大；3.双肺纤维灶，变化不著。</t>
-  </si>
-  <si>
-    <t>双乳术后缺如，术区结构紊乱，部分胸壁组织尚存，双侧腋窝清扫术后，双乳术区、左侧颈前、左侧胸部及左侧肩部皮下见多发结节灶及肿块影，大者约3.0CM×2.3CM，增强扫描呈较显著不均匀强化。双肺见多发结节灶及肿块影，大者位于左肺门，直径约3.0CM，包绕邻近上叶支气管及左下肺动脉致其狭窄，并与邻近不张肺组织及纵隔内肿大淋巴结分界不清，增强扫描呈不均匀强化。纵隔内右侧气管食管沟区、血管前间隙、右上气管旁、气管隆突下及双肺门见多发肿大淋巴结，大者短径约1.9CM，增强扫描呈不均匀强化。左侧胸腔内及心包腔内见液性密度影。扫描野内甲状腺双侧叶密度欠均质。脑实质内密度均质，未见异常密度影。脑沟、脑池未见增宽，脑室大小、形态，位置正常，中线结构居中。骨窗示：T5椎体骨质密度不均，可见多发骨质密度减低区。	1.结合临床，双侧乳腺癌术后局部复发并多发皮下转移，双肺转移，纵隔淋巴结转移，T5椎体破坏，考虑转移2.左侧胸腔中量积液；少量心包积液3.颅脑扫描未见异常。</t>
-  </si>
-  <si>
-    <t>1、左肺门占位，考虑中央型肺癌伴阻塞性肺炎，左下肺动脉及静脉受累可能大；纵隔及左肺门淋巴结转移，与2015-10-14相比，肿块较前相仿，炎症较前进展；淋巴结较前稍增大；2、右肺多发粟粒灶，磨玻璃结节，与前相比，右肺下叶磨玻璃结节较前新发，右肺下叶一粟粒灶(32)较前新发，请结合临床，随诊；3、右肺炎症，较前新发；4、右肺下叶前基底段钙化灶；双侧胸膜增厚；5、左侧胸腔积液；心包少量积液，胸腔积液较前稍减少。左肺体积减小，左肺门区可见软组织团块影，边界不清，最大截面大小为4.0CM×4.2CM，密度不均，平扫CT值约为40HU，左肺下叶支气管闭塞，左肺上叶支气管局部不均匀变窄，左肺下叶明显膨胀不全，所示左肺透亮度减低，并见条索影。双肺可见多发斑片状高密度影，边缘模糊。右肺部分近胸膜处肺组织小叶间隔增厚，略呈网格状改变，右肺下叶前基底段可见小致密影，右肺另见散在粟粒影。右肺下叶可见(30)可见磨玻璃密度结节影，界清，径约0.6CM。纵隔及左肺门淋巴结肿大，大者短径为1.0CM，左侧胸膜增厚。左侧胸腔积液征象，左肺动脉显示不清，心包内少量液性密度影。</t>
-  </si>
-  <si>
-    <t>右肺下叶背段(37)可见粟粒影。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。两胸腔未见积液征象。主动脉壁及冠脉壁见弧形高密度影。右乳体积明显增大，内见多发团块影，边界尚清，大者大小约6.6CM×6.0CM，CT值约11HU；右侧胸大肌形态改变，边缘毛糙；左乳内见斑点状致密影。右侧锁骨上区、下区及双侧腋窝可见多发肿大淋巴结影，大者短径约1.7CM。1.右肺下叶粟粒灶，较前相仿；2.右侧乳腺癌，肿块较前明显增大；右侧锁骨上区、下区及双侧腋窝多发淋巴结转移；右侧胸大肌形态改变，考虑受侵；3.左乳内钙化灶，详查。</t>
-  </si>
-  <si>
-    <t>右肺下叶可见软组织密度肿块影，大小约为5.1CM×4.0CM，CT值约为10-36HU；双肺可见多个小结节影与粟粒影；右肺上叶可见致密钙化灶；右胸腔积液征象；心脏大血管未见异常。左侧肩胛骨可见骨质破坏，双侧多个肋骨、胸椎密度不均匀。1.右肺下叶恶性肿物，双肺多个小结节与粟粒灶，右侧胸腔少量积液；2.左侧肩胛骨骨质破坏，双侧多个肋骨、胸椎密度不均匀，均为骨转移改变；3.右肺上叶钙化灶。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">对比之前PET/CT(2016-12-09)：1.结合病史，右乳癌术后，双肺多发转移，左腋窝、纵隔、腹腔及腹膜后多发淋巴结转移治疗后，与前PET/CT相比，病灶明显缩小，代谢降低，现未见明显异常代谢，病情明显好转。2.右肺慢性炎症及局限性纤维变。3.右侧少量胸腔积液。4.考虑子宫肌瘤；子宫局部高代谢灶，建议B超检查。5.双侧扁桃体炎症；双颈部炎性淋巴结。注射示踪剂后60MMIN显像，见大脑形态如常，皮层各叶放射性分布均匀。中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。双侧扁桃体结节状放射性浓聚，最高SUV7.2。鼻咽、下咽及喉部未见异常放射性浓聚。双侧颈中深示轻度放射性摄取增高淋巴结，大者短径约1.0CM，最高SUV2.8。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。右乳术后缺如，右腋窝结构紊乱，右侧胸壁未见显著增厚及明显异常放射性摄取。双侧内乳区淋巴结未见显著增大及明显异常放射性摄取。原PET/CT(2016-12-09)所示双肺多发结节灶，现显著缩小，放射性摄取降低，现未见明显异常放射性摄取。余右肺前胸膜下示斑片状密度增高影，内可见支气管充气征象，可见轻度放射性摄取，最高SUV1.8，右侧胸腔内见少量液性密度影。原PET/CT(2016-12-09)所示左侧腋窝、纵隔内4R、7区、左肺门、门腔静脉间、腹膜后大血管周围多发放射性摄取增高淋巴结，现显著缩小，放射性摄取降低，现未见明显异常放射性摄取。胃壁未示显著增厚及明显异常放射性摄取。肝内未见明显异常放射性摄取。胆囊大小正常，密度均匀。胰腺形态放射性分布尚好，胰管不扩张。脾轻度显影，放射性分布欠均匀。两侧肾脏显影可，肾实质密度均匀。两侧肾上腺显影大致正常。腹水征阴性。盆腔内膀胱放射性浓聚如常。双侧腹股沟淋巴结未见显著增大及明显异常放射性摄取。子宫局部结节状突出，局部结节状放射性摄取增高，摄取灶长径约1.6CM，最高SUV5.4。两侧附件区未见异常放射性摄取。脊柱诸椎体放射性分布欠均匀。	</t>
-  </si>
-  <si>
-    <t>左乳术后，术区结构紊乱，未见结节及结节灶。左侧腋窝结构紊乱。右乳未见异常。左侧内乳见增大淋巴结，短径约0.8CM。左侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰，未见结节及异常强化灶。肝实质内见多发低密度结节及肿块，大者直径约3.7CM。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及双肾未见异常。腹腔及腹膜后未见明显肿大淋巴结。	1.结合临床，左乳癌术后改变，左侧内乳淋巴结肿大2.肝转移，较前片2014-4-2进展。</t>
-  </si>
-  <si>
-    <t>1.右乳癌术后改变；右侧胸膜多发结节灶，考虑为胸膜转移；多发骨质破坏，考虑为骨转移；左锁骨上淋巴结转移2.上腹扫描未见异常右乳术后缺如，术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及內乳区未见肿大淋巴结。右侧胸膜(包括叶间胸膜、膈胸膜)示多发类结节灶，直径约0.5CM，边界欠清，右肺中叶示一结节灶，直径约0.5CM，密度较淡，余双肺野清晰，气管及各级支气管通畅，未见异常密度灶。双肺门及纵隔未见肿大淋巴结。双侧胸腔未见积液征象。扫描野内肝实质密度轻度减低。胸骨、T3、T7、T9、T12椎体呈不规则骨质改变。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上区示多个淋巴结，大者短径约1.2CM。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。肝脏大小形态未见异常，肝实质未见异常密度影。胆囊、胰腺、脾、双肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，肝癌伴肝内转移治疗后，较前片2014-8-12变化不著2.双肺尖多发类结节灶，较前变化不著；右肺下叶结节灶，部分较前略增大，不除外转移；右侧叶间胸膜结节灶，较前变化不著3.肝囊肿4.双肺上叶气肿5.双肺上叶纤维灶6.左侧肾上腺饱满，变化不著。肝脏体积增大，形态欠规则，实质内见多发混杂密度结节及肿块影，边界欠清，部分可见假包膜形成，大者截面积约12.8CM×10.0CM，部分其内示高密度碘油影沉积；增强扫描呈中度不均匀强化，大者其内可见低密度坏死区，延迟后病灶部分可见廓清。另肝内可见散在囊性密度灶，未见强化。门脉主干及左支显示尚可，门脉右前支示受压显著变窄，右后支显示欠清。胆囊充盈可，壁不厚。胰腺、脾、双肾及右侧肾上腺未见明确异常。左侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。双肺尖见多发类结节灶，直径不足0.5CM。另右肺下叶示类结节灶(5-46)，大者短径约0.2CM。双肺上叶见多发泡状过度透亮区及条索状密度增高影。双肺门及纵隔未见明确肿大淋巴结。右侧叶间胸膜增厚局部示类结节灶。	</t>
-  </si>
-  <si>
-    <t>双肺可见多发的大小不等的小结节影。右肺中叶、下叶、左肺上叶舌段可见片状的高密度影。右肺下叶可见团块影，CT值约为36HU，长径约为4.45CM。两肺纹理清晰。所示气管支气管影正常。两肺门、纵隔内可见多发肿大的淋巴结。两胸腔积液征象。心包积液。甲状腺明显肿大。右侧第四肋根部可见密度增高影。1.右肺下叶病变，考虑周围肺癌，双肺多发转移瘤，双肺门、纵隔淋巴结转移；2.双胸腔积液，心包积液；3.右肺中叶、下叶、左肺上叶舌段炎症；4.右侧第四肋根部密度增高影，请结合临床。</t>
-  </si>
-  <si>
-    <t>右肺上叶尖段可见软组织肿块影，最大截面约1.2CM×1.6CM，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；右肺野可见一类结节灶(3-37)、左肺上叶(3-29)，大者直径约0.3CM。双侧锁骨上区、右肺门、纵隔内右侧气管食管沟、气管右前、腔静脉后、血管前、主肺动脉窗区及隆突下可见肿大淋巴结，大者短径约1.2CM。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾形态大小密度未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。骨窗示锁骨、肋骨、椎体可见多发骨质破坏。	1.结合临床，右肺上叶癌侵及脏层胸膜并双侧锁骨上区、右肺门及纵隔淋巴结转移，骨转移2.双侧肾上腺饱满，建议观察。</t>
-  </si>
-  <si>
-    <t>右肺中叶支气管开口处见一不规则软组织密度肿块影，边缘模糊，病变大小不易测量，增强后可见轻度强化。病变远端示片状肺不张影。双肺见多发结节灶，大者直径约0.5CM。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶，大者直径不足0.5CM。右肾见直径约0.5CM低密度结节灶，未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分胸椎骨质密度增高，右侧第3肋局限性骨质密度增高。	1.结合临床，右肺癌并阻塞性炎症，较前片(2015-10-22)示进展2.双肺多发结节灶，考虑转移，较前部分略增大，部分变化不著3.肝囊肿4.部分胸椎体及肋骨骨质密度增高，考虑转移，较前变化不著5.右肾低密度灶，变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张、肺炎治疗后，较前(2016-9-12)缩小；双侧胸膜多发结节灶，考虑转移，部分略缩小，部分变化不著；纵隔淋巴结转移，略缩小；右肾上腺转移，变化不著2.肝囊肿；双肾囊肿；左肾低密度灶，胰腺低密度灶，建议观察3.心包、左胸腔少量积液，略减少4.右肺类磨玻璃密度灶，建议观察5.部分椎骨密度略增高，请结合其他检查或观察。左肺门周围可见不规则软组织密度肿块影，约3.7CM×4.3CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。右肺上叶近胸膜下示类磨玻璃密度灶。双侧胸膜及叶间胸膜上可见多发类结节灶，大者长径约0.6CM。纵隔内2R、4R、4L、5、6、7、8区示多发融合的淋巴结影，大者短径约1.8CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常，肝实质内可见数个囊性低密度灶，边界清，增强扫描无强化。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常，右肾上腺示一类结节灶，长径约3.3CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨密度略增高。	</t>
-  </si>
-  <si>
-    <t>右肺下叶切除术后，右下肺门区见斑片状软组织密度影，边缘欠清，范围约2.5CM×2.6CM，增强扫描可见轻度强化。右肺下叶见索条影。左肺清晰，未见结节及肿块。余气管及段以上支气管管腔通畅。右侧胸腔见少量液性密度影。右肺门、纵隔内2R、3A、4R、6、7区见多发增大淋巴结，部分融合成团，大者大小约为5.0CM×3.7CM，位于4R区。扫描野内肝脏密度普遍性降低，肝右叶见一类圆形强化结节灶，边界清，直径约0.7CM。门腔间隙示增大淋巴结，短径约0.8CM。左前下胸壁软组织内示梭形脂肪样密度影，边界清。骨窗示：左侧肩胛骨局部骨质结节状稀疏。	1.结合病史，右肺癌术后，右下肺门区小片状软组织密度影，较前(2015-06-08)增大，复发可能大，请结合支气管镜检查；右肺门、纵隔多发淋巴结转移，较前进展2.右肺纤维灶，右侧少量胸腔积液，变化不著。3.脂肪肝；肝血管瘤，变化不著。4.左胸壁脂肪瘤，变化不著。5.左侧肩胛骨局部骨质稀疏，建议进一步检查。</t>
-  </si>
-  <si>
-    <t>右乳腺体内可见多发软组织密度结节灶，大者直径约4.5CM，边缘毛糙，增强后呈明显强化，部分相互融合，与乳腺皮肤多发结节灶分界欠清，并相互融合，增强后呈较显著强化。右侧腋窝可见融合成团的肿大淋巴结，边缘分叶，局部可见溃疡形成，增强后呈较显著不均质强化。右侧胸肌内亦可见多发结节灶，边缘模糊，可见较显著强化。右侧胸壁显示水肿。双肺内可见散在类圆形结节灶，边界较清晰，大者直径约0.8CM。左乳未见异常。纵隔内未见肿大淋巴结。右锁上、左侧腋窝、双侧内乳区、气管右旁可见肿大淋巴结，大者短径约1.3CM，边缘较模糊。双侧甲状腺体积增大，局部可见低密度灶及散在钙化灶。右侧锁骨呈内固定术后改变，余扫描野内骨质未见明显破坏。肝脏实质密度减低。胆囊充盈可，壁不厚。胰、脾、双侧肾上腺及左肾未见异常。右肾内可见囊性密度灶，未见强化。腹腔及腹膜后未见肿大淋巴结。脑实质均质，未见异常密度灶。脑室系统未见扩张。中线结构居中。	1.右乳癌并侵及皮肤及胸壁，右腋窝淋巴结转移，右侧胸壁转移，双肺转移2.右锁上、左侧腋窝、双侧内乳区、纵隔淋巴结略肿大3.甲状腺增大伴低密度灶及钙化灶，请结合其他检查4.脂肪肝5.右肾囊肿6.右侧锁骨内固定术后改变7.颅脑扫描未见异常。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左侧乳腺癌术后，左侧内乳淋巴结转移2.纵隔、右侧腋窝淋巴结肿大，考虑转移3.右侧心膈角淋巴结肿大，请结合临床或观察4.脂肪肝；肝囊肿5.左肺上叶胸膜下慢性炎症及纤维变6.颅脑扫描未见异常。左侧乳腺术后，局部胸壁未见显著增厚。右侧乳腺形态、大小、密度未见异常。左侧腋窝结构紊乱，未见增大淋巴结。左侧内乳区见短径约1.3CM淋巴结(图3-25)。右侧腋窝见多发增大淋巴结，大者短径约1.0CM。纵隔内血管前间隙3A、气管前间隙4R、弓旁6区见多发增大淋巴结，大者短径约1.2CM。右侧心膈角见短径约0.5CM淋巴结。左肺上叶胸膜下见少许条索状影。双侧胸腔内未见液性密度影。扫描野内肝脏密度减低，右叶见直径约0.8CM囊性密度灶，边缘清晰。脑实质内未见异常密度影，脑沟、脑池未见增宽，脑室大小、形态，位置正常，中线结构居中。各颅骨骨质形态未见异常改变。	</t>
-  </si>
-  <si>
-    <t>左侧乳腺可见弥漫分布的结节样、小片状异常信号区，表现为T1WI等信号，T2WI略高信号，压脂序列高信号，DWI序列高信号，注射对比剂GD-DTPA后呈环形强化，动态增强曲线呈平台型，大者约9MM×11MM，部分病变与胸壁间可见条索相连，左乳皮肤增厚，乳头凹陷。右侧乳腺可见数个强化小结节。所扫左侧腋窝结构紊乱，可见数个大小不等淋巴结，大者直径约6MM。所扫右侧腋窝可见多个小淋巴结。余未见异常。	1.结合临床，左乳癌并左腋窝淋巴结转移，较本院(2014-11-27)MR片好转。2.右乳多发结节灶，考虑良性病变(BI-RADSIII级)，较前变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺上叶癌侵及脏层胸膜并双侧锁骨上区、右肺门及纵隔淋巴结转移，较前(2016-02-18)略好转；骨转移2.双侧肾上腺饱满，变化不著3.子宫未见显示，建议结合临床。右肺上叶尖段可见软组织肿块影，最大截面约1.0CM×1.4CM(肺窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。双侧锁骨上区、右肺门、纵隔内右侧气管食管沟、气管右前、腔静脉后、主肺动脉窗区及隆突下可见肿大淋巴结，大者短径不足1.0CM。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾形态大小密度未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。膀胱充盈可，壁不厚。子宫未见显示。盆腔内未见明确肿大淋巴结。骨窗示双侧锁骨、左侧肱骨、双侧肩胛骨、胸骨、双侧多发肋骨、多发胸腰骶椎椎体、双侧髂骨、耻骨及坐骨、双侧股骨可见多发骨质破坏。	</t>
-  </si>
-  <si>
-    <t>右肺上叶尖段支气管闭塞，前段及后段支气管管壁略厚，管腔狭窄，可见团块状稍高密度影，大小约7.7CM×5.5CM，可见浅分叶，边缘可见细短毛刺，CT值约22HU，右上支气管受压变窄，增强后扫描呈不均匀强化，三期CT值分别为69HU、49HU、43HU，右上肺动脉变窄，远端显示欠清，上腔静脉管腔狭窄，其内可疑充盈缺损；右肺中叶、下叶、左舌段可见索条灶，左肺下叶见片状高密度影；左肺下叶近斜裂(37)可见小结节影，径约0.4CM。双肺见多发局限性透亮影。纵隔内可见增大的淋巴结，部分融合，短径约2.6CM；右侧锁骨上淋巴结增大，大者短径约1.12CM。两胸腔无积液征象，右侧胸膜局限性增厚。心包内可见条形液体密度影，大血管未见异常。双侧腋窝内多发稍大淋巴结影，大者短径约0.7CM。1.右肺上叶团块影，考虑中央型肺癌，纵隔、右侧锁骨上淋巴结转移；右上肺动脉变窄；上腔静脉管腔狭窄，可疑瘤栓；较前CT片(2012-07-02)明显增大，请结合临床；2.肺气肿；双肺索条灶；左肺下叶炎症；3.心包积液；4.左侧斜裂小结节，较前相仿，请随诊。</t>
-  </si>
-  <si>
-    <t>右肺上叶可见软组织密度肿块影，大小约3.3CM×4.7CM，分叶状，边缘毛糙，增强后呈明显强化。右肺内(图5-19、46、49)可见结节灶，大者直径约0.3CM。纵隔内未见肿大淋巴结。肝脏实质内可见囊性密度灶，大者直径约0.5CM。胆、胰、脾及双肾未见异常。腹膜后未见肿大淋巴结。	1.右肺癌并右肺转移2.肝囊肿。</t>
-  </si>
-  <si>
-    <t>左肺上叶近纵隔旁见团片状软组织影，最大截面大小约为5.78CM×3.56CM，CT值约35HU；右肺上叶后段可见一结节，径约0.5CM；双肺纵隔旁及胸膜下见多个条索状及斑片状高密度影。腔静脉间隙、主动脉弓旁、气管隆突上纵隔及左肺门多发结节状软组织影，密度欠均匀，见小斑片状高密度影，部分融合。双侧胸膜略增厚。心影不大，大血管壁可见钙化影，心包增厚。1.左肺上叶肺癌并左肺门及纵隔淋巴结转移，较前片2013-05-31部分进展；2.右肺上叶小结节，与前相仿；3.双肺纵隔旁及胸膜下放射性肺炎，较前好转；4.双侧胸膜略厚，心包增厚。</t>
-  </si>
-  <si>
-    <t>左肺下叶术后缺如，左肺门见高密度吻合器影，残余左肺见索条影，左侧胸膜不均匀增厚，可见强化；左侧膈上淋巴结肿大。左侧胸膜腔内见少量液性密度影，呈包裹性改变。右肺上叶后段胸膜下小结节灶，大小约0.4CM×0.3CM。肝实质密度均匀，肝内胆管略示扩张。胆囊胰脾右肾未见异常。左肾见小囊肿。左侧胸膜示多发结节样增厚伴强化。左侧胸腔见液性密度影。腹腔及腹膜后未见明显肿大淋巴结。	1.左肺癌术后，左侧胸膜及淋巴结转移，少量胸腔积液2.左肺炎症及纤维灶3.肝内胆管扩张4.左肾小囊肿。</t>
-  </si>
-  <si>
-    <t>左乳术后缺如，胸肌尚存，左侧胸壁见软组织影，边缘模糊，大者短径约1.8CM，示明显不均质强化，邻近前胸壁皮肤局部增厚呈软组织密度影，明显强化。双锁上、左肺门、纵隔、左侧颈后三角区、膈上见肿大淋巴结，边界尚清，大者短径约1.2CM。双肺见结节灶，大者直径约1.0CM，双肺纹理增强并见斑片模糊略高密度影。下颈背部皮下见一长径约1.3CM的强化灶。肝内见多发低密度灶，边缘轻度强化，大者长径约3.2CM。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及右肾未见异常。扫描野内左肾未见显示。腹腔及腹膜后见稍大，边界不清。骨窗示：胸骨、部分胸腰椎椎体、肋骨见骨质破坏区。	1.结合临床，左乳癌术后，术区复发，较前片(2016.03.01)略示好转；左锁上、颈部、左肺门、纵隔及膈上淋巴结转移，总体较前略示好转；双肺转移，较前略示好转；多发肝转移，较前进展。2.多发骨转移，较前变化不著。颈背部结节，不除外转移，较前变化不著。腹腔略大淋巴结，较前变化不著。3.双肺炎症。</t>
-  </si>
-  <si>
-    <t>左肺门周围可见不规则软组织密度肿块影，约4.2CM×4.9CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。双肺内见多发斑片状密度增高影。左肺上叶示一结节灶，直径约0.9CM，双侧胸膜及叶间胸膜上可见多发类结节灶。纵隔内2R、4R、4L、5、6、7、8区示多发融合的淋巴结影，大者短径约1.2CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常，肝实质内可见数个囊性低密度灶，边界清，增强扫描无强化。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常，右肾上腺示一类结节灶，长径约3.6CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨、肋骨密度略增高。	1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张，较前(2016-1-10)略好转；肺炎治疗后，较前变化不著；左肺上叶结节灶较前略增大，考虑转移；双侧胸膜多发结节灶，考虑转移，变化不著；纵隔淋巴结转移，较前略缩小；右肾上腺转移，变化不著2.肝囊肿；双肾囊肿；左肾低密度灶，胰腺低密度灶，变化不著3.心包、左胸腔少量积液，略减少4.部分椎骨及肋骨密度略增高，考虑转移，较前变化不著。</t>
-  </si>
-  <si>
-    <t>右肺中叶支气管开口处见一不规则低密度影，边缘模糊，大小不易测量，增强后可见轻度强化，远端示片状肺不张影。双肺见多发结节灶，部分边界欠清。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶，大者直径不足1.0CM。右肾见直径约0.5CM低密度灶，未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分椎骨示成骨性破坏。右侧第3肋局限性骨质密度增高。	1.结合临床，右肺癌并阻塞性肺不张治疗后，较前(2016-1-6)局部范围略缩小；双肺多发结节灶，考虑转移，部分增大，部分变化不著；骨转移，部分变化不著，部分密度略增高2.肝囊肿3.右肾低密度灶，变化不著4.部分肋骨密度增高，变化不著。</t>
-  </si>
-  <si>
-    <t>右肺上叶后段周围型肺癌，纵隔淋巴结转移。右肺上叶后段可见团块影，截面约2.50CM×2.12CM，CT值约32HU，增强有强化，三期CT值约53HU、68HU、47HU；病灶位于右肺门上区，腔静脉后及气管前可见团块影，截面约3.15CM×1.82CM，CT值约44HU。各大血管边界清晰。主动脉，肺动脉主干及其左右分支内造影剂密度均匀。</t>
-  </si>
-  <si>
-    <t>右乳术后，术区壁未见增厚及异常强化。纵隔内右上气管、血管前间隙、隆突下、食管旁见小或增大淋巴结，大者短径约0.6CM。双锁骨上及左侧腋窝示小淋巴结，大者短径不足0.5CM。右侧腋窝未见增大淋巴结。双肺见多发结节、类结节灶及小斑片影，部分与邻近胸膜分界不清，大者直径约0.8CM。余双肺内示条片密度增高影，局部牵拉邻近胸膜。双侧胸膜略增厚，左侧胸膜见少许斑点状钙化灶。双侧胸腔未见积液征象。肝脏体积缩小，左叶为著，肝内见多发结节灶，融合成团，大小不易测量，增强后呈不均匀强化。门脉左支充盈欠佳。腹腔内贲门旁、肝胃韧带区、肝十二指肠韧带区、腹膜后腹主动脉旁见多发小或增大淋巴结，大者短径约0.6CM，部分与胰腺分界欠清。膈上后组见短径不足0.5CM小淋巴结。胆囊充盈可，壁增厚并见强化。左肾示囊性低密度灶，大者长径约0.7CM，部分边界欠清。脾内示小斑片状低密度区。双侧肾上腺及右肾未见异常。腹腔内示液性密度影。大网膜、腹膜、肠系膜略增厚。胸骨、右侧肱骨、锁骨、肋骨、胸腰椎示多发溶骨性、成骨性骨质破坏，局部周围示软组织影，部分肋骨骨质欠连续。	1.结合临床，右乳癌术后；纵隔淋巴结肿大，较前(2015-08-17)变化不著；腹腔及腹膜后淋巴结肿大，变化不著；双肺转移，部分增大，部分变化不著；原肝转移，较前考虑变化不著；多发骨转移，基本变化不著2.胆囊炎；考虑左肾囊肿，变化不著；脾内低密度灶，变化不著3.腹膜、网膜、肠系膜略增厚；少量腹水，略减少4.门脉左支充盈欠佳，变化不著5.考虑双肺炎症，较前好转；双侧胸膜略增厚并左侧胸膜钙化灶，变化不著。</t>
-  </si>
-  <si>
-    <t>1.右下肺中心型肺癌，较前片(2013-9-9)进展，并右肺间质性改变，考虑淋巴道转移，右侧胸膜转移，右侧胸腔包裹性积液；右侧腋窝及纵隔淋巴结转移；右侧多个肋骨、胸3椎体成骨性转移；请结合临床；2.右乳钙化结节，较前相仿；3.左肺下叶外基底段粟粒灶，较前相仿。双侧胸廓不对称，右侧胸廓塌陷，右肺体积减小，右肺下叶见团块状高密度影，形态不规则，边界不清楚，大小约4.1CM×5.4CM，CT值约37HU，右侧主支气管及各叶支气管受压变窄；右侧胸膜弥漫性增厚，右肺间隔结节样增厚；右侧胸腔可见包裹性积液；右侧腋窝、纵隔淋巴结增大，大者短径约1.39CM。左肺下叶外基底段(S35)可见粟粒影。心影大小正常范围。右侧第2、4、7、8肋骨、胸3椎体骨质密度不均匀增高，形态不规整。右侧乳腺外上象限内见一结节影，径约0.98CM，边界清晰，其内见点状钙化。</t>
-  </si>
-  <si>
-    <t>左乳外上象限及上份示大者截面约2.4CM×1.8CM不均质显著强化软组织密度灶，边缘分叶、毛糙。余双乳腺体强化欠均。左腋窝示大者短径约1.1CM淋巴结。右腋窝、双侧内乳区、肺门及纵隔内未见肿大淋巴结。右肺内示类结节灶、索条影。甲状腺内示低密度灶。扫描野内肝内示多发低密度灶，增强扫描边缘示斑片状明显强化。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。	1.考虑左乳癌并左腋窝淋巴结转移。2.右肺类结节灶、纤维灶。3.甲状腺低密度灶。4.考虑肝多发血管瘤，请结合其他检查。5.颅脑CT扫描未见明显异常。</t>
-  </si>
-  <si>
-    <t>1.结合临床，左乳癌术后改变；右肺结节灶，建议观察；胸骨骨质密度增高，考虑转移，建议观察2.左肺下叶炎症3.脂肪肝4.颅脑扫描未见明显异常左乳术后缺如，胸肌尚存，术区未见明显增厚及强化。右肺内见结节灶，大者直径约1.3CM。左肺下叶胸膜下见斑片状密度增高影。纵隔内未见肿大淋巴结影。胸膜无增厚，胸腔内未见积液征象。扫描野内肝脏实质密度均匀性减低，大小形态可，未见异常密度灶。脑实质密度正常，未见明显异常密度灶及强化灶。脑室、池无扩张，中线结构居中，颅骨诸骨质未见破坏。胸骨骨质密度增高。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，直肠癌术后，双肺转移瘤，较前2016-01-28部分缩小，部分变化不著2.双肾低密度灶，变化不著3.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著5.双肾囊肿。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.0CM(纵隔窗)，内示小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。肝脏实质密度均质。胆囊充盈可，壁不厚。胰、脾及双侧肾上腺未见异常。双肾见斑片状低密度灶，边界欠清。双肾内可见散在小囊性密度灶，边界清晰，未见强化。腹腔及腹膜后未见明显肿大淋巴结。直肠保肛术后，术区可见金属吻合钉影，周围肠壁未见明显增厚及异常强化。膀胱充盈可，壁不厚。前列腺及精囊腺未见异常。盆腔内未见积液及肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t>右下肺门区可见软组织密度肿块影，边缘模糊，与周围膨胀不全肺组织分界不清，右肺下叶内侧及后基底段支气管示阻塞，病变大小不易测量，增强扫描呈中度不均匀强化。病变远端见片絮状及条索状密度增高影。右肺野内(图4-33)及右肺胸膜下见数个类结节灶，边界尚清，大者直径约0.3CM。左肺野较清晰，未见明确异常密度灶。右侧胸膜示条状增厚并强化。右侧胸腔内示液性密度影。心包腔内见少量液性密度影。右肺门、纵隔内4R、4L、5区、7区见多发肿大淋巴结，大者短径约0.9CM。另于左锁上及右侧心膈角区见小淋巴结，短径约0.5CM。脑实质内见多发结节灶，边界欠清，增强扫描呈边缘环形强化，大者直径约4.5CM，周围见片状低密度水肿区。双侧上颌窦内示液性密度影。骨窗示：右侧胸锁关节示成骨性骨质改变，约右侧第5后肋示骨质密度不均匀。	1.结合临床，右肺癌并右肺膨胀不全，肿瘤大小不易与前片比较；右肺门、纵隔淋巴结转移，较前2014-7-4略示好转；脑转移治疗后，较前好转2.右侧胸膜增厚，考虑转移3.右侧胸锁关节骨转移4.右侧第5后肋骨质密度不均，建议观察5.右肺类结节灶，建议观察6.右侧胸腔积液，较前增多7.心包腔少量积液8.双侧上颌窦炎症。</t>
-  </si>
-  <si>
-    <t>右乳术后，前胸壁近胸骨旁软组织增厚，并见较显著强化。右侧腋窝结构紊乱。右侧内乳区、纵隔内右上气管旁、右侧锁骨上见稍大或增大淋巴结，部分融合，大者短径约1.3CM，增强后部分强化较显著。右肺见少许索条影。双侧胸腔未见积液征象。肝内见多发低密度结节灶，边缘欠清晰或模糊，大者长径约1.5CM，增强后部分边缘似见强化。扫描野内右肾见直径不足0.5CM小囊性低密度结节灶，边缘清晰，未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔及腹膜后未见增大淋巴结。鼻咽、口咽、喉及下咽未见异常。左侧上颌窦粘膜略增厚。双侧颈动脉鞘区见短径不足0.5CM小淋巴结。双侧甲状腺大小密度形态可。1.结合临床，右乳癌术后，右侧胸壁复发；右侧锁骨上淋巴结转移；右侧内乳区淋巴结肿大，考虑转移2.右肺纤维灶3.肝内低密度灶，部分转移可能性大，建议观察或MRI检查4.右肾囊肿5.左侧上颌窦炎</t>
-  </si>
-  <si>
-    <t>右肺下叶支气管局部狭窄截断，周围示软组织密度肿块影，最大截面约2.9CM×3.2CM，与远端少许实变不张肺组织和肺门区肿大淋巴结分界不清；增强后呈明显强化。左肺野较清晰。右侧胸膜(含叶间胸膜)增厚呈条状及类结节状，并可见强化。心包内示少量液体密度影。右侧乳腺术后缺如，术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区未见明显肿大淋巴结。左锁上见肿大淋巴结，短径约0.9CM。纵隔内4R、4L、5区、7区见多发小淋巴结，大者短径约0.5CM。所扫肝右叶示颗粒状钙化密度影。左侧大脑内示多发结节、肿块影，大者截面约2.9CM×3.4CM，其内呈囊性密度灶，增强扫描呈边缘环形强化；周围示片状无强化的低密度水肿带，邻近侧脑室局部略示受压。中线结构尚居中。左侧上颌窦内示液体密度影。骨窗：胸骨柄右侧、胸骨下段、多发胸椎椎体局部骨质密度不均匀增高。	1.结合临床，右侧中心型肺癌并阻塞性不张治疗后，较前(2015-3-31)明显好转；右肺门淋巴结肿大，较前好转；右侧胸膜(包括叶裂)增厚，较前好转，考虑转移；骨转移，变化不著；脑转移，较前略缩小2.心包积液较前减少3.右侧乳腺术后改变5.肝内钙化灶6.左上颌窦炎症。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后改变，双肺转移，较前(2015-1-6)变化不著；肝转移，部分较前进展，部分较前好转；多发骨转移较前变化不著2.右侧腋窝囊性密度灶较前变化不著3.左肺炎症，较前加重，右肺纤维灶4.左侧胸腔积液。右乳术后缺如，部分胸肌尚存，术区未见异常强化灶。右侧腋窝结构紊乱，局部示一囊性密度灶，直径约2.4CM，可见环形强化。左乳及左侧腋窝未见异常。双肺野示多发结节灶，边缘较清，大者直径约0.3CM。右肺上叶及左肺下叶可见斑片状条索状密度增高影。双肺门及纵隔未见增大淋巴结。左侧胸腔内可见液性密度影。肝实质内示数个低密度灶，边缘较模糊，可见轻度强化，大者直径约2.1CM。胆囊充盈可，壁不厚。胰、脾、双肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。。部分胸腰椎及附件、部分肋骨可见成骨性骨质破坏。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳术后复发侵及纵隔，骨转移2.颅脑扫描未见明确异常。右乳术后缺如，部分胸肌尚存，胸骨右旁可见软组织肿块影，最大截面约2.3CM×5.0CM，显著强化，向后累及前纵隔，其内胸骨示稀疏破坏。右侧腋窝呈术后状态，未见肿大淋巴结。左乳及左侧腋窝未见明确异常。双侧肺野清晰，肺纹理走形自然，气管及各级支气管通畅。双侧内乳区、纵隔及双肺门未见明确肿大淋巴结。脑实质密度正常，未见明显异常密度灶。脑室、池无扩张，脑沟、裂无增深，中线结构居中，颅骨诸骨质未见破坏。骨窗示部分胸椎椎体可见溶骨性破坏。	</t>
-  </si>
-  <si>
-    <t>右乳癌术后，术区结构紊乱，局部增强前后未见明显占位性病灶。肝左右叶可见多发大小不等病灶，T1WI呈略低信号，T2WI及压脂像呈略高信号，DWI呈高信号，增强扫描病灶呈不均匀强化。肝实质内及双肾实质内可见散在囊性结节，边界清楚，无强化，大者约1.0CM位于左肾。胆囊不大。脾、胰腺增强前后未见异常信号区。腹膜后未见明显肿大淋巴结。所扫部分椎体可见斑片状骨质破坏区，呈长T1短T2信号，压脂像及DWI为高信号，不均匀强化。双侧大、小脑半球及脑干大小、形态及灰白质位置正常，脑实质增强后扫描未见明显异常信号改变。脑室、脑池、脑沟未见明显异常。中线结构无移位。左上颌窦可见一囊性结节，边界清楚。余未见异常。	1.结合病史，右乳癌术后，肝(多发)及椎体转移。2.肝及双肾囊肿。3.颅脑MR扫描未见异常。4.左上颌窦囊肿。</t>
-  </si>
-  <si>
-    <t>1.左乳癌术后，肝脏多发转移瘤，较前2015-5-13变化不著；肝左叶胆管扩张2.右侧心膈角区淋巴结稍大3.左肺上叶含气囊肿4.双肾小囊肿左乳术后缺如，部分胸肌存在，术区未见明显增厚及异常强化；左侧腋窝术后，结构紊乱。右乳及右侧腋窝未见明确异常。左肺上叶可见类圆形过度充气区，边界清晰，余双侧肺野清晰，肺纹理正常，肺内未见实质性病变影。双侧各叶、段支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。右侧心膈角区淋巴结稍大，短径约0.5CM。肝脏实质内可见多发低密度肿块及结节灶，大者直径约10.1CM，边界欠清，其内可见大片状低密度坏死区。肝左叶胆管轻度扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺形态、大小、密度未见异常。双肾实质内可见散在小囊性密度灶，大者直径约0.3CM，边界清晰，未见强化。腹腔及腹膜后未见增大淋巴结。</t>
-  </si>
-  <si>
-    <t>右肺下叶见不规则软组织肿块，截面约6.1CM×3.1CM，边缘毛糙，增强后呈中等到显著不均匀强化；其远端肺野见多发斑片状及索条状密度增高影，局部支气管示扩张，局部小叶间隔增厚。右肺门及纵隔内2R、4R、4L、6、7、8R区见多发增大或小淋巴结，大者短径约1.3CM，部分增强后强化显著。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝、胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。	1.结合临床，右肺癌；纵隔淋巴结转移；右肺门淋巴结肿大，考虑转移2.右肺下叶炎症3.右肺下叶小叶间隔增厚，建议观察4.上腹部扫描未见异常。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌治疗后，较前(2014-12-12)变化不著；右侧胸膜转移较前变化不著，右侧胸腔积液伴右肺局限性实变，进展2.左侧叶间胸膜结节灶，转移不除外，较前变化不著，建议观察3.肝内多发强化灶，考虑血管瘤4.少量腹水5.部分肠腔扩张，肠壁增厚，请结合临床。右侧胸腔内可见大量液性密度影，右肺中下叶萎缩实变，右肺下叶背段脊柱旁可见软组织密度结节灶，大小约1.7CM×1.0CM，边缘毛糙，局部与邻近胸膜关系密切，并可见胸膜牵拉征；增强后结节呈中度不均匀强化。右侧胸膜(含叶间胸膜及纵隔胸膜)示不规则增厚，局部呈条状及结节状，增强扫描可见强化。左侧叶间胸膜见多发结节灶。双肺门及纵隔内间隙模糊，未见肿大淋巴结。肝脏大小、形态可，动脉期实质内见数个强化结节灶，边界较清，强化较显著，门脉及延迟期部分显示不清。另于肝右叶见一低密度灶(图2-55)，边界清，直径约0.8CM，动脉期中心可见强化，门脉及延迟显示欠清。胆囊充盈可，壁不厚。胰腺、脾及双肾未见明确异常。腹腔、腹膜后未见明确肿大淋巴结。腹腔内部分肠道明显扩张，肠壁增厚并分层，腹腔内可见少量液性密度影。	</t>
-  </si>
-  <si>
-    <t>右侧乳腺术后，术区结构紊乱，部分胸肌尚存，右侧胸壁近胸骨旁软组织增厚，相邻胸骨骨质破坏。扫描野内右侧颈后三角区、右侧内乳区及纵隔内见多发增大淋巴结，部分边界欠清。左侧乳腺未见异常。左侧腋窝见直径不足1.0CM淋巴结。双肺野见数个结节灶，大者直径不足1.0CM。甲状腺内示低密度灶，直径约0.7CM，边界欠清。部分肋骨及椎骨骨质密度不均，左侧部分肋骨骨质欠连续。	1.结合临床，右侧乳腺癌术后，右侧胸壁复发并累及胸骨治疗后，较前(2017-1-9)变化不著；右侧颈部、右侧内乳区、纵隔淋巴结转移治疗后，淋巴结显示不清2.左侧腋窝淋巴结稍大，略缩小3.双肺结节灶，变化不著4.部分肋骨及椎骨骨质密度不均，基本变化不著5.甲状腺低密度灶，变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后2.右肺占位，考虑右肺癌3.右肺门及纵隔淋巴结肿大，考虑转移；右锁上淋巴结肿大4.右侧胸膜增厚并结节灶，考虑转移5.左侧胸腔少量积液6.胆囊炎7.甲状腺左侧叶低密度灶，建议观察。右肺尖见不规则软组织密度影，其边缘可见小空洞影，边缘分叶、模糊，并可见胸膜牵拉征，截面积约3.6CM×2.5CM；增强扫描呈较显著不均匀强化。右肺上叶及中叶见少许条索状密度增高影。左肺野较清晰。右肺门、纵隔内2R、3A、4R、7区见多发肿大淋巴结，大者短径约1.7CM，增强扫描呈不均匀强化。右锁上见稍大淋巴结，短径约0.5CM。右侧胸膜局部增厚呈结节状(图8-26)，直径约0.6CM，呈较显著不均匀强化。甲状腺左侧叶见小低密度灶，边界尚清，直径约0.5CM。右乳术后缺如，术区结构紊乱，周围间隙模糊，未见明确异常强化。左乳及左侧腋窝未见明确异常。左侧胸腔内见少量液性密度影。胆囊壁增厚。	</t>
-  </si>
-  <si>
-    <t>右肺上叶后段近胸膜处示软组织结节灶，增强扫描明显强化，截面约2.1CM×1.7CM。双肺内示泡状过度透光区。纵隔内气管右旁、腔静脉后间隙、隆突下、右肺门示增大淋巴结，大者短径约2.1CM。右侧胸膜增厚呈结节及肿块状，明显强化。右侧胸腔示液体密度影。肝实质内示数个囊性密度灶，大者短径约0.5CM。胆胰脾双肾上腺双肾形态、密度未见明显异常。腹腔及腹膜后未见明显增大淋巴结。鼻咽、口咽、喉咽壁未见明显增厚。右颈部示稍大淋巴结，大者短径约0.4CM。	1.结合临床，右肺癌并右肺门、纵隔淋巴结转移；右侧胸膜转移2.肝囊肿3.颈部扫描未见明显异常。</t>
-  </si>
-  <si>
-    <t>右肺下叶背段(S29)见椭圆形肿块影，约1.58CM×1.17CM，边缘不规整，可见多发毛刺影，并见血管影进入，牵拉邻近胸膜，CT值约6HU。右肺下叶见斑片影。右肺门区及纵隔内可见多发肿大淋巴结影，大者短径约2.07CM，双侧胸腔未见积液征象。心脏大血管未见异常。双侧第10后肋、胸骨柄及胸骨体内可见高密度影，胸2椎体内可见结节状高密度影，胸2附件骨质可见溶骨性破坏区。1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移，肿块较2014-05-20CT缩小；2.右肺下叶炎症，较前相仿；3.所示多发骨转移征象，右侧第10后肋病理性骨折，胸2椎体内及胸骨柄内病灶较前范围增大，密度增高。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后，肝转移，较前2016-2-16片增大；右肺结节灶，转移待排2.左肺纤维灶3.胆囊炎。右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一结节灶，直径约0.6CM，边界清。纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块，大者直径约3.5CM，边缘模糊，轻度强化。胆囊充盈可，壁示增厚。胰、脾及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右肺下叶中心型肺癌累及肺门、纵隔并阻塞性肺不张、肺炎；右肺门、纵隔淋巴结转移，上述病变较前2016-11-1好转。2.肝、右肾囊肿。3.双颈部小淋巴结。4.双侧胸膜略增厚。5.右肺上叶钙化灶。6.双肺气肿。右肺下叶支气管周围可见一不规则软组织密度肿块影，约4.4CM×4.8CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织分界不清，远端可见斑片状密度增高影，向内与肺门淋巴结分界不清，与纵隔内软组织及心包、大血管分界不清，余双肺野内散在囊泡状过度透光灶，右肺上叶示一钙化结节灶。右肺门、纵隔内示多发肿大融合的淋巴结影，大者短径约3.4CM。左侧胸膜略示增厚。肝实质内见点状钙化灶及小囊肿。异常密度影。右肾见囊肿。胆囊、胰腺、脾、左肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。各咽壁不厚，双侧颈部示数个结节灶，大者短径约0.8CM。腮腺及双侧甲状腺未见异常。	</t>
-  </si>
-  <si>
-    <t>右侧乳腺术后，术区胸壁部分胸肌尚存，右侧胸壁近胸骨旁软组织增厚，相邻胸骨骨质破坏。扫描野内右侧颈后三角区、右侧内乳区及纵隔内见多发增大淋巴结，部分边界欠清。左侧乳腺未见异常。左侧腋窝见直径不足1.0CM淋巴结。双肺野见数个结节灶，大者直径不足1.0CM。甲状腺内示低密度灶，边界欠清。部分肋骨及椎骨骨质密度不均，左侧部分肋骨骨质欠连续。	1.结合临床，右侧乳腺癌术后，右侧胸壁复发并累及胸骨、右侧颈部、右侧内乳区、纵隔淋巴结转移治疗后，较前(2016-9-7)好转2.左侧腋窝淋巴结稍大，略缩小3.双肺结节灶，不除外转移，较前好转4.部分肋骨及椎骨骨质密度不均，基本变化不著，请结合骨扫描5.甲状腺低密度灶。</t>
-  </si>
-  <si>
-    <t>右肺下叶可见团块影，边界尚清，CT值约为38HU，约为4.45CM×4.71CM。双肺可见多发的大小不等的小结节影。右肺中叶、下叶、左肺上叶舌段可见片状的高密度影。两肺门、纵隔内可见多发肿大的淋巴结。两胸腔积液征象，右侧显著。心包积液。甲状腺明显肿大。右侧胸壁下可见结节影，径约0.86CM。1.右肺下叶病变，考虑周围肺癌，双肺多发转移瘤，双肺门、纵隔淋巴结转移，较2014-12-09相仿，右肺下叶斜裂处团块影较前增大；2.双胸腔积液，较前稍有吸收；心包积液；3.右肺中叶、下叶、左肺上叶舌段炎症；4.右侧胸壁下结节影，请结合临床。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左肺癌治疗后；左侧胸膜转移及叶裂转移2.左肺慢性炎症及纤维灶3.左侧心包及心膈角区结节影4.肝囊肿以上均较前(2016-11-22)片变化不著。左肺上叶纵隔旁示一不规则软组织密度结节灶，与纵隔内主肺动脉窗区肿大淋巴结分界不清。左肺野内见斑片索条状密度增高影，左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧心包及左侧心膈角区可见多发结节影，大者直径不足1.0CM。肝脏大小形态未见异常，肝实质内可见一小低密度灶，边界清。胆囊充盈欠佳，壁增厚。胰腺、脾、双肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。	</t>
-  </si>
-  <si>
-    <t>左肺下叶见团块状高密度影，边界不规则，可见细小毛刺及分叶，周围可见淡片影。病变最大截面大小约为1.70CM×1.05CM，右肺下叶内侧底段见一小结节影，直径约为0.33CM。肺门区未见明显异常。气管支气管影正常。纵隔内未见增大的淋巴结。双胸腔无积液征象。心脏不大，大血管壁钙化。所示部分下位胸椎内见结节样稍高密度影。胸7椎体及附件骨质溶骨性破坏改变。肝脏密度减低，CT值约27HU。与2011-10-10日原片对照：1.左肺下叶肺癌，较前减小；2.右肺下叶小结节、部分下位胸椎内高密度影，较前无明显变化；3.胸7椎体及附件骨质破坏，考虑为骨转移，对比原片破坏范围增大；4.脂肪肝。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右乳癌并右侧腋窝淋巴结转移2.右肺类结节，建议观察3.上腹部扫描未见异常。右乳外下见一截面约4.1CM×5.2CM软组织肿块，不均匀强化，边缘模糊，周围脂肪间隙密度增高。右侧腋窝见短径约2.1CM肿大淋巴结。右肺中叶见一直径不足0.5CM小类结节灶。双侧肺门及纵隔未见增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝、胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右肺癌，较前2014-7-7好转；双肺门淋巴结略增大，变化不著；右侧斜裂胸膜类结节灶，考虑转移，变化不著2.右肺上叶炎症，较前进展3.双肺类结节灶，建议观察4.右侧胸腔少量积液。右肺门支气管开口处示一软组织密度肿块，约1.5CM×1.9CM，密度不均，边缘分叶毛糙，增强呈较均匀强化。双肺野内散在磨玻璃影及类结节灶，以上叶为著。右侧斜裂胸膜可见结节灶，大者直径约0.3CM。双肺门示增大淋巴结，大者直径约0.6CM。右侧胸腔示少量液性密度影。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右肺占位，考虑肺癌并阻塞性肺炎伴纵隔及右肺门淋巴结转移；右肺中叶结节灶，考虑转移2.甲状腺低密度灶，考虑结节性甲状腺肿3.肝囊肿4.子宫、附件术后改变。右肺水平裂旁见一软组织密度结节灶，大小约2.7CM×2.2CM，边缘毛刺、浅分叶，局部牵拉邻近肋胸膜凹陷，病变周围肺野内见少许条索及斑片影，增强扫描病变呈轻度不均匀强化。右肺中叶见一直径约0.8CM结节灶，强化方式同前。右肺下叶见片状密度增高影。左侧肺野清晰。纵隔内气管隆突下及右肺门见肿大淋巴结，大者短径约1.0CM，增强扫描呈不均匀强化。扫描野内甲状腺右侧叶上极见一低密度灶，直径约2.1CM，边界较清晰，增强扫描可见强化，甲状腺被膜完整。心包内见弧形液性密度影。肝实质内见多发囊性密度灶，大者直径约1.8CM，边界清，无强化。胆囊充盈欠佳，壁略厚。胰、脾、双侧肾上腺及双肾未见异常。腹腔及腹膜后未见增大淋巴结。子宫及双附件未见显示。膀胱充盈良好，壁不厚。盆腔内及双侧腹股沟区未见肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.考虑右乳癌并右腋窝淋巴结转移，请结合其他检查。2.右肺类结节灶，建议观察；双肺纤维灶。右乳外下象限示长径约1.1CM不均质强化结节灶，边界欠清，向局部前达皮下。余双乳腺体强化欠均质，内示小斑片状强化灶。右侧腋窝示大者短径约1.9CM淋巴结，强化较著。左侧锁骨上示短径不足0.5CM淋巴结。左侧腋窝、纵隔及双肺门未见肿大淋巴结。右肺尖区示小类结节灶，余双肺内示索条影。	</t>
-  </si>
-  <si>
-    <t>小脑、右额叶、右枕顶叶、左顶叶见散在数个、大小不等的结节样异常信号，部分病灶周围伴有小片状或斑片状长T2信号的水肿带，病灶表现为T1WI略低或低、高信号，T2WI及压水像为高或混杂高信号，DWI序列为低、高或高信号，增强扫描呈结节样或不均匀强化，大者约0.8CM×1.8CM位于右枕顶叶。左顶叶可见点状异常信号影，平扫各序列均为低信号，无强化。中线结构居中。右上颌窦内可见一囊性结节，边界清楚。余未见异常。	1.结合右肺癌病史，脑多发转移瘤。2.考虑左顶叶钙化灶。3.右上颌窦囊肿。</t>
-  </si>
-  <si>
-    <t>右乳外上象限可见一不规则软组织密度肿块，边缘明显分叶，周围可见条索影，肿块截面大小约1.0CM×1.4CM，增强后可见病变显著强化。余右侧乳腺内可见显著强化小结节灶。右侧腋窝可见小淋巴结，大者短径约0.5CM。左乳及左侧腋窝未见异常。右侧内乳区略饱满。右肺上叶及左肺下叶可见散在类结节灶，边界较清，大者直径约0.3CM；余双肺野清晰，肺纹理走形自然，气管及各级支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶，边界清晰，未见强化。腹腔内肝胃韧带区见多发增大淋巴结，大者短径约0.8CM。腹膜后未见增大淋巴结。脑实质密度均质，未见明确异常密度灶。脑室、池未见扩张，中线结构居中。骨窗示：扫描野内右侧髂骨、多发胸腰骶椎椎体、左侧锁骨、右侧肩胛骨、部分肋骨呈成骨性及溶骨性骨质破坏，局部呈膨胀性改变。	1.右乳癌并右侧腋窝转移，较前(2015-08-13)好转；多发骨转移，较前密度增高2.双肺类结节灶，纤维灶可能，建议观察3.右肾囊肿4.腹腔内淋巴结肿大5.颅脑扫描未见明确异常。</t>
-  </si>
-  <si>
-    <t>右乳示多发软组织密度结节及肿块，部分融合，大者截面约3.7CM×2.0CM，边缘分叶，与皮肤关系密切，增强扫描可见较显著不均匀强化。右腋窝示强化小淋巴结，大者短径约0.5CM。左乳未见异常。左腋窝及锁上未见明显肿大淋巴结。纵隔内4R/L及7区示多个略增大淋巴结，大者短径约0.7CM。双侧胸腔示少量液体密度影，左侧较著，左侧胸膜略厚。肝内示多发低密度结节及肿块，大者截面约3.8CM×4.6CM，边缘模糊，增强扫描可见不均匀强化。胆胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。多发胸腰椎、肋骨、左侧肩胛骨及胸骨示骨质破坏。1.右乳癌，肝转移，多发骨转移，病灶较前示缩小2.右腋窝小淋巴结；纵隔淋巴结略大，变化不著3.左侧胸膜略厚，双侧胸腔少量积液</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合肺癌病史，左额叶、左顶叶转移。2.脑多发小缺血灶。左额叶近颅顶处可见一0.9CM×1.1CM×1.4CM的类卵圆形结节，有分叶，周围伴有斑片状长T2信号的水肿带，结节表现为T1加权像略低信号，T2加权像略高信号，压水像及DWI为高信号，不均匀强化。左顶叶可见一点状强化灶。双额叶可见散在小点状等T1略长T2信号影，压水像为高信号，无强化。脑室系统无扩大。中线结构居中。余未见异常。	</t>
-  </si>
-  <si>
-    <t>1.左肺下叶肺癌伴双肺多发转移瘤，较前2016-02-19CT减小，右侧胸水较前略减少；2.左侧肩胛骨、部分肋骨、胸椎及附件转移，较前略好转，请结合临床。左肺下叶可见团块影，较大截面大小约3.5CM×2.5CM，CT值约为52HU，边界尚清，浅分叶状，周围可见斑片状稍高密度影。双肺另见散在多发大小不等结节影。两肺门区未见异常。纵隔内未见淋巴结增大。右侧胸腔内可见弧形积液影。心脏大血管未见异常。左侧肩胛骨、双侧部分肋骨、胸椎及附件形态欠规整，可见骨质破坏区。</t>
-  </si>
-  <si>
-    <t>右侧小脑半球及双侧大脑半球见散在大小不等的略长T1略长T2结节样影，压水像及DWI为高信号，增强扫描可见结节样强化，大者大小约0.6CM×0.8CM位于左侧颞叶。双侧大脑半球及小脑蚓部见结节状、斑片状等T1略长T2信号影，压水像及DWI为高信号，无强化。双侧大脑半球可见散在点片状等T1略长T2信号影且以侧脑室周围为著，压水像为高信号，DWI为等信号，增强后扫描无强化。脑室系统无扩大。中线结构居中。双侧上颌窦、筛窦粘膜增厚。余未见异常。	1.结合肺癌病史，脑多发转移瘤，较本院(2016-09-14)MR片进展。2.考虑脑多发急性梗塞灶，建议结合临床。3.脑多发缺血灶。4.双上颌窦、筛窦炎。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合病史，右乳癌术后，肝(多发)及椎体转移，较本院(2016-05-12)MR片示肝转移好转，椎体转移变化不著。2.肝及双肾囊肿。右乳癌术后，术区结构紊乱，局部增强前后未见明显占位性病灶。肝左右叶可见多发大小不等病灶，T1WI呈略低信号，T2WI及压脂像呈略高信号，DWI呈高信号，增强扫描病灶呈不均匀强化，大者约0.6CM位于左外叶。肝实质内及双肾实质内可见散在囊性结节，边界清楚，无强化，大者约1.0CM位于左肾。胆囊不大。脾、胰腺增强前后未见异常信号区。腹膜后未见明显肿大淋巴结。所扫部分椎体可见斑片状骨质破坏区，呈长T1短T2信号，压脂像及DWI为高信号，不均匀强化。余未见异常。	</t>
-  </si>
-  <si>
-    <t>1.右肺门肿块，考虑肺癌可能；2.双肺多发病变，纵隔淋巴结肿大，随诊；3.支气管炎，肺气肿；双侧胸膜增厚；4.心包增厚；5.部分椎体及肋骨、胸骨转移；以上对比2012.08.06前片，未见明显变化，请结合临床。双肺纹理稀疏，可见多发含气透亮影。右肺尖可见斑片状高密度影，边缘可见细毛刺，大小约为3.15CM×1.34CM，CT值约47HU；右肺上叶支气管狭窄，右肺门区见肿块影。左肺上叶舌段及左肺下叶內基底段可见片状高密度影。双肺可见多发小结节影。右肺下叶外基底段可见一点状钙化影。纵隔内可见多发增大的淋巴结，大者短径约1.06；双胸腔无积液征象，双侧胸膜增厚。心脏不大，部分大血管见钙化斑。心包增厚。部分椎体及肋骨、胸骨可见多发斑片状致密影。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，双侧乳腺癌术后改变；左肺上叶、右肺下叶结节灶伴FDG高代谢，考虑恶性病变，建议进一步检查；左锁上、纵隔淋巴结转移伴FDG高代谢。2.双肺肺大泡。3.扁桃体炎症。4.子宫肌瘤；子宫腔内FDG高代谢，考虑子宫内膜摄取。5.T6-T9椎体术后改变。空腹6HR以上，静脉注射显像剂，平静休息60MMIN后行CT和PET全身断层显像，PET图像经衰减校正、迭代法重建后行多层面、多幅显像，并与CT图像进行融合。影像清晰。PET-CT示左乳术后缺如，术区未见异常放射性摄取，右乳未见异常放射性摄取；左锁上肿大淋巴结，直径约为1.7CM，呈结节状放射性摄取增高，最高SUV3.5，左肺上叶支气管前尖段开口处示局限性放射性摄取增高，最高SUV3.3，远端示条状密度增高影；右肺下叶斜裂胸膜处示软组织结节，与斜裂胸膜关系密切，截面约为1.8CM×1.5CM，边缘毛刺，呈结节状放射性浓聚，最高SUV5.4，其外侧斜裂胸膜亦示一结节灶，长径约为1.0CM，未见异常放射性摄取；左肺上叶、右肺下叶各示一肺大泡影；纵隔气管前腔静脉后示放射性摄取增高淋巴结，直径约为1.0CM，最高SUV4.1；子宫表面示直径约为2.0CM的结节样凸起，子宫腔内示小片状放射性摄取；扁桃体示放射性摄取增高，最高SUV5.9。T6-T9椎体示金属固定器影。脑部正常显影。肝脏形态、大小及放射性分布正常，脾不大。胃显影正常。双肾及双输尿管正常显影。腹部内见数个形态不一、条管状、浓淡不一的正常肠影。余无特殊。	</t>
-  </si>
-  <si>
-    <t>双肺透过度欠均，左下肺可见一肿块影，边界不规则，最大层面3.72CM×2.13CM，CT值约32HU；左肺下叶基底段部分支气管略窄；双肺多发小结节影。纵隔、左肺门可见多发稍大的淋巴结，大者短径约0.78CM。两胸腔无积液征象。心脏大血管未见异常。第3胸椎左侧横突、第4、5、7、8、10胸椎椎体内可见结节状高密度影，第11胸椎椎体骨质密度不均匀减低，左侧第4、5、7后肋骨质密度增高。甲状腺左叶见类圆形低密度影，边界欠清，大小约为0.85CM，CT值约为28HU。肝右叶多发低密度灶，右侧肾上腺区可见软组织密度影。左侧肾上腺内支似见结节影。1.左下肺周围型肺癌，双肺多发小转移灶，对比2012-06-04片，病变未见明显进展；2.纵隔、左肺门多发增大淋巴结，对比前片变化不大；3.胸椎、左侧肋骨、胸骨及右侧锁骨多发转移；4.甲状腺占位，腹部改变，请详查。</t>
-  </si>
-  <si>
-    <t>左肺叶间胸膜下见一结节灶，直径约1.0CM，边清。右肺上叶及中叶见少许斑片条索状密度增高影，部分内见钙化灶。右肺中叶胸膜下见结节灶，部分内见钙化灶，大者直径约0.4CM。双侧胸膜未见增厚，双侧胸腔未见积液征象。双肺门、纵隔未见肿大淋巴结。直肠术后，吻合口壁未见增厚及异常强化征象。膀胱充盈可，壁不厚。子宫及附件区未见异常。盆腔内未见肿大淋巴结。盆腔内未见积液征象。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。	1.结合临床，直肠癌术后2.左肺叶间胸膜下结节灶，较前(2015-6-1)略增大，转移不能除外，建议密切观察3.右肺结节灶及钙化，较前变化不著4.上腹部扫描未见异常。</t>
-  </si>
-  <si>
-    <t>右肺上叶后段近胸膜处示软组织结节灶，形态不规则，截面约2.4CM×2.2CM。双肺内示泡状过度透光区。纵隔内气管右旁、腔静脉后间隙、隆突下、右肺门示增大淋巴结，大者短径约1.4CM。右侧胸膜增厚呈结节及肿块状。右侧胸腔示液体密度影。	1.结合临床，右肺癌，较前(2014-11-14)略似饱满；右肺门并纵隔淋巴结转移，较前部分进展，部分变化不著；右侧胸膜转移，较前部分好转，部分变化不著；右侧胸腔积液，较前略减少。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左肺癌并阻塞性肺不张；纵隔淋巴结转移；右肺门淋巴结稍大2.双肺炎症及纤维灶、气肿；双肺类结节灶，建议观察3.肝内钙化灶4.肝内低密度灶，多为囊肿，部分考虑为囊肿，建议观察；双肾囊肿。左肺下叶背段支气管截断，断端见软组织密度灶，远端见不张肺组织，内见扩张支气管及其内粘液栓，二者分界不清，增强后前者中等不均匀强化，侵及左下肺门，与左下肺动脉及其分支、降主动脉关系密切。右肺及纵隔见大者短径约0.8CM中等淋巴结。左侧锁骨上见短径不足0.5CM小淋巴结。双肺见少许斑片索条影及少许泡状过度透光区。左肺上叶(5-13、15)见大者长径约0.8CM类结节灶。右肺(5-17、27)见直径不足0.5CM小类结节灶。肝内见斑点状钙化灶及低密度结节灶，后者大者长径约2.0CM，大部分边缘清晰，部分欠清，均未见强化。胆、胰、脾、双侧肾上腺未见异常。双肾见囊性结节灶。腹腔及腹膜后未见肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t>左肺上叶近纵隔旁见软组织肿块影，边缘有毛刺，直径约2.5CM，增强后可见强化。右肺下叶见少许条索影，余肺野清晰，未见异常。肝实质内见多发囊肿。胆囊胰脾双肾未见异常。腹腔及腹膜后未见明显肿大淋巴结。前列腺形态大小正常，边缘光整，与周围组织间隙清晰，实质内密度均匀。精囊腺形态大小密度正常。膀胱充盈好，壁不厚。盆腔内未见肿大淋巴结。左侧臀部肌群内见软组织肿块，邻近左侧髂骨骨质破坏，肿块最大截面约4.4CM×5.1CM。L4椎体骨质密度减低。	1.结合临床，考虑左肺癌并左侧臀部肌肉转移累伴左髂骨骨质破坏；L4椎体密度减低，建议观察2.肝囊肿。</t>
-  </si>
-  <si>
-    <t>肝脏体积增大，形态欠规则，实质内见多发混杂密度结节及肿块影，边界欠清，部分可见假包膜形成，大者截面积约13.1CM×10.0CM，部分其内示高密度碘油影沉积；增强扫描其内可见不均匀强化。肝左内叶近膈顶处病灶大小约12.5CM×7.3CM，邻近下腔静脉受压变窄。余肝内见数个动脉期较显著强化灶，门脉期和延迟期廓清迅速，部分呈融合状，边界不清。肝内另见小囊性密度灶，大者长径不足0.5CM，界清，无强化。门脉主干及左支显示尚可，门脉右支示受压显示欠清。胆囊充盈可，壁略厚。胰腺、脾、双肾及右侧肾上腺未见明确异常。左侧肾上腺略示饱满。腹腔及腹膜后未见确切增大淋巴结。双肺内示多发大小不一的结节灶，大者长径约1.3CM。双肺内胸膜下见多发泡状过度透亮区及条索状密度增高影，局部肺大泡形成。双肺门及纵隔未见确切增大淋巴结。纵隔内冠状动脉见条形钙化。右侧叶间胸膜增厚局部示类结节灶。双侧胸腔未见液性密度影。	1.结合病史，肝癌伴肝内转移治疗后，部分较2015-1-5片进展；双肺多发转移，较前进展2.双肺局限性肺气肿，肺大泡；双肺纤维灶3.右侧叶间胸膜结节灶，较前变化不著4.肝小囊肿5.左侧肾上腺饱满，较前变化不著。</t>
-  </si>
-  <si>
-    <t>小脑、双颞叶、双顶叶及左额叶见多发结节样异常信号影，表现为T1WI低信号，T2WI及压水序列高信号，DWI序列呈等、高信号，增强扫描呈结节样或环形强化，大者约1.9CM×2.4CM×1.5CM位于左顶叶，部分病灶周围脑实质内见小片状或片状长T2水肿带。左侧侧脑室后角略受压变形。中线结构居中。左乳突可见小片状长T2信号影。余未见异常。	1.结合右肺癌病史，符合脑多发转移瘤MR表现，较本院(2014-11-12)MR片示进展。2.左乳突炎症。</t>
-  </si>
-  <si>
-    <t>右肺下叶支气管周围可见一不规则软组织密度肿块影，约2.2CM×2.1CM，与其远端斑片状密度增高影，向内与肺门淋巴结分界不清。双肺野内散在囊泡状过度透光灶，右肺上叶示一钙化结节灶。右肺门、纵隔内示多发肿大融合的淋巴结影，大者短径约1.3CM。左侧胸膜略示增厚。颈部未见明显异常。肝胆胰脾双肾上腺双肾形态、密度未见明显异常。腹腔及腹膜后未见明显增大淋巴结。	1.右肺下叶肺癌并阻塞性肺不张、肺炎；右肺门、纵隔淋巴结转移，上述病变较前2017-1-9示好转。2.双侧胸膜略增厚。3.右肺上叶钙化灶。4.双肺气肿。5.颈部及上腹部未见明显异常。</t>
-  </si>
-  <si>
-    <t>左肺门周围可见不规则软组织密度肿块影，约4.7CM×3.8CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。双肺内见多发斑片状密度增高影。左肺上叶示一结节灶，直径约0.9CM，双侧胸膜及叶间胸膜上可见多发类结节灶。纵隔内示多发融合的淋巴结影，大者短径约1.2CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常，肝实质内可见数个低密度灶，部分边界清，部分边缘显示模糊。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常，右肾上腺示一类结节灶，长径约3.9CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨、肋骨密度略增高。	1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张，较前(2017-2-14)进展；肺炎治疗后，较前变化不著；左肺上叶结节灶较前变化不著，考虑转移；双侧胸膜多发结节灶，考虑转移，部分较前增大；纵隔淋巴结转移，较前增大；右肾上腺转移，较前增大2.肝内低密度灶，部分考虑囊肿，部分建议观察；双肾囊肿；左肾低密度灶，较前增大；胰腺低密度灶，变化不著3.心包、左胸腔少量积液，较前变化不著4.部分椎骨及肋骨密度略增高，考虑转移，较前变化不著。</t>
-  </si>
-  <si>
-    <t>右乳术后缺如，部分胸肌存在，术区胸壁及皮肤局部略增厚；右侧腋窝术后，结构紊乱。左乳未见明确异常。右侧内乳区、左侧腋窝可见小淋巴结，大者短径不足0.5CM。右肺中叶见一结节灶，长径约1.4CM。右肺中叶可见类圆形囊状过度充气区及条片影。双肺门及纵隔内未见肿大淋巴结。右侧胸膜略增厚。扫描野内肝实质密度减低。脾内示颗粒状致密影。胆囊腔内密度略增高。右侧部分肋骨密度增高。	1.右乳癌术后改变，术区胸壁及皮肤局部略增厚，较前(2016-05-19)基本变化不著2.考虑右肺转移，略饱满；右肺中叶含气囊肿、纤维灶，变化不著3.脂肪肝；脾内钙化灶4.右侧部分肋骨密度增高，变化不著。</t>
-  </si>
-  <si>
-    <t>右肺中叶可见团块影，边缘不规则，长径约为2.8CM，平扫CT值为44HU，双肺可见多发结节影，较大者径约0.6CM；所示气管支气管影正常。右肺门增大，可见多个小淋巴结，纵隔内见增大淋巴结影，径约1.1CM。前上纵隔胸腺区见囊性密度灶，大小约为1.39CM×4.28CM，CT值约为11HU。两胸腔无积液征象。心脏大血管未见异常。与2012.12.11CT片对比：1.右肺中叶周围型肺癌，较前片病灶缩小；2.双肺多发转移瘤，部分较前变小；3.右侧肺门增大，纵隔淋巴结增大，与前片相仿；4.前上纵隔囊性灶，较前大致相同。</t>
-  </si>
-  <si>
-    <t>右肺门区见不规则软组织密度肿块影，增强扫描可见不均匀强化，远端与不张实变的肺组织分界不清，大小不易测量；右侧胸腔见大量液体密度影，右肺全肺不张，右侧胸膜增厚并可见强化。左肺野清晰。纵隔、膈上前组及中组可见肿大淋巴结，大者短径约1.0CM。右侧锁骨上见小淋巴结，大者短径约0.5CM。右侧胸腔内可见引流管影.肝实质内平扫未见明显异常，增强扫描可见多发异常强化区，肝左叶可见团片状强化，肝尾状叶及右叶病灶可见结节样向心性充填样强化。另肝右叶近包膜下(6-70)见一类圆形低密度灶，直径约1.0CM，边缘略模糊。双侧肾上腺及双肾未见明显异常。腹腔腹膜后未见肿大淋巴结。脑实质内未见异常密度影，脑沟、脑池未见增宽或狭窄，脑室大小、形态，位置正常，中线结构居中。T9椎体内可见一类圆形骨质稀疏区。	1.结合临床，右肺癌，右肺全肺不张，较前2016-8-16不易比较；纵隔、膈上淋巴结转移，右侧锁骨上淋巴结肿大，较前变化不著。2.右侧胸腔大量积液，右侧胸腔引流术后改变；右侧胸膜转移，变化不著。3.肝脏血管瘤(多发)。4.肝右叶低密度灶，较前变化不著，建议观察。5.颅脑扫描未见明显异常。6.T9椎体内骨质稀疏，考虑转移，较前略增大。</t>
-  </si>
-  <si>
-    <t>右肺中叶可见一软组织密度灶，边缘毛糙，呈分叶状，大小约10.8CM×9.5CM，向内与心包关系密切，向外与胸膜分界不清，增强后示边缘显著强化，内部不均匀强化，右肺中叶少许肺组织实变。右肺尖示类结节灶，外缘胸膜牵拉。纵隔及右侧肺门可见多发性结节灶，位于右肺门者与肿块分界欠清，余大者短径约1.0CM。双侧肺野内可见多发性过度透光区。余肺野未见明显异常。心包内示少量液体密度影。右侧胸腔示液体密度影。胸廓骨未见明显异常。肝大小、形态、位置可，实质可见多发性低密度灶，大者长径约0.8CM，边界清，未见强化，肝脏密度弥漫性减低。胆囊充盈不良，壁略厚。胰、脾、双侧肾上腺及扫描区内双侧肾脏未见明显异常。腹腔及腹膜后未见明显肿大的淋巴结。	1.右肺CA治疗后，较前片(2017-2-4)示进展；纵隔及右肺门淋巴结肿大，考虑转移，部分变化不著，部分与肿块分界欠清部分略缩小。2.左侧胸腔积液，心包少量积液3.肺大泡；右肺尖类结节灶，变化不著4.脂肪肝，肝囊肿。5.胆囊炎。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后，右胸壁类强化结节，建议观察；肝转移，较前2016-11-15部分饱满，部分变化不著；右肺结节灶，变化不著2.左肺纤维灶，变化不著3.胆囊炎4.部分骨质密度稍高，建议观察或ECT检查。右乳术后，术区未见增厚及异常强化征象。右胸壁(5-22)见一直径不足0.5CM小类结节，强化显著。右腋窝结构紊乱，未见肿大淋巴结。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一类结节灶，边界模糊。双侧内乳区、肺门、纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块，大者直径约4.2CM，边缘模糊，轻度强化。胆囊充盈可，壁示增厚。胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。胸骨及胸椎局部密度稍高。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左乳癌术后改变；左侧胸肌深面转移；左侧内乳淋巴结肿大，较前(2014-8-18)变化不著2.肝转移，较前明显进展3.颅脑扫描未见异常。左乳术后，术区结构紊乱，未见结节及肿块。左侧腋窝结构紊乱。左侧胸肌深面可见软组织密度结节灶，大者大小约1.6CM×2.4CM。右乳未见异常。左侧内乳见增大淋巴结，短径约0.8CM。左侧腋窝、双侧肺门及纵隔未见增大淋巴结。右侧水平裂区(3-25)见一类结节灶，直径约0.2CM。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝实质内见多发低密度结节及肿块，边缘略模糊，其密度不均。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及双肾未见异常。腹腔内肝总动脉见短径约0.6CM小淋巴结。腹膜后未见增大淋巴结。脑实质均质，未见异常密度灶。脑室系统未见扩张。中线结构居中。	</t>
-  </si>
-  <si>
-    <t>左乳术后，术区皮肤略增厚，皮下脂肪层密度增高，未见结节及异常强化灶。左侧腋窝结构紊乱，见少许斑片状低密度，未见异常强化，考虑为术后改变。右侧胸膜下、双侧斜裂胸膜见多发结节灶，大者长径约0.6CM。右肺下叶见少许索条影。左侧内乳区见短径不足0.5CM小淋巴结。双侧肺门及纵隔未见增大淋巴结。左侧甲状腺见小低密度灶，直径不足0.5CM。第1腰椎体局限骨质密度减低。第5胸椎压缩变扁，其后缘见软组织肿块并侵及邻近椎管，其上下椎体骨质亦局限性破坏。脑实质密度均匀，未见结节及异常强化灶。大枕大池。中线结构居中。	1.结合临床，左乳癌术后；右肺胸膜下及双侧斜裂区结节灶，考虑转移，请结合临床；多发骨转移并软组织肿块形成并侵及邻近椎管2.左侧内乳区小淋巴结3.右肺下叶纤维灶4.大枕大池5.左侧甲状腺低密度灶。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后；右肺转移治疗后，较前(2017-1-20)基本变化不著；原左肺结节灶，较前变化不著；脑转移，较前基本消失不清2.纵隔增大淋巴结，变化不著；右肺门淋巴结稍大；左侧锁骨上淋巴结，变化不著3.肝转移治疗后，较前略进展4.左肾囊肿5.右肺少许炎症、纤维灶，基本变化不著；左肺小类结节灶，变化不著6.右侧部分肋骨及部分椎骨略高密度影，变化不著。右乳术后，术区未见增厚及异常强化征象；右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结，短径不足0.5CM。左侧锁骨上示短径约0.7CM淋巴结。右肺上叶示团片状密度增高影，密度较均，病变周围见多发小结节灶及斑片状密度增高影。左肺下叶示类圆形低密度影，内示斑点状致密影，边界欠清。左肺上叶胸膜下示小类结节灶。余肺内示斑片影及索条影，右肺为著。右肺门、纵隔及右侧心隔角区示大者短径约0.8CM淋巴结。肝实质内示多发低密度灶，边缘欠清，部分融合，大者长径约5.0CM，部分内示斑点斑片状致密影。胆胰脾双肾上腺未见明显异常。左肾示囊性密度灶，未见强化。余双肾内示斑片状低密度影。腹膜后见增大淋巴结，直径不足1.0CM。左侧半卵圆中心区局部密度偏低，未见明确强化灶。脑室系统未见明显异常。中线结构无移位。右侧部分肋骨及部分椎骨示略高密度影。	</t>
-  </si>
-  <si>
-    <t>1.考虑左肺下叶中心型肺癌并左肺下叶阻塞性肺不张，较2015-3-23片肿瘤增大，左肺门及纵隔内淋巴结转移较前相仿，左侧胸腔积液较前新发；2.双肺多发磨玻璃密度结节，较前相仿，转移不除外；3.右肺尖陈旧性病灶；4.肺气肿。左肺下叶可见一肿块影，与胸膜分界不清，最大截面大小约为7.0CM×8.3CM，其内密度不均，可见低密度影及点状致密影，CT值约为22HU-53HU，病灶邻近部分支气管变窄、左肺下叶支气管走形截断。右肺尖可见结节影，径约1.35CM，邻近胸膜凹陷，其内可见条样致密影。双肺可见多个散在高密度及磨玻璃样密度结节，大者径约0.8CM。双肺密度不均匀减低，可见多个小圆形低密度影。左肺门、纵隔内可见多发肿大淋巴结影，大者短径约为1.9CM。左侧胸腔可见弧形液体密度影。主动脉、冠状动脉走行区可见弧形致密影。所示诸骨未见骨质密度明显异常改变或骨质破坏征象。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌治疗后，右肺癌性淋巴管炎及炎症，较前(2014-09-18)变化不著；右肺结节灶，较前增大2.右侧胸膜略增厚，变化不著3.冠状动脉钙化4.约第一腰椎骨质破坏，骨转移不能除外，较前(2014-07-16)片变化不著。右肺下叶局部小叶间隔增厚呈网格状，周围见斑片索条状密度增高影；其内可见一类圆形结节灶(图4-41)，直径约0.6CM，边界清晰。左肺野清晰，未见结节及异常强化灶。冠状动脉左、右支见条状致密影。右侧胸膜(含右侧叶间胸膜)局限性增厚。双侧胸腔未见积液征象。纵隔内未见明显肿大淋巴结。扫描野内约第一腰椎可见骨质破坏。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺下叶癌并右侧胸膜转移较前(2014-8-20)变化不著2.右肺结节灶，考虑转移，较前变化不著；左肺上叶类结节灶，建议观察；左肺炎症3.左锁上、纵隔、腹腔及腹膜后小或稍大淋巴结，较前变化不著4.肝囊肿5.右肾囊肿6.肝内强化灶，建议观察7.右侧腮腺区结节灶，请结合临床8.双侧副鼻窦炎。右肺下叶基底段见软组织肿块影，边缘模糊，有分叶，肿块最大截面约2.0CM×3.4CM，增强后可见显著强化；邻近胸膜可见增厚。右肺内、右侧肋胸膜、叶间胸膜示多发结节灶，大者直径约0.3CM，增强后可见强化。左肺上叶胸膜下见直径约0.2CM小结节灶。左肺见多发索条状及斑片状密度增高影。左锁上、纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结，短径约0.8CM。肝实质内见多发囊性密度灶，大者直径约3.0CM。另肝内(2-49)动脉期见一强化结节灶，长径约0.8CM，延迟呈等密度。胆囊充盈可，壁不厚。胰、脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见囊性密度灶，短径约2.0CM。肝总动脉旁及腹主动脉周围示增大淋巴结，大者短径约0.5CM。右侧腮腺区见一强化结节灶，直径约0.4CM。双侧上颌窦粘膜略增厚。鼻咽、口咽、喉及下咽未见异常。双侧甲状腺形态、大小、密度未见异常。双侧颈部未见增大淋巴结。	</t>
-  </si>
-  <si>
-    <t>1.结合临床，左乳癌术后，多发骨转移2.肝右后叶片状密度增高影，考虑动静脉瘘形成3.胆囊结石4.左侧肾上腺结节灶，请结合前片，转移待排，建议密切观察左乳术后，术区结构紊乱，术区未见结节及异常强化灶。左侧腋窝结构紊乱。右乳未见异常。双侧内乳区、双侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰，未见结节及异常强化灶。肝右后叶内见片状密度增高影，其强化方式与同层腹主动脉相似。胆囊充盈可，其内见点状致密影。胰、脾、右侧肾上腺及扫描范围内双肾未见异常。左侧肾上腺见软组织结节灶，短径约1.3CM，增强后轻度强化。骨窗示胸骨、右侧肋骨及T12胸椎椎体示混合性骨质破坏。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合乳癌病史，右顶叶转移瘤，较本院(2016-05-25)MR片好转；腰椎L1~3转移。2.腰椎退行性变。右顶叶上矢状窦右旁见一类圆形异常信号，表现为T1WI等信号，T2WI略高信号，压水像及DWI为等信号，增强扫描可见明显强化，大小约0.3CM×0.5CM，于冠状位可见结节与脑膜关系密切，周围未见明显水肿带。余脑实质增强前后未见异常信号。脑室系统无扩张。中线结构居中。腰椎生理弯曲略变直，部分椎体前缘见棘样突起，腰椎L1、L2椎体后下缘及L3椎体后缘可见斑片状长T1短T2信号，压脂序列呈高信号，边缘模糊，增强后扫描呈轻度强化。所扫腰骶椎椎管内未见异常占位性病灶。	</t>
-  </si>
-  <si>
-    <t>右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结，大者直径约0.5CM。左肺野示数个结节灶，大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶，直径约0.9CM。胆、胰、脾及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示溶骨性及混合性骨质破坏。1.结合临床，右乳癌术后，纵隔、双肺门淋巴结转移，左肺转移，较前2015-12-16变化不著；左肾上腺转移，较前略示好转；骨转移，较前成骨性成分增多，考虑略好转2.双肺炎症，变化不著3.心包积液4.肝囊肿</t>
-  </si>
-  <si>
-    <t>左上肺门处可见肿块影，分叶状，大小为3.18CM×3.19CM，形状不规则，边缘清，与肺动脉分界不清，CT值为42HU，增强扫描三期CT值分别为62、66、66HU，均匀轻度强化，包绕左肺动脉，左肺上动脉未见显示，纵隔及左肺门可见多发肿大淋巴结，大者短径为0.93CM。左侧胸膜牵拉凹陷。两胸腔无积液征象。心脏大血管未见异常。左上肺门中央型肺癌，阻塞左上肺动脉，纵隔及左肺门淋巴结转移不除外，较2015-09-29CT左上肺门旁病变略减小，余较前相仿。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，直肠癌术后，双肺转移瘤，较前2015-08-06变化不著。2.双肾低密度灶，较前无明显变化，建议继续观察或结合MR检查。3.双侧胸膜略增厚，变化不著。双肺近胸膜下示多个结节灶，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约2.1CM，内示斑点状致密影及小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。肝脏实质密度均匀，未见明显异常密度灶。肝内外胆管未见扩张。胆囊充盈可，壁增厚。双肾见多发低密度灶，边界较清，右侧部分密度略高。胰腺、脾及肾上腺形态、大小、密度未见异常。肠系膜区及腹膜后示短径不足0.5CM小淋巴结。直肠术后，吻合口未见增厚及异常强化。膀胱、前列腺及双侧精囊腺未见异常。盆腔内未见肿大淋巴结及积液。	</t>
-  </si>
-  <si>
-    <t>左乳内示多发结节灶，边缘毛糙，与周围腺体分界欠清，增强扫描呈不均质较明显强化，大者最大截面约1.8CM×1.2CM，部分内示斑片状致密影，左乳皮肤增厚，皮下脂肪略模糊。右乳内见斑点状致密影。左腋窝示增大淋巴结，大者短径约0.7CM，边缘毛糙，与同侧胸大肌分界不清。右腋窝未见明显增大淋巴结。双肺内见多发小类结节灶及磨玻璃样密度增高影，以左肺下叶为著，部分边缘欠清。纵隔内主动脉弓旁及左肺门见增大淋巴结，短径约0.6CM。双侧胸腔未见积液征象。扫描野内肝脏示小囊性低密度灶，直径不足0.4CM。鼻咽、口咽、喉咽壁未见明显增厚。甲状腺右叶内示斑片状密度灶。双侧颈深上组、中组、下组、左锁骨上、颌下及左侧颈后三角区示增大淋巴结，大者短径约0.9CM。扫描范围内诸骨质未见明显破坏。	1.结合临床，左乳癌治疗后，较前(2014-10-20)略好转2.左腋窝淋巴结肿大，考虑转移可能性大，较前好转；双侧颈部、左锁骨上淋巴结肿大，部分好转、部分略增大3.右乳钙化灶4.双肺类结节灶，建议观察5.考虑肝囊肿6.甲状腺右叶低密度灶，请结合其它检查。</t>
-  </si>
-  <si>
-    <t>右乳术后，术区未见结节及异常强化灶。右侧腋窝结构紊乱。双侧内乳区、双侧肺门及纵隔未见增大淋巴结。双肺见多发结节及类结节灶，大者长径约1.5CM，边缘较清晰，增强后可见强化。双肺见少许索条影。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝内见一囊性低密度结节灶，长径约2.1CM，边缘清晰，未见强化。胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔未见增大淋巴结。腹膜后腹主动脉旁见短径不足0.5CM小淋巴结。扫描野内右肺中叶见一长径约1.4CM结节灶，边缘较清晰右侧锁骨头局限性骨质密度增高。	1.结合临床，右乳癌术后；双肺结节及类结节灶，右肺者考虑转移，左肺者转移可能性大，均较前(2014-8-29)变化不著2.双肺纤维灶或炎症3.肝内低密度灶，首先考虑囊肿，较前(2014-9-3)变化不著4.右侧锁骨头局限性骨质密度增高，变化不著。</t>
-  </si>
-  <si>
-    <t>左上肺门区可见不规则软组织密度肿块，边缘分叶，左肺上叶支气管显示截断，周围肺野内可见絮状及条索状密度增高影，增强后肿块呈较显著不均匀强化。双侧胸膜局部示不均匀增厚，局部呈类结节灶，局部可见钙化灶。双侧肺门区及纵隔内可见多发肿大淋巴结，部分融合成团，大者短径约2.5CM，部分与支气管左侧壁关系密切，增强后可见不均质强化。肝脏实质内可见弥漫多发结节灶，大者直径约1.5CM，边缘模糊，轻度强化。胆囊壁增厚并强化。胰、脾、双肾及右肾上腺未见异常。左侧肾上腺可见软组织密度结节灶，直径约1.4CM，可见较显著强化。肝胃韧带区、腹主动脉周围可见多发肿大淋巴结，大者短径约1.5CM。	1.左肺中心型肺癌并左肺下叶阻塞性炎症，左肺门、纵隔多发淋巴结转移，肝脏多发转移2.左侧肾上腺结节，考虑转移可能性大3.右肺门、腹腔及腹膜后淋巴结肿大4.双侧叶间胸膜增厚伴散在多发结节，转移待排5.胆囊炎。</t>
-  </si>
-  <si>
-    <t>右乳术后缺如，部分胸肌存在，术区胸壁及皮肤局部略增厚；右侧腋窝术后，结构紊乱。左乳未见明确异常。右侧内乳区、左侧腋窝可见小淋巴结，大者短径不足0.5CM。右肺中叶见一结节灶，长径约1.2CM。右肺中叶可见类圆形囊状过度充气区及条片影。双肺门及纵隔内未见肿大淋巴结。右侧胸膜略增厚。扫描野内肝实质密度减低。脾内示颗粒状致密影。胆囊腔内密度略增高。右侧部分肋骨密度增高。	1.右乳癌术后改变，术区胸壁及皮肤局部略增厚，较前(2016-2-26)基本变化不著2.考虑右肺转移，略增大；右肺中叶含气囊肿、纤维灶，变化不著3.脂肪肝；脾内钙化灶4.右侧部分肋骨密度增高，变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左乳癌术后；右乳部分术后改变2.双肺结节灶，结合病史，首先考虑转移瘤3.双肺含气囊肿4.左侧锁骨上区及纵隔略大淋巴结5.结合临床，胸椎术后改变6.上腹部扫描未见明显异常。左乳术后缺如，术区未见异常增厚及强化灶。左腋窝结构略示紊乱。右乳部分术后，未见异常密度灶。右腋窝、内乳区未见明显肿大淋巴结。左侧锁骨上区及纵隔内气管隆突前可见略大或小淋巴结，大者短径约0.6CM。双肺野可见多个结节灶，大者与右侧叶间胸膜关系密切，截面约1.0CM×0.7CM，边缘毛糙，增强扫描可见较显著强化。左肺上叶及右肺下叶各示一囊性密度灶，大者位于右侧，长径约2.7CM，边界清。肝脏未见异常占位灶。胆囊胰脾肾上腺及所扫双肾未见异常。腹腔及腹膜后未见肿大淋巴结。所扫胸椎可见高密度固定器影。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后2.右颈部淋巴结肿大，左肾多发低密度灶，以上转移均不除外，建议密切观察或结合临床3.双肺炎症4.脂肪肝5.右肾低密度灶，建议观察6.颅脑扫描未见异常。右乳术后，术区结构紊乱，胸肌存在，壁未见增厚及异常强化。右侧腋窝结构紊乱。左侧腋窝、双侧内乳区、肺门及纵隔未见增大淋巴结。双肺见多发索条及小斑片影。双侧胸膜未见增厚。双侧胸腔未见积液征象。右侧颈后三角区见一短径约0.9CM肿大淋巴结。肝实质密度显著均匀性减低。胆、胰、脾、双侧肾上腺未见异常。右肾见一直径不足0.5CM小低密度灶，边缘清晰。左肾见多发低密度结节及斑片影，边缘不清。腹腔及腹膜后未见增大淋巴结。脑实质密度均匀，未见结节及异常强化灶。脑室脑池未见扩张。中线结构居中。	</t>
-  </si>
-  <si>
-    <t>左乳术后缺如，左侧胸壁及胸肌复发术后，术区胸壁胸肌尚存，局部皮肤略增厚，轻度强化。左侧腋窝间隙模糊，可见斑片状高密度影，边缘毛糙。右乳未见异常。右腋窝、内乳及纵隔未见明显肿大淋巴结。右肺示数个结节及类结节灶，大者长径约1.1CM，可见强化，局部略呈空洞状。左肺示少许斑片及条索影。扫描野内甲状腺内示数个低密度灶，直径不足0.5CM，边界清。	1.结合临床，左乳癌术后，术区胸壁复发术后，术区皮肤增厚，较前2016-06-20好转，请结合临床；右肺结节及类结节灶，转移待排，较前变化不著2.甲状腺低密度灶，考虑良性病变，较前变化不著3.左肺纤维灶。</t>
-  </si>
-  <si>
-    <t>右肺上叶术后，上叶支气管截断，术区结构紊乱，未见异常强化。术区胸膜示增厚。双肺野内散在分部粟粒状密度增高影。纵隔内气管右旁、腔静脉后气管前间隙间隙模糊，考虑手术所致。肝脏形态、大小可，实质密度均质，肝右叶包膜下示一囊性低密度灶，边界欠清，直径约0.4CM。双肾内散在多个结节状低密度灶，大者直径约3.7CM，边界不清，有强化，位于左肾。胆囊充盈可，壁不厚。左肾上腺可见一结节灶，约1.8CM×2.4CM，明显强化。胰、脾形态大小密度未见明确异常。腹腔内及腹膜后未见明显增大淋巴结。	1.结合临床，右肺上叶癌术后改变；双肺粟粒状转移；双肾占位，考虑为转移；左肾上腺占位，考虑为转移瘤2.肝内低密度灶，建议观察。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后，纵隔淋巴结转移较前2016-5-17好转，双肺转移较前好转，肝转移较前好转，骨转移较前范围略示增大2.双侧胸膜增厚。右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内2R、4R及7区见肿大淋巴结，大者直径约0.7CM。双肺野示多发结节灶，大者直径约0.5CM。双侧胸膜略示增厚。肝脏实质内可见多发低密度结节灶，大者直径约1.4CM，边缘模糊，轻度强化。胆囊充盈可，壁不厚。胰腺、脾及双肾、肾上腺未见异常。腹腔腹膜后未见肿大淋巴结。腹腔内未见积液征象。多个胸腰椎示溶骨性骨质破坏。	</t>
-  </si>
-  <si>
-    <t>右肺门区见不规则软组织密度肿块影，增强扫描可见不均匀强化，远端与不张实变的肺组织分界不清，大小不易测量；右侧胸腔见大量液体密度影，右肺全肺不张，右侧胸膜增厚并可见强化。纵隔、膈上前组及中组可见肿大淋巴结，大者短径约1.0CM。右侧锁骨上见小淋巴结，大者短径约0.5CM。左肺野清晰。右侧胸腔内可见引流管影.肝实质内平扫未见明显异常.增强扫描可见多发异常强化区，肝右叶可见团片状强化，肝尾状叶病灶可见结节样向心性充填样强化.另肝右叶近包膜下(5-17)见一类圆形低密度灶，直径约1.0CM，边缘略模糊.双侧肾上腺未见明显异常。腹腔腹膜后未见肿大淋巴结。脑实质内未见异常密度影，脑沟、脑池未见增宽或狭窄，脑室大小、形态，位置正常，中线结构居中。T9椎体内可见一类圆形骨质稀疏区。	1.结合临床，右肺癌，右肺全肺不张；纵隔、膈上淋巴结转移；右侧锁骨上淋巴结肿大2.右侧胸腔大量积液，右侧胸腔引流术后改变；右侧胸膜增厚，转移可能大，建议观察3.考虑肝血管瘤(多发)4.肝右叶低密度灶，请结合MR扫描，除外转移5.颅脑扫描未见明显异常6.T9椎体内骨质稀疏，不除外转移，建议进一步检查。</t>
-  </si>
-  <si>
-    <t>左乳腺体强化不均，内示斑片状、团片状强化灶，以外侧份为著，边缘毛糙，左乳皮肤增厚，乳头未见内陷，左胸壁软组织略肿胀。右乳未见明显异常。左侧腋窝示多发结节灶，强化较著，大者短径约1.5CM，边缘毛糙。左侧锁骨上、右腋窝、胸肌间及纵隔内主动脉弓旁、左肺门示大者短径约0.8CM淋巴结。左肺下叶背段示一截面约2.2CM×1.7CM软组织密度影，边缘毛糙、浅分叶，增强扫描呈较均质显著强化，内缘与纵隔及肺门结构分界欠清。甲状腺内示斑片状低密度灶。肝内示长径约0.7CM略低密度灶(4-40)。胆囊充盈可，壁略增厚。右肾示小囊性密度灶。胰腺、脾、双侧肾上腺及扫描野内左肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。骨窗示：部分椎骨示成骨性改变。双侧锁骨及左侧部分肋骨密度增高。颅骨密度略减低。	1.结合临床，左乳癌并左腋窝淋巴结转移。2.考虑骨转移。3.左侧锁骨上、右腋窝、胸肌间、纵隔及左肺门淋巴结增大。4.左肺占位，请结合前片或活检。5.甲状腺低密度灶。6.肝内低密度灶，伪影?建议观察。7.胆囊炎，右肾囊肿。8.颅脑CT扫描颅内结构未见明显异常。9.双侧锁骨及左侧部分肋骨密度增高，颅骨密度略减低，请结合其他检查或观察。</t>
-  </si>
-  <si>
-    <t>右侧乳腺乳头上方见不规则软组织密度肿块影，约7.8CM×6.2CM，边缘分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结，大者短径约0.6CM。右侧内乳区显示饱满。纵隔内心包右旁、气管隆突下及左侧下肺静脉旁及下段食管旁见肿大淋巴结影，大者短径约1.1CM。双肺野散在分布大小不等结节灶，大者直径约1.9CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左肺胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。肝实质内见多个低密度灶，大者直径约0.5CM，边缘尚清晰，增强扫描边缘强化显著。胆囊充盈可，壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内未见异常密度影，脑沟、脑池未见增宽或狭窄，脑室大小、形态，位置正常，中线结构居中。增强：脑实质未见异常强化，脑沟、脑池、脑室内未见异常。	1.结合临床，右乳癌，较前(2015-12-8)片变化不著；双肺转移，较前减小；肝转移，较前变化不著；纵隔淋巴结转移较前好转；右侧内乳区饱满，变化不著；原脑转移瘤显示不清2.左肺胸膜局限性增厚，局部钙化，变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，双侧乳腺癌术后改变，右侧皮肤增厚并强化，请结合其他检查2.双肺结节灶，不除外转移，较前2015-08-06变化不著，建议进一步检查3.肝内低密度灶，较前变化不著；左肾小囊肿4.T12椎体血管瘤。左乳术后缺如，术区未见异常强化灶；右侧乳腺术后，术区胸肌尚存，间隙模糊，皮肤略增厚，可见强化。左侧腋窝结构紊乱，可见短径约0.5CM的小淋巴结。双肺门及纵隔未见明确肿大淋巴结。双肺野内见多发结节灶，部分呈磨玻璃密度，边界较清，大者直径约0.5CM。肝脏大小、形态可，肝右叶实质内见一低密度灶，边界欠清，直径约0.5CM。左肾上极见囊性无强化小结节灶。左侧肾上腺饱满，密度未见明显异常。胆囊充盈可，壁略厚。腹腔及腹膜后未见明确肿大淋巴结。T12椎体内示低密度影，边界较清晰，其内可见粗颗粒状高密度影。	</t>
-  </si>
-  <si>
-    <t>右肺上叶尖段可见软组织密度影，最大截面约0.9CM×1.1CM(纵隔窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁略厚。胰、脾、扫描野内双肾未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。骨窗示：双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏，以成骨性为主，部分肋骨形态欠规则，略呈膨胀性改变。	1.结合临床，右肺上叶癌侵及脏层胸膜治疗后，较前(2016-5-23)略缩小；骨转移，变化不著2.双侧肾上腺饱满，变化不著。</t>
-  </si>
-  <si>
-    <t>右肺上叶尖段可见软组织密度影，最大截面约0.9CM×1.1CM(纵隔窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示：双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏，以成骨性为主，部分肋骨形态欠规则，略呈膨胀性改变。	1.结合临床，右肺上叶癌侵及脏层胸膜治疗后，较前(2016-8-18)基本变化不著；多发骨转移，变化不著2.右乳腺体局部密度增高，变化不著。</t>
-  </si>
-  <si>
-    <t>肝脏轮廓光滑，体积正常，肝裂无增宽，肝左外叶可见类圆形稍低密度影，边界欠清，长径约0.95CM，平扫CT值约36HU，增强扫描呈边缘环形强化。肝右下叶见结节样致密影。胆囊形态饱满，壁厚，未见异常密度影。左肾可见类圆形低密度影，界清，径约0.6CM，平扫CT值约31HU，增强扫描未见强化。脾脏、胰腺、右肾形态大小正常范围，未见异常密度影。所示食管下段管壁增厚，管腔狭窄；胃小弯侧见迂曲血管影；肝门区、胃小弯侧、腹膜后较多发小淋巴结影，大者短径约0.9CM。1.肝左叶稍低密度灶，考虑转移瘤，较2016-08-26CT新显示；肝右下叶钙化灶；2.胆囊炎征象；3.左肾稍低密度灶，请结合临床；3.食管癌并肝门区、胃小弯侧、腹膜后淋巴结转移，部分较前略减小。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌并双肺、肝、骨转移，双侧肾上腺转移，双肺门及纵隔、右侧锁骨上淋巴结转移，腹腔淋巴结稍大；双侧叶间胸膜增厚，转移可能性大2.双肾低密度灶，转移可能，建议观察；双肾囊肿3.肝低密度灶，囊肿可能，建议观察；肝内钙化灶4.左颈内静脉栓子形成5.胆囊结石。右肺上叶支气管壁示增厚，周围见不规则软组织肿块，增强后呈不均匀强化；右肺中叶支气管局部狭窄，远端见不张肺组织。双肺支气管血管束增粗，小叶间隔增厚，以右肺为著。双肺见多发结节灶，部分边缘毛糙，大者长径约1.8CM。双侧叶间胸膜增厚，局部呈类结节状。双侧肺门及纵隔、右侧锁骨上见大者短径约1.3CM肿大淋巴结。另右肺门及纵隔见钙化灶。左侧颈内静脉局部见低密度充盈缺损。肝内见多发强化灶，大者长径约1.2CM。另肝内见小低密度灶，强化不著。肝内见斑点状钙化灶。双侧肾上腺见软组织结节，大者长径约2.0CM，可见强化。双肾见低密度灶，边缘不清，似强化。双肾见囊性结节。胆囊内见结节状高密度影。腹腔及腹膜后见短径约0.6CM小或稍大淋巴结。双侧肩胛骨、胸骨、右侧锁骨、多发肋骨及椎骨示多发骨质破坏。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后2.右肺癌，较前(2016-11-30)进展3.右内乳、右肺门及纵隔淋巴结肿大，考虑转移，部分略饱满；4.右侧胸膜增厚并结节灶，变化不著；双肺多发结节灶，考虑转移5.胆囊炎6.甲状腺左侧叶低密度灶，变化不著7.左侧上颌窦炎8.右侧肾上腺外侧支结节灶，建议观察。右乳术后缺如，术区结构紊乱，周围间隙模糊，未见明确异常强化。左乳及左侧腋窝未见明确异常。右肺尖见不规则软组织密度影，其边缘分叶、模糊，并可见胸膜牵拉征，肿块最大截面约2.3CM×3.4CM；增强扫描呈较显著不均匀强化。右肺上叶及中叶见少许条索状密度增高影。双肺野内见粟粒状结节影。右肺门、右侧内乳、纵隔内2R、3A、4R、7区见多发增大淋巴结，大者短径约1.2CM，增强扫描呈不均匀强化。右侧胸膜局部增厚呈结节状，直径约0.6CM，呈较显著不均匀强化。胆囊充盈好，壁略厚。肝脏密度减低。右侧肾上腺外侧支可见结节影。胰腺、脾、左侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。甲状腺左侧叶见小低密度灶，边缘模糊，直径约0.5CM。左侧上颌窦粘膜增厚。双侧颈后三角区见大者短径约0.5CM小淋巴结。	</t>
-  </si>
-  <si>
-    <t>肝内胆管扩张，胆总管明显增粗，其内可见结节样致密影，大者直径约2.7CM，十二指肠降段肠壁明显增厚，CT值约38HU，增强CT扫描：三期CT值分别为77HU、102HU、80HU，邻近脂肪间隙模糊；肝脏、脾脏、胰腺形态大小正常，内未见异常密度影。双肾多发小圆形未强化结节影；胆囊未见异常。膀胱充盈良好，其内未见异常密度影，双侧输尿管不扩张。子宫未见确切显示；腹膜后未见异常增大的淋巴结影。腹腔内肠管未见异常扩张。右侧肾上腺可见肿块影，大小约4.7CM×3.6CM，CT值约31HU，增强CT扫描：三期CT值分别为100HU、106HU、104HU。盆腔少量液体密度影。1.十二指肠降部占位，考虑恶性肿瘤(间质瘤可能)，随诊；2.胆总管结石，并胆系扩张；3.右侧肾上腺占位，考虑恶性，转移可能，嗜铬细胞瘤待除外，请结合临床；4.盆腔少量积液。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后；部分椎体密度增高，考虑转移2.考虑肝囊肿、左肾囊肿3.左肺类结节，右肺少许纤维灶4.肝内强化灶，考虑血管瘤以上较前(2017-2-7)基本变化不著。右乳术后，术区结构紊乱，术区胸壁及皮肤略增厚，局部密度欠均。右侧腋窝结构紊乱。左侧腋窝、双侧内乳区、肺门及纵隔未见增大淋巴结。左肺见小类结节，直径不足0.5CM。右肺见少许索条影。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝脏大小形态可，实质内示低密度影，边界清晰，增强扫描未见强化，直径不足0.5CM。另肝左叶动脉期见一长径约0.7CM强化结节，延迟呈等密度。胆囊不大，壁局部略厚。左肾示小类囊性密度灶。胰腺、右肾、双侧肾上腺及脾未见异常。腹腔及腹膜后未见肿大淋巴结。椎体局部密度增高。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右侧中心型肺癌并阻塞性肺不张治疗后，不张较前(2014-09-24)减少，考虑好转；右肺门及纵隔淋巴结转移，部分变化不著，部分略好转；右胸膜转移，较前好转；骨转移，变化不著；脑转移，较前大小变化不著，部分密度减低，考虑略好转2.右侧胸腔积液，较前减少；心包积液，变化不著3.右肺结节，较前好转4.右侧乳腺术后改变5.肝内钙化灶6.左上颌窦炎症。右肺下叶支气管局部狭窄截断，周围示软组织密度肿块影，其与右肺门肿大淋巴结、不张肺组织分界不清，整体大小约3.8CM×1.8CM，增强后呈不均匀明显强化；邻近右肺野示少许斑片及条索影，牵拉胸膜；余右肺野略示小结节影，不足0.5CM。左肺野较清晰。右侧气管食管沟、腔静脉后、主肺动脉窗区、主动脉弓旁、隆突下、右侧心膈角区及右肺门示增大淋巴结，大者短径约0.5CM。右侧胸膜增厚，略呈小结节状；右侧胸腔内示弧形液体密度影。心包内示少量液体密度影。右侧乳腺术后缺如，术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区及锁骨上区未见明显肿大淋巴结。所扫肝右叶示颗粒状钙化密度影。左侧大脑内示多发结节、肿块影，大者截面约4.0CM×3.0CM，密度不均匀，周围示大片无强化的低密度水肿带，邻近侧脑室局部略示受压变形，增强后病灶呈环形明显强化。中线结构略尚居中。左侧上颌窦内示液体密度影。骨窗：胸骨柄右侧、胸骨下段局部骨质密度不均匀增高。	</t>
-  </si>
-  <si>
-    <t>1.左肺中央型肺癌伴双肺转移、左侧第4-6肋骨转移，左肺下叶不张；2.左侧胸腔积液。左肺下叶基底段可见一软组织肿块影，边界清楚，密度欠均匀，最大层面6.07CM×6.58CM，CT值约47HU。左肺下叶基底段支气管截断。左肺下叶不张。左肺内可见多发团块影，右肺中叶可见一小结节影。纵隔左移，纵隔内可见多发稍大的淋巴结，大者长径约1.88CM。左侧胸腔内可见弧形液性密度影，CT值约66HU。心脏大血管未见异常。左侧第4-6后肋骨质不规整，并可见骨质破坏影。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后；右肺转移治疗后，较前(2016-9-13)基本变化不著；原左肺结节灶，考虑转移，较前缩小；脑转移，较前基本消失不清2.纵隔增大淋巴结，部分略缩小；右肺门淋巴结稍大；左侧锁骨上淋巴结，较前缩小3.肝转移治疗后，较前增大，请结合临床4.左肾囊肿5.右肺少许炎症、纤维灶，基本变化不著；左肺小类结节灶，变化不著6.右侧部分肋骨及部分椎骨略高密度影，变化不著7.双侧胸腔及心包少量积液。右乳术后，术区未见增厚及异常强化征象；右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结，短径不足0.5CM。左侧锁骨上示短径不足0.5CM小淋巴结。右肺上叶示团片状密度增高影，密度较均。左肺下叶示类圆形低密度影，内示斑点状致密影，边界欠清。左肺上叶胸膜下示小类结节灶。余肺内示斑片影及索条影，右肺为著。右肺门及纵隔内示大者短径约0.8CM淋巴结。双侧胸腔及心包见少许液性密度影。肝实质内示多发低密度灶，边缘欠清，部分融合，大者长径约3.4CM，部分内示斑点斑片状致密影。胆胰脾双肾上腺未见明显异常。左肾示囊性密度灶，未见强化。余双肾内示斑片状低密度影。腹腔及腹膜后未见明显增大淋巴结。左侧半卵圆中心区局部密度偏低，未见明确强化灶。脑室系统未见明显异常。中线结构无移位。右侧部分肋骨及部分椎骨示略高密度影。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌并阻塞性炎症，较前片(2015-3-9)基本变化不著2.双肺多发结节灶，考虑转移，较前部分略增大，部分变化不著3.肝囊肿4.部分胸椎体及肋骨骨质密度增高，变化不著，部分较前范围加大，密度增高，考虑骨转移5.右肾低密度灶，变化不著，建议观察。右肺中叶支气管开口处见一不规则软组织密度肿块影，边缘模糊，病变大小不易测量，增强后可见轻度强化。病变远端示片状肺不张影。双肺见多发结节灶，大者直径约0.5CM。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶，大者直径不足0.5CM。右肾见直径约0.5CM低密度结节灶，未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分胸椎骨质密度增高，右侧第3肋局限性骨质密度增高。	</t>
-  </si>
-  <si>
-    <t>结肠脾曲肠壁增厚，管腔狭窄，浆膜面模糊，近端结肠扩张，内见气液平面。肝内见类圆形水样密度影，大者直径约为2.4CM；肝左内叶可见类圆形低密度影，径约0.8CM，CT值约34HU。脾脏、胰腺、两肾形态大小正常，内未见异常密度影。胆囊未见明显异常。膀胱充盈良好，其内未见异常密度影，双侧输尿管不扩张。前列腺可见片状钙化影。腹膜后未见异常增大的淋巴结影。1、结肠脾曲占位，较前(2013-09-11)新发，考虑结肠癌；结肠梗阻；2、肝内低密度灶，较前新发，考虑转移瘤；肝囊肿；3、前列腺钙化灶。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，直肠癌术后，双肺转移瘤，较前2016-6-9变化不著2.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.0CM(纵隔窗)，内示小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，肝癌介入治疗后；部分病灶仍具活性2.双肺多发结节及类结节灶，转移瘤不能除外，建议密切观察3.肝脏囊肿4.双肺上叶气肿5.双肺上叶纤维灶。肝脏体积增大，形态欠规则，实质内见多发混杂密度结节及肿块影，边界欠清，部分可见假包膜形成，大者截面积约12.8CM×10.0CM；增强扫描呈中度不均匀强化，其内可见低密度坏死区，延迟后病灶部分可见廓清。肝实质内散在斑片状及结节状高密度碘油沉积影。另肝内可见散在囊性密度灶，未见强化。门脉主干及左支显示尚可，门脉右前支示受压显著变窄，右后支显示欠清。胆囊充盈可，壁不厚。胰腺、脾、双肾及双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。双侧肺野内见多发结节及类结节灶，部分与叶间胸膜关系密切，大者直径约0.4CM。双肺上叶见多发泡状过度透亮区及条索状密度增高影。双肺门及纵隔未见明确肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t>右肺下叶前基底段可见一不规则形肿块影，可见分叶，边缘不光滑，可见毛刺，周围可见血管集束征；平扫时CT值约为40HU，增强后呈明显不均匀强化，动脉期、静脉期及平衡期CT值分别约为101HU、78HU及71HU；病灶大小约为3.5CM×2.8CM；远端肺野内可见斑点状高密度影。右肺下叶可见囊状透光影，界清。所示气管支气管未见异常扩张；双肺门区未见异常。纵隔内可见增大淋巴结影，大者短径约为1.5CM；双侧胸腔未见积液征象；心脏及胸腔大血管未见异常密度影。所示甲状腺密度不均匀。1.右肺下叶前基底段肿块影，考虑为周围型肺癌，远端合并少许肺炎；2.支气管炎征象，右肺下叶单发肺大泡；3.右肺门、纵隔淋巴结转移；4.甲状腺密度不均匀，请结合临床。5.右下肺小结节，请随诊。</t>
-  </si>
-  <si>
-    <t>1.左侧肺门区占位，首先考虑恶性肿瘤，双肺多发结节灶，考虑为转移瘤，请结合临床；2.右肺下叶钙化灶；3.双侧胸腔少量积液；腹腔积液；4.心脏改变，请结合临床；5.双侧甲状腺钙化，请结合临床。双肺透过度不均，所示双肺支气管血管束增强、紊乱，管壁增厚，管腔变窄；左侧肺门区可见团块状高密度影，可见分叶征，边缘不光整，密度尚均匀，其内支气管截断，邻近支气管受压，较大层面大小约7.26CM×3.94CM，CT值约58HU。左肺下叶(44)、左肺上叶(30、20)、右肺上叶(25)可见多发磨玻璃密度影及结节影，界清，大者长径约1.36CM；右肺下叶背段(30)可见结节状致密影。右侧肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。双侧胸腔可见少量液体密度影。心影增大，主动脉壁及冠脉走形区可见条片状致密影。所示腹腔内可见大片状液体密度影。所示甲状腺双侧叶钙化影。</t>
-  </si>
-  <si>
-    <t>左肺上叶纵隔旁示一不规则软组织密度结节灶，与纵隔内主肺动脉窗区肿大淋巴结分界不清，与左肺上叶支气管及左肺动脉关系密切。左肺野内见斑片索条状密度增高影，左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧胸腔内可见少许液性密度影及引流管影。左侧心包及左侧心膈角区可见多发结节影，大者长径约1.0CM。	1.结合临床，左肺癌治疗后，较前(2015-11-9)片变化不著，左侧胸膜转移及叶裂转移2.左肺慢性炎症及纤维灶3.左侧少量胸腔积液4.左侧心包及心膈角区结节影，较前增大，考虑转移。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左肺癌并阻塞性肺不张，较前变化不著2.纵隔淋巴结肿大，考虑转移，较前略缩小3.双肺炎症，较前进展；右肺下叶膨胀不全；右侧胸腔积液4.肝转移，较前略好转5.脾内多发低密度灶，考虑脾梗死6.胆囊炎；胆囊结石6.双肾囊肿7.腹腔及腹膜后多发淋巴结肿大，考虑转移8.腹腔积液，较前增多9.网膜及肠系膜增厚。左肺上叶舌段支气管示截断，其开口区见不规则软组织密度肿块影，边缘模糊，与膨胀不全肺组织分界不清，截面积约2.6CM×2.2CM；增强扫描呈不均匀强化。双肺野透光度减低，双肺野内见条索状密度增高影。纵隔内见肿大淋巴结，大者短径约0.8CM。右侧胸腔内见液性密度影，右肺下叶见弧形膨胀不全肺组织影。肝实质内见多发低密度结节灶及肿块影，部分相互融合，呈斑片状影，增强扫描部分病变呈环形强化，部分病变强化不显著。门脉右前支及右后支局部显示不清。胆囊壁增厚，腔内可见片状高密度影。脾实质内见多发斑片状低密度影，未见强化。双肾见低密度灶。腹腔见液性密度影。腹腔及腹膜后见多发肿大淋巴结，大者短径约1.0CM。网膜及肠系膜示增厚。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合乳癌病史，脑多发转移瘤。2.左上颌窦炎。脑干、双侧大脑及小脑半球见多发大小不等的结节样异常信号，表现为T1WI低、略低信号，T2WI略高、高信号，压水序列高信号，DWI序列低、高信号，增强扫描呈结节样、环形或不均匀强化，大者约1.6CM×2.1CM，部分病变周围脑白质见小片状或片状长T2信号水肿带，四脑室及双侧侧脑室略受压变形。中线结构居中。左上颌窦可见小片状长T2信号区。余未见异常。	</t>
-  </si>
-  <si>
-    <t>右下肺门区可见一直径4.1CM大小的肿块，密度均匀，CT值为15HU，增强后约46、40HU；下叶支气管管腔消失，其周围结构被肿块侵犯。右肺下叶可见斑片影，边界模糊不清。隆突下淋巴结明显增大，短径约2.3。双侧胸腔未见积液征象。1.右下肺中央型肺癌合并阻塞性炎症，纵膈淋巴结转移；2.肺气肿。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左乳癌术后，左颈部术后2.右肺门及纵隔淋巴结肿大，转移可能性大，请结合前片；肝多发转移3.双肺炎症及纤维灶，双肺类结节，请结合前片4.部分椎体密度稍高，建议观察。左乳术后，术区结构紊乱，胸肌存在，壁未见增厚及异常强化。左颈根部术后，结构紊乱。左侧腋窝结构紊乱。右肺门及纵隔见大者短径约1.1CM肿大淋巴结。左肺门见短径不足0.5CM小淋巴结。双肺见斑片索条影及类结节，边缘不清。扫描野内肝内见大者长径约4.3CM不均匀强化灶。胸腰椎局部密度稍高。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺上叶癌侵及脏层胸膜治疗后，较前(2016-10-10)基本变化不著；多发骨转移，变化不著2.右乳腺体局部密度增高，变化不著。右肺上叶尖段可见软组织密度影，最大截面约0.9CM×1.0CM(纵隔窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示：双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏，以成骨性为主，部分肋骨形态欠规则，略呈膨胀性改变。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右肺下叶中心型肺癌累及肺门、纵隔并阻塞性肺不张、肺炎；右肺门、纵隔淋巴结转移。2.腹部扫描未见异常。3.双颈部小淋巴结。4.双侧胸膜略增厚。5.右肺上叶钙化灶。6.双肺气肿。右肺下叶支气管周围可见一不规则软组织密度肿块影，约8.0CM×6.8CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织分界不清，远端可见斑片状密度增高影，向内与肺门淋巴结分界不清，与纵隔内软组织及心包、大血管分界不清，余双肺野内散在囊泡状过度透光灶，右肺上叶示一钙化结节灶。右肺门、纵隔内示多发肿大融合的淋巴结影，大者短径约5.4CM。左侧胸膜略示增厚。肝脏大小形态未见异常，肝实质未见异常密度影。胆囊、胰腺、脾、双肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。各咽壁不厚，双侧颈部II、III区示数个结节灶，大者短径约0.8CM。腮腺及双侧甲状腺未见异常。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">结合临床，右肺癌伴纵隔淋巴结转移，左肾上腺转移右小脑结节灶，考虑转移右额顶部低密度区，必要时进一步检查。右肺上叶前、后段支气管狭窄，后段支气管旁可见软组织密度结节，最大横截面约2.1CM×2.5CM，密度不均，边缘毛糙，增强可见不均匀强化；病灶远端肺野可见少许斑片状影。双下肺可见少量索条。纵隔内腔静脉后间隙、气管隆突下可见增大淋巴结，大者短径1.5CM，不均匀强化。肝实质均质，未见异常密度灶。胆、胰腺、脾及所扫双肾未见异常。左肾上腺区可见一软组织密度肿块，最大横截面约2CM×4CM，不均匀强化。腹腔腹膜后未见明确增大淋巴结。右小脑可见一强化灶，直径约1.5CM，周围可见少许低密度水肿带。右侧额顶部可见片状低密度区，未见明确强化灶。脑室形态可，中线结构居中	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左肺癌并阻塞性肺不张及炎症，较前2015-11-18好转2.左肺门、纵隔淋巴结转移，右肺门淋巴结肿大，不除外转移，较前好转3.左侧第4肋陈旧性骨折。左肺下叶示软组织肿块影，部分支气管狭窄，远端见少许实变肺组织及斑片状密度增高影，增强扫描病变呈较明显强化，直径约1.6CM。余双侧肺野内可见多发囊泡状过度充气区。纵隔内气管周围、腔静脉后气管前间隙、主肺动脉窗区、隆突下、双肺门示多发增大淋巴结，大者短径约2.6CM。左侧第4肋示陈旧性骨折线形成。	</t>
-  </si>
-  <si>
-    <t>右肺下叶支气管开口处示一不规则软组织密度肿块，截面约3.8CM×3.3CM，边缘分叶，周围示斑片状密度增高影及少许膨胀不全肺组织，与叶间裂关系密切，增强扫描病变呈较显著不均匀强化；病变与右肺门肿大淋巴结分界不清，右肺动静脉局部包绕其中。余双肺示多发斑片条索影及泡状过度透光灶。右肺门及纵隔示多发肿大淋巴结，部分融合，大者短径约1.5CM，可见强化。右侧胸膜略厚；右侧胸腔示少量液体密度影。所扫肝左叶示低密度灶，直径约0.3CM，边缘略模糊，强化不著。双肾示小囊肿。所扫甲状腺内示多发低密度灶及钙化影。部分胸椎骨质密度增高。	1.右肺癌伴阻塞性肺炎、肺不张，右肺门及纵隔淋巴结转移2.双肺炎症及纤维灶、双肺气肿3.右侧胸膜略厚；右侧胸腔少量积液4.肝内低密度灶，考虑小囊肿可能大，建议观察；双肾囊肿5.甲状腺低密度灶、钙化灶，建议观察或进一步检查6.部分胸椎骨质密度增高，观察。</t>
-  </si>
-  <si>
-    <t>1.结合临床，右乳癌术后，纵隔、双肺门淋巴结转移，左肺转移，左肾上腺转移，骨转移2.双肺炎症3.心包积液4.肝囊肿右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内血管前间隙、腔静脉后、弓旁、主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结，大者直径约1.3CM。左肺野示数个结节灶，大者直径约1.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶，直径约1.4CM。胆、胰、脾及扫描野内双肾未见异常。腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示溶骨性骨质破坏。</t>
-  </si>
-  <si>
-    <t>右乳外下象限见一等T1等T2结节影，压脂序列为略高信号，DWI为高信号，大小约1.2CM×1.0CM，边缘毛糙，与邻近皮肤相贴致其略凹陷；增强扫描病灶呈显著强化，时间-信号强度曲线为流出型。左乳增强前后未见明显占位性病灶。右侧腋窝见短径约1.7CM肿大淋巴结。左侧腋窝见大者短径不足0.5CM小淋巴结。右侧侧脑室前角右旁见一约0.3CM×0.6CM的结节状异常信号影，表现为T2WI高信号，压水序列为中心低、边缘高信号，DWI为低信号，增强扫描无强化。余脑实质增强后扫描未见异常信号灶。脑室、池、脑沟裂未见异常。中线结构居中，未见移位。双侧桥小脑角区未见占位性病变。	1.结合病史，考虑右乳癌并同侧腋窝淋巴转移(BI-RADS5级)。2.右侧侧脑室前角右旁梗死灶。</t>
-  </si>
-  <si>
-    <t>左肺上叶示一不规则软组织密度灶，大小约2.1CM×2.9CM，边缘分叶，可见强化。左侧胸膜及叶间胸膜示多发结节灶，可见强化。左侧胸腔示液体密度影。左肺门、纵隔内示数个肿大淋巴结，大者短径约1.0CM。前纵隔胸腺区示类囊性密度灶，直径约2.0CM，边界清，无强化。左侧第七后肋呈溶骨性骨质破坏，局部形成软组织密度肿块。	1.左肺上叶癌，左侧胸膜转移，左肺门、纵隔淋巴结转移，骨转移2.左侧胸腔积液3.前纵隔占位，不除外胸腺囊肿，建议观察。</t>
-  </si>
-  <si>
-    <t>右肺门支气管开口处示一软组织密度肿块，约1.9CM×2.9CM，密度不均，边缘分叶毛糙，增强呈较均匀强化。双肺野内散在磨玻璃影及类结节灶，以上叶为著。双肺门示增大淋巴结，大者直径约0.8CM。双侧胸腔未见积液征象。右侧斜裂胸膜示类结节灶。肝、胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。	1.右肺癌，双肺门淋巴结略增大；右侧斜裂胸膜类结节灶，考虑转移2.右肺上叶纤维灶及磨玻璃灶，建议观察3.上腹扫描未见异常。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左乳癌术后改变；考虑多发骨转移2.肝转移。左乳术后，术区见高密度银夹影，未见结节及异常强化灶。右腋窝示小淋巴结，短径约0.3CM。双侧内乳区、左侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰，肺纹理分布自然，气管及各级支气管通畅。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝实质内示多发低密度灶，边缘模糊，大者直径约1.1CM。胆、胰、脾、双肾及双侧肾上腺未见异常。腹腔及腹膜后未见增大淋巴结。骨窗：部分腰椎、胸椎见多发骨质破坏。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌并右肺下叶炎症，较前片2016-09-20基本变化不著；右肺类结节，变化不著；右肺门、纵隔淋巴结转移治疗后，较前变化不著。2.右侧胸膜略增厚，变化不著3.肝内钙化灶。4.T12右侧椎弓根密度增高影，变化不著。5.颅脑扫描未见明显异常。6.心脏体积增大；冠脉钙化。右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。右肺见小类结节灶，边缘模糊，直径不足0.5CM。左肺野清晰。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径不足1.0CM，部分增强后强化显著。右侧胸膜略增厚。心脏体积增大，冠脉可见钙化。肝内强化不均质，肝右叶见一斑点状钙化灶。胆胰脾肾上腺及双肾未见异常。肝胃韧带区见短径不足0.5CM小淋巴结。脑实质密度均匀。T12右侧椎弓根示斑片状密度增高影。	</t>
-  </si>
-  <si>
-    <t>左乳术后，术区结构紊乱，未见结节及肿块。左侧腋窝结构紊乱。右乳未见异常。左侧内乳见增大淋巴结，短径约0.8CM。左侧腋窝、双侧肺门及纵隔未见增大淋巴结。右侧水平裂区(3-21)见一类结节灶，直径约0.2CM。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝实质内见多发低密度结节及肿块，大者直径约3.8CM，边缘略模糊，其密度不均。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及双肾未见异常。腹腔内肝总动脉见短径约0.6CM小淋巴结。腹膜后未见增大淋巴结。	1.结合临床，左乳癌术后改变；左侧内乳淋巴结肿大，较前(2014-7-4)变化不著2.肝转移，较前大部分变化不著，部分略增大。</t>
+    <t>1.结合临床,右乳癌术后,纵隔、双肺门淋巴结转移,左肺转移,左肾上腺转移,均较前(2015-11-5)示好转;骨转移,变化不著2.双肺炎症,变化不著3.心包积液4.肝囊肿右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结,大者直径约0.7CM。左肺野示数个结节灶,大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶,直径约0.9CM。胆、胰、脾及扫描野内双肾未见异常。腹膜后未见肿大淋巴结。部分部分胸腰椎及肋骨示溶骨性骨质破坏。</t>
+  </si>
+  <si>
+    <t>1.右肺下叶占位,恶性;右侧肺门和纵隔多发肿大淋巴结,考虑转移;右侧胸腔少量积液征象;2.右肺少许炎症可能。3.双侧肺(52、49、40、37、19)小结节,请随诊。右肺下叶(18)见肿块影,边界尚清,大小约为,6.2CM×5.0CM,其内密度欠均匀,CT值约为21-37HU,增强扫描病灶周围呈明显强化,中央可见不强化坏死区,右肺下叶部分支气管截断,右侧肺门和纵隔内见异常增大的淋巴结影,增强扫描呈明显环形强化。右肺叶见斑片模糊影。两肺纹理增强。右侧胸腔少量积液征象。主动脉、冠状动脉壁钙化。</t>
+  </si>
+  <si>
+    <t>右肺下叶外侧基底段示一软组织密度结节灶,截面约2.7CM×3.2CM,密度不均,边缘毛糙,其远侧可见粗大条索影与后胸膜相连,增强扫描示轻度强化。余两肺野清晰,肺门及纵隔内未见确切肿大淋巴结影。胸腔内无积液征象。脑实质内示数个低密度结节灶,大者直径约1.2CM,位于左额叶,增强扫描示边缘轻度强化,病灶周围脑组织无水肿征象。中线结构居中。脑室池无扩张移位。骨质未见明显异常。	1.右肺占位,考虑右肺癌较前2016-8-9增大。2.脑转移,较前2016-8-9变化不著。</t>
+  </si>
+  <si>
+    <t>右肺中叶近肺门处示不规则软组织密度影,远侧肺组织示实变征象,周围多发多发条索状及斑片状密度增高影,与周围组织关系密切,增强扫描示中度强化。右肺中叶外侧段见一磨玻璃密度结节;另右肺中叶示一类圆形结节灶(图3-38),直径约0.5CM,边界清。余双肺野内散在囊泡状过度透光灶。右肺门及纵隔示多发肿大淋巴结,部分融合成团,大者位于右肺门,与肺门区病变分界不清。右侧胸腔示少量液体密度影。肝脏示低密度影,边界清晰,增强扫描未见强化,余肝实质未见异常密度影。胆囊、胰腺、脾、双肾、未见异常,右侧肾上腺外支见一结节灶,直径约0.8CM,边缘光滑,密度均匀。腹腔腹膜后未见肿大淋巴结影。	1.右肺癌,较前(2016-12-21)片不易比较;右肺炎症及肺不张较前加重;右肺门及纵隔淋巴结转移,部分不易比较,考虑变化不著。2.双肺气肿。3.右肺磨玻璃结节(考虑良性),变化不著;右肺中叶新发结节灶,建议密切观察除外转移。4.肝囊肿。5.右肾上腺小结节,考虑腺瘤可能性大,变化不著。6.右侧胸腔少量积液。</t>
+  </si>
+  <si>
+    <t>右侧乳腺术后,术区胸壁部分胸肌尚存,右侧胸壁近胸骨旁软组织增厚,相邻胸骨骨质破坏。扫描野内右侧颈后三角区、右侧内乳区及纵隔内见多发增大淋巴结,部分边界欠清。左侧乳腺未见异常。左侧腋窝见直径不足1.0CM淋巴结。双肺野见数个结节灶,大者直径不足1.0CM。甲状腺内示低密度灶,边界欠清。部分肋骨及椎骨骨质密度不均,左侧部分肋骨骨质欠连续。	1.结合临床,右侧乳腺癌术后,右侧胸壁复发并累及胸骨治疗后,较前(2016-11-8)略好转;右侧颈部、右侧内乳区、纵隔淋巴结转移治疗后,部分缩小,部分变化不著2.左侧腋窝淋巴结稍大,略缩小3.双肺结节灶,不除外转移,变化不著4.部分肋骨及椎骨骨质密度不均,基本变化不著5.甲状腺低密度灶,变化不著。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后2.右肺占位,考虑肺癌,较前(2016-8-29)基本变化不著3.右肺门及纵隔淋巴结肿大,考虑转移,变化不著;右锁上淋巴结稍大,变化不著4.右侧胸膜增厚并结节灶,变化不著;左肺类结节灶,建议观察5.胆囊炎6.甲状腺左侧叶低密度灶,变化不著7.左侧上颌窦炎。右乳术后缺如,术区结构紊乱,周围间隙模糊,未见明确异常强化。左乳及左侧腋窝未见明确异常。右肺尖见不规则软组织密度影,其边缘可见小空洞影,边缘分叶、模糊,并可见胸膜牵拉征,截面积约3.5CM×2.2CM;增强扫描呈较显著不均匀强化。右肺上叶及中叶见少许条索状密度增高影。左肺上叶示小类结节灶。右肺门、纵隔内2R、3A、4R、7区见多发增大淋巴结,大者短径约1.4CM,增强扫描呈不均匀强化。右锁上见稍大淋巴结,短径约0.5CM。右侧胸膜局部增厚呈结节状,直径约0.6CM,呈较显著不均匀强化。胆囊充盈好,壁略厚。肝脏、胰腺、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。甲状腺左侧叶见小低密度灶,边界尚清,直径约0.5CM。左侧上颌窦粘膜增厚。双侧颈后三角区见大者短径约0.5CM小淋巴结。	</t>
+  </si>
+  <si>
+    <t>1.左肺门肿块,考虑中央型肺癌伴远端阻塞性肺不张可能性大,左锁骨区、纵隔、左肺门淋巴转移、左肺动脉受侵可能,请结合临床详查;2.右肺下叶少许炎症;3.双侧胸腔少量积液征象。4.右侧肾上腺结节,转移?。左肺门团块状密度增高影,大小约4.5CM×4.9CM,CT值:53HU;增强后病灶明显强化,三期CT值分别75HU、68HU、61HU。左侧支气管腔变窄、截断,其远端肺组织不张。右肺下叶少许淡片状密度增高影。左锁骨区、纵隔、左肺门淋巴结增大,呈融合趋势。左肺动脉与病灶界限不清,模糊。两胸腔少量积液征象。心脏不大,所示骨质未见明显异常。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,直肠癌术后,双肺转移瘤,较前2016-03-15部分缩小,部分略饱满,部分变化不著2.双侧胸膜略增厚,变化不著4.甲状腺低密度灶,变化不著。双肺近胸膜下示多个结节灶及肿块,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约3.0CM(纵隔窗),内示小空泡影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶,边缘较清晰。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,左乳癌术后;卵巢转移术后,术区片状低密度影,较前2015-10-9变化不著2.网膜、肠系膜及盆腹膜转移治疗后,较前好转3.脂肪肝;肝囊肿;肝内低密度灶,变化不著4.右肾囊肿5.宫颈体积增大,变化不著6.胸腰骶椎、肋骨、髋骨骨质密度增高,考虑转移,较前变化不著7.腹腔少量积液,较前变化不著。左乳术后缺如,术区结构紊乱,周围脂肪间隙模糊,部分胸肌尚存,术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱。右乳未见明确异常。左侧锁骨上间隙较模糊。左肺门示短径约0.6CM淋巴结。右侧腋窝、双侧内乳区、右肺门及纵隔未见明确肿大淋巴结。左肺示少许斑片影。右肺未见明确异常密度灶。肝脏密度减低,内见囊性密度灶,边界较清,直径约2.0CM。另肝内示斑片状低密度灶,强化不著,边界欠清。胆囊、胰腺、脾、双侧肾上腺及左肾未见明确异常。右肾见短径不足0.5CM的小低密度灶。腹腔内肝胃韧带区、腹膜后腹主动脉周围见小淋巴结,大者短径约0.6CM。网膜及肠系膜、盆腹膜示增厚,局部呈斑片状及结节状改变,部分与邻近肠管分界不清,增强呈不均匀强化。腹腔内可见液性密度影。卵巢术后,术区结构紊乱,周围间隙模糊,可见片状低密度影,与周围结构分界不清。宫颈体积增大,密度欠均匀。膀胱充盈可,壁略增厚。盆腔内未见明确肿大淋巴结。多发胸腰骶椎椎体及附件、双侧部分肋骨、双侧髋骨示骨质密度增高,局部可见结节状高密度影。双侧肱骨、股骨及左侧肩胛骨密度欠均。	</t>
+  </si>
+  <si>
+    <t>左肺癌并左肺多发、左胸膜、叶间裂及心包转移,较2011-02-21片进展,请结合临床。左下肺见不规则形软组织密度影,部分病灶相互融合,最大截面约7.30CM×5.50CM,CT值约49HU,左肺下叶支气管变窄,远端截断,左肺内可见多发大小不等类圆形高密度影;纵隔内可见稍增大的淋巴结影;左侧胸膜及叶间裂明显增厚,可见条形及结节样软组织密度影,左侧心隔角区可见多发结节影。</t>
+  </si>
+  <si>
+    <t>双乳呈脂肪型。左乳外上象限可见结节样密度增高影,大小约1.5CM×1.7CM影,其密度中等,边缘分叶,模糊,未见恶性钙化征象。同侧乳头无凹陷。皮肤无增厚。右乳未见异常。左侧腋窝见肿大淋巴结影,直径约2.0CM。右腋下示稍大淋巴结影,内可见脂肪密度影。	1.\T结合临床,左乳CA并作出腋窝淋巴结转移(BI-RADS5)2.\T右乳未见异常。</t>
+  </si>
+  <si>
+    <t>右乳术后,腋窝、双侧内乳区、双肺门及纵隔未见明确肿大淋巴结。右肺下叶、左肺下叶见两个类磨玻璃密度影,边界尚清,大者直径约0.4CM。左侧叶间胸膜见一类结节灶,直径约0.3CM。扫描野内胆囊内见一小结节灶,直径约0.3CM。扫描野内骨质未见明显破坏。	1.结合临床,右乳癌并右侧腋窝淋巴结转移术后状态。2.双肺类磨玻璃密度灶,较前变化不著3.左侧叶间胸膜类结节灶,变化不著4.胆囊内结节灶,考虑息肉可能性大,较前变化不著。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,卵巢癌并腹膜网膜转移,腹盆腔积液;盆腔小淋巴结3.右乳结节及类结节,乳癌可能,请结合临床4.双肺少许炎症及纤维灶。右乳内上象限见一长径约1.1CM结节灶,边缘不清,密度不均,增强后呈中等不均匀强化;另其内侧局部结构紊乱,呈一类结节状改变,长径约1.0CM,强化较显著,边缘毛糙。双肺见少许斑片索条影。双侧肺门及纵隔、内乳区及腋窝未见肿大淋巴结。双侧附件区见囊实性结节,大者截面3.3CM×2.1CM,增强后实性成分可见中等强化,边缘不清。宫腔见液性密度影,宫颈见小囊性结节,未见强化。盆腔见短径不足0.5CM小淋巴结。腹膜、网膜及肠系膜增厚,增强后可见强化;腹盆腔见液性密度影。膀胱充盈良好,壁未见增厚。	</t>
+  </si>
+  <si>
+    <t>右肺上叶尖段可见软组织密度影,最大截面约0.9CM×1.0CM(纵隔窗),边缘浅分叶可见细毛刺,内缘有长毛刺与纵隔相连,增强扫描呈中等不均匀性强化;余双肺野较清晰,未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。肝脏形态、大小可,左叶局限性灌注不均。肝内外胆管未见扩张。胆囊充盈可,壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示:双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏,以成骨性为主,部分肋骨形态欠规则,略呈膨胀性改变。	1.结合临床,右肺上叶癌侵及脏层胸膜治疗后,较前(2016-12-12)基本变化不著;多发骨转移,变化不著2.右乳腺体局部密度增高,变化不著;肝左叶低密度影,变化不著。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右肺上叶癌侵及脏层胸膜并双侧锁骨上区、右肺门及纵隔淋巴结转移,骨转移,较前变化不著2.双肺微小结节及双侧肾上腺饱满,变化不著。右肺上叶尖段可见软组织肿块影,最大截面约1.2CM×1.6CM,边缘浅分叶可见细毛刺,内缘有长毛刺与纵隔相连,增强扫描呈中等不均匀性强化;右肺野可见一类结节灶、左肺上叶,大者直径约0.3CM。双侧锁骨上区、右肺门、纵隔内右侧气管食管沟、气管右前、腔静脉后、血管前、主肺动脉窗区及隆突下可见肿大淋巴结,大者短径约1.2CM。肝脏形态、大小可,实质密度均质。肝内外胆管未见扩张。胆囊充盈可,壁不厚。胰、脾、扫描野内双肾形态大小密度未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。骨窗示锁骨、肋骨、椎体可见多发骨质破坏。	</t>
+  </si>
+  <si>
+    <t>右肺下叶支气管局部狭窄截断,周围示软组织密度肿块影,其与右肺门肿大淋巴结、远端不张肺组织分界不清,大小不易测量,增强后呈不均匀明显强化;邻近右肺野示不规则形斑片影,牵拉胸膜;余右肺野散在数个结节灶,大者长径约1.0CM,部分局部牵拉胸膜。气管及余各支气管通畅。右侧气管食管沟、腔静脉后、主肺动脉窗区、主动脉弓旁、隆突下、右侧心膈角区及右肺门示增大淋巴结,大者短径约0.6CM。右侧胸膜增厚,局部呈小结节状,大者直径约0.3CM;右侧胸腔内示弧形液体密度影。心包内示少量液体密度影。右侧乳腺术后缺如,术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区及锁骨上区未见明显肿大淋巴结。肝右叶示颗粒状钙化密度影。胆囊充盈可,壁稍厚并可见强化。胰腺、脾、双肾上腺及扫描范围内双肾未见确切异常。腹腔及腹膜后未见明显肿大淋巴结。左侧大脑内示多发结节、肿块影,大者截面约4.2CM×3.1CM,密度不均匀,周围示大片无强化的低密度水肿带,邻近侧脑室局部略示受压变形,增强后病灶呈环形明显强化。中线结构略右偏。双侧上颌窦内示液体密度影。骨窗:胸骨柄右侧、胸骨下段及右侧第12肋局部骨质密度不均匀增高。	1.结合临床,右侧中心型肺癌并阻塞性肺不张较前2014-8-18变化不著,右肺门及纵隔淋巴结转移,右胸膜转移,骨转移,较前变化不著;脑转移较前略好转2.右侧胸腔积液、心包积液3.右肺结节,建议观察4.右侧乳腺术后改变5.肝内钙化灶6.胆囊炎7.双上颌窦炎。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌较前(2016-3-9)变化不著;双肺转移较前大部分变化不著,少部分较前增大,少部分缩小;肝转移、纵隔淋巴结转移较前变化不著;右侧内乳区饱满,变化不著;原脑转移瘤显示不清2.左胸膜局限性增厚,局部钙化,变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影,约6.8CM×5.3CM,边缘分叶,局部与周围腺体及乳头区皮肤分界不清,胸肌间脂肪间隙模糊,增强扫描见显著不均匀强化,其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结,大者短径约0.6CM。右侧内乳区显示饱满。纵隔内心包右旁、气管隆突下及左侧下肺静脉旁及下段食管旁见肿大淋巴结影,大者短径约1.0CM。双肺野散在分布大小不等结节灶,大者直径约1.5CM,边缘清晰,局部与胸膜及纵隔关系密切,增强扫描可见强化。左胸膜增厚,局部呈结节样;局部见多发钙化灶并致局部肋骨欠规则。肝实质内见多个低密度灶,大者直径约0.3CM,边缘尚清晰,增强扫描边缘强化显著。胆囊充盈可,壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内未见异常密度影,脑沟、脑池未见增宽或狭窄,脑室大小、形态,位置正常,中线结构居中。增强:脑实质未见异常强化,脑沟、脑池、脑室内未见异常。	</t>
+  </si>
+  <si>
+    <t>左乳外上象限可见一软组织肿块影,最大截面约1.1CM×1.6CM,边缘浅分叶毛糙,增强扫描持续性强化,余左乳可见多发结节状片状强化灶。右乳未见异常。左侧腋窝、胸肌后方可见多发稍淋巴结,大者短径约0.6CM。双肺野清晰,肺内未见实质性病变。双肺门及纵隔内未见肿大淋巴结。脑实质密度均质,其内未见异常密度灶,增强扫描未见异常强化。诸脑室池未见扩张,中线结构居中。	1.左乳占位,考虑乳腺癌并左侧腋窝、胸肌后方淋巴结转移2.颅脑扫描未见异常。</t>
+  </si>
+  <si>
+    <t>右肺下叶可见不规则软组织密度影,与右肺门分界不清,边缘毛糙,分叶状,长径约为1.6CM×1.5CM,右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影,部分边缘毛糙;纵隔内未见增大淋巴结影。心包内见少许液性密度影。甲状腺增大。1.考虑右肺下叶肺癌,并双肺、右胸膜多发转移;较前CT(2016-01-05)右肺下叶肿块影略小,余较前片相仿。2.心包积液;3.甲状腺大;请结合临床。</t>
+  </si>
+  <si>
+    <t>右乳术后缺如,部分胸肌尚存,术区未见异常强化灶。右侧腋窝结构紊乱,局部示一囊性密度灶,直径约2.4CM,可见环形强化。左乳及左侧腋窝未见异常。双肺野示多发结节灶,边缘较清,大者直径约0.3CM。右肺上叶及左肺下叶可见条索状密度增高影。双肺门及纵隔未见增大淋巴结。肝实质内示数个低密度灶,边缘较模糊,可见轻度强化,大者直径约0.8CM。胆囊充盈可,壁不厚。胰、脾、双肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。膀胱充盈可,壁不厚。子宫及双侧附件未见异常。子宫及直肠陷窝区可见少量液性密度影。盆腔内未见肿大淋巴结。鼻咽、口咽及喉形态可,诸壁不厚。甲状腺形态大小密度可。双颈部肌间隙清晰,未见肿大淋巴结。骨窗示:部分胸腰椎及附件、部分肋骨、骶椎、右侧髂骨、双侧坐骨可见成骨性骨质破坏。	1.结合临床,右乳癌术后改变,双肺转移,较前2014-4-15略好转;肝转移,部分较前好转,部分变化不著;多发骨转移2.右侧腋窝囊性密度灶,较前变化不著3.部分胸腰椎及附件骨质密度增高,请结合其他检查4.盆腔少量积液5.颈部扫描未见异常。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.左肺下叶癌,左肺门、纵隔淋巴结转移,较前2016-07-15范围基本变化不著,肿块内囊性坏死区较前增多,考虑略好转,请结合临床;淋巴结较前部分略增大,大部分变化不著2.双肺炎症,较前进展;双肺气肿3.左锁上淋巴结略大4.原片所示肝内低密度灶显示不清,建议观察5.左肾小囊肿。左肺下叶可见一不规则肿块,截面约7.2CM×7.0CM,边缘分叶,与胸膜关系密切,周围示斑片及絮状密度增高影,增强扫描病变呈较显著不均匀强化,其内见较多低密度坏死囊变区。双肺野见较多片状高密度影。余双肺多发泡状过度透光灶。左肺门及纵隔多发肿大淋巴结,大者短径约3.6CM。左锁上淋巴结略大,短径约0.6CM。肝实质密度均匀,未见异常密度灶。胆囊充盈可,壁略厚。胰脾肾上腺及右肾未见异常。左肾见囊性小结节灶。腹腔腹膜后未见明显肿大淋巴结。	</t>
+  </si>
+  <si>
+    <t>1.结合临床,左乳癌术后,术区小片影,较前(2016-4-5)范围略缩小;宫颈转移治疗后,变化不著;骨转移,较前胸椎周围软组织密度增厚,余基本变化不著2.左肺下叶类结节灶,变化不著;左肺纤维灶3.考虑子宫肌瘤,变化不著4.双侧附件略饱满,变化不著5.双侧腋窝、左锁上、腹腔、腹膜后及盆腔小淋巴结,较前基本变化不著6.双侧坐骨局限性骨质密度减低,右侧部分肋骨骨折,均变化不著左乳外侧局部结构紊乱,局部可见小斑片状强化影。左肺下叶见索条影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝、胸肌间及左锁上见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。左侧肾上腺饱满,肝、胆、胰、脾、右侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见大者短径约0.5CM小淋巴结。宫颈体积稍大,强化不均。宫体体积不规则增大,见多发软组织密度灶,增强后呈不均匀强化。双侧附件饱满。膀胱充盈良好,壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎骨及胸骨密度不均,部分周围示软组织密度影,以胸椎周围为著,与邻近结构分界不清。双侧坐骨局限性骨质密度减低。右侧部分肋骨骨质中断。</t>
+  </si>
+  <si>
+    <t>肝脏大小形态可,实质内示低密度影,边界清晰,增强扫描未见强化,直径不足0.5CM。另肝左叶(2-51)动脉期见一长径约0.7CM强化结节,延迟呈等密度。胆囊不大,壁不厚。胰腺、双侧肾脏、双侧肾上腺及脾未见异常。腹腔及腹膜后未见肿大淋巴结。右乳术后,术区结构紊乱,胸肌存在,壁未见增厚及异常强化。右侧腋窝结构紊乱。左侧腋窝、双侧内乳区、肺门及纵隔未见增大淋巴结。左肺见小类结节,直径不足0.5CM。右肺见少许索条影。双侧胸膜未见增厚。双侧胸腔未见积液征象。鼻咽、口咽、喉及下咽未见异常。双颈见大者短径约0.9CM稍大淋巴结。双侧颈部未见增大淋巴结。椎体(4-51、6-36)局部密度增高。	1.结合临床,右乳癌术后;部分椎体密度增高,考虑转移,请结合ECT2.肝囊肿3.左肺类结节,建议观察;右肺少许纤维灶4.肝内强化灶,考虑血管瘤,建议观察5.双颈部淋巴结稍大。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳内上象限结节灶,考虑右乳癌并右腋窝淋巴结转移2.颅脑扫描未见明确异常。右乳内上象限可见一不规则软组织密度灶,截面大小约1.3CM×1.2CM,边缘模糊可见浅分叶,并可见少许毛刺;增强后肿块呈较显著强化。右侧腋窝可见肿大淋巴结,大者短径约1.0CM,可见较显著强化。左乳未见异常。左腋窝及双侧内乳区未见明显肿大淋巴结。双侧肺野较清晰,肺野内未见实性占位。双肺门及纵隔内未见明显肿大淋巴结。双侧胸腔未见积液。扫描野内骨质未见明显破坏征象。脑实质密度正常,未见明显异常密度灶。脑室、池无扩张,脑沟、裂无增深,中线结构居中。颅骨诸骨质未见破坏。	</t>
+  </si>
+  <si>
+    <t>结合病史,右乳癌累及右侧乳头、右腋窝淋巴结转移治疗后,较前(2014-06-19)MR片示好转。右乳头后方见一不规则异常信号影,边缘分叶、毛糙,局部累及右乳头致其凹陷,邻近皮肤略示增厚,表现为T1WI低信号,T2WI高信号,T2压脂序列高信号,DWI呈高信号,增强扫描可见显著强化,大小约1.5CM×1.7CM×2.0CM,时间-信号强度曲线为平台型。左乳增强前后未见异常。所扫双侧腋窝未见明显肿大淋巴结。余未见异常。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右肺癌治疗后,较前片2016-03-03略饱满;双肺类结节灶治疗后,变化不著;右肺门、纵隔淋巴结转移治疗后,较前变化不著。2.右肺下叶炎症、纤维灶,变化不著。3.右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影,变化不著。6.颅脑扫描未见明确异常。右肺下叶见不规则斑片状软组织影,边缘毛糙,大小不易测量,增强后中度强化;其远端肺野见斑片状及索条状密度增高影。余双肺可见小类结节灶,边缘模糊,大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结,大者短径不足1.0CM,部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝实质密度欠均匀,其内见一斑点状钙化灶。胆囊充盈可,壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶,大者短径约0.6CM。T12右侧椎弓根示斑片状密度增高影。脑实质密度均质,未见明确异常密度灶。脑室、池未见扩张,中线结构居中。	</t>
+  </si>
+  <si>
+    <t>左肺下叶支气管截断,局部可见软组织密度影,与远端不张肺组织及肺门、纵隔淋巴结分界不清。余双侧肺野内可见小结节灶及多发囊泡状过度充气区。纵隔内气管周围、腔静脉后气管前间隙、主肺动脉窗区、隆突下、双肺门示多发增大淋巴结,部分融合成团,与周围结构分界不清,大小不易测量。心包及左侧胸腔示液性密度影。扫描野左肾上腺可见软组织密度影,长径约5.2CM,轻度强化。肝内示多发小斑片状低密度影,强化不著,边界不清。左肾示片状低密度灶。左侧第4肋形态欠规则。	1.结合临床,左肺癌并阻塞性肺不张,较前(2016-2-14)进展;双肺门、纵隔淋巴结转移,较前增大;左肾上腺转移,较前增大2.双肺结节灶,建议观察;双肺气肿3.心包及左侧胸腔少量积液4.肝及左肾低密度灶,建议观察5.左侧第4肋骨折,变化不著。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后,右侧胸壁局部斑片形轻度代谢,考虑术后改变。2.肝转移瘤治疗后仅肝左外叶病灶略高代谢。多发骨转移治疗后呈成骨性改变,未见确切异常代谢;原肺转移治疗后病变消失。3.双侧锁骨上小淋巴结,未见高代谢;纵隔7区略高代谢淋巴结,余纵隔淋巴结未见异常代谢;右上臂局部未见异常代谢;请结合既往影像学资料。4.肝内钙化灶。5.子宫肌瘤。6.左侧上颌窦粘膜囊肿。静脉注射示踪剂FDG后60MMIN行PET/CT显像。PET/CT图像示右侧乳腺癌术后缺如,右侧胸壁局部脂肪密度增高,局部斑片状轻度放射性摄取增高,最高SUV2.3,余右侧胸壁未见显著增厚及明显异常放射性摄取。右侧腋窝脂肪密度增高,结构略紊乱,未见明显确切异常放射性摄取增高的淋巴结。左侧腋窝淋巴结未见显著增大及明显异常放射性摄取。右上臂皮下局部脂肪组织轻度斑片状放射性摄取增高,最高SUV1.2,考虑术后改变,余右上臂软组织未见明显异常放射性摄取。部分胸骨、右侧肩胛骨、左侧第7肋骨、右侧第8肋骨、T2、T5、T6、T7、T9椎体、双侧髂骨、部分骶骨、右侧髋臼、左侧股骨上段多发骨质局部密度增高,未见明显确切异常放射性摄取。肝左叶示一结节灶,长径约1.1CM,轻度放射性摄取增高,最高SUV4.1,延迟扫描为2.6。视野内多发胸腰椎、骨盆诸骨、双侧肱骨上段、双侧股骨上段多发骨髓轻度放射性摄取增高,最高SUV3.2,考虑反应性改变。双肺示少许斑片影或条索影,双肺未见明显异常放射性摄取结节灶。双肺门淋巴结未见明显肿大及明显异常放射性摄取。纵隔7区示放射性摄取略增高的淋巴结,短径约0.6CM,最高SUV2.9。气管居中。右侧胸膜局部增厚。大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深。小脑显影如常,两侧小脑对称。左侧上颌窦示类圆形囊性密度灶,边缘清晰。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。左侧上颌窦内见1.0CM囊性密度灶。双侧锁骨上区示小淋巴结,大者短径约0.7CM,未见明显异常放射性摄取。胃壁未示显著增厚,局部环形放射性摄取增高,最高SUV4.4。余肝内未见确切异常放射性摄取增高灶。肝右叶示结节状钙化,长径约0.9CM,边缘清晰。胆囊大小正常,密度均匀。胰腺形态放射性分布尚好。脾轻度显影,放射性分布欠均匀。两侧肾脏显影可,肾实质密度均匀。两侧肾上腺显影大致正常。腹部见条索状肠影。盆腔内膀胱放射性浓聚如常。两侧腹股沟无异常淋巴结显示。子宫体积增大,局部向前凸出形成较大结节,无异常放射性浓聚。两侧附件区未见异常放射性摄取。	</t>
+  </si>
+  <si>
+    <t>左乳术后,术区胸肌存在,壁未见增厚及异常强化。左侧腋窝结构紊乱。右乳未见异常。右腋窝及前纵隔胸腺区、隆突下示数个增大淋巴结,大者位于右侧,短径约0.8CM。余纵隔内见数个小淋巴结,直径不足0.5CM。双侧内乳区、双侧腋窝、双侧肺门未见增大淋巴结。双肺散在小结节灶,大者直径约1.1CM,部分为磨玻璃密度。双肺见少许索条或斑片状密度增高影,部分位于胸膜下。双侧胸膜轻度增厚。双侧胸腔未见积液征象。肝内见小囊性低密度结节灶,大者直径不足1.0CM。胆胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。脑实质未见异常。右侧上颌窦内示液体密度影。骨窗示:T10椎体前缘可见斑片状高密度影。	1.结合临床,左乳癌术后;右腋窝淋巴结肿大,不除外转移;纵隔淋巴结肿大;右肺结节灶,考虑转移;余双肺野类结节影,较前(2015-08-04)片变化不著2.双肺炎症及纤维灶,变化不著3.双侧胸膜轻度增厚4.肝内低密度灶,考虑囊,变化不著5.T10椎体前缘成骨性骨质改变,变化不著。</t>
+  </si>
+  <si>
+    <t>右肺下叶见不规则斑片状软组织影,边缘毛糙,大小不易测量,增强后中度强化;其远端肺野见斑片状及索条状密度增高影。右肺见小类结节灶,边缘模糊,直径不足0.5CM。左肺野清晰。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结,大者短径不足1.0CM,部分增强后强化显著。右侧胸膜略增厚。肝内强化不均质,肝右叶见一斑点状钙化灶。胆胰脾肾上腺及双肾未见异常。肝胃韧带区见短径不足0.5CM小淋巴结。脑实质密度均匀。T12右侧椎弓根示斑片状密度增高影。	1.结合临床,右肺癌并右肺下叶炎症,较前片2016-6-21基本变化不著;右肺类结节,变化不著;右肺门、纵隔淋巴结转移治疗后,较前变化不著。2.右侧胸膜略增厚,变化不著3.肝内钙化灶。4.T12右侧椎弓根密度增高影,变化不著。5.颅脑扫描未见明显异常。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.左肺上叶癌,左侧胸膜转移,左肺门、纵隔淋巴结转移,骨转移:较前(2016-8-25)均好转2.左侧胸腔积液,较前减少3.前纵隔占位,不除外胸腺囊肿,变化不著;另胸壁后心包前低密度灶,请结合临床。左肺上叶示一不规则软组织密度灶,大小约1.3CM×1.8CM,边缘分叶,可见强化。左侧胸膜及叶间胸膜示多发结节灶,可见强化。左侧胸腔示液体密度影。左肺门、纵隔内示数个肿大淋巴结,大者短径约0.9CM。前纵隔胸腺区示类囊性密度灶,短径约2.0CM,边界清,无强化。另胸壁后心包前见团片状低密度影。左侧第七后肋呈溶骨性骨质破坏,局部形成软组织密度肿块。	</t>
+  </si>
+  <si>
+    <t>右乳术后缺如,术区胸壁未见明显增厚。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门未见肿大淋巴结。左侧内乳区、纵隔内及右侧心膈角区见略肿大淋巴结,大者短径约0.8CM。右肺中叶见一结节灶(图4-25),直径约0.3CM,密度较低。右侧胸膜显示不均匀增厚。肝实质密度不均匀性减低,实质内可见散在多发低密度灶,边缘较模糊,大者直径约1.7CM,轻度强化。另肝内可见结节状钙化灶。胆囊未见显示。双肾门朝向前方。胰腺、脾、双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。鼻咽、口咽及喉形态可,诸壁不厚。双侧副鼻窦充气良好。甲状腺双侧叶形态大小密度可。双颈部肌间隙清晰,未见明显肿大淋巴结。胸骨、右侧部分肋骨及部分胸椎示成骨性骨质破坏。1.结合临床,右乳癌术后改变,肝脏多发转移;多发骨转移;左侧内乳区、纵隔及右侧心膈角区淋巴结肿大2.右肺中叶结节灶,较前2016-2-24变化不著3.右侧胸膜增厚,建议观察4.肝内钙化灶5.胆囊未见显示,请结合临床6.颈部扫描未见明显异常</t>
+  </si>
+  <si>
+    <t>直肠术后,术区示高密度吻合器影,壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低,内示小囊性密度灶。双肾内示低密度灶,边缘模糊,另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约3.7CM(纵隔窗),内示空洞影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶,边缘较清晰。	1.结合临床,直肠癌术后;双肺转移,较前(2016-10-24)片基本稳定2.双肾低密度灶,基本变化不著,建议观察;双肾囊肿3.双侧胸膜略增厚,变化不著4.甲状腺低密度灶,变化不著5.脂肪肝;考虑肝囊肿。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,左乳术后;右乳近皮下扁平占位,考虑乳癌累及皮肤,建议进一步检查2.双肺结节灶,考虑转移,建议结合前片3.肝内低密度灶,建议进一步检查4.右侧内乳区小淋巴结5.颈部扫描未见明确异常6.T12椎体血管瘤。左乳术后缺如,术区结构紊乱,周围脂肪间隙模糊,部分胸肌尚存,术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱,可见短径约0.5CM的小淋巴结。右乳近皮下见一较扁平结节灶,边缘模糊,与邻近增厚皮肤分界不清,长径约2.5CM;增强扫描呈不均匀强化。右乳局部皮肤示凹陷。右侧内乳区见短径不足0.5CM的小淋巴结。双肺门及纵隔未见明确肿大淋巴结。双肺野内见多发结节灶,部分呈磨玻璃密度,边界较清,大者直径约0.5CM。肝脏大小、形态可,肝右叶实质内见一低密度灶,边界欠清,直径约0.5CM。胆囊充盈可,壁略厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。T12椎体内示低密度影,边界较清晰,其内可见粗颗粒状高密度影。扫描野内鼻咽、口咽、喉形态可,壁不厚。双颈部未见明确肿大淋巴结。甲状腺双侧叶未见明确异常密度灶。	</t>
+  </si>
+  <si>
+    <t>左肺术后,术区结构紊乱,可见片状密度增高影。右肺下叶近胸膜下可见多发结节灶,大者直径约0.7CM。右肺上叶及中叶见少许斑片条索状密度增高影,部分内见钙化灶。右肺中叶胸膜下见结节灶,部分内见钙化灶,大者直径约0.4CM。双侧胸膜未见增厚,双侧胸腔未见积液征象。双肺门、纵隔未见肿大淋巴结。直肠术后,吻合口壁未见增厚及异常强化征象。膀胱充盈可,壁不厚。子宫及附件区未见异常。盆腔内未见肿大淋巴结。盆腔内未见积液征象。肝脏形态、大小可,胆囊窝周围可见片状略低密度区,边界不清,余肝实质密度减低。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。	1.结合临床,直肠癌术后2.左肺术后改变,右肺新发结节灶,考虑转移3.右肺结节灶及钙化,较前变化不著4.肝近胆囊窝区低密度区,不除外不均质性脂肪肝,建议观察;脂肪肝。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合右乳癌术后病史,左顶叶转移。2.右上颌窦囊肿。左侧顶叶见一类圆形异常信号影,表现为T1WI中心低、边缘略高信号,T2WI及压水序列为中心高、边缘等信号,DWI为中心低、边缘高信号,增强扫描呈较显著不均匀强化,大小约1.0CM×0.8CM,周围可见斑片状长T2信号影。余脑实质内增强扫描未见异常信号及强化征象。脑室、池、脑沟裂未见异常。中线结构居中,未见移位。右上颌窦可见一长T1长T2信号结节,边界清楚。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合病史,右肺癌术后复发并右肺门、纵隔、右锁上淋巴结转移;双肺转移;腹腔淋巴结肿大,考虑转移,大部变化不著,部分略饱满2.双肺炎症,变化不著;右侧少量胸腔积液,基本变化不著,心包积液;右侧胸膜增厚,变化不著3.左胸壁脂肪瘤,变化不著4.脾实质内低密度灶,变化不著,建议观察5.脂肪肝6.左侧肩胛骨局部骨质稀疏,变化不著。右肺下叶切除术后,右下肺门区见软组织肿块影,截面约2.0CM×4.3CM。双肺内见多发结节灶,大者短径约0.7CM。双肺近纵隔周围见多发斑片状密度增高影,其内可见支气管充气征。右侧胸腔见少量液性密度影,右侧胸膜增厚。右锁上、右肺门、纵隔内2R、4R、7区见多发增大淋巴结,部分融合成团,大者短径约2.5CM。心包腔内见少量液性密度影。肝脏密度减低。腹腔内见多发肿大淋巴结,大者短径约2.0CM。脾实质内见一低密度灶,边缘模糊。左前下胸壁软组织内示梭形脂肪样密度影,边界清。骨窗示:左侧肩胛骨局部骨质结节状稀疏。	</t>
+  </si>
+  <si>
+    <t>右肺上叶术后,术区可见金属吻合钉,右肺野内见多发条索状密度增高影。双肺野内见数个类结节灶(图3-31、41、57、32),大者直径约0.6CM。双肺内多发过度透光囊泡影,纵隔内可见多发肿大淋巴结影,大者短径不足1.0CM。左肺上叶见一磨玻璃密度灶(图3-25),直径约0.5CM。右侧胸腔内见液性密度影,右侧胸膜增厚。肝内见数个低密度灶,边界尚清,大者直径约2.1CM,增强扫描动脉期边缘结节状强化,延迟后造影剂向心性充填。另于肝实质内见多发低密度灶,部分边界较清,部分边缘模糊,大者直径约1.0CM。胆囊充盈可,壁增厚并强化。腹腔及腹膜后未见明确肿大淋巴结。部分椎体及其附件可见高密度影,骨质密度增高。	1.结合临床,右肺癌术后改变,右肺炎症及纤维灶;纵隔淋巴结肿大;双肺气肿2.双肺多发结节灶,建议结合前片定性,不除外转移3.右侧胸腔少量积液;右侧胸膜增厚4.肝血管瘤5.肝内多发低密度灶,部分为囊肿,部分建议进一步检查6.胆囊炎7.部分椎体及附件骨质密度增高,建议进一步检查8.左肺上叶膜玻璃密度灶,建议观察。</t>
+  </si>
+  <si>
+    <t>右肺上叶尖段可见一不规则软组织密度影,截面约为1.1CM×0.9CM,病变边缘毛刺,呈分叶状,向内侵及纵隔并与纵隔肿大淋巴结分界欠清,增强后呈不均匀强化。双锁上、纵隔内血管前间隙、气管周围、腔静脉后气管间隙、主肺动脉窗区、隆突下、双肺门可见多发肿大淋巴结,大者短径约为1.1CM。双肺野可见多个大小不一的散在类结节灶,大者直径约为0.5CM。双侧胸腔内未见液性密度影。心包内示少许液体密度影。肝右后叶示一低密度灶(4-60),边缘模糊,直径约0.3CM。余肝实质内示多个囊性密度影,长径不足0.5CM,肝左内叶实质内可见一长径约为1.2CM的低密度灶,边缘尚清,增强后强化明显,延迟扫描仍有强化。胆囊充盈可,壁略示增厚,内示结节状高密度影。脾、胰腺、双侧肾上腺、双肾未见明显异常。腹膜后腹主动脉周围示多个肿大淋巴结影,大者短径约为0.5CM。骨窗示:L1椎体内示低密度灶,余部分胸腰椎椎体局部骨质密度不均匀,可见类圆形高密度影。	1.结合临床,右肺上叶癌并双肺转移,较前(2014-11-6)好转;双锁上、纵隔、双肺门、腹膜后淋巴结转移,较前好转;肝内低密度灶,较前变化不著2.肝左叶低密度灶,考虑血管瘤,变化不著4.胆囊炎,胆囊结石5.肝囊肿6.少量心包节积液7.L1椎体骨质异常,变化不著;部分胸腰椎骨质密度局部增高;较前变化不著。</t>
+  </si>
+  <si>
+    <t>右肺下叶肺门旁可见一肿块影,最大层面2.70CM×3.75CM,CT值约37HU,增强后三期CT值分别为:50HU、68HU、51HU。右下肺支气管受压变窄,右肺下叶可见斑片状阴影,其内可见支气管充气征,并可见血管影注入。最大层面5.51CM×7.59CM,CT值约37HU,增强后三期CT值分别是:56HU、68HU、84HU。左肺下叶后底段及外底段可见淡片影。双肺可见多发囊状薄壁透亮影,双上肺为著。两肺门区未见异常。纵隔内可见增大的淋巴结,最大层面1.35CM×2.27CM,部分淋巴结钙化。两胸腔无积液征象。心脏大血管未见异常。片示左肾囊肿。肝内多发不强化低密度影。1.右下肺中央型肺癌并下叶阻塞性肺炎,纵隔淋巴结转移;2.左肺下叶后底段及外底段炎症;3.肺气肿、肺大泡;4.片示左肾囊肿,肝囊肿。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合乳癌术后病史,颈胸腰骶椎多发转移。2.腰骶椎退行性变,椎间盘L5/S1膨出。3.胸腰椎T10、L2椎体异常信号,考虑脂肪岛。4.考虑子宫肌瘤。所扫颈胸腰骶椎C7~T3、T7、T10、L1、L3~5及S1椎体及部分附件可见结节状、斑片状或整个椎体骨质信号异常,表现为T1WI、T2WI低信号,压脂序列为高信号。腰骶椎曲度略变直,部分椎体前缘见棘样突起,L3椎体前下缘见片状异常信号影,另胸腰椎T10、L2椎体见结节状T1WI、T2WI高信号影,压脂序列为低信号。椎间盘L5/S1向后膨,相应硬膜囊受压略变形,椎间隙略变窄。扫描野内子宫体积增大,其内见一较大肿块影,截面约3.9CM×3.2CM,表现为T1WI等信号,T2WI、压脂序列为低信号,边界清晰。	</t>
+  </si>
+  <si>
+    <t>1.右下中心型肺癌,右肺及右侧胸膜多个结节考虑转移,较前CT(201.-03-01)病变进展,右侧胸腔积液,较前增多;纵隔淋巴结增大;2.右侧第2、8肋骨成骨性转移,较前相仿;3.右乳钙化结节,详查;4.脂肪肝。双侧胸廓不对称,右侧胸廓塌陷,右肺体积减小,右肺下叶见高密度肿块影,形态不规则,边界不清楚,大小约1.89CM×3.6CM,CT值约29HU;右肺野及右胸膜可见高密度结节影,大小不一;右侧胸腔及右侧叶间裂见液性密度影,部分形成包裹,右侧胸腔可见弧形液性密度影,右侧胸膜不均匀增厚,邻近肺组织部分受压膨胀不全。右肺门区增大的淋巴结。心影略增大,右侧心膈角区多发结节,右侧第2、8肋骨骨质密度不均匀增高,形态不规整,其内可见骨质破坏。右侧乳腺内见一结节影,径约0.9CM,边界清晰,其内见点状钙化。肝实质密度明显减低。</t>
+  </si>
+  <si>
+    <t>右乳上象限局部(图2-35)皮肤增厚,邻近腺体密实。右侧腋窝见增大淋巴结,短径约1.4CM。右肺内见多发大小不一的软组织密度结节,以右上肺为著,大者长径约1.1CM,部分病灶边缘模糊。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。鼻咽、口咽、下咽及喉未见明显异常。甲状腺右侧叶示低密度灶,长径约1.2CM,边界较清晰。左锁上、左颈根部、左颈后三角区示多发淋巴结,大者短径约0.6CM,局部脂肪间隙密度增高。肝脏形态、大小可,密度均质,未见结节及肿块。胆囊不大,壁不厚。胰腺、脾、双肾上腺及扫描野内双肾未见明显异常。腹腔及腹膜后未见确切增大淋巴结。	1.结合病史,右乳癌治疗后改变,请结合前片2.右腋窝淋巴结肿大,考虑转移,请结合前片3.右肺多发结节,考虑转移,请结合前片4.左锁上、左颈根部、左颈后三角区多发淋巴结肿大,请结合前片及临床5.甲状腺右侧叶低密度灶6.上腹部扫描未见明显异常。</t>
+  </si>
+  <si>
+    <t>双肺纹理增强、紊乱,局部支气管壁增厚,边缘模糊。双肺透过度增高,可见多发小圆形透亮影;左肺上叶钙化灶。右肺门略增大,可见少许软组织密度影包绕右肺门区支气管血管束,平扫CT值约43HU,增强扫描呈轻中度强化。支气管管壁增厚,管腔略变窄。主动脉肺窗内见增大的淋巴结,边界模糊,短径约2.5CM,增强扫描呈环形强化,内部有无强化区。所示胆囊体积明显增大,其内可见结节状致密影,径约1.29CM。所示脾脏前端可见小圆形等密度影,增强扫描呈均匀强化。与2015-03-03CT相比:1.右肺中央型肺癌,较前肿块减小,显示欠清,纵隔淋巴结转移,较前相仿;2.慢性支气管炎、肺气肿改变;3.胆囊结石,副脾,均较前相仿,请结合腹部检查。</t>
+  </si>
+  <si>
+    <t>1.右乳癌,肝转移,较前略缩小;多发骨转移,较前骨质密度增高2.纵隔淋巴结略大,变化不著3.双侧胸膜略厚,双侧胸腔及心包积液,较前进展4.双肺炎症5.右侧侧脑室旁片状低密度区,考虑梗塞,建议MR检查右乳示多发软组织密度结节及肿块,部分融合,大者截面约1.4CM×1.9CM,边缘分叶,与皮肤关系密切,增强扫描可见较显著不均匀强化。左乳未见异常。左腋窝及锁上未见明显肿大淋巴结。纵隔内4R/L及7区示多个略增大淋巴结,大者短径约0.7CM。双肺纵隔旁见斑片状密度增高影。双侧胸腔、心包示液体密度影,以右侧为著,双侧胸膜略厚。肝内示多发低密度结节及肿块,大者截面约3.3CM×2.6CM,边缘模糊,增强扫描可见不均匀强化。胆胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。多发胸腰椎、肋骨、双侧肩胛骨及胸骨示骨质破坏。右侧侧脑室旁见片状低密度区,边缘模糊,增强后未见强化,余脑实质未见异常。</t>
+  </si>
+  <si>
+    <t>双肺多发粟粒灶及小结节,右肺下叶可见高密度团块影,呈分叶状,右肺下叶部分支气管闭塞,其内密度均匀,大小约为6.5CM×7.1CM,平扫CT值约为42HU。两肺门区未见异常。所示肺内血管支气管束影稍增多。纵隔内见多发小淋巴结影。右侧胸腔积液征象。部分大血管管壁及冠脉走行区可见致密影。所示左肾上腺结合部可见软组织小结节影。1、右肺下叶肺癌,建议能谱增强详查;2、双肺多发小结节及粟粒灶,转移可能性大;3、右侧胸腔积液;4、所示左肾上腺结合部软组织小结节影,随诊。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后2.左腋窝小淋巴结;纵隔淋巴结略增大3.脂肪肝;肝囊肿;脾内低密度灶,考虑囊肿4.胆囊结石5.考虑多发骨转移,较前进展6.考虑子宫肌瘤。右乳术后缺如,术区未见异常增厚及强化。左乳未见异常。左腋窝示数个小淋巴结,大者短径约0.5CM。右锁骨上区脂肪间隙略示模糊;上纵隔气管右旁及腔静脉后气管前示略大淋巴结,短径约0.7CM。肝脏密度减低。胆囊可见结节状致密影。肝及脾内均示低密度灶,大者直径约1.3CM,边界清,强化不著。双肺野清晰。子宫区见软组织肿块影,边缘清晰,密度均匀,大者直径约3.3CM。盆腔充盈可,壁不厚。盆腔内未见明显肿大淋巴结。左侧肱骨头、左侧部分肋骨、胸腰椎椎体及右侧股骨可见骨质破坏。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,双肺癌术后,左肺门区片状影,考虑复发,较前(2014-9-03)变化不著;纵隔淋巴结转移,大部分较前变化不著,部分为新发;左锁上淋巴结较前变化不著;左肺小叶间隔增厚;双肺转移,较前显著;脾内低密度灶,考虑转移,较前增大2.右肺纤维灶及钙化灶3.左肺炎症,较前明显4.左侧腋窝区皮下类结节灶,较前变化不著5.左侧胸腔少量积液。双肺部分术后,术区结构紊乱,周围脂肪间隙模糊,左肺门区可见金属吻合钉影,并可见片状软组织密度影,截面约5.0CM×4.0CM,包埋左肺动脉残端,增强扫描呈中度不均匀强化,向下延续与左下肺静脉关系密切。右肺可见结节状致密影。左肺野可见多发斑片状密度增高影;右肺下叶胸膜下可见斑片状密度增高影,其内可见线状高密度影。左肺野小叶间隔增厚;双肺野示多发类圆形结节灶,大者直径约0.7CM。右侧胸膜示增厚,局部可见钙化。纵隔内气管食管沟2R/L、7/8区见肿大淋巴结,短径约1.2CM,并可见强化,与肿块分界不清。另于左锁上、纵隔内2R、5区见小淋巴结,大者短径约0.6CM。左侧腋窝皮下可见类结节灶,直径约0.3CM,边缘清晰,增强扫描未见强化。左侧胸腔内示少量液体密度影。肝脏实质密度均匀,大小、形态可。胆囊充盈可,壁不厚。脾实质内示一类圆形低密度灶,直径约1.8CM,边缘模糊,轻度强化.胰、脾、双肾上腺及双肾未见异常,腹腔及腹膜后未见肿大淋巴结。	</t>
+  </si>
+  <si>
+    <t>右肺下叶见不规则斑片状软组织影,边缘毛糙,大小不易测量,增强后中度强化;其远端肺野见斑片状及索条状密度增高影。另右肺下叶小叶间隔增厚。余双肺野可见小类结节灶,边缘模糊,大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结,大者短径约1.1CM,部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝内见一斑点状钙化灶。胆囊充盈可,壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶,大者短径约0.6CM。T12右侧椎弓根示斑片状密度增高影。	1.结合临床,右肺癌治疗后,较前片2015-3-12示缩小;双肺类结节灶治疗后,部分显示不清,部分变化不著;右肺门、纵隔淋巴结转移治疗后,部分略示缩小,部分变化不著。2.右肺下叶炎症,右肺下叶小叶间隔增厚,变化不著。3.右侧少量胸腔积液,变化不著;右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影,变化不著。</t>
+  </si>
+  <si>
+    <t>左肺上叶见一空洞性病变,边缘分叶、毛糙,上叶支气管部分示截断,截面积约2.1CM×2.0CM;增强扫描呈轻度强化。右肺野内见结节状致密影。双肺内示散在斑片状密度增高影。左侧胸壁见高密度影,局部伪影较大,周围结构显示不清。左肺门及纵隔内血管前间隙见肿大淋巴结,大者短径约0.9CM。双侧胸膜示不均匀增厚并强化,双侧胸腔内见液性密度影。肝实质内见多发低密度灶,大部分边界较清,少许边缘模糊,大者直径约0.5CM。胆囊充盈可,壁增厚。右肾见囊性密度灶,边界清。腹腔及腹膜后未见明确肿大淋巴结。左侧第10、8肋骨示骨质膨胀,骨皮质欠连续,局部骨质密度增高或减低。	1.结合临床,左肺癌并左肺门淋巴结转移治疗后,较前(2016-12-19)考虑基本变化不著;纵隔淋巴结肿大,较前略增大2.双肺炎症及部分膨胀不全,部分较前好转,右肺钙化灶3.肝内多发低密度灶,部分为囊肿,部分建议观察,变化不著4.右肾囊肿5.部分肋骨骨质异常,考虑转移,较前变化不著6.双侧胸腔积液,右侧略减少,左侧变化不著。</t>
+  </si>
+  <si>
+    <t>右侧小脑半球、右侧颞叶、顶叶及左额叶、顶叶、颞叶见多发结节样异常信号影,表现为T1WI低信号,T2WI及压水序列高信号,DWI序列呈等、高信号,增强扫描呈结节样或环形强化,大着直径约1.6CM位于左顶叶,部分病灶周围脑实质内见长T2水肿带。脑室、脑池未见扩张,中线结构居中。余未见异常。	结合右肺癌病史,符合脑多发转移瘤MR表现。</t>
+  </si>
+  <si>
+    <t>右顶叶上矢状窦右旁见一类圆形异常信号,表现为T1WI等信号,T2WI略高信号,压水像及DWI为等信号,增强扫描可见明显强化,大小约0.3CM×0.3CM,于冠状位可见结节与脑膜关系密切,周围未见明显水肿带。余脑实质增强前后未见异常信号。脑室系统无扩张。中线结构居中。腰椎生理弯曲略变直,部分椎体前缘见棘样突起,腰椎L1~3椎体可见结节状或斑片状长T1短T2信号,压脂序列呈低、高信号,边缘模糊。所扫腰骶椎椎管内未见异常占位性病灶。	1.结合乳癌病史,右顶叶转移瘤,较本院(2016-07-26)MR片好转;腰椎L1~3转移,较前进展。2.腰椎退行性变。</t>
+  </si>
+  <si>
+    <t>1.右肺下叶不规则结节;2.双肺散在炎症,右肺为著,右肺间质纤维化;3.双肺上叶陈旧性病变;4.两侧肩胛骨、锁骨、左侧肱骨头、胸骨、部分胸椎及双侧多发肋骨多发转移;5.降主动脉管壁钙化。双肺纹理增强,右肺小叶间隔增厚、紊乱;双肺内见多发斑片状模糊高密度影,以右肺为著。右肺下叶后基底段可见一结节样高密度影,病变大小约为1.2CM×0.9CM,CT值约为22HU。双肺上叶见结节状及索条状高密度影。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。双侧胸膜增厚;两胸腔无积液征象。心脏不大,降主动脉管壁见钙化影。两侧肩胛骨、锁骨、左侧肱骨头、胸骨、部分胸椎及双侧多发肋骨见斑片状高密度影。</t>
+  </si>
+  <si>
+    <t>左肺上叶可见一不规则软组织密度灶,约2.6CM×3.7CM,增强扫描呈明显不均匀强化,其边缘呈浅分叶,双肺野内散在多发结节灶,大者直径约0.6CM,纵隔内4R、7区示多发肿大淋巴结,大者短径约1.0CM。T6椎体右侧椎弓根及右侧第6后肋可见局限性骨质密度增高影。	1.左肺上叶癌累及胸膜并双肺多发转移2.纵隔淋巴结肿大3.T6椎体右侧椎弓根及右侧第6后肋局限性骨质密度增高,请结合其他检查。</t>
+  </si>
+  <si>
+    <t>右乳术后,术区壁未见增厚及异常强化。纵隔内右上气管、血管前间隙、隆突下、食管旁见增大淋巴结,大者短径约0.8CM。双锁骨上及左侧腋窝示小淋巴结,大者短径不足0.5CM。右侧腋窝未见增大淋巴结。双肺见多发小斑片影及类结节灶,大者长径约1.0CM,部分与邻近胸膜分界不清。余双肺内示条片密度增高影,局部牵拉邻近胸膜。双侧胸膜略增厚,左侧胸膜见少许斑点状钙化灶。双侧胸腔未见积液征象。肝脏体积略缩小,内见多发结节灶,融合成团,大小不易测量,增强后呈不均匀强化。门脉左支充盈欠佳。腹腔内贲门旁、肝胃韧带区、肝十二指肠韧带区、腹膜后腹主动脉旁见多发增大淋巴结,大者短径约0.8CM,部分与胰腺分界欠清。膈上后组见短径不足0.5CM小淋巴结。胆囊充盈不良,壁增厚并见强化。左肾示囊性低密度灶,大者长径约0.7CM,部分边界欠清。脾、双侧肾上腺及右肾未见异常。腹腔内示液性密度影。大网膜、腹膜、肠系膜略增厚。胸骨、右侧肱骨、肋骨、胸腰椎示多发溶骨性骨质破坏,局部形成软组织肿块。	1.结合临床,右乳癌术后;纵隔淋巴结肿大,较前(2015-2-24)好转,腹腔及腹膜后淋巴结肿大,部分好转,部分变化不著;双肺转移,较前好转;肝多发转移,大部分较前缩小,部分变化不著;骨多发转移伴局部软组织肿块形成,较前部分成骨性成分增多,部分软组织肿块减小,余变化不著。2.胆囊炎;考虑左肾囊肿。3.腹膜、网膜、肠系膜略增厚,少量腹水,变化不著。4.门脉左支充盈欠佳,请结合其他检查。5.考虑双肺炎症,双侧胸膜略增厚并左侧胸膜钙化灶。</t>
+  </si>
+  <si>
+    <t>左侧乳腺可见弥漫分布的结节样、小片状异常信号区,表现为T1WI等信号,T2WI略高信号,压脂序列高信号,DWI序列高信号,注射对比剂GD-DTPA后呈环形强化,动态增强曲线呈平台型,大者约19MM×10MM,部分病变与胸壁间可见条索相连,左乳皮肤增厚,乳头凹陷。右侧乳腺可见数个强化小结节。所扫左侧腋窝结构紊乱,可见数个大小不等淋巴结,大者直径约10MM。所扫右侧腋窝可见多个小淋巴结。余未见异常。	1.结合临床,左乳癌并左腋窝淋巴结转移,较本院(2014-09-04)MR片好转。2.右乳多发结节灶,考虑良性病变(BI-RADSIII级),建议观察。</t>
+  </si>
+  <si>
+    <t>左上中央型肺癌,纵隔及左肺门淋巴结转移不除外,较2015-11-17CT病变稍增大,请结合临床。左上肺门处可见肿块影,分叶状,大小为4.4CM×2.8CM,形状不规则,边缘清,与肺动脉分界不清,CT值为34HU,增强扫描三期CT值分别为73、61、63HU,均匀中度强化,包绕左肺动脉,左肺上叶舌段支气管稍狭窄,纵隔及左肺门可见多发肿大淋巴结,大者短径为1.2CM。两胸腔无积液征象。心脏大血管未见异常。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合乳癌病史,左小脑半球转移瘤,及左枕骨转移灶;2.双上颌窦炎。左侧小脑半球示一结节灶,截面约3.2CM×2.6CM,边缘较清,呈等T1等T2信号,T2-FLAIR呈等高混杂信号,增强扫描呈明显不均匀强化;病变周围示片状长T2水肿带;第四脑室受压右移,中线结构局部右移。左枕骨示斑片状等T1等T2信号,T2-FLAIR呈低信号,增强扫描呈明显不均匀强化。扫描野内双侧上颌窦内示液性信号影。	</t>
+  </si>
+  <si>
+    <t>1.结合临床,右乳癌术后改变,术区胸壁强化欠均质,请结合其他检查;骨转移,较前(2015-10-14)变化不著;左锁骨上淋巴结转移治疗后,较前好转2.右肺中叶结节灶,变化不著;左肺尖区类结节灶,建议观察3.脂肪肝,肝内钙化灶;肝内低密度灶,考虑囊肿,建议观察4.胆囊结石右乳术后缺如,术区胸壁局部强化欠均质(如5-20)。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧锁骨上、左侧内乳区见小淋巴结,短径不足0.5CM。右肺中叶见一结节灶(图3-29),直径约0.3CM,密度较低。左肺尖区示类结节灶。膈上示稍大淋巴结。肝实质密度不均匀性减低,肝内见斑点状钙化灶及囊性密度灶。胆囊充盈可,壁未见增厚,内示泥沙样略高密度影。双肾门朝向前方。胰腺、脾、双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。胸骨及部分胸椎示骨质破坏。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.右乳癌术后改变;多发骨转移,较前2016-9-12变化不著2.左肺钙化灶3.右肾囊肿4.腹腔内淋巴结肿大,较前略饱满4.右侧上颌窦炎症5.颅脑扫描未见明显异常。右乳术后缺如,术区皮肤略增厚,可见强化。右侧腋窝斑片状密度增高影,考虑为淋巴结清扫术后改变。左乳及左侧腋窝未见异常。左肺下叶见散小结节灶,直径约0.3CM。双肺门及纵隔内未见肿大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶,边界清晰,未见强化。腹腔内肝胃韧带区见稍大淋巴结,短径约0.8CM。腹膜后未见增大淋巴结。骨窗示:扫描野内多发胸腰骶椎体、胸骨、左侧锁骨、右侧肩胛骨、部分肋骨、左侧肱骨、双侧髂骨、双侧耻骨、坐骨、右侧股骨呈成骨性及溶骨性骨质破坏,局部呈膨胀性改变。脑实质密度正常,未见明显异常密度灶及强化灶。脑室、池无扩张,中线结构居中,颅骨诸骨质未见破坏。右侧上颌窦内见液性密度影。	</t>
+  </si>
+  <si>
+    <t>右肺上叶纵隔旁见一团片状软组织密度影,大小约1.2CM×1.0CM(肺窗),边缘毛糙,与纵隔胸膜关系密切,增强后病变呈中等强化。另于双肺内见少许斑片状密度增高影。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。心包腔内示少量液性密度影。扫描野双侧肾上腺增大,见软组织密度结节灶,大者约1.3CM×1.7CM,可见强化。脑实质均质,未见异常密度灶。脑室系统未见扩张。中线结构居中。	1.结合病史,右肺上叶癌治疗后,较2015-1-30好转2.双侧肾上腺结节灶,考虑转移,左侧者较前增大3.双肺纤维灶,较前变化不著4.心包少量积液5.颅脑扫描未见异常。</t>
+  </si>
+  <si>
+    <t>左乳外侧见团块状影,边缘不清,内见弥漫细小多形性钙化,增强后呈较显著不均匀强化;同侧乳晕区皮肤略增厚,乳头凹陷。左侧腋窝见大者短径约0.6CM肿大淋巴结,强化较显著。双肺野清晰。扫描野内肝内见大者直径约0.6CM低密度结节,边缘清晰或欠清晰,未见强化。	1.左乳癌并左侧腋窝淋巴结转移2.肝内低密度灶,部分为囊肿,部分囊肿可能,建议观察。</t>
+  </si>
+  <si>
+    <t>右肺上叶尖段可见软组织肿块影,最大截面约0.8CM×1.6CM(肺窗),边缘浅分叶可见细毛刺,内缘有长毛刺与纵隔相连,增强扫描呈中等不均匀性强化;余双肺野较清晰,未见明确异常密度灶。纵隔、双肺门未见明确肿大淋巴结。肝脏形态、大小可,实质密度均质。肝内外胆管未见扩张。胆囊充盈可,壁不厚。胰、脾、扫描野内双肾形态大小密度未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。骨窗示双侧锁骨、左侧肱骨、双侧肩胛骨、胸骨、双侧多发肋骨、多发胸腰骶椎椎体可见多发骨质破坏。	1.结合临床,右肺上叶癌侵及脏层胸膜较前(2016-3-22)变化不著;骨转移较前变化不著2.双侧肾上腺饱满,变化不著。</t>
+  </si>
+  <si>
+    <t>右肺下叶背段脊柱旁可见软组织密度结节灶,大小约1.7CM×1.0CM,边缘毛糙,局部与邻近胸膜关系密切,并可见胸膜牵拉征;增强后结节呈中度不均匀强化。右肺下叶见斑片状及条索状密度增高影。右侧胸膜(含叶间胸膜及纵隔胸膜)示不规则增厚,局部呈条状及结节状,增强扫描可见强化。左侧叶间胸膜见多发结节灶。右侧胸腔内可见少量液性密度影,边缘可见膨胀不全肺组织影。双肺门及纵隔内未见肿大淋巴结。肝脏大小、形态可,动脉期实质内见数个强化结节灶,边界较清,强化较显著,门脉及延迟期部分显示不清。另于肝右叶见一低密度灶(图2-55),边界清,直径约0.8CM,动脉期中心可见强化,门脉及延迟显示欠清。胆囊充盈可,壁不厚。胰腺、脾及双肾未见明确异常。腹腔、腹膜后未见明确肿大淋巴结。腹腔内未见积液征象。	1.结合临床,右肺癌治疗后,较前(2014-11-12)好转;右侧胸膜转移较前变化不著,右侧胸腔积液伴右肺局限性实变,变化不著2.左侧叶间胸膜结节灶,转移不除外,建议观察3.肝内多发强化灶,考虑血管瘤。</t>
+  </si>
+  <si>
+    <t>左乳术后缺如,术区结构紊乱,周围脂肪间隙模糊,部分胸肌尚存,术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱。右乳未见明确异常。左侧锁骨上间隙较模糊。左肺门示短径约0.6CM淋巴结。右侧腋窝、双侧内乳区、右肺门及纵隔未见明确肿大淋巴结。左肺示少许斑片影。右肺未见明确异常密度灶。肝脏密度减低,内见囊性密度灶,边界较清,直径约2.0CM。另肝内示斑片状低密度灶,强化不著,边界欠清。胆囊、胰腺、脾、双侧肾上腺及左肾未见明确异常。右肾见短径不足0.5CM的小低密度灶。腹腔内肝胃韧带区、腹膜后腹主动脉周围见小淋巴结,大者短径约0.6CM。网膜及肠系膜、盆腹膜示增厚,局部呈斑片状及结节状改变,部分与邻近肠管分界不清,增强呈不均匀强化。卵巢术后,术区结构紊乱,周围间隙模糊,可见片状低密度影,与周围结构分界不清。宫颈体积增大,密度欠均匀。膀胱充盈可,壁略增厚。盆腔内未见明确肿大淋巴结。多发胸腰骶椎椎体及附件、双侧部分肋骨、双侧髋骨示骨质密度增高,局部可见结节状高密度影。双侧肱骨、股骨及左侧肩胛骨密度欠均。	1.结合临床,左乳癌术后;卵巢转移术后,术区片状低密度影,较前变化不著2.网膜、肠系膜及盆腹膜转移治疗后,较前变化不著3.脂肪肝;肝囊肿;肝内低密度灶,变化不著4.右肾囊肿5.宫颈体积增大,变化不著6.胸腰骶椎、肋骨、髋骨骨质密度增高,考虑转移,较前变化不著。</t>
+  </si>
+  <si>
+    <t>右肺上叶后段近胸膜处示软组织结节灶,增强扫描明显强化,形态不规则,截面约2.1CM×1.9CM。双肺内示泡状过度透光区。纵隔内气管右旁、腔静脉后间隙、隆突下、右肺门示增大淋巴结,大者短径约1.3CM。右侧胸膜增厚呈结节及肿块状,明显强化。右侧胸腔示液体密度影。肝实质内示数个囊性密度灶,大者短径约0.5CM。胆、胰、脾、双肾上腺、双肾形态、密度未见明显异常。腹腔及腹膜后未见明显增大淋巴结。	1.结合临床,右肺癌,较前(2014-10-7)略似饱满,建议观察;右肺门并纵隔淋巴结转移,较前部分好转,部分变化不著;右侧胸膜转移,较前部分好转,部分变化不著;右侧胸腔积液,较前变化不著2.肝囊肿。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后2.左肺门、纵隔淋巴结转移,较前(2015-9-9)略示进展3.双肺炎症,较前加重;双侧胸膜略增厚,较前进展,双侧胸腔积液4.双肺小结节灶,变化不著5.肝囊肿、钙化灶6.右肾囊肿7.右肾上腺结节灶,考虑腺瘤,变化不著8.甲状腺低密度灶,变化不著。右乳术后,前胸壁软组织略增厚,未见明显异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺门、纵隔内主肺动脉窗区可见肿大淋巴结,直径约1.8CM。右肺门淋巴结略增大,短径约0.8CM。左肺上叶支气管受压狭窄,远端肺野近纵隔旁可见带状密度增高影,另双肺内见斑片状密度增高影,右肺下叶为著。余双肺散在小结节灶,大者直径约0.4CM。双侧胸膜略增厚,双侧胸腔内可见较多液性密度影。甲状腺示斑片状低密度灶。肝内见囊性密度灶及斑片状致密影。胆囊壁增厚。右肾示小囊性密度灶。右肾上腺可见结节灶,直径约0.8CM,密度较低,强化不明显。骨窗示多发胸椎椎体、肋骨骨质略示稀疏。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,左肺癌治疗后;左侧胸膜转移及叶裂转移2.左肺慢性炎症及纤维灶3.左侧心包及心膈角区结节影4.肝囊肿以上均较前(2016-08-29)片变化不著。左肺上叶纵隔旁示一不规则软组织密度结节灶,与纵隔内主肺动脉窗区肿大淋巴结分界不清。左肺野内见斑片索条状密度增高影,左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧心包及左侧心膈角区可见多发结节影,大者直径不足1.0CM。肝脏大小形态未见异常,肝实质内可见一小低密度灶,边界清。胆囊、胰腺、脾、双肾、肾上腺未见异常,腹腔腹膜后未见肿大淋巴结影。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右肺癌,较前(2016-1-28)进展;阻塞性肺炎,略减轻;纵隔及右肺门淋巴结转移,较前进展;右肺中叶转移结节,,较前增大2.甲状腺低密度灶,考虑结节性甲状腺肿,变化不著3.肝囊肿4.右肺炎症,较前局部好转;双肺气肿5.右侧胸腔积液,较前减少;心包腔积液,略增多6.胆囊炎;胆囊内结节影,考虑小息肉,变化不著7.部分椎体密度不均,较前局部加重,转移可能性大,请结合ECT。右肺水平裂旁见一软组织密度肿块,大小约4.5CM×3.4CM,边缘毛刺、浅分叶,局部牵拉邻近肋胸膜凹陷,病变周围肺野内见少许条索及斑片影,增强扫描病变呈轻度不均匀强化。右肺中叶见一直径约1.8CM结节灶,与上述病变分界不清。右肺野内见多发斑片状及条索状密度增高影。双肺野内见多发囊泡状过度透光区。纵隔及右肺门见肿大淋巴结,大者短径约1.7CM,增强扫描呈不均匀强化。扫描野内甲状腺右侧叶上极见一低密度灶,直径约1.9CM,边界较清晰,增强扫描可见强化,甲状腺被膜完整。心包内及右侧胸腔内见弧形液性密度影。肝实质内见多发囊性密度灶,大者直径约1.8CM,边界清,无强化。胆囊充盈可,壁略厚,其内见结节状高密度影,直径不足0.5CM。胰、双侧肾上腺及双肾未见异常。脾内见一直径不足0.5CM小低密度结节。腹腔及腹膜后未见增大淋巴结。部分椎体密度不均。	</t>
+  </si>
+  <si>
+    <t>1.结合临床,右乳癌术后,纵隔、双肺门淋巴结转移,左肺转移,较前2016-1-26变化不著;左肾上腺转移,较前变化不著;骨转移,较前变化不著2.双肺炎症,部分加重3.心包积液4.肝囊肿右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结,大者直径约0.5CM。左肺野示数个结节灶,大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶,直径约0.9CM。胆、胰、脾及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示溶骨性及混合性骨质破坏。</t>
+  </si>
+  <si>
+    <t>直肠术后,术区示高密度吻合器影,壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低,内示小囊性密度灶。双肾内示低密度灶,边缘模糊,另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约3.7CM(纵隔窗),内示空洞影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚,胸腔未见积液征象。甲状腺右叶见低密度灶,边缘较清晰。	1.结合临床,直肠癌术后;双肺转移,较前(2016-12-8)部分增大,部分变化不著2.双肾低密度灶,基本变化不著,建议观察;双肾囊肿3.双侧胸膜略增厚,变化不著4.甲状腺低密度灶,变化不著5.脂肪肝;考虑肝囊肿,变化不著。</t>
+  </si>
+  <si>
+    <t>左乳术后,术区结构紊乱,未见结节及肿块。左侧腋窝结构紊乱。左侧胸肌深面可见软组织密度灶,大者大小约1.3CM×2.0CM,明显不均匀强化。右乳未见异常。左侧内乳区、左侧锁骨上、膈上前组、中组见增大淋巴结,大者短径约0.4CM。双侧肺门及纵隔未见肿大淋巴结。双肺野尚清晰。甲状腺内示低密度灶。扫描野内肝实质内见多发低密度结节及肿块,边缘略模糊,其密度不均。脑组织密度均质,各脑室池系统及中线结构未见异常。部分椎骨及肋骨示溶骨性破坏。	1.结合临床,左乳癌术后改变;左侧胸肌深面转移,较前(2016-7-5)好转;左侧内乳淋巴结肿大;肝转移,较前好转;左侧锁骨上、膈上淋巴结肿大,较前好转;骨转移变化不著2.甲状腺低密度灶,较前变化不著3.颅脑扫描未见异常。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合病史,肝癌伴肝内转移治疗后,部分较2014-10-07片变化不著;肝左内叶近膈顶处病灶较前增大,邻近下腔静脉受压;肝内多发强化结节,部分较前增大2.双肺多发转移,较前进展3.双肺局限性肺气肿,肺大泡;双肺纤维灶4.右侧叶间胸膜结节灶,较前变化不著5.肝小囊肿6.左侧肾上腺饱满,较前变化不著。肝脏体积增大,形态欠规则,实质内见多发混杂密度结节及肿块影,边界欠清,部分可见假包膜形成,大者截面积约12.0CM×11.2CM,部分其内示高密度碘油影沉积;增强扫描呈中度不均匀强化,大者其内可见低密度坏死区,延迟后病灶部分可见廓清。肝左内叶近膈顶处病灶大小约6.5CM×5.3CM,邻近下腔静脉受压变窄。余肝内见数个动脉期较显著强化灶,门脉期和延迟期廓清迅速,大者长径约4.5CM。肝内另见小囊性密度灶,大者长径不足0.5CM,界清,无强化。门脉主干及左支显示尚可,门脉右前支示受压显著变窄,右后支显示欠清。胆囊充盈不佳,壁略厚伴强化。胰腺、脾、双肾及右侧肾上腺未见明确异常。左侧肾上腺略示饱满。腹腔及腹膜后未见确切增大淋巴结。双肺内示多发大小不一的结节灶,大者长径约0.9CM。双肺内胸膜下见多发泡状过度透亮区及条索状密度增高影,局部肺大泡形成。双肺门及纵隔未见确切增大淋巴结。纵隔内冠状动脉见条形钙化。右侧叶间胸膜增厚局部示类结节灶。双侧胸腔未见液性密度影。	</t>
+  </si>
+  <si>
+    <t>右侧乳腺术后,术区胸壁部分胸肌尚存,右侧胸壁近胸骨旁见一较大软组织密度肿块,大小约7.2CM×4.5CM,越过胸壁想胸腔内侵及,相邻胸骨骨质破坏,增强扫描可见明显强化。右侧内乳区及纵隔内见多发肿大淋巴结。左侧乳腺未见异常。左侧腋窝见直径约0.6CM的小淋巴结。双肺野见数个结节灶,大者直径约1.0CM。部分肋骨骨质密度不均。扫描野内右侧颈后三角区见多发肿大淋巴结。	1.结合临床,右侧乳腺癌术后,右侧胸壁复发并累及胸骨;右侧颈部、右侧内乳区、纵隔淋巴结转移2.左侧腋窝淋巴结稍大,建议观察3.双肺结节灶,不除外转移,请结合前片或密切随访4.部分肋骨骨质密度不均,请结合骨扫描除外转移。</t>
+  </si>
+  <si>
+    <t>右乳术后,术区未见增厚及异常强化征象;右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结,短径不足0.5CM。右肺上叶可见团片状密度增高影。另于右肺上叶及中叶见少许条索状密度增高影。左肺下叶见一结节灶,呈磨玻璃密度,直径约0.8CM。左侧肺野较清晰。纵隔内气管前腔静脉后见肿大淋巴结,短径约0.8CM。肝实质内示多发结节灶,边缘欠清,大者直径不足1.0CM。胆胰脾双肾上腺右肾形态、密度未见明显异常。左肾示囊性密度灶,未见强化。腹腔及腹膜后未见明显增大淋巴结。	1.结合临床,右乳癌术后,肺转移微波消融术后改变,范围较前(2016-06-09)基本变化不著;左肺结节灶,考虑转移2.纵隔淋巴结肿大,较前变化不著3.肝内多发低密度灶,考虑转移,基本变化不著4.左肾囊肿。</t>
+  </si>
+  <si>
+    <t>右侧乳腺乳头后方见较多不规则软组织密度肿块影,最大截面约4.7CM×6.7CM,边缘分叶,局部与周围腺体及乳头区皮肤分界不清,胸肌间脂肪间隙模糊,增强扫描见显著不均匀强化,其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见稍大淋巴结,大者短径约0.6CM。右侧内乳区见增大淋巴结,短径约0.5CM。纵隔内左侧下肺静脉旁见短径约0.6CM的淋巴结影。双肺野散在分布大小不等结节灶,大者直径约1.6CM,边缘清晰,局部与胸膜及纵隔关系密切,增强扫描可见强化。左肺胸膜增厚,局部呈结节样;局部见多发钙化灶并致局部肋骨欠规则。扫描野肝实质内见多个低密度灶,大者直径约1.5CM,边缘清晰,增强扫描边缘强化显著,部分见牛眼征。	1.结合临床,右乳癌治疗后,较前(2015-03-27)好转;双侧腋窝、纵隔淋巴结肿大,较前缩小;右侧内乳区淋巴结肿大;双肺转移,部分较前缩小,部分变化不著;肝转移,较前略缩小2.左肺胸膜局限性增厚,局部钙化,变化不著。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右肺癌治疗后,较前片2014-10-14变化不著;右肺门、纵隔淋巴结转移,较前变化不著2.右肺下叶炎症,较前略显著;右肺下叶小叶间隔增厚,较前基本变化不著3.双肺多发类结节灶,建议密切观察以除外转移4.右侧少量胸腔积液,较前略减少5.肝内钙化灶6.颅脑扫描未见明显异常。右肺下叶见不规则斑片状软组织影,边缘毛糙,大小不易测量,增强后中度强化;其远端肺野见斑片状及索条状密度增高影。另右肺下叶小叶间隔增厚。余双肺野可见多个类结节灶,部分位于胸膜下,边缘模糊,大者直径约0.5CM。右肺门及纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结,大者短径约1.1CM,部分增强后强化显著。右侧胸腔内示少量液体密度影。扫描野内肝内见一斑点状钙化灶。脑实质密度均匀。脑室、池无扩张。脑沟、回无增宽。中线结构居中。	</t>
+  </si>
+  <si>
+    <t>直肠术后,术区示高密度吻合器影,壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低,内示小囊性密度灶。双肾内示低密度灶,边缘模糊,另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约3.6CM(纵隔窗),内示空洞影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶,边缘较清晰。	1.结合临床,直肠癌术后;双肺转移,较前(2016-9-8)部分缩小,部分略饱满,余变化不著2.双肾低密度灶,部分变化不著,部分略缩小,建议观察;双肾囊肿3.双侧胸膜略增厚,变化不著4.甲状腺低密度灶,变化不著5.脂肪肝;考虑肝囊肿。</t>
+  </si>
+  <si>
+    <t>1.右肺下叶肺癌,并双肺、右胸膜多发转移;2.右侧胸腔积液,心包积液;3.甲状腺饱满;以上征象较前CT(2015-11-13)相仿。右肺下叶可见不规则稍低密度影,与右肺门分界不清,边缘毛糙,CT值约为38HU,其内密度不均,长径约为1.99CM×1.5CM,邻近肺组织可见模糊影,右肺下叶内基底段支气管截断,右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影,边缘毛糙,大者径约为0.6CM;纵隔内未见增大淋巴结影。右侧胸腔、心包内见少许液性密度影。甲状腺明显肿大。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右肺上叶癌侵及脏层胸膜治疗后,较前(2017-2-3)基本变化不著;多发骨转移,变化不著2.右乳腺体局部密度增高,变化不著;肝左叶低密度影,变化不著。右肺上叶尖段可见软组织密度影,最大截面约0.9CM×1.0CM(纵隔窗),边缘浅分叶可见细毛刺,内缘有长毛刺与纵隔相连,增强扫描呈中等不均匀性强化;余双肺野较清晰,未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。肝脏形态、大小可,左叶局限性灌注不均。肝内外胆管未见扩张。胆囊充盈可,壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示:双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏,以成骨性为主,部分肋骨形态欠规则,略呈膨胀性改变。	</t>
+  </si>
+  <si>
+    <t>左肺上叶近纵隔旁见团片状软组织影,最大截面大小约为4.02CM×6.56CM,肿块与纵隔分界不清,平扫CT值约35HU,左肺上叶支气管截断,左主支气管不规则变窄,管腔内可见结节状软组织密度影。右肺上叶后段可见一结节,径约0.5CM;左肺上叶可见大片状影,边缘模糊。右肺下叶可见多发结节状影,大者直径约为0.85CM。双肺纵隔旁及胸膜下见多个条索状及斑片状高密度影。腔静脉间隙、主动脉弓旁、气管隆突上纵隔及左肺门多发结节状软组织影,密度欠均匀,见小斑片状高密度影,部分融合。左侧胸腔少量液体密度影。主动脉壁可见条状钙化。1.左肺上叶肺癌并左肺上叶阻塞性炎症,并左肺门及纵隔淋巴结转移,较前片2013-06-24进展,左主支气管受侵;右肺下叶多发结节,较前新发,密切随诊除外转移可能;2.右肺上叶小结节,与前相仿;3.双肺纵隔旁及胸膜下斑片影,较前未见明显变化;4.左侧胸腔积液。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,考虑左乳癌治疗后较前2016-4-13好转;左侧腋窝软组织影,考虑转移,较前好转;骨转移较前变化不著;考虑双肺转移较前好转2.左侧锁骨上间隙模糊,较前好转。左乳偏外侧象限见多发结节灶,部分边缘模糊、毛糙,大者直径约0.9CM;增强扫描呈较显著不均匀强化。左侧腋窝见软组织密度影,边缘较毛糙,截面积约1.4CM×1.2CM;增强扫描呈不均匀强化。左锁上间隙较模糊,纵隔内左肾见小囊性密度灶。胰腺、脾、双侧肾上腺及右肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。双肺野内见多发结节灶,部分边缘模糊,形态欠规则,大者直径约0.5CM。所扫肝脏大小、形态可,实质密度均质。膀胱壁不厚。子宫及双附件未见明确异常。盆腔内未见明确肿大淋巴结。右侧多发肋骨、左侧髂骨、左侧耻骨及坐骨示溶骨性骨质破坏。	</t>
+  </si>
+  <si>
+    <t>左肺门增大,见肿块影,大小约为4.0CM×4.2CM,CT值约29HU,左肺支气管受压变窄,增强扫描三期CT值约49HU、63HU、65HU。左肺下叶见斑片灶。胸膜未见增厚改变。两胸腔无积液征象。纵隔淋巴结增大,大者短径约2.9CM。右锁骨上淋巴结增大,大者短径约1.9CM。左肺动脉局部显示不清。左室心肌增厚。考虑左肺中央型肺癌伴纵隔及右锁骨上淋巴结转移,左肺动脉受累,左肺下叶阻塞性肺炎或肺不张。</t>
+  </si>
+  <si>
+    <t>右乳示多发软组织密度结节及肿块,部分融合,大者截面约3.7CM×3.2CM,边缘分叶,与皮肤关系密切,增强扫描可见较显著不均匀强化。右腋窝示强化小淋巴结,大者短径约0.5CM。左乳未见异常。左腋窝及锁上未见明显肿大淋巴结。纵隔内4R/L及7区示多个略增大淋巴结,大者短径约0.7CM。双侧胸腔示少量液体密度影,左侧较著,左肺下叶部分受压膨胀不全。余双肺示少许条索影。左侧胸膜略厚。肝内示多发低密度结节及肿块,大者截面约5.8CM×5.1CM,边缘模糊,增强扫描可见不均匀强化。胆胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。脑实质密度均匀。多发胸腰椎、肋骨、左侧肩胛骨及胸骨示骨质破坏。1.右乳癌,肝转移,多发骨转移2.右腋窝小淋巴结;纵隔淋巴结略大3.左侧胸膜略厚,双侧胸腔少量积液并左肺部分不张4.双肺纤维灶5.颅脑扫描未见明显异常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右肺癌并阻塞性肺不张治疗后,较前(2016-5-26)变化不明显;双肺多发转移,进展;骨转移,变化不明显2.肝囊肿3.右肾低密度灶,变化不著4.部分肋骨密度增高,变化不著。右肺中叶支气管开口处见一不规则低密度影,边缘模糊,大小不易测量,增强后可见轻度强化,远端示片状肺不张影。双肺见多发结节灶,部分边界欠清。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶,大者直径不足1.0CM。右肾见直径约0.5CM低密度灶,未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分椎骨示成骨性破坏。右侧第3肋局限性骨质密度增高。	</t>
+  </si>
+  <si>
+    <t>右肺下叶肿块,边缘毛刺,邻近胸膜牵拉,大小约为2.54CM×3.0CM,CT值约46HU。双肺内可见多发结节样及粟粒样密度影,大者径约1.1CM。右肺下叶斑片状高密度影,边界模糊。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。右侧胸腔少量积液征象。心脏大血管未见异常。部分上位胸椎骨密度增高。右乳腺钙化灶。甲状腺右叶增大,密度不均匀。1.右肺下叶后基底段团块灶,考虑恶性占位性病变,周围型肺癌可能性大,伴双肺多发转移,较前2016-09-22CT片略增大;2.右肺下叶炎症,请结合临床;3.部分胸椎骨及邻近肋骨密度增高,较前相仿;4.甲状腺右叶病变,请结合相关检查。5.右侧胸腔少量积液征象。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌治疗后;多发骨转移2.双肺结节及类结节灶,建议密切观察3.双肺气肿。右乳治疗后,腺体结构紊乱,皮肤局部增厚。余双乳腺体结构亦示紊乱。双侧腋窝见短径不足0.5CM小淋巴结。胸廓诸骨示较广泛性成骨性改变。双肺见结节及类结节灶,直径不足0.5CM。双肺见斑片状过度透光区。	</t>
+  </si>
+  <si>
+    <t>1.左肺癌术后改变,左肺上野近胸膜处较大结节灶,转移瘤待除外,请与前片比较;2.双肺多发结节灶(部分钙化),考虑为陈旧性病变,双侧胸膜增厚;3.慢性支气管炎、伴右肺中叶及左肺上叶舌段少许感染;4.纵隔及肺门多发增大淋巴结,转移待除外,请与前片比较或详查;5.食道各段增粗、扩张,请结合临床。左肺上叶体积变小,左肺上野近叶间胸膜处可见较大结节影,边界尚清,大小约2.36CM,CT值约33HU。另见双肺边缘处可见多个大小不等结节影,部分钙化,右肺中叶及左肺上叶舌段见片状高密度影。局部肺野透光度增加。所示气管支气管影未见狭窄。纵隔内及双侧肺门可见多发增大的淋巴结,较大者短径约1.04CM。双侧胸膜增厚,食管各段增粗、扩张。心脏大血管未见异常。</t>
+  </si>
+  <si>
+    <t>右肺下叶背段可见不规则软组织密度肿块,截面大小约1.3CM×0.9CM,边缘浅分叶,周围可见多发长短毛刺,胸膜可见牵拉凹陷,增强后呈较显著不均质强化。左侧肺野较清晰。右侧胸膜(含叶间胸膜)可见不均匀增厚,可见多发结节灶,增强后呈较显著强化。右肺门、纵隔内2R、3A、7区可见多发略肿大淋巴结,大者短径约0.5CM。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。骨窗示:右侧第三、六、七肋骨示溶骨性骨质破坏。	1.右肺下叶癌并右侧胸膜(含叶间胸膜)转移较前2016-3-29变化不著;右肺门、纵隔淋巴结肿大,考虑转移,较前变化不著;多发骨转移较前变化不著2.上腹部扫描未见明显异常。</t>
+  </si>
+  <si>
+    <t>注射示踪剂后60MMIN显像,见大脑形态如常,皮层各叶放射性分布均匀。中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。双颈部见多发淋巴结,未见明显异常放射性摄取。右乳术后缺如,右腋窝结构紊乱,术区软组织呈斑片状及条形摄取,最高SUV2.7,双肺示多发结节灶,大者约为0.7CM,部分轻度放射性摄取,右肺前胸膜下示斑片状密度增高影,内可见支气管充气征象,可见轻度放射性摄取,最高SUV2.0,右侧胸腔内见少量液性密度影。左侧腋窝、纵隔内4R、7区、左肺门、门腔静脉间、腹膜后大血管周围见多发摄取增高淋巴结,最高SUV5.8,大者短径约1.3CM。腹部胃充盈好,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹膜后未见明显肿大淋巴结。腹水征阴性。腹壁软组织未见明显异常影像。盆腔内膀胱放射性浓聚如常,膀胱壁无增厚。两侧腹股沟无异常淋巴结显示。子宫形态尚可,局部无异常放射性浓聚。两侧附件区未见异常放射性摄取。脊柱诸椎体未见明显异常放射性摄取影。	1.结合病史,右乳癌术后放疗后,术区软组织略高代谢,考虑为治疗后改变;双肺多发转移,左腋窝、纵隔、腹腔及腹膜后多发淋巴结转移;2.右肺慢性炎症及局限性纤维变。3.右侧少量胸腔积液。</t>
+  </si>
+  <si>
+    <t>右乳术后,前胸壁软组织略增厚,未见明显异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺门、纵隔内主肺动脉窗区可见肿大淋巴结,直径约1.7CM。右肺门淋巴结略增大,短径约0.8CM。左肺上叶支气管受压狭窄,远端肺野近纵隔旁可见带状密度增高影,另双肺内见斑片状密度增高影,右肺下叶为著。余双肺散在小结节灶,大者直径约0.4CM。双侧胸膜略增厚。甲状腺示斑片状低密度灶。肝内见囊性密度灶及斑片状致密影。胆囊壁增厚。右肾示小囊性密度灶。右肾上腺可见结节灶,直径约0.8CM,密度较低,强化不明显。	1.结合临床,右乳癌术后2.左肺门、纵隔淋巴结转移,较前(2015-6-30)变化不著3.双肺炎症,较前好转;双侧胸膜略增厚4.双肺小结节灶,变化不著5.肝囊肿、钙化灶6.右肾囊肿7.右肾上腺结节灶,考虑腺瘤,变化不著8.甲状腺低密度灶,变化不著。</t>
+  </si>
+  <si>
+    <t>1.左肺术后改变;2.左残肺肿块,考虑复发可能,与2014-06-06CT片对比,病灶范围增大;3.双肺多发粟粒灶及结节,考虑多发转移,较前病灶数目增多,范围增大;4.气管前肿大淋巴结,较前略增大;5.心包略增厚;6.胸12椎体内高密度灶,随诊。左肺体积减小,部分肺组织及支气管缺如,纵隔左偏;左残肺近纵隔旁见肿块影及线样致密影,边缘呈分叶征,其内可见截断支气管影,肿块最大截面约为4.43CM×5.58CM,CT值约为36HU,邻近胸膜增厚。双肺多发小粟粒影及磨玻璃密度结节影,边缘模糊,大者最大径约为0.57CM。气管前腔静脉后可见一肿大淋巴结,最大截面约为2.06CM×1.16CM。两胸腔无积液征象。主动脉及冠状动脉走形区可见条形钙化影,心包略增厚。所示胸12椎体内可见结节样致密影。</t>
+  </si>
+  <si>
+    <t>脑干、双侧大脑及小脑半球见多发大小不等的结节样异常信号,表现为T1WI低、略低信号,T2WI略高、高信号,压水序列高信号,DWI序列低、高信号,增强扫描呈结节样、环形或不均匀强化,大者约1.3CM×2.1CM,部分病变周围脑白质见小片状或片状长T2信号水肿带,四脑室及双侧侧脑室略受压变形。中线结构居中。左上颌窦可见小片状长T2信号区。余未见异常。	1.结合乳癌病史,脑多发转移瘤,较本院(2015-11-04)MR片略示好转。2.左上颌窦炎。</t>
+  </si>
+  <si>
+    <t>左肺上叶见一空洞性病变,边缘分叶、毛糙,上叶支气管部分示截断,截面积约2.3CM×2.0CM;增强扫描呈轻度强化。右肺野内见结节状致密影。双肺内示斑片状密度增高影。左侧胸壁见高密度影,局部伪影较大,周围结构显示不清。左肺门见肿大淋巴结,短径约0.6CM。纵隔内见多发小淋巴结,大者短径约0.5CM。双侧胸膜示不均匀增厚并强化,双侧胸腔内见液性密度影。肝实质内见多发低密度灶,大部分边界较清,少许边缘模糊,大者直径约0.5CM。胆囊充盈可,壁增厚。右肾见囊性密度灶,边界清。腹腔及腹膜后未见明确肿大淋巴结。左侧第10、8肋骨示骨质膨胀,骨皮质欠连续,局部骨质密度增高或减低。	1.结合临床,左肺癌并左肺门淋巴结转移治疗后,较前(2016-09-18)示好转2.双肺炎症及部分膨胀不全,右肺钙化灶3.肝内多发低密度灶,部分为囊肿,部分建议观察,变化不著4.右肾囊肿5.部分肋骨骨质异常,不除外转移,较前变化不著6.双侧胸腔积液,右侧减少,左侧增多。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">左肺癌术后,左侧胸膜及淋巴结转移,少量胸腔积液。会诊*********CT(2016-09-12)左肺下叶术后缺如,左肺门见高密度吻合器影,残余左肺见索条影,左侧胸膜见多发结节灶,较大者位于下舌段近纵隔处,大小约2.5CM×1.5CM,呈均匀强化;左侧膈淋巴结肿大。左侧胸膜腔内见少量液性密度影,呈包裹性改变。右肺上叶后段胸膜下小结节灶,大小约0.4CM×0.3CM。	</t>
+  </si>
+  <si>
+    <t>左肺上叶见一不规则软组织密度肿块影,边缘分叶、毛糙,上叶支气管部分示截断,病变向内与左肺门肿大淋巴结分界不清,截面积约2.6CM×2.1CM;增强扫描呈不均匀强化。右肺野内见结节状致密影。左侧胸壁见高密度影,局部伪影较大,周围结构显示不清。左肺门见肿大淋巴结,短径约1.0CM。肝实质内见多发低密度灶,大部分边界较清,少许边缘模糊,大者直径约0.5CM。胆囊充盈可,其内可见点状致密影。右肾见囊性密度灶,边界清。腹腔及腹膜后未见明确肿大淋巴结。左侧第10、8肋骨示骨质膨胀,骨皮质欠连续,局部骨质密度增高或减低。	1.结合临床,考虑左肺癌;左肺门淋巴结转移2.右肺钙化灶3.肝内多发低密度灶,部分为囊肿,部分建议观察4.右肾囊肿5.胆囊结石6.部分肋骨骨质异常,建议进一步检查,不除外转移。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后2.右肺占位,考虑右肺癌,较前(2016-05-12)略好转3.右肺门及纵隔淋巴结肿大,考虑转移,较前略好转;右锁上淋巴结稍大,变化不著4.右侧胸膜增厚并结节灶,考虑转移,变化不著5.胆囊炎7.甲状腺左侧叶低密度灶,变化不著。右肺尖见不规则软组织密度影,其边缘可见小空洞影,边缘分叶、模糊,并可见胸膜牵拉征,截面积约3.5CM×2.2CM;增强扫描呈较显著不均匀强化。右肺上叶及中叶见少许条索状密度增高影。左肺野较清晰。右肺门、纵隔内2R、3A、4R、7区见多发肿大淋巴结,大者短径约1.5CM,增强扫描呈不均匀强化。右锁上见稍大淋巴结,短径约0.5CM。右侧胸膜局部增厚呈结节状(图7-26),直径约0.6CM,呈较显著不均匀强化。右乳术后缺如,术区结构紊乱,周围间隙模糊,未见明确异常强化。左乳及左侧腋窝未见明确异常。肝脏大小、形态正常,实质密度均质。胆囊充盈好,壁不厚。以、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。甲状腺左侧叶见小低密度灶,边界尚清,直径约0.5CM。鼻咽、口咽及喉未见异常。双侧颈后三角区见大者短径约0.5CM小淋巴结。	</t>
+  </si>
+  <si>
+    <t>脑干、双侧小脑及大脑实质内见多发大小不等结节灶,表现为T1WI等或略低、略高信号,T2WI为等或略高信号,压水序列为高信号,DWI为低或中心低、边缘略高信号,增强扫描呈不均匀强化或环形强化,大者直径约1.1CM。另双侧大脑脑白质区见多发斑点状长T1、略长T2、T2FLAIR高信号及DWI等信号,边缘模糊,增强扫描无强化。右颞叶、右额叶及右侧基底节区见点状、小结节状略长T1长T2信号影、压水序列及DWI高信号,增强扫描无强化。脑室系统及脑沟、裂、池未见异常,中线结构无移位。	1.结合肺癌病史,脑多发转移。2.脑多发小缺血灶。3.右颞叶、右额叶及右基底节区异常信号,考虑急性腔隙性脑梗塞。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后改变,双肺转移,较前(2015-11-17)变化不著;肝转移,较前进展;多发骨转移;左乳结节灶,不除外转移,建议观察2.右侧腋窝囊性密度灶,较前略示饱满3.左肺炎症,较前好转,右肺纤维灶。右乳术后缺如,部分胸肌尚存,术区未见异常强化灶。右侧腋窝结构紊乱,局部示一囊性密度灶,直径约2.4CM,可见环形强化。左乳外下象限内见一强化结节灶,边缘略示模糊,直径约0.9CM。左侧腋窝未见异常。双肺野示多发结节灶,边缘较清,大者直径约0.3CM。右肺上叶及左肺下叶可见斑片状条索状密度增高影。双肺门及纵隔未见增大淋巴结。肝实质内示数个低密度灶,边缘较模糊,可见轻度强化,大者直径约3.6CM。胆囊充盈可,壁不厚。胰、脾、双肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。膀胱充盈可,壁不厚。子宫及附件区未见异常。盆腔内未见肿大淋巴结。盆腔内可见少许液性密度影。部分胸腰椎及附件、部分肋骨、髂骨、坐骨、骶骨可见成骨性骨质破坏。	</t>
+  </si>
+  <si>
+    <t>左乳术后缺如,左侧胸壁及胸肌可见数个结节及类结节灶,大者直径约0.7CM,边缘模糊,可见强化。右乳未见异常。双腋窝、内乳及纵隔未见明显肿大淋巴结。右肺示数个结节及类结节灶,大者长径约1.1CM,可见强化,局部略呈空洞状。左肺示少许斑片及条索影。扫描野内甲状腺内示数个低密度灶,直径不足0.5CM,边界清。脑实质密度均匀。	1.结合临床,左乳癌术后,术区胸壁及胸肌结节灶,复发或转移可能大;右肺结节及类结节灶,转移待排,请结合前片2.甲状腺低密度灶,考虑良性病变,建议观察3.左肺纤维灶4.颅脑扫描未见明显异常。</t>
+  </si>
+  <si>
+    <t>1.右肺中央型肺癌伴远端肺组织阻塞性肺炎;纵隔淋巴结肿大,考虑转移可能;2.肺气肿;3.左肺上叶磨玻璃结节,随诊;4.左肺上叶肺大泡;5.主动脉及冠状动脉内钙化;6.肝内及右肾多发囊肿;7.左侧肾上腺占位,不除外转移可能。右肺门增大,右肺上叶可见团块状高密度影,大小约5.88CM×5.89CM,平扫CT值约29HU,增强扫描强化不均匀,三期CT值约58HU、56HU、44HU,右肺上叶支气管狭窄,远端肺组织内可见片状稍高密度模糊影;双肺上叶透过度不均匀增高;左肺上叶尖段(216)可见小结节状磨玻璃密度影,边界较清;左肺上叶舌段可见类圆形薄壁透亮影,径约0.68CM。纵隔内可见肿大淋巴结影,径约1.83CM。两胸腔未见积液征象。心脏形态大小正常,其内未见异常密度影;主动脉及冠状动脉走行区可见条状钙化密度影;肝内及右肾可见多发类圆形低密度影,边界清楚,增强扫描未见强化。左侧肾上腺可见结节状低密度影,径约1.4CM,平扫CT值约6HU,增强扫描三期CT值约85HU、66HU、38HU,</t>
+  </si>
+  <si>
+    <t>1.右肺下叶后基底段团块灶,考虑恶性占位性病变,周围型肺癌可能性大,伴双肺多发转移,较前2016-05-112CT相仿;2.部分胸椎骨密度增高,较前相仿。右肺下叶肿块,边缘毛刺,邻近胸膜牵拉,大小约为2.44CM×1.8CM,CT值约10HU,增强扫描扫描示病灶三期CT值分别约为38HU、60HU、46HU。双肺内可见多发结节样及粟粒样密度影,大者径约0.75CM。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。部分上位胸椎骨密度增高。右乳腺钙化灶。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,左肺癌并阻塞性肺不张及炎症2.左肺门、纵隔淋巴结转移,右肺门淋巴结肿大,不除外转移3.左侧第4肋陈旧性骨折。左肺下叶示软组织肿块影,部分支气管狭窄,远端见少许实变肺组织及斑片状密度增高影,增强扫描病变呈较明显强化,直径约2.8CM。余肺野清。纵隔内气管周围、腔静脉后气管前间隙、主肺动脉窗区、隆突下、双肺门示多发增大淋巴结,大者短径约3.5CM。左侧第4肋示陈旧性骨折线形成。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,直肠癌术后,双肺转移瘤,较前2016-7-21示进展2.双肾低密度灶,较前(2016-3-15)部分变化不著,部分略示饱满,建议观察除外转移;双肾囊肿3.双侧胸膜略增厚,变化不著4.甲状腺低密度灶,变化不著5.脂肪肝。直肠术后,术区示高密度吻合器影,壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低。双肾内示低密度灶,边缘模糊,另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约3.6CM(纵隔窗),内示小空泡影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶,边缘较清晰。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,左肺癌并纵隔淋巴结转移,较前(2016-11-23)进展2.左侧胸膜增厚3.甲状腺左侧叶低密度灶,建议进一步检查4.上腹部CT扫描未见明显异常。左肺上叶纵隔旁示不规则软组织密度影,截面积约4.7CM×3.5CM,邻近支气管部分狭窄,远端肺内示斑片影及条片影;病变与纵隔内肿大淋巴结分界不清,并与心包分界不清,左侧胸膜及叶间胸膜略增厚。右肺野较清晰。纵隔内左肺动脉旁见肿大淋巴结,短径约1.8CM。扫描野内甲状腺左侧叶见低密度灶,边缘模糊。肝胆胰脾双肾上腺扫描野内双肾形态、密度未见明显异常。腹腔及腹膜后未见明显增大淋巴结。	</t>
+  </si>
+  <si>
+    <t>1.左侧胸膜恶性肿瘤,双肺、胸3椎体及纵隔淋巴结转移,对比2012.5.11片胸膜病变进展;2.右肺上叶肺大泡。左肺肋胸膜、膈胸膜、斜裂胸膜广泛明显增厚,最厚约3.25CM,CT值约38HU。两肺纹理增强,双肺野内见多发大小不等密度增高影,部分呈磨玻璃密度改变,大者约0.94CM×1.64CM;右肺上叶尖段见囊状透过度增高区。两肺门区未见异常。所示气管支气管影正常。纵隔内见多发小淋巴结影,大者短径0.84CM。两胸腔无积液征象。主动脉管壁见钙化影。胸3椎体见结节样致密影。</t>
+  </si>
+  <si>
+    <t>1.考虑左肺上叶中心型肺癌(较2013.2.20CT对比明显增大)并阻塞性肺不张,纵膈内多发淋巴结转移;2.心包积液较前新增;3.双侧胸腔积液,较前新增。左肺门区见团块状软组织密度影,最大截面约为7.73CM×7.39CM,CT值约45HU,左肺上叶上舌段支气管变窄,前段、尖后段、下舌段支气管均未见显示。右肺门未见明显异常。纵隔见多个肿大淋巴结影。心包可见大量积液。双侧胸腔可见弧形影。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.右下肺门占位,首先考虑原发性肺癌,并右侧胸膜转移,多发脑转移2.右肺门、纵隔及左锁上淋巴结肿大3.心包腔少量积液4.双侧上颌窦炎症。右侧乳腺术后缺如,术区未见异常强化灶。右下肺门区可见不规则软组织密度肿块,截面约4.3CM×3.4CM,边缘模糊,密度不均质,其内可见散在钙化灶,肿块包绕血管生长,肿块与斜裂胸膜关系密切;增强后病变呈较显著不均质强化。左侧肺野较清晰。右肺门区、纵隔内2R、5区、7区、右侧心膈角区及左锁上可见多发肿大淋巴结,大者短径约1.0CM。心包腔内可见少量液性密度影。双侧脑实质内可见多发结节及肿块影,大者截面3.7CM×3.1CM,其内可见低密度坏死区,增强后可见较显著不均质强化,部分病变周围可见少许低密度水肿带。双侧脑室未见扩张,中线结构略向右侧移位。扫描野双侧上颌窦内可见液性密度影。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后;右侧内乳区、纵隔、腹腔及腹膜后淋巴结肿大,考虑转移;双肺多发转移,肝多发转移,骨多发转移伴软组织肿块形成,并局部侵及椎管2.胆囊炎3.腹膜、网膜、肠系膜略增厚,少量腹水4.左侧胸膜钙化灶。右乳术后,术区壁未见增厚及异常强化。右侧内乳区、纵隔内右上气管、血管前间隙、隆突下、食管旁见增大淋巴结,大者短径约0.8CM。双侧腋窝未见增大淋巴结。双肺见多发结节灶,大者长径约2.0CM。左侧胸膜见少许斑点状钙化灶。双侧胸腔未见积液征象。肝内见多发结节灶,融合成团,大小不易测量,增强后呈不均匀强化。门脉及下腔静脉主干及分支未见明确充盈缺损。腹腔内贲门旁、肝胃韧带区、肝十二指肠韧带区、腹膜后腹主动脉旁见多发增大淋巴结,大者短径约1.2CM,部分与胰腺分界不清。膈上后组见短径不足0.5CM小淋巴结。胆囊充盈不良,壁增厚并见强化。脾、双侧肾上腺及双肾未见异常。肝周及右侧结肠旁沟、小网膜囊腔见少许液性密度影。大网膜、腹膜、肠系膜略增厚。胸骨、右侧肱骨、肋骨、胸腰椎示多发溶骨性骨质破坏,局部形成软组织肿块,局部突向椎管内。	</t>
+  </si>
+  <si>
+    <t>左肺下叶近肺门区示一不规则低密度肿块,大小约3.9CM×4.5CM,左肺下叶支气管截断,远端可见实变不张肺组织,其内密度不均,可见片状低密度影,增强扫描病变呈较显著不均匀强化,左下肺静脉包绕其中;左侧叶间胸膜显示欠清。右肺中叶示一小结节灶,直径约0.4CM,密度较高,边界清。余双肺野示少许条索影。双锁上、纵隔及左肺门示多发肿大淋巴结,部分融合,大者短径约4.3CM,与肺动脉关系密切。左侧胸腔及心包示少量液体密度影。肝内胆管略有扩张。胆胰脾右肾上腺未见异常。左肾上腺略示饱满。双肾均可见囊性密度灶。腹腔腹膜后未见明显肿大淋巴结。脑实质密度均匀。	1.结合临床,左肺下叶癌伴阻塞性肺不张;左肺门、纵隔及双侧锁上淋巴结转移2.右肺小结节灶,建议观察3.双肺少许纤维灶4.左侧胸腔少量积液;心包积液5.左肾上腺略饱满,建议观察6.双肾囊肿7.颅脑扫描未见明显异常。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右肺癌并双肺转移,双锁上、纵隔、双肺门、腹膜后淋巴结转移2.肝内低密度灶,不除外肝转移,建议定期复查3.肝囊肿;肝左内叶低密度灶,考虑血管瘤4.胆囊结石5.L1椎体骨质异常,建议定期复查。右肺上叶尖段可见一不规则软组织密度影,截面约为2.8CM×2.1CM,病变边缘毛刺,呈分叶状,向内侵及纵隔并与纵隔肿大淋巴结分界欠清,增强后呈不均匀强化。双锁上、纵隔内血管前间隙、气管周围、腔静脉后气管间隙、主肺动脉窗区、隆突下、双肺门可见多发肿大淋巴结,大者短径约为1.6CM。双肺野可见多个大小不一的散在类结节灶,大者长径约为0.7CM。双侧胸腔内未见液性密度影。肝右后叶示一低密度灶(5-23),边缘模糊,直径约0.5CM。余肝实质内示多个囊性密度影,长径不足0.5CM,肝左内叶实质内可见一长径约为1.2CM的低密度灶,边缘尚清,增强后强化明显,延迟扫描仍有强化。胆囊充盈可,壁略示增厚,内示点状高密度影。脾、胰腺、双侧肾上腺、双肾未见明显异常。腹膜后腹主动脉周围示多个肿大淋巴结影,大者短径约为1.1CM。骨窗示:L1椎体局部示低密度灶。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.左乳术后改变2.右侧胸膜增厚,考虑转移,较前(2015-6-15)变化不著;右侧胸腔积液变化不著;右肺结节灶,考虑转移较前变化不著3.纵隔淋巴结肿大,变化不著。4.右肺炎症或纤维灶。5.肝周结节灶较前变化不著6.结合临床,卵巢癌术后改变。左乳术后,部分胸肌尚存,术区胸壁略肿胀,皮肤略增厚,右乳未见异常。右侧内乳区示短径不足0.5CM淋巴结。双侧腋窝及左侧内乳区未见肿大淋巴结。纵隔内腔静脉后间隙、肺动脉窗区、隆突下可见肿大淋巴结,大者短径约0.8CM。右侧胸膜增厚,局部呈结节状、带状,右侧胸腔可见游离性及包裹性液体密度影,部分其内可见高密度引流管影。右肺见条索状密度增高影及多发结节灶。左肺野较清晰。扫描野内肝周示结节灶,短径约1.1CM,与肝脏分界欠清。盆腔内子宫、附件术后缺如,术区残端未见异常。膀胱充盈好,壁不厚。直肠未见异常。盆腔内未见肿大淋巴结。	</t>
+  </si>
+  <si>
+    <t>右肺上叶纵隔旁见一团片状软组织密度影,大小约1.8CM×1.9CM(肺窗),边缘毛糙,与纵隔胸膜关系密切,增强后病变呈中等强化。另于双肺内见少许斑片状密度增高影。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。心包腔内示少量液性密度影。肝脏未见异常密度灶。双侧肾上腺增大,见软组织密度结节灶,大者位于左侧,约1.8CM×2.2CM,可见强化。胆胰脾及右肾未见异常。左肾示囊性密度灶,直径约0.8CM,边界清,无强化。脑实质均质,未见异常密度灶。脑室系统未见扩张。中线结构居中。	1.结合病史,右肺上叶癌治疗后,病变较2015-04-07片增大2.双侧肾上腺结节灶,考虑转移,左侧者较前增大3.双肺纤维灶,较前变化不著4.心包少量积液5.左肾囊肿6.颅脑扫描未见异常。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.右肺癌2.纵隔淋巴结转移3.右侧叶间胸膜结节,考虑转移4.右肺内小结节,不除外转移,建议观察5.右肺门淋巴结肿大6.左肺下叶钙化结节灶;左肺尖类结节灶,建议观察7.甲状腺右侧叶体积增大,考虑结节性甲状腺肿8.肝内低密度灶,考虑囊肿9.左肾囊肿10.颅脑扫描未见明确异常11.T3椎体骨质密度不均,请结合骨扫描。右肺上叶见一软组织密度结节灶,大小约2.5CM×2.0CM,其边缘浅分叶,并见细毛刺,外缘见胸膜凹陷征;增强后病变呈中等不均匀强化。左肺下叶见一长径约0.4CM钙化结节灶(图5-30),边缘清晰。右肺内见少许小结节,边缘清晰,直径不足0.5CM。右侧水平裂及斜裂见多发小结节灶,边缘清晰,直径不足1.0CM。左肺尖(5-12)示一类结节灶,边界清,密度略高,直径约0.2CM。右肺门区见短径约0.9CM淋巴结。纵隔内4R见增大淋巴结,大者短径约1.9CM。甲状腺右侧叶体积增大,其内见钙化结节灶。双侧胸腔未见液性密度影。肝实质内见小低密度灶,边界欠清,大者直径不足1.0CM,未见明确强化。胆囊充盈可,壁不厚。左肾实质内见囊性密度灶,直径约1.2CM。胰腺、脾、右肾及双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。脑实质密度均质。脑室、池未见扩张。中线结构居中。骨窗示:T3椎体骨质密度不均。	</t>
+  </si>
+  <si>
+    <t>右肺下叶见不规则斑片状软组织影,边缘毛糙,大小不易测量,增强后中度强化;其远端肺野见斑片状及索条状密度增高影。右肺见小类结节灶,边缘模糊,直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结,大者短径不足1.0CM,部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。扫描野内肝内见一斑点状钙化灶。肝胃韧带区见短径不足0.5CM小淋巴结。T12右侧椎弓根示斑片状密度增高影。	1.结合临床,右肺癌并右肺下叶炎症,较前片2016-6-2略好转;右肺类结节,变化不著;右肺门、纵隔淋巴结转移治疗后,较前变化不著。2.右侧胸膜略增厚,变化不著3.肝内钙化灶。4.T12右侧椎弓根密度增高影,变化不著。</t>
+  </si>
+  <si>
+    <t>右乳腺体内、皮肤区、右胸壁、右腋窝及扫描野内右颈根部可见多发软组织密度灶,边缘毛糙,增强后呈不均质明显强化,部分相互融合,右腋窝者局部可见溃疡形成。右侧胸壁及右上臂软组织肿胀。左乳未见异常。左侧腋窝、气管右旁可见增大淋巴结,大者短径不足1.0CM。双肺内可见散在类圆形结节灶,边界较清晰,大者直径约0.6CM。双肺见斑片索条影。甲状腺体积增大,局部可见低密度灶及钙化灶。双侧胸膜略增厚。扫描野内肝脏实质密度减低。右肾见囊性结节。右侧锁骨呈内固定术后改变。右侧部分肋骨密度欠均。脑实质密度均匀,未见结节及异常强化灶。脑室脑池未见扩张。中线结构居中。	1.右乳癌侵及皮肤及胸壁并右侧胸壁转移、右腋窝及右颈根部淋巴结转移治疗后,较前(2016-7-27)部分好转,部分进展;双肺转移,较前基本变化不著;双肺炎症2.左侧腋窝、纵隔小淋巴结,变化不著3.甲状腺增大伴低密度灶及钙化灶,考虑变化不著4.脂肪肝5.右侧锁骨术后改变6.颅脑扫描未见异常。</t>
+  </si>
+  <si>
+    <t>左乳术后缺如,左侧胸壁及胸肌复发术后,术区胸壁部分胸肌尚存,局部皮肤略增厚,轻度强化。左侧腋窝间隙模糊。右乳未见异常。右腋窝、内乳及纵隔未见明显肿大淋巴结。右肺示数个结节及类结节灶,大者长径约1.1CM,可见强化,局部略呈空洞状。左肺示少许斑片及条索影。扫描野内甲状腺内示数个低密度灶,直径不足0.5CM,边界清。右肾示囊性密度灶。肝脏、胆囊、胰腺、脾、双侧肾上腺及扫描野内左肾未见明显异常。腹腔及腹膜后未见肿大淋巴结。扫描野内骨质未见明显破坏征象。	1.结合临床,左乳癌术后,术区胸壁复发术后,术区皮肤略增厚,较前2016-8-22基本变化不著;右肺结节及类结节灶,转移待排,变化不著2.甲状腺低密度灶,变化不著3.左肺纤维灶4.右肾囊肿。</t>
+  </si>
+  <si>
+    <t>左乳术后,术区结构紊乱,未见结节及肿块。左侧腋窝结构紊乱。左侧胸肌深面可见软组织密度灶,大者大小约1.6CM×2.4CM。右乳未见异常。左侧内乳区、左侧锁骨上、膈上前组、中组及扫描野内腹腔内见增大淋巴结,大者短径约1.3CM。双侧肺门及纵隔未见肿大淋巴结。右侧水平裂区(3-26)及左肺胸膜下示小类结节灶。甲状腺内示低密度灶。心腔内密度减低。扫描野内肝实质内见多发低密度结节及肿块,边缘略模糊,其密度不均。部分椎骨及肋骨示溶骨性破坏。	1.结合临床,左乳癌术后改变;左侧胸肌深面转移,较前(2016-4-8)考虑变化不著;左侧内乳淋巴结肿大,变化不著;肝转移,较前增多、部分密度增高,余部分增大,部分略缩小;左侧锁骨上、膈上及腹腔淋巴结肿大;骨转移2.右侧水平裂区及左肺类结节灶,变化不著3.甲状腺低密度灶4.提示贫血。</t>
+  </si>
+  <si>
+    <t>右肺下叶胸膜下可见一不规则软组织密度灶,大小约2.2CM×1.6CM,边缘毛糙、浅分叶,与胸膜关系密切,增强扫描呈较显著强化。左肺可见类结节影(图3-25、27等),直径约0.3CM,边缘较清。左肺下叶可见一类结节影(图3-33),边缘模糊。右侧胸膜(含叶间胸膜)增厚,可见多发结节灶,增强扫描可见强化。右侧胸腔内示弧形液体密度影。右肺门及纵隔内右上气管前、气管隆突周围可见多发增大淋巴结,大者短径约0.8CM。左肾上腺略示饱满。	1.结合临床,右肺癌并右侧胸膜(含叶间胸膜)转移;右肺门、纵隔淋巴结肿大,转移可能大;左肺小结节灶,考虑转移2.左肾上腺略示饱满,转移待排3.右侧少量胸腔积液4.左肺下叶类结节影,建议观察。</t>
+  </si>
+  <si>
+    <t>腰骶椎曲度略变直,部分椎体前缘见棘样突起,L3椎体前下缘见片状异常信号影,表现为T1WI、T2WI低信号,压脂序列为高信号。另L2椎体见T1WI、T2WI高信号影,压脂序列为低信号。椎间盘L5/S1向后膨,相应硬膜囊受压略变形,椎间隙略变窄。扫描野内子宫体积增大,其内见一较大肿块影,截面约3.9CM×3.2CM,表现为T1WI等信号,T2WI、压脂序列为低信号,边界清晰。	1.结合乳癌术后病史,腰椎L3转移。2.腰骶椎退行性变,椎间盘L5/S1膨出。3.腰椎L2椎体异常信号,考虑脂肪岛。4.考虑子宫肌瘤。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,左乳癌术后,术区复发,较前(2016.6.16)变化不著;左锁上、颈部、左肺门、纵隔及膈上淋巴结转移治疗后,基本变化不著;双肺转移,部分缩小,部分变化不著;多发肝转移,部分增大,部分变化不著;多发骨转移,部分略明显,部分变化不著。2.颈背部结节,不除外转移,变化不著。3.腹腔略大淋巴结,变化不著。4.双肺炎症,略减轻。5.左肩部脂肪瘤。6.左肾未见显示。左乳术后缺如,胸肌尚存,左侧胸壁见软组织影,边缘模糊,大者短径约1.5CM,示明显不均质强化,邻近前胸壁皮肤局部增厚呈软组织密度影,明显强化。双锁上、左肺门、纵隔、左侧颈后三角区、膈上见增大淋巴结,边界尚清,大者短径约1.0CM。双肺见结节灶,大者长径约0.8CM,双肺纹理增强并见斑片模糊略高密度影。甲状腺形态饱满,密度不均。下颈背部皮下见一长径约1.0CM的强化灶。左肩部皮下示脂肪样密度影。肝内见多发低密度灶,边缘轻度强化,大者长径约3.8CM。胆囊、胰脾、双侧肾上腺及扫描野内右肾未见异常。扫描野内左肾未见显示。腹腔及腹膜后见稍大淋巴结,边界不清。骨窗示:胸骨、肩胛骨、多发椎骨、肋骨、右肱骨见骨质破坏区。	</t>
+  </si>
+  <si>
+    <t>左肺门区略增大,左肺上叶支气管狭窄;左肺上叶尖后段支气管腔轻度狭窄。左肺上叶尖后段(51)见一结节影,约为1.46CM,可见毛刺及浅分叶,邻近血管增粗、僵直。左肺上叶可见多发斑片模糊高密度影。左肺上叶胸膜下见多发纤维索条影。双上肺尖见局部胸膜轻度增厚。右肺尖、右肺下叶可见多发散在粟粒影。右肺下叶近斜裂(34)见一结节影,约为0.3CM×0.2CM,并见索条影相连。右肺门区未见异常。纵隔内见多发淋巴结,较大者短径2.4CM,界清。两胸腔无积液征象。1.左肺门占位可能大;左肺上叶尖后段结节,较前CT(2015-07-17)明显增大,纵隔淋巴结较前增大,考虑肺癌;左肺上叶阻塞性肺炎,较前新发;2.右肺下叶外基底段钙化灶;右肺下叶多发炎症;3.右肺下叶近斜裂结节,较前相仿;4.右肺下叶多发粟粒灶,较前新发,不除外转移,随诊。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,左肺癌治疗后,较前(2016-4-26)片变化不著,左侧胸膜转移及叶裂转移较前变化不著2.左肺慢性炎症及纤维灶3.左侧心包及心膈角区结节影,较前缩小4.肝囊肿。左肺上叶纵隔旁示一不规则软组织密度结节灶,与纵隔内主肺动脉窗区肿大淋巴结分界不清。左肺野内见斑片索条状密度增高影,左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧心包及左侧心膈角区可见多发结节影,大者直径不足1.0CM。肝脏大小形态未见异常,肝实质内可见一小低密度灶,边界清。胆囊、胰腺、脾、双肾、肾上腺未见异常,腹腔腹膜后未见肿大淋巴结影。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.左肺上叶癌,左侧胸膜转移,左肺门、纵隔淋巴结转移,较前(2016-9-28)均好转;骨转移,较前变化不著2.左侧胸腔积液,较前减少。左肺上叶示一不规则软组织密度灶,大小约1.3CM×1.7CM,边缘分叶,可见强化。左侧胸膜及叶间胸膜示多发结节灶,可见强化。左侧胸腔示液体密度影。左肺门、纵隔内示数个肿大淋巴结,大者短径约0.6CM。左侧第七后肋呈溶骨性骨质破坏,局部形成软组织密度肿块。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,左肺癌并阻塞性肺不张,较前(2015-12-14)略示缩小;纵隔淋巴结转移较前变化不著;右肺门淋巴结稍大较前变化不著2.双肺炎症及纤维灶、气肿;双肺类结节灶,较前变化不著3.肝内钙化灶4.肝内低密度灶,考虑囊肿;双肾囊肿。左肺下叶背段支气管截断,断端见软组织密度灶,远端见不张肺组织,内见扩张支气管及其内粘液栓,二者分界不清,增强后前者中等不均匀强化,侵及左下肺门,与左下肺动脉及其分支、降主动脉关系密切。右肺及纵隔见大者短径约0.8CM中等淋巴结。左侧锁骨上见短径不足0.5CM小淋巴结。双肺见少许斑片索条影及少许泡状过度透光区。左肺上叶(5-14、17)见大者长径约0.8CM类结节灶。右肺(5-18、29)见直径不足0.5CM小类结节灶。肝内见斑点状钙化灶及低密度结节灶,后者大者长径约2.0CM,大部分边缘清晰,部分欠清,均未见强化。胆、胰、脾、双侧肾上腺未见异常。双肾见囊性结节灶。腹腔及腹膜后未见肿大淋巴结。	</t>
+  </si>
+  <si>
+    <t>1、左肺下叶团块灶,考虑周围型肺癌并少许阻塞性炎症,请结合临床;2、右肺下叶结节灶,请随诊;3、支气管炎,右肺中叶索条灶;4、甲状腺低密度灶,请结合临床;5、左侧肾上腺结节,转移不除外,随诊。左肺下叶见团块影,最大截面积约3.77CM×3.50CM,CT值约22HU,可见浅分叶及胸膜牵拉征,增强扫描三期CT值约51HU、79HU、71HU,周围可见淡片影。右肺下叶后基底段见结节影,径约0.49CM。双肺纹理增强、模糊。右肺中叶见索条影。双侧肺门未见异常。纵隔未见异常增大淋巴结。双侧胸腔未见积液征象。心及大血管未见异常。甲状腺左叶见低密度影,增强扫描未见强化。所示左侧肾上腺可见结节影,增强后可见轻度强化。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右肺癌并右肺下叶炎症,较前片2016-12-15基本稳定;右肺类结节,变化不著;右肺门、纵隔淋巴结转移治疗后,较前变化不著。2.右侧胸膜略增厚,变化不著3.肝内钙化灶。4.T12右侧椎弓根密度增高影,变化不著。5.心脏体积增大;冠脉钙化。6.右侧胸腔积液,其内夹层高密度影,考虑出血可能大,请结合临床。右肺下叶见不规则斑片状软组织影,边缘毛糙,大小不易测量,增强后中度强化;其远端肺野见斑片状及索条状密度增高影。右肺见小类结节灶,边缘模糊,直径不足0.5CM。左肺野清晰。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结,大者短径不足1.0CM,部分增强后强化显著。右侧胸膜略增厚。心脏体积增大,冠脉可见钙化。右侧胸腔示液体密度影,其内夹层部分高密度影,平扫示CT值约56HU,增强扫描强化不著。肝内强化不均质,肝右叶见一斑点状钙化灶。T12右侧椎弓根示斑片状密度增高影。	</t>
+  </si>
+  <si>
+    <t>右肺下叶见不规则斑片状软组织影,边缘毛糙,大小不易测量,增强后中度强化;其远端肺野见斑片状及索条状密度增高影。余双肺可见小类结节灶,边缘模糊,大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结,大者短径约1.1CM,部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝内见一斑点状钙化灶。胆囊充盈可,壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶,大者短径约0.6CM。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。双侧上颌窦及筛窦内示密度增高影。T12右侧椎弓根示斑片状密度增高影。	1.结合临床,右肺癌治疗后,较前片2015-7-1变化不著;双肺类结节灶治疗后,变化不著;右肺门、纵隔淋巴结转移治疗后,大部分变化不著,部分略缩小。2.右肺下叶炎症、纤维灶,变化不著。3.右侧少量胸腔积液,变化不著;右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影,变化不著。6.颅脑CT扫描颅内结构未见明显异常。7.鼻旁窦炎。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后,肝转移,较前2016-07-20基本变化不著;右肺结节灶,考虑转移,较前缩小2.左肺纤维灶3.胆囊炎。右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一结节灶,直径约0.6CM,边界清。纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块,大者直径约3.5CM,边缘模糊,轻度强化。胆囊充盈可,壁示增厚。胰、脾及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.乳腺癌术后右肺、肝脏及纵隔多发淋巴结转移。2.右肺炎症;左肺下叶结节灶,考虑炎症;3.左肾囊肿;4.颅脑CT扫描未见明显异常;5.右侧上颌窦囊肿。会诊*******(2016-11-21)右侧乳腺癌术后缺如,术区未见异常密度灶。右肺上叶示不规则软组织密度影,大小约为2.3CM×2.6CM,可见分叶,与邻近胸膜关系密切,周围多发类结节灶及条索状、片状密度增高影,增强扫描可见强化。左肺下叶示结节灶,大小约为1.6CM×2.0CM,边界欠清晰,内示点状致密影,可见引流支气管,以宽基底与胸膜相连,增强扫描可见轻度强化。纵隔内示多发肿大淋巴结。肝脏体积略饱满,形态欠规则。肝内多发低密度影,最大截面约为3.8CM×4.0CM,部分内示点状致密影,增强扫描强化不著。胆囊体积略大,壁不厚。右肾、胰腺、脾及双侧肾上腺未见明显异常。左肾大小形态可,内示低密度影,边界清晰,未见强化。腹腔及腹膜后未见明显肿大淋巴结。脑实质均质。脑室系统未见扩张,中线结构居中。右侧上颌窦示囊性密度增高影,增强扫描强化不著。所扫颈腰椎未见明显骨质破坏征象。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,双侧乳腺癌术后改变,右侧皮肤增厚并强化,较前2016-010-20片基本变化不著2.双肺结节灶,不除外转移,较前变化不著,建议观察3.肝内低密度灶,较前变化不著;左肾小囊肿4.T12椎体血管瘤5.胆囊炎。左乳术后缺如,术区未见异常强化灶;右侧乳腺术后,术区胸肌尚存,间隙模糊,皮肤略增厚,可见强化。左侧腋窝结构紊乱,可见短径约0.5CM的小淋巴结。双肺门及纵隔未见明确肿大淋巴结。双肺野内见多发结节灶,部分呈磨玻璃密度,边界较清,大者直径约0.5CM。肝脏大小、形态可,肝右叶实质内见一低密度灶,边界欠清,直径约0.5CM。左肾上极见囊性无强化小结节灶。左侧肾上腺饱满,密度未见明显异常。胆囊充盈可,壁厚。腹腔及腹膜后未见明确肿大淋巴结。T12椎体内示低密度影,边界较清晰,其内可见粗颗粒状高密度影。	</t>
+  </si>
+  <si>
+    <t>1.胃窦壁厚,较前相仿,考虑胃癌,胃周及腹膜后多发淋巴结转移;2.肝包膜下钙化灶;脾多发钙化灶;3.胆囊颈结石,胆囊炎;4.左肾囊肿;5.腹盆腔积液,较前略增多。肝右叶包膜下见点状致密影。胆囊不大,壁厚,胆囊颈部见结节状稍高密度影,最大截面大小约0.4CM×0.7CM。脾不大,脾内及脾包膜下见多发点状及结节状致密影。胰腺大小形态未见明显异常。胃窦部胃壁可见结节状增厚,CT值约38HU;胃周及腹膜后可见多发小淋巴结,较大者短径约0.9CM。双肾大小正常,左肾见多发低密度灶,CT值约4HU。膀胱充盈尚可,其内未见明显异常密度灶。子宫及附件未见明显异常。腹腔肠管未见明显扩张。腹盆腔内见少量液体密度影。所示双侧腹股沟区多发淋巴结影。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.左肺上叶癌,较前2017-2-24略饱满;左侧胸膜转移,变化不著;左肺门、纵隔淋巴结转移,部分略缩小,部分变化不著;骨转移,变化不著2.左侧胸腔积液,较前减少。左肺上叶示一不规则软组织密度灶,大小约1.3CM×1.8CM,边缘分叶,可见强化。左侧胸膜及叶间胸膜示多发结节灶,可见强化。左侧胸腔示液体密度影。右肺胸膜下示小类结节灶。左肺门、纵隔内示数个增大淋巴结,大者短径约0.6CM。部分椎骨及肋骨示高密度灶,左侧第七后肋示骨质破坏。左乳内示小类结节灶。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,左乳癌术后,术区复发,较前片(2016.05.13)变化不著;左锁上、颈部、左肺门、纵隔及膈上淋巴结转移,较前部分变化不著,部分略示好转;双肺转移,较前变化不著;多发肝转移,较前大部变化不著,部分略好转。2.多发骨转移,较前变化不著。颈背部结节,不除外转移,较前变化不著。腹腔略大淋巴结,较前变化不著。3.双肺炎症。左乳术后缺如,胸肌尚存,左侧胸壁见软组织影,边缘模糊,大者短径约1.5CM,示明显不均质强化,邻近前胸壁皮肤局部增厚呈软组织密度影,明显强化。双锁上、左肺门、纵隔、左侧颈后三角区、膈上见肿大淋巴结,边界尚清,大者短径约1.0CM。双肺见结节灶,大者直径约1.0CM,双肺纹理增强并见斑片模糊略高密度影。下颈背部皮下见一长径约1.0CM的强化灶。肝内见多发低密度灶,边缘轻度强化,大者长径约3.2CM。胆囊充盈可,壁不厚。胰脾、双侧肾上腺及右肾未见异常。扫描野内左肾未见显示。腹腔及腹膜后见稍大,边界不清。骨窗示:胸骨、部分胸腰椎椎体、肋骨见骨质破坏区。	</t>
+  </si>
+  <si>
+    <t>所示右侧乳腺组织缺如,右乳腺区及右肺上叶近纵隔区见类圆形及团片状肿块影,最大径约6.0CM,CT值37HU,边界不清,周边见片状模糊影,右内乳动脉区、纵隔及颈部见多发肿大淋巴结,部分似见融合。双肺内见多发大小不一类圆形高密度影,大者径约1.91CM。左室增大,大血管管壁未见钙化。双侧胸腔未见液体密度影。胸骨骨质欠规整,内可见结节状高密度影。所示层面肝脏见多发片状低密度影。对比2012-09-05胸部CT:1.右乳腺癌术后复发改变,右内乳淋巴结、纵隔及两侧颈部多发淋巴结转移,双肺多发转移,胸骨转移,右侧胸壁软组织转移,较前片病变明显进展,右肺上叶近纵隔区转移灶较前范围区域明显变大,请结合临床;2.左心室大;4.肝脏病变,结合腹部CT详查。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,左肺癌并阻塞性肺不张,较前(2016-1-27)进展;纵隔淋巴结转移较前变化不著;右肺门淋巴结稍大较前变化不著2.双肺炎症及纤维灶、气肿;双肺类结节灶,较前变化不著3.肝内钙化灶4.肝内低密度灶,考虑囊肿;双肾囊肿。左肺下叶背段支气管截断,断端见软组织密度灶,远端见不张肺组织,内见扩张支气管及其内粘液栓,二者分界不清,增强后前者中等不均匀强化,侵及左下肺门,与左下肺动脉及其分支、降主动脉关系密切。右肺及纵隔见大者短径约0.8CM中等淋巴结。左侧锁骨上见短径不足0.5CM小淋巴结。双肺见少许斑片索条影及少许泡状过度透光区。左肺上叶(5-12、15)见大者长径约0.8CM类结节灶。右肺(5-17、27)见直径不足0.5CM小类结节灶。肝内见斑点状钙化灶及低密度结节灶,后者大者长径约2.0CM,大部分边缘清晰,部分欠清,均未见强化。胆、胰、脾、双侧肾上腺未见异常。双肾见囊性结节灶。腹腔及腹膜后未见肿大淋巴结。	</t>
+  </si>
+  <si>
+    <t>子宫及双侧附件术后,阴道残端未见显著增厚。膀胱充盈好,充盈高密度影,壁无增厚。盆腔内肠间隙可见少量液性密度影。盆腔内未见显著增大淋巴结。肝实质密度均匀,未见异常密度灶。肝包膜下可见低密度影,强化不著。网膜区可见结节灶,边缘模糊,短径约1.0CM,密度较低,强化不著。肠系膜区可见结节影(图4-38),边缘模糊,直径约0.8CM,可见较显著强化。胆囊充盈可,壁增厚。胰脾及双侧肾上腺未见异常。双肾实质示低密度灶,大者直径约0.4CM,边界尚清。心膈角区(图4-1、12)可见强化淋巴结,大者短径约1.6CM。余腹腔腹膜后未见确切肿大淋巴结。肠间隙可见少量液体密度影。右肺野见少许高密度条索影,左肺野清晰。右侧胸膜呈结节状增厚并强化。双肺门及纵隔未见明显肿大淋巴结。左乳外上象限可见一强化结节灶,直径约1.5CM,边缘略示毛糙。右侧胸腔内示少量液体密度影。	1.结合临床,卵巢癌术后;心膈角区淋巴结转移;右侧胸膜转移;右侧肠系膜区强化结节灶,考虑转移;肝包膜下及网膜区低密度灶,请结合前片;左乳强化灶,首先考虑转移瘤2.少量腹水、盆腔积液;右侧胸腔少量积液3.胆囊炎4.双肾低密度灶,囊肿可能大,建议观察5.右肺纤维灶。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌较前(2016-4-27)进展;双肺转移较前进展;肝转移变化不著;左肺门及纵隔淋巴结转移较前进展;右侧内乳区饱满,变化不著;脑转移瘤较前明显进展;脑膜异常强化,不除外转移,建议MRI;脑室系统较前示变窄2.左胸膜局限性增厚,局部钙化,变化不著3.颈部小淋巴结。右侧乳腺乳头上方见不规则软组织密度肿块影,约9.4CM×7.9CM,边缘分叶,局部与周围腺体及乳头区皮肤分界不清,胸肌间脂肪间隙模糊,增强扫描见显著不均匀强化,其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发肿大或小淋巴结,大者短径约0.9CM。右侧内乳区显示饱满。左肺门及纵隔内见肿大淋巴结影,大者短径约1.5CM。双肺野散在分布大小不等结节灶,大者直径约1.7CM,边缘清晰,局部与胸膜及纵隔关系密切,增强扫描可见强化。左胸膜增厚,局部呈结节样;局部见多发钙化灶并致局部肋骨欠规则。双侧颈动脉鞘区可见多发小淋巴结,短径不足1.0CM。肝实质内见多个低密度灶,大者直径约0.3CM,边缘尚清晰,增强扫描边缘强化显著。胆囊充盈可,壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内可见多发结节状斑片状强化灶,周围可见低密度水肿带,部分脑膜示异常强化。脑室系统略示变窄。	</t>
+  </si>
+  <si>
+    <t>右肺下叶支气管开口区可见不规则软组织密度肿块,下叶支气管截断,远端可见不张肺组织实变影,病变与之分界不清,大小不易测量;增强后病变呈较显著不均质强化,不张肺组织内可见粘液栓影。病变与右下肺静脉关系密切,分界欠清。余双侧肺野内可见散在类结节灶,密度较淡,大者直径约0.3CM。双侧肺野内可见絮状及条索状密度增高影。双肺门、纵隔内2R、5区、6区、7区、8R、9L及右锁上可见多发肿大淋巴结,大者短径约1.1CM。右侧胸腔内可见少量弧形液性密度影;右侧胸膜显示增厚,局部呈类结节状。肝脏形态、大小可,肝左叶可见一类圆形低密度灶,直径约0.3CM,边界较清。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶,直径约0.5CM,边界清晰,未见强化。双侧肾上腺饱满,左侧肾上腺可见软组织密度结节灶,截面大小约1.9CM×1.4CM,可见不均质强化。腹腔及腹膜后未见增大淋巴结。骨窗示:左侧第八肋骨呈溶骨性骨质破坏。	1.右肺下叶占位,考虑右肺癌并右肺下叶阻塞性肺不张2.双肺门及纵隔、右锁上淋巴结肿大3.双肺多发类结节灶,建议密切观察以除外转移4.右侧胸膜增厚;右侧胸腔少量积液5.双侧炎症6.左侧第八肋骨骨质破坏,考虑转移7.左侧肾上腺结节灶,考虑转移8.肝左叶低密度灶,建议观察9.右肾囊肿。</t>
+  </si>
+  <si>
+    <t>左乳外上象限可见较大不规则软组织密度肿块,边缘分叶,截面约4.6CM×2.9CM,其内可见粗大砂砾状钙化灶,肿块与周围腺体分界欠清,增强后病变呈较显著不均质强化。左侧乳腺皮肤不均匀增厚,增强后呈轻度不均匀强化。左侧腋窝可见多发肿大淋巴结,大者短径约1.4CM。左肺下叶叶间胸膜下可见软组织密度灶,截面约2.0CM×1.8CM,边缘浅分叶,增强后呈中度不均质强化。双侧叶间胸膜可见散在多发类结节灶,边界较清,大者直径约0.2CM。双肺门及纵隔内未见明显肿大淋巴结。扫描野内骨质未见明显破坏征象。	1.左乳癌并左腋窝淋巴结转移2.左肺下叶占位,不除外原发性肺癌3.双侧叶间胸膜多发结节灶,转移不能除外。</t>
+  </si>
+  <si>
+    <t>左肺下叶背段可见团块影,较大截面大小约为5.71CM×3.91CM,平扫CT值约为39HU,边界尚清,浅分叶状,周围可见斑片状稍高密度影。双肺另见弥漫多发大小不等结节影。两肺门区未见异常。纵隔内未见淋巴结增大。两侧胸腔内可见弧形液体密度影。心脏大血管未见异常。右侧部分肋骨形态欠规整。第11胸椎右侧附件区骨质破坏,并见软组织肿块。1.左肺下叶背段周围型肺癌,较前略大,伴双肺多发转移瘤,第11胸椎右侧附件区骨转移;2.右侧部分肋骨陈旧性骨折改变;3.第11胸椎右侧附件区骨质破坏,并见软组织肿块,较前相仿;4.双侧胸腔积液,较前片2015-11-19新发。</t>
+  </si>
+  <si>
+    <t>右乳外上象限可见一不规则软组织密度肿块,边缘明显分叶,周围可见条索影,肿块截面大小约2.4CM×2.3CM,增强后可见病变显著强化。余右侧乳腺内可见显著强化结节灶。右侧腋窝可见肿大淋巴结,大者短径约0.9CM,可见显著强化。左乳及左侧腋窝未见异常。右侧内乳区略饱满。右肺上叶及左肺下叶可见散在类结节灶,边界较清,大者直径约0.3CM;余双肺野清晰,肺纹理走形自然,气管及各级支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶,边界清晰,未见强化。腹腔及腹膜后未见增大淋巴结。骨窗示:多发胸腰椎椎体、部分肋骨呈溶骨性骨质破坏,局部呈膨胀性改变。	1.右乳癌并右侧腋窝转移,多发骨转移2.双肺类结节灶,纤维灶可能,建议观察3.右肾囊肿。</t>
+  </si>
+  <si>
+    <t>左肺下叶可见一不规则肿块,截面约7.2CM×7.0CM,边缘分叶,与胸膜关系密切,周围示斑片及絮状密度增高影,增强扫描病变呈较显著不均匀强化。余双肺多发泡状过度透光灶。左肺门及纵隔多发肿大淋巴结,大者短径约3.6CM。左锁上淋巴结略大,短径约0.6CM。肝右叶略示一低密度灶,直径约1.2CM,边缘模糊,增强扫描略强化,延迟扫描呈等密度。胆囊充盈可,壁略厚。胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。	1.左肺下叶癌,左肺门、纵隔淋巴结转移2.左肺炎症;双肺气肿3.左锁上淋巴结略大4.肝内低密度灶,建议进一步检查。</t>
+  </si>
+  <si>
+    <t>右肺中叶近肺门处示不规则软组织密度影,远侧肺组织示实变征象,周围多发多发条索状及斑片状密度增高影,与周围组织关系密切,增强扫描示中度强化。右肺中叶外侧段见一磨玻璃密度结节。余双肺野内散在囊泡状过度透光灶。右肺门及纵隔示多发肿大淋巴结,部分融合成团,大者短径约为1.2CM。肝脏示低密度影,边界清晰,增强扫描未见强化,余肝实质未见异常密度影。胆囊、胰腺、脾、双肾、未见异常,右侧肾上腺外支见一结节灶,直径约0.8CM,边缘光滑,密度均匀。腹腔腹膜后未见肿大淋巴结影。	1.右肺癌并阻塞性肺炎,肺不张,右肺门及纵隔淋巴结转移;较前片(2016,07,27)变化不明显。2.双肺气肿。3.右肺磨玻璃结节(考虑良性)。4.肝囊肿。5.右肾上腺小结节,考虑腺瘤可能性大。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合病史,右肺癌术后复发,较前(2017-1-11)增大;右肺门、纵隔、右锁上淋巴结转移,较前部分增大,部分变化不著;双颈部及左侧锁骨上淋巴结转移;双肺转移,较前进展;腹腔淋巴结肿大,考虑转移,较前进展2.双肺炎症,局部略加重;右侧少量胸腔积液,基本变化不著,心包积液,略增多;右侧胸膜增厚,变化不著3.左胸壁脂肪瘤,变化不著4.肝左叶低密度灶,请结合临床5.左侧肩胛骨局部骨质稀疏,变化不著。右肺下叶切除术后,右下肺门区见软组织肿块影,截面约5.5CM×5.3CM。双肺内见多发结节灶,大者短径约3.0CM。双肺近纵隔周围见多发斑片状密度增高影。右侧胸腔见少量液性密度影,右侧胸膜增厚。双颈部、双锁上、右肺门、纵隔、腹腔见多发增大淋巴结,部分融合成团。心包腔内见少量液性密度影。肝左叶见低密度结节。左前下胸壁软组织内示梭形脂肪样密度影,边界清。骨窗示:左侧肩胛骨局部骨质结节状稀疏。	</t>
+  </si>
+  <si>
+    <t>左上肺门处可见肿块影,分叶状,大小为3.95CM×3.19CM,形状不规则,边缘清,与肺动脉分界不清,CT值为35HU,增强扫描三期CT值分别为52、62、54HU,均匀轻度强化,包绕左肺动脉,左肺上动脉未见显示,纵隔及左肺门可见多发肿大淋巴结,大者短径为1.00CM。左侧胸膜牵拉凹陷。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常左上肺门中央型肺癌,阻塞左上肺动脉,纵隔及左肺门淋巴结转移,较2015-08-05CT左上肺门旁病变减小,纵隔及左肺门淋巴结减小。</t>
+  </si>
+  <si>
+    <t>会诊*******(东院区)(2016-08-17与2016-5-29对比)左侧乳腺术后,术区胸壁未见增厚,左侧部分肋骨骨质密度不均,左前第6肋骨质离断,断端骨质密度增高。右侧乳腺外侧见一椭圆形结节灶,可见强化,长径约1.3CM,其内可见斑点状钙化影。右侧腋窝见强化的淋巴结,大者直径约1.2CM。右肺上叶见片状软组织密度影,边缘毛糙,其内可见小条状金属影,与邻近胸膜关系密切。左肺野近胸壁后方见斑片状高密度影。右侧胸膜及叶间胸膜处见数个小结节灶。左肺下叶近胸膜处见一直径约0.3CM的小结节灶,有条索影与胸膜相连。扫描野所示肝内示囊性密度影。	1.结合临床,左侧乳腺癌术后,左前第6肋骨折,变化不著;2.右侧乳腺强化结节灶,较前(2016-5-29)进展;右侧腋窝淋巴结肿大,较前进展;3.右肺转移灶治疗后改变,双肺炎症,较前(2016-5-29)较前进展;4.右侧胸膜结节灶转移,较前增大;5.左肺下叶结节灶,考虑肺内淋巴结可能大,变化不著;6.肝囊肿。</t>
+  </si>
+  <si>
+    <t>左肺上叶可见一不规则软组织密度灶,大小约1.7CM×2.4CM,边缘分叶、毛刺,牵拉远端胸膜致其略示凹陷,增强扫描病变呈较显著不均匀强化。左下肺门区可见团片状软组织密度影,截面约2.1CM×1.2CM,边缘毛糙,增强扫描可见强化;左肺下叶支气管狭窄。左肺野纹理增多,小叶间隔增厚,上叶为著。左肺上叶纵隔旁可见索条状密度增高影。余左肺野可见类结节状影(图5-17、24),边缘模糊。左侧胸膜(含叶间胸膜)略示增厚。右肺野小叶间隔亦略厚。右侧胸膜(含叶间胸膜)略厚。左侧胸腔内示弧形液体密度影。右侧锁骨上区、纵隔内2R、3A、4R/L、7区、8区及左肺门可见多发肿大淋巴结,部分融合,大者短径约1.5CM,增强扫描可见强化。左锁上示短径不足0.5CM的小淋巴结。所扫肝内见小囊性密度灶。胆囊壁增厚。左肾示一小囊肿。另胸骨、多发胸椎、多发肋骨可见成骨性骨质破坏。右侧肩胛骨局部骨质密度增高;双侧肱骨头、左侧肩胛骨骨质密度略示稀疏。	1.结合临床,左肺癌并左肺门、纵隔淋巴结转移;右侧锁骨上区淋巴结肿大,转移待排;多发骨转移;考虑左肺癌性淋巴管炎2.右肺下叶间隔略示增厚,建议观察3.左肺炎症4.左肺类结节灶,不除外为炎性结节5.双侧胸膜(含叶间胸膜)增厚,左侧较著6.左侧胸腔积液7.肝脏小囊肿;左肾小囊肿8.胆囊炎。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合病史,右乳癌术后改变,术区胸壁强化欠均匀,建议观察;考虑骨转移并部分肋骨骨折2.左肺下叶类结节,较前2015-08-19基本变化不著3.右肺炎症。右乳术后缺如,术区结构紊乱,部分胸壁组织尚存,胸壁略增厚并强化欠均匀。右侧腋窝呈术后改变,未见异常密度灶。左乳未见异常。左侧腋窝见多发小淋巴结,大者短径约0.6CM,其内可见脂肪密度影。双侧内乳区、双肺门及纵隔未见确切肿大淋巴结。左肺下叶见一类结节灶,直径约0.4CM,密度较高。右肺胸膜下见斑片状及条索状密度增高影。右侧多发肋骨示溶骨性及成骨性骨质改变,部分骨皮质欠连续。	</t>
+  </si>
+  <si>
+    <t>1.右肺上叶肿块,首先考虑肺癌并右肺转移,纵隔淋巴结转移,请结合临床,详查;2.右侧大量胸腔积液,右肺下叶膨胀不全;3.一胸椎高密度灶,随诊。右肺上叶见肿块影,径约2.07CM,CT值约50HU,呈分叶状,边缘毛糙;右肺可见多发类圆形结节影,大者径约0.55CM;右侧胸腔可见弧形液性密度影,右肺下叶膨胀不全;纵隔内可见肿大淋巴结影,大者短径约1.05CM。心脏大血管未见异常。一胸椎见结节样高密度影。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后;纵隔淋巴结肿大治疗后,较前(2015-4-24)部分缩小,部分变化不著;腹腔及腹膜后淋巴结肿大治疗后,变化不著;双肺转移,大部分缩小,部分变化不著;肝多发转移,大部分密度减低,部分略缩小;多发骨转移,较前部分成骨性成分增多,余变化不著。2.胆囊炎;考虑左肾囊肿,变化不著;脾内低密度灶。3.腹膜、网膜、肠系膜略增厚,变化不著;少量腹水,略示减少。4.门脉左支充盈欠佳,变化不著。5.考虑双肺炎症,局部示好转;双侧胸膜略增厚并左侧胸膜钙化灶。右乳术后,术区壁未见增厚及异常强化。纵隔内右上气管、血管前间隙、隆突下、食管旁见小或增大淋巴结,大者短径约0.6CM。双锁骨上及左侧腋窝示小淋巴结,大者短径不足0.5CM。右侧腋窝未见增大淋巴结。双肺见多发小斑片影及类结节灶,部分与邻近胸膜分界不清。余双肺内示条片密度增高影,局部牵拉邻近胸膜。双侧胸膜略增厚,左侧胸膜见少许斑点状钙化灶。双侧胸腔未见积液征象。肝脏体积缩小,左叶为著,肝内见多发结节灶,融合成团,大小不易测量,增强后呈不均匀强化。门脉左支充盈欠佳。腹腔内贲门旁、肝胃韧带区、肝十二指肠韧带区、腹膜后腹主动脉旁见多发小或增大淋巴结,大者短径约0.8CM,部分与胰腺分界欠清。膈上后组见短径不足0.5CM小淋巴结。胆囊充盈可,壁增厚并见强化。左肾示囊性低密度灶,大者长径约0.7CM,部分边界欠清。脾内示小斑片状低密度区。双侧肾上腺及右肾未见异常。腹腔内示液性密度影。大网膜、腹膜、肠系膜略增厚。胸骨、右侧肱骨、锁骨、肋骨、胸腰椎示多发溶骨性、成骨性骨质破坏,局部周围示软组织影,部分肋骨骨质欠连续。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌,较前(2015-09-15)片增大;双肺转移,较前增大;肝转移,较前好转;纵隔淋巴结转移;右侧内乳区饱满,变化不著;脑多发转移,较前好转2.左肺胸膜局限性增厚,局部钙化,变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影,约7.6CM×6.2CM,边缘分叶,局部与周围腺体及乳头区皮肤分界不清,胸肌间脂肪间隙模糊,增强扫描见显著不均匀强化,其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结,大者短径约0.6CM。右侧内乳区显示饱满。纵隔内心包右旁、气管隆突下及左侧下肺静脉旁及下段食管旁见肿大淋巴结影,大者短径约2.1CM。双肺野散在分布大小不等结节灶,大者直径约4.1CM,边缘清晰,局部与胸膜及纵隔关系密切,增强扫描可见强化。左肺胸膜增厚,局部呈结节样;局部见多发钙化灶并致局部肋骨欠规则。肝实质内见多个低密度灶,大者直径约0.5CM,边缘尚清晰,增强扫描边缘强化显著。胆囊充盈可,壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内示多发结节灶,大者直径约0.4CM,增强扫描可见环形强化。脑室池无扩张。脑沟回无增宽。中线结构居中。	</t>
+  </si>
+  <si>
+    <t>左乳术后缺如,术区结构紊乱,周围脂肪间隙模糊,部分胸肌尚存,术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱。右乳未见明确异常。左肺门示短径约0.6CM淋巴结。右侧腋窝、双侧内乳区、右肺门及纵隔未见明确肿大淋巴结。左肺示少许斑片影。右肺未见明确异常密度灶。肝脏密度减低,内见囊性密度灶,边界较清,直径约2.0CM。另肝内示斑片状低密度灶,强化不著,边界欠清。胆囊、胰腺、脾、双侧肾上腺及左肾未见明确异常。右肾见短径不足0.5CM的小低密度灶。腹腔内肝胃韧带区、腹膜后腹主动脉周围见小淋巴结,大者短径约0.6CM。网膜及肠系膜、盆腹膜示增厚,局部呈斑片状及结节状改变,部分与邻近肠管分界不清,增强呈不均匀强化。腹腔内见液性密度影。卵巢术后,术区结构紊乱,周围间隙模糊,可见片状低密度影,与周围结构分界不清。宫颈体积增大,密度欠均匀。膀胱充盈可,壁略增厚。盆腔内未见明确肿大淋巴结。多发胸腰骶椎椎体及附件、双侧部分肋骨、骶骨、双侧髋骨示骨质密度增高,局部可见结节状高密度影。	1.结合临床,左乳癌术后;卵巢转移术后,术区片状低密度影,较前2016-6-13变化不著2.网膜、肠系膜及盆腹膜转移治疗后,腹水,较前进展3.脂肪肝;肝囊肿;肝内低密度灶,变化不著4.右肾囊肿5.宫颈体积增大,变化不著6.胸腰骶椎、肋骨、骶骨、髋骨骨质密度增高,考虑转移,较前变化不著。</t>
+  </si>
+  <si>
+    <t>右肺下叶外,后基底段见一高密度团块影,大小约5.01CM×4.97CM,CT值约38HU,呈分叶状改变,与邻近胸膜关系紧密。双肺散在多发小结节状稍高密度影。两肺门区未见异常。纵隔内见多发小淋巴结。右肺叶间裂增厚,右侧胸腔见弧形液体密度影。心脏大血管未见异常。第11胸椎椎体可见类圆形低密度影,骨质破坏。所示肝实质密度较同层脾脏密度减低,CT值约41HU。1.右肺下叶占位,考虑周围型肺癌伴双肺内转移,胸椎骨转移,随诊;2.右侧胸腔积液,右肺叶间裂包裹性积液;3.所示脂肪肝。</t>
+  </si>
+  <si>
+    <t>1.左肺下叶磨玻璃密度影,对比2011.5.17片密度略变实,考虑周围型肺(腺)癌;2.左肺上叶炎性病变,较前相仿;3.左侧肾上腺低密度灶,不除外转移,详查。左肺下叶后基底段可见一磨玻璃密度影,边界不清,最大层面大小约1.6CM×2.0CM,与胸膜相连,其内密度不均,周围见索条;左肺上叶可见条索影。双肺纹理增粗、紊乱,两肺门区未见异常。所示气管支气管影正常。纵隔内可见稍大淋巴结影。两胸腔无积液征象。动脉内壁、冠状走形区可见多发线样高密度影。左侧肾上腺可见一结节样低密度影,大小为1.8CM×2.0CM,CT值为-9HU。</t>
+  </si>
+  <si>
+    <t>右肺下叶支气管局部狭窄截断,周围示软组织密度肿块影,与周围不张实变的肺组织及右肺门肿大淋巴结分界不清,最大截面约3.7CM×2.9CM,增强后呈不均匀明显强化,病变周围支气管腔内见软组织密度影,延支气管分布。余右肺野略示小结节影,密度较淡,直径不足0.5CM。左肺野较清晰。右侧胸膜增厚。右侧胸腔及心包内示少量液体密度影。右侧乳腺术后缺如,术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区及锁骨上区未见明显肿大淋巴结。所扫肝右叶示颗粒状钙化密度影。左侧大脑内示多发结节、肿块影,大者截面约3.0CM×3.6CM,密度不均匀,周围示大片无强化的低密度水肿带,邻近侧脑室局部略示受压变形,增强后病灶呈环形明显强化。中线结构略尚居中。左侧上颌窦内示液体密度影。骨窗:胸骨柄右侧、胸骨下段局部骨质密度不均匀增高。	1.结合临床,右侧中心型肺癌并阻塞性肺不张治疗后,不张较前(2014-11-24)变化不著;右肺门淋巴结转移,变化不著;右胸膜转移;骨转移,变化不著;脑转移,较前大小变化不著2.右侧胸腔及心包积液,较前减少3.右肺结节,较前变化不著4.右侧乳腺术后改变5.肝内钙化灶6.左上颌窦炎症。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,左乳癌术后;左侧内乳区淋巴结转移;肝脏多发转移;多发骨转移,不除外累及椎管;双肺结节灶,考虑转移2.肝内胆管轻度扩张3.肝囊肿4.双肾小囊肿5.甲状腺低密度灶。左乳术后缺如,术区未见异常增厚及强化灶。左腋窝结构略示紊乱。右乳未见异常。左侧内乳区可见肿大淋巴结,短径约1.0CM,增强扫描可见较显著强化。右腋窝、纵隔及双肺门未见肿大淋巴结。双侧胸腔未见积液征象。双肺野均可见小结节灶,大者直径约0.4CM,边缘略示模糊。扫描野内甲状腺内可见低密度灶,边界清晰。肝内示多发低密度结节及肿块影,部分融合,大者截面约6.5CM×3.4CM,边缘模糊,增强扫描可见不均匀强化。肝内胆管轻度扩张。另于肝内见类圆形囊性密度灶,大者直径约6.0CM,边界清,无强化,局部突出于肝实质之外。胆囊充盈可,壁不厚。胰、脾及肾上腺未见异常。双肾可见小的囊性密度灶,大者直径约0.5CM,边界清。腹腔内肝胃韧带区及腹膜后腹主动脉旁可见小淋巴结,大者短径约0.5CM。另多发胸椎、双侧部分肋骨可见成骨性及溶骨性骨质破坏,局部形成软组织密度影,椎管显示不清。	</t>
+  </si>
+  <si>
+    <t>1.右上中心型肺癌并阻塞性肺炎,纵隔淋巴结转移,较前(2016-09-02)相仿;2.右肺上叶结节,较前相仿,请随诊;3.左肺上叶舌段、右肺下叶炎症,较前片变小;4.双侧胸腔积液,较前片减少;5.双肺上叶肺气肿。右上肺门旁可见结节影,大小约3.8CM×2.3CM,平扫CT值约39HU,右肺上叶支气管受压、变窄,边缘可见细短毛刺;右肺上叶(44)可见不规则结节影,大小约1.4CM×0.9CM。双肺支气管血管束增强,左肺上叶舌段、右肺下叶斑片影。右肺门区饱满。所示气管支气管影通畅。双肺上叶见多发低密度囊腔。纵隔内可见增大的淋巴结,大者短径约1.9CM。两胸腔可见液性密度影。心脏大血管未见异常。</t>
+  </si>
+  <si>
+    <t>右肺下叶基底段见软组织肿块影,边缘模糊,有分叶,肿块最大截面约1.9CM×3.5CM,增强后可见显著强化;邻近胸膜可见增厚。右肺内、右侧肋胸膜、叶间胸膜及斜裂胸膜示多发结节灶,大者直径约0.3CM,增强后可见强化。左侧肺野清晰,未见异常。左锁上、纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结,短径约0.8CM。肝实质内见多发囊性密度灶,大者直径约3.0CM。胆囊充盈可,壁不厚。胰脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见囊性密度灶,短径约2.0CM。肝总动脉旁示增大淋巴结,短径约0.5CM。	1.结合临床,右肺下叶癌并右侧胸膜转移较前(2014-5-19)好转2.右肺结节灶,考虑转移,较前好转3.左锁上、纵隔、腹腔淋巴结肿大,较前缩小4.肝囊肿5.右肾囊肿。</t>
+  </si>
+  <si>
+    <t>右肺上叶纵隔旁见一团片状软组织密度影,大小约1.3CM×1.0CM(肺窗),边缘毛糙,与纵隔胸膜关系密切,增强后病变呈中等强化。另于双肺内见少许斑片状密度增高影。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。心包腔内示少量液性密度影。肝脏形态、大小可,密度均质,未见确切结节及肿块。肝内外胆管未见扩张。胆囊充盈欠佳,壁略厚伴强化。胰腺、脾及扫描野内右肾未见明显异常。双侧肾上腺增大,见软组织密度结节灶,大者直径约1.3CM,可见强化。左肾实质内见囊性密度影,长径约0.8CM,界清,无强化。腹腔及腹膜后未见确切增大淋巴结。	1.结合病史,右肺上叶癌治疗后,较2015-1-4片变化不著2.双侧肾上腺结节灶,考虑转移,较前变化不著3.双肺纤维灶,较前变化不著4.心包少量积液5.胆囊炎6.左肾囊肿。</t>
+  </si>
+  <si>
+    <t>1.右肺上叶中心型肺癌并阻塞性肺炎、阻塞性肺不张;右侧大量胸腔积液,对比2012-08-31片明显进展;右侧第2肋骨转移;2.左肺下叶病灶为新发病灶,考虑转移瘤;3.慢性支气管炎、肺气肿征象;4.左肺尖陈旧性病变。两肺支气管血管束增多、变细;两肺透过度明显增加,肺野内弥漫囊状透光区;右肺门增大,右肺上叶支气管腔明显狭窄,壁明显增厚,呈团块状、范围约5.4CM×3.4CM,CT值约34HU,增强扫描可见病灶呈轻度不均匀强化,三期CT值分别为47HU、69HU、60HU,右侧胸腔内可见大量积液征象,右肺膨胀不全。左肺下叶内基底胸膜下可见小结节影,径约为0.5CM。左肺尖可见片状及结节影,其内可见钙化;纵隔内可见增大的淋巴结,增强扫描呈环影强化;心影增大。主动脉和冠脉钙化。</t>
+  </si>
+  <si>
+    <t>右肺下叶基底段见软组织肿块影,边缘模糊,有分叶,最大截面约4.0CM×3.0CM(纵隔窗),增强后可见显著强化;邻近叶间胸膜可见增厚。右肺野内见多个结节灶,大者直径约0.5CM,部分与胸膜关系密切,增强后可见强化。左肺上叶胸膜下见直径约0.2CM小结节灶。左肺见多发索条状及斑片状密度增高影。右侧胸腔见液性密度影。左锁上、纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结,短径约0.9CM。肝实质内见多发囊性密度灶,大者直径约3.0CM。另肝内(2-52)动脉期见一强化结节灶,长径约0.8CM,延迟呈等密度。胆囊充盈可,壁不厚。胰、脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见囊性密度灶,短径约2.0CM。腹主动脉周围示淋巴结,大者短径约0.5CM。	1.结合临床,右肺下叶癌并右侧胸膜转移较前(2014-10-20)进展;右侧胸腔积液;右肺转移,较前进展2.左肺上叶类结节灶,变化不著,建议观察;左肺炎症3.左锁上、纵隔、腹膜后小或稍大淋巴结,较前变化不著4.肝囊肿5.右肾囊肿6.肝内强化灶,考虑血管瘤。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后改变,双肺转移,较前(2014-8-14)变化不著;肝转移较前进展;多发骨转移较前变化不著2.右侧腋窝囊性密度灶较前吸收。右乳术后缺如,部分胸肌尚存,术区未见异常强化灶。右侧腋窝结构紊乱,局部示一囊性密度灶,直径约2.4CM,可见环形强化。左乳及左侧腋窝未见异常。双肺野示多发结节灶,边缘较清,大者直径约0.3CM。右肺上叶及左肺下叶可见条索状密度增高影。双肺门及纵隔未见增大淋巴结。肝实质内示数个低密度灶,边缘较模糊,可见轻度强化,大者直径约2.5CM。胆囊充盈可,壁不厚。胰、脾、双肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。膀胱充盈可,壁不厚。子宫及双侧附件未见异常。盆腔内未见肿大淋巴结。部分胸腰椎及附件、部分肋骨、骶椎、右侧髂骨、双侧坐骨可见成骨性骨质破坏。	</t>
+  </si>
+  <si>
+    <t>静脉注射示踪剂FDG后60MMIN行PET/CT显像。PET/CT图像示右肺上叶尖段不规则软组织密度影,边缘分叶、毛刺,邻近胸膜示牵拉,截面约为2.7CM×2.5CM,放射性浓聚,最高SUV9.0。纵隔气管前腔静脉后(2R、4R)、血管前间隙(3A)、右肺门(10R)淋巴结肿大,大者短径约为1.3CM,放射性浓聚,最高SUV10.9;右锁上、右侧下肺静脉上方(9L)小淋巴结,大者短径约为0.5CM,轻度放射性摄取,最高SUV3.5。右前胸膜结节,轻度放射性摄取增高,短径约为0.7CM,最高SUV3.0。右乳腺术后,术区未见复发征象及异常放射性摄取。左乳腺及双腋窝未见异常放射性摄取。脑内未见确切异常密度灶,中线无移位。脑室无扩大。小脑显影如常,两侧小脑对称。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。左侧上颌窦粘膜增厚。腹部胃充盈好,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。腹壁软组织未见明显异常影像。盆腔内膀胱放射性浓聚如常,膀胱壁无增厚。两侧腹股沟无异常淋巴结显示。子宫形态尚可,子宫腔内液性密度影,放射性浓聚,最高SUV7.6,考虑为月经期子宫内膜增厚所致。两侧附件区未见异常放射性摄取。视野内轴心骨未见异常放射性浓聚。上、下肢关节带大致正常。视野内皮肤及软组织内未见异常放射性摄取。	1.右乳癌术后。2.右肺上叶原发性肺癌并纵隔、右肺门淋巴结转移;右锁上、纵隔9L区淋巴结,右前胸膜结节略高代谢,均考虑转移。3.左侧上颌窦炎症。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.右乳癌术后改变;多发骨转移,较前2016-5-24部分密度增高,大部分变化不著2.左肺钙化灶3.右肾囊肿4.腹腔内淋巴结肿大,较前略饱满。右乳术后缺如,术区皮肤略增厚,可见强化。右侧腋窝斑片状密度增高影,内见少许液性密度影,考虑为淋巴结清扫术后改变。左乳及左侧腋窝未见异常。左肺下叶见散小结节灶,直径约0.3CM。双肺门及纵隔内未见肿大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶,边界清晰,未见强化。腹腔内肝胃韧带区见稍大淋巴结,短径约0.8CM。腹膜后未见增大淋巴结。骨窗示:扫描野内多发胸腰椎体、胸骨、左侧锁骨、右侧肩胛骨、部分肋骨呈成骨性及溶骨性骨质破坏,局部呈膨胀性改变。	</t>
+  </si>
+  <si>
+    <t>左肺上叶纵隔旁示一不规则软组织密度结节灶,与纵隔内主肺动脉窗区肿大淋巴结分界不清,与左肺上叶支气管及左肺动脉关系密切。左肺野内见斑片索条状密度增高影,左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧胸腔内可见少许液性密度影及引流管影。左侧心包及左侧心膈角区可见多发结节影,大者长径约1.0CM。肝脏大小形态未见异常,肝实质内可见一小低密度灶,边界清。胆囊、胰腺、脾、双肾、肾上腺未见异常,腹腔腹膜后未见肿大淋巴结影。脑实质内未见异常密度影,脑沟、脑池未见增宽或狭窄,脑室大小、形态,位置正常,中线结构居中。增强:脑实质未见异常强化,脑沟、脑池、脑室内未见异常。	1.结合临床,左肺癌治疗后,较前(2016-3-30)片变化不著,左侧胸膜转移及叶裂转移较前变化不著2.左肺慢性炎症及纤维灶3.左侧少量胸腔积液较前变化不著4.左侧心包及心膈角区结节影,较前变化不著5.颅脑扫描未见异常6.肝囊肿。</t>
+  </si>
+  <si>
+    <t>左乳偏外侧象限见多发结节灶,部分边缘模糊、毛糙,大者职敬业1.7CM;增强扫描呈较显著不均匀强化。左侧腋窝见软组织密度影,边缘较毛糙,截面积约1.6CM×1.2CM;增强扫描呈较显著不均匀强化。左锁上间隙较模糊,可见片状低密度影,未见明确异常占位。纵隔内见小淋巴结影,大者短径约0.5CM。双肺野内见多发结节灶,部分边缘模糊,形态欠规则,大者直径约0.7CM。肝脏大小、形态可,实质密度均质。胆囊充盈欠佳,壁增厚并强化。左肾见小囊性密度灶。胰腺、脾、双侧肾上腺及右肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。膀胱壁不厚。子宫及双附件未见明确异常。盆腔内未见明确肿大淋巴结。右侧多发肋骨、左侧髂骨、左侧耻骨及坐骨示溶骨性骨质破坏。	1.结合临床,考虑左乳癌;左侧腋窝软组织影,考虑转移;骨转移;考虑双肺转移2.左侧锁骨上间隙模糊,建议结合临床3.胆囊炎4.左肾囊肿。</t>
+  </si>
+  <si>
+    <t>右颞叶、右侧小脑半球、右侧桥小脑结合臂见数个结节样异常信号,表现为T1WI等低信号、T2WI略高信号,压水序列高信号,增强扫描可见强化,大者直径约8MM,病变周围脑实质未见明显水肿带。脑室系统无扩张。中线结构居中。腰骶椎多个椎体及附件见多发结节样异常信号,表现为T1WI低信号,T2WI低信号,压脂序列高信号,增强扫描可见强化。多个椎体边缘见棘样骨质信号突起。椎体相对缘见斑片状异常信号,表现为T1WI高信号,T2WI高信号,压脂序列等信号,增强扫描无强化。所扫脊髓及椎管内未见异常信号。	结合乳腺癌术后病史,考虑脑多发转移瘤;腰骶椎多发转移瘤腰椎退行性变。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,直肠癌术后;考虑双肺转移,请结合前片。2.右侧精囊腺饱满、密度较低,请结合其他检查。3.考虑肝囊肿、双肾囊肿,右肾部分病变密度较高,请结合其他检查或观察。4.双侧胸膜略增厚。直肠术后,局部见金属吻合钉影,吻合口未见显著增厚及异常强化。膀胱充盈好,壁无增厚。右侧精囊腺略饱满,密度较低。左侧精囊腺及前列腺未见明显异常。左侧髂外血管旁示短径不足0.5CM淋巴结。双肺近胸膜下示多个结节灶,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约2.6CM,内示斑点状致密影及小空泡影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。肝脏实质内见斑片状低密度灶,边缘清晰,强化不著。肝内外胆管未见扩张。胆囊充盈可,壁增厚。双肾囊性密度灶,右侧部分密度略高。胰腺、脾及肾上腺形态、大小、密度未见异常。肠系膜区及腹膜后示短径不足0.5CM小淋巴结。	</t>
+  </si>
+  <si>
+    <t>右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见小淋巴结,大者直径约0.5CM。左肺野示数个结节灶,大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺饱满。胆、胰、脾及扫描野内右肾未见异常。左肾示直径约3.0CM的囊性密度灶。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示成骨性及混合性骨质破坏。1.结合临床,右乳癌术后,纵隔、双肺门淋巴结较前(2016-04-22)片变化不著,左肺转移,变化不著;左肾上腺转移,较前变化不著;骨转移,较前变化不著2.双肺炎症,基本变化不著3.心包少量积液,变化不著4.肝囊肿;左肾囊肿</t>
+  </si>
+  <si>
+    <t>右肺下叶后底段可见团块影,边界清晰,可见血管注入,最大层面3.47CM×2.57CM,CT值约48HU,增强后边缘略有强化,CT值57HU。气管隆突下见一增大淋巴结影,最大层面3.74CM×2.67CM,CT值在23-48HU之间,增强后环形强化,环形组织三期CT值分别是58HU、81HU、67HU。食管下段旁小淋巴结,环形强化。右肺上叶后段条带状阴影,最大层面1.68CM×0.73CM,CT值约10HU,增强22HU、33HU、41HU。两肺门区未见异常。所示气管支气管影正常。两胸腔无积液征象。心脏大血管未见异常。1.右肺下叶后底段占位,考虑恶性病变可能,气管隆突下增大淋巴结,转移性可能,请结合临床详查除外其他可能;2.右肺上叶后段条带状阴影,请结合临床详查。3.左上肺小絮状影,左下肺胸膜下小结节灶,请随诊。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,直肠癌术后,双肺转移瘤,较前2015-12-15部分增大,部分变化不著,部分考虑新发病灶2.双肾低密度灶,变化不著3.双侧胸膜略增厚,变化不著4.甲状腺低密度灶,变化不著5.双肾囊肿。双肺近胸膜下示多个结节灶及肿块,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约3.4CM(纵隔窗),内示小空泡影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶,边缘较清晰。肝脏实质密度均质。胆囊充盈可,壁不厚。胰、脾及双侧肾上腺未见异常。双肾见斑片状低密度灶,边界欠清。双肾内可见散在小囊性密度灶,边界清晰,未见强化。腹腔及腹膜后未见明显肿大淋巴结。直肠保肛术后,术区可见金属吻合钉影,周围肠壁未见明显增厚及异常强化。膀胱充盈可,壁不厚。前列腺及精囊腺未见异常。盆腔内未见积液及肿大淋巴结。	</t>
+  </si>
+  <si>
+    <t>左肺上叶近纵隔旁见软组织肿块影,边缘有毛刺,截面约1.5CM×1.2CM,增强后可见强化。双肺下叶示类结节灶。右肺下叶见少许条索影,余肺野清晰,未见异常。前列腺形态大小正常,边缘光整,与周围组织间隙清晰,实质内密度均匀。精囊腺形态大小密度正常。膀胱充盈好,壁不厚。盆腔内未见肿大淋巴结。左侧臀部肌群内见软组织肿块,邻近左侧髂骨骨质破坏,肿块最大截面约4.0CM×5.3CM。L4椎体可见局限性骨质密度减低。	1.结合临床,左肺癌,较前(2017-2-2)饱满2.左侧臀部肌肉转移累伴左髂骨骨质破坏,治疗后较前进展;L4椎体低密度灶,较前变化不著。</t>
+  </si>
+  <si>
+    <t>右乳术后缺如,术区皮肤略增厚,可见强化。右侧腋窝可见囊性密度灶,未见强化,考虑为淋巴结清扫术后改变。左乳及左侧腋窝未见异常。右侧内乳区略饱满。右肺上叶及左肺下叶可见散在类结节灶,边界较清,大者直径约0.3CM;余双肺野清晰,肺纹理走形自然,气管及各级支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶,边界清晰,未见强化。腹腔内肝胃韧带区见多发增大淋巴结,大者短径约0.8CM。腹膜后未见增大淋巴结。脑实质密度均质,未见明确异常密度灶。脑室、池未见扩张,中线结构居中。右侧上颌窦内可见少量液性密度影。骨窗示:扫描野内多发胸腰椎体、左侧锁骨、右侧肩胛骨、部分肋骨呈成骨性及溶骨性骨质破坏,局部呈膨胀性改变。	1.右乳癌术后改变;多发骨转移,较前2016-1-19变化不著2.双肺类结节灶,纤维灶可能,较前变化不著3.右肾囊肿4.腹腔内淋巴结肿大,变化不著5.右侧上颌窦炎症6.颅脑扫描未见明确异常。</t>
+  </si>
+  <si>
+    <t>左肺上叶可见一不规则软组织密度灶,大小约1.6CM×2.0CM,边缘毛糙,可见毛刺及胸膜凹陷征,增强扫描病变呈较显著、均匀强化。左下肺门区及内前基底段区见团片状、条片状软组织密度影,边缘毛糙,增强扫描可见强化;左肺下叶部分支气管略变窄。右肺上叶(4-26)、下叶(4-39)及左肺下叶(4-28)见类结节灶,边缘模糊。双肺内示索条状密度增高影。双肺上叶小叶间隔增厚,以左侧为著。双侧胸膜(含叶间胸膜)略厚。气管及左主支气管腔内示斑片、斑点状略高密度影。左侧胸腔内示带状液体密度影。右侧锁骨上区、纵隔内2R、3A、4R/L、7区、8区及左肺门可见多发肿大淋巴结,部分融合,大者短径约1.4CM,增强扫描可见强化。左锁上及右侧内乳区示短径不足0.5CM的小淋巴结。左侧膈肌升高,扫描野内肝内及左肾见小囊状无明显强化低密度灶,直径不足0.5CM,边界清。胆囊壁增厚。胸骨、多发椎骨、多发肋骨、双侧肱骨可见成骨性骨质破坏。右侧肩胛骨局部骨质密度增高。脑质内未见异常强化灶,脑沟、脑池未见增宽,脑室大小、形态及位置未见异常,中线结构无移位。右侧眼眶内侧壁局限性向筛窦侧塌陷,同侧内直肌略增粗。	1.结合临床,左肺癌化疗后,较前(2014-10-13)好转;右侧锁骨上、左肺门及纵隔淋巴结肿大,较前好转;多发骨转移,变化不著;考虑左肺癌性淋巴管炎2.左肺炎症,较前好转3.双肺类结节灶,建议观察4.双侧胸膜(含叶间胸膜)增厚5.左侧胸腔积液,较前增多6.肝囊肿,左肾囊肿7.胆囊炎8.气管及左主支气管内略高密度,考虑分泌物,请结合临床9.颅脑CT扫描未见异常改变10.右侧眼眶内侧壁局限性塌陷,请结合临床。</t>
+  </si>
+  <si>
+    <t>左肺门周围可见不规则软组织密度肿块影,约3.2CM×4.6CM,增强扫描呈明显不均匀强化,与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。右肺上叶近胸膜下示类磨玻璃密度灶。双侧胸膜及叶间胸膜上可见多发类结节灶,大者长径约0.6CM。纵隔内2R、4R、4L、5、6、7、8区示多发融合的淋巴结影,大者短径约2.0CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常,肝实质内可见数个囊性低密度灶,边界清,增强扫描无强化。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常,右肾上腺示一类结节灶,长径约3.6CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨密度略增高。	1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张、肺炎治疗后,较前(2016-10-27)变化不著;双侧胸膜多发结节灶,考虑转移,部分略缩小,部分变化不著;纵隔淋巴结转移,较前略增大;右肾上腺转移,变化不著2.肝囊肿;双肾囊肿;左肾低密度灶,胰腺低密度灶,变化不著,建议观察3.心包、左胸腔少量积液,略减少4.右肺类磨玻璃密度灶,建议观察5.部分椎骨密度略增高,较前密度增高,建议观察。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后改变,较前(2016-3-25)变化不著;肝转移,好转;考虑骨转移,较前密度增高2.右肺局限性纤维灶3.右肺小结节灶,考虑转移,部分显示欠清,部分变化不著4.考虑肝囊肿5.胆囊炎6.胰头部密度略减低,变化不著。右乳术后,术区结构紊乱,周围间隙模糊,皮下可见少许片絮状密度增高影,胸壁未见明显增厚。右侧腋窝结构紊乱,未见异常强化。左乳形态、密度未见异常,右侧腋窝见小淋巴结,短径不足0.5CM。左腋窝、双侧颈后三角区及左侧锁骨上示短径不足1.0CM淋巴结。双侧内乳区、肺门及纵隔未见增大淋巴结。右肺野内见数个小结节灶,大者长径约0.3CM(肺窗)。另右肺近前胸壁下示条片影。甲状腺右叶密度减低。肝内示低密度灶,边缘模糊,大者短径约1.0CM。另肝内示类囊性密度灶。胆囊壁增厚。胰头部密度略减低。腹腔、腹膜后未见肿大淋巴结。部分椎骨密度不均,以T10为著。	</t>
+  </si>
+  <si>
+    <t>1.右肺上叶后段周围型肺癌,纵隔淋巴结转移,与2014-01-07片比较明显增大,请结合临床;2.左肺尖及右肺下叶结节影,随诊;3.肝、脾及胰腺后方病灶,转移不除外,请结合相关检查。右肺上叶后段可见团块影,截面约2.87CM×3.78CM,CT值约32HU,增强有强化,三期CT值约43HU、45HU、47HU;病灶位于右肺门上区,腔静脉后及气管前可见团块影,截面约4.5CM×2.4CM,CT值约44HU,增强后不均匀强化,纵隔内见增大淋巴结。左肺尖见结节影,左肺下叶见结节影(47);各大血管边界清晰。主动脉,肺动脉主干及其左右分支内造影剂密度均匀。所示肝、脾内可见类圆形低密度灶;胰腺后方也见椭圆形软组织密度灶。</t>
+  </si>
+  <si>
+    <t>右肺上叶尖段支气管闭塞,前段及后段支气管管壁略厚,管腔狭窄,可见团块状稍高密度影,大小约6.5CM×6.5CM,可见浅分叶,边缘可见细短毛刺,CT值约20-35HU,右上支气管受压变窄,增强后扫描呈不均匀强化;右上肺动脉变窄,远端显示欠清,上腔静脉管腔狭窄,其内可疑充盈缺损;右肺中叶、下叶、左舌段可见索条灶,左肺下叶见片状高密度影;左肺下叶近斜裂(40)可见小结节影,径约0.4CM。双肺见多发局限性透亮影。纵隔内可见增大的淋巴结,部分融合,短径约2.6CM;右侧锁骨上淋巴结增大,大者短径约1.2CM。两胸腔无积液征象,右侧胸膜局限性增厚。心包内可见条形液体密度影,大血管未见异常。双侧腋窝内多发稍大淋巴结影,大者短径约0.7CM。1.右肺上叶团块影,考虑中央型肺癌,较前CT片(2016-08-12CT)略减小,纵隔、右侧锁骨上淋巴结转移;右上肺动脉变窄;上腔静脉管腔狭窄,瘤栓形成,较前相仿;请结合临床;2.肺气肿;双肺索条灶;左肺下叶炎症,较前相仿;3.心包积液;4.左侧斜裂小结节,较前相仿。</t>
+  </si>
+  <si>
+    <t>右乳术后,术区未见增厚及异常强化征象;右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结,短径不足0.5CM。左侧锁骨上示短径不足0.5CM小淋巴结。右肺上叶示团片状密度增高影,密度较均。左肺下叶示类圆形低密度影,内示斑点状致密影,边界欠清。左肺上叶胸膜下示小类结节灶。余肺内示斑片影及索条影,右肺为著。右肺门及纵隔内示大者短径约0.8CM淋巴结。肝实质内示多发低密度灶,边缘欠清,部分融合,大者长径约3.6CM,部分内示斑点斑片状致密影。胆胰脾双肾上腺未见明显异常。左肾示囊性密度灶,未见强化。余双肾内示斑片状低密度影。腹腔及腹膜后未见明显增大淋巴结。左侧半卵圆中心区局部密度偏低,未见明确强化灶。脑室系统未见明显异常。中线结构无移位。右侧部分肋骨及部分椎骨示略高密度影。	1.结合临床,右乳癌术后;右肺转移治疗后,较前(2016-12-19)基本变化不著;原左肺结节灶,较前变化不著;脑转移,较前基本消失不清2.纵隔增大淋巴结,变化不好租;右肺门淋巴结稍大;左侧锁骨上淋巴结,变化不著3.肝转移治疗后,较前基本变化不著4.左肾囊肿5.右肺少许炎症、纤维灶,基本变化不著;左肺小类结节灶,变化不著6.右侧部分肋骨及部分椎骨略高密度影,变化不著。</t>
+  </si>
+  <si>
+    <t>右肺下叶后基底段见一高密度团块影,大小约2.3CM×3.0CM,CT值约24HU,呈分叶状改变,与邻近胸膜关系紧密。双肺散在多发小结节状稍高密度影。两肺门区未见异常。纵隔内见多发小淋巴结。心脏大血管未见异常。第11胸椎椎体可见类圆形低密度影,骨质破坏。所示肝内低密度病变。与2014-04-22胸部CT比较:1.右肺下叶周围型肺癌,双肺转移瘤,较前片缩小;胸椎转移,未见明显变化;2.右侧胸腔积液,较前减少;3.所示肝内低密度病变,较前新发,详查。</t>
+  </si>
+  <si>
+    <t>右肺下叶周围型肺癌,双肺及纵隔淋巴结多发转移。右肺下叶后基底段团块影,大小约4.02CM×5.92CM,CT值约38HU,远端支气管截断;双肺多发粟粒影、结节影;双肺纹理增强,双侧支气管未见确切狭窄征象。两肺门大小、形态未见明显异常。纵隔及右侧锁骨上多发肿大淋巴结,大小约3.92CM,心脏、血管未见异常。双侧胸膜未见增厚,未见双侧胸腔积液征象。</t>
+  </si>
+  <si>
+    <t>小脑可见一约1.7CM×2.9CM的类卵圆形略长T1略长T2信号结节,边缘不整且压水像、DWI为高信号,增强后扫呈不均匀强化且周围伴有斑片状长T2信号的水肿带,四脑室受压狭窄变形;上述病灶左后可见一约0.4CM的强化灶。双侧大脑半球可见散在斑点状等T1略长T2信号影,压水像为高信号,DWI为等信号,增强后扫描无强化。脑室系统无扩大。中线结构居中。颈椎椎体边缘呈棘样突起且以前缘为著,但未见明显骨质破坏区。椎间盘C3/4、C4/5、C5/6向后突,相应硬膜囊受压狭窄变形,椎间隙略变窄。颈髓平扫未见异常信号区。	1.结合肺癌病史,小脑转移。2.脑多发小缺血灶。3.颈椎骨质增生,椎间盘C3/4、C4/5、C5/6突出。</t>
+  </si>
+  <si>
+    <t>右肺下叶切除术后,右下肺门区见软组织肿块影,截面约3.5CM×4.3CM。双肺内见多发结节灶,大者短径约2.3CM。双肺近纵隔周围见多发斑片状密度增高影,其内可见支气管充气征。右侧胸腔见少量液性密度影,右侧胸膜增厚。右锁上、右肺门、纵隔内2R、4R、7区见多发增大淋巴结,部分融合成团,大者短径约2.6CM。心包腔内见少量液性密度影。肝脏密度减低。腹腔内见多发肿大淋巴结,大者短径约2.4CM。脾实质内见一低密度灶,边缘模糊。左前下胸壁软组织内示梭形脂肪样密度影,边界清。骨窗示:左侧肩胛骨局部骨质结节状稀疏。	1.结合病史,右肺癌术后复发,较前(2016-10-05)片增大;右肺门、纵隔、右锁上淋巴结转移,基本稳定;双肺转移,较前进展;腹腔淋巴结肿大,考虑转移,部分略示增大,部分变化不著2.双肺炎症,变化不著;右侧少量胸腔积液,基本变化不著,心包积液,变化不著;右侧胸膜增厚,变化不著3.左胸壁脂肪瘤,变化不著4.脾实质内低密度灶,变化不著,建议观察5.脂肪肝6.左侧肩胛骨局部骨质稀疏,变化不著。</t>
+  </si>
+  <si>
+    <t>左乳术后缺如,胸肌尚存,左侧胸大小肌之间见一软组织肿块影,边缘模糊,直径约2.8CM,增强后示中度不均质强化。另于前胸壁皮肤见一突起的软组织密度灶,长径约4.0CM,增强后示中度强化。双锁上、左肺门、纵隔内右上气管旁、血管前间隙、主肺动脉窗区、腔静脉后方、气管隆突下示肿大淋巴结,大者短径约1.0CM。双侧肺野内见多发结节灶,边缘清晰,大者直径约1.1CM,增强后示强化。鼻咽、口咽、喉咽形态可,各壁未见明显增厚及强化。双颈动脉鞘未见肿大淋巴结。骨窗示:多发胸椎、肋骨、腰椎L5椎体上缘可见高密度骨质破坏区,骶骨未见明显异常	结合临床,左乳癌术后,术区复发并前胸壁转移,较前14.5.9略示缩小;左颈部、双锁上、左肺门、纵隔淋巴结肿大,考虑转移,部分缩小;双肺转移,略示好转;伴多发骨转移。</t>
+  </si>
+  <si>
+    <t>右乳术后,右胸壁(4-22)见一直径不足0.5CM小类结节。右腋窝结构紊乱,未见肿大淋巴结。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一类结节灶,边界模糊。双侧内乳区、肺门、纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块,大者直径约4.2CM,边缘模糊,轻度强化。胆囊充盈可,壁示增厚。胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。胸骨及胸椎局部密度稍高。	1.结合临床,右乳癌术后,右胸壁类结节灶,较前2017-1-10强化减低;肝转移,大部分变化不著,部分增大,部分略缩小;右肺结节灶,变化不著2.左肺纤维灶,变化不著3.胆囊炎4.部分骨质密度稍高,变化不著。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.右肺下叶癌并右侧胸膜(含叶间胸膜)转移较前2016-05-24变化不著;右肺门、纵隔小淋巴结,较前变化不著;多发骨质异常,较前变化不著2.上腹部扫描未见明显异常。右肺下叶背段可见不规则软组织密度肿块,截面大小约1.3CM×0.9CM,边缘浅分叶,周围可见多发长短毛刺,胸膜可见牵拉凹陷,增强后呈较显著不均质强化。左侧肺野较清晰。右侧胸膜(含叶间胸膜)可见不均匀增厚,可见多发结节灶,增强后呈较显著强化。左锁上、右肺门、纵隔内2R、4R、7区可见多发略肿大淋巴结,大者短径约0.5CM。右侧胸腔内见少量液性密度影。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。骨窗示:右侧第三、六、七肋骨示溶骨性骨质破坏。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,左乳癌术后;卵巢转移术后,术区片状低密度影,较前2015-8-24范围略缩小2.网膜、肠系膜及盆腹膜转移治疗后,较前局部减轻3.脂肪肝;肝囊肿;肝内低密度灶,变化不著4.右肾囊肿5.宫颈体积增大,变化不著6.胸腰骶椎、肋骨、髋骨骨质密度增高,考虑转移,较前大部分变化不著,部分密度增高7.腹腔少量积液,较前减少。左乳术后缺如,术区结构紊乱,周围脂肪间隙模糊,部分胸肌尚存,术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱。右乳未见明确异常。左侧锁骨上间隙较模糊。左肺门示短径约0.6CM淋巴结。右侧腋窝、双侧内乳区、右肺门及纵隔未见明确肿大淋巴结。左肺示少许斑片影。右肺未见明确异常密度灶。肝脏密度减低,内见囊性密度灶,边界较清,直径约2.0CM。另肝内示斑片状低密度灶,强化不著,边界欠清。胆囊、胰腺、脾、双侧肾上腺及左肾未见明确异常。右肾见短径不足0.5CM的小低密度灶。腹腔内肝胃韧带区、腹膜后腹主动脉周围见小淋巴结,大者短径约0.6CM。网膜及肠系膜、盆腹膜示增厚,局部呈斑片状及结节状改变,部分与邻近肠管分界不清,增强呈不均匀强化。腹腔内可见液性密度影。卵巢术后,术区结构紊乱,周围间隙模糊,可见片状低密度影,与周围结构分界不清。宫颈体积增大,密度欠均匀。膀胱充盈可,壁略增厚。盆腔内未见明确肿大淋巴结。多发胸腰骶椎椎体及附件、双侧部分肋骨、双侧髋骨示骨质密度增高,局部可见结节状高密度影。双侧肱骨、股骨及左侧肩胛骨密度欠均。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后,肝转移2.胆囊炎。右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内未见肿大淋巴结。双肺野清晰。肝脏实质内可见数个低密度结节灶,大者直径约0.9CM,边缘模糊,轻度强化。胆囊充盈可,壁示增厚。胰、脾及扫描野内双肾未见异常。腹膜后未见肿大淋巴结。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后;肝转移,较前2016-09-01进展;右肺结节灶,较前缩小2.左肺纤维灶3.胆囊炎。右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱,未见肿大淋巴结。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一类结节灶,边界模糊。双侧内乳区、肺门、纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块,大者直径约4.0CM,边缘模糊,轻度强化。胆囊充盈可,壁示增厚。胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。	</t>
+  </si>
+  <si>
+    <t>右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺下叶可见条索状密度增高影,余肺野清晰。纵隔内未见肿大淋巴结。双肺野清晰。肝脏实质内可见多发低密度肿块,大者直径约2.7CM,边缘模糊,轻度强化。胆囊充盈可,壁示增厚。胰、脾及扫描野内双肾未见异常。腹膜后未见肿大淋巴结。	1.结合临床,右乳癌术后,肝转移,较前2015-2-25进展2.左肺下叶纤维灶3.胆囊炎。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后2.左肺门、纵隔淋巴结转移,较前(2015-10-27)变化不著3.双肺炎症及纤维灶,变化不著;双侧胸膜略增厚,变化不著,双侧胸腔积液增多4.双肺小结节灶,变化不著5.肝囊肿、钙化灶6.右肾囊肿7.右肾上腺结节灶,考虑腺瘤,变化不著8.甲状腺低密度灶,变化不著。右乳术后,前胸壁软组织略增厚,未见明显异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺门、纵隔内主肺动脉窗区可见肿大淋巴结,直径约2.0CM。右肺门淋巴结略增大,短径约0.8CM。左肺上叶支气管受压狭窄,远端肺野近纵隔旁可见带状密度增高影,另双肺内见斑片状密度增高影,右肺下叶为著。余双肺散在小结节灶,大者直径约0.4CM。双侧胸膜略增厚,双侧胸腔内可见液性密度影。甲状腺示斑片状低密度灶。肝内见囊性密度灶及斑片状致密影。胆囊壁增厚。右肾示小囊性密度灶。右肾上腺可见结节灶,直径约0.8CM,密度较低,强化不明显。骨窗示多发胸椎椎体、肋骨骨质略示稀疏。	</t>
+  </si>
+  <si>
+    <t>右肺下叶见团块影,径约为3.5CM,CT值约为38HU,增强后CT值约为53HU、48HU及66HU,边缘可见毛刺影及胸膜凹陷;右肺另见多发大小不等界清结节影。右肺下叶条片状实变,内见含气支气管影,增强后明显强化。左肺小结节(37、33),纵隔内见数个增大的淋巴结,大者短径约为1.9CM。心脏大血管形态自然。右侧胸腔内见弧形积液征象,增强后右胸膜见结节状强化。1.上述征象考虑右肺下叶周围型肺癌可能大,并双侧肺多发转移灶可能,纵隔多发淋巴结转移,右侧胸膜转移及右侧胸腔积液征象,请结合临床详查除外其他可能;2.右肺下叶部分实变,请随诊。</t>
+  </si>
+  <si>
+    <t>1.前上纵隔胸腺癌,双肺多发转移、纵隔淋巴结转移,双侧胸腔积液、胸骨骨质转移性骨破坏;2.双肺下叶炎症。前纵隔内可见软组织密度影,边界欠清,最大截面约2.1CM×4.6CM,CT值约57HU,相邻胸骨可见多发骨质破坏区;两肺纹理增强,双肺可见多发大小不等类圆形高密度影,大者径约1.1CM;双肺下叶可见斑片状高密度影,边界模糊;双肺门区未见异常,所示气管支气管影通畅;纵隔内可见多发增大的淋巴结,大者位于主动脉弓旁,径约1.25CM;双侧胸腔可见弧形液体密度影,心脏不大。</t>
+  </si>
+  <si>
+    <t>右肺下叶可见团块影,与右肺门影分界不清,边界欠清,CT值约为29HU,其内密度不均,大小约为8.9CM×4.8CM,邻近肺组织可见模糊影,右肺下叶内基底段支气管不通。双肺可见多发的大小不等的小结节影,大者径长约1.9CM;右肺斜裂增厚、右肺中叶条片状的高密度影。纵隔内可见多发肿大的淋巴结。两胸腔积液征象,右侧显著。心包积液。甲状腺明显肿大。右侧胸壁下可见结节影,径约1.1CM。左侧第6前肋局部密度增高。1.考虑右肺下叶周围型肺癌可能,双肺多发转移,右胸膜转移,较2015-01-20CT进展,请结合临床;2.双胸腔积液,右胸腔引流术后改变;心包积液;3.甲状腺大;4.左侧第6前肋局部密度增高,较前相仿;请结合临床。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张,较前(2016-12-12)变化不著;肺炎治疗后,较前进展;双侧胸膜多发结节灶,考虑转移,部分略缩小,部分变化不著;纵隔淋巴结转移,较前略缩小;右肾上腺转移,变化不著2.肝囊肿;双肾囊肿;左肾低密度灶,胰腺低密度灶,变化不著,建议观察3.心包、左胸腔少量积液,略减少4.部分椎骨及肋骨密度略增高,较前变化不著。左肺门周围可见不规则软组织密度肿块影,约3.0CM×4.3CM,增强扫描呈明显不均匀强化,与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。双肺内见多发斑片状密度增高影。双侧胸膜及叶间胸膜上可见多发类结节灶,大者长径约0.6CM。纵隔内2R、4R、4L、5、6、7、8区示多发融合的淋巴结影,大者短径约1.4CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常,肝实质内可见数个囊性低密度灶,边界清,增强扫描无强化。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常,右肾上腺示一类结节灶,长径约3.6CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨、肋骨密度略增高。	</t>
+  </si>
+  <si>
+    <t>空腹6H以上,静脉注射显像剂,平静休息60MMIN后行CT和PET全身断层显像,PET图像经衰减校正、迭代法重建后行多层面、多幅显像,并与CT图像进行融合。影像清晰。PET/CT示右侧乳腺术后,术区及对侧乳腺未见异常放射性摄取升高;双侧卵巢示放射性浓聚块状影,最高SUV13.6,肿块融合成团,长径达9.9CM;腹腔网膜内、盆腔髂血管旁示结节状放射性摄取升高,最高SUV6.0,大者长径约为1.7CM;膈肌旁示肿大淋巴结,短径约为1.0CM,呈轻度放射性摄取,最高SUV2.0;肝内、肝脾包膜及肠系膜内示多发结节状放射性摄取升高,最高SUV6.6,大者长径约为2.4CM;腹腔内示少量液性密度影,胆囊内示高密度结节。脑部正常显影。左侧上颌窦粘膜示增厚,咽部示对称性放射性摄取升高,甲状腺体积饱满,呈对称性放射性摄取升高,最高SUV3.6;右肺中叶内示小片状放射性摄取升高,最高SUV2.4,余双肺示小结节,未见异常放射性摄取;脾不大。双肾及双侧输尿管显影正常。腹部可见数个形态不一、条管状、浓淡不一的正常肠影。全身骨骼未见异常浓聚影。1.右乳癌术后;考虑卵巢癌并腹盆腔淋巴结转移、肝转移、腹膜转移并腹腔少量积液。2.左侧上颌窦炎;考虑咽炎、甲状腺炎、右肺局限性炎症;双肺结节及膈肌旁淋巴结肿大,建议观察。3.胆囊结石。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,考虑左肺癌;左肺门淋巴结转移,较前(2016-08-08)示增大2.右肺钙化灶3.肝内多发低密度灶,部分为囊肿,部分建议观察,变化不著4.右肾囊肿5.部分肋骨骨质异常,不除外转移,较前变化不著。左肺上叶见一不规则软组织密度肿块影,边缘分叶、毛糙,上叶支气管部分示截断,病变向内与左肺门肿大淋巴结分界不清,截面积约3.6CM×3.2CM;增强扫描呈不均匀强化。右肺野内见结节状致密影。左侧胸壁见高密度影,局部伪影较大,周围结构显示不清。左肺门见肿大淋巴结,短径约1.5CM。纵隔内见多发小淋巴结,大者短径约0.5CM。双侧胸膜示不均匀增厚并强化,双侧胸腔内见少量液性密度影。肝实质内见多发低密度灶,大部分边界较清,少许边缘模糊,大者直径约0.5CM。胆囊充盈可,壁增厚。右肾见囊性密度灶,边界清。腹腔及腹膜后未见明确肿大淋巴结。左侧第10、8肋骨示骨质膨胀,骨皮质欠连续,局部骨质密度增高或减低。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,直肠癌术后;双肺转移瘤,较前2015-9-17部分增大,部分变化不著2.双肾低密度灶,较前无明显变化,建议继续观察或结合MR检查3.肝内钙化灶4.双侧胸膜略增厚,变化不著5.右侧甲状腺低密度灶,建议观察。双肺近胸膜下示多个结节灶,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约2.4CM,内示斑点状致密影及小空泡影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。右侧甲状腺见低密度灶,边缘较清晰。肝内见点状钙化灶。胆囊充盈可,壁增厚。双肾见多发低密度灶,边界较清,部分密度略高。胰腺、脾及肾上腺形态、大小、密度未见异常。肠系膜区及腹膜后示短径不足0.5CM小淋巴结。直肠术后,吻合口未见增厚及异常强化。膀胱、前列腺及双侧精囊腺未见异常。盆腔内未见肿大淋巴结及积液。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右肺癌治疗后,较前片2015-1-4略示缩小;双肺多发类结节灶,部分较前好转;右肺门、纵隔淋巴结转移,变化不著。2.右肺下叶炎症,右肺下叶小叶间隔增厚,变化不著。3.右侧少量胸腔积液,较前减少;右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根示密度增高影。。右肺下叶见不规则斑片状软组织影,边缘毛糙,大小不易测量,增强后中度强化;其远端肺野见斑片状及索条状密度增高影。另右肺下叶小叶间隔增厚。余双肺野可见多个类结节灶,部分位于胸膜下,边缘模糊,大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结,大者短径约1.1CM,部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。扫描野内肝内见一斑点状钙化灶。T12右侧椎弓根示斑片状密度增高影。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,左侧乳腺癌术后,局部胸壁类结节灶,建议观察;左侧内乳淋巴结转移,较前(2015-7-23)好转2.纵隔、右侧腋窝淋巴结肿大,考虑转移,较前部分缩小,部分变化不著3.右侧心膈角淋巴结肿大,较前增大,转移不除外4.脂肪肝;肝囊肿5.左肺上叶胸膜下慢性炎症及纤维变,变化不著。左侧乳腺术后,局部胸壁结构紊乱,见(2-17)类结节灶。右侧乳腺形态、大小、密度未见异常。左侧腋窝结构紊乱,未见增大淋巴结。左侧内乳区见短径约1.1CM淋巴结。右侧内乳区见短径不足0.5CM小淋巴结。右侧腋窝见多发增大淋巴结,大者短径约0.6CM。纵隔内血管前间隙3A、气管前间隙4R、弓旁6区见多发增大淋巴结,大者短径约1.2CM。右侧心膈角见短径约0.8CM淋巴结。左肺上叶胸膜下见少许条索状影。双侧胸腔内未见液性密度影。扫描野内肝脏密度减低,右叶见直径约0.8CM囊性密度灶,边缘清晰。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合病史,右肺上叶癌治疗后,病变较2015-07-23片略增大2.双侧肾上腺结节灶,考虑转移,左侧较前略增大3.双肺纤维灶4.心包少量积液5.左肾囊肿6.颅脑扫描未见异常。右肺上叶纵隔旁见一团片状软组织密度影,大小约1.8CM×2.2CM(肺窗),边缘毛糙,与纵隔胸膜关系密切,增强后病变呈中等强化。另于双肺内见少许条索状密度增高影。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。心包腔内示少量液性密度影。肝脏未见异常密度灶。双侧肾上腺增大,见软组织密度结节灶,大者位于左侧,约1.8CM×2.9CM,可见强化。胆胰脾及右肾未见异常。左肾示囊性密度灶,直径约0.8CM,边界清,无强化。脑实质均质,未见异常密度灶。脑室系统未见扩张。中线结构居中。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后2.左腋窝小淋巴结;纵隔淋巴结略增大3.脂肪肝;肝囊肿;脾内低密度灶,考虑囊肿4.胆囊结石5.考虑左侧肱骨头转移。右乳术后缺如,术区未见异常增厚及强化。左乳未见异常。左腋窝示数个小淋巴结,大者短径约0.5CM。右锁骨上区脂肪间隙略示模糊;上纵隔气管右旁及腔静脉后气管前示略大淋巴结,短径约0.7CM。扫描野内肝脏密度减低。胆囊可见结节状致密影。肝及脾内均示低密度灶,大者直径约1.3CM,边界清,强化不著。双肺野清晰。左侧肱骨头可见骨质破坏。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右肺下叶肺癌术后改变;右肺门、纵隔淋巴结转移部分较前进展,部分变化不著2.右肺炎症纤维灶较前进展3.甲状腺体积增大并低密度灶,考虑为结节性甲状腺肿,变化不著4.双肺气肿,双肺炎症,较前加重5.左肺结节灶,考虑转移。右肺下叶部分术后,局部术区可见包裹性及部分游离性液体密度影,邻近胸膜可见增厚。双肺野可见斑片状及条索状密度增高影,边缘模糊。左肺野可见多发结节灶,部分靠近胸膜,大者直径约0.6CM。另于双肺野内见多发泡状过度透光区。纵隔内3A、4R、4L、6、7区及右肺门示多发肿大淋巴结,大者短径约2.5CM。胸廓骨质未见破坏。甲状腺右侧叶体积增大,向下凸入右上纵隔,其内密度不均,可见低密度区,周围散在点状致密灶,左侧叶内亦可见低密度灶,均边界清晰。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右肺癌并阻塞性炎症,较前片(2014-11-6)好转2.原左肺下叶结节灶,变化不著;双肺多发结节灶,转移可能性大3.肝囊肿4.部分胸椎体及肋骨骨质密度增高,变化不著,转移可能性大,请结合临床5.右肾低密度灶,建议观察。右肺中叶支气管开口处见一不规则软组织密度肿块影,边缘模糊,病变大小不易测量,增强后可见轻度强化。病变远端示片状肺不张影。双肺见多发结节灶,大者直径不足0.5CM。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶,大者直径不足0.5CM。右肾见直径约0.5CM低密度结节灶,未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分胸椎骨质密度增高,右侧第3肋局限性骨质密度增高。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">结合临床,左乳癌术后,术区复发并前胸壁转移,较前(2014-9-26)部分好转,部分变化不著2.左锁上、左肺门、纵隔小淋巴结,变化不著;左颈部淋巴结稍大3.双肺转移,较前大部分变化不著,部分增大4.多发骨转移,较前大部分变化不著,部分密度增高5.肝内低密度灶,较前似缩小,建议观察6.左肾未见显示,请结合临床。左乳术后缺如,胸肌尚存,左侧胸大小肌之间见一软组织肿块影,边缘模糊,直径约1.7CM,增强后示中度不均质强化。另于前胸壁皮肤局部增厚呈软组织密度影,增强后示中度强化。左锁上、左肺门、纵隔内右上气管旁、主肺动脉窗区、腔静脉后方、气管隆突下、左侧颈后三角区小淋巴结,大者短径不足1.0CM。双肺见小结节灶,大者直径约0.6CM。肝左外叶内见一低密度灶,边缘略示模糊,大者直径不足0.5CM。胆囊充盈可,壁不厚。胰脾、双侧肾上腺及右肾未见异常。扫描野内左肾未见显示。腹腔及腹膜后未见明显肿大淋巴结。骨窗示:胸骨、部分胸腰椎椎体、肋骨见骨质破坏区。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、结合临床,右乳癌,右侧腋窝淋巴结肿大,考虑转移2.双肺下叶炎症;2、肝内低密度灶,建议定期复查3、颅脑扫描未见异常。右乳外上象限示一软组织肿块影,呈浅分叶状,与周围腺体分界欠清,最大截面约4.1CM×2.8CM,增强扫描边缘明显强化,肿块与胸大肌见脂肪间隙清晰,右侧腋窝见多枚肿大淋巴结,较大者短径约1.3CM。右乳皮肤局部略示增厚。左乳未见明显异常。双侧内乳区未见明显增大淋巴结。双肺纹理清晰,两肺下叶外基底段见斑片状、索条状高密度。纵隔居中,内未见确切肿大淋巴结,心影大小形态尚可,双侧胸膜无增厚,胸腔无积液,胸壁未见异常。扫及肝右前叶下段见类圆形低密度,截面大小约0.4CM×0.5CM,增强扫描未见强化。双侧大脑半球对侧,灰白质分界清楚,脑实质内未见确切异常密度灶,增强扫描未见强化,脑室系统未见扩大、脑沟、裂、池未见增宽,中线结构未见移位。	</t>
+  </si>
+  <si>
+    <t>1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移,肿块较2014-04-02CT缩小,空洞形成;2.右肺下叶炎症,请随诊;3.所示多发骨转移征象,右侧第10后肋病理性骨折,较前胸骨柄内病灶较前范围增大。右肺下叶背段(30)见椭圆形肿块影,径约1.9CM,边缘不规整,可见多发毛刺影,并见血管影进入,牵拉邻近胸膜,内空洞形成,CT值约8HU。右肺下叶见斑片影。右肺门区及纵隔内可见多发肿大淋巴结影,大者短径约1.65CM。两胸腔无积液征象。心脏大血管未见异常。双侧第10后肋、胸骨柄及胸骨体内可见高密度影,胸2附件骨质可见溶骨性破坏区。</t>
+  </si>
+  <si>
+    <t>右肺下叶基底段见软组织肿块影,边缘模糊,有分叶,左肺下叶支气管示截断,病变与远端膨胀不全肺组织分界不清,大小不易测量,增强后可见不均匀强化;邻近叶间胸膜可见增厚。右肺野内见多个结节灶,大者直径约0.5CM,大部分与胸膜关系密切,增强后可见强化。左肺上叶胸膜下见直径约0.2CM小结节灶。左肺见少许索条状及斑片状密度增高影。右侧胸膜示增厚并可见强化。右侧胸腔见液性密度影。左锁上伪影较大,间隙模糊。纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结,大者短径约0.9CM。肝实质内见多发囊性密度灶,大者直径约3.0CM。另肝内动脉期见一略强化结节灶,延迟略呈等密度灶。胆囊充盈可,壁不厚。胰、脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见低密度灶,短径约1.1CM,增强局部似见强化。腹主动脉周围示淋巴结,大者短径约0.5CM。	1.结合临床,右肺下叶癌治疗后,较前(2014-12-08)病变示变化不著,周围肺不张示范围增大;右侧胸膜增厚,考虑转移,变化不著;右侧胸腔积液,较前增多;右肺转移,变化不著2.左肺上叶类结节灶,变化不著,建议观察;左肺炎症3.纵隔、腹膜后小或稍大淋巴结,较前变化不著4.肝囊肿5.右肾低密度灶,较前缩小,建议进一步检查6.肝内强化灶,较前变化不著,考虑血管瘤。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后;部分椎体密度增高,考虑转移,较前片(2016,08,23)变化不明显2.肝囊肿3.左肺类结节,变化不明显;右肺少许纤维灶4.肝内强化灶,考虑血管瘤。肝脏大小形态可,实质内示低密度影,边界清晰,增强扫描未见强化,直径不足0.5CM。另肝左叶动脉期见一长径约0.7CM强化结节,延迟呈等密度。胆囊不大,壁不厚。胰腺、双侧肾脏、双侧肾上腺及脾未见异常。腹腔及腹膜后未见肿大淋巴结。右乳术后,术区结构紊乱,胸肌存在,壁未见增厚及异常强化。右侧腋窝结构紊乱。左侧腋窝、双侧内乳区、肺门及纵隔未见增大淋巴结。左肺见小类结节,直径不足0.5CM。右肺见少许索条影。双侧胸膜未见增厚。双侧胸腔未见积液征象。椎体局部密度增高。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌并双肺转移、肝转移治疗后,较前(2015-05-13)明显好转;双侧腋窝、纵隔多发小淋巴结,变化不著;右侧内乳区淋巴结肿大,变化不著2.左肺胸膜局限性增厚,局部钙化,变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影,约4.7CM×3.1CM,边缘浅分叶,局部与周围腺体及乳头区皮肤分界不清,胸肌间脂肪间隙模糊,增强扫描见显著不均匀强化,其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结,大者短径约0.6CM。右侧内乳区见增大淋巴结,短径约0.5CM。纵隔内左侧下肺静脉旁见短径约0.6CM的淋巴结影。双肺野散在分布大小不等结节灶,大者直径约1.7CM,边缘清晰,局部与胸膜及纵隔关系密切,增强扫描可见强化。左肺胸膜增厚,局部呈结节样;局部见多发钙化灶并致局部肋骨欠规则。扫描野肝实质内见多个低密度灶,大者直径约1.3CM,边缘尚清晰,增强扫描边缘强化显著,部分呈牛眼征。	</t>
+  </si>
+  <si>
+    <t>右乳腺体内、皮肤区、右胸壁、右腋窝及扫描野内右颈根部可见多发软组织密度灶,边缘毛糙,增强后呈不均质明显强化,部分相互融合,右腋窝者局部可见溃疡形成。右侧胸壁及右上臂软组织肿胀。左乳未见异常。左侧腋窝、双侧内乳区、气管右旁可见增大淋巴结,大者短径不足1.0CM。双肺内可见散在类圆形结节灶,边界较清晰,大者直径约0.6CM。甲状腺体积增大,局部可见低密度灶及钙化灶。右侧胸腔示少许液性密度影,双侧胸膜略增厚。扫描野内肝脏实质密度减低。胆囊充盈可,壁略厚。右侧锁骨呈内固定术后改变。右侧部分肋骨密度欠均。	1.右乳癌侵及皮肤及胸壁并右侧胸壁转移、右腋窝及右颈根部淋巴结转移治疗后,较前(2016-5-20)部分好转,部分变化不著;双肺转移,较前好转2.左侧腋窝、双侧内乳区、纵隔增大淋巴结,部分缩小,部分变化不著3.甲状腺增大伴低密度灶及钙化灶,考虑变化不著4.脂肪肝5.右侧胸腔少量积液6.右侧锁骨术后改变。</t>
+  </si>
+  <si>
+    <t>右肺下叶基底段见软组织肿块影,边缘模糊,有分叶,肿块最大截面约1.8CM×3.4CM,增强后可见显著强化;邻近胸膜可见增厚。右肺内、右侧肋胸膜、叶间胸膜及斜裂胸膜示多发结节灶,大者直径约0.3CM,增强后可见强化。左侧肺野清晰,未见异常。左锁上、纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结,短径约0.8CM。肝实质内见多发囊性密度灶,大者直径约3.0CM。胆囊充盈可,壁不厚。胰脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见囊性密度灶,短径约2.0CM。肝总动脉旁及腹主动脉周围示增大淋巴结,大者短径约0.5CM。	1.结合临床,右肺下叶癌并右侧胸膜转移较前(2014-7-4)变化不著2.右肺结节灶,考虑转移,较前变化不著3.左锁上、纵隔、腹腔淋巴结肿大,较前变化不著;腹膜后小淋巴结4.肝囊肿5.右肾囊肿。</t>
+  </si>
+  <si>
+    <t>右肺上叶支气管壁示增厚,周围见不规则软组织肿块,增强后呈不均匀强化;右肺中叶支气管局部狭窄,远端见不张肺组织。双肺支气管血管束增粗,小叶间隔增厚,以右肺为著。双肺见多发结节灶,部分边缘毛糙,大者长径约1.4CM。双侧叶间胸膜增厚,局部呈类结节状。双侧肺门及纵隔、右侧锁骨上见大者短径约1.2CM肿大淋巴结。另右肺门及纵隔见钙化灶。左侧颈内静脉局部见低密度充盈缺损。肝内见多发强化灶,大者长径约1.2CM。另肝内见小低密度灶,强化不著。肝内见斑点状钙化灶。双侧肾上腺见类结节灶,可见强化。双肾见低密度灶,边缘不清,似强化。双肾见囊性结节。胆囊内见结节状高密度影。腹腔及腹膜后见短径约0.6CM小或稍大淋巴结。双侧肩胛骨、胸骨、右侧锁骨、多发肋骨及椎骨示多发骨质破坏。	1.结合临床,右肺癌并双肺、肝,双侧肾上腺转移,双肺门及纵隔、右侧锁骨上淋巴结转移;较前片(2016-9-22)示好转;骨转移,考虑较前进展;腹腔淋巴结稍大,变化不著;双侧叶间胸膜增厚,转移可能性大,略好转2.双肾低密度灶,略好转;双肾囊肿3.肝低密度灶,囊肿可能,变化不著;肝内钙化灶4.左颈内静脉栓子形成5.胆囊结石。</t>
+  </si>
+  <si>
+    <t>1、右肺下叶周围型肺癌并远端阻塞性肺炎,较2013-05-28CT未见显著变化,周边粟粒灶,左肺上叶前段结节,左肺下叶背段斜裂处结节,较前进展;右肺门、纵隔淋巴结稍大,较前相仿;2、肝内多发低密度灶;3、胸椎成骨性转移。右肺上叶可见索条影;右肺下叶可见肿块影,大小为6.73CM×5.87CM,CT值约为46HU,增强时其内密度不均,呈明显强化;边缘不规整,可见毛刺及分叶,邻近胸膜粘连;病灶周边见小粟粒灶。左肺上叶前段可见结节灶,径约1.30CM。左肺下叶背段近斜裂处见小结节影,径约0.41CM;右肺门、纵隔淋巴结增大,大者短径1.70CM。心脏大血管未见异常。胸3椎体内可见片状高密度影。肝内可见多发低密度影。</t>
+  </si>
+  <si>
+    <t>右肺下叶见不规则斑片状软组织影,边缘毛糙,大小不易测量,增强后中度强化;其远端肺野见斑片状及索条状密度增高影。余双肺可见小类结节灶,边缘模糊,大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结,大者短径约1.1CM,部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝内见一斑点状钙化灶。胆囊充盈可,壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶,大者短径约0.6CM。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。T12右侧椎弓根示斑片状密度增高影。	1.结合临床,右肺癌治疗后,较前片2015-8-25变化不著;双肺类结节灶治疗后,变化不著;右肺门、纵隔淋巴结转移治疗后,较前变化不著。2.右肺下叶炎症、纤维灶,变化不著。3.右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影,变化不著。6.颅脑CT扫描未见明显异常。</t>
+  </si>
+  <si>
+    <t>左肺下叶后基底段及左肺上叶下舌段见团块影,大者大小约2.93CM×4.13CM,CT值约23HU,边界较清,边缘可见胸膜牵拉,增强扫描均匀强化,三期CT值分别约36、47、55HU。左肺可见多发实性结节,大者径约0.84CM。两肺纹理清晰。两肺门区未见异常。所示气管支气管影正常。纵隔内见稍大淋巴结,短径约1.18CM。两胸腔无积液征象,左侧胸壁可见胸膜增厚影。心脏大血管未见异常。1.左肺下叶后基底段占位,多考虑周围型肺癌、左肺多发转移;纵隔内多发稍大淋巴结;2.左侧胸膜增厚。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右侧中心型肺癌并阻塞性不张治疗后,右肺中下叶不张并右肺下动脉、肺静脉及左心房栓子形成;右肺门淋巴结肿大,较前(2015-12-1)增大;右侧胸膜增厚,考虑转移,较前明显;骨转移,变化不著;脑转移,基本变化不著2.心包积液,变化不著;右侧胸腔积液3.右侧乳腺术后改变4.肝内钙化灶5.鼻旁窦炎。右肺中下叶体积缩小、密度不均匀性增厚,支气管显示不清,部分血管变细,右肺下动脉、肺静脉及左心房示充盈缺损影。右肺支气管血管束增粗,余双肺内示索条影。右侧胸膜增厚并可见强化。右侧胸腔及心包内示液性密度影。右侧乳腺术后缺如,术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区未见明显肿大淋巴结。右肺门示增大淋巴结,与周围结构分界不清。双锁上见增大淋巴结,大者短径约0.9CM。纵隔内4R、4L、5区、7区见多发小淋巴结,大者短径约0.5CM。肝内示颗粒状钙化密度影。胆囊、胰腺、脾、扫描野内双肾及肾上腺未见明显异常。腹腔、腹膜后未见肿大淋巴结。左侧大脑内示结节、肿块影,大者截面约2.9CM×3.4CM,其内呈囊性密度灶,增强扫描呈边缘环形强化;周围示片状无强化的低密度水肿带,邻近侧脑室局部略示受压。中线结构无移位。双侧上颌窦及筛窦内示液体密度影。骨窗:胸骨、部分椎骨骨质密度不均匀增高。	</t>
+  </si>
+  <si>
+    <t>左乳术后缺如,胸肌尚存,左侧胸大小肌之间见一软组织肿块影,边缘模糊,直径约1.7CM,增强后示中度不均质强化。另于前胸壁皮肤局部增厚呈软组织密度影,增强后示中度强化。左锁上、左肺门、纵隔内右上气管旁、主肺动脉窗区、腔静脉后方、气管隆突下小淋巴结,大者短径不足1.0CM。双肺见小结节灶(图6-19、26、27、35),直径不足0.5CM,增强后示强化。肝左外叶内见一低密度灶,边缘略示模糊,大者直径不足0.5CM。胆囊充盈可,壁不厚。胰脾、双侧肾上腺及右肾未见异常。左肾缺如。腹腔及腹膜后未见明显肿大淋巴结。骨窗示:胸骨、部分胸腰椎椎体、肋骨见骨质破坏区,骶骨未见明显异常。	结合临床,左乳癌术后,术区复发并前胸壁转移2.左锁上、左肺门、纵隔淋巴结肿大3.双肺转移4.多发骨转移。</t>
+  </si>
+  <si>
+    <t>右肺下叶背段可见软组织密度结节灶,大小约1.6CM×2.6CM,边缘毛糙,紧贴纵隔胸膜;增强后结节呈较明显强化。右侧胸膜示不规则增厚。右侧胸腔内可见少许液性密度影。右侧下叶示局限性实变。纵隔内未见肿大淋巴结。肝脏大小形态可,实质均质。胆囊充盈可,壁不厚。胰腺、脾及双肾大小形态密度未见异常。腹腔、腹膜后未见肿大淋巴结。腹腔内未见积液征象。膀胱充盈可,壁不厚。子宫及附件区未见异常。盆腔内未见肿大淋巴结。	1.结合临床,右肺癌并右侧胸膜转移,右侧胸腔积液伴右肺局限性实变2.腹盆部扫描未见异常。</t>
+  </si>
+  <si>
+    <t>右肺下叶背段见不规则软组织影,大小约6.0CM×4.8CM,边缘见分叶征,其内密度不均匀,可见空洞形成,与邻近胸膜关系明确,右肺上叶(3-17、20)及左肺下叶(3-37)结节影,大者直径约0.4CM。纵隔内4R、4L、7及双肺门示多发结节灶,大者短径约1.2CM。胸廓骨质未见破坏。右侧甲状腺体积增大,向下凸入右上纵隔,其内密度边界,可见低密度区,周围散在点状致密灶。右侧基底节区近外囊处示一结节灶低密度灶,边界较清,长径约0.9CM,余脑实质内未见异常密度影,脑沟、脑池未见增宽或狭窄,脑室大小、形态,位置正常,中线结构居中。增强:脑实质未见异常强化,脑沟、脑池、脑室内未见异常。	1.右肺下叶肺癌累及胸膜并右肺门、纵隔淋巴结转移2.右肺小结节灶,不除外转移3.甲状腺体积增大并密度不均匀,考虑为结节性甲状腺肿4.右侧基底节区腔隙性脑梗塞5.双肺气肿。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.右肺癌,较前2014-8-18变化不著2.纵隔淋巴结转移,变化不著3.右侧叶间胸膜结节,考虑转移,变化不著4.右肺内小结节,变化不著5.右肺门淋巴结肿大6.左肺下叶钙化结节灶;左肺尖类结节灶,可能为纤维灶7.甲状腺右侧叶体积增大,考虑结节性甲状腺肿8.T3椎体骨质密度不均,较前变化不著。右肺上叶见一软组织密度结节灶,大小约2.6CM×1.8CM,其边缘浅分叶,并见细毛刺,外缘见胸膜凹陷征;增强后病变呈中等不均匀强化。左肺下叶见一长径约0.4CM钙化结节灶(图4-32),边缘清晰。右肺内见少许小结节,边缘清晰,直径不足0.5CM。右侧水平裂及斜裂见多发小结节灶,边缘清晰,直径不足1.0CM。左肺尖(4-14)示一类结节灶,边界清,密度略高,直径约0.2CM。右肺门区见短径约0.9CM淋巴结。纵隔内4R见增大淋巴结,大者短径约1.9CM。甲状腺右侧叶体积增大,其内见钙化结节灶。双侧胸腔未见液性密度影。骨窗示:T3椎体局部骨质密度不均。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后改变,较前(2016-3-25)变化不著;肝转移;考虑骨转移2.右肺局限性纤维灶3.右肺小结节灶部分变化不著,部分增大,考虑转移4.考虑肝囊肿5.胆囊炎6.胰头部密度略减低,建议观察7.右肾囊肿。右乳术后,术区结构紊乱,周围间隙模糊,皮下可见少许片絮状密度增高影,胸壁未见明显增厚。右侧腋窝结构紊乱,未见异常强化。左乳形态、密度未见异常,右侧腋窝见小淋巴结,短径不足0.5CM。左腋窝、双侧颈后三角区及左侧锁骨上示短径不足1.0CM淋巴结。双侧内乳区、肺门及纵隔未见增大淋巴结。右肺野内见数个小结节灶,大者长径约0.6CM(肺窗)。另右肺近前胸壁下示条片影。甲状腺右叶密度减低。肝内示多发低密度灶,边缘模糊。另肝内示类囊性密度灶。胆囊壁增厚。胰头部密度略减低。右肾示囊性密度灶。腹腔、腹膜后未见肿大淋巴结。部分椎骨密度不均,以T10为著。	</t>
+  </si>
+  <si>
+    <t>与2013-10-28前片对比:1.左肺下叶中央型肺癌并阻塞性肺炎与阻塞性肺不张,左下肺动静脉受侵,纵隔及左肺门淋巴结转移,较前进展;2.双肺下叶多发类圆形小结节,考虑转移瘤,较前相仿;3.双肺弥漫性间质纤维化,较前进展;4.双侧胸膜增厚,左侧胸腔积液,较前新发。左肺下叶背段可见肿块影,边界模糊,径约8.46CM×8.21CM,平扫CT值约24-42HU,增强实性部分轻度强化,囊性低密度部分不强化,CT值约为14-54HU,22-66HU,16-44HU;左肺下叶部分支气管截断,左侧肺门可见增大淋巴结,左下肺动静脉受侵,侵及胸膜;双肺下叶及胸膜下多发类圆形小结节影,大者径约1.37CM×1.59CM;双肺小叶间隔增厚,近胸膜处多发囊状无肺纹理透亮区,纵膈内可见增大淋巴结,大者径约1.87CM×1.40CM。左侧胸腔可见弧形低密度影,双侧胸膜增厚心脏大血管未见异常。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.考虑右乳癌;右侧腋窝淋巴结肿大,考虑转移2.甲状腺低密度灶,考虑良性,建议观察3.上腹部扫描未见异常。右乳外上象限见一软组织密度结节灶,长径约3.3CM,边缘毛刺,与正常腺体分界不清,同侧皮肤显示增厚,增强扫描病变呈较显著强化。右侧腋窝见多发肿大淋巴结,大者短径约0.9CM,增强扫描可见强化。左乳未见异常。左侧腋窝及双侧内乳区未见肿大淋巴结。双侧肺野清晰。纵隔及双肺门未见肿大淋巴结。双锁上见大者短径不足0.5CM小淋巴结。扫描野内甲状腺右叶见一低密度灶,直径约1.1CM,边界较清,增强扫描强化不著。肝脏形态、大小正常,实质密度均质。胆囊充盈可,壁不厚。胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合病史,左乳癌并左腋窝、左颈部淋巴结清扫术后改变,肝、骨多发转移伴FDG高代谢2.左前胸壁FDG略高代谢,为放疗后改变3.双肺多发小结节,未见异常代谢,较自带既往CT片(2015-2-11)变化不著,考虑陈旧结节;左肺纤维炎性变伴FDG高代谢;双肺门及纵隔炎性淋巴结伴FDG略高代谢4.胆囊小结石或钙化。静脉注射示踪剂FDG后60MMIN行PET/CT显像。PET/CT图像示左乳术后缺如,左前胸壁呈轻度斑片状放射性摄取,最高SUV2.0。左肺尖及左肺上叶近前胸膜下示斑片状实变影及纤维索条影,伴斑片状放射性摄取增高,以左肺尖为著,最高SUV6.0;双肺胸膜下示数个小结节,大者长径约0.5CM,均未见异常放射性摄取。双肺门及纵隔示放射性摄取略增高的淋巴结,最高SUV4.2。脑实质内未见明显异常。左颈部淋巴结清扫术后,术区结构紊乱,未见异常放射性摄取。鼻咽、口咽、下咽及喉部未见明显异常放射性浓聚灶。甲状腺两叶不大,形态可,腺实质内未见异常放射性浓聚灶。肝内示多发大小不一的圆形结节伴异常放射性摄取增高,大者长径约1.4CM,最高SUV12.8。胆囊大小正常,近胆囊壁局部示点状高密度影。肝门结构正常。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。胃充盈好,胃壁显影如常。腹部可见条索状肠影。腹腔、腹膜后未见明显肿大或放射性摄取异常增高的淋巴结。腹水征阴性。膀胱内示放射性尿液充填。子宫形态尚可,局部无异常放射性浓聚。两侧附件区未见异常放射性摄取。两侧腹股沟无异常淋巴结显示。L3、L4、骶骨椎体或附件示数个放射性浓聚灶,最高SUV5.4,局部骨质密度未见明显异常。	</t>
+  </si>
+  <si>
+    <t>1、右肺上叶中心型肺癌,纵隔内及右肺门多发淋巴结转移;2、右肺下叶基底段小结节,考虑陈旧灶,请随诊;3、左肺术后改变。右肺上叶可见类圆形软组织肿块影,边缘不规整,病灶边缘可见毛刺,大小约9.22CM×6.44CM,CT值约35HU;增强扫描可见不规则强化,三期CT值约45HU,73HU,78HU,中心可见片状条状低密度影。右肺上叶支气管可见阻塞狭窄征象。右肺下叶外基底段可见结节状密度增高影,边界欠清,长径约0.52CM;左肺体积变小,左肺可见多个条索状密度增高影,边界不清;双肺纹理增强,两肺门大小、形态未见明显异常。纵隔内及右侧肺门可见多个肿大淋巴结影,心影不大,大血管管壁可见钙化。左侧胸膜可见明显增厚,未见胸腔积液征象。左侧第4肋形态欠规整。</t>
+  </si>
+  <si>
+    <t>1.结合临床,左乳癌术后;骨转移2.肝右后叶片状密度增高影,考虑动静脉瘘形成3.胆囊结石4.左侧肾上腺结节灶,转移待排,建议密切观察5.脂肪肝以上均较前(2014-10-13)片变化不著左乳术后,术区结构紊乱,肌肉,密度欠均质,术区未见异常强化灶。左侧腋窝结构紊乱。右乳未见异常。双侧内乳区、双侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰,未见结节及异常强化灶。肝脏密度减低;肝右后叶内见片状密度增高影,其强化方式与同层腹主动脉相似。胆囊充盈可,其内见点状致密影。胰、脾、右侧肾上腺及扫描范围内双肾未见异常。左侧肾上腺见软组织结节灶,短径约1.3CM,增强后轻度强化。骨窗示胸骨及T12胸椎示混合性骨质破坏。</t>
+  </si>
+  <si>
+    <t>1.结合临床,右乳癌术后复发并右侧锁骨上、腋窝、胸肌后方、内乳区淋巴结转移2.左侧锁骨上区密度增高影,建议观察3.肝内低密度灶,转移不除外,肝内强化灶,不典型血管瘤不除外,建议MRI检查定性4.左肾囊肿5.小脑蚓部环状密度增高影,建议MRI检查定性6.胸椎局限性骨质稀疏,建议骨扫描定性右乳术后,术区可见多发软组织肿块影,部分隆起于表面,大者约1.4CM×2.4CM,增强扫描中等不均匀性强化。左乳未见异常。双肺清晰。右侧锁骨后方、右侧腋窝、胸肌后方、右侧内乳区可见软组织肿块影,大者短径约2.7CM,边界不清,轻度强化,部分与胸膜及肋软骨关系密切,局部肋软骨骨质略示稀疏。左侧锁骨上区可见片状密度增高影,边缘可见多发结节状钙化灶,增强扫描无明显强化。肝内似可见多发略低密度灶,边缘模糊。肝左右叶交界区似可见一结节状强化灶(9-46),直径约0.6CM。左肾可见囊性密度灶。腹腔腹膜后未见肿大淋巴结。小脑蚓部可见一环状密度增高影(12-17),直径约0.4CM。余脑实质未见显著异常。中线结构居中。骨窗部分胸椎椎体及附件骨质局限性稀疏。</t>
+  </si>
+  <si>
+    <t>右肺上叶尖段可见分叶状肿块,最大横断面径约3.6CM×2.7CM,其内密度尚均匀,CT值54HU,增强扫描可见不均匀强化,三期CT值为54、67、75HU,部分区域强化不明显,周围可见毛刺及血管集束,右肺上叶前段可见索条灶,右肺中叶内侧段及左肺舌叶可见结节影,余双肺支气管血管束增粗,胸膜下可见网格影及胸膜下线、间隔旁肺气肿。两肺门区未见异常。所示气管支气管通畅。纵隔内可见增大的淋巴结。两胸腔无积液征象。冠脉可见钙化灶。双侧胸膜增厚。右侧第2、3胸椎椎体及附件、第2肋骨质破坏并软组织肿块形成,右侧第8、9肋、下位胸椎骨骨质破坏,右侧第3-6肋骨陈旧骨折。1.右肺上叶尖段周围型肺癌,纵隔淋巴结转移,多个胸椎与多发肋骨转移;2.右肺上叶前段索条灶;右肺中叶及左肺上叶多发结节,随诊;3.双肺间质纤维化;双侧胸膜肥厚;4.胆囊结石。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌,较前(2015-06-23)片基本变化不著;双肺转移,较前部分缩小,部分变化不著,部分略增大;肝转移,较前好转;双侧腋窝、纵隔多发小淋巴结,变化不著;右侧内乳区饱满,变化不著;脑多发转移2.左肺胸膜局限性增厚,局部钙化,变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影,约4.6CM×3.2CM,边缘浅分叶,局部与周围腺体及乳头区皮肤分界不清,胸肌间脂肪间隙模糊,增强扫描见显著不均匀强化,其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结,大者短径约0.6CM。右侧内乳区显示饱满。纵隔内左侧下肺静脉旁及下段食管旁见小淋巴结影。双肺野散在分布大小不等结节灶,大者直径约1.7CM,边缘清晰,局部与胸膜及纵隔关系密切,增强扫描可见强化。左肺胸膜增厚,局部呈结节样;局部见多发钙化灶并致局部肋骨欠规则。扫描野肝实质内见多个低密度灶,大者直径约0.8CM,边缘尚清晰,增强扫描边缘强化显著。脑实质内示多发结节灶,大者直径约0.7CM,增强扫描可见环形强化。脑室池无扩张。脑沟回无增宽。中线结构居中。	</t>
+  </si>
+  <si>
+    <t>1.结合临床,左乳癌治疗后改变,胸肌局部强化灶,较前(2017-1-6)增大;左腋窝及左锁骨上小淋巴结;肝转移治疗后,变化不著;骨转移,变化不著2.右乳钙化灶;右腋窝略增大淋巴结,变化不著3.双肺纤维灶4.甲状腺低密度灶左乳结构紊乱,强化欠均质,局部见可见片状较低密度灶,边缘清晰,左腋窝结构紊乱并可见片状影,左腋窝(5-21)及左侧锁骨上示大者短径约0.5CM小淋巴结。左侧胸肌局部见结节状强化灶,边缘模糊。右乳可见数个大小不一的钙化灶,右腋窝内可见数个结节灶,大者短径约0.6CM。双肺内示少许索条影。纵隔内未见明显肿大淋巴结。甲状腺内示低密度灶。肝内S4段示一低密度灶,边缘有强化,直径约0.6CM。余肝内示小类囊性密度灶。胆囊胰脾双肾未见异常。腹腔及腹膜后未见肿大淋巴结。胸骨、部分椎骨及左第五后肋显示骨质破坏。</t>
+  </si>
+  <si>
+    <t>1.纵隔右侧占位,合并淋巴结转移,考虑侵袭性胸腺瘤;支气管炎征象;右侧胸腔积液;较前2015-07-08CT新发;2.左肺下叶磨玻璃灶,较前相仿,请结合临床;双肺多发粟粒灶,部分钙化,较前相仿;3.下位胸椎体内高密度影,较前相仿。双肺血管支气管束增强、模糊。双肺见多个斑点状粟粒影,部分呈致密影。左肺下叶内基底段(H101)见一磨玻璃影,大小为1.40CM×1.2CM,其内见血管影穿行。纵隔右侧见不规则软组织密度影,大小约5.8CM×3.8CM,平扫CT值约34HU,三期增强值分别是50、42、65HU.右肺叶间裂增厚。纵隔、腋窝内见明显增大的淋巴结,较大者短径约1.8CM。右侧胸腔积液征象。心脏不大,部分大血管壁见钙化。下位胸椎体内高密度影。</t>
+  </si>
+  <si>
+    <t>右乳癌术后,术区结构紊乱,局部增强前后未见明显占位性病灶。肝左右叶可见多发大小不等病灶,T1WI呈略低信号,T2WI及压脂像呈略高信号,DWI呈高信号,增强扫描病灶呈不均匀强化,大者约0.7CM位于左外叶。肝实质内及双肾实质内可见散在囊性结节,边界清楚,无强化,大者约1.0CM位于左肾。胆囊不大。脾、胰腺增强前后未见异常信号区。腹膜后未见明显肿大淋巴结。所扫部分椎体可见斑片状骨质破坏区,呈长T1短T2信号,压脂像及DWI为高信号,不均匀强化。余未见异常。	1.结合病史,右乳癌术后,肝(多发)及椎体转移,较本院(2016-01-11)MR片示肝转移明显好转。2.肝及双肾囊肿。</t>
+  </si>
+  <si>
+    <t>右乳术后,前胸壁软组织略增厚,未见明显异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺门、纵隔内主肺动脉窗区可见肿大淋巴结,直径约1.8CM。右肺门淋巴结略增大,短径约0.8CM。左肺上叶支气管受压狭窄,远端肺野近纵隔旁可见带状密度增高影,另双肺内见斑片状密度增高影,右肺下叶为著。余双肺散在小结节灶,大者直径约0.4CM。双侧胸膜略增厚。甲状腺示斑片状低密度灶。扫描野内肝左叶示小类圆形低密度灶(3-45),强化不著,边缘欠清晰。余肝内见囊性密度灶及斑片状致密影。右肾示小囊性密度灶。右肾上腺可见结节灶,直径约0.8CM,密度较低,强化不明显。	1.结合临床,右乳癌术后2.左肺门、纵隔淋巴结转移,较前(2015-6-3)变化不著3.双肺炎症,局部示好转;双侧胸膜略增厚4.双肺小结节灶,变化不著5.肝左叶低密度灶,建议观察;肝囊肿、钙化灶6.右肾囊肿7.右肾上腺结节灶,考虑腺瘤,变化不著8.甲状腺低密度灶。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌并双肺转移、肝转移、纵隔淋巴结转移较前病灶示缩小;右侧内乳区饱满,变化不著;原脑转移瘤显示不清2.左肺胸膜局限性增厚,局部钙化,变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影,约6.8CM×5.3CM,边缘分叶,局部与周围腺体及乳头区皮肤分界不清,胸肌间脂肪间隙模糊,增强扫描见显著不均匀强化,其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结,大者短径约0.6CM。右侧内乳区显示饱满。纵隔内心包右旁、气管隆突下及左侧下肺静脉旁及下段食管旁见肿大淋巴结影,大者短径约1.0CM。双肺野散在分布大小不等结节灶,大者直径约1.3CM,边缘清晰,局部与胸膜及纵隔关系密切,增强扫描可见强化。左肺胸膜增厚,局部呈结节样;局部见多发钙化灶并致局部肋骨欠规则。肝实质内见多个低密度灶,大者直径约0.3CM,边缘尚清晰,增强扫描边缘强化显著。胆囊充盈可,壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内未见异常密度影,脑沟、脑池未见增宽或狭窄,脑室大小、形态,位置正常,中线结构居中。增强:脑实质未见异常强化,脑沟、脑池、脑室内未见异常。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合乳癌术后病史,考虑胸椎T12转移;2.胸椎T8、T11结节灶,考虑脂肪岛;3.椎间盘T11/12、L2/3、L3/4、L4/5突出;4.骶管囊肿。胸腰椎椎体曲度略变直。胸椎T12椎体右后示斑片状略短、略长T1略长T2信号,压脂像呈低、略高信号,增强扫描呈轻度强化。胸椎T8、T11椎体示类圆形短T1长T2信号,压脂像呈低信号,增强扫描无强化。椎间盘T11/12、L2/3、L3/4、L4/5向后突出,压迫硬膜囊。所扫脊髓及马尾区增强前后未见明显异常信号。平骶椎S2水平骶管内可见一约1.0CM×1.7CM的囊性结节,边界清楚,无强化。	</t>
+  </si>
+  <si>
+    <t>右肺下叶(25)见类圆形肿块影,CT值约26HU,边界较清,大小约2.7CM×2.1CM,分叶,边缘可见毛刺,邻近胸膜凹陷。左肺叶(S27、35)见高密度小结节影,边界清晰,径约0.56CM;右肺上叶(36、41、45)、中叶(29、32、33)左肺下叶外侧底段(S28)可见多发粟粒影;两肺门区未见异常。前上纵隔可见结节影,径约0.9CM,CT值约30HU。纵隔稍大淋巴结影。两胸腔无积液征象。心脏未见异常,主动脉、冠状动脉管壁钙化。第3胸椎右侧横突内可见类圆形高密度影。第8胸椎骨质不规整,其内可见斑片状高密度影。所示肝内密度减低,小于同层脾密度。1.右肺下叶周围型肺癌,较(2015-11-10)相仿;2.左肺叶小结节、左肺下叶粟粒灶,部分病灶较前略增大;3.前上纵隔结节,较前相仿;4.第3胸椎右侧横突高密度灶,较前相仿;第8胸椎骨质破坏,较前骨质破坏明显,考虑转移;5.脂肪肝。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.左肺下叶癌,较前2016-10-11范围基本变化不著,内可见气体影,请结合临床;左肺门、纵隔淋巴结转移,左肺门者略饱满、密度局部减低,余大部分略缩小2.双肺炎症,略增多;双肺气肿3.左锁上淋巴结略大,变化不著4.左侧肾上腺结节灶,转移不除外5.肝右叶强化欠均,右肾低密度灶,请结合其他检查或观察。左肺下叶可见一不规则肿块,截面约7.2CM×7.0CM,边缘分叶,与胸膜关系密切,周围示斑片及絮状密度增高影,增强扫描病变呈较显著不均匀强化,其内见低密度区及斑片状气体影。双肺野见较多片状高密度影。余双肺多发泡状过度透光灶。左肺门及纵隔多发增大淋巴结,大者短径约3.2CM,部分融合。左锁上淋巴结略大,短径约0.6CM。扫描野内左侧肾上腺示小结节灶。肝右后叶强化欠均。右肾上极示斑片状低密度灶,边界欠清。	</t>
+  </si>
+  <si>
+    <t>会诊*******(2016-7-21)右肺尖段示不规则结节灶,边界清晰,大小约为1.0CM×0.9CM,增强扫描呈中度强化。右肺门及纵隔多发淋巴结肿大,部分融合成团,大者短径约为4.5CM,包绕挤压邻近组织。肝脏大小形态可,肝左叶示低密度影,边界清晰,增强扫描未见强化。胆囊不大,壁略厚。胰腺、双肾、双侧肾上腺及脾未见异常。腹腔及腹膜后未见肿大淋巴结。	1.考虑右肺上叶癌并纵隔及右肺门淋巴结转移;2.肝囊肿、胆囊炎。</t>
+  </si>
+  <si>
+    <t>左肺门周围可见不规则软组织密度肿块影,约5.9CM×7.2CM,增强扫描呈明显不均匀强化,与其远端不张的肺组织分界不清,向内与肺门淋巴结分界不清,与纵隔内软组织及心包分界不清,余双肺野内未见异常密度影,双侧胸膜及叶间胸膜上可见多发类结节灶,大者约1.0CM。纵隔内2R、4R、4L、5、6、7、8区示多发肿大融合的淋巴结影,大者短径约1.8CM。心包内可见少量液性密度影。左胸腔内可见弧形液性密度影。肝脏大小形态未见异常,肝实质内可见数个囊性低密度灶,边界清,增强扫描无强化。胆囊、胰腺、脾、双肾、左肾上腺未见异常,右肾上腺示一类结节灶,长径约3.3CM。腹腔腹膜后未见肿大淋巴结影。	1.左肺中心型肺癌累及肺门、纵隔及心包,阻塞性肺不张、肺炎;双侧胸膜多发结节灶,考虑转移;纵隔淋巴结转移;右肾上腺转移;2.肝囊肿;3.心包、左胸腔少量积液。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,左乳癌术后,左上臂肿物、左侧内乳区及左侧胸膜结节高代谢,考虑转移。2.双肺下叶炎症;双侧胸膜略增厚,双侧胸腔积液。3.肺气肿;肺大泡。4.甲状腺钙化灶。5.肝囊肿。6.前列腺增生。静脉注射示踪剂FDG后60MMIN行体部全身FDGPET/CT显像。PET/CT图像示左乳术后缺如,术区部分胸肌保留,左上臂内侧近左腋窝处见软组织密度影,边缘见小条状金属异物,肿物呈不均匀放射性摄取增高,最高SUV4.8,左侧内乳区见小淋巴结,短径约为0.7CM,放射性摄取增高,最高SUV2.9。右乳及右腋窝未见异常放射性摄取。左侧胸膜见结节状增厚,轻度放射性摄取,最高SUV2.1。双侧胸膜略增厚,双侧胸腔示少量弧形液性密度影。双肺上叶胸膜下见囊泡状过度透气影,部分肺大泡。双肺下叶见斑片状磨玻璃密度影。冠状动脉走行区见条形钙化影。脑部未见异常放射性摄取。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。腹部胃充盈好,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝左叶小囊性密度影,直径约为0.7CM,肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影,肠壁未见确切增厚,考虑肠蠕动所致。腹膜后未见明显肿大淋巴结。腹水征阴性。腹壁软组织未见明显异常影像。盆腔内膀胱放射性浓聚如常,膀胱壁无增厚。两侧腹股沟无异常淋巴结显示。前列腺略增大,放射性分布大致正常。视野内中轴骨放射性分布略欠均匀。	</t>
+  </si>
+  <si>
+    <t>左乳术后缺如,部分胸肌存在,术区未见明显增厚及异常强化;左侧腋窝术后,结构紊乱。右乳腺体结构紊乱,右侧腋窝未见明确异常。双肺门、纵隔内、右锁上、右侧内乳区可见多发肿大淋巴结,大者短径约2.3CM,可见较显著强化。右侧胸膜呈弥漫性增厚,局部呈结节状及线状,增强后呈较显著强化。左侧叶间胸膜局部可见结节灶。右肺上叶可见结节灶,边界清晰,直径约0.2CM。双侧肺野内可见斑片状及条索状密度增高影,局部小叶间隔增厚。双侧胸腔内可见液性密度影,右侧为著,局部呈包裹状。部分胸椎椎体、右侧第四、五前肋示成骨性骨质改变。心包腔内可见液性密度影。肝脏实质内可见多发低密度肿块及结节灶,边缘模糊,轻度强化。双肾实质内可见散在多发低密度灶,边缘模糊,轻度强化。胆囊壁略增厚。胰、脾、双侧肾上腺未见异常。腹腔及腹膜后可见多发肿大淋巴结,大者短径约1.5CM。大网膜及肠系膜局部略增厚。	1.左乳癌术后,肝脏多发转移;双肾低密度灶,考虑转移;双肺门、纵隔、右侧内乳区、腹腔及腹膜后多发淋巴结转移;右侧胸膜转移;多发骨转移。2.右锁上淋巴结肿大。3.左侧叶间胸膜增厚伴结节灶,转移待排,4.右肺上叶结节灶。5.双肺炎症,局部不除外伴有癌性淋巴管炎。6.双侧胸腔积液;心包积液。7.胆囊炎。8.大网膜及肠系膜局部增厚。</t>
+  </si>
+  <si>
+    <t>1.左肺上叶舌段中心型肺癌,伴远端阻塞性炎症、纵隔及双肺门淋巴结转移,与2011-10-20CT比较病灶略增大,周围炎症略吸收,请结合临床;2.支气管炎征象,轻度肺气肿,肺大泡;3.双肺多发钙化灶;4.右侧胸腔及心包轻度积液;5.肝脏多发稍低密度影,请结合临床。左肺上叶舌段不规则形软组织密度影,边界清楚且呈分叶状改变,大小约:8.59CM×3.52CM,CT值约:40HU,左肺上叶舌段支气管狭窄、截断,远端片状高密度影,边界模糊;右肺尖小结节,径约:0.52CM;双肺多发囊状低密度影,以左肺上叶胸膜下为著;双肺纹理稍增多,边缘欠清。双肺多发钙化灶;两肺门及纵隔内见多发增大的淋巴结,较大者约3.70CM。心脏不大;心包及右侧胸腔可见少许水样密度影。肝脏似可见多发稍低密度影。</t>
+  </si>
+  <si>
+    <t>右肺下叶可见团块影,与右肺门影分界不清,边界欠清,CT值约为30HU,其内密度不均,大小约为6.3CM×3.9CM,邻近肺组织可见模糊影,右肺下叶内基底段支气管不通;双肺可见多发的大小不等的小结节影,大者径长约2.0CM;右肺斜裂增厚、右肺中叶条片状高密度影。纵隔内可见多发肿大的淋巴结。右侧胸腔、心包内见液性密度影。甲状腺明显肿大。左侧第6前肋局部密度增高。1.考虑右肺下叶肺癌,并双肺、右胸膜多发转移;2.右侧胸腔积液;心包积液;3.甲状腺大;4.左侧第6前肋局部密度增高。以上征象均较2015.04.30CT片相仿。</t>
+  </si>
+  <si>
+    <t>直肠术后,术区示高密度吻合器影,壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低,内示小囊性密度灶。双肾内示低密度灶,边缘模糊,另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约4.4CM(纵隔窗),内示空洞影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚,胸腔未见积液征象。甲状腺右叶见低密度灶,边缘较清晰。	1.结合临床,直肠癌术后;双肺转移,较前(2017-1-18)部分增大,部分变化不著2.双肾低密度灶,基本变化不著,建议观察;双肾囊肿3.双侧胸膜略增厚,变化不著4.甲状腺低密度灶,变化不著5.脂肪肝;考虑肝囊肿,变化不著。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右肺癌治疗后,较前片2015-12-10变化不著;双肺类结节灶治疗后,变化不著;右肺门、纵隔淋巴结转移治疗后,较前变化不著。2.右肺下叶炎症、纤维灶,变化不著。3.右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影,变化不著。右肺下叶见不规则斑片状软组织影,边缘毛糙,大小不易测量,增强后中度强化;其远端肺野见斑片状及索条状密度增高影。余双肺可见小类结节灶,边缘模糊,大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结,大者短径约1.0CM,部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝内见一斑点状钙化灶。胆囊充盈可,壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶,大者短径约0.6CM。T12右侧椎弓根示斑片状密度增高影。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.肝囊肿。2.双肾上腺体积增大,不除外转移,建议观察3.结合临床,右肺癌,纵隔内多发淋巴结转移4.颈部扫描未见异常.。肝脏大小形态未见异常,肝实质内可见多发囊性低密度灶,边界清,增强扫描无强化。胆囊、胰腺、脾、双肾未见异常,双肾上腺体积略示增大,以左侧为著,长径约1.8CM,形态不规则。腹腔腹膜后未见肿大淋巴结影。所扫右肺中叶近肺门处示不规则软组织密度影,远侧肺组织示实变征象,周围多发多发条索状及斑片状密度增高影,与周围组织关系密切,增强扫描示中度强化。各咽壁不厚,双侧颈部未见肿大淋巴结影。腮腺及双侧甲状腺未见异常。所扫上纵隔内可见多发肿大融合的淋巴结。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.右肺下叶肺癌累及胸膜治疗后,较前(2015-04-20)基本变化不著;右肺门、纵隔淋巴结转移,部分较前略缩小,部分变化不著2.右肺小类结节灶,较前变化不著3.甲状腺体积增大并低密度灶,考虑为结节性甲状腺肿,变化不著4.双肺炎症5.双肺气肿6.肝左叶强化灶,考虑血管瘤,建议结合腹部检查。右肺下叶背段见不规则软组织影,大小约5.2CM×4.0CM,边缘见分叶征,其内密度不均匀,可见空洞形成,与邻近胸膜关系明确,增强扫描呈中度不均匀强化。右肺上叶(5-20、23)见小类结节影,大者直径约0.4CM,边缘模糊。双肺胸膜下见斑片状及片絮状密度增高影,以双肺下叶为著。另于双肺野内见多发泡状过度透光区。纵隔内3A、4R、4L、7区及右肺门示多发结节灶,大者短径约0.8CM。胸廓骨质未见破坏。甲状腺右侧叶体积增大,向下凸入右上纵隔,其内密度不均,可见低密度区,周围散在点状致密灶,左侧叶内亦可见低密度灶。肝左叶见一动脉期强化结节灶,边界尚清,直径约1.5CM,延迟期未见明确显示。胆囊充盈可,壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常,腹腔及腹膜后未见明确肿大淋巴结。	</t>
+  </si>
+  <si>
+    <t>1.双肺间质性改变;右侧少量胸腔积液,较2016-11-17增多;双肺粟粒灶,随诊;2.右肺中叶索条灶,慢性炎症可能,较前略吸收;3.右侧乳腺肿物,考虑为恶性病变,较前稍变小;右侧腋窝淋巴结肿大;4.右侧第7后肋、第4、9胸椎骨质破坏,转移瘤可能性大,较前进展,请结合临床;5.双侧多发肋骨骨折。双肺纹理增强,紊乱。右肺中叶可见高密度索条影,边缘模糊不清。右肺上叶(43、39、37)、左肺上叶(23)粟粒灶。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。右胸腔少量积液征象。心脏大血管未见异常。所示右侧乳腺见较大肿物,密度不均,大小为4.66CM×3.53CM,CT值约44HU。右侧第7后肋、第4、9胸椎骨质破坏,边缘模糊。双侧多根肋骨骨质连续性中断。</t>
+  </si>
+  <si>
+    <t>1.右肺中央型肺癌,伴右肺上叶阻塞性肺炎、淋巴结多发转移;较2012-02-01CT新发,邻近右上肺动脉分支受压;右肺下叶炎症,较前新发;2.左肺下叶肺隔离症伴炎症,较前相仿;3.左肺上叶代偿性肺气肿表现,较前相仿;4.肝右叶后下段低密度灶,请结合其它检查。右上叶支气管截断,肺门处可见团块影,界清,其内密度不均,见斑片状稍低密度灶,大小约3.2CM×2.8CM,平扫CT值约33HU,增强扫描呈轻度不均匀强化,三期CT值分别为:66HU、51HU、63HU,邻近右上肺动脉分支受压、略移位;右肺上叶病变远端支气管腔增粗、管腔内密度增高,肺内散在片状高密度影;右肺下叶胸膜下见少许斑片状模糊影;左肺下叶前内基底段、外基底段可见斑片模糊影,增强后,病灶内可见一异常血管起自于胸主动脉,最粗径约0.94CM,左肺上叶透过度明显增强。纵隔内可见多发肿大淋巴结,大者短径约1.9CM,增强呈轻度不均匀强化。两胸腔无积液征象。心脏形态可。肝右叶后下段低密度灶。</t>
+  </si>
+  <si>
+    <t>右肺上叶可见一类圆形结节影,呈浅分叶,密度尚均匀,CT值约为34HU,增强后呈明显均匀强化,动脉期及静脉期CT值分别约为78HU及76HU;病灶边缘不光滑,可见细短毛刺,可见胸膜牵拉;病灶大小约为2.0CM×1.5CM。右肺中叶、左肺上叶及双肺下叶可见多发大小不等小结节影,大者位于右肺下叶,大小约为1.2CM×1.0CM,边缘可见毛刺。双肺上叶可见斑块状、条状高密度影及囊性透光影;双肺下叶可见斑片状密度增高影,边缘模糊。所示气管支气管未见异常扩张;双肺门区未见异常。纵隔内可见多个小淋巴结影,以隆突下最大,短径约为0.8CM;双侧胸腔未见积液征象;主动脉管壁可见多发斑点状钙化影。所示肝脏内可见多发低密度影。1.右肺上叶结节影,考虑为周围型肺癌可能性大,请结合临床;左侧胸膜稍厚;2.右肺中叶、左肺上叶及双肺下叶多发小结节影,考虑为转移瘤,请随诊;3.双肺上叶陈旧病灶,多发肺大泡;双肺下叶炎性病变,请随诊;4.肝脏多发低密度影,请结合腹部检查。</t>
+  </si>
+  <si>
+    <t>右侧乳腺乳头后方见较多不规则软组织密度肿块影,最大截面约9.2CM×6.6CM,边缘分叶,尚清晰,局部与周围腺体及皮肤分界不清,胸肌间脂肪间隙模糊,增强扫描见显著不均匀强化。左乳腺体致密,未见异常密度灶。双侧腋窝见肿大或稍大淋巴结,大者短径约1.1CM,增强扫描显著强化。双侧内乳区未见肿大淋巴结。双肺野散在分布大小不等结节灶,大者直径约2.2CM,边缘清晰,局部与胸膜及纵隔关系密切,增强扫描可见强化。左肺门见肿大淋巴结,短径约0.9CM,增强扫描可见强化。左肺胸膜略增厚,局部呈结节样;局部见多发钙化灶并致局部肋骨欠规则。扫描野肝实质内见多个低密度灶,大者直径约1.9CM,边缘清晰,增强扫描边缘强化显著,部分见牛眼征。	1.结合临床,考虑右乳癌;双侧腋窝、左肺门淋巴结肿大或稍大;双肺转移,肝转移2.左肺胸膜局限性增厚,局部钙化,考虑胸膜斑,请结合临床。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右肺癌并阻塞性炎症及肺不张并累及中间支气管治疗后,较前(2016-9-29)好转2.右肺门及纵隔淋巴结转移,较前好转3.左肺上叶斑片状影及类结节灶,首先考虑炎性病变,变化不著4.胸椎局部密度增高,建议观察。右肺门区见软组织密度影,边缘模糊,增强呈不均匀强化,右肺上叶支气管示显著狭窄,病变周围见多发斑片状及条索状密度增高影,右肺中间支气管示管壁增厚并强化。左肺上叶见斑片状及类结节状密度增高影。右肺门、纵隔见大者短径约1.0CM肿大淋巴结。右侧胸膜局部增厚。左颈后皮下见一软组织结节,边缘较清晰,密度不均。扫描野内左侧肾上腺见一长径约1.0CM结节灶。T12椎体可见高密度影。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,卵巢癌术后;左乳术后改变2.右侧胸膜转移,较前(2016-01-18)加重;右侧胸腔积液基本变化不著;右肺部分膨胀不全;双肺结节灶,考虑转移,较前部分略示增大,部分变化不著3.右肺门及纵隔淋巴结肿大,部分变化不著,部分略示饱满;右侧锁骨上淋巴结肿大,较前变化不著;右侧腋窝小淋巴结,变化不著4.右肺炎症或纤维灶,变化不著5.少量盆腔积液。左乳术后,部分胸肌尚存,术区胸壁略肿胀,皮肤略增厚。右乳未见异常。右侧腋窝见短径约0.5CM的小淋巴结。内乳区示短径不足0.5CM淋巴结。左侧腋窝及左侧内乳区未见肿大淋巴结。右锁上见小淋巴结,短径不足0.5CM。右肺门、纵隔内右上气管旁、腔静脉后间隙、主肺动脉窗区、血管前间隙、隆突下可见肿大淋巴结,大者短径约1.0MM。右侧胸膜增厚(含肋胸膜、纵隔胸膜及叶间胸膜、膈胸膜),局部呈结节状、带状。右侧胸腔可见游离性及包裹性液体密度影。右肺见条索状密度增高影,右肺部分实变;另于双肺野内见多发类圆形结节灶,边界较清,大者截面约2.4CM×1.6CM。膈上见数个结节灶,轻度强化。子宫术后缺如,残端未见异常增厚及强化。膀胱充盈欠佳,壁不厚。肠系膜区示少量液体密度影。盆腔未见明显肿大淋巴结。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右肺癌累及纵隔及上腔静脉治疗后,较前(2016-12-1)变化不著。2.脑多发转移。3.甲状腺钙化灶。4.纵隔内淋巴结肿大,变化不著。5.考虑右肺炎症,变化不著。6.上腹部未见明显异常。右肺上叶支气管周围可见小斑片状软组织密度影,与邻近纵隔内4R区肿大淋巴结及上腔静脉分界不清,增强扫描呈不均匀强化,纵隔内3A、2R区示数个结节灶,大者短径约0.7CM。所扫双侧甲状腺内可见数个钙化灶。肝脏、胆囊、胰腺、脾、双肾、肾上腺未见异常,腹腔腹膜后未见肿大淋巴结影。脑实质示多发强化结节灶,大者截面约2.5CM×2.1CM,周围可见低密度水肿带。右侧上颌窦内示囊性密度灶。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后,肺转移微波消融术后改变,其旁结节灶,考虑转移,较前2016-1-6进展;右肺上叶炎症,变化不著2.纵隔淋巴结肿大,较前缩小3.肝转移介入术后改变4.左肾囊肿。右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结,短径不足0.5CM。右肺上叶可见团片状密度增高影,未见异常强化征象,其前方示一强化结节灶,短径约0.6CM。左侧肺野较清晰。纵隔内气管前腔静脉后见肿大淋巴结,短径约1.3CM。肝实质内示多发结节灶,部分其内示高密度碘油影沉积,大者短径约1.5CM。胆胰脾双肾上腺右肾形态、密度未见明显异常。左肾示囊性密度灶。腹腔及腹膜后未见明显增大淋巴结。	</t>
+  </si>
+  <si>
+    <t>左乳内示多发结节灶灶,边缘略分叶,毛刺,其与周围腺体分界欠清,增强扫描呈较明显强化,大者最大截面约2.2CM×1.1CM。左锁上、左腋窝示增大淋巴结,大者短径约0.9。右乳未见明显异常。右腋窝及双侧内乳区未见明显增大淋巴结。双肺野清,未见明显异常密度灶。纵隔及双肺门未见明显增大淋巴结。鼻咽、口咽、喉咽壁未见明显增厚。左颈下深示稍大淋巴结,大者短径约0.5CM。扫描范围内诸骨质未见明显破坏。	1.结合临床,左乳癌2.左腋窝及左锁上淋巴结肿大,考虑转移可能性大;左颈部淋巴结肿大。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右肺上叶癌侵及脏层胸膜治疗后,较前(2016-07-20)基本变化不著;骨转移,变化不著2.右乳腺体局部密度增高,变化不著。右肺上叶尖段可见软组织密度影,最大截面约0.9CM×1.1CM(纵隔窗),边缘浅分叶可见细毛刺,内缘有长毛刺与纵隔相连,增强扫描呈中等不均匀性强化;余双肺野较清晰,未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。所扫甲状腺内示低密度灶。肝脏形态、大小可,实质密度均质。肝内外胆管未见扩张。胆囊充盈可,壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示:双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏,以成骨性为主,部分肋骨形态欠规则,略呈膨胀性改变。	</t>
+  </si>
+  <si>
+    <t>左肺下叶背段可见团块影,较大截面大小约为4.6CM×3.3CM,平扫CT值约为43HU,边界尚清,浅分叶状,周围可见斑片状稍高密度影。双肺另见弥漫多发大小不等结节影。两肺门区未见异常。纵隔内未见淋巴结增大。心脏大血管未见异常。部分肋骨、胸椎及附件形态欠规整,可见骨质破坏区及软组织肿块。1.左肺下叶背段周围型肺癌,较前2015-12-7变小,伴双肺多发转移瘤;2.部分肋骨、胸椎及附件形态欠规整,转移不除外,部分较前新发,请结合临床。</t>
+  </si>
+  <si>
+    <t>左乳术后缺如,部分胸肌存在,术区皮肤及软组织略增厚,增强后不均匀强化;左侧腋窝术后,见多发淋巴结,大者短径约0.6CM。右乳及右侧腋窝未见明确异常。左侧内乳区见短径不足0.5CM小淋巴结。左肺上叶胸膜下可见类结节灶,直径约0.2CM。左肺可见斑片状影。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺未见异常。腹膜后见短径不足0.5CM小淋巴结。部分椎体密度减低。1.左乳癌术后复发并左腋窝多发淋巴结转移,较前(2017-2-15)变化不著;左侧内乳区小淋巴结较前变化不著。2.左肺类结节灶,较前变化不著。3.腹膜后小淋巴结较前变化不著。4.椎体部分密度减低变化不著。</t>
+  </si>
+  <si>
+    <t>双肺近胸膜下示多个结节灶及肿块,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约3.0CM(纵隔窗),内示小空泡影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶,边缘较清晰。	1.结合临床,直肠癌术后,双肺转移瘤,较前变化不著2.双侧胸膜略增厚,变化不著4.甲状腺低密度灶,变化不著。</t>
+  </si>
+  <si>
+    <t>双侧胸廓不对称,右侧胸廓塌陷,右肺体积减小,右肺下叶见团块状高密度影,形态不规则,边界不清楚,大小约4.1CM×5.4CM,CT值约37HU,右侧主支气管及各叶支气管受压变窄;右侧胸膜弥漫性增厚,右肺间隔结节样增厚;右侧胸腔可见包裹性积液;右侧腋窝、纵隔淋巴结增大,大者短径约1.39CM。左肺下叶外基底段(S35)可见粟粒影。心影大小正常范围。右侧第2、4、7、8肋骨、胸3椎体骨质密度不均匀增高,形态不规整。右侧乳腺外上象限内见一结节影,径约0.98CM,边界清晰,其内见点状钙化。1.右下肺中心型肺癌,较前片(2013-9-9)进展,并右肺间质性改变,考虑淋巴道转移,右侧胸膜转移,右侧胸腔包裹性积液;右侧腋窝及纵隔淋巴结转移;右侧多个肋骨、胸3椎体成骨性转移;请结合临床;2.右乳钙化结节,较前相仿;3.左肺下叶外基底段粟粒灶,较前相仿。</t>
+  </si>
+  <si>
+    <t>左乳呈少量腺体型。其外上象限不规则肿块影,大小约4.0CM×4.5CM,其密度增高、不均匀,边缘毛糙、不整。乳头无凹陷,皮肤无增厚。腋窝可见一直径约1.2CM肿大淋巴结影。	左乳癌并同侧腋窝淋巴结转移。</t>
+  </si>
+  <si>
+    <t>右肺门支气管开口纹理粗乱伴胸膜增厚,周围可见纤维条索影,下叶近纵隔旁并可见斑片状高密度影,边缘模糊。双肺见散在少许类结节及片絮影,左肺大者直径约0.5CM(肺窗5-32)。左侧锁骨上及双肺门见小淋巴结。右侧胸腔示少量液性密度影。肝、胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常,腹膜后腹主动脉周围可见多发结节灶,大者短径约1.0CM。颅骨完整连续,脑实质密度均匀,脑池、脑室、脑沟大小、位置、形态未见异常,中线结构居中。	1.结合临床,右肺癌治疗后,局限性纤维炎性变,局部高密度斑片影较前(2016-10-12)变化不著;双肺散在类结节及片絮影,较前变化不著;腹膜后淋巴结肿大,考虑转移。2.颅脑扫描未见异常。3.右侧少量胸腔积液。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.右肺癌并右肺癌性淋巴管炎,双肺门、纵隔、双侧锁骨上淋巴结转移;双侧腋窝、腹腔及腹膜后淋巴结肿大,转移不除外;骨转移2.肝内低密度灶,转移不除外,建议观察;肝囊肿2.左肺类结节灶,建议观察3.右侧肩胛下肌低密度灶,建议观察。右肺下叶见一截面约2.9CM×3.6CM软组织肿块,形态不规则,边缘分叶、毛糙伴毛刺,与邻近胸膜关系密切。右肺支气管血管束显著增粗,周围见斑片状软组织密度影,与邻近肺门及纵隔肿大淋巴结分界不清,下叶背段支气管截断,余支气管尚通畅。右肺小叶间隔增厚。双侧肺门、纵隔、双侧锁骨上、双侧腋窝见多发肿大淋巴结,大者短径约2.6CM。腹腔内小弯侧及肠系膜区、腹膜后见大者短径约0.7CM稍大或小淋巴结。右侧胸膜增厚。左肺下叶见一直径不足0.5CM小类结节灶。右侧肩胛下肌见类圆形低密度,未见强化(6-16)。肝内见大者长径约1.0CM囊性结节灶。肝右叶(6-63、62)见一大者长径约0.6CM低密度结节灶,边缘欠清晰。胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。部分椎体(3-62、71)示骨质破坏,周围软组织增厚。	</t>
+  </si>
+  <si>
+    <t>右乳外下象限原片2016-03-09所示强化结节灶现仅剩条索影,其内似见一直径不足0.5CM的结节状强化。余双乳腺体强化欠均质,内示小斑片状强化灶。右侧腋窝示大者短径约0.6CM淋巴结,强化较著。左侧锁骨上示短径不足0.5CM淋巴结。左侧腋窝见数个小淋巴结,部分淋巴结内可见脂肪密度影。纵隔及双肺门未见肿大淋巴结。右肺尖区示小类结节灶,密度较淡,余双肺内示索条影。	1.右乳癌并右腋窝淋巴结转移,较前2016-03-09明显好转。2.右肺类结节灶,较前略好转,考虑炎性可能大;3.双肺纤维灶,变化不著。</t>
+  </si>
+  <si>
+    <t>双乳术后缺如,术区结构紊乱,部分胸壁组织尚存,双侧腋窝清扫术后,双乳术区、左侧颈前、左侧胸部及左侧肩部皮下见多发结节灶及肿块影,大者约3.0CM×2.3CM,增强扫描呈较显著不均匀强化。双肺见多发结节灶及肿块影,大者位于左肺门,直径约3.0CM,包绕邻近上叶支气管及左下肺动脉致其狭窄,并与邻近不张肺组织及纵隔内肿大淋巴结分界不清,增强扫描呈不均匀强化。纵隔内右侧气管食管沟区、血管前间隙、右上气管旁、气管隆突下及双肺门见多发肿大淋巴结,大者短径约1.9CM,增强扫描呈不均匀强化。左侧胸腔内及心包腔内见液性密度影。扫描野内甲状腺双侧叶密度欠均质。脑实质内密度均质,未见异常密度影。脑沟、脑池未见增宽,脑室大小、形态,位置正常,中线结构居中。骨窗示:T5椎体骨质密度不均,可见多发骨质密度减低区。	1.结合临床,双侧乳腺癌术后局部复发并多发皮下转移,双肺转移,纵隔淋巴结转移,T5椎体破坏,考虑转移2.左侧胸腔中量积液;少量心包积液3.颅脑扫描未见异常。</t>
+  </si>
+  <si>
+    <t>1、左肺门占位,考虑中央型肺癌伴阻塞性肺炎,左下肺动脉及静脉受累可能大;纵隔及左肺门淋巴结转移,与2015-10-14相比,肿块较前相仿,炎症较前进展;淋巴结较前稍增大;2、右肺多发粟粒灶,磨玻璃结节,与前相比,右肺下叶磨玻璃结节较前新发,右肺下叶一粟粒灶(32)较前新发,请结合临床,随诊;3、右肺炎症,较前新发;4、右肺下叶前基底段钙化灶;双侧胸膜增厚;5、左侧胸腔积液;心包少量积液,胸腔积液较前稍减少。左肺体积减小,左肺门区可见软组织团块影,边界不清,最大截面大小为4.0CM×4.2CM,密度不均,平扫CT值约为40HU,左肺下叶支气管闭塞,左肺上叶支气管局部不均匀变窄,左肺下叶明显膨胀不全,所示左肺透亮度减低,并见条索影。双肺可见多发斑片状高密度影,边缘模糊。右肺部分近胸膜处肺组织小叶间隔增厚,略呈网格状改变,右肺下叶前基底段可见小致密影,右肺另见散在粟粒影。右肺下叶可见(30)可见磨玻璃密度结节影,界清,径约0.6CM。纵隔及左肺门淋巴结肿大,大者短径为1.0CM,左侧胸膜增厚。左侧胸腔积液征象,左肺动脉显示不清,心包内少量液性密度影。</t>
+  </si>
+  <si>
+    <t>右肺下叶背段(37)可见粟粒影。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。两胸腔未见积液征象。主动脉壁及冠脉壁见弧形高密度影。右乳体积明显增大,内见多发团块影,边界尚清,大者大小约6.6CM×6.0CM,CT值约11HU;右侧胸大肌形态改变,边缘毛糙;左乳内见斑点状致密影。右侧锁骨上区、下区及双侧腋窝可见多发肿大淋巴结影,大者短径约1.7CM。1.右肺下叶粟粒灶,较前相仿;2.右侧乳腺癌,肿块较前明显增大;右侧锁骨上区、下区及双侧腋窝多发淋巴结转移;右侧胸大肌形态改变,考虑受侵;3.左乳内钙化灶,详查。</t>
+  </si>
+  <si>
+    <t>右肺下叶可见软组织密度肿块影,大小约为5.1CM×4.0CM,CT值约为10-36HU;双肺可见多个小结节影与粟粒影;右肺上叶可见致密钙化灶;右胸腔积液征象;心脏大血管未见异常。左侧肩胛骨可见骨质破坏,双侧多个肋骨、胸椎密度不均匀。1.右肺下叶恶性肿物,双肺多个小结节与粟粒灶,右侧胸腔少量积液;2.左侧肩胛骨骨质破坏,双侧多个肋骨、胸椎密度不均匀,均为骨转移改变;3.右肺上叶钙化灶。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对比之前PET/CT(2016-12-09):1.结合病史,右乳癌术后,双肺多发转移,左腋窝、纵隔、腹腔及腹膜后多发淋巴结转移治疗后,与前PET/CT相比,病灶明显缩小,代谢降低,现未见明显异常代谢,病情明显好转。2.右肺慢性炎症及局限性纤维变。3.右侧少量胸腔积液。4.考虑子宫肌瘤;子宫局部高代谢灶,建议B超检查。5.双侧扁桃体炎症;双颈部炎性淋巴结。注射示踪剂后60MMIN显像,见大脑形态如常,皮层各叶放射性分布均匀。中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。双侧扁桃体结节状放射性浓聚,最高SUV7.2。鼻咽、下咽及喉部未见异常放射性浓聚。双侧颈中深示轻度放射性摄取增高淋巴结,大者短径约1.0CM,最高SUV2.8。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。右乳术后缺如,右腋窝结构紊乱,右侧胸壁未见显著增厚及明显异常放射性摄取。双侧内乳区淋巴结未见显著增大及明显异常放射性摄取。原PET/CT(2016-12-09)所示双肺多发结节灶,现显著缩小,放射性摄取降低,现未见明显异常放射性摄取。余右肺前胸膜下示斑片状密度增高影,内可见支气管充气征象,可见轻度放射性摄取,最高SUV1.8,右侧胸腔内见少量液性密度影。原PET/CT(2016-12-09)所示左侧腋窝、纵隔内4R、7区、左肺门、门腔静脉间、腹膜后大血管周围多发放射性摄取增高淋巴结,现显著缩小,放射性摄取降低,现未见明显异常放射性摄取。胃壁未示显著增厚及明显异常放射性摄取。肝内未见明显异常放射性摄取。胆囊大小正常,密度均匀。胰腺形态放射性分布尚好,胰管不扩张。脾轻度显影,放射性分布欠均匀。两侧肾脏显影可,肾实质密度均匀。两侧肾上腺显影大致正常。腹水征阴性。盆腔内膀胱放射性浓聚如常。双侧腹股沟淋巴结未见显著增大及明显异常放射性摄取。子宫局部结节状突出,局部结节状放射性摄取增高,摄取灶长径约1.6CM,最高SUV5.4。两侧附件区未见异常放射性摄取。脊柱诸椎体放射性分布欠均匀。	</t>
+  </si>
+  <si>
+    <t>左乳术后,术区结构紊乱,未见结节及结节灶。左侧腋窝结构紊乱。右乳未见异常。左侧内乳见增大淋巴结,短径约0.8CM。左侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰,未见结节及异常强化灶。肝实质内见多发低密度结节及肿块,大者直径约3.7CM。胆囊充盈可,壁不厚。胰脾、双侧肾上腺及双肾未见异常。腹腔及腹膜后未见明显肿大淋巴结。	1.结合临床,左乳癌术后改变,左侧内乳淋巴结肿大2.肝转移,较前片2014-4-2进展。</t>
+  </si>
+  <si>
+    <t>1.右乳癌术后改变;右侧胸膜多发结节灶,考虑为胸膜转移;多发骨质破坏,考虑为骨转移;左锁骨上淋巴结转移2.上腹扫描未见异常右乳术后缺如,术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及內乳区未见肿大淋巴结。右侧胸膜(包括叶间胸膜、膈胸膜)示多发类结节灶,直径约0.5CM,边界欠清,右肺中叶示一结节灶,直径约0.5CM,密度较淡,余双肺野清晰,气管及各级支气管通畅,未见异常密度灶。双肺门及纵隔未见肿大淋巴结。双侧胸腔未见积液征象。扫描野内肝实质密度轻度减低。胸骨、T3、T7、T9、T12椎体呈不规则骨质改变。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上区示多个淋巴结,大者短径约1.2CM。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。肝脏大小形态未见异常,肝实质未见异常密度影。胆囊、胰腺、脾、双肾、肾上腺未见异常,腹腔腹膜后未见肿大淋巴结影。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,肝癌伴肝内转移治疗后,较前片2014-8-12变化不著2.双肺尖多发类结节灶,较前变化不著;右肺下叶结节灶,部分较前略增大,不除外转移;右侧叶间胸膜结节灶,较前变化不著3.肝囊肿4.双肺上叶气肿5.双肺上叶纤维灶6.左侧肾上腺饱满,变化不著。肝脏体积增大,形态欠规则,实质内见多发混杂密度结节及肿块影,边界欠清,部分可见假包膜形成,大者截面积约12.8CM×10.0CM,部分其内示高密度碘油影沉积;增强扫描呈中度不均匀强化,大者其内可见低密度坏死区,延迟后病灶部分可见廓清。另肝内可见散在囊性密度灶,未见强化。门脉主干及左支显示尚可,门脉右前支示受压显著变窄,右后支显示欠清。胆囊充盈可,壁不厚。胰腺、脾、双肾及右侧肾上腺未见明确异常。左侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。双肺尖见多发类结节灶,直径不足0.5CM。另右肺下叶示类结节灶(5-46),大者短径约0.2CM。双肺上叶见多发泡状过度透亮区及条索状密度增高影。双肺门及纵隔未见明确肿大淋巴结。右侧叶间胸膜增厚局部示类结节灶。	</t>
+  </si>
+  <si>
+    <t>双肺可见多发的大小不等的小结节影。右肺中叶、下叶、左肺上叶舌段可见片状的高密度影。右肺下叶可见团块影,CT值约为36HU,长径约为4.45CM。两肺纹理清晰。所示气管支气管影正常。两肺门、纵隔内可见多发肿大的淋巴结。两胸腔积液征象。心包积液。甲状腺明显肿大。右侧第四肋根部可见密度增高影。1.右肺下叶病变,考虑周围肺癌,双肺多发转移瘤,双肺门、纵隔淋巴结转移;2.双胸腔积液,心包积液;3.右肺中叶、下叶、左肺上叶舌段炎症;4.右侧第四肋根部密度增高影,请结合临床。</t>
+  </si>
+  <si>
+    <t>右肺上叶尖段可见软组织肿块影,最大截面约1.2CM×1.6CM,边缘浅分叶可见细毛刺,内缘有长毛刺与纵隔相连,增强扫描呈中等不均匀性强化;右肺野可见一类结节灶(3-37)、左肺上叶(3-29),大者直径约0.3CM。双侧锁骨上区、右肺门、纵隔内右侧气管食管沟、气管右前、腔静脉后、血管前、主肺动脉窗区及隆突下可见肿大淋巴结,大者短径约1.2CM。肝脏形态、大小可,实质密度均质。肝内外胆管未见扩张。胆囊充盈可,壁不厚。胰、脾、扫描野内双肾形态大小密度未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。骨窗示锁骨、肋骨、椎体可见多发骨质破坏。	1.结合临床,右肺上叶癌侵及脏层胸膜并双侧锁骨上区、右肺门及纵隔淋巴结转移,骨转移2.双侧肾上腺饱满,建议观察。</t>
+  </si>
+  <si>
+    <t>右肺中叶支气管开口处见一不规则软组织密度肿块影,边缘模糊,病变大小不易测量,增强后可见轻度强化。病变远端示片状肺不张影。双肺见多发结节灶,大者直径约0.5CM。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶,大者直径不足0.5CM。右肾见直径约0.5CM低密度结节灶,未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分胸椎骨质密度增高,右侧第3肋局限性骨质密度增高。	1.结合临床,右肺癌并阻塞性炎症,较前片(2015-10-22)示进展2.双肺多发结节灶,考虑转移,较前部分略增大,部分变化不著3.肝囊肿4.部分胸椎体及肋骨骨质密度增高,考虑转移,较前变化不著5.右肾低密度灶,变化不著。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张、肺炎治疗后,较前(2016-9-12)缩小;双侧胸膜多发结节灶,考虑转移,部分略缩小,部分变化不著;纵隔淋巴结转移,略缩小;右肾上腺转移,变化不著2.肝囊肿;双肾囊肿;左肾低密度灶,胰腺低密度灶,建议观察3.心包、左胸腔少量积液,略减少4.右肺类磨玻璃密度灶,建议观察5.部分椎骨密度略增高,请结合其他检查或观察。左肺门周围可见不规则软组织密度肿块影,约3.7CM×4.3CM,增强扫描呈明显不均匀强化,与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。右肺上叶近胸膜下示类磨玻璃密度灶。双侧胸膜及叶间胸膜上可见多发类结节灶,大者长径约0.6CM。纵隔内2R、4R、4L、5、6、7、8区示多发融合的淋巴结影,大者短径约1.8CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常,肝实质内可见数个囊性低密度灶,边界清,增强扫描无强化。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常,右肾上腺示一类结节灶,长径约3.3CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨密度略增高。	</t>
+  </si>
+  <si>
+    <t>右肺下叶切除术后,右下肺门区见斑片状软组织密度影,边缘欠清,范围约2.5CM×2.6CM,增强扫描可见轻度强化。右肺下叶见索条影。左肺清晰,未见结节及肿块。余气管及段以上支气管管腔通畅。右侧胸腔见少量液性密度影。右肺门、纵隔内2R、3A、4R、6、7区见多发增大淋巴结,部分融合成团,大者大小约为5.0CM×3.7CM,位于4R区。扫描野内肝脏密度普遍性降低,肝右叶见一类圆形强化结节灶,边界清,直径约0.7CM。门腔间隙示增大淋巴结,短径约0.8CM。左前下胸壁软组织内示梭形脂肪样密度影,边界清。骨窗示:左侧肩胛骨局部骨质结节状稀疏。	1.结合病史,右肺癌术后,右下肺门区小片状软组织密度影,较前(2015-06-08)增大,复发可能大,请结合支气管镜检查;右肺门、纵隔多发淋巴结转移,较前进展2.右肺纤维灶,右侧少量胸腔积液,变化不著。3.脂肪肝;肝血管瘤,变化不著。4.左胸壁脂肪瘤,变化不著。5.左侧肩胛骨局部骨质稀疏,建议进一步检查。</t>
+  </si>
+  <si>
+    <t>右乳腺体内可见多发软组织密度结节灶,大者直径约4.5CM,边缘毛糙,增强后呈明显强化,部分相互融合,与乳腺皮肤多发结节灶分界欠清,并相互融合,增强后呈较显著强化。右侧腋窝可见融合成团的肿大淋巴结,边缘分叶,局部可见溃疡形成,增强后呈较显著不均质强化。右侧胸肌内亦可见多发结节灶,边缘模糊,可见较显著强化。右侧胸壁显示水肿。双肺内可见散在类圆形结节灶,边界较清晰,大者直径约0.8CM。左乳未见异常。纵隔内未见肿大淋巴结。右锁上、左侧腋窝、双侧内乳区、气管右旁可见肿大淋巴结,大者短径约1.3CM,边缘较模糊。双侧甲状腺体积增大,局部可见低密度灶及散在钙化灶。右侧锁骨呈内固定术后改变,余扫描野内骨质未见明显破坏。肝脏实质密度减低。胆囊充盈可,壁不厚。胰、脾、双侧肾上腺及左肾未见异常。右肾内可见囊性密度灶,未见强化。腹腔及腹膜后未见肿大淋巴结。脑实质均质,未见异常密度灶。脑室系统未见扩张。中线结构居中。	1.右乳癌并侵及皮肤及胸壁,右腋窝淋巴结转移,右侧胸壁转移,双肺转移2.右锁上、左侧腋窝、双侧内乳区、纵隔淋巴结略肿大3.甲状腺增大伴低密度灶及钙化灶,请结合其他检查4.脂肪肝5.右肾囊肿6.右侧锁骨内固定术后改变7.颅脑扫描未见异常。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,左侧乳腺癌术后,左侧内乳淋巴结转移2.纵隔、右侧腋窝淋巴结肿大,考虑转移3.右侧心膈角淋巴结肿大,请结合临床或观察4.脂肪肝;肝囊肿5.左肺上叶胸膜下慢性炎症及纤维变6.颅脑扫描未见异常。左侧乳腺术后,局部胸壁未见显著增厚。右侧乳腺形态、大小、密度未见异常。左侧腋窝结构紊乱,未见增大淋巴结。左侧内乳区见短径约1.3CM淋巴结(图3-25)。右侧腋窝见多发增大淋巴结,大者短径约1.0CM。纵隔内血管前间隙3A、气管前间隙4R、弓旁6区见多发增大淋巴结,大者短径约1.2CM。右侧心膈角见短径约0.5CM淋巴结。左肺上叶胸膜下见少许条索状影。双侧胸腔内未见液性密度影。扫描野内肝脏密度减低,右叶见直径约0.8CM囊性密度灶,边缘清晰。脑实质内未见异常密度影,脑沟、脑池未见增宽,脑室大小、形态,位置正常,中线结构居中。各颅骨骨质形态未见异常改变。	</t>
+  </si>
+  <si>
+    <t>左侧乳腺可见弥漫分布的结节样、小片状异常信号区,表现为T1WI等信号,T2WI略高信号,压脂序列高信号,DWI序列高信号,注射对比剂GD-DTPA后呈环形强化,动态增强曲线呈平台型,大者约9MM×11MM,部分病变与胸壁间可见条索相连,左乳皮肤增厚,乳头凹陷。右侧乳腺可见数个强化小结节。所扫左侧腋窝结构紊乱,可见数个大小不等淋巴结,大者直径约6MM。所扫右侧腋窝可见多个小淋巴结。余未见异常。	1.结合临床,左乳癌并左腋窝淋巴结转移,较本院(2014-11-27)MR片好转。2.右乳多发结节灶,考虑良性病变(BI-RADSIII级),较前变化不著。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右肺上叶癌侵及脏层胸膜并双侧锁骨上区、右肺门及纵隔淋巴结转移,较前(2016-02-18)略好转;骨转移2.双侧肾上腺饱满,变化不著3.子宫未见显示,建议结合临床。右肺上叶尖段可见软组织肿块影,最大截面约1.0CM×1.4CM(肺窗),边缘浅分叶可见细毛刺,内缘有长毛刺与纵隔相连,增强扫描呈中等不均匀性强化;余双肺野较清晰,未见明确异常密度灶。双侧锁骨上区、右肺门、纵隔内右侧气管食管沟、气管右前、腔静脉后、主肺动脉窗区及隆突下可见肿大淋巴结,大者短径不足1.0CM。肝脏形态、大小可,实质密度均质。肝内外胆管未见扩张。胆囊充盈可,壁不厚。胰、脾、扫描野内双肾形态大小密度未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。膀胱充盈可,壁不厚。子宫未见显示。盆腔内未见明确肿大淋巴结。骨窗示双侧锁骨、左侧肱骨、双侧肩胛骨、胸骨、双侧多发肋骨、多发胸腰骶椎椎体、双侧髂骨、耻骨及坐骨、双侧股骨可见多发骨质破坏。	</t>
+  </si>
+  <si>
+    <t>右肺上叶尖段支气管闭塞,前段及后段支气管管壁略厚,管腔狭窄,可见团块状稍高密度影,大小约7.7CM×5.5CM,可见浅分叶,边缘可见细短毛刺,CT值约22HU,右上支气管受压变窄,增强后扫描呈不均匀强化,三期CT值分别为69HU、49HU、43HU,右上肺动脉变窄,远端显示欠清,上腔静脉管腔狭窄,其内可疑充盈缺损;右肺中叶、下叶、左舌段可见索条灶,左肺下叶见片状高密度影;左肺下叶近斜裂(37)可见小结节影,径约0.4CM。双肺见多发局限性透亮影。纵隔内可见增大的淋巴结,部分融合,短径约2.6CM;右侧锁骨上淋巴结增大,大者短径约1.12CM。两胸腔无积液征象,右侧胸膜局限性增厚。心包内可见条形液体密度影,大血管未见异常。双侧腋窝内多发稍大淋巴结影,大者短径约0.7CM。1.右肺上叶团块影,考虑中央型肺癌,纵隔、右侧锁骨上淋巴结转移;右上肺动脉变窄;上腔静脉管腔狭窄,可疑瘤栓;较前CT片(2012-07-02)明显增大,请结合临床;2.肺气肿;双肺索条灶;左肺下叶炎症;3.心包积液;4.左侧斜裂小结节,较前相仿,请随诊。</t>
+  </si>
+  <si>
+    <t>右肺上叶可见软组织密度肿块影,大小约3.3CM×4.7CM,分叶状,边缘毛糙,增强后呈明显强化。右肺内(图5-19、46、49)可见结节灶,大者直径约0.3CM。纵隔内未见肿大淋巴结。肝脏实质内可见囊性密度灶,大者直径约0.5CM。胆、胰、脾及双肾未见异常。腹膜后未见肿大淋巴结。	1.右肺癌并右肺转移2.肝囊肿。</t>
+  </si>
+  <si>
+    <t>左肺上叶近纵隔旁见团片状软组织影,最大截面大小约为5.78CM×3.56CM,CT值约35HU;右肺上叶后段可见一结节,径约0.5CM;双肺纵隔旁及胸膜下见多个条索状及斑片状高密度影。腔静脉间隙、主动脉弓旁、气管隆突上纵隔及左肺门多发结节状软组织影,密度欠均匀,见小斑片状高密度影,部分融合。双侧胸膜略增厚。心影不大,大血管壁可见钙化影,心包增厚。1.左肺上叶肺癌并左肺门及纵隔淋巴结转移,较前片2013-05-31部分进展;2.右肺上叶小结节,与前相仿;3.双肺纵隔旁及胸膜下放射性肺炎,较前好转;4.双侧胸膜略厚,心包增厚。</t>
+  </si>
+  <si>
+    <t>左肺下叶术后缺如,左肺门见高密度吻合器影,残余左肺见索条影,左侧胸膜不均匀增厚,可见强化;左侧膈上淋巴结肿大。左侧胸膜腔内见少量液性密度影,呈包裹性改变。右肺上叶后段胸膜下小结节灶,大小约0.4CM×0.3CM。肝实质密度均匀,肝内胆管略示扩张。胆囊胰脾右肾未见异常。左肾见小囊肿。左侧胸膜示多发结节样增厚伴强化。左侧胸腔见液性密度影。腹腔及腹膜后未见明显肿大淋巴结。	1.左肺癌术后,左侧胸膜及淋巴结转移,少量胸腔积液2.左肺炎症及纤维灶3.肝内胆管扩张4.左肾小囊肿。</t>
+  </si>
+  <si>
+    <t>左乳术后缺如,胸肌尚存,左侧胸壁见软组织影,边缘模糊,大者短径约1.8CM,示明显不均质强化,邻近前胸壁皮肤局部增厚呈软组织密度影,明显强化。双锁上、左肺门、纵隔、左侧颈后三角区、膈上见肿大淋巴结,边界尚清,大者短径约1.2CM。双肺见结节灶,大者直径约1.0CM,双肺纹理增强并见斑片模糊略高密度影。下颈背部皮下见一长径约1.3CM的强化灶。肝内见多发低密度灶,边缘轻度强化,大者长径约3.2CM。胆囊充盈可,壁不厚。胰脾、双侧肾上腺及右肾未见异常。扫描野内左肾未见显示。腹腔及腹膜后见稍大,边界不清。骨窗示:胸骨、部分胸腰椎椎体、肋骨见骨质破坏区。	1.结合临床,左乳癌术后,术区复发,较前片(2016.03.01)略示好转;左锁上、颈部、左肺门、纵隔及膈上淋巴结转移,总体较前略示好转;双肺转移,较前略示好转;多发肝转移,较前进展。2.多发骨转移,较前变化不著。颈背部结节,不除外转移,较前变化不著。腹腔略大淋巴结,较前变化不著。3.双肺炎症。</t>
+  </si>
+  <si>
+    <t>左肺门周围可见不规则软组织密度肿块影,约4.2CM×4.9CM,增强扫描呈明显不均匀强化,与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。双肺内见多发斑片状密度增高影。左肺上叶示一结节灶,直径约0.9CM,双侧胸膜及叶间胸膜上可见多发类结节灶。纵隔内2R、4R、4L、5、6、7、8区示多发融合的淋巴结影,大者短径约1.2CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常,肝实质内可见数个囊性低密度灶,边界清,增强扫描无强化。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常,右肾上腺示一类结节灶,长径约3.6CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨、肋骨密度略增高。	1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张,较前(2016-1-10)略好转;肺炎治疗后,较前变化不著;左肺上叶结节灶较前略增大,考虑转移;双侧胸膜多发结节灶,考虑转移,变化不著;纵隔淋巴结转移,较前略缩小;右肾上腺转移,变化不著2.肝囊肿;双肾囊肿;左肾低密度灶,胰腺低密度灶,变化不著3.心包、左胸腔少量积液,略减少4.部分椎骨及肋骨密度略增高,考虑转移,较前变化不著。</t>
+  </si>
+  <si>
+    <t>右肺中叶支气管开口处见一不规则低密度影,边缘模糊,大小不易测量,增强后可见轻度强化,远端示片状肺不张影。双肺见多发结节灶,部分边界欠清。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶,大者直径不足1.0CM。右肾见直径约0.5CM低密度灶,未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分椎骨示成骨性破坏。右侧第3肋局限性骨质密度增高。	1.结合临床,右肺癌并阻塞性肺不张治疗后,较前(2016-1-6)局部范围略缩小;双肺多发结节灶,考虑转移,部分增大,部分变化不著;骨转移,部分变化不著,部分密度略增高2.肝囊肿3.右肾低密度灶,变化不著4.部分肋骨密度增高,变化不著。</t>
+  </si>
+  <si>
+    <t>右肺上叶后段周围型肺癌,纵隔淋巴结转移。右肺上叶后段可见团块影,截面约2.50CM×2.12CM,CT值约32HU,增强有强化,三期CT值约53HU、68HU、47HU;病灶位于右肺门上区,腔静脉后及气管前可见团块影,截面约3.15CM×1.82CM,CT值约44HU。各大血管边界清晰。主动脉,肺动脉主干及其左右分支内造影剂密度均匀。</t>
+  </si>
+  <si>
+    <t>右乳术后,术区壁未见增厚及异常强化。纵隔内右上气管、血管前间隙、隆突下、食管旁见小或增大淋巴结,大者短径约0.6CM。双锁骨上及左侧腋窝示小淋巴结,大者短径不足0.5CM。右侧腋窝未见增大淋巴结。双肺见多发结节、类结节灶及小斑片影,部分与邻近胸膜分界不清,大者直径约0.8CM。余双肺内示条片密度增高影,局部牵拉邻近胸膜。双侧胸膜略增厚,左侧胸膜见少许斑点状钙化灶。双侧胸腔未见积液征象。肝脏体积缩小,左叶为著,肝内见多发结节灶,融合成团,大小不易测量,增强后呈不均匀强化。门脉左支充盈欠佳。腹腔内贲门旁、肝胃韧带区、肝十二指肠韧带区、腹膜后腹主动脉旁见多发小或增大淋巴结,大者短径约0.6CM,部分与胰腺分界欠清。膈上后组见短径不足0.5CM小淋巴结。胆囊充盈可,壁增厚并见强化。左肾示囊性低密度灶,大者长径约0.7CM,部分边界欠清。脾内示小斑片状低密度区。双侧肾上腺及右肾未见异常。腹腔内示液性密度影。大网膜、腹膜、肠系膜略增厚。胸骨、右侧肱骨、锁骨、肋骨、胸腰椎示多发溶骨性、成骨性骨质破坏,局部周围示软组织影,部分肋骨骨质欠连续。	1.结合临床,右乳癌术后;纵隔淋巴结肿大,较前(2015-08-17)变化不著;腹腔及腹膜后淋巴结肿大,变化不著;双肺转移,部分增大,部分变化不著;原肝转移,较前考虑变化不著;多发骨转移,基本变化不著2.胆囊炎;考虑左肾囊肿,变化不著;脾内低密度灶,变化不著3.腹膜、网膜、肠系膜略增厚;少量腹水,略减少4.门脉左支充盈欠佳,变化不著5.考虑双肺炎症,较前好转;双侧胸膜略增厚并左侧胸膜钙化灶,变化不著。</t>
+  </si>
+  <si>
+    <t>1.右下肺中心型肺癌,较前片(2013-9-9)进展,并右肺间质性改变,考虑淋巴道转移,右侧胸膜转移,右侧胸腔包裹性积液;右侧腋窝及纵隔淋巴结转移;右侧多个肋骨、胸3椎体成骨性转移;请结合临床;2.右乳钙化结节,较前相仿;3.左肺下叶外基底段粟粒灶,较前相仿。双侧胸廓不对称,右侧胸廓塌陷,右肺体积减小,右肺下叶见团块状高密度影,形态不规则,边界不清楚,大小约4.1CM×5.4CM,CT值约37HU,右侧主支气管及各叶支气管受压变窄;右侧胸膜弥漫性增厚,右肺间隔结节样增厚;右侧胸腔可见包裹性积液;右侧腋窝、纵隔淋巴结增大,大者短径约1.39CM。左肺下叶外基底段(S35)可见粟粒影。心影大小正常范围。右侧第2、4、7、8肋骨、胸3椎体骨质密度不均匀增高,形态不规整。右侧乳腺外上象限内见一结节影,径约0.98CM,边界清晰,其内见点状钙化。</t>
+  </si>
+  <si>
+    <t>左乳外上象限及上份示大者截面约2.4CM×1.8CM不均质显著强化软组织密度灶,边缘分叶、毛糙。余双乳腺体强化欠均。左腋窝示大者短径约1.1CM淋巴结。右腋窝、双侧内乳区、肺门及纵隔内未见肿大淋巴结。右肺内示类结节灶、索条影。甲状腺内示低密度灶。扫描野内肝内示多发低密度灶,增强扫描边缘示斑片状明显强化。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。	1.考虑左乳癌并左腋窝淋巴结转移。2.右肺类结节灶、纤维灶。3.甲状腺低密度灶。4.考虑肝多发血管瘤,请结合其他检查。5.颅脑CT扫描未见明显异常。</t>
+  </si>
+  <si>
+    <t>1.结合临床,左乳癌术后改变;右肺结节灶,建议观察;胸骨骨质密度增高,考虑转移,建议观察2.左肺下叶炎症3.脂肪肝4.颅脑扫描未见明显异常左乳术后缺如,胸肌尚存,术区未见明显增厚及强化。右肺内见结节灶,大者直径约1.3CM。左肺下叶胸膜下见斑片状密度增高影。纵隔内未见肿大淋巴结影。胸膜无增厚,胸腔内未见积液征象。扫描野内肝脏实质密度均匀性减低,大小形态可,未见异常密度灶。脑实质密度正常,未见明显异常密度灶及强化灶。脑室、池无扩张,中线结构居中,颅骨诸骨质未见破坏。胸骨骨质密度增高。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,直肠癌术后,双肺转移瘤,较前2016-01-28部分缩小,部分变化不著2.双肾低密度灶,变化不著3.双侧胸膜略增厚,变化不著4.甲状腺低密度灶,变化不著5.双肾囊肿。双肺近胸膜下示多个结节灶及肿块,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约3.0CM(纵隔窗),内示小空泡影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶,边缘较清晰。肝脏实质密度均质。胆囊充盈可,壁不厚。胰、脾及双侧肾上腺未见异常。双肾见斑片状低密度灶,边界欠清。双肾内可见散在小囊性密度灶,边界清晰,未见强化。腹腔及腹膜后未见明显肿大淋巴结。直肠保肛术后,术区可见金属吻合钉影,周围肠壁未见明显增厚及异常强化。膀胱充盈可,壁不厚。前列腺及精囊腺未见异常。盆腔内未见积液及肿大淋巴结。	</t>
+  </si>
+  <si>
+    <t>右下肺门区可见软组织密度肿块影,边缘模糊,与周围膨胀不全肺组织分界不清,右肺下叶内侧及后基底段支气管示阻塞,病变大小不易测量,增强扫描呈中度不均匀强化。病变远端见片絮状及条索状密度增高影。右肺野内(图4-33)及右肺胸膜下见数个类结节灶,边界尚清,大者直径约0.3CM。左肺野较清晰,未见明确异常密度灶。右侧胸膜示条状增厚并强化。右侧胸腔内示液性密度影。心包腔内见少量液性密度影。右肺门、纵隔内4R、4L、5区、7区见多发肿大淋巴结,大者短径约0.9CM。另于左锁上及右侧心膈角区见小淋巴结,短径约0.5CM。脑实质内见多发结节灶,边界欠清,增强扫描呈边缘环形强化,大者直径约4.5CM,周围见片状低密度水肿区。双侧上颌窦内示液性密度影。骨窗示:右侧胸锁关节示成骨性骨质改变,约右侧第5后肋示骨质密度不均匀。	1.结合临床,右肺癌并右肺膨胀不全,肿瘤大小不易与前片比较;右肺门、纵隔淋巴结转移,较前2014-7-4略示好转;脑转移治疗后,较前好转2.右侧胸膜增厚,考虑转移3.右侧胸锁关节骨转移4.右侧第5后肋骨质密度不均,建议观察5.右肺类结节灶,建议观察6.右侧胸腔积液,较前增多7.心包腔少量积液8.双侧上颌窦炎症。</t>
+  </si>
+  <si>
+    <t>右乳术后,前胸壁近胸骨旁软组织增厚,并见较显著强化。右侧腋窝结构紊乱。右侧内乳区、纵隔内右上气管旁、右侧锁骨上见稍大或增大淋巴结,部分融合,大者短径约1.3CM,增强后部分强化较显著。右肺见少许索条影。双侧胸腔未见积液征象。肝内见多发低密度结节灶,边缘欠清晰或模糊,大者长径约1.5CM,增强后部分边缘似见强化。扫描野内右肾见直径不足0.5CM小囊性低密度结节灶,边缘清晰,未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔及腹膜后未见增大淋巴结。鼻咽、口咽、喉及下咽未见异常。左侧上颌窦粘膜略增厚。双侧颈动脉鞘区见短径不足0.5CM小淋巴结。双侧甲状腺大小密度形态可。1.结合临床,右乳癌术后,右侧胸壁复发;右侧锁骨上淋巴结转移;右侧内乳区淋巴结肿大,考虑转移2.右肺纤维灶3.肝内低密度灶,部分转移可能性大,建议观察或MRI检查4.右肾囊肿5.左侧上颌窦炎</t>
+  </si>
+  <si>
+    <t>右肺下叶支气管局部狭窄截断,周围示软组织密度肿块影,最大截面约2.9CM×3.2CM,与远端少许实变不张肺组织和肺门区肿大淋巴结分界不清;增强后呈明显强化。左肺野较清晰。右侧胸膜(含叶间胸膜)增厚呈条状及类结节状,并可见强化。心包内示少量液体密度影。右侧乳腺术后缺如,术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区未见明显肿大淋巴结。左锁上见肿大淋巴结,短径约0.9CM。纵隔内4R、4L、5区、7区见多发小淋巴结,大者短径约0.5CM。所扫肝右叶示颗粒状钙化密度影。左侧大脑内示多发结节、肿块影,大者截面约2.9CM×3.4CM,其内呈囊性密度灶,增强扫描呈边缘环形强化;周围示片状无强化的低密度水肿带,邻近侧脑室局部略示受压。中线结构尚居中。左侧上颌窦内示液体密度影。骨窗:胸骨柄右侧、胸骨下段、多发胸椎椎体局部骨质密度不均匀增高。	1.结合临床,右侧中心型肺癌并阻塞性不张治疗后,较前(2015-3-31)明显好转;右肺门淋巴结肿大,较前好转;右侧胸膜(包括叶裂)增厚,较前好转,考虑转移;骨转移,变化不著;脑转移,较前略缩小2.心包积液较前减少3.右侧乳腺术后改变5.肝内钙化灶6.左上颌窦炎症。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后改变,双肺转移,较前(2015-1-6)变化不著;肝转移,部分较前进展,部分较前好转;多发骨转移较前变化不著2.右侧腋窝囊性密度灶较前变化不著3.左肺炎症,较前加重,右肺纤维灶4.左侧胸腔积液。右乳术后缺如,部分胸肌尚存,术区未见异常强化灶。右侧腋窝结构紊乱,局部示一囊性密度灶,直径约2.4CM,可见环形强化。左乳及左侧腋窝未见异常。双肺野示多发结节灶,边缘较清,大者直径约0.3CM。右肺上叶及左肺下叶可见斑片状条索状密度增高影。双肺门及纵隔未见增大淋巴结。左侧胸腔内可见液性密度影。肝实质内示数个低密度灶,边缘较模糊,可见轻度强化,大者直径约2.1CM。胆囊充盈可,壁不厚。胰、脾、双肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。。部分胸腰椎及附件、部分肋骨可见成骨性骨质破坏。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳术后复发侵及纵隔,骨转移2.颅脑扫描未见明确异常。右乳术后缺如,部分胸肌尚存,胸骨右旁可见软组织肿块影,最大截面约2.3CM×5.0CM,显著强化,向后累及前纵隔,其内胸骨示稀疏破坏。右侧腋窝呈术后状态,未见肿大淋巴结。左乳及左侧腋窝未见明确异常。双侧肺野清晰,肺纹理走形自然,气管及各级支气管通畅。双侧内乳区、纵隔及双肺门未见明确肿大淋巴结。脑实质密度正常,未见明显异常密度灶。脑室、池无扩张,脑沟、裂无增深,中线结构居中,颅骨诸骨质未见破坏。骨窗示部分胸椎椎体可见溶骨性破坏。	</t>
+  </si>
+  <si>
+    <t>右乳癌术后,术区结构紊乱,局部增强前后未见明显占位性病灶。肝左右叶可见多发大小不等病灶,T1WI呈略低信号,T2WI及压脂像呈略高信号,DWI呈高信号,增强扫描病灶呈不均匀强化。肝实质内及双肾实质内可见散在囊性结节,边界清楚,无强化,大者约1.0CM位于左肾。胆囊不大。脾、胰腺增强前后未见异常信号区。腹膜后未见明显肿大淋巴结。所扫部分椎体可见斑片状骨质破坏区,呈长T1短T2信号,压脂像及DWI为高信号,不均匀强化。双侧大、小脑半球及脑干大小、形态及灰白质位置正常,脑实质增强后扫描未见明显异常信号改变。脑室、脑池、脑沟未见明显异常。中线结构无移位。左上颌窦可见一囊性结节,边界清楚。余未见异常。	1.结合病史,右乳癌术后,肝(多发)及椎体转移。2.肝及双肾囊肿。3.颅脑MR扫描未见异常。4.左上颌窦囊肿。</t>
+  </si>
+  <si>
+    <t>1.左乳癌术后,肝脏多发转移瘤,较前2015-5-13变化不著;肝左叶胆管扩张2.右侧心膈角区淋巴结稍大3.左肺上叶含气囊肿4.双肾小囊肿左乳术后缺如,部分胸肌存在,术区未见明显增厚及异常强化;左侧腋窝术后,结构紊乱。右乳及右侧腋窝未见明确异常。左肺上叶可见类圆形过度充气区,边界清晰,余双侧肺野清晰,肺纹理正常,肺内未见实质性病变影。双侧各叶、段支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。右侧心膈角区淋巴结稍大,短径约0.5CM。肝脏实质内可见多发低密度肿块及结节灶,大者直径约10.1CM,边界欠清,其内可见大片状低密度坏死区。肝左叶胆管轻度扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺形态、大小、密度未见异常。双肾实质内可见散在小囊性密度灶,大者直径约0.3CM,边界清晰,未见强化。腹腔及腹膜后未见增大淋巴结。</t>
+  </si>
+  <si>
+    <t>右肺下叶见不规则软组织肿块,截面约6.1CM×3.1CM,边缘毛糙,增强后呈中等到显著不均匀强化;其远端肺野见多发斑片状及索条状密度增高影,局部支气管示扩张,局部小叶间隔增厚。右肺门及纵隔内2R、4R、4L、6、7、8R区见多发增大或小淋巴结,大者短径约1.3CM,部分增强后强化显著。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝、胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。	1.结合临床,右肺癌;纵隔淋巴结转移;右肺门淋巴结肿大,考虑转移2.右肺下叶炎症3.右肺下叶小叶间隔增厚,建议观察4.上腹部扫描未见异常。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右肺癌治疗后,较前(2014-12-12)变化不著;右侧胸膜转移较前变化不著,右侧胸腔积液伴右肺局限性实变,进展2.左侧叶间胸膜结节灶,转移不除外,较前变化不著,建议观察3.肝内多发强化灶,考虑血管瘤4.少量腹水5.部分肠腔扩张,肠壁增厚,请结合临床。右侧胸腔内可见大量液性密度影,右肺中下叶萎缩实变,右肺下叶背段脊柱旁可见软组织密度结节灶,大小约1.7CM×1.0CM,边缘毛糙,局部与邻近胸膜关系密切,并可见胸膜牵拉征;增强后结节呈中度不均匀强化。右侧胸膜(含叶间胸膜及纵隔胸膜)示不规则增厚,局部呈条状及结节状,增强扫描可见强化。左侧叶间胸膜见多发结节灶。双肺门及纵隔内间隙模糊,未见肿大淋巴结。肝脏大小、形态可,动脉期实质内见数个强化结节灶,边界较清,强化较显著,门脉及延迟期部分显示不清。另于肝右叶见一低密度灶(图2-55),边界清,直径约0.8CM,动脉期中心可见强化,门脉及延迟显示欠清。胆囊充盈可,壁不厚。胰腺、脾及双肾未见明确异常。腹腔、腹膜后未见明确肿大淋巴结。腹腔内部分肠道明显扩张,肠壁增厚并分层,腹腔内可见少量液性密度影。	</t>
+  </si>
+  <si>
+    <t>右侧乳腺术后,术区结构紊乱,部分胸肌尚存,右侧胸壁近胸骨旁软组织增厚,相邻胸骨骨质破坏。扫描野内右侧颈后三角区、右侧内乳区及纵隔内见多发增大淋巴结,部分边界欠清。左侧乳腺未见异常。左侧腋窝见直径不足1.0CM淋巴结。双肺野见数个结节灶,大者直径不足1.0CM。甲状腺内示低密度灶,直径约0.7CM,边界欠清。部分肋骨及椎骨骨质密度不均,左侧部分肋骨骨质欠连续。	1.结合临床,右侧乳腺癌术后,右侧胸壁复发并累及胸骨治疗后,较前(2017-1-9)变化不著;右侧颈部、右侧内乳区、纵隔淋巴结转移治疗后,淋巴结显示不清2.左侧腋窝淋巴结稍大,略缩小3.双肺结节灶,变化不著4.部分肋骨及椎骨骨质密度不均,基本变化不著5.甲状腺低密度灶,变化不著。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后2.右肺占位,考虑右肺癌3.右肺门及纵隔淋巴结肿大,考虑转移;右锁上淋巴结肿大4.右侧胸膜增厚并结节灶,考虑转移5.左侧胸腔少量积液6.胆囊炎7.甲状腺左侧叶低密度灶,建议观察。右肺尖见不规则软组织密度影,其边缘可见小空洞影,边缘分叶、模糊,并可见胸膜牵拉征,截面积约3.6CM×2.5CM;增强扫描呈较显著不均匀强化。右肺上叶及中叶见少许条索状密度增高影。左肺野较清晰。右肺门、纵隔内2R、3A、4R、7区见多发肿大淋巴结,大者短径约1.7CM,增强扫描呈不均匀强化。右锁上见稍大淋巴结,短径约0.5CM。右侧胸膜局部增厚呈结节状(图8-26),直径约0.6CM,呈较显著不均匀强化。甲状腺左侧叶见小低密度灶,边界尚清,直径约0.5CM。右乳术后缺如,术区结构紊乱,周围间隙模糊,未见明确异常强化。左乳及左侧腋窝未见明确异常。左侧胸腔内见少量液性密度影。胆囊壁增厚。	</t>
+  </si>
+  <si>
+    <t>右肺上叶后段近胸膜处示软组织结节灶,增强扫描明显强化,截面约2.1CM×1.7CM。双肺内示泡状过度透光区。纵隔内气管右旁、腔静脉后间隙、隆突下、右肺门示增大淋巴结,大者短径约2.1CM。右侧胸膜增厚呈结节及肿块状,明显强化。右侧胸腔示液体密度影。肝实质内示数个囊性密度灶,大者短径约0.5CM。胆胰脾双肾上腺双肾形态、密度未见明显异常。腹腔及腹膜后未见明显增大淋巴结。鼻咽、口咽、喉咽壁未见明显增厚。右颈部示稍大淋巴结,大者短径约0.4CM。	1.结合临床,右肺癌并右肺门、纵隔淋巴结转移;右侧胸膜转移2.肝囊肿3.颈部扫描未见明显异常。</t>
+  </si>
+  <si>
+    <t>右肺下叶背段(S29)见椭圆形肿块影,约1.58CM×1.17CM,边缘不规整,可见多发毛刺影,并见血管影进入,牵拉邻近胸膜,CT值约6HU。右肺下叶见斑片影。右肺门区及纵隔内可见多发肿大淋巴结影,大者短径约2.07CM,双侧胸腔未见积液征象。心脏大血管未见异常。双侧第10后肋、胸骨柄及胸骨体内可见高密度影,胸2椎体内可见结节状高密度影,胸2附件骨质可见溶骨性破坏区。1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移,肿块较2014-05-20CT缩小;2.右肺下叶炎症,较前相仿;3.所示多发骨转移征象,右侧第10后肋病理性骨折,胸2椎体内及胸骨柄内病灶较前范围增大,密度增高。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后,肝转移,较前2016-2-16片增大;右肺结节灶,转移待排2.左肺纤维灶3.胆囊炎。右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一结节灶,直径约0.6CM,边界清。纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块,大者直径约3.5CM,边缘模糊,轻度强化。胆囊充盈可,壁示增厚。胰、脾及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.右肺下叶中心型肺癌累及肺门、纵隔并阻塞性肺不张、肺炎;右肺门、纵隔淋巴结转移,上述病变较前2016-11-1好转。2.肝、右肾囊肿。3.双颈部小淋巴结。4.双侧胸膜略增厚。5.右肺上叶钙化灶。6.双肺气肿。右肺下叶支气管周围可见一不规则软组织密度肿块影,约4.4CM×4.8CM,增强扫描呈明显不均匀强化,与其远端不张的肺组织分界不清,远端可见斑片状密度增高影,向内与肺门淋巴结分界不清,与纵隔内软组织及心包、大血管分界不清,余双肺野内散在囊泡状过度透光灶,右肺上叶示一钙化结节灶。右肺门、纵隔内示多发肿大融合的淋巴结影,大者短径约3.4CM。左侧胸膜略示增厚。肝实质内见点状钙化灶及小囊肿。异常密度影。右肾见囊肿。胆囊、胰腺、脾、左肾、肾上腺未见异常,腹腔腹膜后未见肿大淋巴结影。各咽壁不厚,双侧颈部示数个结节灶,大者短径约0.8CM。腮腺及双侧甲状腺未见异常。	</t>
+  </si>
+  <si>
+    <t>右侧乳腺术后,术区胸壁部分胸肌尚存,右侧胸壁近胸骨旁软组织增厚,相邻胸骨骨质破坏。扫描野内右侧颈后三角区、右侧内乳区及纵隔内见多发增大淋巴结,部分边界欠清。左侧乳腺未见异常。左侧腋窝见直径不足1.0CM淋巴结。双肺野见数个结节灶,大者直径不足1.0CM。甲状腺内示低密度灶,边界欠清。部分肋骨及椎骨骨质密度不均,左侧部分肋骨骨质欠连续。	1.结合临床,右侧乳腺癌术后,右侧胸壁复发并累及胸骨、右侧颈部、右侧内乳区、纵隔淋巴结转移治疗后,较前(2016-9-7)好转2.左侧腋窝淋巴结稍大,略缩小3.双肺结节灶,不除外转移,较前好转4.部分肋骨及椎骨骨质密度不均,基本变化不著,请结合骨扫描5.甲状腺低密度灶。</t>
+  </si>
+  <si>
+    <t>右肺下叶可见团块影,边界尚清,CT值约为38HU,约为4.45CM×4.71CM。双肺可见多发的大小不等的小结节影。右肺中叶、下叶、左肺上叶舌段可见片状的高密度影。两肺门、纵隔内可见多发肿大的淋巴结。两胸腔积液征象,右侧显著。心包积液。甲状腺明显肿大。右侧胸壁下可见结节影,径约0.86CM。1.右肺下叶病变,考虑周围肺癌,双肺多发转移瘤,双肺门、纵隔淋巴结转移,较2014-12-09相仿,右肺下叶斜裂处团块影较前增大;2.双胸腔积液,较前稍有吸收;心包积液;3.右肺中叶、下叶、左肺上叶舌段炎症;4.右侧胸壁下结节影,请结合临床。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,左肺癌治疗后;左侧胸膜转移及叶裂转移2.左肺慢性炎症及纤维灶3.左侧心包及心膈角区结节影4.肝囊肿以上均较前(2016-11-22)片变化不著。左肺上叶纵隔旁示一不规则软组织密度结节灶,与纵隔内主肺动脉窗区肿大淋巴结分界不清。左肺野内见斑片索条状密度增高影,左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧心包及左侧心膈角区可见多发结节影,大者直径不足1.0CM。肝脏大小形态未见异常,肝实质内可见一小低密度灶,边界清。胆囊充盈欠佳,壁增厚。胰腺、脾、双肾、肾上腺未见异常,腹腔腹膜后未见肿大淋巴结影。	</t>
+  </si>
+  <si>
+    <t>左肺下叶见团块状高密度影,边界不规则,可见细小毛刺及分叶,周围可见淡片影。病变最大截面大小约为1.70CM×1.05CM,右肺下叶内侧底段见一小结节影,直径约为0.33CM。肺门区未见明显异常。气管支气管影正常。纵隔内未见增大的淋巴结。双胸腔无积液征象。心脏不大,大血管壁钙化。所示部分下位胸椎内见结节样稍高密度影。胸7椎体及附件骨质溶骨性破坏改变。肝脏密度减低,CT值约27HU。与2011-10-10日原片对照:1.左肺下叶肺癌,较前减小;2.右肺下叶小结节、部分下位胸椎内高密度影,较前无明显变化;3.胸7椎体及附件骨质破坏,考虑为骨转移,对比原片破坏范围增大;4.脂肪肝。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.右乳癌并右侧腋窝淋巴结转移2.右肺类结节,建议观察3.上腹部扫描未见异常。右乳外下见一截面约4.1CM×5.2CM软组织肿块,不均匀强化,边缘模糊,周围脂肪间隙密度增高。右侧腋窝见短径约2.1CM肿大淋巴结。右肺中叶见一直径不足0.5CM小类结节灶。双侧肺门及纵隔未见增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝、胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.右肺癌,较前2014-7-7好转;双肺门淋巴结略增大,变化不著;右侧斜裂胸膜类结节灶,考虑转移,变化不著2.右肺上叶炎症,较前进展3.双肺类结节灶,建议观察4.右侧胸腔少量积液。右肺门支气管开口处示一软组织密度肿块,约1.5CM×1.9CM,密度不均,边缘分叶毛糙,增强呈较均匀强化。双肺野内散在磨玻璃影及类结节灶,以上叶为著。右侧斜裂胸膜可见结节灶,大者直径约0.3CM。双肺门示增大淋巴结,大者直径约0.6CM。右侧胸腔示少量液性密度影。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.右肺占位,考虑肺癌并阻塞性肺炎伴纵隔及右肺门淋巴结转移;右肺中叶结节灶,考虑转移2.甲状腺低密度灶,考虑结节性甲状腺肿3.肝囊肿4.子宫、附件术后改变。右肺水平裂旁见一软组织密度结节灶,大小约2.7CM×2.2CM,边缘毛刺、浅分叶,局部牵拉邻近肋胸膜凹陷,病变周围肺野内见少许条索及斑片影,增强扫描病变呈轻度不均匀强化。右肺中叶见一直径约0.8CM结节灶,强化方式同前。右肺下叶见片状密度增高影。左侧肺野清晰。纵隔内气管隆突下及右肺门见肿大淋巴结,大者短径约1.0CM,增强扫描呈不均匀强化。扫描野内甲状腺右侧叶上极见一低密度灶,直径约2.1CM,边界较清晰,增强扫描可见强化,甲状腺被膜完整。心包内见弧形液性密度影。肝实质内见多发囊性密度灶,大者直径约1.8CM,边界清,无强化。胆囊充盈欠佳,壁略厚。胰、脾、双侧肾上腺及双肾未见异常。腹腔及腹膜后未见增大淋巴结。子宫及双附件未见显示。膀胱充盈良好,壁不厚。盆腔内及双侧腹股沟区未见肿大淋巴结。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.考虑右乳癌并右腋窝淋巴结转移,请结合其他检查。2.右肺类结节灶,建议观察;双肺纤维灶。右乳外下象限示长径约1.1CM不均质强化结节灶,边界欠清,向局部前达皮下。余双乳腺体强化欠均质,内示小斑片状强化灶。右侧腋窝示大者短径约1.9CM淋巴结,强化较著。左侧锁骨上示短径不足0.5CM淋巴结。左侧腋窝、纵隔及双肺门未见肿大淋巴结。右肺尖区示小类结节灶,余双肺内示索条影。	</t>
+  </si>
+  <si>
+    <t>小脑、右额叶、右枕顶叶、左顶叶见散在数个、大小不等的结节样异常信号,部分病灶周围伴有小片状或斑片状长T2信号的水肿带,病灶表现为T1WI略低或低、高信号,T2WI及压水像为高或混杂高信号,DWI序列为低、高或高信号,增强扫描呈结节样或不均匀强化,大者约0.8CM×1.8CM位于右枕顶叶。左顶叶可见点状异常信号影,平扫各序列均为低信号,无强化。中线结构居中。右上颌窦内可见一囊性结节,边界清楚。余未见异常。	1.结合右肺癌病史,脑多发转移瘤。2.考虑左顶叶钙化灶。3.右上颌窦囊肿。</t>
+  </si>
+  <si>
+    <t>右乳外上象限可见一不规则软组织密度肿块,边缘明显分叶,周围可见条索影,肿块截面大小约1.0CM×1.4CM,增强后可见病变显著强化。余右侧乳腺内可见显著强化小结节灶。右侧腋窝可见小淋巴结,大者短径约0.5CM。左乳及左侧腋窝未见异常。右侧内乳区略饱满。右肺上叶及左肺下叶可见散在类结节灶,边界较清,大者直径约0.3CM;余双肺野清晰,肺纹理走形自然,气管及各级支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶,边界清晰,未见强化。腹腔内肝胃韧带区见多发增大淋巴结,大者短径约0.8CM。腹膜后未见增大淋巴结。脑实质密度均质,未见明确异常密度灶。脑室、池未见扩张,中线结构居中。骨窗示:扫描野内右侧髂骨、多发胸腰骶椎椎体、左侧锁骨、右侧肩胛骨、部分肋骨呈成骨性及溶骨性骨质破坏,局部呈膨胀性改变。	1.右乳癌并右侧腋窝转移,较前(2015-08-13)好转;多发骨转移,较前密度增高2.双肺类结节灶,纤维灶可能,建议观察3.右肾囊肿4.腹腔内淋巴结肿大5.颅脑扫描未见明确异常。</t>
+  </si>
+  <si>
+    <t>右乳示多发软组织密度结节及肿块,部分融合,大者截面约3.7CM×2.0CM,边缘分叶,与皮肤关系密切,增强扫描可见较显著不均匀强化。右腋窝示强化小淋巴结,大者短径约0.5CM。左乳未见异常。左腋窝及锁上未见明显肿大淋巴结。纵隔内4R/L及7区示多个略增大淋巴结,大者短径约0.7CM。双侧胸腔示少量液体密度影,左侧较著,左侧胸膜略厚。肝内示多发低密度结节及肿块,大者截面约3.8CM×4.6CM,边缘模糊,增强扫描可见不均匀强化。胆胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。多发胸腰椎、肋骨、左侧肩胛骨及胸骨示骨质破坏。1.右乳癌,肝转移,多发骨转移,病灶较前示缩小2.右腋窝小淋巴结;纵隔淋巴结略大,变化不著3.左侧胸膜略厚,双侧胸腔少量积液</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合肺癌病史,左额叶、左顶叶转移。2.脑多发小缺血灶。左额叶近颅顶处可见一0.9CM×1.1CM×1.4CM的类卵圆形结节,有分叶,周围伴有斑片状长T2信号的水肿带,结节表现为T1加权像略低信号,T2加权像略高信号,压水像及DWI为高信号,不均匀强化。左顶叶可见一点状强化灶。双额叶可见散在小点状等T1略长T2信号影,压水像为高信号,无强化。脑室系统无扩大。中线结构居中。余未见异常。	</t>
+  </si>
+  <si>
+    <t>1.左肺下叶肺癌伴双肺多发转移瘤,较前2016-02-19CT减小,右侧胸水较前略减少;2.左侧肩胛骨、部分肋骨、胸椎及附件转移,较前略好转,请结合临床。左肺下叶可见团块影,较大截面大小约3.5CM×2.5CM,CT值约为52HU,边界尚清,浅分叶状,周围可见斑片状稍高密度影。双肺另见散在多发大小不等结节影。两肺门区未见异常。纵隔内未见淋巴结增大。右侧胸腔内可见弧形积液影。心脏大血管未见异常。左侧肩胛骨、双侧部分肋骨、胸椎及附件形态欠规整,可见骨质破坏区。</t>
+  </si>
+  <si>
+    <t>右侧小脑半球及双侧大脑半球见散在大小不等的略长T1略长T2结节样影,压水像及DWI为高信号,增强扫描可见结节样强化,大者大小约0.6CM×0.8CM位于左侧颞叶。双侧大脑半球及小脑蚓部见结节状、斑片状等T1略长T2信号影,压水像及DWI为高信号,无强化。双侧大脑半球可见散在点片状等T1略长T2信号影且以侧脑室周围为著,压水像为高信号,DWI为等信号,增强后扫描无强化。脑室系统无扩大。中线结构居中。双侧上颌窦、筛窦粘膜增厚。余未见异常。	1.结合肺癌病史,脑多发转移瘤,较本院(2016-09-14)MR片进展。2.考虑脑多发急性梗塞灶,建议结合临床。3.脑多发缺血灶。4.双上颌窦、筛窦炎。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合病史,右乳癌术后,肝(多发)及椎体转移,较本院(2016-05-12)MR片示肝转移好转,椎体转移变化不著。2.肝及双肾囊肿。右乳癌术后,术区结构紊乱,局部增强前后未见明显占位性病灶。肝左右叶可见多发大小不等病灶,T1WI呈略低信号,T2WI及压脂像呈略高信号,DWI呈高信号,增强扫描病灶呈不均匀强化,大者约0.6CM位于左外叶。肝实质内及双肾实质内可见散在囊性结节,边界清楚,无强化,大者约1.0CM位于左肾。胆囊不大。脾、胰腺增强前后未见异常信号区。腹膜后未见明显肿大淋巴结。所扫部分椎体可见斑片状骨质破坏区,呈长T1短T2信号,压脂像及DWI为高信号,不均匀强化。余未见异常。	</t>
+  </si>
+  <si>
+    <t>1.右肺门肿块,考虑肺癌可能;2.双肺多发病变,纵隔淋巴结肿大,随诊;3.支气管炎,肺气肿;双侧胸膜增厚;4.心包增厚;5.部分椎体及肋骨、胸骨转移;以上对比2012.08.06前片,未见明显变化,请结合临床。双肺纹理稀疏,可见多发含气透亮影。右肺尖可见斑片状高密度影,边缘可见细毛刺,大小约为3.15CM×1.34CM,CT值约47HU;右肺上叶支气管狭窄,右肺门区见肿块影。左肺上叶舌段及左肺下叶內基底段可见片状高密度影。双肺可见多发小结节影。右肺下叶外基底段可见一点状钙化影。纵隔内可见多发增大的淋巴结,大者短径约1.06;双胸腔无积液征象,双侧胸膜增厚。心脏不大,部分大血管见钙化斑。心包增厚。部分椎体及肋骨、胸骨可见多发斑片状致密影。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,双侧乳腺癌术后改变;左肺上叶、右肺下叶结节灶伴FDG高代谢,考虑恶性病变,建议进一步检查;左锁上、纵隔淋巴结转移伴FDG高代谢。2.双肺肺大泡。3.扁桃体炎症。4.子宫肌瘤;子宫腔内FDG高代谢,考虑子宫内膜摄取。5.T6-T9椎体术后改变。空腹6HR以上,静脉注射显像剂,平静休息60MMIN后行CT和PET全身断层显像,PET图像经衰减校正、迭代法重建后行多层面、多幅显像,并与CT图像进行融合。影像清晰。PET-CT示左乳术后缺如,术区未见异常放射性摄取,右乳未见异常放射性摄取;左锁上肿大淋巴结,直径约为1.7CM,呈结节状放射性摄取增高,最高SUV3.5,左肺上叶支气管前尖段开口处示局限性放射性摄取增高,最高SUV3.3,远端示条状密度增高影;右肺下叶斜裂胸膜处示软组织结节,与斜裂胸膜关系密切,截面约为1.8CM×1.5CM,边缘毛刺,呈结节状放射性浓聚,最高SUV5.4,其外侧斜裂胸膜亦示一结节灶,长径约为1.0CM,未见异常放射性摄取;左肺上叶、右肺下叶各示一肺大泡影;纵隔气管前腔静脉后示放射性摄取增高淋巴结,直径约为1.0CM,最高SUV4.1;子宫表面示直径约为2.0CM的结节样凸起,子宫腔内示小片状放射性摄取;扁桃体示放射性摄取增高,最高SUV5.9。T6-T9椎体示金属固定器影。脑部正常显影。肝脏形态、大小及放射性分布正常,脾不大。胃显影正常。双肾及双输尿管正常显影。腹部内见数个形态不一、条管状、浓淡不一的正常肠影。余无特殊。	</t>
+  </si>
+  <si>
+    <t>双肺透过度欠均,左下肺可见一肿块影,边界不规则,最大层面3.72CM×2.13CM,CT值约32HU;左肺下叶基底段部分支气管略窄;双肺多发小结节影。纵隔、左肺门可见多发稍大的淋巴结,大者短径约0.78CM。两胸腔无积液征象。心脏大血管未见异常。第3胸椎左侧横突、第4、5、7、8、10胸椎椎体内可见结节状高密度影,第11胸椎椎体骨质密度不均匀减低,左侧第4、5、7后肋骨质密度增高。甲状腺左叶见类圆形低密度影,边界欠清,大小约为0.85CM,CT值约为28HU。肝右叶多发低密度灶,右侧肾上腺区可见软组织密度影。左侧肾上腺内支似见结节影。1.左下肺周围型肺癌,双肺多发小转移灶,对比2012-06-04片,病变未见明显进展;2.纵隔、左肺门多发增大淋巴结,对比前片变化不大;3.胸椎、左侧肋骨、胸骨及右侧锁骨多发转移;4.甲状腺占位,腹部改变,请详查。</t>
+  </si>
+  <si>
+    <t>左肺叶间胸膜下见一结节灶,直径约1.0CM,边清。右肺上叶及中叶见少许斑片条索状密度增高影,部分内见钙化灶。右肺中叶胸膜下见结节灶,部分内见钙化灶,大者直径约0.4CM。双侧胸膜未见增厚,双侧胸腔未见积液征象。双肺门、纵隔未见肿大淋巴结。直肠术后,吻合口壁未见增厚及异常强化征象。膀胱充盈可,壁不厚。子宫及附件区未见异常。盆腔内未见肿大淋巴结。盆腔内未见积液征象。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。	1.结合临床,直肠癌术后2.左肺叶间胸膜下结节灶,较前(2015-6-1)略增大,转移不能除外,建议密切观察3.右肺结节灶及钙化,较前变化不著4.上腹部扫描未见异常。</t>
+  </si>
+  <si>
+    <t>右肺上叶后段近胸膜处示软组织结节灶,形态不规则,截面约2.4CM×2.2CM。双肺内示泡状过度透光区。纵隔内气管右旁、腔静脉后间隙、隆突下、右肺门示增大淋巴结,大者短径约1.4CM。右侧胸膜增厚呈结节及肿块状。右侧胸腔示液体密度影。	1.结合临床,右肺癌,较前(2014-11-14)略似饱满;右肺门并纵隔淋巴结转移,较前部分进展,部分变化不著;右侧胸膜转移,较前部分好转,部分变化不著;右侧胸腔积液,较前略减少。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,左肺癌并阻塞性肺不张;纵隔淋巴结转移;右肺门淋巴结稍大2.双肺炎症及纤维灶、气肿;双肺类结节灶,建议观察3.肝内钙化灶4.肝内低密度灶,多为囊肿,部分考虑为囊肿,建议观察;双肾囊肿。左肺下叶背段支气管截断,断端见软组织密度灶,远端见不张肺组织,内见扩张支气管及其内粘液栓,二者分界不清,增强后前者中等不均匀强化,侵及左下肺门,与左下肺动脉及其分支、降主动脉关系密切。右肺及纵隔见大者短径约0.8CM中等淋巴结。左侧锁骨上见短径不足0.5CM小淋巴结。双肺见少许斑片索条影及少许泡状过度透光区。左肺上叶(5-13、15)见大者长径约0.8CM类结节灶。右肺(5-17、27)见直径不足0.5CM小类结节灶。肝内见斑点状钙化灶及低密度结节灶,后者大者长径约2.0CM,大部分边缘清晰,部分欠清,均未见强化。胆、胰、脾、双侧肾上腺未见异常。双肾见囊性结节灶。腹腔及腹膜后未见肿大淋巴结。	</t>
+  </si>
+  <si>
+    <t>左肺上叶近纵隔旁见软组织肿块影,边缘有毛刺,直径约2.5CM,增强后可见强化。右肺下叶见少许条索影,余肺野清晰,未见异常。肝实质内见多发囊肿。胆囊胰脾双肾未见异常。腹腔及腹膜后未见明显肿大淋巴结。前列腺形态大小正常,边缘光整,与周围组织间隙清晰,实质内密度均匀。精囊腺形态大小密度正常。膀胱充盈好,壁不厚。盆腔内未见肿大淋巴结。左侧臀部肌群内见软组织肿块,邻近左侧髂骨骨质破坏,肿块最大截面约4.4CM×5.1CM。L4椎体骨质密度减低。	1.结合临床,考虑左肺癌并左侧臀部肌肉转移累伴左髂骨骨质破坏;L4椎体密度减低,建议观察2.肝囊肿。</t>
+  </si>
+  <si>
+    <t>肝脏体积增大,形态欠规则,实质内见多发混杂密度结节及肿块影,边界欠清,部分可见假包膜形成,大者截面积约13.1CM×10.0CM,部分其内示高密度碘油影沉积;增强扫描其内可见不均匀强化。肝左内叶近膈顶处病灶大小约12.5CM×7.3CM,邻近下腔静脉受压变窄。余肝内见数个动脉期较显著强化灶,门脉期和延迟期廓清迅速,部分呈融合状,边界不清。肝内另见小囊性密度灶,大者长径不足0.5CM,界清,无强化。门脉主干及左支显示尚可,门脉右支示受压显示欠清。胆囊充盈可,壁略厚。胰腺、脾、双肾及右侧肾上腺未见明确异常。左侧肾上腺略示饱满。腹腔及腹膜后未见确切增大淋巴结。双肺内示多发大小不一的结节灶,大者长径约1.3CM。双肺内胸膜下见多发泡状过度透亮区及条索状密度增高影,局部肺大泡形成。双肺门及纵隔未见确切增大淋巴结。纵隔内冠状动脉见条形钙化。右侧叶间胸膜增厚局部示类结节灶。双侧胸腔未见液性密度影。	1.结合病史,肝癌伴肝内转移治疗后,部分较2015-1-5片进展;双肺多发转移,较前进展2.双肺局限性肺气肿,肺大泡;双肺纤维灶3.右侧叶间胸膜结节灶,较前变化不著4.肝小囊肿5.左侧肾上腺饱满,较前变化不著。</t>
+  </si>
+  <si>
+    <t>小脑、双颞叶、双顶叶及左额叶见多发结节样异常信号影,表现为T1WI低信号,T2WI及压水序列高信号,DWI序列呈等、高信号,增强扫描呈结节样或环形强化,大者约1.9CM×2.4CM×1.5CM位于左顶叶,部分病灶周围脑实质内见小片状或片状长T2水肿带。左侧侧脑室后角略受压变形。中线结构居中。左乳突可见小片状长T2信号影。余未见异常。	1.结合右肺癌病史,符合脑多发转移瘤MR表现,较本院(2014-11-12)MR片示进展。2.左乳突炎症。</t>
+  </si>
+  <si>
+    <t>右肺下叶支气管周围可见一不规则软组织密度肿块影,约2.2CM×2.1CM,与其远端斑片状密度增高影,向内与肺门淋巴结分界不清。双肺野内散在囊泡状过度透光灶,右肺上叶示一钙化结节灶。右肺门、纵隔内示多发肿大融合的淋巴结影,大者短径约1.3CM。左侧胸膜略示增厚。颈部未见明显异常。肝胆胰脾双肾上腺双肾形态、密度未见明显异常。腹腔及腹膜后未见明显增大淋巴结。	1.右肺下叶肺癌并阻塞性肺不张、肺炎;右肺门、纵隔淋巴结转移,上述病变较前2017-1-9示好转。2.双侧胸膜略增厚。3.右肺上叶钙化灶。4.双肺气肿。5.颈部及上腹部未见明显异常。</t>
+  </si>
+  <si>
+    <t>左肺门周围可见不规则软组织密度肿块影,约4.7CM×3.8CM,增强扫描呈明显不均匀强化,与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。双肺内见多发斑片状密度增高影。左肺上叶示一结节灶,直径约0.9CM,双侧胸膜及叶间胸膜上可见多发类结节灶。纵隔内示多发融合的淋巴结影,大者短径约1.2CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常,肝实质内可见数个低密度灶,部分边界清,部分边缘显示模糊。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常,右肾上腺示一类结节灶,长径约3.9CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨、肋骨密度略增高。	1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张,较前(2017-2-14)进展;肺炎治疗后,较前变化不著;左肺上叶结节灶较前变化不著,考虑转移;双侧胸膜多发结节灶,考虑转移,部分较前增大;纵隔淋巴结转移,较前增大;右肾上腺转移,较前增大2.肝内低密度灶,部分考虑囊肿,部分建议观察;双肾囊肿;左肾低密度灶,较前增大;胰腺低密度灶,变化不著3.心包、左胸腔少量积液,较前变化不著4.部分椎骨及肋骨密度略增高,考虑转移,较前变化不著。</t>
+  </si>
+  <si>
+    <t>右乳术后缺如,部分胸肌存在,术区胸壁及皮肤局部略增厚;右侧腋窝术后,结构紊乱。左乳未见明确异常。右侧内乳区、左侧腋窝可见小淋巴结,大者短径不足0.5CM。右肺中叶见一结节灶,长径约1.4CM。右肺中叶可见类圆形囊状过度充气区及条片影。双肺门及纵隔内未见肿大淋巴结。右侧胸膜略增厚。扫描野内肝实质密度减低。脾内示颗粒状致密影。胆囊腔内密度略增高。右侧部分肋骨密度增高。	1.右乳癌术后改变,术区胸壁及皮肤局部略增厚,较前(2016-05-19)基本变化不著2.考虑右肺转移,略饱满;右肺中叶含气囊肿、纤维灶,变化不著3.脂肪肝;脾内钙化灶4.右侧部分肋骨密度增高,变化不著。</t>
+  </si>
+  <si>
+    <t>右肺中叶可见团块影,边缘不规则,长径约为2.8CM,平扫CT值为44HU,双肺可见多发结节影,较大者径约0.6CM;所示气管支气管影正常。右肺门增大,可见多个小淋巴结,纵隔内见增大淋巴结影,径约1.1CM。前上纵隔胸腺区见囊性密度灶,大小约为1.39CM×4.28CM,CT值约为11HU。两胸腔无积液征象。心脏大血管未见异常。与2012.12.11CT片对比:1.右肺中叶周围型肺癌,较前片病灶缩小;2.双肺多发转移瘤,部分较前变小;3.右侧肺门增大,纵隔淋巴结增大,与前片相仿;4.前上纵隔囊性灶,较前大致相同。</t>
+  </si>
+  <si>
+    <t>右肺门区见不规则软组织密度肿块影,增强扫描可见不均匀强化,远端与不张实变的肺组织分界不清,大小不易测量;右侧胸腔见大量液体密度影,右肺全肺不张,右侧胸膜增厚并可见强化。左肺野清晰。纵隔、膈上前组及中组可见肿大淋巴结,大者短径约1.0CM。右侧锁骨上见小淋巴结,大者短径约0.5CM。右侧胸腔内可见引流管影.肝实质内平扫未见明显异常,增强扫描可见多发异常强化区,肝左叶可见团片状强化,肝尾状叶及右叶病灶可见结节样向心性充填样强化。另肝右叶近包膜下(6-70)见一类圆形低密度灶,直径约1.0CM,边缘略模糊。双侧肾上腺及双肾未见明显异常。腹腔腹膜后未见肿大淋巴结。脑实质内未见异常密度影,脑沟、脑池未见增宽或狭窄,脑室大小、形态,位置正常,中线结构居中。T9椎体内可见一类圆形骨质稀疏区。	1.结合临床,右肺癌,右肺全肺不张,较前2016-8-16不易比较;纵隔、膈上淋巴结转移,右侧锁骨上淋巴结肿大,较前变化不著。2.右侧胸腔大量积液,右侧胸腔引流术后改变;右侧胸膜转移,变化不著。3.肝脏血管瘤(多发)。4.肝右叶低密度灶,较前变化不著,建议观察。5.颅脑扫描未见明显异常。6.T9椎体内骨质稀疏,考虑转移,较前略增大。</t>
+  </si>
+  <si>
+    <t>右肺中叶可见一软组织密度灶,边缘毛糙,呈分叶状,大小约10.8CM×9.5CM,向内与心包关系密切,向外与胸膜分界不清,增强后示边缘显著强化,内部不均匀强化,右肺中叶少许肺组织实变。右肺尖示类结节灶,外缘胸膜牵拉。纵隔及右侧肺门可见多发性结节灶,位于右肺门者与肿块分界欠清,余大者短径约1.0CM。双侧肺野内可见多发性过度透光区。余肺野未见明显异常。心包内示少量液体密度影。右侧胸腔示液体密度影。胸廓骨未见明显异常。肝大小、形态、位置可,实质可见多发性低密度灶,大者长径约0.8CM,边界清,未见强化,肝脏密度弥漫性减低。胆囊充盈不良,壁略厚。胰、脾、双侧肾上腺及扫描区内双侧肾脏未见明显异常。腹腔及腹膜后未见明显肿大的淋巴结。	1.右肺CA治疗后,较前片(2017-2-4)示进展;纵隔及右肺门淋巴结肿大,考虑转移,部分变化不著,部分与肿块分界欠清部分略缩小。2.左侧胸腔积液,心包少量积液3.肺大泡;右肺尖类结节灶,变化不著4.脂肪肝,肝囊肿。5.胆囊炎。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后,右胸壁类强化结节,建议观察;肝转移,较前2016-11-15部分饱满,部分变化不著;右肺结节灶,变化不著2.左肺纤维灶,变化不著3.胆囊炎4.部分骨质密度稍高,建议观察或ECT检查。右乳术后,术区未见增厚及异常强化征象。右胸壁(5-22)见一直径不足0.5CM小类结节,强化显著。右腋窝结构紊乱,未见肿大淋巴结。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一类结节灶,边界模糊。双侧内乳区、肺门、纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块,大者直径约4.2CM,边缘模糊,轻度强化。胆囊充盈可,壁示增厚。胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。胸骨及胸椎局部密度稍高。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,左乳癌术后改变;左侧胸肌深面转移;左侧内乳淋巴结肿大,较前(2014-8-18)变化不著2.肝转移,较前明显进展3.颅脑扫描未见异常。左乳术后,术区结构紊乱,未见结节及肿块。左侧腋窝结构紊乱。左侧胸肌深面可见软组织密度结节灶,大者大小约1.6CM×2.4CM。右乳未见异常。左侧内乳见增大淋巴结,短径约0.8CM。左侧腋窝、双侧肺门及纵隔未见增大淋巴结。右侧水平裂区(3-25)见一类结节灶,直径约0.2CM。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝实质内见多发低密度结节及肿块,边缘略模糊,其密度不均。胆囊充盈可,壁不厚。胰脾、双侧肾上腺及双肾未见异常。腹腔内肝总动脉见短径约0.6CM小淋巴结。腹膜后未见增大淋巴结。脑实质均质,未见异常密度灶。脑室系统未见扩张。中线结构居中。	</t>
+  </si>
+  <si>
+    <t>左乳术后,术区皮肤略增厚,皮下脂肪层密度增高,未见结节及异常强化灶。左侧腋窝结构紊乱,见少许斑片状低密度,未见异常强化,考虑为术后改变。右侧胸膜下、双侧斜裂胸膜见多发结节灶,大者长径约0.6CM。右肺下叶见少许索条影。左侧内乳区见短径不足0.5CM小淋巴结。双侧肺门及纵隔未见增大淋巴结。左侧甲状腺见小低密度灶,直径不足0.5CM。第1腰椎体局限骨质密度减低。第5胸椎压缩变扁,其后缘见软组织肿块并侵及邻近椎管,其上下椎体骨质亦局限性破坏。脑实质密度均匀,未见结节及异常强化灶。大枕大池。中线结构居中。	1.结合临床,左乳癌术后;右肺胸膜下及双侧斜裂区结节灶,考虑转移,请结合临床;多发骨转移并软组织肿块形成并侵及邻近椎管2.左侧内乳区小淋巴结3.右肺下叶纤维灶4.大枕大池5.左侧甲状腺低密度灶。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后;右肺转移治疗后,较前(2017-1-20)基本变化不著;原左肺结节灶,较前变化不著;脑转移,较前基本消失不清2.纵隔增大淋巴结,变化不著;右肺门淋巴结稍大;左侧锁骨上淋巴结,变化不著3.肝转移治疗后,较前略进展4.左肾囊肿5.右肺少许炎症、纤维灶,基本变化不著;左肺小类结节灶,变化不著6.右侧部分肋骨及部分椎骨略高密度影,变化不著。右乳术后,术区未见增厚及异常强化征象;右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结,短径不足0.5CM。左侧锁骨上示短径约0.7CM淋巴结。右肺上叶示团片状密度增高影,密度较均,病变周围见多发小结节灶及斑片状密度增高影。左肺下叶示类圆形低密度影,内示斑点状致密影,边界欠清。左肺上叶胸膜下示小类结节灶。余肺内示斑片影及索条影,右肺为著。右肺门、纵隔及右侧心隔角区示大者短径约0.8CM淋巴结。肝实质内示多发低密度灶,边缘欠清,部分融合,大者长径约5.0CM,部分内示斑点斑片状致密影。胆胰脾双肾上腺未见明显异常。左肾示囊性密度灶,未见强化。余双肾内示斑片状低密度影。腹膜后见增大淋巴结,直径不足1.0CM。左侧半卵圆中心区局部密度偏低,未见明确强化灶。脑室系统未见明显异常。中线结构无移位。右侧部分肋骨及部分椎骨示略高密度影。	</t>
+  </si>
+  <si>
+    <t>1.考虑左肺下叶中心型肺癌并左肺下叶阻塞性肺不张,较2015-3-23片肿瘤增大,左肺门及纵隔内淋巴结转移较前相仿,左侧胸腔积液较前新发;2.双肺多发磨玻璃密度结节,较前相仿,转移不除外;3.右肺尖陈旧性病灶;4.肺气肿。左肺下叶可见一肿块影,与胸膜分界不清,最大截面大小约为7.0CM×8.3CM,其内密度不均,可见低密度影及点状致密影,CT值约为22HU-53HU,病灶邻近部分支气管变窄、左肺下叶支气管走形截断。右肺尖可见结节影,径约1.35CM,邻近胸膜凹陷,其内可见条样致密影。双肺可见多个散在高密度及磨玻璃样密度结节,大者径约0.8CM。双肺密度不均匀减低,可见多个小圆形低密度影。左肺门、纵隔内可见多发肿大淋巴结影,大者短径约为1.9CM。左侧胸腔可见弧形液体密度影。主动脉、冠状动脉走行区可见弧形致密影。所示诸骨未见骨质密度明显异常改变或骨质破坏征象。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右肺癌治疗后,右肺癌性淋巴管炎及炎症,较前(2014-09-18)变化不著;右肺结节灶,较前增大2.右侧胸膜略增厚,变化不著3.冠状动脉钙化4.约第一腰椎骨质破坏,骨转移不能除外,较前(2014-07-16)片变化不著。右肺下叶局部小叶间隔增厚呈网格状,周围见斑片索条状密度增高影;其内可见一类圆形结节灶(图4-41),直径约0.6CM,边界清晰。左肺野清晰,未见结节及异常强化灶。冠状动脉左、右支见条状致密影。右侧胸膜(含右侧叶间胸膜)局限性增厚。双侧胸腔未见积液征象。纵隔内未见明显肿大淋巴结。扫描野内约第一腰椎可见骨质破坏。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右肺下叶癌并右侧胸膜转移较前(2014-8-20)变化不著2.右肺结节灶,考虑转移,较前变化不著;左肺上叶类结节灶,建议观察;左肺炎症3.左锁上、纵隔、腹腔及腹膜后小或稍大淋巴结,较前变化不著4.肝囊肿5.右肾囊肿6.肝内强化灶,建议观察7.右侧腮腺区结节灶,请结合临床8.双侧副鼻窦炎。右肺下叶基底段见软组织肿块影,边缘模糊,有分叶,肿块最大截面约2.0CM×3.4CM,增强后可见显著强化;邻近胸膜可见增厚。右肺内、右侧肋胸膜、叶间胸膜示多发结节灶,大者直径约0.3CM,增强后可见强化。左肺上叶胸膜下见直径约0.2CM小结节灶。左肺见多发索条状及斑片状密度增高影。左锁上、纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结,短径约0.8CM。肝实质内见多发囊性密度灶,大者直径约3.0CM。另肝内(2-49)动脉期见一强化结节灶,长径约0.8CM,延迟呈等密度。胆囊充盈可,壁不厚。胰、脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见囊性密度灶,短径约2.0CM。肝总动脉旁及腹主动脉周围示增大淋巴结,大者短径约0.5CM。右侧腮腺区见一强化结节灶,直径约0.4CM。双侧上颌窦粘膜略增厚。鼻咽、口咽、喉及下咽未见异常。双侧甲状腺形态、大小、密度未见异常。双侧颈部未见增大淋巴结。	</t>
+  </si>
+  <si>
+    <t>1.结合临床,左乳癌术后,多发骨转移2.肝右后叶片状密度增高影,考虑动静脉瘘形成3.胆囊结石4.左侧肾上腺结节灶,请结合前片,转移待排,建议密切观察左乳术后,术区结构紊乱,术区未见结节及异常强化灶。左侧腋窝结构紊乱。右乳未见异常。双侧内乳区、双侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰,未见结节及异常强化灶。肝右后叶内见片状密度增高影,其强化方式与同层腹主动脉相似。胆囊充盈可,其内见点状致密影。胰、脾、右侧肾上腺及扫描范围内双肾未见异常。左侧肾上腺见软组织结节灶,短径约1.3CM,增强后轻度强化。骨窗示胸骨、右侧肋骨及T12胸椎椎体示混合性骨质破坏。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合乳癌病史,右顶叶转移瘤,较本院(2016-05-25)MR片好转;腰椎L1~3转移。2.腰椎退行性变。右顶叶上矢状窦右旁见一类圆形异常信号,表现为T1WI等信号,T2WI略高信号,压水像及DWI为等信号,增强扫描可见明显强化,大小约0.3CM×0.5CM,于冠状位可见结节与脑膜关系密切,周围未见明显水肿带。余脑实质增强前后未见异常信号。脑室系统无扩张。中线结构居中。腰椎生理弯曲略变直,部分椎体前缘见棘样突起,腰椎L1、L2椎体后下缘及L3椎体后缘可见斑片状长T1短T2信号,压脂序列呈高信号,边缘模糊,增强后扫描呈轻度强化。所扫腰骶椎椎管内未见异常占位性病灶。	</t>
+  </si>
+  <si>
+    <t>右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结,大者直径约0.5CM。左肺野示数个结节灶,大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶,直径约0.9CM。胆、胰、脾及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示溶骨性及混合性骨质破坏。1.结合临床,右乳癌术后,纵隔、双肺门淋巴结转移,左肺转移,较前2015-12-16变化不著;左肾上腺转移,较前略示好转;骨转移,较前成骨性成分增多,考虑略好转2.双肺炎症,变化不著3.心包积液4.肝囊肿</t>
+  </si>
+  <si>
+    <t>左上肺门处可见肿块影,分叶状,大小为3.18CM×3.19CM,形状不规则,边缘清,与肺动脉分界不清,CT值为42HU,增强扫描三期CT值分别为62、66、66HU,均匀轻度强化,包绕左肺动脉,左肺上动脉未见显示,纵隔及左肺门可见多发肿大淋巴结,大者短径为0.93CM。左侧胸膜牵拉凹陷。两胸腔无积液征象。心脏大血管未见异常。左上肺门中央型肺癌,阻塞左上肺动脉,纵隔及左肺门淋巴结转移不除外,较2015-09-29CT左上肺门旁病变略减小,余较前相仿。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,直肠癌术后,双肺转移瘤,较前2015-08-06变化不著。2.双肾低密度灶,较前无明显变化,建议继续观察或结合MR检查。3.双侧胸膜略增厚,变化不著。双肺近胸膜下示多个结节灶,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约2.1CM,内示斑点状致密影及小空泡影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。肝脏实质密度均匀,未见明显异常密度灶。肝内外胆管未见扩张。胆囊充盈可,壁增厚。双肾见多发低密度灶,边界较清,右侧部分密度略高。胰腺、脾及肾上腺形态、大小、密度未见异常。肠系膜区及腹膜后示短径不足0.5CM小淋巴结。直肠术后,吻合口未见增厚及异常强化。膀胱、前列腺及双侧精囊腺未见异常。盆腔内未见肿大淋巴结及积液。	</t>
+  </si>
+  <si>
+    <t>左乳内示多发结节灶,边缘毛糙,与周围腺体分界欠清,增强扫描呈不均质较明显强化,大者最大截面约1.8CM×1.2CM,部分内示斑片状致密影,左乳皮肤增厚,皮下脂肪略模糊。右乳内见斑点状致密影。左腋窝示增大淋巴结,大者短径约0.7CM,边缘毛糙,与同侧胸大肌分界不清。右腋窝未见明显增大淋巴结。双肺内见多发小类结节灶及磨玻璃样密度增高影,以左肺下叶为著,部分边缘欠清。纵隔内主动脉弓旁及左肺门见增大淋巴结,短径约0.6CM。双侧胸腔未见积液征象。扫描野内肝脏示小囊性低密度灶,直径不足0.4CM。鼻咽、口咽、喉咽壁未见明显增厚。甲状腺右叶内示斑片状密度灶。双侧颈深上组、中组、下组、左锁骨上、颌下及左侧颈后三角区示增大淋巴结,大者短径约0.9CM。扫描范围内诸骨质未见明显破坏。	1.结合临床,左乳癌治疗后,较前(2014-10-20)略好转2.左腋窝淋巴结肿大,考虑转移可能性大,较前好转;双侧颈部、左锁骨上淋巴结肿大,部分好转、部分略增大3.右乳钙化灶4.双肺类结节灶,建议观察5.考虑肝囊肿6.甲状腺右叶低密度灶,请结合其它检查。</t>
+  </si>
+  <si>
+    <t>右乳术后,术区未见结节及异常强化灶。右侧腋窝结构紊乱。双侧内乳区、双侧肺门及纵隔未见增大淋巴结。双肺见多发结节及类结节灶,大者长径约1.5CM,边缘较清晰,增强后可见强化。双肺见少许索条影。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝内见一囊性低密度结节灶,长径约2.1CM,边缘清晰,未见强化。胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔未见增大淋巴结。腹膜后腹主动脉旁见短径不足0.5CM小淋巴结。扫描野内右肺中叶见一长径约1.4CM结节灶,边缘较清晰右侧锁骨头局限性骨质密度增高。	1.结合临床,右乳癌术后;双肺结节及类结节灶,右肺者考虑转移,左肺者转移可能性大,均较前(2014-8-29)变化不著2.双肺纤维灶或炎症3.肝内低密度灶,首先考虑囊肿,较前(2014-9-3)变化不著4.右侧锁骨头局限性骨质密度增高,变化不著。</t>
+  </si>
+  <si>
+    <t>左上肺门区可见不规则软组织密度肿块,边缘分叶,左肺上叶支气管显示截断,周围肺野内可见絮状及条索状密度增高影,增强后肿块呈较显著不均匀强化。双侧胸膜局部示不均匀增厚,局部呈类结节灶,局部可见钙化灶。双侧肺门区及纵隔内可见多发肿大淋巴结,部分融合成团,大者短径约2.5CM,部分与支气管左侧壁关系密切,增强后可见不均质强化。肝脏实质内可见弥漫多发结节灶,大者直径约1.5CM,边缘模糊,轻度强化。胆囊壁增厚并强化。胰、脾、双肾及右肾上腺未见异常。左侧肾上腺可见软组织密度结节灶,直径约1.4CM,可见较显著强化。肝胃韧带区、腹主动脉周围可见多发肿大淋巴结,大者短径约1.5CM。	1.左肺中心型肺癌并左肺下叶阻塞性炎症,左肺门、纵隔多发淋巴结转移,肝脏多发转移2.左侧肾上腺结节,考虑转移可能性大3.右肺门、腹腔及腹膜后淋巴结肿大4.双侧叶间胸膜增厚伴散在多发结节,转移待排5.胆囊炎。</t>
+  </si>
+  <si>
+    <t>右乳术后缺如,部分胸肌存在,术区胸壁及皮肤局部略增厚;右侧腋窝术后,结构紊乱。左乳未见明确异常。右侧内乳区、左侧腋窝可见小淋巴结,大者短径不足0.5CM。右肺中叶见一结节灶,长径约1.2CM。右肺中叶可见类圆形囊状过度充气区及条片影。双肺门及纵隔内未见肿大淋巴结。右侧胸膜略增厚。扫描野内肝实质密度减低。脾内示颗粒状致密影。胆囊腔内密度略增高。右侧部分肋骨密度增高。	1.右乳癌术后改变,术区胸壁及皮肤局部略增厚,较前(2016-2-26)基本变化不著2.考虑右肺转移,略增大;右肺中叶含气囊肿、纤维灶,变化不著3.脂肪肝;脾内钙化灶4.右侧部分肋骨密度增高,变化不著。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,左乳癌术后;右乳部分术后改变2.双肺结节灶,结合病史,首先考虑转移瘤3.双肺含气囊肿4.左侧锁骨上区及纵隔略大淋巴结5.结合临床,胸椎术后改变6.上腹部扫描未见明显异常。左乳术后缺如,术区未见异常增厚及强化灶。左腋窝结构略示紊乱。右乳部分术后,未见异常密度灶。右腋窝、内乳区未见明显肿大淋巴结。左侧锁骨上区及纵隔内气管隆突前可见略大或小淋巴结,大者短径约0.6CM。双肺野可见多个结节灶,大者与右侧叶间胸膜关系密切,截面约1.0CM×0.7CM,边缘毛糙,增强扫描可见较显著强化。左肺上叶及右肺下叶各示一囊性密度灶,大者位于右侧,长径约2.7CM,边界清。肝脏未见异常占位灶。胆囊胰脾肾上腺及所扫双肾未见异常。腹腔及腹膜后未见肿大淋巴结。所扫胸椎可见高密度固定器影。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后2.右颈部淋巴结肿大,左肾多发低密度灶,以上转移均不除外,建议密切观察或结合临床3.双肺炎症4.脂肪肝5.右肾低密度灶,建议观察6.颅脑扫描未见异常。右乳术后,术区结构紊乱,胸肌存在,壁未见增厚及异常强化。右侧腋窝结构紊乱。左侧腋窝、双侧内乳区、肺门及纵隔未见增大淋巴结。双肺见多发索条及小斑片影。双侧胸膜未见增厚。双侧胸腔未见积液征象。右侧颈后三角区见一短径约0.9CM肿大淋巴结。肝实质密度显著均匀性减低。胆、胰、脾、双侧肾上腺未见异常。右肾见一直径不足0.5CM小低密度灶,边缘清晰。左肾见多发低密度结节及斑片影,边缘不清。腹腔及腹膜后未见增大淋巴结。脑实质密度均匀,未见结节及异常强化灶。脑室脑池未见扩张。中线结构居中。	</t>
+  </si>
+  <si>
+    <t>左乳术后缺如,左侧胸壁及胸肌复发术后,术区胸壁胸肌尚存,局部皮肤略增厚,轻度强化。左侧腋窝间隙模糊,可见斑片状高密度影,边缘毛糙。右乳未见异常。右腋窝、内乳及纵隔未见明显肿大淋巴结。右肺示数个结节及类结节灶,大者长径约1.1CM,可见强化,局部略呈空洞状。左肺示少许斑片及条索影。扫描野内甲状腺内示数个低密度灶,直径不足0.5CM,边界清。	1.结合临床,左乳癌术后,术区胸壁复发术后,术区皮肤增厚,较前2016-06-20好转,请结合临床;右肺结节及类结节灶,转移待排,较前变化不著2.甲状腺低密度灶,考虑良性病变,较前变化不著3.左肺纤维灶。</t>
+  </si>
+  <si>
+    <t>右肺上叶术后,上叶支气管截断,术区结构紊乱,未见异常强化。术区胸膜示增厚。双肺野内散在分部粟粒状密度增高影。纵隔内气管右旁、腔静脉后气管前间隙间隙模糊,考虑手术所致。肝脏形态、大小可,实质密度均质,肝右叶包膜下示一囊性低密度灶,边界欠清,直径约0.4CM。双肾内散在多个结节状低密度灶,大者直径约3.7CM,边界不清,有强化,位于左肾。胆囊充盈可,壁不厚。左肾上腺可见一结节灶,约1.8CM×2.4CM,明显强化。胰、脾形态大小密度未见明确异常。腹腔内及腹膜后未见明显增大淋巴结。	1.结合临床,右肺上叶癌术后改变;双肺粟粒状转移;双肾占位,考虑为转移;左肾上腺占位,考虑为转移瘤2.肝内低密度灶,建议观察。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后,纵隔淋巴结转移较前2016-5-17好转,双肺转移较前好转,肝转移较前好转,骨转移较前范围略示增大2.双侧胸膜增厚。右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内2R、4R及7区见肿大淋巴结,大者直径约0.7CM。双肺野示多发结节灶,大者直径约0.5CM。双侧胸膜略示增厚。肝脏实质内可见多发低密度结节灶,大者直径约1.4CM,边缘模糊,轻度强化。胆囊充盈可,壁不厚。胰腺、脾及双肾、肾上腺未见异常。腹腔腹膜后未见肿大淋巴结。腹腔内未见积液征象。多个胸腰椎示溶骨性骨质破坏。	</t>
+  </si>
+  <si>
+    <t>右肺门区见不规则软组织密度肿块影,增强扫描可见不均匀强化,远端与不张实变的肺组织分界不清,大小不易测量;右侧胸腔见大量液体密度影,右肺全肺不张,右侧胸膜增厚并可见强化。纵隔、膈上前组及中组可见肿大淋巴结,大者短径约1.0CM。右侧锁骨上见小淋巴结,大者短径约0.5CM。左肺野清晰。右侧胸腔内可见引流管影.肝实质内平扫未见明显异常.增强扫描可见多发异常强化区,肝右叶可见团片状强化,肝尾状叶病灶可见结节样向心性充填样强化.另肝右叶近包膜下(5-17)见一类圆形低密度灶,直径约1.0CM,边缘略模糊.双侧肾上腺未见明显异常。腹腔腹膜后未见肿大淋巴结。脑实质内未见异常密度影,脑沟、脑池未见增宽或狭窄,脑室大小、形态,位置正常,中线结构居中。T9椎体内可见一类圆形骨质稀疏区。	1.结合临床,右肺癌,右肺全肺不张;纵隔、膈上淋巴结转移;右侧锁骨上淋巴结肿大2.右侧胸腔大量积液,右侧胸腔引流术后改变;右侧胸膜增厚,转移可能大,建议观察3.考虑肝血管瘤(多发)4.肝右叶低密度灶,请结合MR扫描,除外转移5.颅脑扫描未见明显异常6.T9椎体内骨质稀疏,不除外转移,建议进一步检查。</t>
+  </si>
+  <si>
+    <t>左乳腺体强化不均,内示斑片状、团片状强化灶,以外侧份为著,边缘毛糙,左乳皮肤增厚,乳头未见内陷,左胸壁软组织略肿胀。右乳未见明显异常。左侧腋窝示多发结节灶,强化较著,大者短径约1.5CM,边缘毛糙。左侧锁骨上、右腋窝、胸肌间及纵隔内主动脉弓旁、左肺门示大者短径约0.8CM淋巴结。左肺下叶背段示一截面约2.2CM×1.7CM软组织密度影,边缘毛糙、浅分叶,增强扫描呈较均质显著强化,内缘与纵隔及肺门结构分界欠清。甲状腺内示斑片状低密度灶。肝内示长径约0.7CM略低密度灶(4-40)。胆囊充盈可,壁略增厚。右肾示小囊性密度灶。胰腺、脾、双侧肾上腺及扫描野内左肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。骨窗示:部分椎骨示成骨性改变。双侧锁骨及左侧部分肋骨密度增高。颅骨密度略减低。	1.结合临床,左乳癌并左腋窝淋巴结转移。2.考虑骨转移。3.左侧锁骨上、右腋窝、胸肌间、纵隔及左肺门淋巴结增大。4.左肺占位,请结合前片或活检。5.甲状腺低密度灶。6.肝内低密度灶,伪影?建议观察。7.胆囊炎,右肾囊肿。8.颅脑CT扫描颅内结构未见明显异常。9.双侧锁骨及左侧部分肋骨密度增高,颅骨密度略减低,请结合其他检查或观察。</t>
+  </si>
+  <si>
+    <t>右侧乳腺乳头上方见不规则软组织密度肿块影,约7.8CM×6.2CM,边缘分叶,局部与周围腺体及乳头区皮肤分界不清,胸肌间脂肪间隙模糊,增强扫描见显著不均匀强化,其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结,大者短径约0.6CM。右侧内乳区显示饱满。纵隔内心包右旁、气管隆突下及左侧下肺静脉旁及下段食管旁见肿大淋巴结影,大者短径约1.1CM。双肺野散在分布大小不等结节灶,大者直径约1.9CM,边缘清晰,局部与胸膜及纵隔关系密切,增强扫描可见强化。左肺胸膜增厚,局部呈结节样;局部见多发钙化灶并致局部肋骨欠规则。肝实质内见多个低密度灶,大者直径约0.5CM,边缘尚清晰,增强扫描边缘强化显著。胆囊充盈可,壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内未见异常密度影,脑沟、脑池未见增宽或狭窄,脑室大小、形态,位置正常,中线结构居中。增强:脑实质未见异常强化,脑沟、脑池、脑室内未见异常。	1.结合临床,右乳癌,较前(2015-12-8)片变化不著;双肺转移,较前减小;肝转移,较前变化不著;纵隔淋巴结转移较前好转;右侧内乳区饱满,变化不著;原脑转移瘤显示不清2.左肺胸膜局限性增厚,局部钙化,变化不著。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,双侧乳腺癌术后改变,右侧皮肤增厚并强化,请结合其他检查2.双肺结节灶,不除外转移,较前2015-08-06变化不著,建议进一步检查3.肝内低密度灶,较前变化不著;左肾小囊肿4.T12椎体血管瘤。左乳术后缺如,术区未见异常强化灶;右侧乳腺术后,术区胸肌尚存,间隙模糊,皮肤略增厚,可见强化。左侧腋窝结构紊乱,可见短径约0.5CM的小淋巴结。双肺门及纵隔未见明确肿大淋巴结。双肺野内见多发结节灶,部分呈磨玻璃密度,边界较清,大者直径约0.5CM。肝脏大小、形态可,肝右叶实质内见一低密度灶,边界欠清,直径约0.5CM。左肾上极见囊性无强化小结节灶。左侧肾上腺饱满,密度未见明显异常。胆囊充盈可,壁略厚。腹腔及腹膜后未见明确肿大淋巴结。T12椎体内示低密度影,边界较清晰,其内可见粗颗粒状高密度影。	</t>
+  </si>
+  <si>
+    <t>右肺上叶尖段可见软组织密度影,最大截面约0.9CM×1.1CM(纵隔窗),边缘浅分叶可见细毛刺,内缘有长毛刺与纵隔相连,增强扫描呈中等不均匀性强化;余双肺野较清晰,未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。肝脏形态、大小可,实质密度均质。肝内外胆管未见扩张。胆囊充盈可,壁略厚。胰、脾、扫描野内双肾未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。骨窗示:双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏,以成骨性为主,部分肋骨形态欠规则,略呈膨胀性改变。	1.结合临床,右肺上叶癌侵及脏层胸膜治疗后,较前(2016-5-23)略缩小;骨转移,变化不著2.双侧肾上腺饱满,变化不著。</t>
+  </si>
+  <si>
+    <t>右肺上叶尖段可见软组织密度影,最大截面约0.9CM×1.1CM(纵隔窗),边缘浅分叶可见细毛刺,内缘有长毛刺与纵隔相连,增强扫描呈中等不均匀性强化;余双肺野较清晰,未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。肝脏形态、大小可,实质密度均质。肝内外胆管未见扩张。胆囊充盈可,壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示:双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏,以成骨性为主,部分肋骨形态欠规则,略呈膨胀性改变。	1.结合临床,右肺上叶癌侵及脏层胸膜治疗后,较前(2016-8-18)基本变化不著;多发骨转移,变化不著2.右乳腺体局部密度增高,变化不著。</t>
+  </si>
+  <si>
+    <t>肝脏轮廓光滑,体积正常,肝裂无增宽,肝左外叶可见类圆形稍低密度影,边界欠清,长径约0.95CM,平扫CT值约36HU,增强扫描呈边缘环形强化。肝右下叶见结节样致密影。胆囊形态饱满,壁厚,未见异常密度影。左肾可见类圆形低密度影,界清,径约0.6CM,平扫CT值约31HU,增强扫描未见强化。脾脏、胰腺、右肾形态大小正常范围,未见异常密度影。所示食管下段管壁增厚,管腔狭窄;胃小弯侧见迂曲血管影;肝门区、胃小弯侧、腹膜后较多发小淋巴结影,大者短径约0.9CM。1.肝左叶稍低密度灶,考虑转移瘤,较2016-08-26CT新显示;肝右下叶钙化灶;2.胆囊炎征象;3.左肾稍低密度灶,请结合临床;3.食管癌并肝门区、胃小弯侧、腹膜后淋巴结转移,部分较前略减小。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右肺癌并双肺、肝、骨转移,双侧肾上腺转移,双肺门及纵隔、右侧锁骨上淋巴结转移,腹腔淋巴结稍大;双侧叶间胸膜增厚,转移可能性大2.双肾低密度灶,转移可能,建议观察;双肾囊肿3.肝低密度灶,囊肿可能,建议观察;肝内钙化灶4.左颈内静脉栓子形成5.胆囊结石。右肺上叶支气管壁示增厚,周围见不规则软组织肿块,增强后呈不均匀强化;右肺中叶支气管局部狭窄,远端见不张肺组织。双肺支气管血管束增粗,小叶间隔增厚,以右肺为著。双肺见多发结节灶,部分边缘毛糙,大者长径约1.8CM。双侧叶间胸膜增厚,局部呈类结节状。双侧肺门及纵隔、右侧锁骨上见大者短径约1.3CM肿大淋巴结。另右肺门及纵隔见钙化灶。左侧颈内静脉局部见低密度充盈缺损。肝内见多发强化灶,大者长径约1.2CM。另肝内见小低密度灶,强化不著。肝内见斑点状钙化灶。双侧肾上腺见软组织结节,大者长径约2.0CM,可见强化。双肾见低密度灶,边缘不清,似强化。双肾见囊性结节。胆囊内见结节状高密度影。腹腔及腹膜后见短径约0.6CM小或稍大淋巴结。双侧肩胛骨、胸骨、右侧锁骨、多发肋骨及椎骨示多发骨质破坏。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后2.右肺癌,较前(2016-11-30)进展3.右内乳、右肺门及纵隔淋巴结肿大,考虑转移,部分略饱满;4.右侧胸膜增厚并结节灶,变化不著;双肺多发结节灶,考虑转移5.胆囊炎6.甲状腺左侧叶低密度灶,变化不著7.左侧上颌窦炎8.右侧肾上腺外侧支结节灶,建议观察。右乳术后缺如,术区结构紊乱,周围间隙模糊,未见明确异常强化。左乳及左侧腋窝未见明确异常。右肺尖见不规则软组织密度影,其边缘分叶、模糊,并可见胸膜牵拉征,肿块最大截面约2.3CM×3.4CM;增强扫描呈较显著不均匀强化。右肺上叶及中叶见少许条索状密度增高影。双肺野内见粟粒状结节影。右肺门、右侧内乳、纵隔内2R、3A、4R、7区见多发增大淋巴结,大者短径约1.2CM,增强扫描呈不均匀强化。右侧胸膜局部增厚呈结节状,直径约0.6CM,呈较显著不均匀强化。胆囊充盈好,壁略厚。肝脏密度减低。右侧肾上腺外侧支可见结节影。胰腺、脾、左侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。甲状腺左侧叶见小低密度灶,边缘模糊,直径约0.5CM。左侧上颌窦粘膜增厚。双侧颈后三角区见大者短径约0.5CM小淋巴结。	</t>
+  </si>
+  <si>
+    <t>肝内胆管扩张,胆总管明显增粗,其内可见结节样致密影,大者直径约2.7CM,十二指肠降段肠壁明显增厚,CT值约38HU,增强CT扫描:三期CT值分别为77HU、102HU、80HU,邻近脂肪间隙模糊;肝脏、脾脏、胰腺形态大小正常,内未见异常密度影。双肾多发小圆形未强化结节影;胆囊未见异常。膀胱充盈良好,其内未见异常密度影,双侧输尿管不扩张。子宫未见确切显示;腹膜后未见异常增大的淋巴结影。腹腔内肠管未见异常扩张。右侧肾上腺可见肿块影,大小约4.7CM×3.6CM,CT值约31HU,增强CT扫描:三期CT值分别为100HU、106HU、104HU。盆腔少量液体密度影。1.十二指肠降部占位,考虑恶性肿瘤(间质瘤可能),随诊;2.胆总管结石,并胆系扩张;3.右侧肾上腺占位,考虑恶性,转移可能,嗜铬细胞瘤待除外,请结合临床;4.盆腔少量积液。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后;部分椎体密度增高,考虑转移2.考虑肝囊肿、左肾囊肿3.左肺类结节,右肺少许纤维灶4.肝内强化灶,考虑血管瘤以上较前(2017-2-7)基本变化不著。右乳术后,术区结构紊乱,术区胸壁及皮肤略增厚,局部密度欠均。右侧腋窝结构紊乱。左侧腋窝、双侧内乳区、肺门及纵隔未见增大淋巴结。左肺见小类结节,直径不足0.5CM。右肺见少许索条影。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝脏大小形态可,实质内示低密度影,边界清晰,增强扫描未见强化,直径不足0.5CM。另肝左叶动脉期见一长径约0.7CM强化结节,延迟呈等密度。胆囊不大,壁局部略厚。左肾示小类囊性密度灶。胰腺、右肾、双侧肾上腺及脾未见异常。腹腔及腹膜后未见肿大淋巴结。椎体局部密度增高。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右侧中心型肺癌并阻塞性肺不张治疗后,不张较前(2014-09-24)减少,考虑好转;右肺门及纵隔淋巴结转移,部分变化不著,部分略好转;右胸膜转移,较前好转;骨转移,变化不著;脑转移,较前大小变化不著,部分密度减低,考虑略好转2.右侧胸腔积液,较前减少;心包积液,变化不著3.右肺结节,较前好转4.右侧乳腺术后改变5.肝内钙化灶6.左上颌窦炎症。右肺下叶支气管局部狭窄截断,周围示软组织密度肿块影,其与右肺门肿大淋巴结、不张肺组织分界不清,整体大小约3.8CM×1.8CM,增强后呈不均匀明显强化;邻近右肺野示少许斑片及条索影,牵拉胸膜;余右肺野略示小结节影,不足0.5CM。左肺野较清晰。右侧气管食管沟、腔静脉后、主肺动脉窗区、主动脉弓旁、隆突下、右侧心膈角区及右肺门示增大淋巴结,大者短径约0.5CM。右侧胸膜增厚,略呈小结节状;右侧胸腔内示弧形液体密度影。心包内示少量液体密度影。右侧乳腺术后缺如,术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区及锁骨上区未见明显肿大淋巴结。所扫肝右叶示颗粒状钙化密度影。左侧大脑内示多发结节、肿块影,大者截面约4.0CM×3.0CM,密度不均匀,周围示大片无强化的低密度水肿带,邻近侧脑室局部略示受压变形,增强后病灶呈环形明显强化。中线结构略尚居中。左侧上颌窦内示液体密度影。骨窗:胸骨柄右侧、胸骨下段局部骨质密度不均匀增高。	</t>
+  </si>
+  <si>
+    <t>1.左肺中央型肺癌伴双肺转移、左侧第4-6肋骨转移,左肺下叶不张;2.左侧胸腔积液。左肺下叶基底段可见一软组织肿块影,边界清楚,密度欠均匀,最大层面6.07CM×6.58CM,CT值约47HU。左肺下叶基底段支气管截断。左肺下叶不张。左肺内可见多发团块影,右肺中叶可见一小结节影。纵隔左移,纵隔内可见多发稍大的淋巴结,大者长径约1.88CM。左侧胸腔内可见弧形液性密度影,CT值约66HU。心脏大血管未见异常。左侧第4-6后肋骨质不规整,并可见骨质破坏影。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右乳癌术后;右肺转移治疗后,较前(2016-9-13)基本变化不著;原左肺结节灶,考虑转移,较前缩小;脑转移,较前基本消失不清2.纵隔增大淋巴结,部分略缩小;右肺门淋巴结稍大;左侧锁骨上淋巴结,较前缩小3.肝转移治疗后,较前增大,请结合临床4.左肾囊肿5.右肺少许炎症、纤维灶,基本变化不著;左肺小类结节灶,变化不著6.右侧部分肋骨及部分椎骨略高密度影,变化不著7.双侧胸腔及心包少量积液。右乳术后,术区未见增厚及异常强化征象;右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结,短径不足0.5CM。左侧锁骨上示短径不足0.5CM小淋巴结。右肺上叶示团片状密度增高影,密度较均。左肺下叶示类圆形低密度影,内示斑点状致密影,边界欠清。左肺上叶胸膜下示小类结节灶。余肺内示斑片影及索条影,右肺为著。右肺门及纵隔内示大者短径约0.8CM淋巴结。双侧胸腔及心包见少许液性密度影。肝实质内示多发低密度灶,边缘欠清,部分融合,大者长径约3.4CM,部分内示斑点斑片状致密影。胆胰脾双肾上腺未见明显异常。左肾示囊性密度灶,未见强化。余双肾内示斑片状低密度影。腹腔及腹膜后未见明显增大淋巴结。左侧半卵圆中心区局部密度偏低,未见明确强化灶。脑室系统未见明显异常。中线结构无移位。右侧部分肋骨及部分椎骨示略高密度影。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右肺癌并阻塞性炎症,较前片(2015-3-9)基本变化不著2.双肺多发结节灶,考虑转移,较前部分略增大,部分变化不著3.肝囊肿4.部分胸椎体及肋骨骨质密度增高,变化不著,部分较前范围加大,密度增高,考虑骨转移5.右肾低密度灶,变化不著,建议观察。右肺中叶支气管开口处见一不规则软组织密度肿块影,边缘模糊,病变大小不易测量,增强后可见轻度强化。病变远端示片状肺不张影。双肺见多发结节灶,大者直径约0.5CM。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶,大者直径不足0.5CM。右肾见直径约0.5CM低密度结节灶,未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分胸椎骨质密度增高,右侧第3肋局限性骨质密度增高。	</t>
+  </si>
+  <si>
+    <t>结肠脾曲肠壁增厚,管腔狭窄,浆膜面模糊,近端结肠扩张,内见气液平面。肝内见类圆形水样密度影,大者直径约为2.4CM;肝左内叶可见类圆形低密度影,径约0.8CM,CT值约34HU。脾脏、胰腺、两肾形态大小正常,内未见异常密度影。胆囊未见明显异常。膀胱充盈良好,其内未见异常密度影,双侧输尿管不扩张。前列腺可见片状钙化影。腹膜后未见异常增大的淋巴结影。1、结肠脾曲占位,较前(2013-09-11)新发,考虑结肠癌;结肠梗阻;2、肝内低密度灶,较前新发,考虑转移瘤;肝囊肿;3、前列腺钙化灶。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,直肠癌术后,双肺转移瘤,较前2016-6-9变化不著2.双侧胸膜略增厚,变化不著4.甲状腺低密度灶,变化不著。双肺近胸膜下示多个结节灶及肿块,部分边缘分叶、毛糙,牵拉邻近胸膜,大者位于左肺下叶,长径约3.0CM(纵隔窗),内示小空泡影,增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶,边缘较清晰。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,肝癌介入治疗后;部分病灶仍具活性2.双肺多发结节及类结节灶,转移瘤不能除外,建议密切观察3.肝脏囊肿4.双肺上叶气肿5.双肺上叶纤维灶。肝脏体积增大,形态欠规则,实质内见多发混杂密度结节及肿块影,边界欠清,部分可见假包膜形成,大者截面积约12.8CM×10.0CM;增强扫描呈中度不均匀强化,其内可见低密度坏死区,延迟后病灶部分可见廓清。肝实质内散在斑片状及结节状高密度碘油沉积影。另肝内可见散在囊性密度灶,未见强化。门脉主干及左支显示尚可,门脉右前支示受压显著变窄,右后支显示欠清。胆囊充盈可,壁不厚。胰腺、脾、双肾及双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。双侧肺野内见多发结节及类结节灶,部分与叶间胸膜关系密切,大者直径约0.4CM。双肺上叶见多发泡状过度透亮区及条索状密度增高影。双肺门及纵隔未见明确肿大淋巴结。	</t>
+  </si>
+  <si>
+    <t>右肺下叶前基底段可见一不规则形肿块影,可见分叶,边缘不光滑,可见毛刺,周围可见血管集束征;平扫时CT值约为40HU,增强后呈明显不均匀强化,动脉期、静脉期及平衡期CT值分别约为101HU、78HU及71HU;病灶大小约为3.5CM×2.8CM;远端肺野内可见斑点状高密度影。右肺下叶可见囊状透光影,界清。所示气管支气管未见异常扩张;双肺门区未见异常。纵隔内可见增大淋巴结影,大者短径约为1.5CM;双侧胸腔未见积液征象;心脏及胸腔大血管未见异常密度影。所示甲状腺密度不均匀。1.右肺下叶前基底段肿块影,考虑为周围型肺癌,远端合并少许肺炎;2.支气管炎征象,右肺下叶单发肺大泡;3.右肺门、纵隔淋巴结转移;4.甲状腺密度不均匀,请结合临床。5.右下肺小结节,请随诊。</t>
+  </si>
+  <si>
+    <t>1.左侧肺门区占位,首先考虑恶性肿瘤,双肺多发结节灶,考虑为转移瘤,请结合临床;2.右肺下叶钙化灶;3.双侧胸腔少量积液;腹腔积液;4.心脏改变,请结合临床;5.双侧甲状腺钙化,请结合临床。双肺透过度不均,所示双肺支气管血管束增强、紊乱,管壁增厚,管腔变窄;左侧肺门区可见团块状高密度影,可见分叶征,边缘不光整,密度尚均匀,其内支气管截断,邻近支气管受压,较大层面大小约7.26CM×3.94CM,CT值约58HU。左肺下叶(44)、左肺上叶(30、20)、右肺上叶(25)可见多发磨玻璃密度影及结节影,界清,大者长径约1.36CM;右肺下叶背段(30)可见结节状致密影。右侧肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。双侧胸腔可见少量液体密度影。心影增大,主动脉壁及冠脉走形区可见条片状致密影。所示腹腔内可见大片状液体密度影。所示甲状腺双侧叶钙化影。</t>
+  </si>
+  <si>
+    <t>左肺上叶纵隔旁示一不规则软组织密度结节灶,与纵隔内主肺动脉窗区肿大淋巴结分界不清,与左肺上叶支气管及左肺动脉关系密切。左肺野内见斑片索条状密度增高影,左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧胸腔内可见少许液性密度影及引流管影。左侧心包及左侧心膈角区可见多发结节影,大者长径约1.0CM。	1.结合临床,左肺癌治疗后,较前(2015-11-9)片变化不著,左侧胸膜转移及叶裂转移2.左肺慢性炎症及纤维灶3.左侧少量胸腔积液4.左侧心包及心膈角区结节影,较前增大,考虑转移。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,左肺癌并阻塞性肺不张,较前变化不著2.纵隔淋巴结肿大,考虑转移,较前略缩小3.双肺炎症,较前进展;右肺下叶膨胀不全;右侧胸腔积液4.肝转移,较前略好转5.脾内多发低密度灶,考虑脾梗死6.胆囊炎;胆囊结石6.双肾囊肿7.腹腔及腹膜后多发淋巴结肿大,考虑转移8.腹腔积液,较前增多9.网膜及肠系膜增厚。左肺上叶舌段支气管示截断,其开口区见不规则软组织密度肿块影,边缘模糊,与膨胀不全肺组织分界不清,截面积约2.6CM×2.2CM;增强扫描呈不均匀强化。双肺野透光度减低,双肺野内见条索状密度增高影。纵隔内见肿大淋巴结,大者短径约0.8CM。右侧胸腔内见液性密度影,右肺下叶见弧形膨胀不全肺组织影。肝实质内见多发低密度结节灶及肿块影,部分相互融合,呈斑片状影,增强扫描部分病变呈环形强化,部分病变强化不显著。门脉右前支及右后支局部显示不清。胆囊壁增厚,腔内可见片状高密度影。脾实质内见多发斑片状低密度影,未见强化。双肾见低密度灶。腹腔见液性密度影。腹腔及腹膜后见多发肿大淋巴结,大者短径约1.0CM。网膜及肠系膜示增厚。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合乳癌病史,脑多发转移瘤。2.左上颌窦炎。脑干、双侧大脑及小脑半球见多发大小不等的结节样异常信号,表现为T1WI低、略低信号,T2WI略高、高信号,压水序列高信号,DWI序列低、高信号,增强扫描呈结节样、环形或不均匀强化,大者约1.6CM×2.1CM,部分病变周围脑白质见小片状或片状长T2信号水肿带,四脑室及双侧侧脑室略受压变形。中线结构居中。左上颌窦可见小片状长T2信号区。余未见异常。	</t>
+  </si>
+  <si>
+    <t>右下肺门区可见一直径4.1CM大小的肿块,密度均匀,CT值为15HU,增强后约46、40HU;下叶支气管管腔消失,其周围结构被肿块侵犯。右肺下叶可见斑片影,边界模糊不清。隆突下淋巴结明显增大,短径约2.3。双侧胸腔未见积液征象。1.右下肺中央型肺癌合并阻塞性炎症,纵膈淋巴结转移;2.肺气肿。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,左乳癌术后,左颈部术后2.右肺门及纵隔淋巴结肿大,转移可能性大,请结合前片;肝多发转移3.双肺炎症及纤维灶,双肺类结节,请结合前片4.部分椎体密度稍高,建议观察。左乳术后,术区结构紊乱,胸肌存在,壁未见增厚及异常强化。左颈根部术后,结构紊乱。左侧腋窝结构紊乱。右肺门及纵隔见大者短径约1.1CM肿大淋巴结。左肺门见短径不足0.5CM小淋巴结。双肺见斑片索条影及类结节,边缘不清。扫描野内肝内见大者长径约4.3CM不均匀强化灶。胸腰椎局部密度稍高。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右肺上叶癌侵及脏层胸膜治疗后,较前(2016-10-10)基本变化不著;多发骨转移,变化不著2.右乳腺体局部密度增高,变化不著。右肺上叶尖段可见软组织密度影,最大截面约0.9CM×1.0CM(纵隔窗),边缘浅分叶可见细毛刺,内缘有长毛刺与纵隔相连,增强扫描呈中等不均匀性强化;余双肺野较清晰,未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。肝脏形态、大小可,实质密度均质。肝内外胆管未见扩张。胆囊充盈可,壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示:双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏,以成骨性为主,部分肋骨形态欠规则,略呈膨胀性改变。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.右肺下叶中心型肺癌累及肺门、纵隔并阻塞性肺不张、肺炎;右肺门、纵隔淋巴结转移。2.腹部扫描未见异常。3.双颈部小淋巴结。4.双侧胸膜略增厚。5.右肺上叶钙化灶。6.双肺气肿。右肺下叶支气管周围可见一不规则软组织密度肿块影,约8.0CM×6.8CM,增强扫描呈明显不均匀强化,与其远端不张的肺组织分界不清,远端可见斑片状密度增高影,向内与肺门淋巴结分界不清,与纵隔内软组织及心包、大血管分界不清,余双肺野内散在囊泡状过度透光灶,右肺上叶示一钙化结节灶。右肺门、纵隔内示多发肿大融合的淋巴结影,大者短径约5.4CM。左侧胸膜略示增厚。肝脏大小形态未见异常,肝实质未见异常密度影。胆囊、胰腺、脾、双肾、肾上腺未见异常,腹腔腹膜后未见肿大淋巴结影。各咽壁不厚,双侧颈部II、III区示数个结节灶,大者短径约0.8CM。腮腺及双侧甲状腺未见异常。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">结合临床,右肺癌伴纵隔淋巴结转移,左肾上腺转移右小脑结节灶,考虑转移右额顶部低密度区,必要时进一步检查。右肺上叶前、后段支气管狭窄,后段支气管旁可见软组织密度结节,最大横截面约2.1CM×2.5CM,密度不均,边缘毛糙,增强可见不均匀强化;病灶远端肺野可见少许斑片状影。双下肺可见少量索条。纵隔内腔静脉后间隙、气管隆突下可见增大淋巴结,大者短径1.5CM,不均匀强化。肝实质均质,未见异常密度灶。胆、胰腺、脾及所扫双肾未见异常。左肾上腺区可见一软组织密度肿块,最大横截面约2CM×4CM,不均匀强化。腹腔腹膜后未见明确增大淋巴结。右小脑可见一强化灶,直径约1.5CM,周围可见少许低密度水肿带。右侧额顶部可见片状低密度区,未见明确强化灶。脑室形态可,中线结构居中	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,左肺癌并阻塞性肺不张及炎症,较前2015-11-18好转2.左肺门、纵隔淋巴结转移,右肺门淋巴结肿大,不除外转移,较前好转3.左侧第4肋陈旧性骨折。左肺下叶示软组织肿块影,部分支气管狭窄,远端见少许实变肺组织及斑片状密度增高影,增强扫描病变呈较明显强化,直径约1.6CM。余双侧肺野内可见多发囊泡状过度充气区。纵隔内气管周围、腔静脉后气管前间隙、主肺动脉窗区、隆突下、双肺门示多发增大淋巴结,大者短径约2.6CM。左侧第4肋示陈旧性骨折线形成。	</t>
+  </si>
+  <si>
+    <t>右肺下叶支气管开口处示一不规则软组织密度肿块,截面约3.8CM×3.3CM,边缘分叶,周围示斑片状密度增高影及少许膨胀不全肺组织,与叶间裂关系密切,增强扫描病变呈较显著不均匀强化;病变与右肺门肿大淋巴结分界不清,右肺动静脉局部包绕其中。余双肺示多发斑片条索影及泡状过度透光灶。右肺门及纵隔示多发肿大淋巴结,部分融合,大者短径约1.5CM,可见强化。右侧胸膜略厚;右侧胸腔示少量液体密度影。所扫肝左叶示低密度灶,直径约0.3CM,边缘略模糊,强化不著。双肾示小囊肿。所扫甲状腺内示多发低密度灶及钙化影。部分胸椎骨质密度增高。	1.右肺癌伴阻塞性肺炎、肺不张,右肺门及纵隔淋巴结转移2.双肺炎症及纤维灶、双肺气肿3.右侧胸膜略厚;右侧胸腔少量积液4.肝内低密度灶,考虑小囊肿可能大,建议观察;双肾囊肿5.甲状腺低密度灶、钙化灶,建议观察或进一步检查6.部分胸椎骨质密度增高,观察。</t>
+  </si>
+  <si>
+    <t>1.结合临床,右乳癌术后,纵隔、双肺门淋巴结转移,左肺转移,左肾上腺转移,骨转移2.双肺炎症3.心包积液4.肝囊肿右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内血管前间隙、腔静脉后、弓旁、主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结,大者直径约1.3CM。左肺野示数个结节灶,大者直径约1.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶,直径约1.4CM。胆、胰、脾及扫描野内双肾未见异常。腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示溶骨性骨质破坏。</t>
+  </si>
+  <si>
+    <t>右乳外下象限见一等T1等T2结节影,压脂序列为略高信号,DWI为高信号,大小约1.2CM×1.0CM,边缘毛糙,与邻近皮肤相贴致其略凹陷;增强扫描病灶呈显著强化,时间-信号强度曲线为流出型。左乳增强前后未见明显占位性病灶。右侧腋窝见短径约1.7CM肿大淋巴结。左侧腋窝见大者短径不足0.5CM小淋巴结。右侧侧脑室前角右旁见一约0.3CM×0.6CM的结节状异常信号影,表现为T2WI高信号,压水序列为中心低、边缘高信号,DWI为低信号,增强扫描无强化。余脑实质增强后扫描未见异常信号灶。脑室、池、脑沟裂未见异常。中线结构居中,未见移位。双侧桥小脑角区未见占位性病变。	1.结合病史,考虑右乳癌并同侧腋窝淋巴转移(BI-RADS5级)。2.右侧侧脑室前角右旁梗死灶。</t>
+  </si>
+  <si>
+    <t>左肺上叶示一不规则软组织密度灶,大小约2.1CM×2.9CM,边缘分叶,可见强化。左侧胸膜及叶间胸膜示多发结节灶,可见强化。左侧胸腔示液体密度影。左肺门、纵隔内示数个肿大淋巴结,大者短径约1.0CM。前纵隔胸腺区示类囊性密度灶,直径约2.0CM,边界清,无强化。左侧第七后肋呈溶骨性骨质破坏,局部形成软组织密度肿块。	1.左肺上叶癌,左侧胸膜转移,左肺门、纵隔淋巴结转移,骨转移2.左侧胸腔积液3.前纵隔占位,不除外胸腺囊肿,建议观察。</t>
+  </si>
+  <si>
+    <t>右肺门支气管开口处示一软组织密度肿块,约1.9CM×2.9CM,密度不均,边缘分叶毛糙,增强呈较均匀强化。双肺野内散在磨玻璃影及类结节灶,以上叶为著。双肺门示增大淋巴结,大者直径约0.8CM。双侧胸腔未见积液征象。右侧斜裂胸膜示类结节灶。肝、胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。	1.右肺癌,双肺门淋巴结略增大;右侧斜裂胸膜类结节灶,考虑转移2.右肺上叶纤维灶及磨玻璃灶,建议观察3.上腹扫描未见异常。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,左乳癌术后改变;考虑多发骨转移2.肝转移。左乳术后,术区见高密度银夹影,未见结节及异常强化灶。右腋窝示小淋巴结,短径约0.3CM。双侧内乳区、左侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰,肺纹理分布自然,气管及各级支气管通畅。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝实质内示多发低密度灶,边缘模糊,大者直径约1.1CM。胆、胰、脾、双肾及双侧肾上腺未见异常。腹腔及腹膜后未见增大淋巴结。骨窗:部分腰椎、胸椎见多发骨质破坏。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.结合临床,右肺癌并右肺下叶炎症,较前片2016-09-20基本变化不著;右肺类结节,变化不著;右肺门、纵隔淋巴结转移治疗后,较前变化不著。2.右侧胸膜略增厚,变化不著3.肝内钙化灶。4.T12右侧椎弓根密度增高影,变化不著。5.颅脑扫描未见明显异常。6.心脏体积增大;冠脉钙化。右肺下叶见不规则斑片状软组织影,边缘毛糙,大小不易测量,增强后中度强化;其远端肺野见斑片状及索条状密度增高影。右肺见小类结节灶,边缘模糊,直径不足0.5CM。左肺野清晰。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结,大者短径不足1.0CM,部分增强后强化显著。右侧胸膜略增厚。心脏体积增大,冠脉可见钙化。肝内强化不均质,肝右叶见一斑点状钙化灶。胆胰脾肾上腺及双肾未见异常。肝胃韧带区见短径不足0.5CM小淋巴结。脑实质密度均匀。T12右侧椎弓根示斑片状密度增高影。	</t>
+  </si>
+  <si>
+    <t>左乳术后,术区结构紊乱,未见结节及肿块。左侧腋窝结构紊乱。右乳未见异常。左侧内乳见增大淋巴结,短径约0.8CM。左侧腋窝、双侧肺门及纵隔未见增大淋巴结。右侧水平裂区(3-21)见一类结节灶,直径约0.2CM。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝实质内见多发低密度结节及肿块,大者直径约3.8CM,边缘略模糊,其密度不均。胆囊充盈可,壁不厚。胰脾、双侧肾上腺及双肾未见异常。腹腔内肝总动脉见短径约0.6CM小淋巴结。腹膜后未见增大淋巴结。	1.结合临床,左乳癌术后改变;左侧内乳淋巴结肿大,较前(2014-7-4)变化不著2.肝转移,较前大部分变化不著,部分略增大。</t>
   </si>
 </sst>
 </file>
